--- a/include/BSCS.xlsx
+++ b/include/BSCS.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="345">
   <si>
     <t xml:space="preserve">MONDAY</t>
   </si>
@@ -432,7 +432,7 @@
     <t xml:space="preserve">Lab-1</t>
   </si>
   <si>
-    <t xml:space="preserve">COAL Lab-E              Sumayya</t>
+    <t xml:space="preserve">COAL Lab-E              Sumayya  </t>
   </si>
   <si>
     <t xml:space="preserve">Wp-GR2                              Dr. Farooque</t>
@@ -444,33 +444,33 @@
     <t xml:space="preserve">Lab-3</t>
   </si>
   <si>
+    <t xml:space="preserve">DB-Lab E              Mahrukh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS Lab- Gr3(E,F,G)                  Ali shah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOAD-Lab B      Majid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE Lab-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOAD-Lab F      Awais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB-Lab D             Ammara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE Lab 9</t>
+  </si>
+  <si>
     <t xml:space="preserve">COAL Lab-F                  Sehrish</t>
   </si>
   <si>
-    <t xml:space="preserve">OS Lab- Gr3(E,F,G)                  Ali shah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOAD-Lab F      Awais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EE Lab-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOAD-Lab B      Majid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB-Lab D             Ammara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EE Lab 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB-Lab E              Mahrukh</t>
-  </si>
-  <si>
     <t xml:space="preserve">EE MPI Lab</t>
   </si>
   <si>
@@ -528,6 +528,9 @@
     <t xml:space="preserve">ITC-D                                  Javeria                                              </t>
   </si>
   <si>
+    <t xml:space="preserve">COAL-D                Mahwish</t>
+  </si>
+  <si>
     <t xml:space="preserve">DLD-Gr1                      Bahraj</t>
   </si>
   <si>
@@ -540,429 +543,426 @@
     <t xml:space="preserve">SE-GR1                 Abdul rehman</t>
   </si>
   <si>
+    <t xml:space="preserve">SE-GR2                                 Abdul rehman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete-H                              Shoaib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete-G                              Shoaib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete-A                                  Shoaib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-GR1                                       Dr. Sufian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-GR1                                          Dr. Sufian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD-GR1                                 Dr. Jawwad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB-B     Tania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wp-GR2                        Dr. Farooque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wp-GR1                              Dr. Farooque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioInfo-GR1                 M. Shahzad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wp-GR2                                       Dr. Farooque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP-GR1                 Shahbaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPM-GR1                                       Ubaid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPM-GR1                 Ubaid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE-C                                     Adeel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAL-F                                Nadeem Kafi            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAL-C                Nadeem Kafi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE-G                                     Ahsan sunny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAL-A                                 Nadeem Kafi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAL-H                              Danish     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA-C                                                                         Dr. Fahad Riaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA-A                                                                                  Dr. Fahad Riaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA-E                                                                                           Dr. Fahad Riaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOAD-E                           Faiza Sattar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algo-B                           Subash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algo-D                           Subash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algo-E                           Subash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOAD-F                           Faiza Sattar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENG-B2                                                 Sameera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAL I-A                         Dr. Sadaqat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAL I-B                                       Dr. Sadaqat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB-F                                        Ahsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAL I-G                  Abdul Basit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENG-G2                                                    Faiza Mumtaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAL Lab-A                Zain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOAD-Lab C      Nadeem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS Lab- Gr2(C,D)                  Ali shah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioInfo-GR1                             M. Shahzad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB-Lab A              Basit ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAL Lab-B               Sehrish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB-Lab B             Mahrukh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB-Lab F              Ammara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAL Lab-G                Sumayya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOAD-Lab G      Majid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN Lab Gr1     Awais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENG-F2                                                   Nasir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEDNESDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRTM-GR1                                      M. Rafi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN-Gr1                                            Dr. Sufian              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete-C               Nouman Durrani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete-E                           Nouman Durrani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete-F                            Nouman Durrani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete-A                             Shoaib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete-H                                 Shoaib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete-D                                    Dr. Fahad Samad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete-B                               Dr. Fahad Samad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIT-E                             Shaharbano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dp-GR2                                   Dr. Zulfiqar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dp-GR1                                    Dr. Zulfiqar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCI-A                               Behraj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCI-F                                            Behraj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dsci-GR1                                     Dr. Zeeshan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bcomm-I Gr1(A,B,C,D)  Sameera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bcomm-I Gr2(E,F,G,H)  Sameera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB-C                                     Dr. Zeeshan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM Gr1 (A,B,C)    Tuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM Gr2 (D,E,F,G)    Tuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA-B                                                                                  Dr. Faqiha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM Gr1(A,B,C)                                         Asiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM Gr2(D,E,F)                                                           Asiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA-G                                                                                    Dr. Faqiha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cal-II-Gr1(A,B,C,D)                    Dr. Khusro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cal-II-Gr2(E,F,G,H)                       Dr. Khusro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIS-Gr1      Ahsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRS-A                                            Shahzad Sheikh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eng comp-Gr1                                             Tuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL-Gr1                        Shahzad Sheikh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAL I-F                               Ashhad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME-Gr1   Micheal    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prob &amp; Stats-Gr1   Abdul Basit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAL I-A                                      Dr. Sadaqat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR-Gr1      Abdul Basit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psych-Gr1(A,B,C,D)  Sumaira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psych-Gr2(E,F,G,H)  Sumaira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socio-Gr1      Sumaira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP Lab-C=(D,E,F)     (C1+C2)    Rahemeen &amp; Mahrukh      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS Lab- Gr1(A,B)                  Ali shah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITC-Lab A(A1+A2)        Maham &amp; Muneem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOAD-Lab D      Majid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-Lab C(E,F1)     Abdul Aziz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOAD-Lab E      Awais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-Lab E(H)                      Faizan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB-Lab G              Ammara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITC-Lab B(B1+B2)        Farah &amp; Mubashra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THURSDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB-E                                      Tania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB-B                                      Tania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB-A                                          Tania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algo-A                           Dr. Atif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioInfo-GR1                       M. Shahzad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA-Gr1                                    M. Shahzad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOAD-F                           Faiza sattar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOAD-E                           Faiza sattar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB-C                                                             Dr. Zeeshan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAL-B                                                 Mahwish    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAL-D                                                               Mahwish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRTM-GR1                                    M. Rafi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD-GR1                                      Nauman Atique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM Gr2 (D,E,F,G)                  Tuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB-F    Ahsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPM-GR1                                    Ubaid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM Gr1 (A,B,C)                     Tuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE-B                                    Kanwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE-D                                     Kanwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA-B                                                        Dr. Faqiha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA-C                                      Dr. Fahad Riaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA-E                                               Dr. Fahad Riaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA-A                                               Dr. Fahad Riaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM Gr1(A,B,C)                       Asiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM Gr2(D,E,F)                                  Asiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cal-II-Gr1(A,B,C,D)                   Dr. Khusro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA-F                                        Jamil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psych-Gr2(E,F,G,H)                     Sumaira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socio-Gr1         Sumaira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA-D                                          Jamil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITC-Lab C(C1+C2)                   Maham&amp; Muneem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITC-Lab D(D1+D2)        Farah &amp; Mubashra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-Lab A(A,B)           Abdul Aziz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD-GR1                                  Dr. Jawwad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITC-Lab G(G1+G2)        Safia &amp; Maham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAL Lab-D    Sehrish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-Lab D(F2,G)    Faizan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP Lab-A=(A,G,H)           (A1+A2) Rahemeen &amp; Basit         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAL Lab-H             Sumayya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOAD-Lab A      Nadeem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRIDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN-Gr1                                             Dr. Sufian                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUMMA PRAYER</t>
+  </si>
+  <si>
     <t xml:space="preserve">SE-GR1                                  Abdul rehman</t>
   </si>
   <si>
-    <t xml:space="preserve">Discrete-H                              Shoaib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discrete-G                              Shoaib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discrete-A                                  Shoaib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NS-GR1                                       Dr. Sufian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NS-GR1                                          Dr. Sufian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BD-GR1                                 Dr. Jawwad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB-B     Tania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wp-GR2                        Dr. Farooque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wp-GR1                              Dr. Farooque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COAL-D                Mahwish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BioInfo-GR1                 M. Shahzad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wp-GR2                                       Dr. Farooque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP-GR1                 Shahbaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPM-GR1                                       Ubaid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPM-GR1                 Ubaid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-C                                     Adeel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COAL-F                                Nadeem Kafi            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COAL-C                Nadeem Kafi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-G                                     Ahsan sunny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COAL-A                                 Nadeem Kafi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COAL-H                              Danish     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA-C                                                                         Dr. Fahad Riaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA-A                                                                                  Dr. Fahad Riaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA-E                                                                                           Dr. Fahad Riaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOAD-E                           Faiza Sattar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algo-B                           Subash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algo-D                           Subash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algo-E                           Subash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOAD-F                           Faiza Sattar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENG-B2                                                 Sameera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAL I-A                         Dr. Sadaqat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRS-A                                            Shahzad Sheikh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAL I-G                  Abdul Basit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAL I-B                                       Dr. Sadaqat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB-F                                        Ahsan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENG-G2                                                    Faiza Mumtaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COAL Lab-B                                                                                                                 Sehrish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COAL Lab-G                                                                                                                     Sumayya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COAL Lab-A                                                                                                                  Zain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BioInfo-GR1                             M. Shahzad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB-Lab A              Basit ali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS Lab- Gr2(C,D)                  Ali shah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOAD-Lab C      Nadeem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB-Lab F              Ammara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB-Lab B             Mahrukh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOAD-Lab G      Majid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN Lab Gr1     Awais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENG-F2                                                   Nasir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEDNESDAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRTM-GR1                                      M. Rafi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discrete-D                                    Dr. Fahad Samad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN-Gr1                                            Dr. Sufian              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discrete-B                               Dr. Fahad Samad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discrete-C               Nouman Durrani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discrete-E                           Nouman Durrani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discrete-F                            Nouman Durrani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discrete-A                             Shoaib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discrete-H                                 Shoaib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIT-E                             Shaharbano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dp-GR2                                   Dr. Zulfiqar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dp-GR1                                    Dr. Zulfiqar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCI-A                               Behraj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCI-F                                            Behraj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dsci-GR1                                     Dr. Zeeshan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bcomm-I Gr1(A,B,C,D)  Sameera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bcomm-I Gr2(E,F,G,H)  Sameera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB-C                                     Dr. Zeeshan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM Gr1 (A,B,C)    Tuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM Gr2 (D,E,F,G)    Tuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA-B                                                                                  Dr. Faqiha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM Gr1(A,B,C)                                         Asiya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM Gr2(D,E,F)                                                           Asiya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA-G                                                                                    Dr. Faqiha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cal-II-Gr1(A,B,C,D)                    Dr. Khusro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cal-II-Gr2(E,F,G,H)                       Dr. Khusro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIS-Gr1      Ahsan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eng comp-Gr1                                             Tuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AL-Gr1                        Shahzad Sheikh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAL I-F                               Ashhad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ME-Gr1   Micheal    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prob &amp; Stats-Gr1   Abdul Basit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAL I-A                                      Dr. Sadaqat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR-Gr1      Abdul Basit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psych-Gr1(A,B,C,D)  Sumaira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psych-Gr2(E,F,G,H)  Sumaira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socio-Gr1      Sumaira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP Lab-C=(D,E,F)     (C1+C2)    Rahemeen &amp; Mahrukh      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS Lab- Gr1(A,B)                  Ali shah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS-Lab E(H)                      Faizan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOAD-Lab D      Majid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS-Lab C(E,F1)     Abdul Aziz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB-Lab G              Ammara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC-Lab A(A1+A2)        Maham &amp; Muneem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOAD-Lab E      Awais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC-Lab B(B1+B2)        Farah &amp; Mubashra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THURSDAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB-E                                      Tania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB-B                                      Tania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB-A                                          Tania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algo-A                           Dr. Atif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BioInfo-GR1                       M. Shahzad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA-Gr1                                    M. Shahzad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOAD-F                           Faiza sattar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOAD-E                           Faiza sattar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB-C                                                             Dr. Zeeshan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRTM-GR1                                    M. Rafi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD-GR1                                      Nauman Atique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM Gr2 (D,E,F,G)                  Tuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB-F    Ahsan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPM-GR1                                    Ubaid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM Gr1 (A,B,C)                     Tuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-B                                    Kanwal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-D                                     Kanwal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COAL-B                                                 Mahwish    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COAL-D                                                               Mahwish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA-B                                                        Dr. Faqiha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA-C                                      Dr. Fahad Riaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA-E                                               Dr. Fahad Riaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA-A                                               Dr. Fahad Riaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM Gr1(A,B,C)                       Asiya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM Gr2(D,E,F)                                  Asiya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cal-II-Gr1(A,B,C,D)                   Dr. Khusro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA-F                                        Jamil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psych-Gr2(E,F,G,H)                     Sumaira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socio-Gr1         Sumaira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA-D                                          Jamil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC-Lab C(C1+C2)                   Maham&amp; Muneem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC-Lab D(D1+D2)        Farah &amp; Mubashra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS-Lab A(A,B)           Abdul Aziz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BD-GR1                                  Dr. Jawwad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC-Lab G(G1+G2)        Safia &amp; Maham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COAL Lab-D    Sehrish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COAL Lab-H                                                                                                                                Sumayya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP Lab-A=(A,G,H)           (A1+A2) Rahemeen &amp; Basit         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS-Lab D(F2,G)    Faizan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOAD-Lab A      Nadeem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRIDAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN-Gr1                                             Dr. Sufian                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUMMA PRAYER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE-GR2                                 Abdul rehman</t>
-  </si>
-  <si>
     <t xml:space="preserve">COAL-E                                                        Danish</t>
   </si>
   <si>
@@ -972,31 +972,31 @@
     <t xml:space="preserve">COAL-G                                                 Danish</t>
   </si>
   <si>
+    <t xml:space="preserve">Discrete-G                                                       Shoaib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete-A                                                         Shoaib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete-H                                                Shoaib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB-D                                     Ahsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA-Gr1                                M. Shahzad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA-Gr1                                          M. Shahzad</t>
+  </si>
+  <si>
     <t xml:space="preserve">COAL-A                                                   Nadeem Kafi</t>
   </si>
   <si>
-    <t xml:space="preserve">Discrete-G                                                       Shoaib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discrete-H                                                Shoaib</t>
-  </si>
-  <si>
     <t xml:space="preserve">COAL-C                                                               Nadeem Kafi</t>
   </si>
   <si>
     <t xml:space="preserve">COAL-F                                                           Nadeem Kafi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discrete-A                                                         Shoaib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB-D                                     Ahsan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA-Gr1                                M. Shahzad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA-Gr1                                          M. Shahzad</t>
   </si>
   <si>
     <t xml:space="preserve">OOAD-C                            Faiza sattar</t>
@@ -1072,7 +1072,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1106,12 +1106,6 @@
       <b val="true"/>
       <sz val="16"/>
       <name val="Arial Narrow"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1212,6 +1206,19 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1288,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1452,30 +1459,23 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+      <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1493,8 +1493,8 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
+      <left style="medium"/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -1521,6 +1521,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -1532,6 +1539,27 @@
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1579,7 +1607,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="196">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1592,59 +1620,47 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1652,11 +1668,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1668,15 +1684,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1684,15 +1696,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1700,7 +1712,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1716,7 +1728,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1740,15 +1752,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1760,15 +1772,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1776,11 +1788,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1792,11 +1804,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1804,59 +1812,55 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1864,11 +1868,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1876,19 +1884,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1896,7 +1900,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1908,11 +1912,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1920,7 +1924,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1928,7 +1936,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1936,11 +1948,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1948,55 +1956,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2004,11 +2012,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2016,52 +2024,52 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2072,7 +2080,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2084,7 +2092,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2096,75 +2108,83 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="9" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2172,27 +2192,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2204,16 +2224,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2224,31 +2256,55 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2256,87 +2312,83 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2420,12 +2472,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="50" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2454,695 +2506,667 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="J2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="13" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="16" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="19" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="22"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="34"/>
-      <c r="E11" s="13" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="30"/>
+      <c r="E11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="20" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="29" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="32" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="36" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="32" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="32" t="s">
+      <c r="G15" s="14"/>
+      <c r="H15" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="22"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="41" t="s">
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="28" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="22"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="32" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45" t="s">
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="22"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="19" t="s">
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="J20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="19" t="s">
+      <c r="G21" s="14"/>
+      <c r="H21" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="22"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="50" t="s">
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="22"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="55" t="s">
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="22"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58" t="s">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="22"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="22"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="36" t="s">
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="22"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="22"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="58"/>
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="67" t="s">
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="22"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="36" t="s">
+      <c r="B30" s="62"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="22"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="50" t="s">
+      <c r="D31" s="64"/>
+      <c r="E31" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="I31" s="71" t="s">
+      <c r="I31" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="J31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3205,638 +3229,638 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="n">
+      <c r="B2" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="73" t="n">
+      <c r="C2" s="67" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="73" t="n">
+      <c r="D2" s="67" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="73" t="n">
+      <c r="E2" s="67" t="n">
         <v>4</v>
       </c>
-      <c r="F2" s="73" t="n">
+      <c r="F2" s="67" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="73" t="n">
+      <c r="G2" s="67" t="n">
         <v>6</v>
       </c>
-      <c r="H2" s="73" t="n">
+      <c r="H2" s="67" t="n">
         <v>7</v>
       </c>
-      <c r="I2" s="73" t="n">
+      <c r="I2" s="67" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="68" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="79" t="s">
+      <c r="E5" s="74"/>
+      <c r="F5" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="82"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="E6" s="32" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="G6" s="79"/>
+      <c r="H6" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="86"/>
+      <c r="I6" s="81"/>
     </row>
     <row r="7" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="24" t="s">
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="H7" s="79"/>
+      <c r="I7" s="41" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="85" t="s">
+      <c r="C8" s="82"/>
+      <c r="D8" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="85" t="s">
+      <c r="F8" s="39"/>
+      <c r="G8" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="88"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="41" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="89" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="90" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="B9" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="C9" s="78"/>
+      <c r="D9" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="F9" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="91"/>
+      <c r="I9" s="84"/>
     </row>
     <row r="10" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="92" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="16" t="s">
+      <c r="E10" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="I10" s="88"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="I10" s="86"/>
     </row>
     <row r="11" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="I11" s="33" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="17" t="s">
         <v>175</v>
       </c>
+      <c r="I11" s="29" t="s">
+        <v>176</v>
+      </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="32" t="s">
+      <c r="D12" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="32" t="s">
+      <c r="E12" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="92" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="F13" s="79"/>
+      <c r="G13" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="H13" s="84"/>
-      <c r="I13" s="45" t="s">
-        <v>46</v>
-      </c>
+      <c r="H13" s="78"/>
+      <c r="I13" s="87"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="20" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="G14" s="95"/>
-      <c r="H14" s="85" t="s">
+      <c r="G14" s="89"/>
+      <c r="H14" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="I14" s="96" t="s">
+      <c r="I14" s="90" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="78"/>
+      <c r="D15" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="85" t="s">
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="41" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="91" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="38" t="s">
+      <c r="F16" s="92"/>
+      <c r="G16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="36" t="s">
+      <c r="H16" s="78"/>
+      <c r="I16" s="32" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="79"/>
+      <c r="C17" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="84"/>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="78"/>
+      <c r="E17" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="98"/>
-      <c r="H17" s="16" t="s">
+      <c r="F17" s="92"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="I17" s="88"/>
+      <c r="I17" s="86"/>
     </row>
     <row r="18" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="I18" s="99"/>
+      <c r="I18" s="93"/>
     </row>
     <row r="19" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85" t="s">
+      <c r="E19" s="78"/>
+      <c r="F19" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="G19" s="85" t="s">
+      <c r="G19" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="85" t="s">
+      <c r="H19" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="I19" s="96" t="s">
+      <c r="I19" s="94"/>
+    </row>
+    <row r="20" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="I20" s="86"/>
+    </row>
+    <row r="21" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="78"/>
+      <c r="D21" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" s="80" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="100" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="85" t="s">
-        <v>202</v>
-      </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="85" t="s">
-        <v>203</v>
-      </c>
-      <c r="H20" s="85" t="s">
-        <v>204</v>
-      </c>
-      <c r="I20" s="88"/>
-    </row>
-    <row r="21" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="101" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="32" t="s">
+      <c r="I21" s="97" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="98" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="100"/>
+      <c r="E22" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="F21" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="102"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="103" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="104" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="105"/>
-      <c r="E22" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" s="104" t="s">
+      <c r="G22" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="101" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+    </row>
+    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="102" t="s">
         <v>206</v>
       </c>
-      <c r="G22" s="104" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="104" t="s">
-        <v>158</v>
-      </c>
-      <c r="I22" s="106" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-    </row>
-    <row r="24" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="100" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="107" t="s">
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="109" t="s">
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+    </row>
+    <row r="25" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-    </row>
-    <row r="25" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" s="110" t="s">
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="F25" s="20" t="s">
+      <c r="G25" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="106" t="s">
         <v>211</v>
       </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-    </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="111" t="s">
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="36" t="s">
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+    </row>
+    <row r="27" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-    </row>
-    <row r="27" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="112" t="s">
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="36" t="s">
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+    </row>
+    <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-    </row>
-    <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="112" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="111"/>
+    </row>
+    <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="112"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="115"/>
-    </row>
-    <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="116"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="33" t="s">
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+    </row>
+    <row r="30" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-    </row>
-    <row r="30" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="104" t="s">
-        <v>126</v>
-      </c>
-      <c r="H30" s="104" t="s">
-        <v>218</v>
-      </c>
-      <c r="I30" s="106" t="s">
+      <c r="I30" s="101" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3899,640 +3923,643 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="66" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+    </row>
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="67" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="67" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="67" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="67" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" s="67" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" s="67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+    </row>
+    <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="79"/>
+      <c r="D5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="79"/>
+      <c r="H5" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="94"/>
+    </row>
+    <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="85" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-    </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="73" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="73" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" s="73" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" s="73" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" s="73" t="n">
-        <v>6</v>
-      </c>
-      <c r="H2" s="73" t="n">
-        <v>7</v>
-      </c>
-      <c r="I2" s="73" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-    </row>
-    <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="118" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="93"/>
-      <c r="H5" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="120"/>
-    </row>
-    <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="92" t="s">
+      <c r="C7" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="16" t="s">
+      <c r="H7" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="94"/>
+    </row>
+    <row r="8" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="78"/>
+      <c r="F8" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="117"/>
+      <c r="M8" s="79"/>
+    </row>
+    <row r="9" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="118" t="s">
         <v>221</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="20" t="s">
+      <c r="C9" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="H7" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="45" t="s">
+      <c r="E9" s="13" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="122"/>
-      <c r="M8" s="93"/>
-    </row>
-    <row r="9" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="123" t="s">
+      <c r="F9" s="78"/>
+      <c r="G9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="117"/>
+    </row>
+    <row r="10" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="119"/>
+      <c r="C10" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="D10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F10" s="78"/>
+      <c r="G10" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="78"/>
+      <c r="I10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="120"/>
+    </row>
+    <row r="11" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="122"/>
-    </row>
-    <row r="10" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="16" t="s">
+      <c r="C11" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="D11" s="78"/>
+      <c r="E11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="125"/>
-    </row>
-    <row r="11" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="84"/>
-      <c r="H11" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="33" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="79"/>
+      <c r="C12" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="124"/>
-      <c r="C12" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="E12" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="I12" s="86"/>
+      <c r="P12" s="120"/>
+    </row>
+    <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="79"/>
+      <c r="G13" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="I12" s="88"/>
-      <c r="P12" s="125"/>
-    </row>
-    <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="90" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="20" t="s">
+      <c r="I13" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="O13" s="120"/>
+    </row>
+    <row r="14" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="122" t="s">
         <v>233</v>
       </c>
-      <c r="O13" s="125"/>
-    </row>
-    <row r="14" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="126" t="s">
+      <c r="C14" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="123"/>
+      <c r="E14" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="127"/>
-      <c r="E14" s="24" t="s">
+      <c r="F14" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="G14" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="H14" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="I14" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="I14" s="36" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="118" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="123" t="s">
+      <c r="C15" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="123"/>
+      <c r="E15" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="127"/>
-      <c r="E15" s="24" t="s">
+      <c r="F15" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="G15" s="89"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="G15" s="95"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="45" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="79"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="20" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="24" t="s">
+      <c r="F16" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="G16" s="108"/>
+      <c r="H16" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" s="90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="124"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="79"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="G16" s="102"/>
-      <c r="H16" s="85" t="s">
-        <v>186</v>
-      </c>
-      <c r="I16" s="96" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="36" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="80" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="F18" s="85" t="s">
+      <c r="F18" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="G18" s="102"/>
-      <c r="H18" s="85" t="s">
+      <c r="G18" s="108"/>
+      <c r="H18" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="32" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="127"/>
-      <c r="E19" s="85" t="s">
+      <c r="D19" s="123"/>
+      <c r="E19" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85" t="s">
+      <c r="F19" s="78"/>
+      <c r="G19" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="129"/>
-      <c r="I19" s="36" t="s">
+      <c r="H19" s="125"/>
+      <c r="I19" s="32" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="85" t="s">
+      <c r="D20" s="108"/>
+      <c r="E20" s="80" t="s">
         <v>252</v>
       </c>
-      <c r="F20" s="85" t="s">
+      <c r="F20" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" s="108"/>
+      <c r="H20" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="G20" s="102"/>
-      <c r="H20" s="85" t="s">
-        <v>203</v>
-      </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="32" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="24" t="s">
+      <c r="D21" s="108"/>
+      <c r="E21" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="G21" s="102"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="36" t="s">
+      <c r="G21" s="108"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="32" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="130"/>
-      <c r="E22" s="104" t="s">
+      <c r="D22" s="126"/>
+      <c r="E22" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="105"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="106" t="s">
+      <c r="F22" s="100"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="101" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="131"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="109" t="s">
+      <c r="B24" s="127"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="129" t="s">
         <v>257</v>
       </c>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="129"/>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="133"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="134" t="s">
+      <c r="B25" s="130"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="131" t="s">
         <v>258</v>
       </c>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="135" t="s">
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="132" t="s">
         <v>259</v>
       </c>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="133"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="32" t="s">
+      <c r="B26" s="130"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="136" t="s">
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="133" t="s">
         <v>261</v>
       </c>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="32" t="s">
+      <c r="B27" s="79"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="137" t="s">
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="134" t="s">
         <v>263</v>
       </c>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="133"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="32" t="s">
+      <c r="B28" s="130"/>
+      <c r="C28" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="115"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="111"/>
     </row>
     <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="116"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="137" t="s">
+      <c r="B29" s="135"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="132" t="s">
         <v>265</v>
       </c>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
     </row>
     <row r="30" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="104" t="s">
+      <c r="B30" s="136"/>
+      <c r="C30" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="130"/>
-      <c r="E30" s="104" t="s">
+      <c r="D30" s="126"/>
+      <c r="E30" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="F30" s="104" t="s">
+      <c r="F30" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="G30" s="139"/>
-      <c r="H30" s="104" t="s">
-        <v>218</v>
-      </c>
-      <c r="I30" s="106" t="s">
+      <c r="G30" s="137"/>
+      <c r="H30" s="99" t="s">
+        <v>217</v>
+      </c>
+      <c r="I30" s="101" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4546,9 +4573,9 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="D27:F27"/>
     <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="C28:E28"/>
     <mergeCell ref="G29:I29"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
@@ -4591,612 +4618,612 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="n">
+      <c r="B2" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="73" t="n">
+      <c r="C2" s="67" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="73" t="n">
+      <c r="D2" s="67" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="73" t="n">
+      <c r="E2" s="67" t="n">
         <v>4</v>
       </c>
-      <c r="F2" s="73" t="n">
+      <c r="F2" s="67" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="73" t="n">
+      <c r="G2" s="67" t="n">
         <v>6</v>
       </c>
-      <c r="H2" s="73" t="n">
+      <c r="H2" s="67" t="n">
         <v>7</v>
       </c>
-      <c r="I2" s="73" t="n">
+      <c r="I2" s="67" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="68" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="139" t="s">
         <v>267</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="75"/>
+      <c r="F5" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="142" t="s">
+      <c r="I5" s="140" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="78"/>
+      <c r="E6" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="29" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="I7" s="143"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="I7" s="141"/>
     </row>
     <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="79"/>
+      <c r="D8" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="20" t="s">
+      <c r="E8" s="78"/>
+      <c r="F8" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="I8" s="88"/>
+      <c r="I8" s="86"/>
     </row>
     <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="32" t="s">
+      <c r="D9" s="78"/>
+      <c r="E9" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="145"/>
+      <c r="G9" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="I9" s="143"/>
     </row>
     <row r="10" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="E10" s="38" t="s">
+      <c r="D10" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="F10" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="20" t="s">
+      <c r="F10" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="119"/>
+      <c r="C11" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="20" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="29" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="78"/>
+      <c r="F12" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="79"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="86"/>
+    </row>
+    <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="92"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="117"/>
+    </row>
+    <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="144"/>
+      <c r="C14" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="109"/>
+      <c r="E14" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="145"/>
+      <c r="G14" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="146" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="125"/>
+      <c r="E15" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="E12" s="84"/>
-      <c r="F12" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="G12" s="93"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="88"/>
-    </row>
-    <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="122"/>
-    </row>
-    <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="147"/>
-      <c r="G14" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="36" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="148" t="s">
-        <v>282</v>
-      </c>
-      <c r="C15" s="85" t="s">
-        <v>283</v>
-      </c>
-      <c r="D15" s="129"/>
-      <c r="E15" s="24" t="s">
+      <c r="F15" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>246</v>
+      <c r="I15" s="32" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="16" t="s">
+      <c r="B16" s="79"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="88"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="86"/>
     </row>
     <row r="17" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="D17" s="84"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="16" t="s">
+      <c r="D17" s="78"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="32" t="s">
+      <c r="G17" s="78"/>
+      <c r="H17" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="32" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="38" t="s">
+      <c r="D18" s="108"/>
+      <c r="E18" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="H18" s="95"/>
-      <c r="I18" s="36" t="s">
+      <c r="H18" s="89"/>
+      <c r="I18" s="32" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="149"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="38" t="s">
+      <c r="B19" s="147"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="F19" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="G19" s="95"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="36" t="s">
+      <c r="F19" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19" s="89"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="32" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="124"/>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="119"/>
+      <c r="C20" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="D20" s="150" t="s">
+      <c r="D20" s="148" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="G20" s="102"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="36" t="s">
+      <c r="G20" s="108"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="32" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="151" t="s">
+      <c r="A21" s="149" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="45" t="s">
+      <c r="E21" s="78"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="41" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="119" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="85" t="s">
+      <c r="C22" s="115" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="105"/>
-      <c r="F22" s="104" t="s">
+      <c r="E22" s="100"/>
+      <c r="F22" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="104" t="s">
+      <c r="G22" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="104" t="s">
+      <c r="H22" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="106" t="s">
+      <c r="I22" s="101" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" s="152" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="75" t="s">
+    <row r="23" s="150" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-    </row>
-    <row r="24" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="73" t="s">
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+    </row>
+    <row r="24" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="153" t="s">
+      <c r="B24" s="151" t="s">
         <v>297</v>
       </c>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="154" t="s">
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="152" t="s">
         <v>183</v>
       </c>
-      <c r="F24" s="132"/>
-      <c r="G24" s="155" t="s">
+      <c r="F24" s="128"/>
+      <c r="G24" s="153" t="s">
         <v>298</v>
       </c>
-      <c r="H24" s="155"/>
-      <c r="I24" s="155"/>
-    </row>
-    <row r="25" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="73" t="s">
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+    </row>
+    <row r="25" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="154" t="s">
         <v>299</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="20" t="s">
+      <c r="C25" s="154"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="137" t="s">
+      <c r="G25" s="132" t="s">
         <v>301</v>
       </c>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
     </row>
     <row r="26" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="156" t="s">
+      <c r="B26" s="155" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="135" t="s">
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="134" t="s">
         <v>303</v>
       </c>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="154" t="s">
         <v>304</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="135" t="s">
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="134" t="s">
         <v>305</v>
       </c>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="112" t="s">
+      <c r="B28" s="157" t="s">
         <v>306</v>
       </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="115"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="111"/>
     </row>
     <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="116"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
       <c r="I29" s="158"/>
     </row>
     <row r="30" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="117" t="s">
+      <c r="B30" s="159" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="159"/>
-      <c r="D30" s="104" t="s">
+      <c r="C30" s="160"/>
+      <c r="D30" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="159"/>
-      <c r="F30" s="104" t="s">
+      <c r="E30" s="160"/>
+      <c r="F30" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="104" t="s">
+      <c r="G30" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="104" t="s">
-        <v>218</v>
-      </c>
-      <c r="I30" s="106" t="s">
+      <c r="H30" s="99" t="s">
+        <v>217</v>
+      </c>
+      <c r="I30" s="101" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5252,592 +5279,590 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="66" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="n">
+      <c r="B2" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="73" t="n">
+      <c r="C2" s="67" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="73" t="n">
+      <c r="D2" s="67" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="73" t="n">
+      <c r="E2" s="67" t="n">
         <v>4</v>
       </c>
-      <c r="F2" s="73" t="n">
+      <c r="F2" s="67" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="73" t="n">
+      <c r="G2" s="67" t="n">
         <v>6</v>
       </c>
-      <c r="H2" s="73" t="n">
+      <c r="H2" s="67" t="n">
         <v>7</v>
       </c>
-      <c r="I2" s="73" t="n">
+      <c r="I2" s="67" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="68" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-    </row>
-    <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="76" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+    </row>
+    <row r="5" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="160" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G5" s="161" t="s">
+      <c r="G5" s="162" t="s">
         <v>309</v>
       </c>
-      <c r="H5" s="160" t="s">
+      <c r="H5" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="120"/>
+      <c r="I5" s="164"/>
     </row>
     <row r="6" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="93"/>
-      <c r="F6" s="162" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="165" t="s">
         <v>198</v>
       </c>
-      <c r="G6" s="161"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="88"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="86"/>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="161"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="143"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="141"/>
     </row>
     <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="F8" s="97" t="s">
+      <c r="C8" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="G8" s="161"/>
-      <c r="H8" s="42" t="s">
+      <c r="D8" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="165" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="162"/>
+      <c r="H8" s="167" t="s">
         <v>313</v>
       </c>
-      <c r="I8" s="163"/>
+      <c r="I8" s="168"/>
     </row>
     <row r="9" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85" t="s">
+      <c r="C9" s="78"/>
+      <c r="D9" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="150" t="s">
+      <c r="E9" s="78"/>
+      <c r="F9" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="161"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="145"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="143"/>
     </row>
     <row r="10" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="119"/>
+      <c r="C10" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="78"/>
+      <c r="F10" s="91" t="s">
         <v>316</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="G10" s="162"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="86"/>
+    </row>
+    <row r="11" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="C11" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="G10" s="161"/>
-      <c r="H10" s="42" t="s">
+      <c r="D11" s="78"/>
+      <c r="E11" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="165" t="s">
+        <v>281</v>
+      </c>
+      <c r="G11" s="162"/>
+      <c r="H11" s="157" t="s">
         <v>319</v>
       </c>
-      <c r="I10" s="120"/>
-    </row>
-    <row r="11" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="59" t="s">
+      <c r="I11" s="86"/>
+    </row>
+    <row r="12" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="D11" s="93"/>
-      <c r="E11" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="162" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="161"/>
-      <c r="H11" s="59" t="s">
+      <c r="F12" s="91" t="s">
         <v>322</v>
       </c>
-      <c r="I11" s="88"/>
-    </row>
-    <row r="12" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="124"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="84"/>
-      <c r="F12" s="162" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="161"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="88"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="86"/>
     </row>
     <row r="13" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="32" t="s">
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="F13" s="162" t="s">
+      <c r="F13" s="165" t="s">
         <v>323</v>
       </c>
-      <c r="G13" s="161"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="36" t="s">
+      <c r="G13" s="162"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="117"/>
+    </row>
+    <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="119"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="E14" s="78"/>
+      <c r="F14" s="171" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="162"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="146" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="78"/>
+      <c r="E15" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="148" t="s">
+        <v>284</v>
+      </c>
+      <c r="G15" s="162"/>
+      <c r="H15" s="173" t="s">
+        <v>285</v>
+      </c>
+      <c r="I15" s="86"/>
+    </row>
+    <row r="16" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="162"/>
+      <c r="H16" s="174" t="s">
+        <v>327</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="119"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E17" s="78"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="94"/>
+    </row>
+    <row r="18" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="106" t="s">
+        <v>329</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="D18" s="78"/>
+      <c r="E18" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="F18" s="171" t="s">
+        <v>290</v>
+      </c>
+      <c r="G18" s="162"/>
+      <c r="H18" s="176" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" s="133" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="F19" s="171" t="s">
+        <v>333</v>
+      </c>
+      <c r="G19" s="162"/>
+      <c r="H19" s="167" t="s">
+        <v>334</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="146" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="92"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" s="171" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20" s="162"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="32" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="119"/>
+      <c r="C21" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="175"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="173" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="32" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="G14" s="161"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="36" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="148" t="s">
-        <v>282</v>
-      </c>
-      <c r="C15" s="85" t="s">
-        <v>283</v>
-      </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="150" t="s">
-        <v>282</v>
-      </c>
-      <c r="G15" s="161"/>
-      <c r="H15" s="148" t="s">
-        <v>283</v>
-      </c>
-      <c r="I15" s="88"/>
-    </row>
-    <row r="16" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="G16" s="161"/>
-      <c r="H16" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="120"/>
-    </row>
-    <row r="18" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="166" t="s">
-        <v>329</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="F18" s="167" t="s">
-        <v>290</v>
-      </c>
-      <c r="G18" s="161"/>
-      <c r="H18" s="144" t="s">
-        <v>218</v>
-      </c>
-      <c r="I18" s="136" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="F19" s="167" t="s">
-        <v>333</v>
-      </c>
-      <c r="G19" s="161"/>
-      <c r="H19" s="42" t="s">
-        <v>334</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="100" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="148" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="F20" s="167" t="s">
-        <v>254</v>
-      </c>
-      <c r="G20" s="161"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="36" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="124"/>
-      <c r="C21" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="168"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="148" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>248</v>
-      </c>
-    </row>
     <row r="22" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="169"/>
-      <c r="C22" s="104" t="s">
+      <c r="B22" s="119"/>
+      <c r="C22" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="130"/>
-      <c r="E22" s="104" t="s">
+      <c r="D22" s="108"/>
+      <c r="E22" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="170" t="s">
+      <c r="F22" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G22" s="161"/>
-      <c r="H22" s="171" t="s">
+      <c r="G22" s="162"/>
+      <c r="H22" s="177" t="s">
         <v>337</v>
       </c>
-      <c r="I22" s="172" t="s">
+      <c r="I22" s="178" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
     </row>
     <row r="24" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="173" t="s">
+      <c r="B24" s="179" t="s">
         <v>339</v>
       </c>
-      <c r="C24" s="173"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="176" t="s">
+      <c r="C24" s="179"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="182" t="s">
         <v>340</v>
       </c>
-      <c r="H24" s="93"/>
-      <c r="I24" s="36" t="s">
+      <c r="H24" s="79"/>
+      <c r="I24" s="32" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="177" t="s">
+      <c r="B25" s="183" t="s">
         <v>342</v>
       </c>
-      <c r="C25" s="177"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="145"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="143"/>
     </row>
     <row r="26" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="167" t="s">
+      <c r="B26" s="171" t="s">
         <v>343</v>
       </c>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="145"/>
+      <c r="C26" s="171"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="182"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="143"/>
     </row>
     <row r="27" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="171" t="s">
         <v>344</v>
       </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="182"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="188"/>
+      <c r="I27" s="189"/>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="115"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="111"/>
     </row>
     <row r="29" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="184"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="185"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="191"/>
       <c r="I29" s="158"/>
     </row>
     <row r="30" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="186"/>
-      <c r="C30" s="50" t="s">
+      <c r="B30" s="192"/>
+      <c r="C30" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="188"/>
-      <c r="I30" s="189"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/include/BSCS.xlsx
+++ b/include/BSCS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Fall-2017" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,6 +24,7 @@
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">Monday!$A$1:$I$31</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">Monday!$A$1:$I$31</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0" vbProcedure="false">Monday!$A$1:$I$31</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0" vbProcedure="false">Monday!$A$1:$I$31</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1764,22 +1765,22 @@
     <t xml:space="preserve">ME-GR1   Micheal    </t>
   </si>
   <si>
+    <t xml:space="preserve">CAL I-A                                      Dr. Sadaqat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR-GR1      Abdul Basit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psych-GR1(A,B,C,D)  Sumaira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psych-GR2(E,F,G,H)  Sumaira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socio-GR1      Sumaira</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prob &amp; Stats-GR1   Abdul Basit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAL I-A                                      Dr. Sadaqat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR-GR1      Abdul Basit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psych-GR1(A,B,C,D)  Sumaira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psych-GR2(E,F,G,H)  Sumaira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socio-GR1      Sumaira</t>
   </si>
   <si>
     <t xml:space="preserve">DB Lab-G              Ammara</t>
@@ -2972,7 +2973,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="399">
+  <cellXfs count="398">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4297,10 +4298,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4389,10 +4386,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="53" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4406,6 +4399,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4653,9 +4650,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>891720</xdr:colOff>
+      <xdr:colOff>891360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4669,7 +4666,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3666960" y="1365840"/>
-          <a:ext cx="5416200" cy="2118600"/>
+          <a:ext cx="5425200" cy="2118240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4706,21 +4703,21 @@
   </sheetPr>
   <dimension ref="B1:T30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="6" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="8" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="51.417004048583"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="51.8461538461539"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="15" min="14" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5423,25 +5420,25 @@
   </sheetPr>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5530,10 +5527,10 @@
       <c r="I4" s="272"/>
     </row>
     <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="341" t="s">
+      <c r="A5" s="340" t="s">
         <v>331</v>
       </c>
-      <c r="B5" s="342" t="s">
+      <c r="B5" s="341" t="s">
         <v>586</v>
       </c>
       <c r="C5" s="277"/>
@@ -5592,13 +5589,13 @@
       </c>
       <c r="F7" s="280"/>
       <c r="G7" s="280"/>
-      <c r="I7" s="343"/>
+      <c r="I7" s="342"/>
     </row>
     <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="270" t="s">
         <v>352</v>
       </c>
-      <c r="B8" s="344" t="s">
+      <c r="B8" s="343" t="s">
         <v>356</v>
       </c>
       <c r="C8" s="274"/>
@@ -5640,7 +5637,7 @@
       <c r="H9" s="222" t="s">
         <v>596</v>
       </c>
-      <c r="I9" s="345"/>
+      <c r="I9" s="344"/>
     </row>
     <row r="10" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="270" t="s">
@@ -5732,7 +5729,7 @@
       <c r="A14" s="270" t="s">
         <v>393</v>
       </c>
-      <c r="B14" s="346"/>
+      <c r="B14" s="345"/>
       <c r="C14" s="281" t="s">
         <v>399</v>
       </c>
@@ -5740,7 +5737,7 @@
       <c r="E14" s="281" t="s">
         <v>398</v>
       </c>
-      <c r="F14" s="347"/>
+      <c r="F14" s="346"/>
       <c r="G14" s="225" t="s">
         <v>601</v>
       </c>
@@ -5753,7 +5750,7 @@
       <c r="A15" s="270" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="348" t="s">
+      <c r="B15" s="347" t="s">
         <v>603</v>
       </c>
       <c r="C15" s="281" t="s">
@@ -5771,7 +5768,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="270" t="s">
         <v>406</v>
       </c>
@@ -5804,10 +5801,10 @@
       </c>
       <c r="G17" s="280"/>
       <c r="H17" s="234" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="I17" s="237" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5839,7 +5836,7 @@
       <c r="A19" s="270" t="s">
         <v>426</v>
       </c>
-      <c r="B19" s="349"/>
+      <c r="B19" s="348"/>
       <c r="D19" s="312"/>
       <c r="E19" s="239" t="s">
         <v>611</v>
@@ -5861,11 +5858,11 @@
       <c r="C20" s="222" t="s">
         <v>612</v>
       </c>
-      <c r="D20" s="350" t="s">
+      <c r="D20" s="349" t="s">
         <v>450</v>
       </c>
       <c r="E20" s="239" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F20" s="239" t="s">
         <v>613</v>
@@ -5877,7 +5874,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="351" t="s">
+      <c r="A21" s="350" t="s">
         <v>441</v>
       </c>
       <c r="B21" s="281" t="s">
@@ -5917,7 +5914,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="23" s="352" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" s="351" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="272" t="s">
         <v>451</v>
       </c>
@@ -5934,84 +5931,84 @@
       <c r="A24" s="270" t="s">
         <v>452</v>
       </c>
-      <c r="B24" s="353" t="s">
+      <c r="B24" s="352" t="s">
         <v>616</v>
       </c>
-      <c r="C24" s="353"/>
-      <c r="D24" s="353"/>
-      <c r="E24" s="354" t="s">
-        <v>480</v>
-      </c>
-      <c r="F24" s="355"/>
-      <c r="G24" s="356" t="s">
+      <c r="C24" s="352"/>
+      <c r="D24" s="352"/>
+      <c r="F24" s="353"/>
+      <c r="G24" s="354" t="s">
         <v>617</v>
       </c>
-      <c r="H24" s="356"/>
-      <c r="I24" s="356"/>
+      <c r="H24" s="354"/>
+      <c r="I24" s="354"/>
     </row>
     <row r="25" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="270" t="s">
         <v>456</v>
       </c>
-      <c r="B25" s="357" t="s">
+      <c r="B25" s="355" t="s">
         <v>618</v>
       </c>
-      <c r="C25" s="357"/>
-      <c r="D25" s="357"/>
+      <c r="C25" s="355"/>
+      <c r="D25" s="355"/>
       <c r="E25" s="225" t="s">
         <v>619</v>
       </c>
       <c r="F25" s="225" t="s">
         <v>385</v>
       </c>
-      <c r="G25" s="335" t="s">
+      <c r="G25" s="334" t="s">
         <v>620</v>
       </c>
-      <c r="H25" s="335"/>
-      <c r="I25" s="335"/>
+      <c r="H25" s="334"/>
+      <c r="I25" s="334"/>
     </row>
     <row r="26" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="270" t="s">
         <v>459</v>
       </c>
-      <c r="B26" s="358" t="s">
+      <c r="B26" s="356" t="s">
         <v>621</v>
       </c>
-      <c r="C26" s="358"/>
-      <c r="D26" s="358"/>
+      <c r="C26" s="356"/>
+      <c r="D26" s="356"/>
+      <c r="E26" s="357" t="s">
+        <v>480</v>
+      </c>
       <c r="F26" s="312"/>
-      <c r="G26" s="337" t="s">
+      <c r="G26" s="336" t="s">
         <v>622</v>
       </c>
-      <c r="H26" s="337"/>
-      <c r="I26" s="337"/>
+      <c r="H26" s="336"/>
+      <c r="I26" s="336"/>
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="270" t="s">
         <v>462</v>
       </c>
-      <c r="B27" s="357" t="s">
+      <c r="B27" s="355" t="s">
         <v>623</v>
       </c>
-      <c r="C27" s="357"/>
-      <c r="D27" s="357"/>
+      <c r="C27" s="355"/>
+      <c r="D27" s="355"/>
       <c r="E27" s="312"/>
-      <c r="F27" s="359"/>
-      <c r="G27" s="337" t="s">
+      <c r="F27" s="358"/>
+      <c r="G27" s="336" t="s">
         <v>624</v>
       </c>
-      <c r="H27" s="337"/>
-      <c r="I27" s="337"/>
+      <c r="H27" s="336"/>
+      <c r="I27" s="336"/>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="270" t="s">
         <v>464</v>
       </c>
-      <c r="B28" s="360" t="s">
+      <c r="B28" s="359" t="s">
         <v>625</v>
       </c>
-      <c r="C28" s="360"/>
-      <c r="D28" s="360"/>
+      <c r="C28" s="359"/>
+      <c r="D28" s="359"/>
       <c r="E28" s="312"/>
       <c r="F28" s="313"/>
       <c r="G28" s="314"/>
@@ -6022,27 +6019,27 @@
       <c r="A29" s="270" t="s">
         <v>468</v>
       </c>
-      <c r="B29" s="338"/>
+      <c r="B29" s="337"/>
       <c r="C29" s="314"/>
       <c r="D29" s="313"/>
       <c r="E29" s="313"/>
       <c r="F29" s="312"/>
-      <c r="G29" s="359"/>
-      <c r="H29" s="359"/>
-      <c r="I29" s="361"/>
+      <c r="G29" s="358"/>
+      <c r="H29" s="358"/>
+      <c r="I29" s="360"/>
     </row>
     <row r="30" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="270" t="s">
         <v>470</v>
       </c>
-      <c r="B30" s="362" t="s">
+      <c r="B30" s="361" t="s">
         <v>473</v>
       </c>
-      <c r="C30" s="363"/>
+      <c r="C30" s="362"/>
       <c r="D30" s="300" t="s">
         <v>442</v>
       </c>
-      <c r="E30" s="363"/>
+      <c r="E30" s="362"/>
       <c r="F30" s="300" t="s">
         <v>445</v>
       </c>
@@ -6088,22 +6085,22 @@
   </sheetPr>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6195,7 +6192,7 @@
       <c r="A5" s="273" t="s">
         <v>331</v>
       </c>
-      <c r="B5" s="364" t="s">
+      <c r="B5" s="363" t="s">
         <v>332</v>
       </c>
       <c r="C5" s="218" t="s">
@@ -6208,13 +6205,13 @@
       <c r="F5" s="215" t="s">
         <v>627</v>
       </c>
-      <c r="G5" s="365" t="s">
+      <c r="G5" s="364" t="s">
         <v>628</v>
       </c>
-      <c r="H5" s="366" t="s">
+      <c r="H5" s="365" t="s">
         <v>332</v>
       </c>
-      <c r="I5" s="367"/>
+      <c r="I5" s="366"/>
     </row>
     <row r="6" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="270" t="s">
@@ -6228,11 +6225,11 @@
         <v>516</v>
       </c>
       <c r="E6" s="280"/>
-      <c r="F6" s="368" t="s">
+      <c r="F6" s="367" t="s">
         <v>517</v>
       </c>
-      <c r="G6" s="365"/>
-      <c r="H6" s="333"/>
+      <c r="G6" s="364"/>
+      <c r="H6" s="332"/>
       <c r="I6" s="287"/>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6251,12 +6248,12 @@
       <c r="E7" s="234" t="s">
         <v>405</v>
       </c>
-      <c r="F7" s="368" t="s">
+      <c r="F7" s="367" t="s">
         <v>410</v>
       </c>
-      <c r="G7" s="365"/>
-      <c r="H7" s="369"/>
-      <c r="I7" s="343"/>
+      <c r="G7" s="364"/>
+      <c r="H7" s="368"/>
+      <c r="I7" s="342"/>
     </row>
     <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="270" t="s">
@@ -6274,14 +6271,14 @@
       <c r="E8" s="234" t="s">
         <v>555</v>
       </c>
-      <c r="F8" s="368" t="s">
+      <c r="F8" s="367" t="s">
         <v>416</v>
       </c>
-      <c r="G8" s="365"/>
-      <c r="H8" s="370" t="s">
+      <c r="G8" s="364"/>
+      <c r="H8" s="369" t="s">
         <v>632</v>
       </c>
-      <c r="I8" s="371"/>
+      <c r="I8" s="370"/>
     </row>
     <row r="9" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="270" t="s">
@@ -6295,12 +6292,12 @@
         <v>398</v>
       </c>
       <c r="E9" s="280"/>
-      <c r="F9" s="350" t="s">
+      <c r="F9" s="349" t="s">
         <v>399</v>
       </c>
-      <c r="G9" s="365"/>
-      <c r="H9" s="372"/>
-      <c r="I9" s="345"/>
+      <c r="G9" s="364"/>
+      <c r="H9" s="371"/>
+      <c r="I9" s="344"/>
     </row>
     <row r="10" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="270" t="s">
@@ -6317,8 +6314,8 @@
       <c r="F10" s="293" t="s">
         <v>635</v>
       </c>
-      <c r="G10" s="365"/>
-      <c r="H10" s="369"/>
+      <c r="G10" s="364"/>
+      <c r="H10" s="368"/>
       <c r="I10" s="287"/>
     </row>
     <row r="11" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6335,11 +6332,11 @@
       <c r="E11" s="234" t="s">
         <v>423</v>
       </c>
-      <c r="F11" s="368" t="s">
+      <c r="F11" s="367" t="s">
         <v>600</v>
       </c>
-      <c r="G11" s="365"/>
-      <c r="H11" s="360" t="s">
+      <c r="G11" s="364"/>
+      <c r="H11" s="359" t="s">
         <v>638</v>
       </c>
       <c r="I11" s="287"/>
@@ -6359,8 +6356,8 @@
       <c r="F12" s="293" t="s">
         <v>641</v>
       </c>
-      <c r="G12" s="365"/>
-      <c r="H12" s="333"/>
+      <c r="G12" s="364"/>
+      <c r="H12" s="332"/>
       <c r="I12" s="287"/>
     </row>
     <row r="13" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6375,11 +6372,11 @@
       <c r="E13" s="234" t="s">
         <v>593</v>
       </c>
-      <c r="F13" s="368" t="s">
+      <c r="F13" s="367" t="s">
         <v>642</v>
       </c>
-      <c r="G13" s="365"/>
-      <c r="H13" s="373"/>
+      <c r="G13" s="364"/>
+      <c r="H13" s="372"/>
       <c r="I13" s="322"/>
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6392,11 +6389,11 @@
         <v>643</v>
       </c>
       <c r="E14" s="280"/>
-      <c r="F14" s="374" t="s">
+      <c r="F14" s="373" t="s">
         <v>566</v>
       </c>
-      <c r="G14" s="365"/>
-      <c r="H14" s="375"/>
+      <c r="G14" s="364"/>
+      <c r="H14" s="374"/>
       <c r="I14" s="237" t="s">
         <v>644</v>
       </c>
@@ -6405,7 +6402,7 @@
       <c r="A15" s="270" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="348" t="s">
+      <c r="B15" s="347" t="s">
         <v>603</v>
       </c>
       <c r="C15" s="281" t="s">
@@ -6415,11 +6412,11 @@
       <c r="E15" s="281" t="s">
         <v>449</v>
       </c>
-      <c r="F15" s="350" t="s">
+      <c r="F15" s="349" t="s">
         <v>603</v>
       </c>
-      <c r="G15" s="365"/>
-      <c r="H15" s="376" t="s">
+      <c r="G15" s="364"/>
+      <c r="H15" s="375" t="s">
         <v>604</v>
       </c>
       <c r="I15" s="287"/>
@@ -6439,8 +6436,8 @@
       <c r="F16" s="241" t="s">
         <v>553</v>
       </c>
-      <c r="G16" s="365"/>
-      <c r="H16" s="377" t="s">
+      <c r="G16" s="364"/>
+      <c r="H16" s="376" t="s">
         <v>646</v>
       </c>
       <c r="I16" s="235" t="s">
@@ -6457,9 +6454,9 @@
         <v>647</v>
       </c>
       <c r="E17" s="280"/>
-      <c r="F17" s="378"/>
-      <c r="G17" s="365"/>
-      <c r="H17" s="333"/>
+      <c r="F17" s="377"/>
+      <c r="G17" s="364"/>
+      <c r="H17" s="332"/>
       <c r="I17" s="283"/>
     </row>
     <row r="18" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6476,14 +6473,14 @@
       <c r="E18" s="239" t="s">
         <v>650</v>
       </c>
-      <c r="F18" s="374" t="s">
+      <c r="F18" s="373" t="s">
         <v>609</v>
       </c>
-      <c r="G18" s="365"/>
-      <c r="H18" s="379" t="s">
+      <c r="G18" s="364"/>
+      <c r="H18" s="378" t="s">
         <v>536</v>
       </c>
-      <c r="I18" s="336" t="s">
+      <c r="I18" s="335" t="s">
         <v>648</v>
       </c>
     </row>
@@ -6499,11 +6496,11 @@
       <c r="E19" s="239" t="s">
         <v>563</v>
       </c>
-      <c r="F19" s="374" t="s">
+      <c r="F19" s="373" t="s">
         <v>652</v>
       </c>
-      <c r="G19" s="365"/>
-      <c r="H19" s="370" t="s">
+      <c r="G19" s="364"/>
+      <c r="H19" s="369" t="s">
         <v>653</v>
       </c>
       <c r="I19" s="237" t="s">
@@ -6514,19 +6511,19 @@
       <c r="A20" s="296" t="s">
         <v>434</v>
       </c>
-      <c r="B20" s="348" t="s">
+      <c r="B20" s="347" t="s">
         <v>448</v>
       </c>
       <c r="C20" s="294"/>
       <c r="D20" s="280"/>
       <c r="E20" s="239" t="s">
-        <v>574</v>
-      </c>
-      <c r="F20" s="374" t="s">
         <v>573</v>
       </c>
-      <c r="G20" s="365"/>
-      <c r="H20" s="333"/>
+      <c r="F20" s="373" t="s">
+        <v>572</v>
+      </c>
+      <c r="G20" s="364"/>
+      <c r="H20" s="332"/>
       <c r="I20" s="237" t="s">
         <v>655</v>
       </c>
@@ -6543,9 +6540,9 @@
       <c r="E21" s="281" t="s">
         <v>430</v>
       </c>
-      <c r="F21" s="378"/>
-      <c r="G21" s="365"/>
-      <c r="H21" s="376" t="s">
+      <c r="F21" s="377"/>
+      <c r="G21" s="364"/>
+      <c r="H21" s="375" t="s">
         <v>433</v>
       </c>
       <c r="I21" s="237" t="s">
@@ -6564,14 +6561,14 @@
       <c r="E22" s="281" t="s">
         <v>436</v>
       </c>
-      <c r="F22" s="350" t="s">
+      <c r="F22" s="349" t="s">
         <v>508</v>
       </c>
-      <c r="G22" s="365"/>
-      <c r="H22" s="380" t="s">
+      <c r="G22" s="364"/>
+      <c r="H22" s="379" t="s">
         <v>656</v>
       </c>
-      <c r="I22" s="381" t="s">
+      <c r="I22" s="380" t="s">
         <v>657</v>
       </c>
     </row>
@@ -6592,14 +6589,14 @@
       <c r="A24" s="270" t="s">
         <v>452</v>
       </c>
-      <c r="B24" s="382" t="s">
+      <c r="B24" s="381" t="s">
         <v>658</v>
       </c>
-      <c r="C24" s="382"/>
-      <c r="D24" s="382"/>
-      <c r="E24" s="383"/>
-      <c r="F24" s="384"/>
-      <c r="G24" s="385" t="s">
+      <c r="C24" s="381"/>
+      <c r="D24" s="381"/>
+      <c r="E24" s="382"/>
+      <c r="F24" s="383"/>
+      <c r="G24" s="384" t="s">
         <v>659</v>
       </c>
       <c r="H24" s="274"/>
@@ -6611,46 +6608,46 @@
       <c r="A25" s="270" t="s">
         <v>456</v>
       </c>
-      <c r="B25" s="386" t="s">
+      <c r="B25" s="385" t="s">
         <v>661</v>
       </c>
-      <c r="C25" s="386"/>
-      <c r="D25" s="386"/>
+      <c r="C25" s="385"/>
+      <c r="D25" s="385"/>
       <c r="E25" s="312"/>
-      <c r="F25" s="387"/>
-      <c r="G25" s="385"/>
+      <c r="F25" s="386"/>
+      <c r="G25" s="384"/>
       <c r="H25" s="324"/>
-      <c r="I25" s="345"/>
+      <c r="I25" s="344"/>
     </row>
     <row r="26" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="270" t="s">
         <v>459</v>
       </c>
-      <c r="B26" s="374" t="s">
+      <c r="B26" s="373" t="s">
         <v>662</v>
       </c>
-      <c r="C26" s="374"/>
-      <c r="D26" s="374"/>
-      <c r="E26" s="388"/>
-      <c r="F26" s="387"/>
-      <c r="G26" s="385"/>
-      <c r="H26" s="389"/>
-      <c r="I26" s="345"/>
+      <c r="C26" s="373"/>
+      <c r="D26" s="373"/>
+      <c r="E26" s="387"/>
+      <c r="F26" s="386"/>
+      <c r="G26" s="384"/>
+      <c r="H26" s="388"/>
+      <c r="I26" s="344"/>
     </row>
     <row r="27" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="270" t="s">
         <v>462</v>
       </c>
-      <c r="B27" s="374" t="s">
+      <c r="B27" s="373" t="s">
         <v>663</v>
       </c>
-      <c r="C27" s="374"/>
-      <c r="D27" s="374"/>
+      <c r="C27" s="373"/>
+      <c r="D27" s="373"/>
       <c r="E27" s="312"/>
-      <c r="F27" s="390"/>
-      <c r="G27" s="385"/>
-      <c r="H27" s="391"/>
-      <c r="I27" s="392"/>
+      <c r="F27" s="389"/>
+      <c r="G27" s="384"/>
+      <c r="H27" s="390"/>
+      <c r="I27" s="391"/>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="270" t="s">
@@ -6660,8 +6657,8 @@
       <c r="C28" s="274"/>
       <c r="D28" s="274"/>
       <c r="E28" s="312"/>
-      <c r="F28" s="393"/>
-      <c r="G28" s="385"/>
+      <c r="F28" s="392"/>
+      <c r="G28" s="384"/>
       <c r="H28" s="316"/>
       <c r="I28" s="315"/>
     </row>
@@ -6673,25 +6670,25 @@
       <c r="C29" s="314"/>
       <c r="D29" s="313"/>
       <c r="E29" s="313"/>
-      <c r="F29" s="387"/>
-      <c r="G29" s="385"/>
-      <c r="H29" s="394"/>
-      <c r="I29" s="361"/>
+      <c r="F29" s="386"/>
+      <c r="G29" s="384"/>
+      <c r="H29" s="393"/>
+      <c r="I29" s="360"/>
     </row>
     <row r="30" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="270" t="s">
         <v>470</v>
       </c>
-      <c r="B30" s="395"/>
+      <c r="B30" s="394"/>
       <c r="C30" s="251" t="s">
         <v>519</v>
       </c>
       <c r="D30" s="330"/>
       <c r="E30" s="330"/>
-      <c r="F30" s="396"/>
-      <c r="G30" s="385"/>
-      <c r="H30" s="397"/>
-      <c r="I30" s="398"/>
+      <c r="F30" s="395"/>
+      <c r="G30" s="384"/>
+      <c r="H30" s="396"/>
+      <c r="I30" s="397"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6723,7 +6720,7 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -6731,13 +6728,13 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.39271255060729"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.39271255060729"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7142,7 +7139,7 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="J12" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
@@ -7153,15 +7150,15 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.96356275303644"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="58.0566801619433"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.03643724696356"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7750,7 +7747,7 @@
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="9" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
@@ -7763,15 +7760,15 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.96356275303644"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.7773279352227"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.0971659919028"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="46.5951417004049"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8373,7 +8370,7 @@
   </sheetPr>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="9" ySplit="5" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
@@ -8383,22 +8380,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.03643724696356"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.8825910931174"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="47.4534412955466"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9186,21 +9183,21 @@
   </sheetPr>
   <dimension ref="B1:L42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="175" width="5.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="175" width="5.67611336032389"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="175" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="175" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="175" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="175" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="175" width="35.9919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="175" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="175" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="175" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="175" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="175" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="175" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="175" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="175" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -9801,24 +9798,24 @@
   </sheetPr>
   <dimension ref="1:32"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="14.7813765182186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38954,26 +38951,26 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
   </cols>
@@ -39196,16 +39193,22 @@
       </c>
       <c r="I10" s="287"/>
     </row>
-    <row r="11" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="270" t="s">
         <v>375</v>
       </c>
       <c r="B11" s="274"/>
-      <c r="C11" s="280"/>
+      <c r="C11" s="239" t="s">
+        <v>364</v>
+      </c>
       <c r="D11" s="274"/>
-      <c r="E11" s="280"/>
+      <c r="E11" s="239" t="s">
+        <v>347</v>
+      </c>
       <c r="F11" s="280"/>
-      <c r="G11" s="280"/>
+      <c r="G11" s="239" t="s">
+        <v>361</v>
+      </c>
       <c r="H11" s="225" t="s">
         <v>492</v>
       </c>
@@ -39309,26 +39312,17 @@
         <v>509</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="270" t="s">
         <v>406</v>
       </c>
       <c r="B16" s="293" t="s">
         <v>510</v>
       </c>
-      <c r="C16" s="239" t="s">
-        <v>364</v>
-      </c>
       <c r="D16" s="222" t="s">
         <v>415</v>
       </c>
-      <c r="E16" s="239" t="s">
-        <v>347</v>
-      </c>
       <c r="F16" s="294"/>
-      <c r="G16" s="239" t="s">
-        <v>361</v>
-      </c>
       <c r="H16" s="280"/>
       <c r="I16" s="237" t="s">
         <v>404</v>
@@ -39650,27 +39644,27 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -39758,14 +39752,16 @@
       <c r="H4" s="272"/>
       <c r="I4" s="272"/>
     </row>
-    <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="38.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="296" t="s">
         <v>331</v>
       </c>
       <c r="B5" s="319" t="s">
         <v>380</v>
       </c>
-      <c r="C5" s="274"/>
+      <c r="C5" s="239" t="s">
+        <v>407</v>
+      </c>
       <c r="D5" s="218" t="s">
         <v>376</v>
       </c>
@@ -39775,7 +39771,9 @@
       <c r="F5" s="320" t="s">
         <v>342</v>
       </c>
-      <c r="G5" s="274"/>
+      <c r="G5" s="239" t="s">
+        <v>408</v>
+      </c>
       <c r="H5" s="275" t="s">
         <v>361</v>
       </c>
@@ -39947,16 +39945,13 @@
       </c>
       <c r="I12" s="287"/>
     </row>
-    <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="270" t="s">
         <v>387</v>
       </c>
       <c r="B13" s="234" t="s">
         <v>392</v>
       </c>
-      <c r="C13" s="239" t="s">
-        <v>407</v>
-      </c>
       <c r="D13" s="325" t="s">
         <v>483</v>
       </c>
@@ -39964,9 +39959,6 @@
         <v>389</v>
       </c>
       <c r="F13" s="274"/>
-      <c r="G13" s="239" t="s">
-        <v>408</v>
-      </c>
       <c r="H13" s="225" t="s">
         <v>550</v>
       </c>
@@ -40112,19 +40104,16 @@
         <v>569</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="270" t="s">
         <v>434</v>
       </c>
-      <c r="B20" s="233" t="s">
-        <v>570</v>
-      </c>
       <c r="C20" s="281" t="s">
         <v>435</v>
       </c>
       <c r="D20" s="312"/>
       <c r="E20" s="281" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F20" s="281" t="s">
         <v>521</v>
@@ -40134,7 +40123,7 @@
         <v>523</v>
       </c>
       <c r="I20" s="237" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40149,15 +40138,15 @@
       </c>
       <c r="D21" s="312"/>
       <c r="E21" s="227" t="s">
+        <v>572</v>
+      </c>
+      <c r="F21" s="227" t="s">
         <v>573</v>
-      </c>
-      <c r="F21" s="227" t="s">
-        <v>574</v>
       </c>
       <c r="G21" s="312"/>
       <c r="H21" s="280"/>
       <c r="I21" s="237" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40198,52 +40187,54 @@
       <c r="A24" s="270" t="s">
         <v>452</v>
       </c>
-      <c r="B24" s="331"/>
+      <c r="B24" s="233" t="s">
+        <v>575</v>
+      </c>
       <c r="C24" s="234" t="s">
         <v>576</v>
       </c>
       <c r="D24" s="234"/>
       <c r="E24" s="234"/>
       <c r="F24" s="306"/>
-      <c r="G24" s="332" t="s">
+      <c r="G24" s="331" t="s">
         <v>577</v>
       </c>
-      <c r="H24" s="332"/>
-      <c r="I24" s="332"/>
+      <c r="H24" s="331"/>
+      <c r="I24" s="331"/>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="270" t="s">
         <v>456</v>
       </c>
-      <c r="B25" s="333"/>
+      <c r="B25" s="332"/>
       <c r="C25" s="280"/>
-      <c r="D25" s="334" t="s">
+      <c r="D25" s="333" t="s">
         <v>578</v>
       </c>
-      <c r="E25" s="334"/>
-      <c r="F25" s="334"/>
-      <c r="G25" s="335" t="s">
+      <c r="E25" s="333"/>
+      <c r="F25" s="333"/>
+      <c r="G25" s="334" t="s">
         <v>579</v>
       </c>
-      <c r="H25" s="335"/>
-      <c r="I25" s="335"/>
+      <c r="H25" s="334"/>
+      <c r="I25" s="334"/>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="270" t="s">
         <v>459</v>
       </c>
-      <c r="B26" s="333"/>
+      <c r="B26" s="332"/>
       <c r="C26" s="280"/>
       <c r="D26" s="234" t="s">
         <v>580</v>
       </c>
       <c r="E26" s="234"/>
       <c r="F26" s="234"/>
-      <c r="G26" s="336" t="s">
+      <c r="G26" s="335" t="s">
         <v>581</v>
       </c>
-      <c r="H26" s="336"/>
-      <c r="I26" s="336"/>
+      <c r="H26" s="335"/>
+      <c r="I26" s="335"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="270" t="s">
@@ -40256,17 +40247,17 @@
       </c>
       <c r="E27" s="234"/>
       <c r="F27" s="234"/>
-      <c r="G27" s="337" t="s">
+      <c r="G27" s="336" t="s">
         <v>583</v>
       </c>
-      <c r="H27" s="337"/>
-      <c r="I27" s="337"/>
+      <c r="H27" s="336"/>
+      <c r="I27" s="336"/>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="270" t="s">
         <v>464</v>
       </c>
-      <c r="B28" s="333"/>
+      <c r="B28" s="332"/>
       <c r="G28" s="314"/>
       <c r="H28" s="314"/>
       <c r="I28" s="315"/>
@@ -40275,22 +40266,22 @@
       <c r="A29" s="270" t="s">
         <v>468</v>
       </c>
-      <c r="B29" s="338"/>
+      <c r="B29" s="337"/>
       <c r="C29" s="314"/>
       <c r="D29" s="313"/>
       <c r="E29" s="313"/>
       <c r="F29" s="312"/>
-      <c r="G29" s="335" t="s">
+      <c r="G29" s="334" t="s">
         <v>584</v>
       </c>
-      <c r="H29" s="335"/>
-      <c r="I29" s="335"/>
+      <c r="H29" s="334"/>
+      <c r="I29" s="334"/>
     </row>
     <row r="30" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="270" t="s">
         <v>470</v>
       </c>
-      <c r="B30" s="339"/>
+      <c r="B30" s="338"/>
       <c r="C30" s="300" t="s">
         <v>473</v>
       </c>
@@ -40301,7 +40292,7 @@
       <c r="F30" s="300" t="s">
         <v>442</v>
       </c>
-      <c r="G30" s="340"/>
+      <c r="G30" s="339"/>
       <c r="H30" s="300" t="s">
         <v>536</v>
       </c>

--- a/include/BSCS.xlsx
+++ b/include/BSCS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Spring-2018" sheetId="1" r:id="rId1"/>
@@ -2123,9 +2123,6 @@
     <t>J              UMM           A                                                                                                                                                       P                             R                         A                           Y                           E          R</t>
   </si>
   <si>
-    <t>19th February 2018</t>
-  </si>
-  <si>
     <t>Psych-GR3(E,F)                                                    Sumaira</t>
   </si>
   <si>
@@ -2135,14 +2132,17 @@
     <t>CS457</t>
   </si>
   <si>
-    <t>18th February 2018</t>
+    <t>2nd March 2018</t>
+  </si>
+  <si>
+    <t>5th March 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="70" x14ac:knownFonts="1">
+  <fonts count="69" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2578,14 +2578,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="36"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2783,7 +2775,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -3617,19 +3609,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3650,7 +3629,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="743">
+  <cellXfs count="744">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4286,9 +4265,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4304,9 +4280,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4410,9 +4383,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4444,7 +4414,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="20" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4561,33 +4530,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4600,9 +4542,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4610,23 +4549,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4645,63 +4584,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4711,13 +4593,13 @@
     <xf numFmtId="0" fontId="38" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4726,16 +4608,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4756,7 +4638,7 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4767,6 +4649,100 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="28" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5611,22 +5587,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5703,6 +5679,10 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6134,7 +6114,7 @@
   </sheetPr>
   <dimension ref="B1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+    <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
       <selection activeCell="H16" sqref="H16:P16"/>
     </sheetView>
   </sheetViews>
@@ -6368,16 +6348,16 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="440" t="s">
+      <c r="H12" s="439" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="440"/>
-      <c r="J12" s="440"/>
-      <c r="K12" s="440"/>
-      <c r="L12" s="440"/>
-      <c r="M12" s="440"/>
-      <c r="N12" s="440"/>
-      <c r="O12" s="440"/>
+      <c r="I12" s="439"/>
+      <c r="J12" s="439"/>
+      <c r="K12" s="439"/>
+      <c r="L12" s="439"/>
+      <c r="M12" s="439"/>
+      <c r="N12" s="439"/>
+      <c r="O12" s="439"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -6391,17 +6371,17 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="441" t="s">
+      <c r="H13" s="440" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="441"/>
-      <c r="J13" s="441"/>
-      <c r="K13" s="441"/>
-      <c r="L13" s="441"/>
-      <c r="M13" s="441"/>
-      <c r="N13" s="441"/>
-      <c r="O13" s="441"/>
-      <c r="P13" s="441"/>
+      <c r="I13" s="440"/>
+      <c r="J13" s="440"/>
+      <c r="K13" s="440"/>
+      <c r="L13" s="440"/>
+      <c r="M13" s="440"/>
+      <c r="N13" s="440"/>
+      <c r="O13" s="440"/>
+      <c r="P13" s="440"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="7"/>
@@ -6414,17 +6394,17 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="442" t="s">
+      <c r="H14" s="441" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="442"/>
-      <c r="J14" s="442"/>
-      <c r="K14" s="442"/>
-      <c r="L14" s="442"/>
-      <c r="M14" s="442"/>
-      <c r="N14" s="442"/>
-      <c r="O14" s="442"/>
-      <c r="P14" s="442"/>
+      <c r="I14" s="441"/>
+      <c r="J14" s="441"/>
+      <c r="K14" s="441"/>
+      <c r="L14" s="441"/>
+      <c r="M14" s="441"/>
+      <c r="N14" s="441"/>
+      <c r="O14" s="441"/>
+      <c r="P14" s="441"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="7"/>
@@ -6437,17 +6417,17 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="443" t="s">
+      <c r="H15" s="442" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="443"/>
-      <c r="J15" s="443"/>
-      <c r="K15" s="443"/>
-      <c r="L15" s="443"/>
-      <c r="M15" s="443"/>
-      <c r="N15" s="443"/>
-      <c r="O15" s="443"/>
-      <c r="P15" s="443"/>
+      <c r="I15" s="442"/>
+      <c r="J15" s="442"/>
+      <c r="K15" s="442"/>
+      <c r="L15" s="442"/>
+      <c r="M15" s="442"/>
+      <c r="N15" s="442"/>
+      <c r="O15" s="442"/>
+      <c r="P15" s="442"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="7"/>
@@ -6460,17 +6440,17 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="444" t="s">
+      <c r="H16" s="443" t="s">
         <v>643</v>
       </c>
-      <c r="I16" s="444"/>
-      <c r="J16" s="444"/>
-      <c r="K16" s="444"/>
-      <c r="L16" s="444"/>
-      <c r="M16" s="444"/>
-      <c r="N16" s="444"/>
-      <c r="O16" s="444"/>
-      <c r="P16" s="444"/>
+      <c r="I16" s="443"/>
+      <c r="J16" s="443"/>
+      <c r="K16" s="443"/>
+      <c r="L16" s="443"/>
+      <c r="M16" s="443"/>
+      <c r="N16" s="443"/>
+      <c r="O16" s="443"/>
+      <c r="P16" s="443"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="7"/>
@@ -6653,13 +6633,13 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="428" t="s">
+      <c r="O24" s="427" t="s">
         <v>7</v>
       </c>
-      <c r="P24" s="429"/>
-      <c r="Q24" s="429"/>
-      <c r="R24" s="429"/>
-      <c r="S24" s="430"/>
+      <c r="P24" s="428"/>
+      <c r="Q24" s="428"/>
+      <c r="R24" s="428"/>
+      <c r="S24" s="429"/>
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="2:20" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6676,13 +6656,13 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="431" t="s">
+      <c r="O25" s="430" t="s">
         <v>198</v>
       </c>
-      <c r="P25" s="432"/>
-      <c r="Q25" s="432"/>
-      <c r="R25" s="432"/>
-      <c r="S25" s="433"/>
+      <c r="P25" s="431"/>
+      <c r="Q25" s="431"/>
+      <c r="R25" s="431"/>
+      <c r="S25" s="432"/>
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6691,23 +6671,23 @@
       <c r="D26" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="426" t="s">
-        <v>701</v>
-      </c>
-      <c r="F26" s="426"/>
-      <c r="G26" s="426"/>
-      <c r="H26" s="426"/>
-      <c r="I26" s="426"/>
+      <c r="E26" s="425" t="s">
+        <v>700</v>
+      </c>
+      <c r="F26" s="425"/>
+      <c r="G26" s="425"/>
+      <c r="H26" s="425"/>
+      <c r="I26" s="425"/>
       <c r="J26" s="28"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="434"/>
-      <c r="P26" s="435"/>
-      <c r="Q26" s="435"/>
-      <c r="R26" s="435"/>
-      <c r="S26" s="436"/>
+      <c r="O26" s="433"/>
+      <c r="P26" s="434"/>
+      <c r="Q26" s="434"/>
+      <c r="R26" s="434"/>
+      <c r="S26" s="435"/>
       <c r="T26" s="7"/>
     </row>
     <row r="27" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6717,24 +6697,24 @@
         <v>9</v>
       </c>
       <c r="E27" s="25"/>
-      <c r="F27" s="427" t="s">
-        <v>697</v>
-      </c>
-      <c r="G27" s="427"/>
-      <c r="H27" s="427"/>
+      <c r="F27" s="426" t="s">
+        <v>701</v>
+      </c>
+      <c r="G27" s="426"/>
+      <c r="H27" s="426"/>
       <c r="I27" s="26"/>
       <c r="J27" s="30"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="437" t="s">
+      <c r="O27" s="436" t="s">
         <v>10</v>
       </c>
-      <c r="P27" s="438"/>
-      <c r="Q27" s="438"/>
-      <c r="R27" s="438"/>
-      <c r="S27" s="439"/>
+      <c r="P27" s="437"/>
+      <c r="Q27" s="437"/>
+      <c r="R27" s="437"/>
+      <c r="S27" s="438"/>
       <c r="T27" s="7"/>
     </row>
     <row r="28" spans="2:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6822,7 +6802,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -6841,24 +6821,22 @@
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" customWidth="1"/>
-    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="696" t="s">
+      <c r="A1" s="695" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="697"/>
-      <c r="C1" s="697"/>
-      <c r="D1" s="697"/>
-      <c r="E1" s="697"/>
-      <c r="F1" s="697"/>
-      <c r="G1" s="697"/>
-      <c r="H1" s="697"/>
-      <c r="I1" s="698"/>
+      <c r="B1" s="696"/>
+      <c r="C1" s="696"/>
+      <c r="D1" s="696"/>
+      <c r="E1" s="696"/>
+      <c r="F1" s="696"/>
+      <c r="G1" s="696"/>
+      <c r="H1" s="696"/>
+      <c r="I1" s="697"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="220" t="s">
@@ -6919,42 +6897,40 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="699" t="s">
+      <c r="A4" s="698" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="700"/>
-      <c r="C4" s="700"/>
-      <c r="D4" s="700"/>
-      <c r="E4" s="700"/>
-      <c r="F4" s="700"/>
-      <c r="G4" s="700"/>
-      <c r="H4" s="700"/>
-      <c r="I4" s="701"/>
+      <c r="B4" s="699"/>
+      <c r="C4" s="699"/>
+      <c r="D4" s="699"/>
+      <c r="E4" s="699"/>
+      <c r="F4" s="699"/>
+      <c r="G4" s="699"/>
+      <c r="H4" s="699"/>
+      <c r="I4" s="700"/>
     </row>
     <row r="5" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="306" t="s">
+      <c r="A5" s="302" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="368" t="s">
+      <c r="B5" s="354" t="s">
         <v>431</v>
       </c>
-      <c r="C5" s="401" t="s">
+      <c r="C5" s="419" t="s">
         <v>432</v>
       </c>
-      <c r="D5" s="401" t="s">
+      <c r="D5" s="419" t="s">
         <v>371</v>
       </c>
-      <c r="E5" s="401" t="s">
+      <c r="E5" s="419" t="s">
         <v>453</v>
       </c>
-      <c r="F5" s="401" t="s">
+      <c r="F5" s="419" t="s">
         <v>387</v>
       </c>
-      <c r="G5" s="387" t="s">
-        <v>343</v>
-      </c>
-      <c r="H5" s="292"/>
-      <c r="I5" s="300"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="297"/>
     </row>
     <row r="6" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="220" t="s">
@@ -6969,41 +6945,55 @@
       <c r="D6" s="227" t="s">
         <v>450</v>
       </c>
-      <c r="E6" s="384" t="s">
+      <c r="E6" s="405" t="s">
         <v>443</v>
       </c>
-      <c r="F6" s="291"/>
-      <c r="G6" s="389" t="s">
+      <c r="F6" s="288"/>
+      <c r="G6" s="411" t="s">
         <v>303</v>
       </c>
-      <c r="H6" s="291"/>
-      <c r="I6" s="296"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="288"/>
+      <c r="I6" s="293"/>
+    </row>
+    <row r="7" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="220" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="298"/>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="245"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="408" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="410" t="s">
+        <v>441</v>
+      </c>
+      <c r="D7" s="410" t="s">
+        <v>440</v>
+      </c>
+      <c r="E7" s="315"/>
+      <c r="F7" s="410" t="s">
+        <v>442</v>
+      </c>
+      <c r="G7" s="315"/>
+      <c r="H7" s="288"/>
+      <c r="I7" s="243"/>
+    </row>
+    <row r="8" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="298"/>
-      <c r="C8" s="291"/>
-      <c r="D8" s="291"/>
-      <c r="E8" s="291"/>
-      <c r="F8" s="291"/>
-      <c r="G8" s="291"/>
-      <c r="H8" s="319"/>
-      <c r="I8" s="296"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="405" t="s">
+        <v>438</v>
+      </c>
+      <c r="D8" s="288"/>
+      <c r="E8" s="410" t="s">
+        <v>458</v>
+      </c>
+      <c r="F8" s="410" t="s">
+        <v>459</v>
+      </c>
+      <c r="G8" s="288"/>
+      <c r="H8" s="315"/>
+      <c r="I8" s="293"/>
     </row>
     <row r="9" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="220" t="s">
@@ -7018,434 +7008,421 @@
       <c r="D9" s="227" t="s">
         <v>319</v>
       </c>
-      <c r="E9" s="264" t="s">
+      <c r="E9" s="262" t="s">
         <v>603</v>
       </c>
-      <c r="F9" s="264" t="s">
+      <c r="F9" s="262" t="s">
         <v>296</v>
       </c>
       <c r="G9" s="140" t="s">
         <v>319</v>
       </c>
-      <c r="H9" s="291"/>
-      <c r="I9" s="296"/>
+      <c r="H9" s="288"/>
+      <c r="I9" s="293"/>
     </row>
     <row r="10" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="220" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="215" t="s">
-        <v>473</v>
-      </c>
-      <c r="C10" s="388" t="s">
-        <v>441</v>
-      </c>
-      <c r="D10" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="E10" s="388" t="s">
-        <v>440</v>
-      </c>
-      <c r="F10" s="388" t="s">
-        <v>442</v>
-      </c>
-      <c r="G10" s="291"/>
-      <c r="H10" s="291"/>
-      <c r="I10" s="296"/>
+      <c r="B10" s="413" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" s="410" t="s">
+        <v>604</v>
+      </c>
+      <c r="D10" s="214"/>
+      <c r="E10" s="410" t="s">
+        <v>455</v>
+      </c>
+      <c r="F10" s="151"/>
+      <c r="G10" s="288"/>
+      <c r="H10" s="288"/>
+      <c r="I10" s="293"/>
     </row>
     <row r="11" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="220" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="391" t="s">
+      <c r="B11" s="413" t="s">
         <v>456</v>
       </c>
-      <c r="C11" s="384" t="s">
-        <v>438</v>
-      </c>
-      <c r="D11" s="388" t="s">
+      <c r="C11" s="410" t="s">
         <v>457</v>
       </c>
-      <c r="E11" s="312" t="s">
+      <c r="D11" s="151"/>
+      <c r="E11" s="308" t="s">
         <v>613</v>
       </c>
-      <c r="F11" s="384" t="s">
+      <c r="F11" s="405" t="s">
         <v>376</v>
       </c>
       <c r="G11" s="151"/>
       <c r="H11" s="230"/>
-      <c r="I11" s="283"/>
+      <c r="I11" s="281"/>
     </row>
     <row r="12" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="220" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="391" t="s">
-        <v>454</v>
-      </c>
-      <c r="C12" s="388" t="s">
+      <c r="B12" s="215" t="s">
+        <v>473</v>
+      </c>
+      <c r="C12" s="410" t="s">
         <v>540</v>
       </c>
-      <c r="D12" s="388" t="s">
-        <v>455</v>
-      </c>
-      <c r="E12" s="388" t="s">
-        <v>604</v>
+      <c r="D12" s="315"/>
+      <c r="E12" s="211" t="s">
+        <v>342</v>
       </c>
       <c r="F12" s="227" t="s">
         <v>532</v>
       </c>
-      <c r="G12" s="291"/>
+      <c r="G12" s="288"/>
       <c r="H12" s="230"/>
-      <c r="I12" s="296"/>
+      <c r="I12" s="293"/>
     </row>
     <row r="13" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="220" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="298"/>
-      <c r="C13" s="384" t="s">
+      <c r="B13" s="295"/>
+      <c r="C13" s="405" t="s">
         <v>383</v>
       </c>
-      <c r="D13" s="388" t="s">
-        <v>458</v>
-      </c>
-      <c r="E13" s="388" t="s">
-        <v>459</v>
-      </c>
-      <c r="F13" s="291"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="296"/>
+      <c r="D13" s="288"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="288"/>
+      <c r="G13" s="288"/>
+      <c r="H13" s="315"/>
+      <c r="I13" s="293"/>
     </row>
     <row r="14" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="220" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="298"/>
-      <c r="C14" s="291"/>
+      <c r="B14" s="295"/>
+      <c r="C14" s="288"/>
       <c r="D14" s="151"/>
-      <c r="E14" s="291"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="291"/>
+      <c r="E14" s="742"/>
+      <c r="F14" s="288"/>
+      <c r="G14" s="288"/>
       <c r="H14" s="151"/>
-      <c r="I14" s="296"/>
-    </row>
-    <row r="15" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="293"/>
+    </row>
+    <row r="15" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="220" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="369"/>
-      <c r="C15" s="319"/>
-      <c r="D15" s="291"/>
-      <c r="E15" s="291"/>
-      <c r="F15" s="388" t="s">
+      <c r="B15" s="355"/>
+      <c r="C15" s="315"/>
+      <c r="D15" s="288"/>
+      <c r="E15" s="288"/>
+      <c r="F15" s="410" t="s">
         <v>460</v>
       </c>
-      <c r="G15" s="230"/>
-      <c r="H15" s="388" t="s">
+      <c r="G15" s="151"/>
+      <c r="H15" s="410" t="s">
         <v>345</v>
       </c>
-      <c r="I15" s="296"/>
+      <c r="I15" s="293"/>
     </row>
     <row r="16" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="220" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="298"/>
-      <c r="C16" s="388" t="s">
+      <c r="B16" s="414" t="s">
+        <v>447</v>
+      </c>
+      <c r="C16" s="410" t="s">
         <v>452</v>
       </c>
-      <c r="D16" s="319"/>
-      <c r="E16" s="264" t="s">
+      <c r="D16" s="315"/>
+      <c r="E16" s="262" t="s">
         <v>301</v>
       </c>
-      <c r="F16" s="264" t="s">
+      <c r="F16" s="262" t="s">
         <v>297</v>
       </c>
-      <c r="G16" s="291"/>
-      <c r="H16" s="291"/>
-      <c r="I16" s="279" t="s">
+      <c r="G16" s="288"/>
+      <c r="H16" s="411" t="s">
+        <v>449</v>
+      </c>
+      <c r="I16" s="277" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="220" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="215" t="s">
+      <c r="B17" s="151"/>
+      <c r="C17" s="410" t="s">
+        <v>462</v>
+      </c>
+      <c r="D17" s="315"/>
+      <c r="E17" s="410" t="s">
+        <v>461</v>
+      </c>
+      <c r="F17" s="410" t="s">
+        <v>548</v>
+      </c>
+      <c r="G17" s="215" t="s">
         <v>475</v>
       </c>
-      <c r="C17" s="388" t="s">
-        <v>462</v>
-      </c>
-      <c r="D17" s="319"/>
-      <c r="E17" s="388" t="s">
-        <v>461</v>
-      </c>
-      <c r="F17" s="388" t="s">
-        <v>548</v>
-      </c>
-      <c r="G17" s="230"/>
-      <c r="H17" s="388" t="s">
+      <c r="H17" s="410" t="s">
         <v>547</v>
       </c>
-      <c r="I17" s="296"/>
-    </row>
-    <row r="18" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="293"/>
+    </row>
+    <row r="18" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="220" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="396" t="s">
+      <c r="B18" s="414" t="s">
         <v>495</v>
       </c>
-      <c r="C18" s="389" t="s">
+      <c r="C18" s="411" t="s">
         <v>496</v>
       </c>
-      <c r="D18" s="235"/>
-      <c r="E18" s="264" t="s">
+      <c r="D18" s="234"/>
+      <c r="E18" s="262" t="s">
         <v>302</v>
       </c>
-      <c r="F18" s="264" t="s">
+      <c r="F18" s="262" t="s">
         <v>298</v>
       </c>
-      <c r="G18" s="389" t="s">
+      <c r="G18" s="411" t="s">
         <v>307</v>
       </c>
-      <c r="H18" s="264" t="s">
+      <c r="H18" s="262" t="s">
         <v>299</v>
       </c>
-      <c r="I18" s="390" t="s">
+      <c r="I18" s="412" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="220" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="391" t="s">
+      <c r="B19" s="151"/>
+      <c r="C19" s="410" t="s">
+        <v>463</v>
+      </c>
+      <c r="D19" s="410" t="s">
+        <v>346</v>
+      </c>
+      <c r="E19" s="410" t="s">
+        <v>451</v>
+      </c>
+      <c r="F19" s="410" t="s">
+        <v>477</v>
+      </c>
+      <c r="G19" s="413" t="s">
         <v>427</v>
       </c>
-      <c r="C19" s="388" t="s">
-        <v>463</v>
-      </c>
-      <c r="D19" s="388" t="s">
-        <v>346</v>
-      </c>
-      <c r="E19" s="388" t="s">
-        <v>451</v>
-      </c>
-      <c r="F19" s="388" t="s">
-        <v>477</v>
-      </c>
-      <c r="G19" s="151"/>
-      <c r="H19" s="388" t="s">
+      <c r="H19" s="410" t="s">
         <v>476</v>
       </c>
-      <c r="I19" s="283"/>
-    </row>
-    <row r="20" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="281"/>
+    </row>
+    <row r="20" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="224" t="s">
         <v>140</v>
       </c>
       <c r="B20" s="229" t="s">
         <v>444</v>
       </c>
-      <c r="C20" s="384" t="s">
+      <c r="C20" s="405" t="s">
         <v>445</v>
       </c>
       <c r="D20" s="151"/>
-      <c r="E20" s="291"/>
-      <c r="F20" s="384" t="s">
+      <c r="E20" s="288"/>
+      <c r="F20" s="405" t="s">
         <v>446</v>
       </c>
-      <c r="G20" s="291"/>
-      <c r="H20" s="262" t="s">
+      <c r="G20" s="423" t="s">
+        <v>632</v>
+      </c>
+      <c r="H20" s="260" t="s">
         <v>639</v>
       </c>
-      <c r="I20" s="272" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="314" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="220" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="396" t="s">
-        <v>447</v>
-      </c>
-      <c r="C21" s="264" t="s">
-        <v>316</v>
-      </c>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
       <c r="D21" s="230"/>
-      <c r="E21" s="291"/>
+      <c r="E21" s="288"/>
       <c r="F21" s="151"/>
-      <c r="G21" s="291"/>
-      <c r="H21" s="389" t="s">
-        <v>449</v>
-      </c>
-      <c r="I21" s="318" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="288"/>
+      <c r="H21" s="288"/>
+      <c r="I21" s="281"/>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="220" t="s">
         <v>388</v>
       </c>
-      <c r="B22" s="370"/>
+      <c r="B22" s="356"/>
       <c r="C22" s="127"/>
       <c r="D22" s="127"/>
-      <c r="E22" s="249"/>
+      <c r="E22" s="247"/>
       <c r="F22" s="127"/>
       <c r="G22" s="127"/>
       <c r="H22" s="127"/>
-      <c r="I22" s="353"/>
-    </row>
-    <row r="23" spans="1:14" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="699" t="s">
+      <c r="I22" s="349"/>
+    </row>
+    <row r="23" spans="1:9" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="698" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="702"/>
-      <c r="C23" s="702"/>
-      <c r="D23" s="702"/>
-      <c r="E23" s="702"/>
-      <c r="F23" s="702"/>
-      <c r="G23" s="702"/>
-      <c r="H23" s="702"/>
-      <c r="I23" s="703"/>
-    </row>
-    <row r="24" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="701"/>
+      <c r="C23" s="701"/>
+      <c r="D23" s="701"/>
+      <c r="E23" s="701"/>
+      <c r="F23" s="701"/>
+      <c r="G23" s="701"/>
+      <c r="H23" s="701"/>
+      <c r="I23" s="702"/>
+    </row>
+    <row r="24" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="224" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="694" t="s">
+      <c r="B24" s="693" t="s">
         <v>664</v>
       </c>
-      <c r="C24" s="695"/>
-      <c r="D24" s="695"/>
-      <c r="E24" s="292"/>
-      <c r="F24" s="236"/>
-      <c r="G24" s="649" t="s">
+      <c r="C24" s="694"/>
+      <c r="D24" s="694"/>
+      <c r="E24" s="289"/>
+      <c r="F24" s="235"/>
+      <c r="G24" s="648" t="s">
         <v>665</v>
       </c>
-      <c r="H24" s="649"/>
-      <c r="I24" s="704"/>
-      <c r="N24" s="305"/>
-    </row>
-    <row r="25" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="648"/>
+      <c r="I24" s="703"/>
+    </row>
+    <row r="25" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="220" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="689" t="s">
+      <c r="B25" s="688" t="s">
         <v>663</v>
       </c>
-      <c r="C25" s="660"/>
-      <c r="D25" s="660"/>
-      <c r="E25" s="291"/>
-      <c r="F25" s="319"/>
-      <c r="G25" s="660" t="s">
+      <c r="C25" s="659"/>
+      <c r="D25" s="659"/>
+      <c r="E25" s="288"/>
+      <c r="F25" s="315"/>
+      <c r="G25" s="659" t="s">
         <v>666</v>
       </c>
-      <c r="H25" s="660"/>
-      <c r="I25" s="661"/>
-    </row>
-    <row r="26" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="659"/>
+      <c r="I25" s="660"/>
+    </row>
+    <row r="26" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="220" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="689" t="s">
+      <c r="B26" s="688" t="s">
         <v>662</v>
       </c>
-      <c r="C26" s="660"/>
-      <c r="D26" s="660"/>
-      <c r="E26" s="312" t="s">
+      <c r="C26" s="659"/>
+      <c r="D26" s="659"/>
+      <c r="E26" s="308" t="s">
         <v>640</v>
       </c>
       <c r="F26" s="48"/>
-      <c r="G26" s="630" t="s">
+      <c r="G26" s="629" t="s">
         <v>667</v>
       </c>
-      <c r="H26" s="630"/>
-      <c r="I26" s="691"/>
-    </row>
-    <row r="27" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="629"/>
+      <c r="I26" s="690"/>
+    </row>
+    <row r="27" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="220" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="692" t="s">
+      <c r="B27" s="691" t="s">
         <v>687</v>
       </c>
-      <c r="C27" s="693"/>
-      <c r="D27" s="693"/>
-      <c r="E27" s="325"/>
-      <c r="F27" s="326"/>
-      <c r="G27" s="327"/>
-      <c r="H27" s="327"/>
-      <c r="I27" s="330"/>
-    </row>
-    <row r="28" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="692"/>
+      <c r="D27" s="692"/>
+      <c r="E27" s="321"/>
+      <c r="F27" s="322"/>
+      <c r="G27" s="323"/>
+      <c r="H27" s="323"/>
+      <c r="I27" s="326"/>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="220" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="640" t="s">
+      <c r="B28" s="639" t="s">
         <v>491</v>
       </c>
-      <c r="C28" s="641"/>
-      <c r="D28" s="641"/>
-      <c r="E28" s="641"/>
-      <c r="F28" s="641"/>
-      <c r="G28" s="641"/>
-      <c r="H28" s="641"/>
-      <c r="I28" s="642"/>
-    </row>
-    <row r="29" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="640"/>
+      <c r="D28" s="640"/>
+      <c r="E28" s="640"/>
+      <c r="F28" s="640"/>
+      <c r="G28" s="640"/>
+      <c r="H28" s="640"/>
+      <c r="I28" s="641"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="220" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="640" t="s">
+      <c r="B29" s="639" t="s">
         <v>491</v>
       </c>
-      <c r="C29" s="641"/>
-      <c r="D29" s="641"/>
-      <c r="E29" s="642"/>
-      <c r="F29" s="329"/>
-      <c r="G29" s="292"/>
-      <c r="H29" s="292"/>
-      <c r="I29" s="300"/>
-    </row>
-    <row r="30" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="640"/>
+      <c r="D29" s="640"/>
+      <c r="E29" s="641"/>
+      <c r="F29" s="325"/>
+      <c r="G29" s="289"/>
+      <c r="H29" s="289"/>
+      <c r="I29" s="297"/>
+    </row>
+    <row r="30" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="220" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="690" t="s">
+      <c r="B30" s="689" t="s">
         <v>669</v>
       </c>
-      <c r="C30" s="631"/>
-      <c r="D30" s="631"/>
-      <c r="E30" s="328"/>
+      <c r="C30" s="630"/>
+      <c r="D30" s="630"/>
+      <c r="E30" s="324"/>
       <c r="F30" s="48"/>
-      <c r="G30" s="660" t="s">
+      <c r="G30" s="659" t="s">
         <v>668</v>
       </c>
-      <c r="H30" s="660"/>
-      <c r="I30" s="661"/>
-    </row>
-    <row r="31" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H30" s="659"/>
+      <c r="I30" s="660"/>
+    </row>
+    <row r="31" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="220" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="237"/>
-      <c r="C31" s="238"/>
-      <c r="D31" s="238"/>
-      <c r="E31" s="238"/>
-      <c r="F31" s="238"/>
-      <c r="G31" s="302"/>
-      <c r="H31" s="278" t="s">
+      <c r="B31" s="236"/>
+      <c r="C31" s="237"/>
+      <c r="D31" s="276" t="s">
+        <v>313</v>
+      </c>
+      <c r="E31" s="237"/>
+      <c r="F31" s="276" t="s">
+        <v>312</v>
+      </c>
+      <c r="G31" s="422" t="s">
         <v>311</v>
       </c>
-      <c r="I31" s="367" t="s">
-        <v>312</v>
-      </c>
+      <c r="H31" s="299"/>
+      <c r="I31" s="421"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7498,17 +7475,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="707" t="s">
+      <c r="A1" s="706" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="708"/>
-      <c r="C1" s="708"/>
-      <c r="D1" s="708"/>
-      <c r="E1" s="708"/>
-      <c r="F1" s="708"/>
-      <c r="G1" s="708"/>
-      <c r="H1" s="708"/>
-      <c r="I1" s="708"/>
+      <c r="B1" s="707"/>
+      <c r="C1" s="707"/>
+      <c r="D1" s="707"/>
+      <c r="E1" s="707"/>
+      <c r="F1" s="707"/>
+      <c r="G1" s="707"/>
+      <c r="H1" s="707"/>
+      <c r="I1" s="707"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -7569,42 +7546,42 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="709" t="s">
+      <c r="A4" s="708" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="710"/>
-      <c r="C4" s="710"/>
-      <c r="D4" s="710"/>
-      <c r="E4" s="710"/>
-      <c r="F4" s="710"/>
-      <c r="G4" s="711"/>
-      <c r="H4" s="710"/>
-      <c r="I4" s="710"/>
+      <c r="B4" s="709"/>
+      <c r="C4" s="709"/>
+      <c r="D4" s="709"/>
+      <c r="E4" s="709"/>
+      <c r="F4" s="709"/>
+      <c r="G4" s="710"/>
+      <c r="H4" s="709"/>
+      <c r="I4" s="709"/>
     </row>
     <row r="5" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="253" t="s">
+      <c r="B5" s="251" t="s">
         <v>377</v>
       </c>
-      <c r="C5" s="254" t="s">
+      <c r="C5" s="252" t="s">
         <v>376</v>
       </c>
-      <c r="D5" s="254" t="s">
+      <c r="D5" s="252" t="s">
         <v>364</v>
       </c>
-      <c r="E5" s="254" t="s">
+      <c r="E5" s="252" t="s">
         <v>363</v>
       </c>
-      <c r="F5" s="304"/>
-      <c r="G5" s="712" t="s">
+      <c r="F5" s="301"/>
+      <c r="G5" s="711" t="s">
         <v>696</v>
       </c>
-      <c r="H5" s="253" t="s">
+      <c r="H5" s="251" t="s">
         <v>378</v>
       </c>
-      <c r="I5" s="240"/>
+      <c r="I5" s="239"/>
     </row>
     <row r="6" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
@@ -7619,15 +7596,15 @@
       <c r="D6" s="140" t="s">
         <v>319</v>
       </c>
-      <c r="E6" s="291"/>
-      <c r="F6" s="371" t="s">
+      <c r="E6" s="288"/>
+      <c r="F6" s="357" t="s">
         <v>383</v>
       </c>
-      <c r="G6" s="713"/>
+      <c r="G6" s="712"/>
       <c r="H6" s="229" t="s">
         <v>606</v>
       </c>
-      <c r="I6" s="296"/>
+      <c r="I6" s="293"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
@@ -7645,10 +7622,10 @@
       <c r="E7" s="213" t="s">
         <v>366</v>
       </c>
-      <c r="F7" s="373" t="s">
+      <c r="F7" s="359" t="s">
         <v>465</v>
       </c>
-      <c r="G7" s="713"/>
+      <c r="G7" s="712"/>
       <c r="H7" s="212" t="s">
         <v>367</v>
       </c>
@@ -7659,32 +7636,32 @@
         <v>133</v>
       </c>
       <c r="B8" s="151"/>
-      <c r="C8" s="291"/>
-      <c r="D8" s="291"/>
+      <c r="C8" s="288"/>
+      <c r="D8" s="288"/>
       <c r="E8" s="214"/>
       <c r="F8" s="151"/>
-      <c r="G8" s="713"/>
-      <c r="H8" s="298"/>
+      <c r="G8" s="712"/>
+      <c r="H8" s="295"/>
       <c r="I8" s="221"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="298"/>
-      <c r="C9" s="291"/>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="374"/>
-      <c r="G9" s="713"/>
-      <c r="H9" s="298"/>
+      <c r="B9" s="295"/>
+      <c r="C9" s="288"/>
+      <c r="D9" s="288"/>
+      <c r="E9" s="288"/>
+      <c r="F9" s="360"/>
+      <c r="G9" s="712"/>
+      <c r="H9" s="295"/>
       <c r="I9" s="221"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="298"/>
+      <c r="B10" s="295"/>
       <c r="C10" s="214"/>
       <c r="D10" s="213" t="s">
         <v>369</v>
@@ -7692,12 +7669,12 @@
       <c r="E10" s="213" t="s">
         <v>370</v>
       </c>
-      <c r="F10" s="372"/>
-      <c r="G10" s="713"/>
+      <c r="F10" s="358"/>
+      <c r="G10" s="712"/>
       <c r="H10" s="226" t="s">
         <v>531</v>
       </c>
-      <c r="I10" s="296"/>
+      <c r="I10" s="293"/>
     </row>
     <row r="11" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
@@ -7707,22 +7684,22 @@
       <c r="C11" s="140" t="s">
         <v>324</v>
       </c>
-      <c r="D11" s="291"/>
+      <c r="D11" s="288"/>
       <c r="E11" s="140" t="s">
         <v>322</v>
       </c>
-      <c r="F11" s="375" t="s">
+      <c r="F11" s="361" t="s">
         <v>324</v>
       </c>
-      <c r="G11" s="713"/>
+      <c r="G11" s="712"/>
       <c r="H11" s="216"/>
-      <c r="I11" s="283"/>
+      <c r="I11" s="281"/>
     </row>
     <row r="12" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="298"/>
+      <c r="B12" s="295"/>
       <c r="C12" s="217" t="s">
         <v>472</v>
       </c>
@@ -7732,10 +7709,10 @@
       <c r="E12" s="213" t="s">
         <v>431</v>
       </c>
-      <c r="F12" s="299" t="s">
+      <c r="F12" s="296" t="s">
         <v>470</v>
       </c>
-      <c r="G12" s="713"/>
+      <c r="G12" s="712"/>
       <c r="H12" s="223" t="s">
         <v>471</v>
       </c>
@@ -7745,69 +7722,69 @@
       <c r="A13" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="298"/>
+      <c r="B13" s="295"/>
       <c r="C13" s="151"/>
-      <c r="D13" s="291"/>
+      <c r="D13" s="288"/>
       <c r="E13" s="214"/>
-      <c r="F13" s="372"/>
-      <c r="G13" s="713"/>
-      <c r="H13" s="298"/>
-      <c r="I13" s="283"/>
+      <c r="F13" s="358"/>
+      <c r="G13" s="712"/>
+      <c r="H13" s="295"/>
+      <c r="I13" s="281"/>
     </row>
     <row r="14" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="298"/>
+      <c r="B14" s="295"/>
       <c r="C14" s="140" t="s">
         <v>326</v>
       </c>
+      <c r="D14" s="151"/>
       <c r="E14" s="140" t="s">
         <v>325</v>
       </c>
-      <c r="F14" s="375" t="s">
+      <c r="F14" s="361" t="s">
         <v>326</v>
       </c>
-      <c r="G14" s="713"/>
-      <c r="H14" s="215" t="s">
-        <v>545</v>
-      </c>
-      <c r="I14" s="296"/>
+      <c r="G14" s="712"/>
+      <c r="H14" s="295"/>
+      <c r="I14" s="293"/>
     </row>
     <row r="15" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="220" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="298"/>
-      <c r="C15" s="291"/>
-      <c r="D15" s="291"/>
-      <c r="E15" s="291"/>
+      <c r="B15" s="295"/>
+      <c r="C15" s="288"/>
+      <c r="D15" s="288"/>
+      <c r="E15" s="288"/>
       <c r="F15" s="151"/>
-      <c r="G15" s="713"/>
+      <c r="G15" s="712"/>
+      <c r="H15" s="151"/>
       <c r="I15" s="221"/>
     </row>
     <row r="16" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="220" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="366" t="s">
+      <c r="B16" s="353" t="s">
         <v>327</v>
       </c>
       <c r="C16" s="140" t="s">
         <v>328</v>
       </c>
       <c r="D16" s="214"/>
-      <c r="E16" s="262" t="s">
+      <c r="E16" s="260" t="s">
         <v>629</v>
       </c>
-      <c r="F16" s="421" t="s">
+      <c r="F16" s="388" t="s">
         <v>631</v>
       </c>
-      <c r="G16" s="713"/>
-      <c r="H16" s="376" t="s">
+      <c r="G16" s="712"/>
+      <c r="H16" s="362" t="s">
         <v>630</v>
       </c>
-      <c r="I16" s="318" t="s">
+      <c r="I16" s="314" t="s">
         <v>549</v>
       </c>
     </row>
@@ -7815,21 +7792,23 @@
       <c r="A17" s="220" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="366" t="s">
+      <c r="B17" s="353" t="s">
         <v>330</v>
       </c>
       <c r="C17" s="140" t="s">
         <v>329</v>
       </c>
-      <c r="D17" s="291"/>
+      <c r="D17" s="423" t="s">
+        <v>313</v>
+      </c>
       <c r="E17" s="211" t="s">
         <v>345</v>
       </c>
-      <c r="F17" s="377" t="s">
+      <c r="F17" s="363" t="s">
         <v>347</v>
       </c>
-      <c r="G17" s="713"/>
-      <c r="H17" s="252" t="s">
+      <c r="G17" s="712"/>
+      <c r="H17" s="250" t="s">
         <v>311</v>
       </c>
       <c r="I17" s="219" t="s">
@@ -7843,63 +7822,67 @@
       <c r="B18" s="212" t="s">
         <v>381</v>
       </c>
-      <c r="C18" s="388" t="s">
+      <c r="C18" s="396" t="s">
         <v>543</v>
       </c>
       <c r="D18" s="151"/>
-      <c r="E18" s="291"/>
-      <c r="F18" s="371" t="s">
+      <c r="E18" s="288"/>
+      <c r="F18" s="357" t="s">
         <v>380</v>
       </c>
-      <c r="G18" s="713"/>
+      <c r="G18" s="712"/>
       <c r="H18" s="215" t="s">
         <v>544</v>
       </c>
-      <c r="I18" s="301" t="s">
+      <c r="I18" s="298" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="220" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="391" t="s">
+      <c r="B19" s="398" t="s">
         <v>410</v>
       </c>
-      <c r="C19" s="151"/>
-      <c r="D19" s="291"/>
+      <c r="C19" s="129" t="s">
+        <v>315</v>
+      </c>
+      <c r="D19" s="215" t="s">
+        <v>545</v>
+      </c>
       <c r="E19" s="211" t="s">
         <v>547</v>
       </c>
-      <c r="F19" s="411" t="s">
+      <c r="F19" s="378" t="s">
         <v>548</v>
       </c>
-      <c r="G19" s="713"/>
-      <c r="H19" s="298"/>
-      <c r="I19" s="296"/>
-    </row>
-    <row r="20" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="712"/>
+      <c r="H19" s="420" t="s">
+        <v>316</v>
+      </c>
+      <c r="I19" s="293"/>
+    </row>
+    <row r="20" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="220" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="298"/>
-      <c r="C20" s="129" t="s">
-        <v>315</v>
-      </c>
-      <c r="D20" s="389" t="s">
+      <c r="B20" s="295"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="397" t="s">
         <v>623</v>
       </c>
       <c r="E20" s="211" t="s">
         <v>476</v>
       </c>
-      <c r="F20" s="377" t="s">
+      <c r="F20" s="363" t="s">
         <v>477</v>
       </c>
-      <c r="G20" s="713"/>
+      <c r="G20" s="712"/>
       <c r="H20" s="215" t="s">
         <v>546</v>
       </c>
-      <c r="I20" s="365" t="s">
+      <c r="I20" s="352" t="s">
         <v>346</v>
       </c>
     </row>
@@ -7907,197 +7890,202 @@
       <c r="A21" s="220" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="291"/>
-      <c r="D21" s="291"/>
-      <c r="E21" s="262" t="s">
+      <c r="B21" s="151"/>
+      <c r="C21" s="288"/>
+      <c r="D21" s="260" t="s">
+        <v>632</v>
+      </c>
+      <c r="E21" s="260" t="s">
         <v>634</v>
       </c>
-      <c r="F21" s="377" t="s">
+      <c r="F21" s="363" t="s">
         <v>474</v>
       </c>
-      <c r="G21" s="713"/>
-      <c r="H21" s="252" t="s">
+      <c r="G21" s="712"/>
+      <c r="H21" s="250" t="s">
         <v>639</v>
       </c>
-      <c r="I21" s="296"/>
+      <c r="I21" s="270" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="255" t="s">
+      <c r="A22" s="253" t="s">
         <v>388</v>
       </c>
-      <c r="B22" s="363" t="s">
+      <c r="B22" s="350" t="s">
         <v>494</v>
       </c>
-      <c r="C22" s="423" t="s">
+      <c r="C22" s="390" t="s">
         <v>348</v>
       </c>
-      <c r="D22" s="400" t="s">
+      <c r="D22" s="404" t="s">
         <v>469</v>
       </c>
-      <c r="E22" s="363" t="s">
+      <c r="E22" s="350" t="s">
         <v>468</v>
       </c>
-      <c r="F22" s="422" t="s">
+      <c r="F22" s="389" t="s">
         <v>349</v>
       </c>
-      <c r="G22" s="714"/>
-      <c r="H22" s="392" t="s">
+      <c r="G22" s="713"/>
+      <c r="H22" s="399" t="s">
         <v>350</v>
       </c>
-      <c r="I22" s="364" t="s">
+      <c r="I22" s="351" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="682" t="s">
+      <c r="A23" s="681" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="683"/>
-      <c r="C23" s="683"/>
-      <c r="D23" s="683"/>
-      <c r="E23" s="683"/>
-      <c r="F23" s="683"/>
-      <c r="G23" s="683"/>
-      <c r="H23" s="683"/>
-      <c r="I23" s="684"/>
+      <c r="B23" s="682"/>
+      <c r="C23" s="682"/>
+      <c r="D23" s="682"/>
+      <c r="E23" s="682"/>
+      <c r="F23" s="682"/>
+      <c r="G23" s="682"/>
+      <c r="H23" s="682"/>
+      <c r="I23" s="683"/>
     </row>
     <row r="24" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="718" t="s">
+      <c r="B24" s="717" t="s">
         <v>688</v>
       </c>
-      <c r="C24" s="719"/>
-      <c r="D24" s="719"/>
-      <c r="E24" s="730" t="s">
+      <c r="C24" s="718"/>
+      <c r="D24" s="718"/>
+      <c r="E24" s="729" t="s">
         <v>490</v>
       </c>
-      <c r="F24" s="731"/>
-      <c r="G24" s="715" t="s">
+      <c r="F24" s="730"/>
+      <c r="G24" s="714" t="s">
         <v>190</v>
       </c>
-      <c r="H24" s="705" t="s">
+      <c r="H24" s="704" t="s">
         <v>490</v>
       </c>
-      <c r="I24" s="706"/>
+      <c r="I24" s="705"/>
     </row>
     <row r="25" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="741" t="s">
+      <c r="B25" s="740" t="s">
         <v>689</v>
       </c>
-      <c r="C25" s="742"/>
-      <c r="D25" s="742"/>
+      <c r="C25" s="741"/>
+      <c r="D25" s="741"/>
       <c r="E25" s="227" t="s">
         <v>439</v>
       </c>
       <c r="F25" s="227" t="s">
         <v>321</v>
       </c>
-      <c r="G25" s="716"/>
-      <c r="H25" s="256"/>
-      <c r="I25" s="257"/>
+      <c r="G25" s="715"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="255"/>
     </row>
     <row r="26" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="722" t="s">
+      <c r="B26" s="721" t="s">
         <v>690</v>
       </c>
-      <c r="C26" s="660"/>
-      <c r="D26" s="660"/>
+      <c r="C26" s="659"/>
+      <c r="D26" s="659"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="260"/>
-      <c r="G26" s="716"/>
-      <c r="H26" s="323"/>
-      <c r="I26" s="324"/>
+      <c r="F26" s="258"/>
+      <c r="G26" s="715"/>
+      <c r="H26" s="319"/>
+      <c r="I26" s="320"/>
     </row>
     <row r="27" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="646" t="s">
+      <c r="B27" s="645" t="s">
         <v>692</v>
       </c>
-      <c r="C27" s="647"/>
-      <c r="D27" s="647"/>
-      <c r="E27" s="250"/>
-      <c r="F27" s="732" t="s">
+      <c r="C27" s="646"/>
+      <c r="D27" s="646"/>
+      <c r="E27" s="248"/>
+      <c r="F27" s="731" t="s">
         <v>489</v>
       </c>
-      <c r="G27" s="716"/>
-      <c r="H27" s="735" t="s">
+      <c r="G27" s="715"/>
+      <c r="H27" s="734" t="s">
         <v>489</v>
       </c>
-      <c r="I27" s="736"/>
-    </row>
-    <row r="28" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="735"/>
+    </row>
+    <row r="28" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="723" t="s">
+      <c r="B28" s="722" t="s">
         <v>691</v>
       </c>
-      <c r="C28" s="724"/>
-      <c r="D28" s="724"/>
-      <c r="E28" s="260"/>
-      <c r="F28" s="733"/>
-      <c r="G28" s="716"/>
-      <c r="H28" s="737"/>
-      <c r="I28" s="738"/>
+      <c r="C28" s="723"/>
+      <c r="D28" s="723"/>
+      <c r="E28" s="258"/>
+      <c r="F28" s="732"/>
+      <c r="G28" s="715"/>
+      <c r="H28" s="736"/>
+      <c r="I28" s="737"/>
     </row>
     <row r="29" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="725" t="s">
+      <c r="B29" s="724" t="s">
         <v>489</v>
       </c>
-      <c r="C29" s="726"/>
-      <c r="D29" s="726"/>
-      <c r="E29" s="726"/>
-      <c r="F29" s="734"/>
-      <c r="G29" s="716"/>
-      <c r="H29" s="739"/>
-      <c r="I29" s="740"/>
-    </row>
-    <row r="30" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="725"/>
+      <c r="D29" s="725"/>
+      <c r="E29" s="725"/>
+      <c r="F29" s="733"/>
+      <c r="G29" s="715"/>
+      <c r="H29" s="738"/>
+      <c r="I29" s="739"/>
+    </row>
+    <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="220" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="727"/>
-      <c r="C30" s="728"/>
-      <c r="D30" s="728"/>
-      <c r="E30" s="729"/>
-      <c r="F30" s="261" t="s">
+      <c r="B30" s="726"/>
+      <c r="C30" s="727"/>
+      <c r="D30" s="727"/>
+      <c r="E30" s="728"/>
+      <c r="F30" s="259" t="s">
         <v>487</v>
       </c>
-      <c r="G30" s="716"/>
-      <c r="H30" s="720" t="s">
+      <c r="G30" s="715"/>
+      <c r="H30" s="719" t="s">
         <v>488</v>
       </c>
-      <c r="I30" s="721"/>
-    </row>
-    <row r="31" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="720"/>
+    </row>
+    <row r="31" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="303"/>
-      <c r="C31" s="258"/>
-      <c r="D31" s="302"/>
-      <c r="E31" s="302"/>
-      <c r="F31" s="259" t="s">
+      <c r="B31" s="300"/>
+      <c r="C31" s="256"/>
+      <c r="D31" s="299"/>
+      <c r="E31" s="299"/>
+      <c r="F31" s="257" t="s">
         <v>310</v>
       </c>
-      <c r="G31" s="717"/>
-      <c r="H31" s="259" t="s">
+      <c r="G31" s="716"/>
+      <c r="H31" s="257" t="s">
         <v>637</v>
       </c>
-      <c r="I31" s="251"/>
+      <c r="I31" s="249"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -8150,58 +8138,58 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="51"/>
-      <c r="B1" s="448" t="s">
+      <c r="B1" s="447" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="449"/>
-      <c r="D1" s="449"/>
-      <c r="E1" s="449"/>
-      <c r="F1" s="449"/>
-      <c r="G1" s="449"/>
-      <c r="H1" s="449"/>
-      <c r="I1" s="450"/>
+      <c r="C1" s="448"/>
+      <c r="D1" s="448"/>
+      <c r="E1" s="448"/>
+      <c r="F1" s="448"/>
+      <c r="G1" s="448"/>
+      <c r="H1" s="448"/>
+      <c r="I1" s="449"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
-      <c r="B2" s="451"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="452"/>
-      <c r="H2" s="452"/>
-      <c r="I2" s="453"/>
+      <c r="B2" s="450"/>
+      <c r="C2" s="451"/>
+      <c r="D2" s="451"/>
+      <c r="E2" s="451"/>
+      <c r="F2" s="451"/>
+      <c r="G2" s="451"/>
+      <c r="H2" s="451"/>
+      <c r="I2" s="452"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="445" t="s">
+      <c r="A3" s="444" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="454" t="s">
+      <c r="B3" s="453" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="455"/>
-      <c r="D3" s="455"/>
-      <c r="E3" s="455"/>
-      <c r="F3" s="455"/>
-      <c r="G3" s="455"/>
-      <c r="H3" s="455"/>
-      <c r="I3" s="456"/>
+      <c r="C3" s="454"/>
+      <c r="D3" s="454"/>
+      <c r="E3" s="454"/>
+      <c r="F3" s="454"/>
+      <c r="G3" s="454"/>
+      <c r="H3" s="454"/>
+      <c r="I3" s="455"/>
     </row>
     <row r="4" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="446"/>
-      <c r="B4" s="457" t="s">
+      <c r="A4" s="445"/>
+      <c r="B4" s="456" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="458"/>
-      <c r="D4" s="458"/>
-      <c r="E4" s="458"/>
-      <c r="F4" s="458"/>
-      <c r="G4" s="458"/>
-      <c r="H4" s="458"/>
-      <c r="I4" s="459"/>
+      <c r="C4" s="457"/>
+      <c r="D4" s="457"/>
+      <c r="E4" s="457"/>
+      <c r="F4" s="457"/>
+      <c r="G4" s="457"/>
+      <c r="H4" s="457"/>
+      <c r="I4" s="458"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="446"/>
+      <c r="A5" s="445"/>
       <c r="B5" s="170" t="s">
         <v>211</v>
       </c>
@@ -8228,20 +8216,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="446"/>
-      <c r="B6" s="460" t="s">
+      <c r="A6" s="445"/>
+      <c r="B6" s="459" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="461"/>
-      <c r="D6" s="461"/>
-      <c r="E6" s="461"/>
-      <c r="F6" s="461"/>
-      <c r="G6" s="461"/>
-      <c r="H6" s="461"/>
-      <c r="I6" s="462"/>
+      <c r="C6" s="460"/>
+      <c r="D6" s="460"/>
+      <c r="E6" s="460"/>
+      <c r="F6" s="460"/>
+      <c r="G6" s="460"/>
+      <c r="H6" s="460"/>
+      <c r="I6" s="461"/>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="446"/>
+      <c r="A7" s="445"/>
       <c r="B7" s="123">
         <v>1</v>
       </c>
@@ -8268,7 +8256,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="446"/>
+      <c r="A8" s="445"/>
       <c r="B8" s="52">
         <v>2</v>
       </c>
@@ -8295,7 +8283,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="446"/>
+      <c r="A9" s="445"/>
       <c r="B9" s="52">
         <v>3</v>
       </c>
@@ -8322,7 +8310,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="446"/>
+      <c r="A10" s="445"/>
       <c r="B10" s="52">
         <v>4</v>
       </c>
@@ -8349,7 +8337,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="446"/>
+      <c r="A11" s="445"/>
       <c r="B11" s="52">
         <v>5</v>
       </c>
@@ -8376,7 +8364,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="446"/>
+      <c r="A12" s="445"/>
       <c r="B12" s="52">
         <v>6</v>
       </c>
@@ -8403,7 +8391,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="446"/>
+      <c r="A13" s="445"/>
       <c r="B13" s="52">
         <v>7</v>
       </c>
@@ -8430,7 +8418,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="446"/>
+      <c r="A14" s="445"/>
       <c r="B14" s="134">
         <v>8</v>
       </c>
@@ -8457,24 +8445,24 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="446"/>
-      <c r="B15" s="466" t="s">
+      <c r="A15" s="445"/>
+      <c r="B15" s="465" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="467"/>
-      <c r="D15" s="467"/>
-      <c r="E15" s="467"/>
-      <c r="F15" s="467"/>
-      <c r="G15" s="467"/>
-      <c r="H15" s="467"/>
-      <c r="I15" s="468"/>
+      <c r="C15" s="466"/>
+      <c r="D15" s="466"/>
+      <c r="E15" s="466"/>
+      <c r="F15" s="466"/>
+      <c r="G15" s="466"/>
+      <c r="H15" s="466"/>
+      <c r="I15" s="467"/>
     </row>
     <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="446"/>
+      <c r="A16" s="445"/>
       <c r="B16" s="138">
         <v>9</v>
       </c>
-      <c r="C16" s="321" t="s">
+      <c r="C16" s="317" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="124" t="s">
@@ -8497,11 +8485,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="446"/>
+      <c r="A17" s="445"/>
       <c r="B17" s="58">
         <v>10</v>
       </c>
-      <c r="C17" s="322" t="s">
+      <c r="C17" s="318" t="s">
         <v>206</v>
       </c>
       <c r="D17" s="53" t="s">
@@ -8524,11 +8512,11 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="446"/>
+      <c r="A18" s="445"/>
       <c r="B18" s="58">
         <v>11</v>
       </c>
-      <c r="C18" s="320" t="s">
+      <c r="C18" s="316" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="53" t="s">
@@ -8551,11 +8539,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="446"/>
+      <c r="A19" s="445"/>
       <c r="B19" s="58">
         <v>12</v>
       </c>
-      <c r="C19" s="322" t="s">
+      <c r="C19" s="318" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="53" t="s">
@@ -8578,11 +8566,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="446"/>
+      <c r="A20" s="445"/>
       <c r="B20" s="58">
         <v>13</v>
       </c>
-      <c r="C20" s="320" t="s">
+      <c r="C20" s="316" t="s">
         <v>657</v>
       </c>
       <c r="D20" s="53" t="s">
@@ -8605,20 +8593,20 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="447"/>
-      <c r="B21" s="463" t="s">
+      <c r="A21" s="446"/>
+      <c r="B21" s="462" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="464"/>
-      <c r="D21" s="464"/>
-      <c r="E21" s="464"/>
+      <c r="C21" s="463"/>
+      <c r="D21" s="463"/>
+      <c r="E21" s="463"/>
       <c r="F21" s="59">
         <f>SUM(F7:F20)</f>
         <v>79</v>
       </c>
-      <c r="G21" s="464"/>
-      <c r="H21" s="464"/>
-      <c r="I21" s="465"/>
+      <c r="G21" s="463"/>
+      <c r="H21" s="463"/>
+      <c r="I21" s="464"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8673,59 +8661,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="474"/>
-      <c r="B1" s="476" t="s">
+      <c r="A1" s="473"/>
+      <c r="B1" s="475" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="477"/>
-      <c r="D1" s="477"/>
-      <c r="E1" s="477"/>
-      <c r="F1" s="477"/>
-      <c r="G1" s="477"/>
-      <c r="H1" s="477"/>
-      <c r="I1" s="478"/>
+      <c r="C1" s="476"/>
+      <c r="D1" s="476"/>
+      <c r="E1" s="476"/>
+      <c r="F1" s="476"/>
+      <c r="G1" s="476"/>
+      <c r="H1" s="476"/>
+      <c r="I1" s="477"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="475"/>
-      <c r="B2" s="479"/>
-      <c r="C2" s="480"/>
-      <c r="D2" s="480"/>
-      <c r="E2" s="480"/>
-      <c r="F2" s="480"/>
-      <c r="G2" s="480"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="481"/>
+      <c r="A2" s="474"/>
+      <c r="B2" s="478"/>
+      <c r="C2" s="479"/>
+      <c r="D2" s="479"/>
+      <c r="E2" s="479"/>
+      <c r="F2" s="479"/>
+      <c r="G2" s="479"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="480"/>
     </row>
     <row r="3" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="482" t="s">
+      <c r="A3" s="481" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="485" t="s">
+      <c r="B3" s="484" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="486"/>
-      <c r="D3" s="486"/>
-      <c r="E3" s="486"/>
-      <c r="F3" s="486"/>
-      <c r="G3" s="486"/>
-      <c r="H3" s="486"/>
-      <c r="I3" s="487"/>
+      <c r="C3" s="485"/>
+      <c r="D3" s="485"/>
+      <c r="E3" s="485"/>
+      <c r="F3" s="485"/>
+      <c r="G3" s="485"/>
+      <c r="H3" s="485"/>
+      <c r="I3" s="486"/>
     </row>
     <row r="4" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="483"/>
-      <c r="B4" s="488" t="s">
+      <c r="A4" s="482"/>
+      <c r="B4" s="487" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="489"/>
-      <c r="D4" s="489"/>
-      <c r="E4" s="489"/>
-      <c r="F4" s="489"/>
-      <c r="G4" s="489"/>
-      <c r="H4" s="489"/>
-      <c r="I4" s="490"/>
+      <c r="C4" s="488"/>
+      <c r="D4" s="488"/>
+      <c r="E4" s="488"/>
+      <c r="F4" s="488"/>
+      <c r="G4" s="488"/>
+      <c r="H4" s="488"/>
+      <c r="I4" s="489"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="483"/>
+      <c r="A5" s="482"/>
       <c r="B5" s="173" t="s">
         <v>211</v>
       </c>
@@ -8752,24 +8740,24 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="483"/>
-      <c r="B6" s="471" t="s">
+      <c r="A6" s="482"/>
+      <c r="B6" s="470" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="472"/>
-      <c r="D6" s="472"/>
-      <c r="E6" s="472"/>
-      <c r="F6" s="472"/>
-      <c r="G6" s="472"/>
-      <c r="H6" s="472"/>
-      <c r="I6" s="473"/>
-      <c r="K6" s="469" t="s">
+      <c r="C6" s="471"/>
+      <c r="D6" s="471"/>
+      <c r="E6" s="471"/>
+      <c r="F6" s="471"/>
+      <c r="G6" s="471"/>
+      <c r="H6" s="471"/>
+      <c r="I6" s="472"/>
+      <c r="K6" s="468" t="s">
         <v>508</v>
       </c>
-      <c r="L6" s="470"/>
+      <c r="L6" s="469"/>
     </row>
     <row r="7" spans="1:12" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="483"/>
+      <c r="A7" s="482"/>
       <c r="B7" s="150">
         <v>1</v>
       </c>
@@ -8794,15 +8782,15 @@
       <c r="I7" s="144" t="s">
         <v>502</v>
       </c>
-      <c r="K7" s="282" t="s">
+      <c r="K7" s="280" t="s">
         <v>202</v>
       </c>
-      <c r="L7" s="284" t="s">
+      <c r="L7" s="282" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="483"/>
+      <c r="A8" s="482"/>
       <c r="B8" s="141">
         <v>2</v>
       </c>
@@ -8827,15 +8815,15 @@
       <c r="I8" s="121" t="s">
         <v>503</v>
       </c>
-      <c r="K8" s="282" t="s">
+      <c r="K8" s="280" t="s">
         <v>505</v>
       </c>
-      <c r="L8" s="284" t="s">
+      <c r="L8" s="282" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="483"/>
+      <c r="A9" s="482"/>
       <c r="B9" s="141">
         <v>3</v>
       </c>
@@ -8862,8 +8850,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="483"/>
-      <c r="B10" s="280">
+      <c r="A10" s="482"/>
+      <c r="B10" s="278">
         <v>4</v>
       </c>
       <c r="C10" s="74" t="s">
@@ -8889,20 +8877,20 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="483"/>
-      <c r="B11" s="471" t="s">
+      <c r="A11" s="482"/>
+      <c r="B11" s="470" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="472"/>
-      <c r="D11" s="472"/>
-      <c r="E11" s="472"/>
-      <c r="F11" s="472"/>
-      <c r="G11" s="472"/>
-      <c r="H11" s="472"/>
-      <c r="I11" s="473"/>
+      <c r="C11" s="471"/>
+      <c r="D11" s="471"/>
+      <c r="E11" s="471"/>
+      <c r="F11" s="471"/>
+      <c r="G11" s="471"/>
+      <c r="H11" s="471"/>
+      <c r="I11" s="472"/>
     </row>
     <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="483"/>
+      <c r="A12" s="482"/>
       <c r="B12" s="150">
         <v>5</v>
       </c>
@@ -8929,7 +8917,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="483"/>
+      <c r="A13" s="482"/>
       <c r="B13" s="141">
         <v>6</v>
       </c>
@@ -8956,8 +8944,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="483"/>
-      <c r="B14" s="280">
+      <c r="A14" s="482"/>
+      <c r="B14" s="278">
         <v>7</v>
       </c>
       <c r="C14" s="64" t="s">
@@ -8983,20 +8971,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="483"/>
-      <c r="B15" s="471" t="s">
+      <c r="A15" s="482"/>
+      <c r="B15" s="470" t="s">
         <v>218</v>
       </c>
-      <c r="C15" s="472"/>
-      <c r="D15" s="472"/>
-      <c r="E15" s="472"/>
-      <c r="F15" s="472"/>
-      <c r="G15" s="472"/>
-      <c r="H15" s="472"/>
-      <c r="I15" s="473"/>
+      <c r="C15" s="471"/>
+      <c r="D15" s="471"/>
+      <c r="E15" s="471"/>
+      <c r="F15" s="471"/>
+      <c r="G15" s="471"/>
+      <c r="H15" s="471"/>
+      <c r="I15" s="472"/>
     </row>
     <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="483"/>
+      <c r="A16" s="482"/>
       <c r="B16" s="150">
         <v>8</v>
       </c>
@@ -9023,7 +9011,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="483"/>
+      <c r="A17" s="482"/>
       <c r="B17" s="141">
         <v>9</v>
       </c>
@@ -9050,8 +9038,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="483"/>
-      <c r="B18" s="281">
+      <c r="A18" s="482"/>
+      <c r="B18" s="279">
         <v>10</v>
       </c>
       <c r="C18" s="64" t="s">
@@ -9077,20 +9065,20 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="483"/>
-      <c r="B19" s="471" t="s">
+      <c r="A19" s="482"/>
+      <c r="B19" s="470" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="472"/>
-      <c r="D19" s="472"/>
-      <c r="E19" s="472"/>
-      <c r="F19" s="472"/>
-      <c r="G19" s="472"/>
-      <c r="H19" s="472"/>
-      <c r="I19" s="473"/>
+      <c r="C19" s="471"/>
+      <c r="D19" s="471"/>
+      <c r="E19" s="471"/>
+      <c r="F19" s="471"/>
+      <c r="G19" s="471"/>
+      <c r="H19" s="471"/>
+      <c r="I19" s="472"/>
     </row>
     <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="483"/>
+      <c r="A20" s="482"/>
       <c r="B20" s="150">
         <v>11</v>
       </c>
@@ -9117,7 +9105,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="483"/>
+      <c r="A21" s="482"/>
       <c r="B21" s="141">
         <v>12</v>
       </c>
@@ -9144,7 +9132,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="483"/>
+      <c r="A22" s="482"/>
       <c r="B22" s="141">
         <v>13</v>
       </c>
@@ -9171,7 +9159,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="483"/>
+      <c r="A23" s="482"/>
       <c r="B23" s="141">
         <v>14</v>
       </c>
@@ -9198,7 +9186,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="483"/>
+      <c r="A24" s="482"/>
       <c r="B24" s="141">
         <v>15</v>
       </c>
@@ -9225,7 +9213,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="483"/>
+      <c r="A25" s="482"/>
       <c r="B25" s="141">
         <v>16</v>
       </c>
@@ -9252,20 +9240,20 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="484"/>
-      <c r="B26" s="491" t="s">
+      <c r="A26" s="483"/>
+      <c r="B26" s="490" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="492"/>
-      <c r="D26" s="492"/>
-      <c r="E26" s="492"/>
+      <c r="C26" s="491"/>
+      <c r="D26" s="491"/>
+      <c r="E26" s="491"/>
       <c r="F26" s="148">
         <f>SUM(F7:F25)</f>
         <v>61</v>
       </c>
       <c r="G26" s="149"/>
-      <c r="H26" s="493"/>
-      <c r="I26" s="494"/>
+      <c r="H26" s="492"/>
+      <c r="I26" s="493"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -9317,59 +9305,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="495"/>
-      <c r="B1" s="497" t="s">
+      <c r="A1" s="494"/>
+      <c r="B1" s="496" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="498"/>
-      <c r="D1" s="498"/>
-      <c r="E1" s="498"/>
-      <c r="F1" s="498"/>
-      <c r="G1" s="498"/>
-      <c r="H1" s="498"/>
-      <c r="I1" s="499"/>
+      <c r="C1" s="497"/>
+      <c r="D1" s="497"/>
+      <c r="E1" s="497"/>
+      <c r="F1" s="497"/>
+      <c r="G1" s="497"/>
+      <c r="H1" s="497"/>
+      <c r="I1" s="498"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="496"/>
-      <c r="B2" s="500"/>
-      <c r="C2" s="501"/>
-      <c r="D2" s="501"/>
-      <c r="E2" s="501"/>
-      <c r="F2" s="501"/>
-      <c r="G2" s="501"/>
-      <c r="H2" s="501"/>
-      <c r="I2" s="502"/>
+      <c r="A2" s="495"/>
+      <c r="B2" s="499"/>
+      <c r="C2" s="500"/>
+      <c r="D2" s="500"/>
+      <c r="E2" s="500"/>
+      <c r="F2" s="500"/>
+      <c r="G2" s="500"/>
+      <c r="H2" s="500"/>
+      <c r="I2" s="501"/>
     </row>
     <row r="3" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="503" t="s">
+      <c r="A3" s="502" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="506" t="s">
+      <c r="B3" s="505" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="507"/>
-      <c r="D3" s="507"/>
-      <c r="E3" s="507"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="507"/>
-      <c r="H3" s="507"/>
-      <c r="I3" s="508"/>
+      <c r="C3" s="506"/>
+      <c r="D3" s="506"/>
+      <c r="E3" s="506"/>
+      <c r="F3" s="506"/>
+      <c r="G3" s="506"/>
+      <c r="H3" s="506"/>
+      <c r="I3" s="507"/>
     </row>
     <row r="4" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="504"/>
-      <c r="B4" s="509" t="s">
+      <c r="A4" s="503"/>
+      <c r="B4" s="508" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="509"/>
-      <c r="D4" s="509"/>
-      <c r="E4" s="509"/>
-      <c r="F4" s="509"/>
-      <c r="G4" s="509"/>
-      <c r="H4" s="509"/>
-      <c r="I4" s="510"/>
+      <c r="C4" s="508"/>
+      <c r="D4" s="508"/>
+      <c r="E4" s="508"/>
+      <c r="F4" s="508"/>
+      <c r="G4" s="508"/>
+      <c r="H4" s="508"/>
+      <c r="I4" s="509"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="504"/>
+      <c r="A5" s="503"/>
       <c r="B5" s="187" t="s">
         <v>211</v>
       </c>
@@ -9396,20 +9384,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="504"/>
-      <c r="B6" s="511" t="s">
+      <c r="A6" s="503"/>
+      <c r="B6" s="510" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="512"/>
-      <c r="D6" s="512"/>
-      <c r="E6" s="512"/>
-      <c r="F6" s="512"/>
-      <c r="G6" s="512"/>
-      <c r="H6" s="512"/>
-      <c r="I6" s="513"/>
+      <c r="C6" s="511"/>
+      <c r="D6" s="511"/>
+      <c r="E6" s="511"/>
+      <c r="F6" s="511"/>
+      <c r="G6" s="511"/>
+      <c r="H6" s="511"/>
+      <c r="I6" s="512"/>
     </row>
     <row r="7" spans="1:9" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="504"/>
+      <c r="A7" s="503"/>
       <c r="B7" s="184">
         <v>1</v>
       </c>
@@ -9436,7 +9424,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="504"/>
+      <c r="A8" s="503"/>
       <c r="B8" s="183">
         <v>2</v>
       </c>
@@ -9463,7 +9451,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="504"/>
+      <c r="A9" s="503"/>
       <c r="B9" s="183">
         <v>3</v>
       </c>
@@ -9490,7 +9478,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="504"/>
+      <c r="A10" s="503"/>
       <c r="B10" s="183">
         <v>4</v>
       </c>
@@ -9517,7 +9505,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="504"/>
+      <c r="A11" s="503"/>
       <c r="B11" s="183">
         <v>5</v>
       </c>
@@ -9544,20 +9532,20 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="504"/>
-      <c r="B12" s="511" t="s">
+      <c r="A12" s="503"/>
+      <c r="B12" s="510" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="512"/>
-      <c r="D12" s="512"/>
-      <c r="E12" s="512"/>
-      <c r="F12" s="512"/>
-      <c r="G12" s="512"/>
-      <c r="H12" s="512"/>
-      <c r="I12" s="513"/>
+      <c r="C12" s="511"/>
+      <c r="D12" s="511"/>
+      <c r="E12" s="511"/>
+      <c r="F12" s="511"/>
+      <c r="G12" s="511"/>
+      <c r="H12" s="511"/>
+      <c r="I12" s="512"/>
     </row>
     <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="504"/>
+      <c r="A13" s="503"/>
       <c r="B13" s="192">
         <v>7</v>
       </c>
@@ -9584,7 +9572,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="504"/>
+      <c r="A14" s="503"/>
       <c r="B14" s="192">
         <v>8</v>
       </c>
@@ -9611,7 +9599,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="504"/>
+      <c r="A15" s="503"/>
       <c r="B15" s="192">
         <v>9</v>
       </c>
@@ -9638,7 +9626,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="504"/>
+      <c r="A16" s="503"/>
       <c r="B16" s="204">
         <v>10</v>
       </c>
@@ -9665,20 +9653,20 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="504"/>
-      <c r="B17" s="514" t="s">
+      <c r="A17" s="503"/>
+      <c r="B17" s="513" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="515"/>
-      <c r="D17" s="515"/>
-      <c r="E17" s="515"/>
-      <c r="F17" s="515"/>
-      <c r="G17" s="515"/>
-      <c r="H17" s="515"/>
-      <c r="I17" s="516"/>
+      <c r="C17" s="514"/>
+      <c r="D17" s="514"/>
+      <c r="E17" s="514"/>
+      <c r="F17" s="514"/>
+      <c r="G17" s="514"/>
+      <c r="H17" s="514"/>
+      <c r="I17" s="515"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="504"/>
+      <c r="A18" s="503"/>
       <c r="B18" s="192">
         <v>11</v>
       </c>
@@ -9705,7 +9693,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="504"/>
+      <c r="A19" s="503"/>
       <c r="B19" s="198">
         <v>12</v>
       </c>
@@ -9732,7 +9720,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="504"/>
+      <c r="A20" s="503"/>
       <c r="B20" s="198">
         <v>13</v>
       </c>
@@ -9759,7 +9747,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="504"/>
+      <c r="A21" s="503"/>
       <c r="B21" s="198">
         <v>14</v>
       </c>
@@ -9786,20 +9774,20 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="505"/>
-      <c r="B22" s="517" t="s">
+      <c r="A22" s="504"/>
+      <c r="B22" s="516" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="518"/>
-      <c r="D22" s="518"/>
-      <c r="E22" s="518"/>
+      <c r="C22" s="517"/>
+      <c r="D22" s="517"/>
+      <c r="E22" s="517"/>
       <c r="F22" s="203">
         <f>SUM(F7:F21)</f>
         <v>47</v>
       </c>
-      <c r="G22" s="519"/>
-      <c r="H22" s="519"/>
-      <c r="I22" s="520"/>
+      <c r="G22" s="518"/>
+      <c r="H22" s="518"/>
+      <c r="I22" s="519"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -9852,59 +9840,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="524"/>
-      <c r="B1" s="526" t="s">
+      <c r="A1" s="523"/>
+      <c r="B1" s="525" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="527"/>
-      <c r="D1" s="527"/>
-      <c r="E1" s="527"/>
-      <c r="F1" s="527"/>
-      <c r="G1" s="527"/>
-      <c r="H1" s="527"/>
-      <c r="I1" s="528"/>
+      <c r="C1" s="526"/>
+      <c r="D1" s="526"/>
+      <c r="E1" s="526"/>
+      <c r="F1" s="526"/>
+      <c r="G1" s="526"/>
+      <c r="H1" s="526"/>
+      <c r="I1" s="527"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="525"/>
-      <c r="B2" s="529"/>
-      <c r="C2" s="530"/>
-      <c r="D2" s="530"/>
-      <c r="E2" s="530"/>
-      <c r="F2" s="530"/>
-      <c r="G2" s="530"/>
-      <c r="H2" s="530"/>
-      <c r="I2" s="531"/>
+      <c r="A2" s="524"/>
+      <c r="B2" s="528"/>
+      <c r="C2" s="529"/>
+      <c r="D2" s="529"/>
+      <c r="E2" s="529"/>
+      <c r="F2" s="529"/>
+      <c r="G2" s="529"/>
+      <c r="H2" s="529"/>
+      <c r="I2" s="530"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="532" t="s">
+      <c r="A3" s="531" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="536" t="s">
+      <c r="B3" s="535" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="537"/>
-      <c r="D3" s="537"/>
-      <c r="E3" s="537"/>
-      <c r="F3" s="537"/>
-      <c r="G3" s="537"/>
-      <c r="H3" s="537"/>
-      <c r="I3" s="538"/>
+      <c r="C3" s="536"/>
+      <c r="D3" s="536"/>
+      <c r="E3" s="536"/>
+      <c r="F3" s="536"/>
+      <c r="G3" s="536"/>
+      <c r="H3" s="536"/>
+      <c r="I3" s="537"/>
     </row>
     <row r="4" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="533"/>
-      <c r="B4" s="539" t="s">
+      <c r="A4" s="532"/>
+      <c r="B4" s="538" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="540"/>
-      <c r="D4" s="540"/>
-      <c r="E4" s="540"/>
-      <c r="F4" s="540"/>
-      <c r="G4" s="540"/>
-      <c r="H4" s="540"/>
-      <c r="I4" s="541"/>
+      <c r="C4" s="539"/>
+      <c r="D4" s="539"/>
+      <c r="E4" s="539"/>
+      <c r="F4" s="539"/>
+      <c r="G4" s="539"/>
+      <c r="H4" s="539"/>
+      <c r="I4" s="540"/>
     </row>
     <row r="5" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="533"/>
+      <c r="A5" s="532"/>
       <c r="B5" s="176" t="s">
         <v>211</v>
       </c>
@@ -9941,17 +9929,17 @@
       <c r="P5" s="47"/>
     </row>
     <row r="6" spans="1:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="533"/>
-      <c r="B6" s="542" t="s">
+      <c r="A6" s="532"/>
+      <c r="B6" s="541" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="543"/>
-      <c r="D6" s="543"/>
-      <c r="E6" s="543"/>
-      <c r="F6" s="543"/>
-      <c r="G6" s="543"/>
-      <c r="H6" s="543"/>
-      <c r="I6" s="544"/>
+      <c r="C6" s="542"/>
+      <c r="D6" s="542"/>
+      <c r="E6" s="542"/>
+      <c r="F6" s="542"/>
+      <c r="G6" s="542"/>
+      <c r="H6" s="542"/>
+      <c r="I6" s="543"/>
       <c r="K6" s="89"/>
       <c r="L6" s="89"/>
       <c r="M6" s="23"/>
@@ -9960,7 +9948,7 @@
       <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="533"/>
+      <c r="A7" s="532"/>
       <c r="B7" s="179">
         <v>1</v>
       </c>
@@ -9997,82 +9985,82 @@
       <c r="P7" s="47"/>
     </row>
     <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="533"/>
-      <c r="B8" s="545" t="s">
+      <c r="A8" s="532"/>
+      <c r="B8" s="544" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="546"/>
-      <c r="D8" s="546"/>
-      <c r="E8" s="546"/>
-      <c r="F8" s="546"/>
-      <c r="G8" s="546"/>
-      <c r="H8" s="546"/>
-      <c r="I8" s="547"/>
+      <c r="C8" s="545"/>
+      <c r="D8" s="545"/>
+      <c r="E8" s="545"/>
+      <c r="F8" s="545"/>
+      <c r="G8" s="545"/>
+      <c r="H8" s="545"/>
+      <c r="I8" s="546"/>
     </row>
     <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="534"/>
-      <c r="B9" s="308">
+      <c r="A9" s="533"/>
+      <c r="B9" s="304">
         <v>2</v>
       </c>
-      <c r="C9" s="309" t="s">
+      <c r="C9" s="305" t="s">
         <v>262</v>
       </c>
-      <c r="D9" s="309" t="s">
+      <c r="D9" s="305" t="s">
         <v>263</v>
       </c>
-      <c r="E9" s="308" t="s">
+      <c r="E9" s="304" t="s">
         <v>264</v>
       </c>
-      <c r="F9" s="308">
+      <c r="F9" s="304">
         <v>1</v>
       </c>
-      <c r="G9" s="308">
+      <c r="G9" s="304">
         <v>3</v>
       </c>
-      <c r="H9" s="308">
+      <c r="H9" s="304">
         <v>2015</v>
       </c>
-      <c r="I9" s="309" t="s">
+      <c r="I9" s="305" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="534"/>
-      <c r="B10" s="308">
+      <c r="A10" s="533"/>
+      <c r="B10" s="304">
         <v>3</v>
       </c>
-      <c r="C10" s="309" t="s">
+      <c r="C10" s="305" t="s">
         <v>652</v>
       </c>
-      <c r="D10" s="309" t="s">
+      <c r="D10" s="305" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="308" t="s">
+      <c r="E10" s="304" t="s">
         <v>232</v>
       </c>
-      <c r="F10" s="308">
+      <c r="F10" s="304">
         <v>1</v>
       </c>
-      <c r="G10" s="308">
+      <c r="G10" s="304">
         <v>3</v>
       </c>
-      <c r="H10" s="308">
+      <c r="H10" s="304">
         <v>2015</v>
       </c>
-      <c r="I10" s="309" t="s">
+      <c r="I10" s="305" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="534"/>
-      <c r="B11" s="310">
+      <c r="A11" s="533"/>
+      <c r="B11" s="306">
         <v>4</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D11" s="97" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E11" s="98" t="s">
         <v>235</v>
@@ -10086,18 +10074,18 @@
       <c r="H11" s="95">
         <v>2014</v>
       </c>
-      <c r="I11" s="307" t="s">
+      <c r="I11" s="303" t="s">
         <v>521</v>
       </c>
       <c r="J11" s="152"/>
       <c r="K11" s="152"/>
-      <c r="L11" s="379" t="s">
+      <c r="L11" s="365" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="533"/>
-      <c r="B12" s="310">
+      <c r="A12" s="532"/>
+      <c r="B12" s="306">
         <v>5</v>
       </c>
       <c r="C12" s="100" t="s">
@@ -10126,8 +10114,8 @@
       <c r="L12" s="151"/>
     </row>
     <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="533"/>
-      <c r="B13" s="310">
+      <c r="A13" s="532"/>
+      <c r="B13" s="306">
         <v>6</v>
       </c>
       <c r="C13" s="112" t="s">
@@ -10156,8 +10144,8 @@
       <c r="L13" s="151"/>
     </row>
     <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="533"/>
-      <c r="B14" s="310">
+      <c r="A14" s="532"/>
+      <c r="B14" s="306">
         <v>7</v>
       </c>
       <c r="C14" s="112" t="s">
@@ -10186,8 +10174,8 @@
       <c r="L14" s="47"/>
     </row>
     <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="533"/>
-      <c r="B15" s="310">
+      <c r="A15" s="532"/>
+      <c r="B15" s="306">
         <v>8</v>
       </c>
       <c r="C15" s="112" t="s">
@@ -10216,8 +10204,8 @@
       <c r="L15" s="151"/>
     </row>
     <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="533"/>
-      <c r="B16" s="310">
+      <c r="A16" s="532"/>
+      <c r="B16" s="306">
         <v>9</v>
       </c>
       <c r="C16" s="100" t="s">
@@ -10246,8 +10234,8 @@
       <c r="L16" s="151"/>
     </row>
     <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="533"/>
-      <c r="B17" s="310">
+      <c r="A17" s="532"/>
+      <c r="B17" s="306">
         <v>10</v>
       </c>
       <c r="C17" s="100" t="s">
@@ -10276,8 +10264,8 @@
       <c r="L17" s="151"/>
     </row>
     <row r="18" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="533"/>
-      <c r="B18" s="310">
+      <c r="A18" s="532"/>
+      <c r="B18" s="306">
         <v>11</v>
       </c>
       <c r="C18" s="181" t="s">
@@ -10306,23 +10294,23 @@
       <c r="L18" s="151"/>
     </row>
     <row r="19" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="533"/>
-      <c r="B19" s="548" t="s">
+      <c r="A19" s="532"/>
+      <c r="B19" s="547" t="s">
         <v>256</v>
       </c>
-      <c r="C19" s="549"/>
-      <c r="D19" s="549"/>
-      <c r="E19" s="549"/>
-      <c r="F19" s="549"/>
-      <c r="G19" s="549"/>
-      <c r="H19" s="549"/>
-      <c r="I19" s="550"/>
+      <c r="C19" s="548"/>
+      <c r="D19" s="548"/>
+      <c r="E19" s="548"/>
+      <c r="F19" s="548"/>
+      <c r="G19" s="548"/>
+      <c r="H19" s="548"/>
+      <c r="I19" s="549"/>
       <c r="J19" s="151"/>
       <c r="K19" s="151"/>
       <c r="L19" s="151"/>
     </row>
     <row r="20" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="533"/>
+      <c r="A20" s="532"/>
       <c r="B20" s="163">
         <v>12</v>
       </c>
@@ -10352,7 +10340,7 @@
       <c r="L20" s="91"/>
     </row>
     <row r="21" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="533"/>
+      <c r="A21" s="532"/>
       <c r="B21" s="104">
         <v>13</v>
       </c>
@@ -10382,7 +10370,7 @@
       <c r="L21" s="91"/>
     </row>
     <row r="22" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="533"/>
+      <c r="A22" s="532"/>
       <c r="B22" s="167">
         <v>14</v>
       </c>
@@ -10412,23 +10400,23 @@
       <c r="L22" s="91"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="533"/>
-      <c r="B23" s="548" t="s">
+      <c r="A23" s="532"/>
+      <c r="B23" s="547" t="s">
         <v>240</v>
       </c>
-      <c r="C23" s="549"/>
-      <c r="D23" s="549"/>
-      <c r="E23" s="549"/>
-      <c r="F23" s="549"/>
-      <c r="G23" s="549"/>
-      <c r="H23" s="549"/>
-      <c r="I23" s="550"/>
+      <c r="C23" s="548"/>
+      <c r="D23" s="548"/>
+      <c r="E23" s="548"/>
+      <c r="F23" s="548"/>
+      <c r="G23" s="548"/>
+      <c r="H23" s="548"/>
+      <c r="I23" s="549"/>
       <c r="J23" s="151"/>
       <c r="K23" s="152"/>
       <c r="L23" s="91"/>
     </row>
     <row r="24" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="533"/>
+      <c r="A24" s="532"/>
       <c r="B24" s="163">
         <v>15</v>
       </c>
@@ -10458,7 +10446,7 @@
       <c r="L24" s="91"/>
     </row>
     <row r="25" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="533"/>
+      <c r="A25" s="532"/>
       <c r="B25" s="163">
         <v>16</v>
       </c>
@@ -10488,7 +10476,7 @@
       <c r="L25" s="91"/>
     </row>
     <row r="26" spans="1:12" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="533"/>
+      <c r="A26" s="532"/>
       <c r="B26" s="163">
         <v>17</v>
       </c>
@@ -10518,23 +10506,23 @@
       <c r="L26" s="91"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="533"/>
-      <c r="B27" s="542" t="s">
+      <c r="A27" s="532"/>
+      <c r="B27" s="541" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="543"/>
-      <c r="D27" s="543"/>
-      <c r="E27" s="543"/>
-      <c r="F27" s="543"/>
-      <c r="G27" s="543"/>
-      <c r="H27" s="543"/>
-      <c r="I27" s="544"/>
+      <c r="C27" s="542"/>
+      <c r="D27" s="542"/>
+      <c r="E27" s="542"/>
+      <c r="F27" s="542"/>
+      <c r="G27" s="542"/>
+      <c r="H27" s="542"/>
+      <c r="I27" s="543"/>
       <c r="J27" s="151"/>
       <c r="K27" s="151"/>
       <c r="L27" s="151"/>
     </row>
     <row r="28" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="533"/>
+      <c r="A28" s="532"/>
       <c r="B28" s="113">
         <v>18</v>
       </c>
@@ -10564,7 +10552,7 @@
       <c r="L28" s="151"/>
     </row>
     <row r="29" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="533"/>
+      <c r="A29" s="532"/>
       <c r="B29" s="113">
         <v>19</v>
       </c>
@@ -10594,7 +10582,7 @@
       <c r="L29" s="151"/>
     </row>
     <row r="30" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="533"/>
+      <c r="A30" s="532"/>
       <c r="B30" s="113">
         <v>20</v>
       </c>
@@ -10624,20 +10612,20 @@
       <c r="L30" s="151"/>
     </row>
     <row r="31" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="535"/>
-      <c r="B31" s="521" t="s">
+      <c r="A31" s="534"/>
+      <c r="B31" s="520" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="522"/>
-      <c r="D31" s="522"/>
-      <c r="E31" s="522"/>
+      <c r="C31" s="521"/>
+      <c r="D31" s="521"/>
+      <c r="E31" s="521"/>
       <c r="F31" s="180">
         <f>SUM(F7:F30)</f>
         <v>35</v>
       </c>
-      <c r="G31" s="522"/>
-      <c r="H31" s="522"/>
-      <c r="I31" s="523"/>
+      <c r="G31" s="521"/>
+      <c r="H31" s="521"/>
+      <c r="I31" s="522"/>
       <c r="J31" s="151"/>
       <c r="K31" s="151"/>
       <c r="L31" s="151"/>
@@ -10751,7 +10739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:J2"/>
     </sheetView>
   </sheetViews>
@@ -10783,30 +10771,30 @@
     </row>
     <row r="2" spans="2:12" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="37"/>
-      <c r="C2" s="574" t="s">
+      <c r="C2" s="573" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="575"/>
-      <c r="E2" s="575"/>
-      <c r="F2" s="575"/>
-      <c r="G2" s="575"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="575"/>
-      <c r="J2" s="576"/>
+      <c r="D2" s="574"/>
+      <c r="E2" s="574"/>
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="574"/>
+      <c r="I2" s="574"/>
+      <c r="J2" s="575"/>
       <c r="K2" s="38"/>
     </row>
     <row r="3" spans="2:12" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
-      <c r="C3" s="577" t="s">
+      <c r="C3" s="576" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="578"/>
-      <c r="E3" s="578"/>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="578"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
+      <c r="D3" s="577"/>
+      <c r="E3" s="577"/>
+      <c r="F3" s="577"/>
+      <c r="G3" s="577"/>
+      <c r="H3" s="577"/>
+      <c r="I3" s="577"/>
+      <c r="J3" s="578"/>
       <c r="K3" s="38"/>
     </row>
     <row r="4" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10823,42 +10811,42 @@
     </row>
     <row r="5" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
-      <c r="C5" s="580" t="s">
+      <c r="C5" s="579" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="581"/>
-      <c r="E5" s="581"/>
-      <c r="F5" s="581"/>
-      <c r="G5" s="581"/>
-      <c r="H5" s="581"/>
-      <c r="I5" s="581"/>
-      <c r="J5" s="582"/>
+      <c r="D5" s="580"/>
+      <c r="E5" s="580"/>
+      <c r="F5" s="580"/>
+      <c r="G5" s="580"/>
+      <c r="H5" s="580"/>
+      <c r="I5" s="580"/>
+      <c r="J5" s="581"/>
       <c r="K5" s="38"/>
     </row>
     <row r="6" spans="2:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="37"/>
-      <c r="C6" s="583"/>
-      <c r="D6" s="584"/>
-      <c r="E6" s="584"/>
-      <c r="F6" s="584"/>
-      <c r="G6" s="584"/>
-      <c r="H6" s="584"/>
-      <c r="I6" s="584"/>
-      <c r="J6" s="585"/>
+      <c r="C6" s="582"/>
+      <c r="D6" s="583"/>
+      <c r="E6" s="583"/>
+      <c r="F6" s="583"/>
+      <c r="G6" s="583"/>
+      <c r="H6" s="583"/>
+      <c r="I6" s="583"/>
+      <c r="J6" s="584"/>
       <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="37"/>
-      <c r="C7" s="596" t="s">
+      <c r="C7" s="595" t="s">
         <v>694</v>
       </c>
-      <c r="D7" s="597"/>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="597"/>
-      <c r="J7" s="598"/>
+      <c r="D7" s="596"/>
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="596"/>
+      <c r="I7" s="596"/>
+      <c r="J7" s="597"/>
       <c r="K7" s="38"/>
       <c r="L7" s="40"/>
     </row>
@@ -10876,112 +10864,112 @@
     </row>
     <row r="9" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="37"/>
-      <c r="C9" s="586" t="s">
+      <c r="C9" s="585" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="587"/>
-      <c r="E9" s="587"/>
-      <c r="F9" s="587"/>
-      <c r="G9" s="587"/>
-      <c r="H9" s="587"/>
-      <c r="I9" s="587"/>
-      <c r="J9" s="588"/>
+      <c r="D9" s="586"/>
+      <c r="E9" s="586"/>
+      <c r="F9" s="586"/>
+      <c r="G9" s="586"/>
+      <c r="H9" s="586"/>
+      <c r="I9" s="586"/>
+      <c r="J9" s="587"/>
       <c r="K9" s="38"/>
     </row>
     <row r="10" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
-      <c r="C10" s="589"/>
-      <c r="D10" s="590"/>
-      <c r="E10" s="590"/>
-      <c r="F10" s="590"/>
-      <c r="G10" s="590"/>
-      <c r="H10" s="591"/>
-      <c r="I10" s="591"/>
-      <c r="J10" s="592"/>
+      <c r="C10" s="588"/>
+      <c r="D10" s="589"/>
+      <c r="E10" s="589"/>
+      <c r="F10" s="589"/>
+      <c r="G10" s="589"/>
+      <c r="H10" s="590"/>
+      <c r="I10" s="590"/>
+      <c r="J10" s="591"/>
       <c r="K10" s="38"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
-      <c r="C11" s="593" t="s">
+      <c r="C11" s="592" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="594"/>
-      <c r="E11" s="594"/>
-      <c r="F11" s="594"/>
-      <c r="G11" s="595"/>
-      <c r="H11" s="599" t="s">
+      <c r="D11" s="593"/>
+      <c r="E11" s="593"/>
+      <c r="F11" s="593"/>
+      <c r="G11" s="594"/>
+      <c r="H11" s="598" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="600"/>
-      <c r="J11" s="601"/>
+      <c r="I11" s="599"/>
+      <c r="J11" s="600"/>
       <c r="K11" s="38"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="37"/>
-      <c r="C12" s="602" t="s">
+      <c r="C12" s="601" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="603"/>
-      <c r="E12" s="603"/>
-      <c r="F12" s="603"/>
-      <c r="G12" s="603"/>
-      <c r="H12" s="603"/>
-      <c r="I12" s="603"/>
-      <c r="J12" s="604"/>
+      <c r="D12" s="602"/>
+      <c r="E12" s="602"/>
+      <c r="F12" s="602"/>
+      <c r="G12" s="602"/>
+      <c r="H12" s="602"/>
+      <c r="I12" s="602"/>
+      <c r="J12" s="603"/>
       <c r="K12" s="38"/>
     </row>
     <row r="13" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
-      <c r="C13" s="605"/>
-      <c r="D13" s="606"/>
-      <c r="E13" s="606"/>
-      <c r="F13" s="606"/>
-      <c r="G13" s="606"/>
-      <c r="H13" s="606"/>
-      <c r="I13" s="606"/>
-      <c r="J13" s="607"/>
+      <c r="C13" s="604"/>
+      <c r="D13" s="605"/>
+      <c r="E13" s="605"/>
+      <c r="F13" s="605"/>
+      <c r="G13" s="605"/>
+      <c r="H13" s="605"/>
+      <c r="I13" s="605"/>
+      <c r="J13" s="606"/>
       <c r="K13" s="38"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
-      <c r="C14" s="593" t="s">
+      <c r="C14" s="592" t="s">
         <v>258</v>
       </c>
-      <c r="D14" s="594"/>
-      <c r="E14" s="594"/>
-      <c r="F14" s="594"/>
-      <c r="G14" s="595"/>
-      <c r="H14" s="599" t="s">
+      <c r="D14" s="593"/>
+      <c r="E14" s="593"/>
+      <c r="F14" s="593"/>
+      <c r="G14" s="594"/>
+      <c r="H14" s="598" t="s">
         <v>116</v>
       </c>
-      <c r="I14" s="600"/>
-      <c r="J14" s="601"/>
+      <c r="I14" s="599"/>
+      <c r="J14" s="600"/>
       <c r="K14" s="38"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="37"/>
-      <c r="C15" s="602" t="s">
+      <c r="C15" s="601" t="s">
         <v>260</v>
       </c>
-      <c r="D15" s="603"/>
-      <c r="E15" s="603"/>
-      <c r="F15" s="603"/>
-      <c r="G15" s="603"/>
-      <c r="H15" s="603"/>
-      <c r="I15" s="603"/>
-      <c r="J15" s="604"/>
+      <c r="D15" s="602"/>
+      <c r="E15" s="602"/>
+      <c r="F15" s="602"/>
+      <c r="G15" s="602"/>
+      <c r="H15" s="602"/>
+      <c r="I15" s="602"/>
+      <c r="J15" s="603"/>
       <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
-      <c r="C16" s="605"/>
-      <c r="D16" s="606"/>
-      <c r="E16" s="606"/>
-      <c r="F16" s="606"/>
-      <c r="G16" s="606"/>
-      <c r="H16" s="606"/>
-      <c r="I16" s="606"/>
-      <c r="J16" s="607"/>
+      <c r="C16" s="604"/>
+      <c r="D16" s="605"/>
+      <c r="E16" s="605"/>
+      <c r="F16" s="605"/>
+      <c r="G16" s="605"/>
+      <c r="H16" s="605"/>
+      <c r="I16" s="605"/>
+      <c r="J16" s="606"/>
       <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10998,84 +10986,84 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="37"/>
-      <c r="C18" s="620" t="s">
+      <c r="C18" s="619" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="621"/>
-      <c r="E18" s="621"/>
-      <c r="F18" s="621"/>
-      <c r="G18" s="621"/>
-      <c r="H18" s="621"/>
-      <c r="I18" s="621"/>
-      <c r="J18" s="622"/>
+      <c r="D18" s="620"/>
+      <c r="E18" s="620"/>
+      <c r="F18" s="620"/>
+      <c r="G18" s="620"/>
+      <c r="H18" s="620"/>
+      <c r="I18" s="620"/>
+      <c r="J18" s="621"/>
       <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
-      <c r="C19" s="623"/>
-      <c r="D19" s="624"/>
-      <c r="E19" s="624"/>
-      <c r="F19" s="625"/>
-      <c r="G19" s="625"/>
-      <c r="H19" s="625"/>
-      <c r="I19" s="625"/>
-      <c r="J19" s="626"/>
+      <c r="C19" s="622"/>
+      <c r="D19" s="623"/>
+      <c r="E19" s="623"/>
+      <c r="F19" s="624"/>
+      <c r="G19" s="624"/>
+      <c r="H19" s="624"/>
+      <c r="I19" s="624"/>
+      <c r="J19" s="625"/>
       <c r="K19" s="38"/>
     </row>
     <row r="20" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="37"/>
-      <c r="C20" s="627" t="s">
+      <c r="C20" s="626" t="s">
         <v>261</v>
       </c>
-      <c r="D20" s="628"/>
-      <c r="E20" s="629"/>
-      <c r="F20" s="614" t="s">
+      <c r="D20" s="627"/>
+      <c r="E20" s="628"/>
+      <c r="F20" s="613" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="615"/>
-      <c r="H20" s="615"/>
-      <c r="I20" s="615"/>
-      <c r="J20" s="616"/>
+      <c r="G20" s="614"/>
+      <c r="H20" s="614"/>
+      <c r="I20" s="614"/>
+      <c r="J20" s="615"/>
       <c r="K20" s="38"/>
     </row>
     <row r="21" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="37"/>
-      <c r="C21" s="608" t="s">
+      <c r="C21" s="607" t="s">
         <v>268</v>
       </c>
-      <c r="D21" s="609"/>
-      <c r="E21" s="609"/>
-      <c r="F21" s="609"/>
-      <c r="G21" s="609"/>
-      <c r="H21" s="609"/>
-      <c r="I21" s="609"/>
-      <c r="J21" s="610"/>
+      <c r="D21" s="608"/>
+      <c r="E21" s="608"/>
+      <c r="F21" s="608"/>
+      <c r="G21" s="608"/>
+      <c r="H21" s="608"/>
+      <c r="I21" s="608"/>
+      <c r="J21" s="609"/>
       <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
-      <c r="C22" s="611"/>
-      <c r="D22" s="612"/>
-      <c r="E22" s="612"/>
-      <c r="F22" s="612"/>
-      <c r="G22" s="612"/>
-      <c r="H22" s="612"/>
-      <c r="I22" s="612"/>
-      <c r="J22" s="613"/>
+      <c r="C22" s="610"/>
+      <c r="D22" s="611"/>
+      <c r="E22" s="611"/>
+      <c r="F22" s="611"/>
+      <c r="G22" s="611"/>
+      <c r="H22" s="611"/>
+      <c r="I22" s="611"/>
+      <c r="J22" s="612"/>
       <c r="K22" s="38"/>
     </row>
     <row r="23" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
-      <c r="C23" s="617" t="s">
+      <c r="C23" s="616" t="s">
         <v>265</v>
       </c>
-      <c r="D23" s="618"/>
-      <c r="E23" s="618"/>
-      <c r="F23" s="618"/>
-      <c r="G23" s="618"/>
-      <c r="H23" s="618"/>
-      <c r="I23" s="618"/>
-      <c r="J23" s="619"/>
+      <c r="D23" s="617"/>
+      <c r="E23" s="617"/>
+      <c r="F23" s="617"/>
+      <c r="G23" s="617"/>
+      <c r="H23" s="617"/>
+      <c r="I23" s="617"/>
+      <c r="J23" s="618"/>
       <c r="K23" s="38"/>
     </row>
     <row r="24" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11092,98 +11080,98 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="37"/>
-      <c r="C25" s="560" t="s">
+      <c r="C25" s="559" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="561"/>
-      <c r="E25" s="561"/>
-      <c r="F25" s="561"/>
-      <c r="G25" s="561"/>
-      <c r="H25" s="561"/>
-      <c r="I25" s="561"/>
-      <c r="J25" s="562"/>
+      <c r="D25" s="560"/>
+      <c r="E25" s="560"/>
+      <c r="F25" s="560"/>
+      <c r="G25" s="560"/>
+      <c r="H25" s="560"/>
+      <c r="I25" s="560"/>
+      <c r="J25" s="561"/>
       <c r="K25" s="38"/>
     </row>
     <row r="26" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
-      <c r="C26" s="563"/>
-      <c r="D26" s="564"/>
-      <c r="E26" s="564"/>
-      <c r="F26" s="564"/>
-      <c r="G26" s="564"/>
-      <c r="H26" s="564"/>
-      <c r="I26" s="564"/>
-      <c r="J26" s="565"/>
+      <c r="C26" s="562"/>
+      <c r="D26" s="563"/>
+      <c r="E26" s="563"/>
+      <c r="F26" s="563"/>
+      <c r="G26" s="563"/>
+      <c r="H26" s="563"/>
+      <c r="I26" s="563"/>
+      <c r="J26" s="564"/>
       <c r="K26" s="38"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
-      <c r="C27" s="566" t="s">
+      <c r="C27" s="565" t="s">
         <v>270</v>
       </c>
-      <c r="D27" s="567"/>
-      <c r="E27" s="567"/>
-      <c r="F27" s="567"/>
-      <c r="G27" s="567"/>
-      <c r="H27" s="567"/>
-      <c r="I27" s="567"/>
-      <c r="J27" s="568"/>
+      <c r="D27" s="566"/>
+      <c r="E27" s="566"/>
+      <c r="F27" s="566"/>
+      <c r="G27" s="566"/>
+      <c r="H27" s="566"/>
+      <c r="I27" s="566"/>
+      <c r="J27" s="567"/>
       <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
-      <c r="C28" s="566" t="s">
+      <c r="C28" s="565" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="569"/>
-      <c r="E28" s="569"/>
-      <c r="F28" s="569"/>
-      <c r="G28" s="569"/>
-      <c r="H28" s="569"/>
-      <c r="I28" s="569"/>
-      <c r="J28" s="570"/>
+      <c r="D28" s="568"/>
+      <c r="E28" s="568"/>
+      <c r="F28" s="568"/>
+      <c r="G28" s="568"/>
+      <c r="H28" s="568"/>
+      <c r="I28" s="568"/>
+      <c r="J28" s="569"/>
       <c r="K28" s="38"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="37"/>
-      <c r="C29" s="571" t="s">
+      <c r="C29" s="570" t="s">
         <v>269</v>
       </c>
-      <c r="D29" s="572"/>
-      <c r="E29" s="572"/>
-      <c r="F29" s="572"/>
-      <c r="G29" s="572"/>
-      <c r="H29" s="572"/>
-      <c r="I29" s="572"/>
-      <c r="J29" s="573"/>
+      <c r="D29" s="571"/>
+      <c r="E29" s="571"/>
+      <c r="F29" s="571"/>
+      <c r="G29" s="571"/>
+      <c r="H29" s="571"/>
+      <c r="I29" s="571"/>
+      <c r="J29" s="572"/>
       <c r="K29" s="38"/>
     </row>
     <row r="30" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
-      <c r="C30" s="551" t="s">
+      <c r="C30" s="550" t="s">
         <v>510</v>
       </c>
-      <c r="D30" s="552"/>
-      <c r="E30" s="552"/>
-      <c r="F30" s="552"/>
-      <c r="G30" s="552"/>
-      <c r="H30" s="552"/>
-      <c r="I30" s="552"/>
-      <c r="J30" s="553"/>
+      <c r="D30" s="551"/>
+      <c r="E30" s="551"/>
+      <c r="F30" s="551"/>
+      <c r="G30" s="551"/>
+      <c r="H30" s="551"/>
+      <c r="I30" s="551"/>
+      <c r="J30" s="552"/>
       <c r="K30" s="38"/>
     </row>
     <row r="31" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
-      <c r="C31" s="551" t="s">
+      <c r="C31" s="550" t="s">
         <v>267</v>
       </c>
-      <c r="D31" s="552"/>
-      <c r="E31" s="552"/>
-      <c r="F31" s="552"/>
-      <c r="G31" s="552"/>
-      <c r="H31" s="552"/>
-      <c r="I31" s="552"/>
-      <c r="J31" s="553"/>
+      <c r="D31" s="551"/>
+      <c r="E31" s="551"/>
+      <c r="F31" s="551"/>
+      <c r="G31" s="551"/>
+      <c r="H31" s="551"/>
+      <c r="I31" s="551"/>
+      <c r="J31" s="552"/>
       <c r="K31" s="38"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11200,28 +11188,28 @@
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="37"/>
-      <c r="C33" s="554" t="s">
+      <c r="C33" s="553" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="555"/>
-      <c r="E33" s="555"/>
-      <c r="F33" s="555"/>
-      <c r="G33" s="555"/>
-      <c r="H33" s="555"/>
-      <c r="I33" s="555"/>
-      <c r="J33" s="556"/>
+      <c r="D33" s="554"/>
+      <c r="E33" s="554"/>
+      <c r="F33" s="554"/>
+      <c r="G33" s="554"/>
+      <c r="H33" s="554"/>
+      <c r="I33" s="554"/>
+      <c r="J33" s="555"/>
       <c r="K33" s="38"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
-      <c r="C34" s="557"/>
-      <c r="D34" s="558"/>
-      <c r="E34" s="558"/>
-      <c r="F34" s="558"/>
-      <c r="G34" s="558"/>
-      <c r="H34" s="558"/>
-      <c r="I34" s="558"/>
-      <c r="J34" s="559"/>
+      <c r="C34" s="556"/>
+      <c r="D34" s="557"/>
+      <c r="E34" s="557"/>
+      <c r="F34" s="557"/>
+      <c r="G34" s="557"/>
+      <c r="H34" s="557"/>
+      <c r="I34" s="557"/>
+      <c r="J34" s="558"/>
       <c r="K34" s="38"/>
     </row>
     <row r="35" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11278,7 +11266,7 @@
   </sheetPr>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C21" sqref="C21:J22"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
@@ -11301,17 +11289,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="633" t="s">
+      <c r="A1" s="632" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="634"/>
-      <c r="C1" s="634"/>
-      <c r="D1" s="634"/>
-      <c r="E1" s="634"/>
-      <c r="F1" s="634"/>
-      <c r="G1" s="634"/>
-      <c r="H1" s="634"/>
-      <c r="I1" s="634"/>
+      <c r="B1" s="633"/>
+      <c r="C1" s="633"/>
+      <c r="D1" s="633"/>
+      <c r="E1" s="633"/>
+      <c r="F1" s="633"/>
+      <c r="G1" s="633"/>
+      <c r="H1" s="633"/>
+      <c r="I1" s="633"/>
     </row>
     <row r="2" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
@@ -11372,83 +11360,86 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="635" t="s">
+      <c r="A4" s="634" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="636"/>
-      <c r="C4" s="636"/>
-      <c r="D4" s="636"/>
-      <c r="E4" s="636"/>
-      <c r="F4" s="636"/>
-      <c r="G4" s="636"/>
-      <c r="H4" s="636"/>
-      <c r="I4" s="636"/>
+      <c r="B4" s="635"/>
+      <c r="C4" s="635"/>
+      <c r="D4" s="635"/>
+      <c r="E4" s="635"/>
+      <c r="F4" s="635"/>
+      <c r="G4" s="635"/>
+      <c r="H4" s="635"/>
+      <c r="I4" s="635"/>
     </row>
     <row r="5" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="224" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="355" t="s">
+      <c r="B5" s="406" t="s">
         <v>287</v>
       </c>
-      <c r="C5" s="355" t="s">
+      <c r="C5" s="406" t="s">
         <v>288</v>
       </c>
-      <c r="D5" s="354" t="s">
+      <c r="D5" s="405" t="s">
         <v>359</v>
       </c>
-      <c r="E5" s="356" t="s">
+      <c r="E5" s="408" t="s">
         <v>651</v>
       </c>
-      <c r="F5" s="362" t="s">
+      <c r="F5" s="419" t="s">
         <v>607</v>
       </c>
-      <c r="G5" s="362" t="s">
+      <c r="G5" s="419" t="s">
         <v>360</v>
       </c>
-      <c r="H5" s="362" t="s">
+      <c r="H5" s="419" t="s">
         <v>611</v>
       </c>
-      <c r="I5" s="311"/>
+      <c r="I5" s="307"/>
     </row>
     <row r="6" spans="1:9" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="220" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="354" t="s">
+      <c r="B6" s="405" t="s">
         <v>384</v>
       </c>
-      <c r="C6" s="354" t="s">
+      <c r="C6" s="405" t="s">
         <v>358</v>
       </c>
-      <c r="D6" s="354" t="s">
+      <c r="D6" s="405" t="s">
         <v>389</v>
       </c>
-      <c r="E6" s="358" t="s">
+      <c r="E6" s="410" t="s">
         <v>542</v>
       </c>
-      <c r="F6" s="358" t="s">
+      <c r="F6" s="410" t="s">
         <v>541</v>
       </c>
-      <c r="G6" s="358" t="s">
+      <c r="G6" s="410" t="s">
         <v>341</v>
       </c>
-      <c r="H6" s="358" t="s">
+      <c r="H6" s="410" t="s">
         <v>342</v>
       </c>
-      <c r="I6" s="241"/>
+      <c r="I6" s="241" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="220" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="289" t="s">
+      <c r="B7" s="286" t="s">
         <v>484</v>
       </c>
-      <c r="C7" s="312" t="s">
+      <c r="C7" s="308" t="s">
         <v>640</v>
       </c>
-      <c r="E7" s="354" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="405" t="s">
         <v>373</v>
       </c>
       <c r="F7" s="231" t="s">
@@ -11458,9 +11449,9 @@
         <v>312</v>
       </c>
       <c r="H7" s="131" t="s">
-        <v>313</v>
-      </c>
-      <c r="I7" s="243" t="s">
+        <v>311</v>
+      </c>
+      <c r="I7" s="241" t="s">
         <v>386</v>
       </c>
     </row>
@@ -11468,10 +11459,10 @@
       <c r="A8" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="357" t="s">
+      <c r="B8" s="409" t="s">
         <v>558</v>
       </c>
-      <c r="C8" s="358" t="s">
+      <c r="C8" s="410" t="s">
         <v>560</v>
       </c>
       <c r="D8" s="228" t="s">
@@ -11480,14 +11471,14 @@
       <c r="E8" s="228" t="s">
         <v>305</v>
       </c>
-      <c r="F8" s="285"/>
-      <c r="G8" s="358" t="s">
+      <c r="F8" s="283"/>
+      <c r="G8" s="410" t="s">
         <v>555</v>
       </c>
-      <c r="H8" s="358" t="s">
+      <c r="H8" s="410" t="s">
         <v>537</v>
       </c>
-      <c r="I8" s="242" t="s">
+      <c r="I8" s="240" t="s">
         <v>486</v>
       </c>
     </row>
@@ -11495,24 +11486,24 @@
       <c r="A9" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="361" t="s">
+      <c r="B9" s="417" t="s">
         <v>289</v>
       </c>
-      <c r="C9" s="359" t="s">
+      <c r="C9" s="411" t="s">
         <v>290</v>
       </c>
-      <c r="D9" s="285"/>
-      <c r="E9" s="354" t="s">
+      <c r="D9" s="283"/>
+      <c r="E9" s="405" t="s">
         <v>365</v>
       </c>
-      <c r="F9" s="285"/>
-      <c r="G9" s="354" t="s">
+      <c r="F9" s="283"/>
+      <c r="G9" s="405" t="s">
         <v>366</v>
       </c>
-      <c r="H9" s="354" t="s">
+      <c r="H9" s="405" t="s">
         <v>621</v>
       </c>
-      <c r="I9" s="360" t="s">
+      <c r="I9" s="416" t="s">
         <v>610</v>
       </c>
     </row>
@@ -11520,28 +11511,28 @@
       <c r="A10" s="220" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="288" t="s">
+      <c r="B10" s="285" t="s">
         <v>371</v>
       </c>
-      <c r="C10" s="312" t="s">
+      <c r="C10" s="308" t="s">
         <v>613</v>
       </c>
       <c r="D10" s="140" t="s">
         <v>648</v>
       </c>
-      <c r="E10" s="358" t="s">
+      <c r="E10" s="410" t="s">
         <v>615</v>
       </c>
-      <c r="F10" s="358" t="s">
+      <c r="F10" s="410" t="s">
         <v>553</v>
       </c>
-      <c r="G10" s="358" t="s">
+      <c r="G10" s="410" t="s">
         <v>554</v>
       </c>
-      <c r="H10" s="358" t="s">
+      <c r="H10" s="410" t="s">
         <v>536</v>
       </c>
-      <c r="I10" s="243" t="s">
+      <c r="I10" s="241" t="s">
         <v>390</v>
       </c>
     </row>
@@ -11549,13 +11540,13 @@
       <c r="A11" s="220" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="361" t="s">
+      <c r="B11" s="417" t="s">
         <v>294</v>
       </c>
-      <c r="C11" s="359" t="s">
+      <c r="C11" s="411" t="s">
         <v>295</v>
       </c>
-      <c r="D11" s="285"/>
+      <c r="D11" s="283"/>
       <c r="E11" s="228" t="s">
         <v>303</v>
       </c>
@@ -11568,7 +11559,7 @@
       <c r="H11" s="227" t="s">
         <v>328</v>
       </c>
-      <c r="I11" s="244" t="s">
+      <c r="I11" s="242" t="s">
         <v>327</v>
       </c>
     </row>
@@ -11576,10 +11567,10 @@
       <c r="A12" s="220" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="361" t="s">
+      <c r="B12" s="417" t="s">
         <v>642</v>
       </c>
-      <c r="C12" s="358" t="s">
+      <c r="C12" s="410" t="s">
         <v>539</v>
       </c>
       <c r="D12" s="227" t="s">
@@ -11588,14 +11579,14 @@
       <c r="E12" s="227" t="s">
         <v>649</v>
       </c>
-      <c r="F12" s="285"/>
+      <c r="F12" s="283"/>
       <c r="G12" s="231" t="s">
         <v>608</v>
       </c>
       <c r="H12" s="227" t="s">
         <v>329</v>
       </c>
-      <c r="I12" s="244" t="s">
+      <c r="I12" s="242" t="s">
         <v>330</v>
       </c>
     </row>
@@ -11603,17 +11594,17 @@
       <c r="A13" s="220" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="424"/>
-      <c r="C13" s="388" t="s">
+      <c r="B13" s="391"/>
+      <c r="C13" s="410" t="s">
         <v>559</v>
       </c>
       <c r="D13" s="131" t="s">
         <v>629</v>
       </c>
-      <c r="E13" s="358" t="s">
+      <c r="E13" s="410" t="s">
         <v>425</v>
       </c>
-      <c r="F13" s="358" t="s">
+      <c r="F13" s="410" t="s">
         <v>552</v>
       </c>
       <c r="G13" s="131" t="s">
@@ -11622,7 +11613,7 @@
       <c r="H13" s="227" t="s">
         <v>526</v>
       </c>
-      <c r="I13" s="244" t="s">
+      <c r="I13" s="242" t="s">
         <v>527</v>
       </c>
     </row>
@@ -11630,47 +11621,45 @@
       <c r="A14" s="220" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="424"/>
-      <c r="C14" s="285"/>
-      <c r="D14" s="354" t="s">
+      <c r="B14" s="391"/>
+      <c r="C14" s="283"/>
+      <c r="D14" s="405" t="s">
         <v>361</v>
       </c>
-      <c r="E14" s="354" t="s">
+      <c r="E14" s="405" t="s">
         <v>362</v>
       </c>
-      <c r="F14" s="285"/>
-      <c r="G14" s="358" t="s">
+      <c r="F14" s="283"/>
+      <c r="G14" s="410" t="s">
         <v>343</v>
       </c>
-      <c r="H14" s="358" t="s">
+      <c r="H14" s="410" t="s">
         <v>344</v>
       </c>
-      <c r="I14" s="318" t="s">
-        <v>545</v>
-      </c>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="220" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="361" t="s">
+      <c r="B15" s="417" t="s">
         <v>291</v>
       </c>
-      <c r="C15" s="359" t="s">
+      <c r="C15" s="411" t="s">
         <v>292</v>
       </c>
-      <c r="D15" s="285"/>
+      <c r="D15" s="283"/>
       <c r="E15" s="228" t="s">
         <v>308</v>
       </c>
-      <c r="F15" s="285"/>
-      <c r="G15" s="359" t="s">
+      <c r="F15" s="283"/>
+      <c r="G15" s="411" t="s">
         <v>293</v>
       </c>
       <c r="H15" s="131" t="s">
         <v>631</v>
       </c>
-      <c r="I15" s="242" t="s">
+      <c r="I15" s="240" t="s">
         <v>308</v>
       </c>
     </row>
@@ -11678,7 +11667,7 @@
       <c r="A16" s="220" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="288" t="s">
+      <c r="B16" s="285" t="s">
         <v>372</v>
       </c>
       <c r="C16" s="129" t="s">
@@ -11687,57 +11676,57 @@
       <c r="D16" s="129" t="s">
         <v>300</v>
       </c>
-      <c r="E16" s="285"/>
+      <c r="E16" s="283"/>
       <c r="F16" s="129" t="s">
         <v>301</v>
       </c>
       <c r="G16" s="129" t="s">
         <v>316</v>
       </c>
-      <c r="H16" s="285"/>
-      <c r="I16" s="243" t="s">
-        <v>609</v>
+      <c r="H16" s="283"/>
+      <c r="I16" s="314" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="220" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="288" t="s">
+      <c r="B17" s="285" t="s">
         <v>381</v>
       </c>
-      <c r="C17" s="319"/>
-      <c r="D17" s="285"/>
-      <c r="E17" s="285"/>
-      <c r="F17" s="285"/>
-      <c r="G17" s="354" t="s">
+      <c r="C17" s="315"/>
+      <c r="D17" s="283"/>
+      <c r="E17" s="283"/>
+      <c r="F17" s="283"/>
+      <c r="G17" s="405" t="s">
         <v>379</v>
       </c>
-      <c r="H17" s="354" t="s">
+      <c r="H17" s="405" t="s">
         <v>380</v>
       </c>
-      <c r="I17" s="286"/>
+      <c r="I17" s="284"/>
     </row>
     <row r="18" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="220" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="290"/>
-      <c r="C18" s="285"/>
+      <c r="B18" s="287"/>
+      <c r="C18" s="283"/>
       <c r="D18" s="228" t="s">
         <v>309</v>
       </c>
       <c r="E18" s="228" t="s">
         <v>306</v>
       </c>
-      <c r="F18" s="354" t="s">
+      <c r="F18" s="405" t="s">
         <v>606</v>
       </c>
-      <c r="G18" s="285"/>
-      <c r="H18" s="354" t="s">
+      <c r="G18" s="283"/>
+      <c r="H18" s="405" t="s">
         <v>382</v>
       </c>
-      <c r="I18" s="242" t="s">
+      <c r="I18" s="240" t="s">
         <v>307</v>
       </c>
     </row>
@@ -11745,24 +11734,24 @@
       <c r="A19" s="220" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="357" t="s">
+      <c r="B19" s="409" t="s">
         <v>429</v>
       </c>
-      <c r="C19" s="285"/>
-      <c r="D19" s="285"/>
-      <c r="E19" s="358" t="s">
+      <c r="C19" s="283"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="410" t="s">
         <v>420</v>
       </c>
-      <c r="F19" s="358" t="s">
+      <c r="F19" s="410" t="s">
         <v>427</v>
       </c>
-      <c r="G19" s="358" t="s">
+      <c r="G19" s="410" t="s">
         <v>556</v>
       </c>
-      <c r="H19" s="358" t="s">
+      <c r="H19" s="410" t="s">
         <v>557</v>
       </c>
-      <c r="I19" s="318" t="s">
+      <c r="I19" s="314" t="s">
         <v>546</v>
       </c>
     </row>
@@ -11770,101 +11759,104 @@
       <c r="A20" s="220" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="290"/>
-      <c r="D20" s="358" t="s">
+      <c r="B20" s="366" t="s">
+        <v>636</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="410" t="s">
         <v>550</v>
       </c>
-      <c r="E20" s="285"/>
-      <c r="F20" s="358" t="s">
+      <c r="E20" s="283"/>
+      <c r="F20" s="410" t="s">
         <v>348</v>
       </c>
-      <c r="G20" s="285"/>
+      <c r="G20" s="283"/>
       <c r="H20" s="131" t="s">
         <v>632</v>
       </c>
-      <c r="I20" s="318" t="s">
+      <c r="I20" s="314" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="24" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="220" t="s">
+      <c r="A21" s="743" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="357" t="s">
+      <c r="B21" s="410" t="s">
         <v>392</v>
       </c>
-      <c r="C21" s="285"/>
-      <c r="D21" s="358" t="s">
+      <c r="C21" s="283"/>
+      <c r="D21" s="410" t="s">
         <v>544</v>
       </c>
-      <c r="E21" s="358" t="s">
+      <c r="E21" s="410" t="s">
         <v>419</v>
       </c>
-      <c r="F21" s="358" t="s">
+      <c r="F21" s="410" t="s">
         <v>391</v>
       </c>
-      <c r="G21" s="285"/>
-      <c r="H21" s="319"/>
-      <c r="I21" s="318" t="s">
+      <c r="G21" s="283"/>
+      <c r="H21" s="315"/>
+      <c r="I21" s="314" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="24" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="255" t="s">
+      <c r="A22" s="253" t="s">
         <v>388</v>
       </c>
-      <c r="B22" s="380" t="s">
+      <c r="B22" s="366" t="s">
         <v>633</v>
       </c>
-      <c r="C22" s="381"/>
-      <c r="D22" s="382" t="s">
+      <c r="C22" s="367"/>
+      <c r="D22" s="368" t="s">
         <v>634</v>
       </c>
-      <c r="E22" s="336"/>
-      <c r="F22" s="337" t="s">
+      <c r="E22" s="332"/>
+      <c r="F22" s="333" t="s">
         <v>302</v>
       </c>
-      <c r="G22" s="337" t="s">
+      <c r="G22" s="333" t="s">
         <v>298</v>
       </c>
-      <c r="H22" s="382" t="s">
+      <c r="H22" s="368" t="s">
         <v>635</v>
       </c>
-      <c r="I22" s="383"/>
+      <c r="I22" s="369"/>
     </row>
     <row r="23" spans="1:15" s="24" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="637" t="s">
+      <c r="A23" s="636" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="638"/>
-      <c r="C23" s="638"/>
-      <c r="D23" s="638"/>
-      <c r="E23" s="638"/>
-      <c r="F23" s="638"/>
-      <c r="G23" s="638"/>
-      <c r="H23" s="638"/>
-      <c r="I23" s="639"/>
+      <c r="B23" s="637"/>
+      <c r="C23" s="637"/>
+      <c r="D23" s="637"/>
+      <c r="E23" s="637"/>
+      <c r="F23" s="637"/>
+      <c r="G23" s="637"/>
+      <c r="H23" s="637"/>
+      <c r="I23" s="638"/>
     </row>
     <row r="24" spans="1:15" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="306" t="s">
+      <c r="A24" s="302" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="648" t="s">
+      <c r="B24" s="647" t="s">
         <v>659</v>
       </c>
-      <c r="C24" s="649"/>
-      <c r="D24" s="649"/>
-      <c r="E24" s="239" t="s">
+      <c r="C24" s="648"/>
+      <c r="D24" s="648"/>
+      <c r="E24" s="238" t="s">
         <v>331</v>
       </c>
-      <c r="F24" s="239" t="s">
+      <c r="F24" s="238" t="s">
         <v>333</v>
       </c>
-      <c r="G24" s="410" t="s">
+      <c r="G24" s="377" t="s">
         <v>533</v>
       </c>
-      <c r="H24" s="425"/>
-      <c r="I24" s="311"/>
+      <c r="H24" s="392"/>
+      <c r="I24" s="307"/>
     </row>
     <row r="25" spans="1:15" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="220" t="s">
@@ -11873,15 +11865,15 @@
       <c r="B25" s="227" t="s">
         <v>320</v>
       </c>
-      <c r="C25" s="285"/>
-      <c r="D25" s="630" t="s">
+      <c r="C25" s="283"/>
+      <c r="D25" s="629" t="s">
         <v>658</v>
       </c>
-      <c r="E25" s="630"/>
-      <c r="F25" s="630"/>
+      <c r="E25" s="629"/>
+      <c r="F25" s="629"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="285"/>
-      <c r="I25" s="246"/>
+      <c r="H25" s="283"/>
+      <c r="I25" s="244"/>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
@@ -11890,16 +11882,16 @@
       <c r="A26" s="220" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="650" t="s">
+      <c r="B26" s="649" t="s">
         <v>660</v>
       </c>
-      <c r="C26" s="651"/>
-      <c r="D26" s="651"/>
-      <c r="E26" s="247"/>
-      <c r="F26" s="285"/>
-      <c r="G26" s="285"/>
-      <c r="H26" s="285"/>
-      <c r="I26" s="286"/>
+      <c r="C26" s="650"/>
+      <c r="D26" s="650"/>
+      <c r="E26" s="245"/>
+      <c r="F26" s="283"/>
+      <c r="G26" s="283"/>
+      <c r="H26" s="283"/>
+      <c r="I26" s="284"/>
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
@@ -11908,88 +11900,86 @@
       <c r="A27" s="220" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="646" t="s">
+      <c r="B27" s="645" t="s">
         <v>645</v>
       </c>
-      <c r="C27" s="647"/>
-      <c r="D27" s="647"/>
-      <c r="E27" s="345"/>
-      <c r="F27" s="345"/>
-      <c r="G27" s="342"/>
-      <c r="H27" s="342"/>
-      <c r="I27" s="343"/>
+      <c r="C27" s="646"/>
+      <c r="D27" s="646"/>
+      <c r="E27" s="341"/>
+      <c r="F27" s="341"/>
+      <c r="G27" s="338"/>
+      <c r="H27" s="338"/>
+      <c r="I27" s="339"/>
     </row>
     <row r="28" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="220" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="652" t="s">
+      <c r="B28" s="651" t="s">
         <v>661</v>
       </c>
-      <c r="C28" s="653"/>
-      <c r="D28" s="654"/>
-      <c r="E28" s="346" t="s">
+      <c r="C28" s="652"/>
+      <c r="D28" s="653"/>
+      <c r="E28" s="342" t="s">
         <v>490</v>
       </c>
-      <c r="F28" s="643" t="s">
+      <c r="F28" s="642" t="s">
         <v>489</v>
       </c>
-      <c r="G28" s="644"/>
-      <c r="H28" s="644"/>
-      <c r="I28" s="645"/>
+      <c r="G28" s="643"/>
+      <c r="H28" s="643"/>
+      <c r="I28" s="644"/>
     </row>
     <row r="29" spans="1:15" s="24" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="220" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="640" t="s">
+      <c r="B29" s="639" t="s">
         <v>489</v>
       </c>
-      <c r="C29" s="641"/>
-      <c r="D29" s="641"/>
-      <c r="E29" s="642"/>
-      <c r="F29" s="347"/>
-      <c r="G29" s="348"/>
-      <c r="H29" s="348"/>
-      <c r="I29" s="349"/>
+      <c r="C29" s="640"/>
+      <c r="D29" s="640"/>
+      <c r="E29" s="641"/>
+      <c r="F29" s="343"/>
+      <c r="G29" s="344"/>
+      <c r="H29" s="344"/>
+      <c r="I29" s="345"/>
     </row>
     <row r="30" spans="1:15" s="24" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="220" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="341"/>
-      <c r="C30" s="631" t="s">
+      <c r="B30" s="337"/>
+      <c r="C30" s="630" t="s">
         <v>646</v>
       </c>
-      <c r="D30" s="631"/>
-      <c r="E30" s="632"/>
-      <c r="F30" s="643" t="s">
+      <c r="D30" s="630"/>
+      <c r="E30" s="631"/>
+      <c r="F30" s="642" t="s">
         <v>489</v>
       </c>
-      <c r="G30" s="644"/>
-      <c r="H30" s="644"/>
-      <c r="I30" s="645"/>
+      <c r="G30" s="643"/>
+      <c r="H30" s="643"/>
+      <c r="I30" s="644"/>
     </row>
     <row r="31" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="220" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="287" t="s">
-        <v>636</v>
-      </c>
+      <c r="B31" s="9"/>
       <c r="C31" s="127"/>
       <c r="D31" s="130" t="s">
         <v>637</v>
       </c>
       <c r="E31" s="127"/>
-      <c r="F31" s="258"/>
-      <c r="G31" s="259" t="s">
+      <c r="F31" s="256"/>
+      <c r="G31" s="257" t="s">
         <v>638</v>
       </c>
-      <c r="H31" s="259" t="s">
+      <c r="H31" s="257" t="s">
         <v>310</v>
       </c>
-      <c r="I31" s="344"/>
+      <c r="I31" s="340"/>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12080,17 +12070,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="655" t="s">
+      <c r="A1" s="654" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="656"/>
-      <c r="C1" s="656"/>
-      <c r="D1" s="656"/>
-      <c r="E1" s="656"/>
-      <c r="F1" s="656"/>
-      <c r="G1" s="656"/>
-      <c r="H1" s="656"/>
-      <c r="I1" s="656"/>
+      <c r="B1" s="655"/>
+      <c r="C1" s="655"/>
+      <c r="D1" s="655"/>
+      <c r="E1" s="655"/>
+      <c r="F1" s="655"/>
+      <c r="G1" s="655"/>
+      <c r="H1" s="655"/>
+      <c r="I1" s="655"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="220" t="s">
@@ -12151,44 +12141,44 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="635" t="s">
+      <c r="A4" s="634" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="636"/>
-      <c r="C4" s="636"/>
-      <c r="D4" s="636"/>
-      <c r="E4" s="636"/>
-      <c r="F4" s="636"/>
-      <c r="G4" s="636"/>
-      <c r="H4" s="636"/>
-      <c r="I4" s="636"/>
+      <c r="B4" s="635"/>
+      <c r="C4" s="635"/>
+      <c r="D4" s="635"/>
+      <c r="E4" s="635"/>
+      <c r="F4" s="635"/>
+      <c r="G4" s="635"/>
+      <c r="H4" s="635"/>
+      <c r="I4" s="635"/>
     </row>
     <row r="5" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="224" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="397" t="s">
+      <c r="B5" s="415" t="s">
         <v>394</v>
       </c>
-      <c r="C5" s="385" t="s">
+      <c r="C5" s="406" t="s">
         <v>393</v>
       </c>
-      <c r="D5" s="315" t="s">
+      <c r="D5" s="311" t="s">
         <v>486</v>
       </c>
-      <c r="E5" s="315" t="s">
+      <c r="E5" s="311" t="s">
         <v>304</v>
       </c>
-      <c r="F5" s="239" t="s">
+      <c r="F5" s="238" t="s">
         <v>320</v>
       </c>
-      <c r="G5" s="315" t="s">
+      <c r="G5" s="311" t="s">
         <v>305</v>
       </c>
-      <c r="H5" s="316" t="s">
+      <c r="H5" s="312" t="s">
         <v>404</v>
       </c>
-      <c r="I5" s="317" t="s">
+      <c r="I5" s="313" t="s">
         <v>405</v>
       </c>
     </row>
@@ -12196,28 +12186,28 @@
       <c r="A6" s="220" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="366" t="s">
+      <c r="B6" s="353" t="s">
         <v>648</v>
       </c>
-      <c r="C6" s="312" t="s">
+      <c r="C6" s="308" t="s">
         <v>613</v>
       </c>
-      <c r="D6" s="384" t="s">
+      <c r="D6" s="405" t="s">
         <v>406</v>
       </c>
-      <c r="E6" s="384" t="s">
+      <c r="E6" s="405" t="s">
         <v>366</v>
       </c>
       <c r="F6" s="231" t="s">
         <v>464</v>
       </c>
-      <c r="G6" s="388" t="s">
+      <c r="G6" s="410" t="s">
         <v>395</v>
       </c>
-      <c r="H6" s="384" t="s">
+      <c r="H6" s="405" t="s">
         <v>693</v>
       </c>
-      <c r="I6" s="243" t="s">
+      <c r="I6" s="241" t="s">
         <v>416</v>
       </c>
     </row>
@@ -12225,18 +12215,18 @@
       <c r="A7" s="220" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="298"/>
-      <c r="C7" s="389" t="s">
+      <c r="B7" s="295"/>
+      <c r="C7" s="411" t="s">
         <v>642</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>630</v>
       </c>
-      <c r="E7" s="388" t="s">
+      <c r="E7" s="410" t="s">
         <v>567</v>
       </c>
-      <c r="F7" s="291"/>
-      <c r="G7" s="388" t="s">
+      <c r="F7" s="288"/>
+      <c r="G7" s="410" t="s">
         <v>568</v>
       </c>
       <c r="H7" s="131" t="s">
@@ -12250,18 +12240,18 @@
       <c r="A8" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="298"/>
-      <c r="C8" s="384" t="s">
+      <c r="B8" s="295"/>
+      <c r="C8" s="405" t="s">
         <v>422</v>
       </c>
-      <c r="D8" s="384" t="s">
+      <c r="D8" s="405" t="s">
         <v>402</v>
       </c>
-      <c r="E8" s="384" t="s">
+      <c r="E8" s="405" t="s">
         <v>403</v>
       </c>
-      <c r="F8" s="291"/>
-      <c r="G8" s="384" t="s">
+      <c r="F8" s="288"/>
+      <c r="G8" s="405" t="s">
         <v>415</v>
       </c>
       <c r="H8" s="131" t="s">
@@ -12276,10 +12266,10 @@
       <c r="A9" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="396" t="s">
+      <c r="B9" s="414" t="s">
         <v>396</v>
       </c>
-      <c r="C9" s="389" t="s">
+      <c r="C9" s="411" t="s">
         <v>292</v>
       </c>
       <c r="D9" s="227" t="s">
@@ -12288,39 +12278,39 @@
       <c r="E9" s="227" t="s">
         <v>407</v>
       </c>
-      <c r="F9" s="291"/>
-      <c r="G9" s="384" t="s">
+      <c r="F9" s="288"/>
+      <c r="G9" s="405" t="s">
         <v>606</v>
       </c>
-      <c r="H9" s="384" t="s">
+      <c r="H9" s="405" t="s">
         <v>409</v>
       </c>
-      <c r="I9" s="296"/>
+      <c r="I9" s="293"/>
     </row>
     <row r="10" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="220" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="396" t="s">
+      <c r="B10" s="414" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="389" t="s">
+      <c r="C10" s="411" t="s">
         <v>295</v>
       </c>
-      <c r="D10" s="384" t="s">
+      <c r="D10" s="405" t="s">
         <v>369</v>
       </c>
-      <c r="E10" s="384" t="s">
+      <c r="E10" s="405" t="s">
         <v>370</v>
       </c>
-      <c r="F10" s="319"/>
-      <c r="G10" s="389" t="s">
+      <c r="F10" s="315"/>
+      <c r="G10" s="411" t="s">
         <v>492</v>
       </c>
       <c r="H10" s="227" t="s">
         <v>530</v>
       </c>
-      <c r="I10" s="296"/>
+      <c r="I10" s="293"/>
     </row>
     <row r="11" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="220" t="s">
@@ -12338,16 +12328,16 @@
       <c r="E11" s="227" t="s">
         <v>526</v>
       </c>
-      <c r="F11" s="388" t="s">
+      <c r="F11" s="410" t="s">
         <v>565</v>
       </c>
-      <c r="G11" s="388" t="s">
+      <c r="G11" s="410" t="s">
         <v>566</v>
       </c>
       <c r="H11" s="227" t="s">
         <v>529</v>
       </c>
-      <c r="I11" s="244" t="s">
+      <c r="I11" s="242" t="s">
         <v>413</v>
       </c>
     </row>
@@ -12355,28 +12345,28 @@
       <c r="A12" s="220" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="396" t="s">
+      <c r="B12" s="414" t="s">
         <v>622</v>
       </c>
-      <c r="C12" s="312" t="s">
+      <c r="C12" s="308" t="s">
         <v>640</v>
       </c>
-      <c r="D12" s="388" t="s">
+      <c r="D12" s="410" t="s">
         <v>561</v>
       </c>
-      <c r="E12" s="384" t="s">
+      <c r="E12" s="405" t="s">
         <v>382</v>
       </c>
-      <c r="F12" s="384" t="s">
+      <c r="F12" s="405" t="s">
         <v>374</v>
       </c>
-      <c r="G12" s="384" t="s">
+      <c r="G12" s="405" t="s">
         <v>408</v>
       </c>
       <c r="H12" s="227" t="s">
         <v>414</v>
       </c>
-      <c r="I12" s="244" t="s">
+      <c r="I12" s="242" t="s">
         <v>412</v>
       </c>
     </row>
@@ -12384,24 +12374,24 @@
       <c r="A13" s="220" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="396" t="s">
+      <c r="B13" s="414" t="s">
         <v>397</v>
       </c>
-      <c r="C13" s="389" t="s">
+      <c r="C13" s="411" t="s">
         <v>398</v>
       </c>
       <c r="D13" s="131" t="s">
         <v>636</v>
       </c>
-      <c r="E13" s="291"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="384" t="s">
+      <c r="E13" s="288"/>
+      <c r="F13" s="315"/>
+      <c r="G13" s="405" t="s">
         <v>607</v>
       </c>
       <c r="H13" s="131" t="s">
         <v>639</v>
       </c>
-      <c r="I13" s="398" t="s">
+      <c r="I13" s="416" t="s">
         <v>411</v>
       </c>
     </row>
@@ -12412,51 +12402,51 @@
       <c r="B14" s="229" t="s">
         <v>383</v>
       </c>
-      <c r="C14" s="291"/>
-      <c r="D14" s="388" t="s">
+      <c r="C14" s="288"/>
+      <c r="D14" s="410" t="s">
         <v>343</v>
       </c>
-      <c r="E14" s="388" t="s">
+      <c r="E14" s="410" t="s">
         <v>344</v>
       </c>
       <c r="F14" s="129" t="s">
         <v>296</v>
       </c>
-      <c r="G14" s="291"/>
-      <c r="H14" s="384" t="s">
+      <c r="G14" s="288"/>
+      <c r="H14" s="405" t="s">
         <v>401</v>
       </c>
-      <c r="I14" s="234"/>
+      <c r="I14" s="233"/>
     </row>
     <row r="15" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="220" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="378" t="s">
+      <c r="B15" s="364" t="s">
         <v>298</v>
       </c>
-      <c r="C15" s="388" t="s">
+      <c r="C15" s="410" t="s">
         <v>345</v>
       </c>
       <c r="D15" s="129" t="s">
         <v>299</v>
       </c>
-      <c r="E15" s="291"/>
+      <c r="E15" s="288"/>
       <c r="F15" s="129" t="s">
         <v>302</v>
       </c>
-      <c r="G15" s="291"/>
-      <c r="H15" s="388" t="s">
+      <c r="G15" s="288"/>
+      <c r="H15" s="410" t="s">
         <v>399</v>
       </c>
-      <c r="I15" s="234"/>
+      <c r="I15" s="233"/>
     </row>
     <row r="16" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="220" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="313"/>
-      <c r="C16" s="388" t="s">
+      <c r="B16" s="309"/>
+      <c r="C16" s="410" t="s">
         <v>547</v>
       </c>
       <c r="D16" s="129" t="s">
@@ -12471,10 +12461,10 @@
       <c r="G16" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="H16" s="388" t="s">
+      <c r="H16" s="410" t="s">
         <v>548</v>
       </c>
-      <c r="I16" s="318" t="s">
+      <c r="I16" s="314" t="s">
         <v>551</v>
       </c>
     </row>
@@ -12482,41 +12472,51 @@
       <c r="A17" s="220" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="233"/>
-      <c r="C17" s="291"/>
-      <c r="D17" s="319"/>
-      <c r="E17" s="319"/>
-      <c r="F17" s="291"/>
-      <c r="G17" s="291"/>
-      <c r="H17" s="131" t="s">
-        <v>311</v>
-      </c>
-      <c r="I17" s="272" t="s">
-        <v>313</v>
+      <c r="B17" s="413" t="s">
+        <v>420</v>
+      </c>
+      <c r="C17" s="288"/>
+      <c r="D17" s="261" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="315"/>
+      <c r="F17" s="410" t="s">
+        <v>562</v>
+      </c>
+      <c r="G17" s="407" t="s">
+        <v>466</v>
+      </c>
+      <c r="H17" s="418" t="s">
+        <v>493</v>
+      </c>
+      <c r="I17" s="314" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="220" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="314" t="s">
+      <c r="B18" s="310" t="s">
         <v>309</v>
       </c>
-      <c r="C18" s="291"/>
-      <c r="D18" s="291"/>
+      <c r="C18" s="131" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" s="288"/>
       <c r="E18" s="228" t="s">
         <v>307</v>
       </c>
-      <c r="F18" s="388" t="s">
+      <c r="F18" s="410" t="s">
         <v>419</v>
       </c>
-      <c r="G18" s="388" t="s">
+      <c r="G18" s="410" t="s">
         <v>461</v>
       </c>
       <c r="H18" s="228" t="s">
         <v>644</v>
       </c>
-      <c r="I18" s="318" t="s">
+      <c r="I18" s="314" t="s">
         <v>564</v>
       </c>
     </row>
@@ -12524,122 +12524,110 @@
       <c r="A19" s="220" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="391" t="s">
+      <c r="B19" s="413" t="s">
         <v>549</v>
       </c>
-      <c r="C19" s="388" t="s">
+      <c r="C19" s="410" t="s">
         <v>476</v>
       </c>
       <c r="D19" s="131" t="s">
         <v>633</v>
       </c>
-      <c r="E19" s="319"/>
-      <c r="F19" s="388" t="s">
+      <c r="E19" s="315"/>
+      <c r="F19" s="410" t="s">
         <v>421</v>
       </c>
-      <c r="G19" s="388" t="s">
+      <c r="G19" s="410" t="s">
         <v>477</v>
       </c>
-      <c r="H19" s="388" t="s">
+      <c r="H19" s="410" t="s">
         <v>417</v>
       </c>
-      <c r="I19" s="296"/>
+      <c r="I19" s="293"/>
     </row>
     <row r="20" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="220" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="151"/>
-      <c r="C20" s="263" t="s">
-        <v>315</v>
-      </c>
-      <c r="D20" s="291"/>
-      <c r="E20" s="388" t="s">
+      <c r="B20" s="295"/>
+      <c r="C20" s="288"/>
+      <c r="D20" s="288"/>
+      <c r="E20" s="410" t="s">
         <v>550</v>
       </c>
-      <c r="F20" s="151"/>
-      <c r="G20" s="291"/>
-      <c r="H20" s="388" t="s">
-        <v>698</v>
-      </c>
-      <c r="I20" s="273" t="s">
+      <c r="F20" s="288"/>
+      <c r="G20" s="288"/>
+      <c r="H20" s="410" t="s">
+        <v>697</v>
+      </c>
+      <c r="I20" s="271" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="220" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="391" t="s">
-        <v>420</v>
-      </c>
+      <c r="B21" s="295"/>
       <c r="C21" s="232"/>
-      <c r="D21" s="291"/>
-      <c r="E21" s="319"/>
-      <c r="F21" s="388" t="s">
-        <v>562</v>
-      </c>
-      <c r="G21" s="386" t="s">
-        <v>466</v>
-      </c>
-      <c r="H21" s="400" t="s">
-        <v>493</v>
-      </c>
-      <c r="I21" s="318" t="s">
-        <v>563</v>
-      </c>
+      <c r="D21" s="288"/>
+      <c r="E21" s="315"/>
+      <c r="F21" s="288"/>
+      <c r="G21" s="288"/>
+      <c r="H21" s="288"/>
+      <c r="I21" s="293"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="255" t="s">
+      <c r="A22" s="253" t="s">
         <v>388</v>
       </c>
-      <c r="B22" s="338"/>
-      <c r="C22" s="327"/>
-      <c r="D22" s="327"/>
-      <c r="E22" s="336"/>
-      <c r="F22" s="327"/>
-      <c r="G22" s="336"/>
-      <c r="H22" s="417"/>
-      <c r="I22" s="330"/>
+      <c r="B22" s="334"/>
+      <c r="C22" s="323"/>
+      <c r="D22" s="323"/>
+      <c r="E22" s="332"/>
+      <c r="F22" s="323"/>
+      <c r="G22" s="332"/>
+      <c r="H22" s="384"/>
+      <c r="I22" s="326"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="637" t="s">
+      <c r="A23" s="636" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="638"/>
-      <c r="C23" s="638"/>
-      <c r="D23" s="638"/>
-      <c r="E23" s="638"/>
-      <c r="F23" s="638"/>
-      <c r="G23" s="638"/>
-      <c r="H23" s="638"/>
-      <c r="I23" s="639"/>
+      <c r="B23" s="637"/>
+      <c r="C23" s="637"/>
+      <c r="D23" s="637"/>
+      <c r="E23" s="637"/>
+      <c r="F23" s="637"/>
+      <c r="G23" s="637"/>
+      <c r="H23" s="637"/>
+      <c r="I23" s="638"/>
     </row>
     <row r="24" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="220" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="663" t="s">
+      <c r="B24" s="662" t="s">
         <v>686</v>
       </c>
-      <c r="C24" s="664"/>
-      <c r="D24" s="664"/>
-      <c r="E24" s="293"/>
+      <c r="C24" s="663"/>
+      <c r="D24" s="663"/>
+      <c r="E24" s="290"/>
       <c r="F24" s="151"/>
-      <c r="G24" s="294" t="s">
+      <c r="G24" s="291" t="s">
         <v>533</v>
       </c>
-      <c r="H24" s="293"/>
-      <c r="I24" s="295"/>
+      <c r="H24" s="290"/>
+      <c r="I24" s="292"/>
     </row>
     <row r="25" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="220" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="288" t="s">
+      <c r="B25" s="285" t="s">
         <v>385</v>
       </c>
-      <c r="C25" s="384" t="s">
+      <c r="C25" s="405" t="s">
         <v>400</v>
       </c>
       <c r="D25" s="227" t="s">
@@ -12648,105 +12636,105 @@
       <c r="E25" s="227" t="s">
         <v>628</v>
       </c>
-      <c r="F25" s="630" t="s">
+      <c r="F25" s="629" t="s">
         <v>681</v>
       </c>
-      <c r="G25" s="630"/>
-      <c r="H25" s="630"/>
-      <c r="I25" s="248"/>
+      <c r="G25" s="629"/>
+      <c r="H25" s="629"/>
+      <c r="I25" s="246"/>
     </row>
     <row r="26" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="220" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="650" t="s">
+      <c r="B26" s="649" t="s">
         <v>684</v>
       </c>
-      <c r="C26" s="651"/>
-      <c r="D26" s="651"/>
+      <c r="C26" s="650"/>
+      <c r="D26" s="650"/>
       <c r="E26" s="230"/>
-      <c r="F26" s="350"/>
-      <c r="G26" s="350"/>
-      <c r="H26" s="350"/>
-      <c r="I26" s="234"/>
+      <c r="F26" s="346"/>
+      <c r="G26" s="346"/>
+      <c r="H26" s="346"/>
+      <c r="I26" s="233"/>
     </row>
     <row r="27" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="220" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="652" t="s">
+      <c r="B27" s="651" t="s">
         <v>685</v>
       </c>
-      <c r="C27" s="653"/>
-      <c r="D27" s="653"/>
-      <c r="E27" s="327"/>
-      <c r="F27" s="662" t="s">
+      <c r="C27" s="652"/>
+      <c r="D27" s="652"/>
+      <c r="E27" s="323"/>
+      <c r="F27" s="661" t="s">
         <v>682</v>
       </c>
-      <c r="G27" s="662"/>
-      <c r="H27" s="662"/>
-      <c r="I27" s="330"/>
+      <c r="G27" s="661"/>
+      <c r="H27" s="661"/>
+      <c r="I27" s="326"/>
     </row>
     <row r="28" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="220" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="657" t="s">
+      <c r="B28" s="656" t="s">
         <v>491</v>
       </c>
-      <c r="C28" s="658"/>
-      <c r="D28" s="658"/>
-      <c r="E28" s="658"/>
-      <c r="F28" s="658"/>
-      <c r="G28" s="658"/>
-      <c r="H28" s="658"/>
-      <c r="I28" s="659"/>
+      <c r="C28" s="657"/>
+      <c r="D28" s="657"/>
+      <c r="E28" s="657"/>
+      <c r="F28" s="657"/>
+      <c r="G28" s="657"/>
+      <c r="H28" s="657"/>
+      <c r="I28" s="658"/>
     </row>
     <row r="29" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="220" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="640" t="s">
+      <c r="B29" s="639" t="s">
         <v>491</v>
       </c>
-      <c r="C29" s="641"/>
-      <c r="D29" s="641"/>
-      <c r="E29" s="642"/>
-      <c r="F29" s="329"/>
-      <c r="G29" s="339"/>
-      <c r="H29" s="339"/>
-      <c r="I29" s="340"/>
+      <c r="C29" s="640"/>
+      <c r="D29" s="640"/>
+      <c r="E29" s="641"/>
+      <c r="F29" s="325"/>
+      <c r="G29" s="335"/>
+      <c r="H29" s="335"/>
+      <c r="I29" s="336"/>
     </row>
     <row r="30" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="220" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="341"/>
-      <c r="C30" s="631" t="s">
+      <c r="B30" s="337"/>
+      <c r="C30" s="630" t="s">
         <v>683</v>
       </c>
-      <c r="D30" s="631"/>
-      <c r="E30" s="631"/>
-      <c r="F30" s="291"/>
-      <c r="G30" s="660" t="s">
+      <c r="D30" s="630"/>
+      <c r="E30" s="630"/>
+      <c r="F30" s="288"/>
+      <c r="G30" s="659" t="s">
         <v>680</v>
       </c>
-      <c r="H30" s="660"/>
-      <c r="I30" s="661"/>
+      <c r="H30" s="659"/>
+      <c r="I30" s="660"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="220" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="297"/>
-      <c r="C31" s="249"/>
+      <c r="B31" s="294"/>
+      <c r="C31" s="247"/>
       <c r="D31" s="130" t="s">
         <v>638</v>
       </c>
-      <c r="E31" s="238"/>
-      <c r="F31" s="238"/>
-      <c r="G31" s="238"/>
-      <c r="H31" s="302"/>
+      <c r="E31" s="237"/>
+      <c r="F31" s="237"/>
+      <c r="G31" s="237"/>
+      <c r="H31" s="299"/>
       <c r="I31" s="218" t="s">
         <v>310</v>
       </c>
@@ -12801,17 +12789,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="676" t="s">
+      <c r="A1" s="675" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="677"/>
-      <c r="C1" s="677"/>
-      <c r="D1" s="677"/>
-      <c r="E1" s="677"/>
-      <c r="F1" s="677"/>
-      <c r="G1" s="677"/>
-      <c r="H1" s="677"/>
-      <c r="I1" s="678"/>
+      <c r="B1" s="676"/>
+      <c r="C1" s="676"/>
+      <c r="D1" s="676"/>
+      <c r="E1" s="676"/>
+      <c r="F1" s="676"/>
+      <c r="G1" s="676"/>
+      <c r="H1" s="676"/>
+      <c r="I1" s="677"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -12872,155 +12860,155 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="679" t="s">
+      <c r="A4" s="678" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="680"/>
-      <c r="C4" s="680"/>
-      <c r="D4" s="680"/>
-      <c r="E4" s="680"/>
-      <c r="F4" s="680"/>
-      <c r="G4" s="680"/>
-      <c r="H4" s="680"/>
-      <c r="I4" s="681"/>
+      <c r="B4" s="679"/>
+      <c r="C4" s="679"/>
+      <c r="D4" s="679"/>
+      <c r="E4" s="679"/>
+      <c r="F4" s="679"/>
+      <c r="G4" s="679"/>
+      <c r="H4" s="679"/>
+      <c r="I4" s="680"/>
     </row>
     <row r="5" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="351" t="s">
+      <c r="A5" s="347" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="405" t="s">
+      <c r="B5" s="372" t="s">
         <v>592</v>
       </c>
-      <c r="C5" s="385" t="s">
+      <c r="C5" s="394" t="s">
         <v>287</v>
       </c>
-      <c r="D5" s="265" t="s">
+      <c r="D5" s="263" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="265" t="s">
+      <c r="E5" s="263" t="s">
         <v>321</v>
       </c>
-      <c r="F5" s="409" t="s">
+      <c r="F5" s="376" t="s">
         <v>596</v>
       </c>
-      <c r="G5" s="410" t="s">
+      <c r="G5" s="377" t="s">
         <v>331</v>
       </c>
-      <c r="H5" s="292"/>
-      <c r="I5" s="283"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="281"/>
     </row>
     <row r="6" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="406" t="s">
+      <c r="B6" s="373" t="s">
         <v>294</v>
       </c>
-      <c r="C6" s="389" t="s">
+      <c r="C6" s="397" t="s">
         <v>295</v>
       </c>
-      <c r="D6" s="265" t="s">
+      <c r="D6" s="263" t="s">
         <v>325</v>
       </c>
-      <c r="E6" s="265" t="s">
+      <c r="E6" s="263" t="s">
         <v>326</v>
       </c>
-      <c r="F6" s="268" t="s">
+      <c r="F6" s="266" t="s">
         <v>573</v>
       </c>
-      <c r="G6" s="265" t="s">
+      <c r="G6" s="263" t="s">
         <v>325</v>
       </c>
-      <c r="H6" s="291"/>
-      <c r="I6" s="420"/>
+      <c r="H6" s="288"/>
+      <c r="I6" s="387"/>
     </row>
     <row r="7" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="406" t="s">
+      <c r="B7" s="373" t="s">
         <v>593</v>
       </c>
-      <c r="C7" s="389" t="s">
+      <c r="C7" s="397" t="s">
         <v>290</v>
       </c>
-      <c r="D7" s="394" t="s">
+      <c r="D7" s="401" t="s">
         <v>305</v>
       </c>
-      <c r="E7" s="389" t="s">
+      <c r="E7" s="397" t="s">
         <v>486</v>
       </c>
-      <c r="F7" s="393" t="s">
+      <c r="F7" s="400" t="s">
         <v>426</v>
       </c>
-      <c r="G7" s="268" t="s">
+      <c r="G7" s="266" t="s">
         <v>571</v>
       </c>
-      <c r="H7" s="394" t="s">
+      <c r="H7" s="401" t="s">
         <v>304</v>
       </c>
-      <c r="I7" s="267"/>
+      <c r="I7" s="265"/>
     </row>
     <row r="8" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="406" t="s">
+      <c r="B8" s="373" t="s">
         <v>642</v>
       </c>
-      <c r="C8" s="388" t="s">
+      <c r="C8" s="396" t="s">
         <v>576</v>
       </c>
-      <c r="D8" s="393" t="s">
+      <c r="D8" s="400" t="s">
         <v>377</v>
       </c>
-      <c r="E8" s="393" t="s">
+      <c r="E8" s="400" t="s">
         <v>376</v>
       </c>
-      <c r="F8" s="388" t="s">
+      <c r="F8" s="396" t="s">
         <v>578</v>
       </c>
-      <c r="G8" s="291"/>
-      <c r="H8" s="269"/>
-      <c r="I8" s="270"/>
+      <c r="G8" s="288"/>
+      <c r="H8" s="267"/>
+      <c r="I8" s="268"/>
     </row>
     <row r="9" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="407" t="s">
+      <c r="B9" s="374" t="s">
         <v>590</v>
       </c>
-      <c r="C9" s="384" t="s">
+      <c r="C9" s="393" t="s">
         <v>612</v>
       </c>
-      <c r="D9" s="399" t="s">
+      <c r="D9" s="403" t="s">
         <v>587</v>
       </c>
-      <c r="E9" s="399" t="s">
+      <c r="E9" s="403" t="s">
         <v>588</v>
       </c>
-      <c r="F9" s="388" t="s">
+      <c r="F9" s="396" t="s">
         <v>542</v>
       </c>
-      <c r="G9" s="388" t="s">
+      <c r="G9" s="396" t="s">
         <v>582</v>
       </c>
-      <c r="H9" s="319"/>
-      <c r="I9" s="270"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="268"/>
     </row>
     <row r="10" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="373" t="s">
+      <c r="B10" s="359" t="s">
         <v>597</v>
       </c>
-      <c r="C10" s="291"/>
-      <c r="D10" s="393" t="s">
+      <c r="C10" s="288"/>
+      <c r="D10" s="400" t="s">
         <v>369</v>
       </c>
-      <c r="E10" s="393" t="s">
+      <c r="E10" s="400" t="s">
         <v>370</v>
       </c>
       <c r="F10" s="217" t="s">
@@ -13032,57 +13020,57 @@
       <c r="H10" s="140" t="s">
         <v>531</v>
       </c>
-      <c r="I10" s="270"/>
+      <c r="I10" s="268"/>
     </row>
     <row r="11" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="408" t="s">
+      <c r="B11" s="375" t="s">
         <v>595</v>
       </c>
-      <c r="C11" s="265" t="s">
+      <c r="C11" s="263" t="s">
         <v>423</v>
       </c>
-      <c r="D11" s="265" t="s">
+      <c r="D11" s="263" t="s">
         <v>626</v>
       </c>
-      <c r="E11" s="265" t="s">
+      <c r="E11" s="263" t="s">
         <v>625</v>
       </c>
-      <c r="F11" s="388" t="s">
+      <c r="F11" s="396" t="s">
         <v>556</v>
       </c>
-      <c r="G11" s="271"/>
-      <c r="H11" s="388" t="s">
+      <c r="G11" s="269"/>
+      <c r="H11" s="396" t="s">
         <v>574</v>
       </c>
-      <c r="I11" s="296"/>
+      <c r="I11" s="293"/>
     </row>
     <row r="12" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="411" t="s">
+      <c r="B12" s="378" t="s">
         <v>570</v>
       </c>
       <c r="C12" s="140" t="s">
         <v>648</v>
       </c>
-      <c r="D12" s="268" t="s">
+      <c r="D12" s="266" t="s">
         <v>569</v>
       </c>
-      <c r="E12" s="393" t="s">
+      <c r="E12" s="400" t="s">
         <v>373</v>
       </c>
       <c r="F12" s="217" t="s">
         <v>602</v>
       </c>
-      <c r="G12" s="291"/>
-      <c r="H12" s="388" t="s">
+      <c r="G12" s="288"/>
+      <c r="H12" s="396" t="s">
         <v>575</v>
       </c>
-      <c r="I12" s="299" t="s">
+      <c r="I12" s="296" t="s">
         <v>599</v>
       </c>
     </row>
@@ -13090,26 +13078,26 @@
       <c r="A13" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="411" t="s">
+      <c r="B13" s="378" t="s">
         <v>589</v>
       </c>
-      <c r="C13" s="384" t="s">
+      <c r="C13" s="393" t="s">
         <v>607</v>
       </c>
       <c r="D13" s="217" t="s">
         <v>601</v>
       </c>
-      <c r="E13" s="268" t="s">
+      <c r="E13" s="266" t="s">
         <v>344</v>
       </c>
       <c r="F13" s="217" t="s">
         <v>614</v>
       </c>
-      <c r="G13" s="291"/>
-      <c r="H13" s="388" t="s">
+      <c r="G13" s="288"/>
+      <c r="H13" s="396" t="s">
         <v>430</v>
       </c>
-      <c r="I13" s="266" t="s">
+      <c r="I13" s="264" t="s">
         <v>320</v>
       </c>
     </row>
@@ -13117,49 +13105,47 @@
       <c r="A14" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="411" t="s">
+      <c r="B14" s="378" t="s">
         <v>454</v>
       </c>
-      <c r="C14" s="291"/>
-      <c r="D14" s="265" t="s">
+      <c r="C14" s="288"/>
+      <c r="D14" s="263" t="s">
         <v>334</v>
       </c>
-      <c r="E14" s="265" t="s">
+      <c r="E14" s="263" t="s">
         <v>324</v>
       </c>
-      <c r="F14" s="388" t="s">
+      <c r="F14" s="396" t="s">
         <v>584</v>
       </c>
-      <c r="G14" s="265" t="s">
+      <c r="G14" s="263" t="s">
         <v>335</v>
       </c>
-      <c r="H14" s="388" t="s">
+      <c r="H14" s="396" t="s">
         <v>585</v>
       </c>
-      <c r="I14" s="273" t="s">
-        <v>545</v>
-      </c>
+      <c r="I14" s="281"/>
     </row>
     <row r="15" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="220" t="s">
         <v>151</v>
       </c>
       <c r="B15" s="151"/>
-      <c r="C15" s="291"/>
-      <c r="D15" s="268" t="s">
+      <c r="C15" s="288"/>
+      <c r="D15" s="266" t="s">
         <v>424</v>
       </c>
-      <c r="E15" s="268" t="s">
+      <c r="E15" s="266" t="s">
         <v>544</v>
       </c>
-      <c r="F15" s="268" t="s">
+      <c r="F15" s="266" t="s">
         <v>425</v>
       </c>
-      <c r="G15" s="268" t="s">
+      <c r="G15" s="266" t="s">
         <v>577</v>
       </c>
-      <c r="H15" s="291"/>
-      <c r="I15" s="318" t="s">
+      <c r="H15" s="288"/>
+      <c r="I15" s="314" t="s">
         <v>543</v>
       </c>
     </row>
@@ -13167,124 +13153,118 @@
       <c r="A16" s="220" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="412" t="s">
+      <c r="B16" s="379" t="s">
         <v>583</v>
       </c>
-      <c r="C16" s="388" t="s">
+      <c r="C16" s="396" t="s">
         <v>410</v>
       </c>
-      <c r="D16" s="388" t="s">
+      <c r="D16" s="396" t="s">
         <v>581</v>
       </c>
-      <c r="E16" s="264" t="s">
+      <c r="E16" s="262" t="s">
         <v>299</v>
       </c>
-      <c r="F16" s="291"/>
-      <c r="G16" s="268" t="s">
+      <c r="F16" s="288"/>
+      <c r="G16" s="266" t="s">
         <v>564</v>
       </c>
-      <c r="H16" s="268" t="s">
+      <c r="H16" s="266" t="s">
         <v>580</v>
       </c>
-      <c r="I16" s="273" t="s">
-        <v>546</v>
-      </c>
+      <c r="I16" s="281"/>
     </row>
     <row r="17" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="220" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="406" t="s">
+      <c r="B17" s="373" t="s">
         <v>594</v>
       </c>
-      <c r="C17" s="389" t="s">
+      <c r="C17" s="397" t="s">
         <v>292</v>
       </c>
-      <c r="D17" s="268" t="s">
+      <c r="D17" s="266" t="s">
         <v>420</v>
       </c>
-      <c r="E17" s="389" t="s">
+      <c r="E17" s="397" t="s">
         <v>317</v>
       </c>
-      <c r="F17" s="291"/>
-      <c r="G17" s="268" t="s">
+      <c r="G17" s="266" t="s">
         <v>586</v>
       </c>
-      <c r="H17" s="268" t="s">
+      <c r="H17" s="266" t="s">
         <v>579</v>
       </c>
-      <c r="I17" s="245"/>
+      <c r="I17" s="243"/>
     </row>
     <row r="18" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="220" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="413" t="s">
+      <c r="B18" s="380" t="s">
         <v>437</v>
       </c>
-      <c r="C18" s="291"/>
-      <c r="D18" s="386" t="s">
+      <c r="C18" s="288"/>
+      <c r="D18" s="395" t="s">
         <v>641</v>
       </c>
-      <c r="E18" s="291"/>
-      <c r="F18" s="262" t="s">
-        <v>632</v>
-      </c>
-      <c r="G18" s="291"/>
-      <c r="H18" s="262" t="s">
-        <v>636</v>
-      </c>
-      <c r="I18" s="402"/>
+      <c r="E18" s="396" t="s">
+        <v>349</v>
+      </c>
+      <c r="F18" s="266" t="s">
+        <v>348</v>
+      </c>
+      <c r="G18" s="288"/>
+      <c r="I18" s="370" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="220" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="407" t="s">
+      <c r="B19" s="374" t="s">
         <v>598</v>
       </c>
-      <c r="C19" s="264" t="s">
+      <c r="C19" s="262" t="s">
         <v>315</v>
       </c>
-      <c r="D19" s="263" t="s">
+      <c r="D19" s="261" t="s">
         <v>316</v>
       </c>
-      <c r="E19" s="388" t="s">
-        <v>349</v>
-      </c>
-      <c r="F19" s="268" t="s">
-        <v>348</v>
-      </c>
-      <c r="G19" s="291"/>
-      <c r="H19" s="262" t="s">
-        <v>313</v>
-      </c>
-      <c r="I19" s="403" t="s">
-        <v>350</v>
+      <c r="E19" s="424" t="s">
+        <v>546</v>
+      </c>
+      <c r="F19" s="288"/>
+      <c r="G19" s="288"/>
+      <c r="H19" s="288"/>
+      <c r="I19" s="271" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="220" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="414"/>
-      <c r="C20" s="291"/>
-      <c r="D20" s="394" t="s">
+      <c r="B20" s="381"/>
+      <c r="C20" s="288"/>
+      <c r="D20" s="401" t="s">
         <v>447</v>
       </c>
-      <c r="E20" s="389" t="s">
+      <c r="E20" s="397" t="s">
         <v>418</v>
       </c>
-      <c r="F20" s="262" t="s">
+      <c r="F20" s="260" t="s">
         <v>635</v>
       </c>
-      <c r="G20" s="389" t="s">
+      <c r="G20" s="397" t="s">
         <v>448</v>
       </c>
-      <c r="H20" s="262" t="s">
+      <c r="H20" s="260" t="s">
         <v>633</v>
       </c>
-      <c r="I20" s="395" t="s">
+      <c r="I20" s="402" t="s">
         <v>591</v>
       </c>
     </row>
@@ -13292,176 +13272,176 @@
       <c r="A21" s="220" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="415"/>
-      <c r="C21" s="291"/>
-      <c r="D21" s="291"/>
-      <c r="E21" s="291"/>
-      <c r="F21" s="291"/>
-      <c r="G21" s="291"/>
-      <c r="H21" s="291"/>
-      <c r="I21" s="404"/>
+      <c r="B21" s="382"/>
+      <c r="C21" s="288"/>
+      <c r="D21" s="288"/>
+      <c r="E21" s="288"/>
+      <c r="F21" s="288"/>
+      <c r="G21" s="288"/>
+      <c r="H21" s="288"/>
+      <c r="I21" s="371"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="255" t="s">
+      <c r="A22" s="253" t="s">
         <v>388</v>
       </c>
-      <c r="B22" s="416"/>
-      <c r="C22" s="417"/>
-      <c r="D22" s="327"/>
-      <c r="E22" s="327"/>
-      <c r="F22" s="418"/>
-      <c r="G22" s="336"/>
-      <c r="H22" s="418"/>
-      <c r="I22" s="419"/>
+      <c r="B22" s="383"/>
+      <c r="C22" s="384"/>
+      <c r="D22" s="323"/>
+      <c r="E22" s="323"/>
+      <c r="F22" s="385"/>
+      <c r="G22" s="332"/>
+      <c r="H22" s="385"/>
+      <c r="I22" s="386"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="682" t="s">
+      <c r="A23" s="681" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="683"/>
-      <c r="C23" s="683"/>
-      <c r="D23" s="683"/>
-      <c r="E23" s="683"/>
-      <c r="F23" s="683"/>
-      <c r="G23" s="683"/>
-      <c r="H23" s="683"/>
-      <c r="I23" s="684"/>
+      <c r="B23" s="682"/>
+      <c r="C23" s="682"/>
+      <c r="D23" s="682"/>
+      <c r="E23" s="682"/>
+      <c r="F23" s="682"/>
+      <c r="G23" s="682"/>
+      <c r="H23" s="682"/>
+      <c r="I23" s="683"/>
     </row>
     <row r="24" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="351" t="s">
+      <c r="A24" s="347" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="675" t="s">
+      <c r="B24" s="674" t="s">
         <v>678</v>
       </c>
-      <c r="C24" s="649"/>
-      <c r="D24" s="649"/>
-      <c r="E24" s="352"/>
-      <c r="F24" s="292"/>
-      <c r="G24" s="666" t="s">
+      <c r="C24" s="648"/>
+      <c r="D24" s="648"/>
+      <c r="E24" s="348"/>
+      <c r="F24" s="289"/>
+      <c r="G24" s="665" t="s">
         <v>670</v>
       </c>
-      <c r="H24" s="666"/>
-      <c r="I24" s="668"/>
+      <c r="H24" s="665"/>
+      <c r="I24" s="667"/>
     </row>
     <row r="25" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="673" t="s">
+      <c r="B25" s="672" t="s">
         <v>677</v>
       </c>
-      <c r="C25" s="651"/>
-      <c r="D25" s="651"/>
-      <c r="E25" s="274"/>
+      <c r="C25" s="650"/>
+      <c r="D25" s="650"/>
+      <c r="E25" s="272"/>
       <c r="F25" s="151"/>
-      <c r="G25" s="685" t="s">
+      <c r="G25" s="684" t="s">
         <v>671</v>
       </c>
-      <c r="H25" s="685"/>
-      <c r="I25" s="686"/>
+      <c r="H25" s="684"/>
+      <c r="I25" s="685"/>
     </row>
     <row r="26" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="673" t="s">
+      <c r="B26" s="672" t="s">
         <v>676</v>
       </c>
-      <c r="C26" s="651"/>
-      <c r="D26" s="651"/>
-      <c r="E26" s="275"/>
-      <c r="F26" s="275"/>
-      <c r="G26" s="687" t="s">
+      <c r="C26" s="650"/>
+      <c r="D26" s="650"/>
+      <c r="E26" s="273"/>
+      <c r="F26" s="273"/>
+      <c r="G26" s="686" t="s">
         <v>672</v>
       </c>
-      <c r="H26" s="687"/>
-      <c r="I26" s="688"/>
+      <c r="H26" s="686"/>
+      <c r="I26" s="687"/>
     </row>
     <row r="27" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="674" t="s">
+      <c r="B27" s="673" t="s">
         <v>675</v>
       </c>
-      <c r="C27" s="653"/>
-      <c r="D27" s="653"/>
-      <c r="E27" s="331"/>
-      <c r="F27" s="331"/>
-      <c r="G27" s="669" t="s">
+      <c r="C27" s="652"/>
+      <c r="D27" s="652"/>
+      <c r="E27" s="327"/>
+      <c r="F27" s="327"/>
+      <c r="G27" s="668" t="s">
         <v>674</v>
       </c>
-      <c r="H27" s="669"/>
-      <c r="I27" s="670"/>
+      <c r="H27" s="668"/>
+      <c r="I27" s="669"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="640" t="s">
+      <c r="B28" s="639" t="s">
         <v>491</v>
       </c>
-      <c r="C28" s="641"/>
-      <c r="D28" s="641"/>
-      <c r="E28" s="641"/>
-      <c r="F28" s="641"/>
-      <c r="G28" s="641"/>
-      <c r="H28" s="641"/>
-      <c r="I28" s="642"/>
+      <c r="C28" s="640"/>
+      <c r="D28" s="640"/>
+      <c r="E28" s="640"/>
+      <c r="F28" s="640"/>
+      <c r="G28" s="640"/>
+      <c r="H28" s="640"/>
+      <c r="I28" s="641"/>
     </row>
     <row r="29" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="640" t="s">
+      <c r="B29" s="639" t="s">
         <v>491</v>
       </c>
-      <c r="C29" s="641"/>
-      <c r="D29" s="641"/>
-      <c r="E29" s="642"/>
-      <c r="F29" s="333"/>
-      <c r="G29" s="671" t="s">
+      <c r="C29" s="640"/>
+      <c r="D29" s="640"/>
+      <c r="E29" s="641"/>
+      <c r="F29" s="329"/>
+      <c r="G29" s="670" t="s">
         <v>673</v>
       </c>
-      <c r="H29" s="671"/>
-      <c r="I29" s="672"/>
+      <c r="H29" s="670"/>
+      <c r="I29" s="671"/>
     </row>
     <row r="30" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="220" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="332"/>
-      <c r="C30" s="665" t="s">
+      <c r="B30" s="328"/>
+      <c r="C30" s="664" t="s">
         <v>679</v>
       </c>
-      <c r="D30" s="666"/>
-      <c r="E30" s="667"/>
-      <c r="F30" s="640" t="s">
+      <c r="D30" s="665"/>
+      <c r="E30" s="666"/>
+      <c r="F30" s="639" t="s">
         <v>491</v>
       </c>
-      <c r="G30" s="641"/>
-      <c r="H30" s="641"/>
-      <c r="I30" s="642"/>
+      <c r="G30" s="640"/>
+      <c r="H30" s="640"/>
+      <c r="I30" s="641"/>
     </row>
     <row r="31" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="276"/>
-      <c r="C31" s="277"/>
-      <c r="D31" s="334" t="s">
+      <c r="B31" s="274"/>
+      <c r="C31" s="275"/>
+      <c r="D31" s="330" t="s">
         <v>637</v>
       </c>
-      <c r="E31" s="277"/>
-      <c r="F31" s="334" t="s">
+      <c r="E31" s="275"/>
+      <c r="F31" s="330" t="s">
         <v>310</v>
       </c>
-      <c r="G31" s="278" t="s">
+      <c r="G31" s="276" t="s">
         <v>638</v>
       </c>
-      <c r="H31" s="302"/>
-      <c r="I31" s="335"/>
+      <c r="H31" s="299"/>
+      <c r="I31" s="331"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/include/BSCS.xlsx
+++ b/include/BSCS.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Spring-2018" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Monday!$A$1:$I$31</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="702">
   <si>
     <t>National University</t>
   </si>
@@ -2132,16 +2132,16 @@
     <t>CS457</t>
   </si>
   <si>
-    <t>2nd March 2018</t>
-  </si>
-  <si>
-    <t>5th March 2018</t>
+    <t>9th March 2018</t>
+  </si>
+  <si>
+    <t>12th March 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="69" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2775,7 +2775,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -3618,6 +3618,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -4220,9 +4233,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4524,19 +4534,7 @@
     <xf numFmtId="0" fontId="15" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4639,12 +4637,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4664,12 +4656,6 @@
     <xf numFmtId="0" fontId="38" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4680,9 +4666,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4743,6 +4726,55 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4785,21 +4817,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -5118,6 +5135,174 @@
     <xf numFmtId="0" fontId="54" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5186,174 +5371,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5454,39 +5471,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5524,19 +5508,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5568,10 +5576,19 @@
     <xf numFmtId="0" fontId="38" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="27" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5679,10 +5696,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5736,7 +5749,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5864,23 +5877,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5916,23 +5912,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6348,16 +6327,16 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="439" t="s">
+      <c r="H12" s="427" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="439"/>
-      <c r="J12" s="439"/>
-      <c r="K12" s="439"/>
-      <c r="L12" s="439"/>
-      <c r="M12" s="439"/>
-      <c r="N12" s="439"/>
-      <c r="O12" s="439"/>
+      <c r="I12" s="427"/>
+      <c r="J12" s="427"/>
+      <c r="K12" s="427"/>
+      <c r="L12" s="427"/>
+      <c r="M12" s="427"/>
+      <c r="N12" s="427"/>
+      <c r="O12" s="427"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -6371,17 +6350,17 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="440" t="s">
+      <c r="H13" s="428" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="440"/>
-      <c r="J13" s="440"/>
-      <c r="K13" s="440"/>
-      <c r="L13" s="440"/>
-      <c r="M13" s="440"/>
-      <c r="N13" s="440"/>
-      <c r="O13" s="440"/>
-      <c r="P13" s="440"/>
+      <c r="I13" s="428"/>
+      <c r="J13" s="428"/>
+      <c r="K13" s="428"/>
+      <c r="L13" s="428"/>
+      <c r="M13" s="428"/>
+      <c r="N13" s="428"/>
+      <c r="O13" s="428"/>
+      <c r="P13" s="428"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="7"/>
@@ -6394,17 +6373,17 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="441" t="s">
+      <c r="H14" s="429" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="441"/>
-      <c r="J14" s="441"/>
-      <c r="K14" s="441"/>
-      <c r="L14" s="441"/>
-      <c r="M14" s="441"/>
-      <c r="N14" s="441"/>
-      <c r="O14" s="441"/>
-      <c r="P14" s="441"/>
+      <c r="I14" s="429"/>
+      <c r="J14" s="429"/>
+      <c r="K14" s="429"/>
+      <c r="L14" s="429"/>
+      <c r="M14" s="429"/>
+      <c r="N14" s="429"/>
+      <c r="O14" s="429"/>
+      <c r="P14" s="429"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="7"/>
@@ -6417,17 +6396,17 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="442" t="s">
+      <c r="H15" s="430" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="442"/>
-      <c r="J15" s="442"/>
-      <c r="K15" s="442"/>
-      <c r="L15" s="442"/>
-      <c r="M15" s="442"/>
-      <c r="N15" s="442"/>
-      <c r="O15" s="442"/>
-      <c r="P15" s="442"/>
+      <c r="I15" s="430"/>
+      <c r="J15" s="430"/>
+      <c r="K15" s="430"/>
+      <c r="L15" s="430"/>
+      <c r="M15" s="430"/>
+      <c r="N15" s="430"/>
+      <c r="O15" s="430"/>
+      <c r="P15" s="430"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="7"/>
@@ -6440,17 +6419,17 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="443" t="s">
+      <c r="H16" s="431" t="s">
         <v>643</v>
       </c>
-      <c r="I16" s="443"/>
-      <c r="J16" s="443"/>
-      <c r="K16" s="443"/>
-      <c r="L16" s="443"/>
-      <c r="M16" s="443"/>
-      <c r="N16" s="443"/>
-      <c r="O16" s="443"/>
-      <c r="P16" s="443"/>
+      <c r="I16" s="431"/>
+      <c r="J16" s="431"/>
+      <c r="K16" s="431"/>
+      <c r="L16" s="431"/>
+      <c r="M16" s="431"/>
+      <c r="N16" s="431"/>
+      <c r="O16" s="431"/>
+      <c r="P16" s="431"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="7"/>
@@ -6633,13 +6612,13 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="427" t="s">
+      <c r="O24" s="434" t="s">
         <v>7</v>
       </c>
-      <c r="P24" s="428"/>
-      <c r="Q24" s="428"/>
-      <c r="R24" s="428"/>
-      <c r="S24" s="429"/>
+      <c r="P24" s="435"/>
+      <c r="Q24" s="435"/>
+      <c r="R24" s="435"/>
+      <c r="S24" s="436"/>
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="2:20" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6656,13 +6635,13 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="430" t="s">
+      <c r="O25" s="437" t="s">
         <v>198</v>
       </c>
-      <c r="P25" s="431"/>
-      <c r="Q25" s="431"/>
-      <c r="R25" s="431"/>
-      <c r="S25" s="432"/>
+      <c r="P25" s="438"/>
+      <c r="Q25" s="438"/>
+      <c r="R25" s="438"/>
+      <c r="S25" s="439"/>
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6671,23 +6650,23 @@
       <c r="D26" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="425" t="s">
+      <c r="E26" s="432" t="s">
         <v>700</v>
       </c>
-      <c r="F26" s="425"/>
-      <c r="G26" s="425"/>
-      <c r="H26" s="425"/>
-      <c r="I26" s="425"/>
+      <c r="F26" s="432"/>
+      <c r="G26" s="432"/>
+      <c r="H26" s="432"/>
+      <c r="I26" s="432"/>
       <c r="J26" s="28"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="433"/>
-      <c r="P26" s="434"/>
-      <c r="Q26" s="434"/>
-      <c r="R26" s="434"/>
-      <c r="S26" s="435"/>
+      <c r="O26" s="440"/>
+      <c r="P26" s="441"/>
+      <c r="Q26" s="441"/>
+      <c r="R26" s="441"/>
+      <c r="S26" s="442"/>
       <c r="T26" s="7"/>
     </row>
     <row r="27" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6697,24 +6676,24 @@
         <v>9</v>
       </c>
       <c r="E27" s="25"/>
-      <c r="F27" s="426" t="s">
+      <c r="F27" s="433" t="s">
         <v>701</v>
       </c>
-      <c r="G27" s="426"/>
-      <c r="H27" s="426"/>
+      <c r="G27" s="433"/>
+      <c r="H27" s="433"/>
       <c r="I27" s="26"/>
       <c r="J27" s="30"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="436" t="s">
+      <c r="O27" s="443" t="s">
         <v>10</v>
       </c>
-      <c r="P27" s="437"/>
-      <c r="Q27" s="437"/>
-      <c r="R27" s="437"/>
-      <c r="S27" s="438"/>
+      <c r="P27" s="444"/>
+      <c r="Q27" s="444"/>
+      <c r="R27" s="444"/>
+      <c r="S27" s="445"/>
       <c r="T27" s="7"/>
     </row>
     <row r="28" spans="2:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6780,16 +6759,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="O25:S26"/>
+    <mergeCell ref="O27:S27"/>
     <mergeCell ref="H12:O12"/>
     <mergeCell ref="H13:P13"/>
     <mergeCell ref="H14:P14"/>
     <mergeCell ref="H15:P15"/>
     <mergeCell ref="H16:P16"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="O25:S26"/>
-    <mergeCell ref="O27:S27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6826,611 +6805,606 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="695" t="s">
+      <c r="A1" s="694" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="696"/>
-      <c r="C1" s="696"/>
-      <c r="D1" s="696"/>
-      <c r="E1" s="696"/>
-      <c r="F1" s="696"/>
-      <c r="G1" s="696"/>
-      <c r="H1" s="696"/>
-      <c r="I1" s="697"/>
+      <c r="B1" s="695"/>
+      <c r="C1" s="695"/>
+      <c r="D1" s="695"/>
+      <c r="E1" s="695"/>
+      <c r="F1" s="695"/>
+      <c r="G1" s="695"/>
+      <c r="H1" s="695"/>
+      <c r="I1" s="696"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="220" t="s">
+      <c r="A2" s="219" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="220">
+      <c r="B2" s="219">
         <v>1</v>
       </c>
-      <c r="C2" s="220">
+      <c r="C2" s="219">
         <v>2</v>
       </c>
-      <c r="D2" s="220">
+      <c r="D2" s="219">
         <v>3</v>
       </c>
-      <c r="E2" s="220">
+      <c r="E2" s="219">
         <v>4</v>
       </c>
-      <c r="F2" s="220">
+      <c r="F2" s="219">
         <v>5</v>
       </c>
-      <c r="G2" s="220">
+      <c r="G2" s="219">
         <v>6</v>
       </c>
-      <c r="H2" s="220">
+      <c r="H2" s="219">
         <v>7</v>
       </c>
-      <c r="I2" s="220">
+      <c r="I2" s="219">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="219" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="225" t="s">
+      <c r="B3" s="224" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="225" t="s">
+      <c r="C3" s="224" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="225" t="s">
+      <c r="D3" s="224" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="225" t="s">
+      <c r="E3" s="224" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="225" t="s">
+      <c r="F3" s="224" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="224" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="225" t="s">
+      <c r="H3" s="224" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="225" t="s">
+      <c r="I3" s="224" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="698" t="s">
+      <c r="A4" s="697" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="699"/>
-      <c r="C4" s="699"/>
-      <c r="D4" s="699"/>
-      <c r="E4" s="699"/>
-      <c r="F4" s="699"/>
-      <c r="G4" s="699"/>
-      <c r="H4" s="699"/>
-      <c r="I4" s="700"/>
+      <c r="B4" s="698"/>
+      <c r="C4" s="698"/>
+      <c r="D4" s="698"/>
+      <c r="E4" s="698"/>
+      <c r="F4" s="698"/>
+      <c r="G4" s="698"/>
+      <c r="H4" s="698"/>
+      <c r="I4" s="699"/>
     </row>
     <row r="5" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="302" t="s">
+      <c r="A5" s="301" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="354" t="s">
+      <c r="B5" s="349" t="s">
         <v>431</v>
       </c>
-      <c r="C5" s="419" t="s">
+      <c r="C5" s="409" t="s">
         <v>432</v>
       </c>
-      <c r="D5" s="419" t="s">
+      <c r="D5" s="409" t="s">
         <v>371</v>
       </c>
-      <c r="E5" s="419" t="s">
+      <c r="E5" s="409" t="s">
         <v>453</v>
       </c>
-      <c r="F5" s="419" t="s">
+      <c r="F5" s="409" t="s">
         <v>387</v>
       </c>
       <c r="G5" s="151"/>
-      <c r="H5" s="289"/>
-      <c r="I5" s="297"/>
+      <c r="H5" s="288"/>
+      <c r="I5" s="296"/>
     </row>
     <row r="6" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="220" t="s">
+      <c r="A6" s="219" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="226" t="s">
+      <c r="B6" s="225" t="s">
         <v>433</v>
       </c>
-      <c r="C6" s="227" t="s">
+      <c r="C6" s="226" t="s">
         <v>434</v>
       </c>
-      <c r="D6" s="227" t="s">
+      <c r="D6" s="226" t="s">
         <v>450</v>
       </c>
-      <c r="E6" s="405" t="s">
+      <c r="E6" s="395" t="s">
         <v>443</v>
       </c>
-      <c r="F6" s="288"/>
-      <c r="G6" s="411" t="s">
+      <c r="F6" s="287"/>
+      <c r="G6" s="401" t="s">
         <v>303</v>
       </c>
-      <c r="H6" s="288"/>
-      <c r="I6" s="293"/>
+      <c r="H6" s="287"/>
+      <c r="I6" s="292"/>
     </row>
     <row r="7" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="220" t="s">
+      <c r="A7" s="219" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="408" t="s">
+      <c r="B7" s="398" t="s">
         <v>343</v>
       </c>
-      <c r="C7" s="410" t="s">
+      <c r="C7" s="400" t="s">
         <v>441</v>
       </c>
-      <c r="D7" s="410" t="s">
+      <c r="D7" s="400" t="s">
         <v>440</v>
       </c>
-      <c r="E7" s="315"/>
-      <c r="F7" s="410" t="s">
+      <c r="E7" s="314"/>
+      <c r="F7" s="400" t="s">
         <v>442</v>
       </c>
-      <c r="G7" s="315"/>
-      <c r="H7" s="288"/>
-      <c r="I7" s="243"/>
+      <c r="G7" s="314"/>
+      <c r="H7" s="287"/>
+      <c r="I7" s="242"/>
     </row>
     <row r="8" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="220" t="s">
+      <c r="A8" s="219" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="151"/>
-      <c r="C8" s="405" t="s">
+      <c r="C8" s="395" t="s">
         <v>438</v>
       </c>
-      <c r="D8" s="288"/>
-      <c r="E8" s="410" t="s">
+      <c r="D8" s="287"/>
+      <c r="E8" s="400" t="s">
         <v>458</v>
       </c>
-      <c r="F8" s="410" t="s">
+      <c r="F8" s="400" t="s">
         <v>459</v>
       </c>
-      <c r="G8" s="288"/>
-      <c r="H8" s="315"/>
-      <c r="I8" s="293"/>
+      <c r="G8" s="287"/>
+      <c r="H8" s="314"/>
+      <c r="I8" s="292"/>
     </row>
     <row r="9" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="220" t="s">
+      <c r="A9" s="219" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="226" t="s">
+      <c r="B9" s="225" t="s">
         <v>526</v>
       </c>
-      <c r="C9" s="227" t="s">
+      <c r="C9" s="226" t="s">
         <v>527</v>
       </c>
-      <c r="D9" s="227" t="s">
+      <c r="D9" s="226" t="s">
         <v>319</v>
       </c>
-      <c r="E9" s="262" t="s">
+      <c r="E9" s="261" t="s">
         <v>603</v>
       </c>
-      <c r="F9" s="262" t="s">
+      <c r="F9" s="261" t="s">
         <v>296</v>
       </c>
       <c r="G9" s="140" t="s">
         <v>319</v>
       </c>
-      <c r="H9" s="288"/>
-      <c r="I9" s="293"/>
+      <c r="H9" s="287"/>
+      <c r="I9" s="292"/>
     </row>
     <row r="10" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="220" t="s">
+      <c r="A10" s="219" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="413" t="s">
+      <c r="B10" s="403" t="s">
         <v>454</v>
       </c>
-      <c r="C10" s="410" t="s">
+      <c r="C10" s="400" t="s">
         <v>604</v>
       </c>
       <c r="D10" s="214"/>
-      <c r="E10" s="410" t="s">
+      <c r="E10" s="400" t="s">
         <v>455</v>
       </c>
       <c r="F10" s="151"/>
-      <c r="G10" s="288"/>
-      <c r="H10" s="288"/>
-      <c r="I10" s="293"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="292"/>
     </row>
     <row r="11" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="220" t="s">
+      <c r="A11" s="219" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="413" t="s">
+      <c r="B11" s="403" t="s">
         <v>456</v>
       </c>
-      <c r="C11" s="410" t="s">
+      <c r="C11" s="400" t="s">
         <v>457</v>
       </c>
       <c r="D11" s="151"/>
-      <c r="E11" s="308" t="s">
+      <c r="E11" s="307" t="s">
         <v>613</v>
       </c>
-      <c r="F11" s="405" t="s">
+      <c r="F11" s="395" t="s">
         <v>376</v>
       </c>
       <c r="G11" s="151"/>
-      <c r="H11" s="230"/>
-      <c r="I11" s="281"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="280"/>
     </row>
     <row r="12" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="220" t="s">
+      <c r="A12" s="219" t="s">
         <v>137</v>
       </c>
       <c r="B12" s="215" t="s">
         <v>473</v>
       </c>
-      <c r="C12" s="410" t="s">
+      <c r="C12" s="400" t="s">
         <v>540</v>
       </c>
-      <c r="D12" s="315"/>
+      <c r="D12" s="314"/>
       <c r="E12" s="211" t="s">
         <v>342</v>
       </c>
-      <c r="F12" s="227" t="s">
+      <c r="F12" s="226" t="s">
         <v>532</v>
       </c>
-      <c r="G12" s="288"/>
-      <c r="H12" s="230"/>
-      <c r="I12" s="293"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="292"/>
     </row>
     <row r="13" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="220" t="s">
+      <c r="A13" s="219" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="295"/>
-      <c r="C13" s="405" t="s">
+      <c r="B13" s="294"/>
+      <c r="C13" s="395" t="s">
         <v>383</v>
       </c>
-      <c r="D13" s="288"/>
+      <c r="D13" s="287"/>
       <c r="E13" s="151"/>
-      <c r="F13" s="288"/>
-      <c r="G13" s="288"/>
-      <c r="H13" s="315"/>
-      <c r="I13" s="293"/>
+      <c r="F13" s="287"/>
+      <c r="G13" s="287"/>
+      <c r="H13" s="314"/>
+      <c r="I13" s="292"/>
     </row>
     <row r="14" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="220" t="s">
+      <c r="A14" s="219" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="295"/>
-      <c r="C14" s="288"/>
+      <c r="B14" s="294"/>
+      <c r="C14" s="287"/>
       <c r="D14" s="151"/>
-      <c r="E14" s="742"/>
-      <c r="F14" s="288"/>
-      <c r="G14" s="288"/>
+      <c r="E14" s="418"/>
+      <c r="F14" s="287"/>
+      <c r="G14" s="287"/>
       <c r="H14" s="151"/>
-      <c r="I14" s="293"/>
+      <c r="I14" s="292"/>
     </row>
     <row r="15" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="219" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="355"/>
-      <c r="C15" s="315"/>
-      <c r="D15" s="288"/>
-      <c r="E15" s="288"/>
-      <c r="F15" s="410" t="s">
+      <c r="B15" s="350"/>
+      <c r="C15" s="314"/>
+      <c r="D15" s="287"/>
+      <c r="E15" s="287"/>
+      <c r="F15" s="400" t="s">
         <v>460</v>
       </c>
       <c r="G15" s="151"/>
-      <c r="H15" s="410" t="s">
+      <c r="H15" s="400" t="s">
         <v>345</v>
       </c>
-      <c r="I15" s="293"/>
+      <c r="I15" s="292"/>
     </row>
     <row r="16" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="220" t="s">
+      <c r="A16" s="219" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="414" t="s">
+      <c r="B16" s="404" t="s">
         <v>447</v>
       </c>
-      <c r="C16" s="410" t="s">
+      <c r="C16" s="400" t="s">
         <v>452</v>
       </c>
-      <c r="D16" s="315"/>
-      <c r="E16" s="262" t="s">
+      <c r="D16" s="314"/>
+      <c r="E16" s="261" t="s">
         <v>301</v>
       </c>
-      <c r="F16" s="262" t="s">
+      <c r="F16" s="261" t="s">
         <v>297</v>
       </c>
-      <c r="G16" s="288"/>
-      <c r="H16" s="411" t="s">
+      <c r="G16" s="287"/>
+      <c r="H16" s="401" t="s">
         <v>449</v>
       </c>
-      <c r="I16" s="277" t="s">
+      <c r="I16" s="276" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="220" t="s">
+      <c r="A17" s="219" t="s">
         <v>142</v>
       </c>
       <c r="B17" s="151"/>
-      <c r="C17" s="410" t="s">
+      <c r="C17" s="400" t="s">
         <v>462</v>
       </c>
-      <c r="D17" s="315"/>
-      <c r="E17" s="410" t="s">
+      <c r="D17" s="314"/>
+      <c r="E17" s="400" t="s">
         <v>461</v>
       </c>
-      <c r="F17" s="410" t="s">
+      <c r="F17" s="400" t="s">
         <v>548</v>
       </c>
       <c r="G17" s="215" t="s">
         <v>475</v>
       </c>
-      <c r="H17" s="410" t="s">
+      <c r="H17" s="400" t="s">
         <v>547</v>
       </c>
-      <c r="I17" s="293"/>
+      <c r="I17" s="292"/>
     </row>
     <row r="18" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="220" t="s">
+      <c r="A18" s="219" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="414" t="s">
+      <c r="B18" s="404" t="s">
         <v>495</v>
       </c>
-      <c r="C18" s="411" t="s">
+      <c r="C18" s="401" t="s">
         <v>496</v>
       </c>
-      <c r="D18" s="234"/>
-      <c r="E18" s="262" t="s">
+      <c r="D18" s="233"/>
+      <c r="E18" s="261" t="s">
         <v>302</v>
       </c>
-      <c r="F18" s="262" t="s">
+      <c r="F18" s="261" t="s">
         <v>298</v>
       </c>
-      <c r="G18" s="411" t="s">
+      <c r="G18" s="401" t="s">
         <v>307</v>
       </c>
-      <c r="H18" s="262" t="s">
+      <c r="H18" s="261" t="s">
         <v>299</v>
       </c>
-      <c r="I18" s="412" t="s">
+      <c r="I18" s="402" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="220" t="s">
+      <c r="A19" s="219" t="s">
         <v>145</v>
       </c>
       <c r="B19" s="151"/>
-      <c r="C19" s="410" t="s">
+      <c r="C19" s="400" t="s">
         <v>463</v>
       </c>
-      <c r="D19" s="410" t="s">
+      <c r="D19" s="400" t="s">
         <v>346</v>
       </c>
-      <c r="E19" s="410" t="s">
+      <c r="E19" s="400" t="s">
         <v>451</v>
       </c>
-      <c r="F19" s="410" t="s">
+      <c r="F19" s="400" t="s">
         <v>477</v>
       </c>
-      <c r="G19" s="413" t="s">
+      <c r="G19" s="403" t="s">
         <v>427</v>
       </c>
-      <c r="H19" s="410" t="s">
+      <c r="H19" s="400" t="s">
         <v>476</v>
       </c>
-      <c r="I19" s="281"/>
+      <c r="I19" s="280"/>
     </row>
     <row r="20" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="224" t="s">
+      <c r="A20" s="223" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="229" t="s">
+      <c r="B20" s="228" t="s">
         <v>444</v>
       </c>
-      <c r="C20" s="405" t="s">
+      <c r="C20" s="395" t="s">
         <v>445</v>
       </c>
       <c r="D20" s="151"/>
-      <c r="E20" s="288"/>
-      <c r="F20" s="405" t="s">
+      <c r="E20" s="287"/>
+      <c r="F20" s="395" t="s">
         <v>446</v>
       </c>
-      <c r="G20" s="423" t="s">
+      <c r="G20" s="413" t="s">
         <v>632</v>
       </c>
-      <c r="H20" s="260" t="s">
+      <c r="H20" s="259" t="s">
         <v>639</v>
       </c>
-      <c r="I20" s="314" t="s">
+      <c r="I20" s="313" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="220" t="s">
+      <c r="A21" s="219" t="s">
         <v>144</v>
       </c>
       <c r="B21" s="151"/>
       <c r="C21" s="151"/>
-      <c r="D21" s="230"/>
-      <c r="E21" s="288"/>
+      <c r="D21" s="229"/>
+      <c r="E21" s="287"/>
       <c r="F21" s="151"/>
-      <c r="G21" s="288"/>
-      <c r="H21" s="288"/>
-      <c r="I21" s="281"/>
+      <c r="G21" s="287"/>
+      <c r="H21" s="287"/>
+      <c r="I21" s="280"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="220" t="s">
+      <c r="A22" s="219" t="s">
         <v>388</v>
       </c>
-      <c r="B22" s="356"/>
+      <c r="B22" s="351"/>
       <c r="C22" s="127"/>
       <c r="D22" s="127"/>
-      <c r="E22" s="247"/>
+      <c r="E22" s="246"/>
       <c r="F22" s="127"/>
       <c r="G22" s="127"/>
       <c r="H22" s="127"/>
-      <c r="I22" s="349"/>
+      <c r="I22" s="347"/>
     </row>
     <row r="23" spans="1:9" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="698" t="s">
+      <c r="A23" s="697" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="701"/>
-      <c r="C23" s="701"/>
-      <c r="D23" s="701"/>
-      <c r="E23" s="701"/>
-      <c r="F23" s="701"/>
-      <c r="G23" s="701"/>
-      <c r="H23" s="701"/>
-      <c r="I23" s="702"/>
+      <c r="B23" s="700"/>
+      <c r="C23" s="700"/>
+      <c r="D23" s="700"/>
+      <c r="E23" s="700"/>
+      <c r="F23" s="700"/>
+      <c r="G23" s="700"/>
+      <c r="H23" s="700"/>
+      <c r="I23" s="701"/>
     </row>
     <row r="24" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="224" t="s">
+      <c r="A24" s="223" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="693" t="s">
+      <c r="B24" s="692" t="s">
         <v>664</v>
       </c>
-      <c r="C24" s="694"/>
-      <c r="D24" s="694"/>
-      <c r="E24" s="289"/>
-      <c r="F24" s="235"/>
-      <c r="G24" s="648" t="s">
+      <c r="C24" s="693"/>
+      <c r="D24" s="693"/>
+      <c r="E24" s="288"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="650" t="s">
         <v>665</v>
       </c>
-      <c r="H24" s="648"/>
-      <c r="I24" s="703"/>
+      <c r="H24" s="650"/>
+      <c r="I24" s="702"/>
     </row>
     <row r="25" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="220" t="s">
+      <c r="A25" s="219" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="688" t="s">
+      <c r="B25" s="703" t="s">
         <v>663</v>
       </c>
-      <c r="C25" s="659"/>
-      <c r="D25" s="659"/>
-      <c r="E25" s="288"/>
-      <c r="F25" s="315"/>
-      <c r="G25" s="659" t="s">
+      <c r="C25" s="661"/>
+      <c r="D25" s="661"/>
+      <c r="E25" s="287"/>
+      <c r="F25" s="314"/>
+      <c r="G25" s="661" t="s">
         <v>666</v>
       </c>
-      <c r="H25" s="659"/>
-      <c r="I25" s="660"/>
+      <c r="H25" s="661"/>
+      <c r="I25" s="662"/>
     </row>
     <row r="26" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="220" t="s">
+      <c r="A26" s="219" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="688" t="s">
+      <c r="B26" s="703" t="s">
         <v>662</v>
       </c>
-      <c r="C26" s="659"/>
-      <c r="D26" s="659"/>
-      <c r="E26" s="308" t="s">
+      <c r="C26" s="661"/>
+      <c r="D26" s="661"/>
+      <c r="E26" s="307" t="s">
         <v>640</v>
       </c>
       <c r="F26" s="48"/>
-      <c r="G26" s="629" t="s">
+      <c r="G26" s="631" t="s">
         <v>667</v>
       </c>
-      <c r="H26" s="629"/>
-      <c r="I26" s="690"/>
+      <c r="H26" s="631"/>
+      <c r="I26" s="705"/>
     </row>
     <row r="27" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="220" t="s">
+      <c r="A27" s="219" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="691" t="s">
+      <c r="B27" s="706" t="s">
         <v>687</v>
       </c>
-      <c r="C27" s="692"/>
-      <c r="D27" s="692"/>
-      <c r="E27" s="321"/>
-      <c r="F27" s="322"/>
-      <c r="G27" s="323"/>
-      <c r="H27" s="323"/>
-      <c r="I27" s="326"/>
+      <c r="C27" s="707"/>
+      <c r="D27" s="707"/>
+      <c r="E27" s="320"/>
+      <c r="F27" s="321"/>
+      <c r="G27" s="322"/>
+      <c r="H27" s="322"/>
+      <c r="I27" s="325"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="220" t="s">
+      <c r="A28" s="219" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="639" t="s">
+      <c r="B28" s="641" t="s">
         <v>491</v>
       </c>
-      <c r="C28" s="640"/>
-      <c r="D28" s="640"/>
-      <c r="E28" s="640"/>
-      <c r="F28" s="640"/>
-      <c r="G28" s="640"/>
-      <c r="H28" s="640"/>
-      <c r="I28" s="641"/>
+      <c r="C28" s="642"/>
+      <c r="D28" s="642"/>
+      <c r="E28" s="642"/>
+      <c r="F28" s="642"/>
+      <c r="G28" s="642"/>
+      <c r="H28" s="642"/>
+      <c r="I28" s="643"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="220" t="s">
+      <c r="A29" s="219" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="639" t="s">
+      <c r="B29" s="641" t="s">
         <v>491</v>
       </c>
-      <c r="C29" s="640"/>
-      <c r="D29" s="640"/>
-      <c r="E29" s="641"/>
-      <c r="F29" s="325"/>
-      <c r="G29" s="289"/>
-      <c r="H29" s="289"/>
-      <c r="I29" s="297"/>
+      <c r="C29" s="642"/>
+      <c r="D29" s="642"/>
+      <c r="E29" s="643"/>
+      <c r="F29" s="324"/>
+      <c r="G29" s="288"/>
+      <c r="H29" s="288"/>
+      <c r="I29" s="296"/>
     </row>
     <row r="30" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="220" t="s">
+      <c r="A30" s="219" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="689" t="s">
+      <c r="B30" s="704" t="s">
         <v>669</v>
       </c>
-      <c r="C30" s="630"/>
-      <c r="D30" s="630"/>
-      <c r="E30" s="324"/>
+      <c r="C30" s="632"/>
+      <c r="D30" s="632"/>
+      <c r="E30" s="323"/>
       <c r="F30" s="48"/>
-      <c r="G30" s="659" t="s">
+      <c r="G30" s="661" t="s">
         <v>668</v>
       </c>
-      <c r="H30" s="659"/>
-      <c r="I30" s="660"/>
+      <c r="H30" s="661"/>
+      <c r="I30" s="662"/>
     </row>
     <row r="31" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="220" t="s">
+      <c r="A31" s="219" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="236"/>
-      <c r="C31" s="237"/>
-      <c r="D31" s="276" t="s">
+      <c r="B31" s="235"/>
+      <c r="C31" s="236"/>
+      <c r="D31" s="275" t="s">
         <v>313</v>
       </c>
-      <c r="E31" s="237"/>
-      <c r="F31" s="276" t="s">
+      <c r="E31" s="236"/>
+      <c r="F31" s="275" t="s">
         <v>312</v>
       </c>
-      <c r="G31" s="422" t="s">
+      <c r="G31" s="412" t="s">
         <v>311</v>
       </c>
-      <c r="H31" s="299"/>
-      <c r="I31" s="421"/>
+      <c r="H31" s="298"/>
+      <c r="I31" s="411"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="G24:I24"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="B26:D26"/>
@@ -7440,6 +7414,11 @@
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="G24:I24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.2" bottom="0.24" header="0.17" footer="0.17"/>
@@ -7475,17 +7454,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="706" t="s">
+      <c r="A1" s="708" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="707"/>
-      <c r="C1" s="707"/>
-      <c r="D1" s="707"/>
-      <c r="E1" s="707"/>
-      <c r="F1" s="707"/>
-      <c r="G1" s="707"/>
-      <c r="H1" s="707"/>
-      <c r="I1" s="707"/>
+      <c r="B1" s="709"/>
+      <c r="C1" s="709"/>
+      <c r="D1" s="709"/>
+      <c r="E1" s="709"/>
+      <c r="F1" s="709"/>
+      <c r="G1" s="709"/>
+      <c r="H1" s="709"/>
+      <c r="I1" s="709"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -7517,71 +7496,71 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="219" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="225" t="s">
+      <c r="B3" s="224" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="225" t="s">
+      <c r="C3" s="224" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="225" t="s">
+      <c r="D3" s="224" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="225" t="s">
+      <c r="E3" s="224" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="225" t="s">
+      <c r="F3" s="224" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="224" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="225" t="s">
+      <c r="H3" s="224" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="225" t="s">
+      <c r="I3" s="224" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="708" t="s">
+      <c r="A4" s="710" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="709"/>
-      <c r="C4" s="709"/>
-      <c r="D4" s="709"/>
-      <c r="E4" s="709"/>
-      <c r="F4" s="709"/>
-      <c r="G4" s="710"/>
-      <c r="H4" s="709"/>
-      <c r="I4" s="709"/>
+      <c r="B4" s="711"/>
+      <c r="C4" s="711"/>
+      <c r="D4" s="711"/>
+      <c r="E4" s="711"/>
+      <c r="F4" s="711"/>
+      <c r="G4" s="712"/>
+      <c r="H4" s="711"/>
+      <c r="I4" s="711"/>
     </row>
     <row r="5" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="251" t="s">
+      <c r="B5" s="250" t="s">
         <v>377</v>
       </c>
-      <c r="C5" s="252" t="s">
+      <c r="C5" s="251" t="s">
         <v>376</v>
       </c>
-      <c r="D5" s="252" t="s">
+      <c r="D5" s="251" t="s">
         <v>364</v>
       </c>
-      <c r="E5" s="252" t="s">
+      <c r="E5" s="251" t="s">
         <v>363</v>
       </c>
-      <c r="F5" s="301"/>
-      <c r="G5" s="711" t="s">
+      <c r="F5" s="300"/>
+      <c r="G5" s="713" t="s">
         <v>696</v>
       </c>
-      <c r="H5" s="251" t="s">
+      <c r="H5" s="250" t="s">
         <v>378</v>
       </c>
-      <c r="I5" s="239"/>
+      <c r="I5" s="238"/>
     </row>
     <row r="6" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
@@ -7596,15 +7575,15 @@
       <c r="D6" s="140" t="s">
         <v>319</v>
       </c>
-      <c r="E6" s="288"/>
-      <c r="F6" s="357" t="s">
+      <c r="E6" s="287"/>
+      <c r="F6" s="352" t="s">
         <v>383</v>
       </c>
-      <c r="G6" s="712"/>
-      <c r="H6" s="229" t="s">
+      <c r="G6" s="714"/>
+      <c r="H6" s="228" t="s">
         <v>606</v>
       </c>
-      <c r="I6" s="293"/>
+      <c r="I6" s="292"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
@@ -7622,46 +7601,46 @@
       <c r="E7" s="213" t="s">
         <v>366</v>
       </c>
-      <c r="F7" s="359" t="s">
+      <c r="F7" s="354" t="s">
         <v>465</v>
       </c>
-      <c r="G7" s="712"/>
+      <c r="G7" s="714"/>
       <c r="H7" s="212" t="s">
         <v>367</v>
       </c>
-      <c r="I7" s="222"/>
+      <c r="I7" s="221"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="151"/>
-      <c r="C8" s="288"/>
-      <c r="D8" s="288"/>
+      <c r="C8" s="287"/>
+      <c r="D8" s="287"/>
       <c r="E8" s="214"/>
       <c r="F8" s="151"/>
-      <c r="G8" s="712"/>
-      <c r="H8" s="295"/>
-      <c r="I8" s="221"/>
+      <c r="G8" s="714"/>
+      <c r="H8" s="294"/>
+      <c r="I8" s="220"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="295"/>
-      <c r="C9" s="288"/>
-      <c r="D9" s="288"/>
-      <c r="E9" s="288"/>
-      <c r="F9" s="360"/>
-      <c r="G9" s="712"/>
-      <c r="H9" s="295"/>
-      <c r="I9" s="221"/>
+      <c r="B9" s="294"/>
+      <c r="C9" s="287"/>
+      <c r="D9" s="287"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="355"/>
+      <c r="G9" s="714"/>
+      <c r="H9" s="294"/>
+      <c r="I9" s="220"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="295"/>
+      <c r="B10" s="294"/>
       <c r="C10" s="214"/>
       <c r="D10" s="213" t="s">
         <v>369</v>
@@ -7669,14 +7648,14 @@
       <c r="E10" s="213" t="s">
         <v>370</v>
       </c>
-      <c r="F10" s="358"/>
-      <c r="G10" s="712"/>
-      <c r="H10" s="226" t="s">
+      <c r="F10" s="353"/>
+      <c r="G10" s="714"/>
+      <c r="H10" s="225" t="s">
         <v>531</v>
       </c>
-      <c r="I10" s="293"/>
-    </row>
-    <row r="11" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="292"/>
+    </row>
+    <row r="11" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>136</v>
       </c>
@@ -7684,23 +7663,29 @@
       <c r="C11" s="140" t="s">
         <v>324</v>
       </c>
-      <c r="D11" s="288"/>
+      <c r="D11" s="259" t="s">
+        <v>632</v>
+      </c>
       <c r="E11" s="140" t="s">
         <v>322</v>
       </c>
-      <c r="F11" s="361" t="s">
+      <c r="F11" s="356" t="s">
         <v>324</v>
       </c>
-      <c r="G11" s="712"/>
-      <c r="H11" s="216"/>
-      <c r="I11" s="281"/>
+      <c r="G11" s="714"/>
+      <c r="H11" s="249" t="s">
+        <v>639</v>
+      </c>
+      <c r="I11" s="269" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="295"/>
-      <c r="C12" s="217" t="s">
+      <c r="B12" s="294"/>
+      <c r="C12" s="216" t="s">
         <v>472</v>
       </c>
       <c r="D12" s="213" t="s">
@@ -7709,33 +7694,33 @@
       <c r="E12" s="213" t="s">
         <v>431</v>
       </c>
-      <c r="F12" s="296" t="s">
+      <c r="F12" s="295" t="s">
         <v>470</v>
       </c>
-      <c r="G12" s="712"/>
-      <c r="H12" s="223" t="s">
+      <c r="G12" s="714"/>
+      <c r="H12" s="222" t="s">
         <v>471</v>
       </c>
-      <c r="I12" s="221"/>
+      <c r="I12" s="220"/>
     </row>
     <row r="13" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="295"/>
+      <c r="B13" s="294"/>
       <c r="C13" s="151"/>
-      <c r="D13" s="288"/>
+      <c r="D13" s="287"/>
       <c r="E13" s="214"/>
-      <c r="F13" s="358"/>
-      <c r="G13" s="712"/>
-      <c r="H13" s="295"/>
-      <c r="I13" s="281"/>
+      <c r="F13" s="353"/>
+      <c r="G13" s="714"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="280"/>
     </row>
     <row r="14" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="295"/>
+      <c r="B14" s="294"/>
       <c r="C14" s="140" t="s">
         <v>326</v>
       </c>
@@ -7743,106 +7728,106 @@
       <c r="E14" s="140" t="s">
         <v>325</v>
       </c>
-      <c r="F14" s="361" t="s">
+      <c r="F14" s="356" t="s">
         <v>326</v>
       </c>
-      <c r="G14" s="712"/>
-      <c r="H14" s="295"/>
-      <c r="I14" s="293"/>
+      <c r="G14" s="714"/>
+      <c r="H14" s="294"/>
+      <c r="I14" s="292"/>
     </row>
     <row r="15" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="219" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="295"/>
-      <c r="C15" s="288"/>
-      <c r="D15" s="288"/>
-      <c r="E15" s="288"/>
+      <c r="B15" s="294"/>
+      <c r="C15" s="287"/>
+      <c r="D15" s="287"/>
+      <c r="E15" s="287"/>
       <c r="F15" s="151"/>
-      <c r="G15" s="712"/>
+      <c r="G15" s="714"/>
       <c r="H15" s="151"/>
-      <c r="I15" s="221"/>
+      <c r="I15" s="220"/>
     </row>
     <row r="16" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="220" t="s">
+      <c r="A16" s="219" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="353" t="s">
+      <c r="B16" s="348" t="s">
         <v>327</v>
       </c>
       <c r="C16" s="140" t="s">
         <v>328</v>
       </c>
       <c r="D16" s="214"/>
-      <c r="E16" s="260" t="s">
+      <c r="E16" s="259" t="s">
         <v>629</v>
       </c>
-      <c r="F16" s="388" t="s">
+      <c r="F16" s="383" t="s">
         <v>631</v>
       </c>
-      <c r="G16" s="712"/>
-      <c r="H16" s="362" t="s">
+      <c r="G16" s="714"/>
+      <c r="H16" s="357" t="s">
         <v>630</v>
       </c>
-      <c r="I16" s="314" t="s">
+      <c r="I16" s="313" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="220" t="s">
+      <c r="A17" s="219" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="353" t="s">
+      <c r="B17" s="348" t="s">
         <v>330</v>
       </c>
       <c r="C17" s="140" t="s">
         <v>329</v>
       </c>
-      <c r="D17" s="423" t="s">
+      <c r="D17" s="413" t="s">
         <v>313</v>
       </c>
       <c r="E17" s="211" t="s">
         <v>345</v>
       </c>
-      <c r="F17" s="363" t="s">
+      <c r="F17" s="358" t="s">
         <v>347</v>
       </c>
-      <c r="G17" s="712"/>
-      <c r="H17" s="250" t="s">
+      <c r="G17" s="714"/>
+      <c r="H17" s="249" t="s">
         <v>311</v>
       </c>
-      <c r="I17" s="219" t="s">
+      <c r="I17" s="218" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="220" t="s">
+      <c r="A18" s="219" t="s">
         <v>143</v>
       </c>
       <c r="B18" s="212" t="s">
         <v>381</v>
       </c>
-      <c r="C18" s="396" t="s">
+      <c r="C18" s="415" t="s">
         <v>543</v>
       </c>
       <c r="D18" s="151"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="357" t="s">
+      <c r="E18" s="287"/>
+      <c r="F18" s="352" t="s">
         <v>380</v>
       </c>
-      <c r="G18" s="712"/>
+      <c r="G18" s="714"/>
       <c r="H18" s="215" t="s">
         <v>544</v>
       </c>
-      <c r="I18" s="298" t="s">
+      <c r="I18" s="297" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="220" t="s">
+      <c r="A19" s="219" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="398" t="s">
+      <c r="B19" s="417" t="s">
         <v>410</v>
       </c>
       <c r="C19" s="129" t="s">
@@ -7854,238 +7839,234 @@
       <c r="E19" s="211" t="s">
         <v>547</v>
       </c>
-      <c r="F19" s="378" t="s">
+      <c r="F19" s="373" t="s">
         <v>548</v>
       </c>
-      <c r="G19" s="712"/>
-      <c r="H19" s="420" t="s">
+      <c r="G19" s="714"/>
+      <c r="H19" s="410" t="s">
         <v>316</v>
       </c>
-      <c r="I19" s="293"/>
+      <c r="I19" s="313" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="220" t="s">
+      <c r="A20" s="219" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="295"/>
+      <c r="B20" s="294"/>
       <c r="C20" s="151"/>
-      <c r="D20" s="397" t="s">
+      <c r="D20" s="416" t="s">
         <v>623</v>
       </c>
       <c r="E20" s="211" t="s">
         <v>476</v>
       </c>
-      <c r="F20" s="363" t="s">
+      <c r="F20" s="358" t="s">
         <v>477</v>
       </c>
-      <c r="G20" s="712"/>
-      <c r="H20" s="215" t="s">
+      <c r="G20" s="714"/>
+      <c r="H20" s="420" t="s">
+        <v>346</v>
+      </c>
+      <c r="I20" s="292"/>
+    </row>
+    <row r="21" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="219" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="151"/>
+      <c r="C21" s="287"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="259" t="s">
+        <v>634</v>
+      </c>
+      <c r="F21" s="358" t="s">
+        <v>474</v>
+      </c>
+      <c r="G21" s="714"/>
+      <c r="H21" s="215" t="s">
         <v>546</v>
       </c>
-      <c r="I20" s="352" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="220" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="288"/>
-      <c r="D21" s="260" t="s">
-        <v>632</v>
-      </c>
-      <c r="E21" s="260" t="s">
-        <v>634</v>
-      </c>
-      <c r="F21" s="363" t="s">
-        <v>474</v>
-      </c>
-      <c r="G21" s="712"/>
-      <c r="H21" s="250" t="s">
-        <v>639</v>
-      </c>
-      <c r="I21" s="270" t="s">
-        <v>636</v>
-      </c>
+      <c r="I21" s="280"/>
     </row>
     <row r="22" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="253" t="s">
+      <c r="A22" s="219" t="s">
         <v>388</v>
       </c>
-      <c r="B22" s="350" t="s">
+      <c r="B22" s="421" t="s">
         <v>494</v>
       </c>
-      <c r="C22" s="390" t="s">
+      <c r="C22" s="422" t="s">
         <v>348</v>
       </c>
-      <c r="D22" s="404" t="s">
+      <c r="D22" s="423" t="s">
         <v>469</v>
       </c>
-      <c r="E22" s="350" t="s">
+      <c r="E22" s="421" t="s">
         <v>468</v>
       </c>
-      <c r="F22" s="389" t="s">
+      <c r="F22" s="424" t="s">
         <v>349</v>
       </c>
-      <c r="G22" s="713"/>
-      <c r="H22" s="399" t="s">
+      <c r="G22" s="715"/>
+      <c r="H22" s="425" t="s">
         <v>350</v>
       </c>
-      <c r="I22" s="351" t="s">
+      <c r="I22" s="426" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="681" t="s">
+      <c r="A23" s="672" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="682"/>
-      <c r="C23" s="682"/>
-      <c r="D23" s="682"/>
-      <c r="E23" s="682"/>
-      <c r="F23" s="682"/>
-      <c r="G23" s="682"/>
-      <c r="H23" s="682"/>
-      <c r="I23" s="683"/>
+      <c r="B23" s="673"/>
+      <c r="C23" s="673"/>
+      <c r="D23" s="673"/>
+      <c r="E23" s="673"/>
+      <c r="F23" s="673"/>
+      <c r="G23" s="673"/>
+      <c r="H23" s="673"/>
+      <c r="I23" s="674"/>
     </row>
     <row r="24" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="717" t="s">
+      <c r="B24" s="719" t="s">
         <v>688</v>
       </c>
-      <c r="C24" s="718"/>
-      <c r="D24" s="718"/>
-      <c r="E24" s="729" t="s">
+      <c r="C24" s="720"/>
+      <c r="D24" s="720"/>
+      <c r="E24" s="731" t="s">
         <v>490</v>
       </c>
-      <c r="F24" s="730"/>
-      <c r="G24" s="714" t="s">
+      <c r="F24" s="732"/>
+      <c r="G24" s="716" t="s">
         <v>190</v>
       </c>
-      <c r="H24" s="704" t="s">
+      <c r="H24" s="690" t="s">
         <v>490</v>
       </c>
-      <c r="I24" s="705"/>
+      <c r="I24" s="691"/>
     </row>
     <row r="25" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="740" t="s">
+      <c r="B25" s="742" t="s">
         <v>689</v>
       </c>
-      <c r="C25" s="741"/>
-      <c r="D25" s="741"/>
-      <c r="E25" s="227" t="s">
+      <c r="C25" s="743"/>
+      <c r="D25" s="743"/>
+      <c r="E25" s="226" t="s">
         <v>439</v>
       </c>
-      <c r="F25" s="227" t="s">
+      <c r="F25" s="226" t="s">
         <v>321</v>
       </c>
-      <c r="G25" s="715"/>
-      <c r="H25" s="254"/>
-      <c r="I25" s="255"/>
+      <c r="G25" s="717"/>
+      <c r="H25" s="253"/>
+      <c r="I25" s="254"/>
     </row>
     <row r="26" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="721" t="s">
+      <c r="B26" s="723" t="s">
         <v>690</v>
       </c>
-      <c r="C26" s="659"/>
-      <c r="D26" s="659"/>
+      <c r="C26" s="661"/>
+      <c r="D26" s="661"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="258"/>
-      <c r="G26" s="715"/>
-      <c r="H26" s="319"/>
-      <c r="I26" s="320"/>
+      <c r="F26" s="257"/>
+      <c r="G26" s="717"/>
+      <c r="H26" s="318"/>
+      <c r="I26" s="319"/>
     </row>
     <row r="27" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="645" t="s">
+      <c r="B27" s="647" t="s">
         <v>692</v>
       </c>
-      <c r="C27" s="646"/>
-      <c r="D27" s="646"/>
-      <c r="E27" s="248"/>
-      <c r="F27" s="731" t="s">
+      <c r="C27" s="648"/>
+      <c r="D27" s="648"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="733" t="s">
         <v>489</v>
       </c>
-      <c r="G27" s="715"/>
-      <c r="H27" s="734" t="s">
+      <c r="G27" s="717"/>
+      <c r="H27" s="736" t="s">
         <v>489</v>
       </c>
-      <c r="I27" s="735"/>
+      <c r="I27" s="737"/>
     </row>
     <row r="28" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="722" t="s">
+      <c r="B28" s="724" t="s">
         <v>691</v>
       </c>
-      <c r="C28" s="723"/>
-      <c r="D28" s="723"/>
-      <c r="E28" s="258"/>
-      <c r="F28" s="732"/>
-      <c r="G28" s="715"/>
-      <c r="H28" s="736"/>
-      <c r="I28" s="737"/>
+      <c r="C28" s="725"/>
+      <c r="D28" s="725"/>
+      <c r="E28" s="257"/>
+      <c r="F28" s="734"/>
+      <c r="G28" s="717"/>
+      <c r="H28" s="738"/>
+      <c r="I28" s="739"/>
     </row>
     <row r="29" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="724" t="s">
+      <c r="B29" s="726" t="s">
         <v>489</v>
       </c>
-      <c r="C29" s="725"/>
-      <c r="D29" s="725"/>
-      <c r="E29" s="725"/>
-      <c r="F29" s="733"/>
-      <c r="G29" s="715"/>
-      <c r="H29" s="738"/>
-      <c r="I29" s="739"/>
+      <c r="C29" s="727"/>
+      <c r="D29" s="727"/>
+      <c r="E29" s="727"/>
+      <c r="F29" s="735"/>
+      <c r="G29" s="717"/>
+      <c r="H29" s="740"/>
+      <c r="I29" s="741"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="220" t="s">
+      <c r="A30" s="219" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="726"/>
-      <c r="C30" s="727"/>
-      <c r="D30" s="727"/>
-      <c r="E30" s="728"/>
-      <c r="F30" s="259" t="s">
+      <c r="B30" s="728"/>
+      <c r="C30" s="729"/>
+      <c r="D30" s="729"/>
+      <c r="E30" s="730"/>
+      <c r="F30" s="258" t="s">
         <v>487</v>
       </c>
-      <c r="G30" s="715"/>
-      <c r="H30" s="719" t="s">
+      <c r="G30" s="717"/>
+      <c r="H30" s="721" t="s">
         <v>488</v>
       </c>
-      <c r="I30" s="720"/>
+      <c r="I30" s="722"/>
     </row>
     <row r="31" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="300"/>
-      <c r="C31" s="256"/>
-      <c r="D31" s="299"/>
-      <c r="E31" s="299"/>
-      <c r="F31" s="257" t="s">
+      <c r="B31" s="299"/>
+      <c r="C31" s="255"/>
+      <c r="D31" s="298"/>
+      <c r="E31" s="298"/>
+      <c r="F31" s="256" t="s">
         <v>310</v>
       </c>
-      <c r="G31" s="716"/>
-      <c r="H31" s="257" t="s">
+      <c r="G31" s="718"/>
+      <c r="H31" s="256" t="s">
         <v>637</v>
       </c>
-      <c r="I31" s="249"/>
+      <c r="I31" s="248"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -8138,58 +8119,58 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="51"/>
-      <c r="B1" s="447" t="s">
+      <c r="B1" s="449" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="448"/>
-      <c r="D1" s="448"/>
-      <c r="E1" s="448"/>
-      <c r="F1" s="448"/>
-      <c r="G1" s="448"/>
-      <c r="H1" s="448"/>
-      <c r="I1" s="449"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
+      <c r="H1" s="450"/>
+      <c r="I1" s="451"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
-      <c r="B2" s="450"/>
-      <c r="C2" s="451"/>
-      <c r="D2" s="451"/>
-      <c r="E2" s="451"/>
-      <c r="F2" s="451"/>
-      <c r="G2" s="451"/>
-      <c r="H2" s="451"/>
-      <c r="I2" s="452"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="453"/>
+      <c r="F2" s="453"/>
+      <c r="G2" s="453"/>
+      <c r="H2" s="453"/>
+      <c r="I2" s="454"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="444" t="s">
+      <c r="A3" s="446" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="453" t="s">
+      <c r="B3" s="455" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="454"/>
-      <c r="D3" s="454"/>
-      <c r="E3" s="454"/>
-      <c r="F3" s="454"/>
-      <c r="G3" s="454"/>
-      <c r="H3" s="454"/>
-      <c r="I3" s="455"/>
+      <c r="C3" s="456"/>
+      <c r="D3" s="456"/>
+      <c r="E3" s="456"/>
+      <c r="F3" s="456"/>
+      <c r="G3" s="456"/>
+      <c r="H3" s="456"/>
+      <c r="I3" s="457"/>
     </row>
     <row r="4" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="445"/>
-      <c r="B4" s="456" t="s">
+      <c r="A4" s="447"/>
+      <c r="B4" s="458" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="457"/>
-      <c r="D4" s="457"/>
-      <c r="E4" s="457"/>
-      <c r="F4" s="457"/>
-      <c r="G4" s="457"/>
-      <c r="H4" s="457"/>
-      <c r="I4" s="458"/>
+      <c r="C4" s="459"/>
+      <c r="D4" s="459"/>
+      <c r="E4" s="459"/>
+      <c r="F4" s="459"/>
+      <c r="G4" s="459"/>
+      <c r="H4" s="459"/>
+      <c r="I4" s="460"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="445"/>
+      <c r="A5" s="447"/>
       <c r="B5" s="170" t="s">
         <v>211</v>
       </c>
@@ -8216,20 +8197,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="445"/>
-      <c r="B6" s="459" t="s">
+      <c r="A6" s="447"/>
+      <c r="B6" s="461" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="460"/>
-      <c r="D6" s="460"/>
-      <c r="E6" s="460"/>
-      <c r="F6" s="460"/>
-      <c r="G6" s="460"/>
-      <c r="H6" s="460"/>
-      <c r="I6" s="461"/>
+      <c r="C6" s="462"/>
+      <c r="D6" s="462"/>
+      <c r="E6" s="462"/>
+      <c r="F6" s="462"/>
+      <c r="G6" s="462"/>
+      <c r="H6" s="462"/>
+      <c r="I6" s="463"/>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="445"/>
+      <c r="A7" s="447"/>
       <c r="B7" s="123">
         <v>1</v>
       </c>
@@ -8256,7 +8237,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="445"/>
+      <c r="A8" s="447"/>
       <c r="B8" s="52">
         <v>2</v>
       </c>
@@ -8283,7 +8264,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="445"/>
+      <c r="A9" s="447"/>
       <c r="B9" s="52">
         <v>3</v>
       </c>
@@ -8310,7 +8291,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="445"/>
+      <c r="A10" s="447"/>
       <c r="B10" s="52">
         <v>4</v>
       </c>
@@ -8337,7 +8318,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="445"/>
+      <c r="A11" s="447"/>
       <c r="B11" s="52">
         <v>5</v>
       </c>
@@ -8364,7 +8345,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="445"/>
+      <c r="A12" s="447"/>
       <c r="B12" s="52">
         <v>6</v>
       </c>
@@ -8391,7 +8372,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="445"/>
+      <c r="A13" s="447"/>
       <c r="B13" s="52">
         <v>7</v>
       </c>
@@ -8418,7 +8399,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="445"/>
+      <c r="A14" s="447"/>
       <c r="B14" s="134">
         <v>8</v>
       </c>
@@ -8445,24 +8426,24 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="445"/>
-      <c r="B15" s="465" t="s">
+      <c r="A15" s="447"/>
+      <c r="B15" s="467" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="466"/>
-      <c r="D15" s="466"/>
-      <c r="E15" s="466"/>
-      <c r="F15" s="466"/>
-      <c r="G15" s="466"/>
-      <c r="H15" s="466"/>
-      <c r="I15" s="467"/>
+      <c r="C15" s="468"/>
+      <c r="D15" s="468"/>
+      <c r="E15" s="468"/>
+      <c r="F15" s="468"/>
+      <c r="G15" s="468"/>
+      <c r="H15" s="468"/>
+      <c r="I15" s="469"/>
     </row>
     <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="445"/>
+      <c r="A16" s="447"/>
       <c r="B16" s="138">
         <v>9</v>
       </c>
-      <c r="C16" s="317" t="s">
+      <c r="C16" s="316" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="124" t="s">
@@ -8485,11 +8466,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="445"/>
+      <c r="A17" s="447"/>
       <c r="B17" s="58">
         <v>10</v>
       </c>
-      <c r="C17" s="318" t="s">
+      <c r="C17" s="317" t="s">
         <v>206</v>
       </c>
       <c r="D17" s="53" t="s">
@@ -8512,11 +8493,11 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="445"/>
+      <c r="A18" s="447"/>
       <c r="B18" s="58">
         <v>11</v>
       </c>
-      <c r="C18" s="316" t="s">
+      <c r="C18" s="315" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="53" t="s">
@@ -8539,11 +8520,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="445"/>
+      <c r="A19" s="447"/>
       <c r="B19" s="58">
         <v>12</v>
       </c>
-      <c r="C19" s="318" t="s">
+      <c r="C19" s="317" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="53" t="s">
@@ -8566,11 +8547,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="445"/>
+      <c r="A20" s="447"/>
       <c r="B20" s="58">
         <v>13</v>
       </c>
-      <c r="C20" s="316" t="s">
+      <c r="C20" s="315" t="s">
         <v>657</v>
       </c>
       <c r="D20" s="53" t="s">
@@ -8593,20 +8574,20 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="446"/>
-      <c r="B21" s="462" t="s">
+      <c r="A21" s="448"/>
+      <c r="B21" s="464" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="463"/>
-      <c r="D21" s="463"/>
-      <c r="E21" s="463"/>
+      <c r="C21" s="465"/>
+      <c r="D21" s="465"/>
+      <c r="E21" s="465"/>
       <c r="F21" s="59">
         <f>SUM(F7:F20)</f>
         <v>79</v>
       </c>
-      <c r="G21" s="463"/>
-      <c r="H21" s="463"/>
-      <c r="I21" s="464"/>
+      <c r="G21" s="465"/>
+      <c r="H21" s="465"/>
+      <c r="I21" s="466"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8661,59 +8642,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="473"/>
-      <c r="B1" s="475" t="s">
+      <c r="A1" s="475"/>
+      <c r="B1" s="477" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="476"/>
-      <c r="D1" s="476"/>
-      <c r="E1" s="476"/>
-      <c r="F1" s="476"/>
-      <c r="G1" s="476"/>
-      <c r="H1" s="476"/>
-      <c r="I1" s="477"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
+      <c r="F1" s="478"/>
+      <c r="G1" s="478"/>
+      <c r="H1" s="478"/>
+      <c r="I1" s="479"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="474"/>
-      <c r="B2" s="478"/>
-      <c r="C2" s="479"/>
-      <c r="D2" s="479"/>
-      <c r="E2" s="479"/>
-      <c r="F2" s="479"/>
-      <c r="G2" s="479"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="480"/>
+      <c r="A2" s="476"/>
+      <c r="B2" s="480"/>
+      <c r="C2" s="481"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="481"/>
+      <c r="F2" s="481"/>
+      <c r="G2" s="481"/>
+      <c r="H2" s="481"/>
+      <c r="I2" s="482"/>
     </row>
     <row r="3" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="481" t="s">
+      <c r="A3" s="483" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="484" t="s">
+      <c r="B3" s="486" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="485"/>
-      <c r="D3" s="485"/>
-      <c r="E3" s="485"/>
-      <c r="F3" s="485"/>
-      <c r="G3" s="485"/>
-      <c r="H3" s="485"/>
-      <c r="I3" s="486"/>
+      <c r="C3" s="487"/>
+      <c r="D3" s="487"/>
+      <c r="E3" s="487"/>
+      <c r="F3" s="487"/>
+      <c r="G3" s="487"/>
+      <c r="H3" s="487"/>
+      <c r="I3" s="488"/>
     </row>
     <row r="4" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="482"/>
-      <c r="B4" s="487" t="s">
+      <c r="A4" s="484"/>
+      <c r="B4" s="489" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="488"/>
-      <c r="D4" s="488"/>
-      <c r="E4" s="488"/>
-      <c r="F4" s="488"/>
-      <c r="G4" s="488"/>
-      <c r="H4" s="488"/>
-      <c r="I4" s="489"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="490"/>
+      <c r="E4" s="490"/>
+      <c r="F4" s="490"/>
+      <c r="G4" s="490"/>
+      <c r="H4" s="490"/>
+      <c r="I4" s="491"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="482"/>
+      <c r="A5" s="484"/>
       <c r="B5" s="173" t="s">
         <v>211</v>
       </c>
@@ -8740,24 +8721,24 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="482"/>
-      <c r="B6" s="470" t="s">
+      <c r="A6" s="484"/>
+      <c r="B6" s="472" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="471"/>
-      <c r="D6" s="471"/>
-      <c r="E6" s="471"/>
-      <c r="F6" s="471"/>
-      <c r="G6" s="471"/>
-      <c r="H6" s="471"/>
-      <c r="I6" s="472"/>
-      <c r="K6" s="468" t="s">
+      <c r="C6" s="473"/>
+      <c r="D6" s="473"/>
+      <c r="E6" s="473"/>
+      <c r="F6" s="473"/>
+      <c r="G6" s="473"/>
+      <c r="H6" s="473"/>
+      <c r="I6" s="474"/>
+      <c r="K6" s="470" t="s">
         <v>508</v>
       </c>
-      <c r="L6" s="469"/>
+      <c r="L6" s="471"/>
     </row>
     <row r="7" spans="1:12" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="482"/>
+      <c r="A7" s="484"/>
       <c r="B7" s="150">
         <v>1</v>
       </c>
@@ -8782,15 +8763,15 @@
       <c r="I7" s="144" t="s">
         <v>502</v>
       </c>
-      <c r="K7" s="280" t="s">
+      <c r="K7" s="279" t="s">
         <v>202</v>
       </c>
-      <c r="L7" s="282" t="s">
+      <c r="L7" s="281" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="482"/>
+      <c r="A8" s="484"/>
       <c r="B8" s="141">
         <v>2</v>
       </c>
@@ -8815,15 +8796,15 @@
       <c r="I8" s="121" t="s">
         <v>503</v>
       </c>
-      <c r="K8" s="280" t="s">
+      <c r="K8" s="279" t="s">
         <v>505</v>
       </c>
-      <c r="L8" s="282" t="s">
+      <c r="L8" s="281" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="482"/>
+      <c r="A9" s="484"/>
       <c r="B9" s="141">
         <v>3</v>
       </c>
@@ -8850,8 +8831,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="482"/>
-      <c r="B10" s="278">
+      <c r="A10" s="484"/>
+      <c r="B10" s="277">
         <v>4</v>
       </c>
       <c r="C10" s="74" t="s">
@@ -8877,20 +8858,20 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="482"/>
-      <c r="B11" s="470" t="s">
+      <c r="A11" s="484"/>
+      <c r="B11" s="472" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="471"/>
-      <c r="D11" s="471"/>
-      <c r="E11" s="471"/>
-      <c r="F11" s="471"/>
-      <c r="G11" s="471"/>
-      <c r="H11" s="471"/>
-      <c r="I11" s="472"/>
+      <c r="C11" s="473"/>
+      <c r="D11" s="473"/>
+      <c r="E11" s="473"/>
+      <c r="F11" s="473"/>
+      <c r="G11" s="473"/>
+      <c r="H11" s="473"/>
+      <c r="I11" s="474"/>
     </row>
     <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="482"/>
+      <c r="A12" s="484"/>
       <c r="B12" s="150">
         <v>5</v>
       </c>
@@ -8917,7 +8898,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="482"/>
+      <c r="A13" s="484"/>
       <c r="B13" s="141">
         <v>6</v>
       </c>
@@ -8944,8 +8925,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="482"/>
-      <c r="B14" s="278">
+      <c r="A14" s="484"/>
+      <c r="B14" s="277">
         <v>7</v>
       </c>
       <c r="C14" s="64" t="s">
@@ -8971,20 +8952,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="482"/>
-      <c r="B15" s="470" t="s">
+      <c r="A15" s="484"/>
+      <c r="B15" s="472" t="s">
         <v>218</v>
       </c>
-      <c r="C15" s="471"/>
-      <c r="D15" s="471"/>
-      <c r="E15" s="471"/>
-      <c r="F15" s="471"/>
-      <c r="G15" s="471"/>
-      <c r="H15" s="471"/>
-      <c r="I15" s="472"/>
+      <c r="C15" s="473"/>
+      <c r="D15" s="473"/>
+      <c r="E15" s="473"/>
+      <c r="F15" s="473"/>
+      <c r="G15" s="473"/>
+      <c r="H15" s="473"/>
+      <c r="I15" s="474"/>
     </row>
     <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="482"/>
+      <c r="A16" s="484"/>
       <c r="B16" s="150">
         <v>8</v>
       </c>
@@ -9011,7 +8992,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="482"/>
+      <c r="A17" s="484"/>
       <c r="B17" s="141">
         <v>9</v>
       </c>
@@ -9038,8 +9019,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="482"/>
-      <c r="B18" s="279">
+      <c r="A18" s="484"/>
+      <c r="B18" s="278">
         <v>10</v>
       </c>
       <c r="C18" s="64" t="s">
@@ -9065,20 +9046,20 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="482"/>
-      <c r="B19" s="470" t="s">
+      <c r="A19" s="484"/>
+      <c r="B19" s="472" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="471"/>
-      <c r="D19" s="471"/>
-      <c r="E19" s="471"/>
-      <c r="F19" s="471"/>
-      <c r="G19" s="471"/>
-      <c r="H19" s="471"/>
-      <c r="I19" s="472"/>
+      <c r="C19" s="473"/>
+      <c r="D19" s="473"/>
+      <c r="E19" s="473"/>
+      <c r="F19" s="473"/>
+      <c r="G19" s="473"/>
+      <c r="H19" s="473"/>
+      <c r="I19" s="474"/>
     </row>
     <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="482"/>
+      <c r="A20" s="484"/>
       <c r="B20" s="150">
         <v>11</v>
       </c>
@@ -9105,7 +9086,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="482"/>
+      <c r="A21" s="484"/>
       <c r="B21" s="141">
         <v>12</v>
       </c>
@@ -9132,7 +9113,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="482"/>
+      <c r="A22" s="484"/>
       <c r="B22" s="141">
         <v>13</v>
       </c>
@@ -9159,7 +9140,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="482"/>
+      <c r="A23" s="484"/>
       <c r="B23" s="141">
         <v>14</v>
       </c>
@@ -9186,7 +9167,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="482"/>
+      <c r="A24" s="484"/>
       <c r="B24" s="141">
         <v>15</v>
       </c>
@@ -9213,7 +9194,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="482"/>
+      <c r="A25" s="484"/>
       <c r="B25" s="141">
         <v>16</v>
       </c>
@@ -9240,20 +9221,20 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="483"/>
-      <c r="B26" s="490" t="s">
+      <c r="A26" s="485"/>
+      <c r="B26" s="492" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="491"/>
-      <c r="D26" s="491"/>
-      <c r="E26" s="491"/>
+      <c r="C26" s="493"/>
+      <c r="D26" s="493"/>
+      <c r="E26" s="493"/>
       <c r="F26" s="148">
         <f>SUM(F7:F25)</f>
         <v>61</v>
       </c>
       <c r="G26" s="149"/>
-      <c r="H26" s="492"/>
-      <c r="I26" s="493"/>
+      <c r="H26" s="494"/>
+      <c r="I26" s="495"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -9305,59 +9286,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="494"/>
-      <c r="B1" s="496" t="s">
+      <c r="A1" s="496"/>
+      <c r="B1" s="498" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="497"/>
-      <c r="D1" s="497"/>
-      <c r="E1" s="497"/>
-      <c r="F1" s="497"/>
-      <c r="G1" s="497"/>
-      <c r="H1" s="497"/>
-      <c r="I1" s="498"/>
+      <c r="C1" s="499"/>
+      <c r="D1" s="499"/>
+      <c r="E1" s="499"/>
+      <c r="F1" s="499"/>
+      <c r="G1" s="499"/>
+      <c r="H1" s="499"/>
+      <c r="I1" s="500"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="495"/>
-      <c r="B2" s="499"/>
-      <c r="C2" s="500"/>
-      <c r="D2" s="500"/>
-      <c r="E2" s="500"/>
-      <c r="F2" s="500"/>
-      <c r="G2" s="500"/>
-      <c r="H2" s="500"/>
-      <c r="I2" s="501"/>
+      <c r="A2" s="497"/>
+      <c r="B2" s="501"/>
+      <c r="C2" s="502"/>
+      <c r="D2" s="502"/>
+      <c r="E2" s="502"/>
+      <c r="F2" s="502"/>
+      <c r="G2" s="502"/>
+      <c r="H2" s="502"/>
+      <c r="I2" s="503"/>
     </row>
     <row r="3" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="502" t="s">
+      <c r="A3" s="504" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="505" t="s">
+      <c r="B3" s="507" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="506"/>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="507"/>
+      <c r="C3" s="508"/>
+      <c r="D3" s="508"/>
+      <c r="E3" s="508"/>
+      <c r="F3" s="508"/>
+      <c r="G3" s="508"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="509"/>
     </row>
     <row r="4" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="503"/>
-      <c r="B4" s="508" t="s">
+      <c r="A4" s="505"/>
+      <c r="B4" s="510" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="508"/>
-      <c r="D4" s="508"/>
-      <c r="E4" s="508"/>
-      <c r="F4" s="508"/>
-      <c r="G4" s="508"/>
-      <c r="H4" s="508"/>
-      <c r="I4" s="509"/>
+      <c r="C4" s="510"/>
+      <c r="D4" s="510"/>
+      <c r="E4" s="510"/>
+      <c r="F4" s="510"/>
+      <c r="G4" s="510"/>
+      <c r="H4" s="510"/>
+      <c r="I4" s="511"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="503"/>
+      <c r="A5" s="505"/>
       <c r="B5" s="187" t="s">
         <v>211</v>
       </c>
@@ -9384,20 +9365,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="503"/>
-      <c r="B6" s="510" t="s">
+      <c r="A6" s="505"/>
+      <c r="B6" s="512" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="511"/>
-      <c r="D6" s="511"/>
-      <c r="E6" s="511"/>
-      <c r="F6" s="511"/>
-      <c r="G6" s="511"/>
-      <c r="H6" s="511"/>
-      <c r="I6" s="512"/>
+      <c r="C6" s="513"/>
+      <c r="D6" s="513"/>
+      <c r="E6" s="513"/>
+      <c r="F6" s="513"/>
+      <c r="G6" s="513"/>
+      <c r="H6" s="513"/>
+      <c r="I6" s="514"/>
     </row>
     <row r="7" spans="1:9" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="503"/>
+      <c r="A7" s="505"/>
       <c r="B7" s="184">
         <v>1</v>
       </c>
@@ -9424,7 +9405,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="503"/>
+      <c r="A8" s="505"/>
       <c r="B8" s="183">
         <v>2</v>
       </c>
@@ -9451,7 +9432,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="503"/>
+      <c r="A9" s="505"/>
       <c r="B9" s="183">
         <v>3</v>
       </c>
@@ -9478,7 +9459,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="503"/>
+      <c r="A10" s="505"/>
       <c r="B10" s="183">
         <v>4</v>
       </c>
@@ -9505,7 +9486,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="503"/>
+      <c r="A11" s="505"/>
       <c r="B11" s="183">
         <v>5</v>
       </c>
@@ -9532,20 +9513,20 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="503"/>
-      <c r="B12" s="510" t="s">
+      <c r="A12" s="505"/>
+      <c r="B12" s="512" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="511"/>
-      <c r="D12" s="511"/>
-      <c r="E12" s="511"/>
-      <c r="F12" s="511"/>
-      <c r="G12" s="511"/>
-      <c r="H12" s="511"/>
-      <c r="I12" s="512"/>
+      <c r="C12" s="513"/>
+      <c r="D12" s="513"/>
+      <c r="E12" s="513"/>
+      <c r="F12" s="513"/>
+      <c r="G12" s="513"/>
+      <c r="H12" s="513"/>
+      <c r="I12" s="514"/>
     </row>
     <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="503"/>
+      <c r="A13" s="505"/>
       <c r="B13" s="192">
         <v>7</v>
       </c>
@@ -9572,7 +9553,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="503"/>
+      <c r="A14" s="505"/>
       <c r="B14" s="192">
         <v>8</v>
       </c>
@@ -9599,7 +9580,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="503"/>
+      <c r="A15" s="505"/>
       <c r="B15" s="192">
         <v>9</v>
       </c>
@@ -9626,7 +9607,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="503"/>
+      <c r="A16" s="505"/>
       <c r="B16" s="204">
         <v>10</v>
       </c>
@@ -9653,20 +9634,20 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="503"/>
-      <c r="B17" s="513" t="s">
+      <c r="A17" s="505"/>
+      <c r="B17" s="515" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="514"/>
-      <c r="D17" s="514"/>
-      <c r="E17" s="514"/>
-      <c r="F17" s="514"/>
-      <c r="G17" s="514"/>
-      <c r="H17" s="514"/>
-      <c r="I17" s="515"/>
+      <c r="C17" s="516"/>
+      <c r="D17" s="516"/>
+      <c r="E17" s="516"/>
+      <c r="F17" s="516"/>
+      <c r="G17" s="516"/>
+      <c r="H17" s="516"/>
+      <c r="I17" s="517"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="503"/>
+      <c r="A18" s="505"/>
       <c r="B18" s="192">
         <v>11</v>
       </c>
@@ -9693,7 +9674,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="503"/>
+      <c r="A19" s="505"/>
       <c r="B19" s="198">
         <v>12</v>
       </c>
@@ -9720,7 +9701,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="503"/>
+      <c r="A20" s="505"/>
       <c r="B20" s="198">
         <v>13</v>
       </c>
@@ -9747,7 +9728,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="503"/>
+      <c r="A21" s="505"/>
       <c r="B21" s="198">
         <v>14</v>
       </c>
@@ -9774,20 +9755,20 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="504"/>
-      <c r="B22" s="516" t="s">
+      <c r="A22" s="506"/>
+      <c r="B22" s="518" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="517"/>
-      <c r="D22" s="517"/>
-      <c r="E22" s="517"/>
+      <c r="C22" s="519"/>
+      <c r="D22" s="519"/>
+      <c r="E22" s="519"/>
       <c r="F22" s="203">
         <f>SUM(F7:F21)</f>
         <v>47</v>
       </c>
-      <c r="G22" s="518"/>
-      <c r="H22" s="518"/>
-      <c r="I22" s="519"/>
+      <c r="G22" s="520"/>
+      <c r="H22" s="520"/>
+      <c r="I22" s="521"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -9840,59 +9821,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="523"/>
-      <c r="B1" s="525" t="s">
+      <c r="A1" s="525"/>
+      <c r="B1" s="527" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="526"/>
-      <c r="D1" s="526"/>
-      <c r="E1" s="526"/>
-      <c r="F1" s="526"/>
-      <c r="G1" s="526"/>
-      <c r="H1" s="526"/>
-      <c r="I1" s="527"/>
+      <c r="C1" s="528"/>
+      <c r="D1" s="528"/>
+      <c r="E1" s="528"/>
+      <c r="F1" s="528"/>
+      <c r="G1" s="528"/>
+      <c r="H1" s="528"/>
+      <c r="I1" s="529"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="524"/>
-      <c r="B2" s="528"/>
-      <c r="C2" s="529"/>
-      <c r="D2" s="529"/>
-      <c r="E2" s="529"/>
-      <c r="F2" s="529"/>
-      <c r="G2" s="529"/>
-      <c r="H2" s="529"/>
-      <c r="I2" s="530"/>
+      <c r="A2" s="526"/>
+      <c r="B2" s="530"/>
+      <c r="C2" s="531"/>
+      <c r="D2" s="531"/>
+      <c r="E2" s="531"/>
+      <c r="F2" s="531"/>
+      <c r="G2" s="531"/>
+      <c r="H2" s="531"/>
+      <c r="I2" s="532"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="531" t="s">
+      <c r="A3" s="533" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="535" t="s">
+      <c r="B3" s="537" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="536"/>
-      <c r="D3" s="536"/>
-      <c r="E3" s="536"/>
-      <c r="F3" s="536"/>
-      <c r="G3" s="536"/>
-      <c r="H3" s="536"/>
-      <c r="I3" s="537"/>
+      <c r="C3" s="538"/>
+      <c r="D3" s="538"/>
+      <c r="E3" s="538"/>
+      <c r="F3" s="538"/>
+      <c r="G3" s="538"/>
+      <c r="H3" s="538"/>
+      <c r="I3" s="539"/>
     </row>
     <row r="4" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="532"/>
-      <c r="B4" s="538" t="s">
+      <c r="A4" s="534"/>
+      <c r="B4" s="540" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="539"/>
-      <c r="D4" s="539"/>
-      <c r="E4" s="539"/>
-      <c r="F4" s="539"/>
-      <c r="G4" s="539"/>
-      <c r="H4" s="539"/>
-      <c r="I4" s="540"/>
+      <c r="C4" s="541"/>
+      <c r="D4" s="541"/>
+      <c r="E4" s="541"/>
+      <c r="F4" s="541"/>
+      <c r="G4" s="541"/>
+      <c r="H4" s="541"/>
+      <c r="I4" s="542"/>
     </row>
     <row r="5" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="532"/>
+      <c r="A5" s="534"/>
       <c r="B5" s="176" t="s">
         <v>211</v>
       </c>
@@ -9929,17 +9910,17 @@
       <c r="P5" s="47"/>
     </row>
     <row r="6" spans="1:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="532"/>
-      <c r="B6" s="541" t="s">
+      <c r="A6" s="534"/>
+      <c r="B6" s="543" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="542"/>
-      <c r="D6" s="542"/>
-      <c r="E6" s="542"/>
-      <c r="F6" s="542"/>
-      <c r="G6" s="542"/>
-      <c r="H6" s="542"/>
-      <c r="I6" s="543"/>
+      <c r="C6" s="544"/>
+      <c r="D6" s="544"/>
+      <c r="E6" s="544"/>
+      <c r="F6" s="544"/>
+      <c r="G6" s="544"/>
+      <c r="H6" s="544"/>
+      <c r="I6" s="545"/>
       <c r="K6" s="89"/>
       <c r="L6" s="89"/>
       <c r="M6" s="23"/>
@@ -9948,7 +9929,7 @@
       <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="532"/>
+      <c r="A7" s="534"/>
       <c r="B7" s="179">
         <v>1</v>
       </c>
@@ -9985,75 +9966,75 @@
       <c r="P7" s="47"/>
     </row>
     <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="532"/>
-      <c r="B8" s="544" t="s">
+      <c r="A8" s="534"/>
+      <c r="B8" s="546" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="545"/>
-      <c r="D8" s="545"/>
-      <c r="E8" s="545"/>
-      <c r="F8" s="545"/>
-      <c r="G8" s="545"/>
-      <c r="H8" s="545"/>
-      <c r="I8" s="546"/>
+      <c r="C8" s="547"/>
+      <c r="D8" s="547"/>
+      <c r="E8" s="547"/>
+      <c r="F8" s="547"/>
+      <c r="G8" s="547"/>
+      <c r="H8" s="547"/>
+      <c r="I8" s="548"/>
     </row>
     <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="533"/>
-      <c r="B9" s="304">
+      <c r="A9" s="535"/>
+      <c r="B9" s="303">
         <v>2</v>
       </c>
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="304" t="s">
         <v>262</v>
       </c>
-      <c r="D9" s="305" t="s">
+      <c r="D9" s="304" t="s">
         <v>263</v>
       </c>
-      <c r="E9" s="304" t="s">
+      <c r="E9" s="303" t="s">
         <v>264</v>
       </c>
-      <c r="F9" s="304">
+      <c r="F9" s="303">
         <v>1</v>
       </c>
-      <c r="G9" s="304">
+      <c r="G9" s="303">
         <v>3</v>
       </c>
-      <c r="H9" s="304">
+      <c r="H9" s="303">
         <v>2015</v>
       </c>
-      <c r="I9" s="305" t="s">
+      <c r="I9" s="304" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="533"/>
-      <c r="B10" s="304">
+      <c r="A10" s="535"/>
+      <c r="B10" s="303">
         <v>3</v>
       </c>
-      <c r="C10" s="305" t="s">
+      <c r="C10" s="304" t="s">
         <v>652</v>
       </c>
-      <c r="D10" s="305" t="s">
+      <c r="D10" s="304" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="304" t="s">
+      <c r="E10" s="303" t="s">
         <v>232</v>
       </c>
-      <c r="F10" s="304">
+      <c r="F10" s="303">
         <v>1</v>
       </c>
-      <c r="G10" s="304">
+      <c r="G10" s="303">
         <v>3</v>
       </c>
-      <c r="H10" s="304">
+      <c r="H10" s="303">
         <v>2015</v>
       </c>
-      <c r="I10" s="305" t="s">
+      <c r="I10" s="304" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="533"/>
-      <c r="B11" s="306">
+      <c r="A11" s="535"/>
+      <c r="B11" s="305">
         <v>4</v>
       </c>
       <c r="C11" s="100" t="s">
@@ -10074,18 +10055,18 @@
       <c r="H11" s="95">
         <v>2014</v>
       </c>
-      <c r="I11" s="303" t="s">
+      <c r="I11" s="302" t="s">
         <v>521</v>
       </c>
       <c r="J11" s="152"/>
       <c r="K11" s="152"/>
-      <c r="L11" s="365" t="s">
+      <c r="L11" s="360" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="532"/>
-      <c r="B12" s="306">
+      <c r="A12" s="534"/>
+      <c r="B12" s="305">
         <v>5</v>
       </c>
       <c r="C12" s="100" t="s">
@@ -10114,8 +10095,8 @@
       <c r="L12" s="151"/>
     </row>
     <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="532"/>
-      <c r="B13" s="306">
+      <c r="A13" s="534"/>
+      <c r="B13" s="305">
         <v>6</v>
       </c>
       <c r="C13" s="112" t="s">
@@ -10144,8 +10125,8 @@
       <c r="L13" s="151"/>
     </row>
     <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="532"/>
-      <c r="B14" s="306">
+      <c r="A14" s="534"/>
+      <c r="B14" s="305">
         <v>7</v>
       </c>
       <c r="C14" s="112" t="s">
@@ -10174,8 +10155,8 @@
       <c r="L14" s="47"/>
     </row>
     <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="532"/>
-      <c r="B15" s="306">
+      <c r="A15" s="534"/>
+      <c r="B15" s="305">
         <v>8</v>
       </c>
       <c r="C15" s="112" t="s">
@@ -10204,8 +10185,8 @@
       <c r="L15" s="151"/>
     </row>
     <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="532"/>
-      <c r="B16" s="306">
+      <c r="A16" s="534"/>
+      <c r="B16" s="305">
         <v>9</v>
       </c>
       <c r="C16" s="100" t="s">
@@ -10234,8 +10215,8 @@
       <c r="L16" s="151"/>
     </row>
     <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="532"/>
-      <c r="B17" s="306">
+      <c r="A17" s="534"/>
+      <c r="B17" s="305">
         <v>10</v>
       </c>
       <c r="C17" s="100" t="s">
@@ -10264,8 +10245,8 @@
       <c r="L17" s="151"/>
     </row>
     <row r="18" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="532"/>
-      <c r="B18" s="306">
+      <c r="A18" s="534"/>
+      <c r="B18" s="305">
         <v>11</v>
       </c>
       <c r="C18" s="181" t="s">
@@ -10294,23 +10275,23 @@
       <c r="L18" s="151"/>
     </row>
     <row r="19" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="532"/>
-      <c r="B19" s="547" t="s">
+      <c r="A19" s="534"/>
+      <c r="B19" s="549" t="s">
         <v>256</v>
       </c>
-      <c r="C19" s="548"/>
-      <c r="D19" s="548"/>
-      <c r="E19" s="548"/>
-      <c r="F19" s="548"/>
-      <c r="G19" s="548"/>
-      <c r="H19" s="548"/>
-      <c r="I19" s="549"/>
+      <c r="C19" s="550"/>
+      <c r="D19" s="550"/>
+      <c r="E19" s="550"/>
+      <c r="F19" s="550"/>
+      <c r="G19" s="550"/>
+      <c r="H19" s="550"/>
+      <c r="I19" s="551"/>
       <c r="J19" s="151"/>
       <c r="K19" s="151"/>
       <c r="L19" s="151"/>
     </row>
     <row r="20" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="532"/>
+      <c r="A20" s="534"/>
       <c r="B20" s="163">
         <v>12</v>
       </c>
@@ -10340,7 +10321,7 @@
       <c r="L20" s="91"/>
     </row>
     <row r="21" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="532"/>
+      <c r="A21" s="534"/>
       <c r="B21" s="104">
         <v>13</v>
       </c>
@@ -10370,7 +10351,7 @@
       <c r="L21" s="91"/>
     </row>
     <row r="22" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="532"/>
+      <c r="A22" s="534"/>
       <c r="B22" s="167">
         <v>14</v>
       </c>
@@ -10400,23 +10381,23 @@
       <c r="L22" s="91"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="532"/>
-      <c r="B23" s="547" t="s">
+      <c r="A23" s="534"/>
+      <c r="B23" s="549" t="s">
         <v>240</v>
       </c>
-      <c r="C23" s="548"/>
-      <c r="D23" s="548"/>
-      <c r="E23" s="548"/>
-      <c r="F23" s="548"/>
-      <c r="G23" s="548"/>
-      <c r="H23" s="548"/>
-      <c r="I23" s="549"/>
+      <c r="C23" s="550"/>
+      <c r="D23" s="550"/>
+      <c r="E23" s="550"/>
+      <c r="F23" s="550"/>
+      <c r="G23" s="550"/>
+      <c r="H23" s="550"/>
+      <c r="I23" s="551"/>
       <c r="J23" s="151"/>
       <c r="K23" s="152"/>
       <c r="L23" s="91"/>
     </row>
     <row r="24" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="532"/>
+      <c r="A24" s="534"/>
       <c r="B24" s="163">
         <v>15</v>
       </c>
@@ -10446,7 +10427,7 @@
       <c r="L24" s="91"/>
     </row>
     <row r="25" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="532"/>
+      <c r="A25" s="534"/>
       <c r="B25" s="163">
         <v>16</v>
       </c>
@@ -10476,7 +10457,7 @@
       <c r="L25" s="91"/>
     </row>
     <row r="26" spans="1:12" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="532"/>
+      <c r="A26" s="534"/>
       <c r="B26" s="163">
         <v>17</v>
       </c>
@@ -10506,23 +10487,23 @@
       <c r="L26" s="91"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="532"/>
-      <c r="B27" s="541" t="s">
+      <c r="A27" s="534"/>
+      <c r="B27" s="543" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="542"/>
-      <c r="D27" s="542"/>
-      <c r="E27" s="542"/>
-      <c r="F27" s="542"/>
-      <c r="G27" s="542"/>
-      <c r="H27" s="542"/>
-      <c r="I27" s="543"/>
+      <c r="C27" s="544"/>
+      <c r="D27" s="544"/>
+      <c r="E27" s="544"/>
+      <c r="F27" s="544"/>
+      <c r="G27" s="544"/>
+      <c r="H27" s="544"/>
+      <c r="I27" s="545"/>
       <c r="J27" s="151"/>
       <c r="K27" s="151"/>
       <c r="L27" s="151"/>
     </row>
     <row r="28" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="532"/>
+      <c r="A28" s="534"/>
       <c r="B28" s="113">
         <v>18</v>
       </c>
@@ -10552,7 +10533,7 @@
       <c r="L28" s="151"/>
     </row>
     <row r="29" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="532"/>
+      <c r="A29" s="534"/>
       <c r="B29" s="113">
         <v>19</v>
       </c>
@@ -10582,7 +10563,7 @@
       <c r="L29" s="151"/>
     </row>
     <row r="30" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="532"/>
+      <c r="A30" s="534"/>
       <c r="B30" s="113">
         <v>20</v>
       </c>
@@ -10612,20 +10593,20 @@
       <c r="L30" s="151"/>
     </row>
     <row r="31" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="534"/>
-      <c r="B31" s="520" t="s">
+      <c r="A31" s="536"/>
+      <c r="B31" s="522" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="521"/>
-      <c r="D31" s="521"/>
-      <c r="E31" s="521"/>
+      <c r="C31" s="523"/>
+      <c r="D31" s="523"/>
+      <c r="E31" s="523"/>
       <c r="F31" s="180">
         <f>SUM(F7:F30)</f>
         <v>35</v>
       </c>
-      <c r="G31" s="521"/>
-      <c r="H31" s="521"/>
-      <c r="I31" s="522"/>
+      <c r="G31" s="523"/>
+      <c r="H31" s="523"/>
+      <c r="I31" s="524"/>
       <c r="J31" s="151"/>
       <c r="K31" s="151"/>
       <c r="L31" s="151"/>
@@ -10771,30 +10752,30 @@
     </row>
     <row r="2" spans="2:12" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="37"/>
-      <c r="C2" s="573" t="s">
+      <c r="C2" s="586" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="574"/>
-      <c r="E2" s="574"/>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="574"/>
-      <c r="I2" s="574"/>
-      <c r="J2" s="575"/>
+      <c r="D2" s="587"/>
+      <c r="E2" s="587"/>
+      <c r="F2" s="587"/>
+      <c r="G2" s="587"/>
+      <c r="H2" s="587"/>
+      <c r="I2" s="587"/>
+      <c r="J2" s="588"/>
       <c r="K2" s="38"/>
     </row>
     <row r="3" spans="2:12" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
-      <c r="C3" s="576" t="s">
+      <c r="C3" s="589" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="577"/>
-      <c r="E3" s="577"/>
-      <c r="F3" s="577"/>
-      <c r="G3" s="577"/>
-      <c r="H3" s="577"/>
-      <c r="I3" s="577"/>
-      <c r="J3" s="578"/>
+      <c r="D3" s="590"/>
+      <c r="E3" s="590"/>
+      <c r="F3" s="590"/>
+      <c r="G3" s="590"/>
+      <c r="H3" s="590"/>
+      <c r="I3" s="590"/>
+      <c r="J3" s="591"/>
       <c r="K3" s="38"/>
     </row>
     <row r="4" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10811,42 +10792,42 @@
     </row>
     <row r="5" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
-      <c r="C5" s="579" t="s">
+      <c r="C5" s="592" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="580"/>
-      <c r="E5" s="580"/>
-      <c r="F5" s="580"/>
-      <c r="G5" s="580"/>
-      <c r="H5" s="580"/>
-      <c r="I5" s="580"/>
-      <c r="J5" s="581"/>
+      <c r="D5" s="593"/>
+      <c r="E5" s="593"/>
+      <c r="F5" s="593"/>
+      <c r="G5" s="593"/>
+      <c r="H5" s="593"/>
+      <c r="I5" s="593"/>
+      <c r="J5" s="594"/>
       <c r="K5" s="38"/>
     </row>
     <row r="6" spans="2:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="37"/>
-      <c r="C6" s="582"/>
-      <c r="D6" s="583"/>
-      <c r="E6" s="583"/>
-      <c r="F6" s="583"/>
-      <c r="G6" s="583"/>
-      <c r="H6" s="583"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
+      <c r="C6" s="595"/>
+      <c r="D6" s="596"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="596"/>
+      <c r="J6" s="597"/>
       <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="37"/>
-      <c r="C7" s="595" t="s">
+      <c r="C7" s="605" t="s">
         <v>694</v>
       </c>
-      <c r="D7" s="596"/>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="596"/>
-      <c r="J7" s="597"/>
+      <c r="D7" s="606"/>
+      <c r="E7" s="606"/>
+      <c r="F7" s="606"/>
+      <c r="G7" s="606"/>
+      <c r="H7" s="606"/>
+      <c r="I7" s="606"/>
+      <c r="J7" s="607"/>
       <c r="K7" s="38"/>
       <c r="L7" s="40"/>
     </row>
@@ -10864,112 +10845,112 @@
     </row>
     <row r="9" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="37"/>
-      <c r="C9" s="585" t="s">
+      <c r="C9" s="598" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="586"/>
-      <c r="E9" s="586"/>
-      <c r="F9" s="586"/>
-      <c r="G9" s="586"/>
-      <c r="H9" s="586"/>
-      <c r="I9" s="586"/>
-      <c r="J9" s="587"/>
+      <c r="D9" s="599"/>
+      <c r="E9" s="599"/>
+      <c r="F9" s="599"/>
+      <c r="G9" s="599"/>
+      <c r="H9" s="599"/>
+      <c r="I9" s="599"/>
+      <c r="J9" s="600"/>
       <c r="K9" s="38"/>
     </row>
     <row r="10" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
-      <c r="C10" s="588"/>
-      <c r="D10" s="589"/>
-      <c r="E10" s="589"/>
-      <c r="F10" s="589"/>
-      <c r="G10" s="589"/>
-      <c r="H10" s="590"/>
-      <c r="I10" s="590"/>
-      <c r="J10" s="591"/>
+      <c r="C10" s="601"/>
+      <c r="D10" s="602"/>
+      <c r="E10" s="602"/>
+      <c r="F10" s="602"/>
+      <c r="G10" s="602"/>
+      <c r="H10" s="603"/>
+      <c r="I10" s="603"/>
+      <c r="J10" s="604"/>
       <c r="K10" s="38"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
-      <c r="C11" s="592" t="s">
+      <c r="C11" s="580" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="593"/>
-      <c r="E11" s="593"/>
-      <c r="F11" s="593"/>
-      <c r="G11" s="594"/>
-      <c r="H11" s="598" t="s">
+      <c r="D11" s="581"/>
+      <c r="E11" s="581"/>
+      <c r="F11" s="581"/>
+      <c r="G11" s="582"/>
+      <c r="H11" s="583" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="599"/>
-      <c r="J11" s="600"/>
+      <c r="I11" s="584"/>
+      <c r="J11" s="585"/>
       <c r="K11" s="38"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="37"/>
-      <c r="C12" s="601" t="s">
+      <c r="C12" s="552" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="602"/>
-      <c r="E12" s="602"/>
-      <c r="F12" s="602"/>
-      <c r="G12" s="602"/>
-      <c r="H12" s="602"/>
-      <c r="I12" s="602"/>
-      <c r="J12" s="603"/>
+      <c r="D12" s="553"/>
+      <c r="E12" s="553"/>
+      <c r="F12" s="553"/>
+      <c r="G12" s="553"/>
+      <c r="H12" s="553"/>
+      <c r="I12" s="553"/>
+      <c r="J12" s="554"/>
       <c r="K12" s="38"/>
     </row>
     <row r="13" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
-      <c r="C13" s="604"/>
-      <c r="D13" s="605"/>
-      <c r="E13" s="605"/>
-      <c r="F13" s="605"/>
-      <c r="G13" s="605"/>
-      <c r="H13" s="605"/>
-      <c r="I13" s="605"/>
-      <c r="J13" s="606"/>
+      <c r="C13" s="555"/>
+      <c r="D13" s="556"/>
+      <c r="E13" s="556"/>
+      <c r="F13" s="556"/>
+      <c r="G13" s="556"/>
+      <c r="H13" s="556"/>
+      <c r="I13" s="556"/>
+      <c r="J13" s="557"/>
       <c r="K13" s="38"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
-      <c r="C14" s="592" t="s">
+      <c r="C14" s="580" t="s">
         <v>258</v>
       </c>
-      <c r="D14" s="593"/>
-      <c r="E14" s="593"/>
-      <c r="F14" s="593"/>
-      <c r="G14" s="594"/>
-      <c r="H14" s="598" t="s">
+      <c r="D14" s="581"/>
+      <c r="E14" s="581"/>
+      <c r="F14" s="581"/>
+      <c r="G14" s="582"/>
+      <c r="H14" s="583" t="s">
         <v>116</v>
       </c>
-      <c r="I14" s="599"/>
-      <c r="J14" s="600"/>
+      <c r="I14" s="584"/>
+      <c r="J14" s="585"/>
       <c r="K14" s="38"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="37"/>
-      <c r="C15" s="601" t="s">
+      <c r="C15" s="552" t="s">
         <v>260</v>
       </c>
-      <c r="D15" s="602"/>
-      <c r="E15" s="602"/>
-      <c r="F15" s="602"/>
-      <c r="G15" s="602"/>
-      <c r="H15" s="602"/>
-      <c r="I15" s="602"/>
-      <c r="J15" s="603"/>
+      <c r="D15" s="553"/>
+      <c r="E15" s="553"/>
+      <c r="F15" s="553"/>
+      <c r="G15" s="553"/>
+      <c r="H15" s="553"/>
+      <c r="I15" s="553"/>
+      <c r="J15" s="554"/>
       <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
-      <c r="C16" s="604"/>
-      <c r="D16" s="605"/>
-      <c r="E16" s="605"/>
-      <c r="F16" s="605"/>
-      <c r="G16" s="605"/>
-      <c r="H16" s="605"/>
-      <c r="I16" s="605"/>
-      <c r="J16" s="606"/>
+      <c r="C16" s="555"/>
+      <c r="D16" s="556"/>
+      <c r="E16" s="556"/>
+      <c r="F16" s="556"/>
+      <c r="G16" s="556"/>
+      <c r="H16" s="556"/>
+      <c r="I16" s="556"/>
+      <c r="J16" s="557"/>
       <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10986,84 +10967,84 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="37"/>
-      <c r="C18" s="619" t="s">
+      <c r="C18" s="570" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="620"/>
-      <c r="E18" s="620"/>
-      <c r="F18" s="620"/>
-      <c r="G18" s="620"/>
-      <c r="H18" s="620"/>
-      <c r="I18" s="620"/>
-      <c r="J18" s="621"/>
+      <c r="D18" s="571"/>
+      <c r="E18" s="571"/>
+      <c r="F18" s="571"/>
+      <c r="G18" s="571"/>
+      <c r="H18" s="571"/>
+      <c r="I18" s="571"/>
+      <c r="J18" s="572"/>
       <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
-      <c r="C19" s="622"/>
-      <c r="D19" s="623"/>
-      <c r="E19" s="623"/>
-      <c r="F19" s="624"/>
-      <c r="G19" s="624"/>
-      <c r="H19" s="624"/>
-      <c r="I19" s="624"/>
-      <c r="J19" s="625"/>
+      <c r="C19" s="573"/>
+      <c r="D19" s="574"/>
+      <c r="E19" s="574"/>
+      <c r="F19" s="575"/>
+      <c r="G19" s="575"/>
+      <c r="H19" s="575"/>
+      <c r="I19" s="575"/>
+      <c r="J19" s="576"/>
       <c r="K19" s="38"/>
     </row>
     <row r="20" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="37"/>
-      <c r="C20" s="626" t="s">
+      <c r="C20" s="577" t="s">
         <v>261</v>
       </c>
-      <c r="D20" s="627"/>
-      <c r="E20" s="628"/>
-      <c r="F20" s="613" t="s">
+      <c r="D20" s="578"/>
+      <c r="E20" s="579"/>
+      <c r="F20" s="564" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="614"/>
-      <c r="H20" s="614"/>
-      <c r="I20" s="614"/>
-      <c r="J20" s="615"/>
+      <c r="G20" s="565"/>
+      <c r="H20" s="565"/>
+      <c r="I20" s="565"/>
+      <c r="J20" s="566"/>
       <c r="K20" s="38"/>
     </row>
     <row r="21" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="37"/>
-      <c r="C21" s="607" t="s">
+      <c r="C21" s="558" t="s">
         <v>268</v>
       </c>
-      <c r="D21" s="608"/>
-      <c r="E21" s="608"/>
-      <c r="F21" s="608"/>
-      <c r="G21" s="608"/>
-      <c r="H21" s="608"/>
-      <c r="I21" s="608"/>
-      <c r="J21" s="609"/>
+      <c r="D21" s="559"/>
+      <c r="E21" s="559"/>
+      <c r="F21" s="559"/>
+      <c r="G21" s="559"/>
+      <c r="H21" s="559"/>
+      <c r="I21" s="559"/>
+      <c r="J21" s="560"/>
       <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
-      <c r="C22" s="610"/>
-      <c r="D22" s="611"/>
-      <c r="E22" s="611"/>
-      <c r="F22" s="611"/>
-      <c r="G22" s="611"/>
-      <c r="H22" s="611"/>
-      <c r="I22" s="611"/>
-      <c r="J22" s="612"/>
+      <c r="C22" s="561"/>
+      <c r="D22" s="562"/>
+      <c r="E22" s="562"/>
+      <c r="F22" s="562"/>
+      <c r="G22" s="562"/>
+      <c r="H22" s="562"/>
+      <c r="I22" s="562"/>
+      <c r="J22" s="563"/>
       <c r="K22" s="38"/>
     </row>
     <row r="23" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
-      <c r="C23" s="616" t="s">
+      <c r="C23" s="567" t="s">
         <v>265</v>
       </c>
-      <c r="D23" s="617"/>
-      <c r="E23" s="617"/>
-      <c r="F23" s="617"/>
-      <c r="G23" s="617"/>
-      <c r="H23" s="617"/>
-      <c r="I23" s="617"/>
-      <c r="J23" s="618"/>
+      <c r="D23" s="568"/>
+      <c r="E23" s="568"/>
+      <c r="F23" s="568"/>
+      <c r="G23" s="568"/>
+      <c r="H23" s="568"/>
+      <c r="I23" s="568"/>
+      <c r="J23" s="569"/>
       <c r="K23" s="38"/>
     </row>
     <row r="24" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11080,98 +11061,98 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="37"/>
-      <c r="C25" s="559" t="s">
+      <c r="C25" s="617" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="560"/>
-      <c r="E25" s="560"/>
-      <c r="F25" s="560"/>
-      <c r="G25" s="560"/>
-      <c r="H25" s="560"/>
-      <c r="I25" s="560"/>
-      <c r="J25" s="561"/>
+      <c r="D25" s="618"/>
+      <c r="E25" s="618"/>
+      <c r="F25" s="618"/>
+      <c r="G25" s="618"/>
+      <c r="H25" s="618"/>
+      <c r="I25" s="618"/>
+      <c r="J25" s="619"/>
       <c r="K25" s="38"/>
     </row>
     <row r="26" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
-      <c r="C26" s="562"/>
-      <c r="D26" s="563"/>
-      <c r="E26" s="563"/>
-      <c r="F26" s="563"/>
-      <c r="G26" s="563"/>
-      <c r="H26" s="563"/>
-      <c r="I26" s="563"/>
-      <c r="J26" s="564"/>
+      <c r="C26" s="620"/>
+      <c r="D26" s="621"/>
+      <c r="E26" s="621"/>
+      <c r="F26" s="621"/>
+      <c r="G26" s="621"/>
+      <c r="H26" s="621"/>
+      <c r="I26" s="621"/>
+      <c r="J26" s="622"/>
       <c r="K26" s="38"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
-      <c r="C27" s="565" t="s">
+      <c r="C27" s="623" t="s">
         <v>270</v>
       </c>
-      <c r="D27" s="566"/>
-      <c r="E27" s="566"/>
-      <c r="F27" s="566"/>
-      <c r="G27" s="566"/>
-      <c r="H27" s="566"/>
-      <c r="I27" s="566"/>
-      <c r="J27" s="567"/>
+      <c r="D27" s="624"/>
+      <c r="E27" s="624"/>
+      <c r="F27" s="624"/>
+      <c r="G27" s="624"/>
+      <c r="H27" s="624"/>
+      <c r="I27" s="624"/>
+      <c r="J27" s="625"/>
       <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
-      <c r="C28" s="565" t="s">
+      <c r="C28" s="623" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="568"/>
-      <c r="E28" s="568"/>
-      <c r="F28" s="568"/>
-      <c r="G28" s="568"/>
-      <c r="H28" s="568"/>
-      <c r="I28" s="568"/>
-      <c r="J28" s="569"/>
+      <c r="D28" s="626"/>
+      <c r="E28" s="626"/>
+      <c r="F28" s="626"/>
+      <c r="G28" s="626"/>
+      <c r="H28" s="626"/>
+      <c r="I28" s="626"/>
+      <c r="J28" s="627"/>
       <c r="K28" s="38"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="37"/>
-      <c r="C29" s="570" t="s">
+      <c r="C29" s="628" t="s">
         <v>269</v>
       </c>
-      <c r="D29" s="571"/>
-      <c r="E29" s="571"/>
-      <c r="F29" s="571"/>
-      <c r="G29" s="571"/>
-      <c r="H29" s="571"/>
-      <c r="I29" s="571"/>
-      <c r="J29" s="572"/>
+      <c r="D29" s="629"/>
+      <c r="E29" s="629"/>
+      <c r="F29" s="629"/>
+      <c r="G29" s="629"/>
+      <c r="H29" s="629"/>
+      <c r="I29" s="629"/>
+      <c r="J29" s="630"/>
       <c r="K29" s="38"/>
     </row>
     <row r="30" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
-      <c r="C30" s="550" t="s">
+      <c r="C30" s="608" t="s">
         <v>510</v>
       </c>
-      <c r="D30" s="551"/>
-      <c r="E30" s="551"/>
-      <c r="F30" s="551"/>
-      <c r="G30" s="551"/>
-      <c r="H30" s="551"/>
-      <c r="I30" s="551"/>
-      <c r="J30" s="552"/>
+      <c r="D30" s="609"/>
+      <c r="E30" s="609"/>
+      <c r="F30" s="609"/>
+      <c r="G30" s="609"/>
+      <c r="H30" s="609"/>
+      <c r="I30" s="609"/>
+      <c r="J30" s="610"/>
       <c r="K30" s="38"/>
     </row>
     <row r="31" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
-      <c r="C31" s="550" t="s">
+      <c r="C31" s="608" t="s">
         <v>267</v>
       </c>
-      <c r="D31" s="551"/>
-      <c r="E31" s="551"/>
-      <c r="F31" s="551"/>
-      <c r="G31" s="551"/>
-      <c r="H31" s="551"/>
-      <c r="I31" s="551"/>
-      <c r="J31" s="552"/>
+      <c r="D31" s="609"/>
+      <c r="E31" s="609"/>
+      <c r="F31" s="609"/>
+      <c r="G31" s="609"/>
+      <c r="H31" s="609"/>
+      <c r="I31" s="609"/>
+      <c r="J31" s="610"/>
       <c r="K31" s="38"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11188,28 +11169,28 @@
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="37"/>
-      <c r="C33" s="553" t="s">
+      <c r="C33" s="611" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="554"/>
-      <c r="E33" s="554"/>
-      <c r="F33" s="554"/>
-      <c r="G33" s="554"/>
-      <c r="H33" s="554"/>
-      <c r="I33" s="554"/>
-      <c r="J33" s="555"/>
+      <c r="D33" s="612"/>
+      <c r="E33" s="612"/>
+      <c r="F33" s="612"/>
+      <c r="G33" s="612"/>
+      <c r="H33" s="612"/>
+      <c r="I33" s="612"/>
+      <c r="J33" s="613"/>
       <c r="K33" s="38"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
-      <c r="C34" s="556"/>
-      <c r="D34" s="557"/>
-      <c r="E34" s="557"/>
-      <c r="F34" s="557"/>
-      <c r="G34" s="557"/>
-      <c r="H34" s="557"/>
-      <c r="I34" s="557"/>
-      <c r="J34" s="558"/>
+      <c r="C34" s="614"/>
+      <c r="D34" s="615"/>
+      <c r="E34" s="615"/>
+      <c r="F34" s="615"/>
+      <c r="G34" s="615"/>
+      <c r="H34" s="615"/>
+      <c r="I34" s="615"/>
+      <c r="J34" s="616"/>
       <c r="K34" s="38"/>
     </row>
     <row r="35" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11231,6 +11212,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C33:J34"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C25:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C5:J6"/>
+    <mergeCell ref="C9:J10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="C12:J13"/>
     <mergeCell ref="C21:J22"/>
     <mergeCell ref="F20:J20"/>
@@ -11240,20 +11235,6 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="C15:J16"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C5:J6"/>
-    <mergeCell ref="C9:J10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C33:J34"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C25:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11289,17 +11270,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="632" t="s">
+      <c r="A1" s="634" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="633"/>
-      <c r="C1" s="633"/>
-      <c r="D1" s="633"/>
-      <c r="E1" s="633"/>
-      <c r="F1" s="633"/>
-      <c r="G1" s="633"/>
-      <c r="H1" s="633"/>
-      <c r="I1" s="633"/>
+      <c r="B1" s="635"/>
+      <c r="C1" s="635"/>
+      <c r="D1" s="635"/>
+      <c r="E1" s="635"/>
+      <c r="F1" s="635"/>
+      <c r="G1" s="635"/>
+      <c r="H1" s="635"/>
+      <c r="I1" s="635"/>
     </row>
     <row r="2" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
@@ -11360,89 +11341,89 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="634" t="s">
+      <c r="A4" s="636" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="635"/>
-      <c r="C4" s="635"/>
-      <c r="D4" s="635"/>
-      <c r="E4" s="635"/>
-      <c r="F4" s="635"/>
-      <c r="G4" s="635"/>
-      <c r="H4" s="635"/>
-      <c r="I4" s="635"/>
+      <c r="B4" s="637"/>
+      <c r="C4" s="637"/>
+      <c r="D4" s="637"/>
+      <c r="E4" s="637"/>
+      <c r="F4" s="637"/>
+      <c r="G4" s="637"/>
+      <c r="H4" s="637"/>
+      <c r="I4" s="637"/>
     </row>
     <row r="5" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="224" t="s">
+      <c r="A5" s="223" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="406" t="s">
+      <c r="B5" s="396" t="s">
         <v>287</v>
       </c>
-      <c r="C5" s="406" t="s">
+      <c r="C5" s="396" t="s">
         <v>288</v>
       </c>
-      <c r="D5" s="405" t="s">
+      <c r="D5" s="395" t="s">
         <v>359</v>
       </c>
-      <c r="E5" s="408" t="s">
+      <c r="E5" s="398" t="s">
         <v>651</v>
       </c>
-      <c r="F5" s="419" t="s">
+      <c r="F5" s="409" t="s">
         <v>607</v>
       </c>
-      <c r="G5" s="419" t="s">
+      <c r="G5" s="409" t="s">
         <v>360</v>
       </c>
-      <c r="H5" s="419" t="s">
+      <c r="H5" s="409" t="s">
         <v>611</v>
       </c>
-      <c r="I5" s="307"/>
+      <c r="I5" s="306"/>
     </row>
     <row r="6" spans="1:9" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="220" t="s">
+      <c r="A6" s="219" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="405" t="s">
+      <c r="B6" s="395" t="s">
         <v>384</v>
       </c>
-      <c r="C6" s="405" t="s">
+      <c r="C6" s="395" t="s">
         <v>358</v>
       </c>
-      <c r="D6" s="405" t="s">
+      <c r="D6" s="395" t="s">
         <v>389</v>
       </c>
-      <c r="E6" s="410" t="s">
+      <c r="E6" s="400" t="s">
         <v>542</v>
       </c>
-      <c r="F6" s="410" t="s">
+      <c r="F6" s="400" t="s">
         <v>541</v>
       </c>
-      <c r="G6" s="410" t="s">
+      <c r="G6" s="400" t="s">
         <v>341</v>
       </c>
-      <c r="H6" s="410" t="s">
+      <c r="H6" s="400" t="s">
         <v>342</v>
       </c>
-      <c r="I6" s="241" t="s">
+      <c r="I6" s="240" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="220" t="s">
+      <c r="A7" s="219" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="286" t="s">
+      <c r="B7" s="285" t="s">
         <v>484</v>
       </c>
-      <c r="C7" s="308" t="s">
+      <c r="C7" s="307" t="s">
         <v>640</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="405" t="s">
+      <c r="E7" s="395" t="s">
         <v>373</v>
       </c>
-      <c r="F7" s="231" t="s">
+      <c r="F7" s="230" t="s">
         <v>483</v>
       </c>
       <c r="G7" s="131" t="s">
@@ -11451,223 +11432,223 @@
       <c r="H7" s="131" t="s">
         <v>311</v>
       </c>
-      <c r="I7" s="241" t="s">
+      <c r="I7" s="240" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="220" t="s">
+      <c r="A8" s="219" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="409" t="s">
+      <c r="B8" s="399" t="s">
         <v>558</v>
       </c>
-      <c r="C8" s="410" t="s">
+      <c r="C8" s="400" t="s">
         <v>560</v>
       </c>
-      <c r="D8" s="228" t="s">
+      <c r="D8" s="227" t="s">
         <v>304</v>
       </c>
-      <c r="E8" s="228" t="s">
+      <c r="E8" s="227" t="s">
         <v>305</v>
       </c>
-      <c r="F8" s="283"/>
-      <c r="G8" s="410" t="s">
+      <c r="F8" s="282"/>
+      <c r="G8" s="400" t="s">
         <v>555</v>
       </c>
-      <c r="H8" s="410" t="s">
+      <c r="H8" s="400" t="s">
         <v>537</v>
       </c>
-      <c r="I8" s="240" t="s">
+      <c r="I8" s="239" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="220" t="s">
+      <c r="A9" s="219" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="417" t="s">
+      <c r="B9" s="407" t="s">
         <v>289</v>
       </c>
-      <c r="C9" s="411" t="s">
+      <c r="C9" s="401" t="s">
         <v>290</v>
       </c>
-      <c r="D9" s="283"/>
-      <c r="E9" s="405" t="s">
+      <c r="D9" s="282"/>
+      <c r="E9" s="395" t="s">
         <v>365</v>
       </c>
-      <c r="F9" s="283"/>
-      <c r="G9" s="405" t="s">
+      <c r="F9" s="282"/>
+      <c r="G9" s="395" t="s">
         <v>366</v>
       </c>
-      <c r="H9" s="405" t="s">
+      <c r="H9" s="395" t="s">
         <v>621</v>
       </c>
-      <c r="I9" s="416" t="s">
+      <c r="I9" s="406" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="220" t="s">
+      <c r="A10" s="219" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="285" t="s">
+      <c r="B10" s="284" t="s">
         <v>371</v>
       </c>
-      <c r="C10" s="308" t="s">
+      <c r="C10" s="307" t="s">
         <v>613</v>
       </c>
       <c r="D10" s="140" t="s">
         <v>648</v>
       </c>
-      <c r="E10" s="410" t="s">
+      <c r="E10" s="400" t="s">
         <v>615</v>
       </c>
-      <c r="F10" s="410" t="s">
+      <c r="F10" s="400" t="s">
         <v>553</v>
       </c>
-      <c r="G10" s="410" t="s">
+      <c r="G10" s="400" t="s">
         <v>554</v>
       </c>
-      <c r="H10" s="410" t="s">
+      <c r="H10" s="400" t="s">
         <v>536</v>
       </c>
-      <c r="I10" s="241" t="s">
+      <c r="I10" s="240" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="220" t="s">
+      <c r="A11" s="219" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="417" t="s">
+      <c r="B11" s="407" t="s">
         <v>294</v>
       </c>
-      <c r="C11" s="411" t="s">
+      <c r="C11" s="401" t="s">
         <v>295</v>
       </c>
-      <c r="D11" s="283"/>
-      <c r="E11" s="228" t="s">
+      <c r="D11" s="282"/>
+      <c r="E11" s="227" t="s">
         <v>303</v>
       </c>
-      <c r="F11" s="227" t="s">
+      <c r="F11" s="226" t="s">
         <v>616</v>
       </c>
-      <c r="G11" s="227" t="s">
+      <c r="G11" s="226" t="s">
         <v>617</v>
       </c>
-      <c r="H11" s="227" t="s">
+      <c r="H11" s="226" t="s">
         <v>328</v>
       </c>
-      <c r="I11" s="242" t="s">
+      <c r="I11" s="241" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="220" t="s">
+      <c r="A12" s="219" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="417" t="s">
+      <c r="B12" s="407" t="s">
         <v>642</v>
       </c>
-      <c r="C12" s="410" t="s">
+      <c r="C12" s="400" t="s">
         <v>539</v>
       </c>
-      <c r="D12" s="227" t="s">
+      <c r="D12" s="226" t="s">
         <v>650</v>
       </c>
-      <c r="E12" s="227" t="s">
+      <c r="E12" s="226" t="s">
         <v>649</v>
       </c>
-      <c r="F12" s="283"/>
-      <c r="G12" s="231" t="s">
+      <c r="F12" s="282"/>
+      <c r="G12" s="230" t="s">
         <v>608</v>
       </c>
-      <c r="H12" s="227" t="s">
+      <c r="H12" s="226" t="s">
         <v>329</v>
       </c>
-      <c r="I12" s="242" t="s">
+      <c r="I12" s="241" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="220" t="s">
+      <c r="A13" s="219" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="391"/>
-      <c r="C13" s="410" t="s">
+      <c r="B13" s="384"/>
+      <c r="C13" s="400" t="s">
         <v>559</v>
       </c>
       <c r="D13" s="131" t="s">
         <v>629</v>
       </c>
-      <c r="E13" s="410" t="s">
+      <c r="E13" s="400" t="s">
         <v>425</v>
       </c>
-      <c r="F13" s="410" t="s">
+      <c r="F13" s="400" t="s">
         <v>552</v>
       </c>
       <c r="G13" s="131" t="s">
         <v>630</v>
       </c>
-      <c r="H13" s="227" t="s">
+      <c r="H13" s="226" t="s">
         <v>526</v>
       </c>
-      <c r="I13" s="242" t="s">
+      <c r="I13" s="241" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="220" t="s">
+      <c r="A14" s="219" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="391"/>
-      <c r="C14" s="283"/>
-      <c r="D14" s="405" t="s">
+      <c r="B14" s="384"/>
+      <c r="C14" s="282"/>
+      <c r="D14" s="395" t="s">
         <v>361</v>
       </c>
-      <c r="E14" s="405" t="s">
+      <c r="E14" s="395" t="s">
         <v>362</v>
       </c>
-      <c r="F14" s="283"/>
-      <c r="G14" s="410" t="s">
+      <c r="F14" s="282"/>
+      <c r="G14" s="400" t="s">
         <v>343</v>
       </c>
-      <c r="H14" s="410" t="s">
+      <c r="H14" s="400" t="s">
         <v>344</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="219" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="417" t="s">
+      <c r="B15" s="407" t="s">
         <v>291</v>
       </c>
-      <c r="C15" s="411" t="s">
+      <c r="C15" s="401" t="s">
         <v>292</v>
       </c>
-      <c r="D15" s="283"/>
-      <c r="E15" s="228" t="s">
+      <c r="D15" s="282"/>
+      <c r="E15" s="227" t="s">
         <v>308</v>
       </c>
-      <c r="F15" s="283"/>
-      <c r="G15" s="411" t="s">
+      <c r="F15" s="282"/>
+      <c r="G15" s="401" t="s">
         <v>293</v>
       </c>
       <c r="H15" s="131" t="s">
         <v>631</v>
       </c>
-      <c r="I15" s="240" t="s">
+      <c r="I15" s="239" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="220" t="s">
+      <c r="A16" s="219" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="285" t="s">
+      <c r="B16" s="284" t="s">
         <v>372</v>
       </c>
       <c r="C16" s="129" t="s">
@@ -11676,294 +11657,294 @@
       <c r="D16" s="129" t="s">
         <v>300</v>
       </c>
-      <c r="E16" s="283"/>
+      <c r="E16" s="282"/>
       <c r="F16" s="129" t="s">
         <v>301</v>
       </c>
       <c r="G16" s="129" t="s">
         <v>316</v>
       </c>
-      <c r="H16" s="283"/>
-      <c r="I16" s="314" t="s">
+      <c r="H16" s="282"/>
+      <c r="I16" s="313" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="220" t="s">
+      <c r="A17" s="219" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="285" t="s">
+      <c r="B17" s="284" t="s">
         <v>381</v>
       </c>
-      <c r="C17" s="315"/>
-      <c r="D17" s="283"/>
-      <c r="E17" s="283"/>
-      <c r="F17" s="283"/>
-      <c r="G17" s="405" t="s">
+      <c r="C17" s="314"/>
+      <c r="D17" s="282"/>
+      <c r="E17" s="282"/>
+      <c r="F17" s="282"/>
+      <c r="G17" s="395" t="s">
         <v>379</v>
       </c>
-      <c r="H17" s="405" t="s">
+      <c r="H17" s="395" t="s">
         <v>380</v>
       </c>
-      <c r="I17" s="284"/>
+      <c r="I17" s="283"/>
     </row>
     <row r="18" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="220" t="s">
+      <c r="A18" s="219" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="287"/>
-      <c r="C18" s="283"/>
-      <c r="D18" s="228" t="s">
+      <c r="B18" s="286"/>
+      <c r="C18" s="282"/>
+      <c r="D18" s="227" t="s">
         <v>309</v>
       </c>
-      <c r="E18" s="228" t="s">
+      <c r="E18" s="227" t="s">
         <v>306</v>
       </c>
-      <c r="F18" s="405" t="s">
+      <c r="F18" s="395" t="s">
         <v>606</v>
       </c>
-      <c r="G18" s="283"/>
-      <c r="H18" s="405" t="s">
+      <c r="G18" s="282"/>
+      <c r="H18" s="395" t="s">
         <v>382</v>
       </c>
-      <c r="I18" s="240" t="s">
+      <c r="I18" s="239" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="24" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="220" t="s">
+      <c r="A19" s="219" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="409" t="s">
+      <c r="B19" s="399" t="s">
         <v>429</v>
       </c>
-      <c r="C19" s="283"/>
+      <c r="C19" s="282"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="410" t="s">
+      <c r="E19" s="400" t="s">
         <v>420</v>
       </c>
-      <c r="F19" s="410" t="s">
+      <c r="F19" s="400" t="s">
         <v>427</v>
       </c>
-      <c r="G19" s="410" t="s">
+      <c r="G19" s="400" t="s">
         <v>556</v>
       </c>
-      <c r="H19" s="410" t="s">
+      <c r="H19" s="400" t="s">
         <v>557</v>
       </c>
-      <c r="I19" s="314" t="s">
+      <c r="I19" s="313" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="24" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="220" t="s">
+      <c r="A20" s="219" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="366" t="s">
+      <c r="B20" s="361" t="s">
         <v>636</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="410" t="s">
+      <c r="D20" s="400" t="s">
         <v>550</v>
       </c>
-      <c r="E20" s="283"/>
-      <c r="F20" s="410" t="s">
+      <c r="E20" s="282"/>
+      <c r="F20" s="400" t="s">
         <v>348</v>
       </c>
-      <c r="G20" s="283"/>
+      <c r="G20" s="282"/>
       <c r="H20" s="131" t="s">
         <v>632</v>
       </c>
-      <c r="I20" s="314" t="s">
+      <c r="I20" s="313" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="24" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="743" t="s">
+      <c r="A21" s="419" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="410" t="s">
+      <c r="B21" s="400" t="s">
         <v>392</v>
       </c>
-      <c r="C21" s="283"/>
-      <c r="D21" s="410" t="s">
+      <c r="C21" s="282"/>
+      <c r="D21" s="400" t="s">
         <v>544</v>
       </c>
-      <c r="E21" s="410" t="s">
+      <c r="E21" s="400" t="s">
         <v>419</v>
       </c>
-      <c r="F21" s="410" t="s">
+      <c r="F21" s="400" t="s">
         <v>391</v>
       </c>
-      <c r="G21" s="283"/>
-      <c r="H21" s="315"/>
-      <c r="I21" s="314" t="s">
+      <c r="G21" s="282"/>
+      <c r="H21" s="314"/>
+      <c r="I21" s="313" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="24" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="253" t="s">
+      <c r="A22" s="252" t="s">
         <v>388</v>
       </c>
-      <c r="B22" s="366" t="s">
+      <c r="B22" s="361" t="s">
         <v>633</v>
       </c>
-      <c r="C22" s="367"/>
-      <c r="D22" s="368" t="s">
+      <c r="C22" s="362"/>
+      <c r="D22" s="363" t="s">
         <v>634</v>
       </c>
-      <c r="E22" s="332"/>
-      <c r="F22" s="333" t="s">
+      <c r="E22" s="331"/>
+      <c r="F22" s="332" t="s">
         <v>302</v>
       </c>
-      <c r="G22" s="333" t="s">
+      <c r="G22" s="332" t="s">
         <v>298</v>
       </c>
-      <c r="H22" s="368" t="s">
+      <c r="H22" s="363" t="s">
         <v>635</v>
       </c>
-      <c r="I22" s="369"/>
+      <c r="I22" s="364"/>
     </row>
     <row r="23" spans="1:15" s="24" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="636" t="s">
+      <c r="A23" s="638" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="637"/>
-      <c r="C23" s="637"/>
-      <c r="D23" s="637"/>
-      <c r="E23" s="637"/>
-      <c r="F23" s="637"/>
-      <c r="G23" s="637"/>
-      <c r="H23" s="637"/>
-      <c r="I23" s="638"/>
+      <c r="B23" s="639"/>
+      <c r="C23" s="639"/>
+      <c r="D23" s="639"/>
+      <c r="E23" s="639"/>
+      <c r="F23" s="639"/>
+      <c r="G23" s="639"/>
+      <c r="H23" s="639"/>
+      <c r="I23" s="640"/>
     </row>
     <row r="24" spans="1:15" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="302" t="s">
+      <c r="A24" s="301" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="647" t="s">
+      <c r="B24" s="649" t="s">
         <v>659</v>
       </c>
-      <c r="C24" s="648"/>
-      <c r="D24" s="648"/>
-      <c r="E24" s="238" t="s">
+      <c r="C24" s="650"/>
+      <c r="D24" s="650"/>
+      <c r="E24" s="237" t="s">
         <v>331</v>
       </c>
-      <c r="F24" s="238" t="s">
+      <c r="F24" s="237" t="s">
         <v>333</v>
       </c>
-      <c r="G24" s="377" t="s">
+      <c r="G24" s="372" t="s">
         <v>533</v>
       </c>
-      <c r="H24" s="392"/>
-      <c r="I24" s="307"/>
+      <c r="H24" s="385"/>
+      <c r="I24" s="306"/>
     </row>
     <row r="25" spans="1:15" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="220" t="s">
+      <c r="A25" s="219" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="227" t="s">
+      <c r="B25" s="226" t="s">
         <v>320</v>
       </c>
-      <c r="C25" s="283"/>
-      <c r="D25" s="629" t="s">
+      <c r="C25" s="282"/>
+      <c r="D25" s="631" t="s">
         <v>658</v>
       </c>
-      <c r="E25" s="629"/>
-      <c r="F25" s="629"/>
+      <c r="E25" s="631"/>
+      <c r="F25" s="631"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="283"/>
-      <c r="I25" s="244"/>
+      <c r="H25" s="282"/>
+      <c r="I25" s="243"/>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
     </row>
     <row r="26" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="220" t="s">
+      <c r="A26" s="219" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="649" t="s">
+      <c r="B26" s="651" t="s">
         <v>660</v>
       </c>
-      <c r="C26" s="650"/>
-      <c r="D26" s="650"/>
-      <c r="E26" s="245"/>
-      <c r="F26" s="283"/>
-      <c r="G26" s="283"/>
-      <c r="H26" s="283"/>
-      <c r="I26" s="284"/>
+      <c r="C26" s="652"/>
+      <c r="D26" s="652"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="282"/>
+      <c r="G26" s="282"/>
+      <c r="H26" s="282"/>
+      <c r="I26" s="283"/>
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
     </row>
     <row r="27" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="220" t="s">
+      <c r="A27" s="219" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="645" t="s">
+      <c r="B27" s="647" t="s">
         <v>645</v>
       </c>
-      <c r="C27" s="646"/>
-      <c r="D27" s="646"/>
-      <c r="E27" s="341"/>
-      <c r="F27" s="341"/>
-      <c r="G27" s="338"/>
-      <c r="H27" s="338"/>
-      <c r="I27" s="339"/>
+      <c r="C27" s="648"/>
+      <c r="D27" s="648"/>
+      <c r="E27" s="340"/>
+      <c r="F27" s="340"/>
+      <c r="G27" s="337"/>
+      <c r="H27" s="337"/>
+      <c r="I27" s="338"/>
     </row>
     <row r="28" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="220" t="s">
+      <c r="A28" s="219" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="651" t="s">
+      <c r="B28" s="653" t="s">
         <v>661</v>
       </c>
-      <c r="C28" s="652"/>
-      <c r="D28" s="653"/>
-      <c r="E28" s="342" t="s">
+      <c r="C28" s="654"/>
+      <c r="D28" s="655"/>
+      <c r="E28" s="341" t="s">
         <v>490</v>
       </c>
-      <c r="F28" s="642" t="s">
+      <c r="F28" s="644" t="s">
         <v>489</v>
       </c>
-      <c r="G28" s="643"/>
-      <c r="H28" s="643"/>
-      <c r="I28" s="644"/>
+      <c r="G28" s="645"/>
+      <c r="H28" s="645"/>
+      <c r="I28" s="646"/>
     </row>
     <row r="29" spans="1:15" s="24" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="220" t="s">
+      <c r="A29" s="219" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="639" t="s">
+      <c r="B29" s="641" t="s">
         <v>489</v>
       </c>
-      <c r="C29" s="640"/>
-      <c r="D29" s="640"/>
-      <c r="E29" s="641"/>
-      <c r="F29" s="343"/>
-      <c r="G29" s="344"/>
-      <c r="H29" s="344"/>
-      <c r="I29" s="345"/>
+      <c r="C29" s="642"/>
+      <c r="D29" s="642"/>
+      <c r="E29" s="643"/>
+      <c r="F29" s="342"/>
+      <c r="G29" s="343"/>
+      <c r="H29" s="343"/>
+      <c r="I29" s="344"/>
     </row>
     <row r="30" spans="1:15" s="24" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="220" t="s">
+      <c r="A30" s="219" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="337"/>
-      <c r="C30" s="630" t="s">
+      <c r="B30" s="336"/>
+      <c r="C30" s="632" t="s">
         <v>646</v>
       </c>
-      <c r="D30" s="630"/>
-      <c r="E30" s="631"/>
-      <c r="F30" s="642" t="s">
+      <c r="D30" s="632"/>
+      <c r="E30" s="633"/>
+      <c r="F30" s="644" t="s">
         <v>489</v>
       </c>
-      <c r="G30" s="643"/>
-      <c r="H30" s="643"/>
-      <c r="I30" s="644"/>
+      <c r="G30" s="645"/>
+      <c r="H30" s="645"/>
+      <c r="I30" s="646"/>
     </row>
     <row r="31" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="220" t="s">
+      <c r="A31" s="219" t="s">
         <v>150</v>
       </c>
       <c r="B31" s="9"/>
@@ -11972,14 +11953,14 @@
         <v>637</v>
       </c>
       <c r="E31" s="127"/>
-      <c r="F31" s="256"/>
-      <c r="G31" s="257" t="s">
+      <c r="F31" s="255"/>
+      <c r="G31" s="256" t="s">
         <v>638</v>
       </c>
-      <c r="H31" s="257" t="s">
+      <c r="H31" s="256" t="s">
         <v>310</v>
       </c>
-      <c r="I31" s="340"/>
+      <c r="I31" s="339"/>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12070,389 +12051,388 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="654" t="s">
+      <c r="A1" s="656" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="655"/>
-      <c r="C1" s="655"/>
-      <c r="D1" s="655"/>
-      <c r="E1" s="655"/>
-      <c r="F1" s="655"/>
-      <c r="G1" s="655"/>
-      <c r="H1" s="655"/>
-      <c r="I1" s="655"/>
+      <c r="B1" s="657"/>
+      <c r="C1" s="657"/>
+      <c r="D1" s="657"/>
+      <c r="E1" s="657"/>
+      <c r="F1" s="657"/>
+      <c r="G1" s="657"/>
+      <c r="H1" s="657"/>
+      <c r="I1" s="657"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="220" t="s">
+      <c r="A2" s="219" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="220">
+      <c r="B2" s="219">
         <v>1</v>
       </c>
-      <c r="C2" s="220">
+      <c r="C2" s="219">
         <v>2</v>
       </c>
-      <c r="D2" s="220">
+      <c r="D2" s="219">
         <v>3</v>
       </c>
-      <c r="E2" s="220">
+      <c r="E2" s="219">
         <v>4</v>
       </c>
-      <c r="F2" s="220">
+      <c r="F2" s="219">
         <v>5</v>
       </c>
-      <c r="G2" s="220">
+      <c r="G2" s="219">
         <v>6</v>
       </c>
-      <c r="H2" s="220">
+      <c r="H2" s="219">
         <v>7</v>
       </c>
-      <c r="I2" s="220">
+      <c r="I2" s="219">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="219" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="225" t="s">
+      <c r="B3" s="224" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="225" t="s">
+      <c r="C3" s="224" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="225" t="s">
+      <c r="D3" s="224" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="225" t="s">
+      <c r="E3" s="224" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="225" t="s">
+      <c r="F3" s="224" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="224" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="225" t="s">
+      <c r="H3" s="224" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="225" t="s">
+      <c r="I3" s="224" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="634" t="s">
+      <c r="A4" s="636" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="635"/>
-      <c r="C4" s="635"/>
-      <c r="D4" s="635"/>
-      <c r="E4" s="635"/>
-      <c r="F4" s="635"/>
-      <c r="G4" s="635"/>
-      <c r="H4" s="635"/>
-      <c r="I4" s="635"/>
+      <c r="B4" s="637"/>
+      <c r="C4" s="637"/>
+      <c r="D4" s="637"/>
+      <c r="E4" s="637"/>
+      <c r="F4" s="637"/>
+      <c r="G4" s="637"/>
+      <c r="H4" s="637"/>
+      <c r="I4" s="637"/>
     </row>
     <row r="5" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="224" t="s">
+      <c r="A5" s="223" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="415" t="s">
+      <c r="B5" s="405" t="s">
         <v>394</v>
       </c>
-      <c r="C5" s="406" t="s">
+      <c r="C5" s="396" t="s">
         <v>393</v>
       </c>
-      <c r="D5" s="311" t="s">
+      <c r="D5" s="310" t="s">
         <v>486</v>
       </c>
-      <c r="E5" s="311" t="s">
+      <c r="E5" s="310" t="s">
         <v>304</v>
       </c>
-      <c r="F5" s="238" t="s">
+      <c r="F5" s="237" t="s">
         <v>320</v>
       </c>
-      <c r="G5" s="311" t="s">
+      <c r="G5" s="310" t="s">
         <v>305</v>
       </c>
-      <c r="H5" s="312" t="s">
+      <c r="H5" s="311" t="s">
         <v>404</v>
       </c>
-      <c r="I5" s="313" t="s">
+      <c r="I5" s="312" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="220" t="s">
+      <c r="A6" s="219" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="353" t="s">
+      <c r="B6" s="348" t="s">
         <v>648</v>
       </c>
-      <c r="C6" s="308" t="s">
+      <c r="C6" s="307" t="s">
         <v>613</v>
       </c>
-      <c r="D6" s="405" t="s">
+      <c r="D6" s="395" t="s">
         <v>406</v>
       </c>
-      <c r="E6" s="405" t="s">
+      <c r="E6" s="395" t="s">
         <v>366</v>
       </c>
-      <c r="F6" s="231" t="s">
+      <c r="F6" s="230" t="s">
         <v>464</v>
       </c>
-      <c r="G6" s="410" t="s">
+      <c r="G6" s="400" t="s">
         <v>395</v>
       </c>
-      <c r="H6" s="405" t="s">
+      <c r="H6" s="395" t="s">
         <v>693</v>
       </c>
-      <c r="I6" s="241" t="s">
+      <c r="I6" s="240" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="220" t="s">
+      <c r="A7" s="219" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="295"/>
-      <c r="C7" s="411" t="s">
+      <c r="B7" s="294"/>
+      <c r="C7" s="401" t="s">
         <v>642</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>630</v>
       </c>
-      <c r="E7" s="410" t="s">
+      <c r="E7" s="400" t="s">
         <v>567</v>
       </c>
-      <c r="F7" s="288"/>
-      <c r="G7" s="410" t="s">
+      <c r="F7" s="287"/>
+      <c r="G7" s="400" t="s">
         <v>568</v>
       </c>
       <c r="H7" s="131" t="s">
         <v>631</v>
       </c>
-      <c r="I7" s="219" t="s">
+      <c r="I7" s="218" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="220" t="s">
+      <c r="A8" s="219" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="295"/>
-      <c r="C8" s="405" t="s">
+      <c r="B8" s="294"/>
+      <c r="C8" s="395" t="s">
         <v>422</v>
       </c>
-      <c r="D8" s="405" t="s">
+      <c r="D8" s="395" t="s">
         <v>402</v>
       </c>
-      <c r="E8" s="405" t="s">
+      <c r="E8" s="395" t="s">
         <v>403</v>
       </c>
-      <c r="F8" s="288"/>
-      <c r="G8" s="405" t="s">
+      <c r="F8" s="287"/>
+      <c r="G8" s="395" t="s">
         <v>415</v>
       </c>
       <c r="H8" s="131" t="s">
         <v>635</v>
       </c>
-      <c r="I8" s="219" t="s">
+      <c r="I8" s="218" t="s">
         <v>634</v>
       </c>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="220" t="s">
+      <c r="A9" s="219" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="414" t="s">
+      <c r="B9" s="404" t="s">
         <v>396</v>
       </c>
-      <c r="C9" s="411" t="s">
+      <c r="C9" s="401" t="s">
         <v>292</v>
       </c>
-      <c r="D9" s="227" t="s">
+      <c r="D9" s="226" t="s">
         <v>528</v>
       </c>
-      <c r="E9" s="227" t="s">
+      <c r="E9" s="226" t="s">
         <v>407</v>
       </c>
-      <c r="F9" s="288"/>
-      <c r="G9" s="405" t="s">
+      <c r="F9" s="129" t="s">
+        <v>296</v>
+      </c>
+      <c r="G9" s="395" t="s">
         <v>606</v>
       </c>
-      <c r="H9" s="405" t="s">
+      <c r="H9" s="395" t="s">
         <v>409</v>
       </c>
-      <c r="I9" s="293"/>
+      <c r="I9" s="292"/>
     </row>
     <row r="10" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="220" t="s">
+      <c r="A10" s="219" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="414" t="s">
+      <c r="B10" s="404" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="411" t="s">
+      <c r="C10" s="401" t="s">
         <v>295</v>
       </c>
-      <c r="D10" s="405" t="s">
+      <c r="D10" s="395" t="s">
         <v>369</v>
       </c>
-      <c r="E10" s="405" t="s">
+      <c r="E10" s="395" t="s">
         <v>370</v>
       </c>
-      <c r="F10" s="315"/>
-      <c r="G10" s="411" t="s">
+      <c r="F10" s="314"/>
+      <c r="G10" s="401" t="s">
         <v>492</v>
       </c>
-      <c r="H10" s="227" t="s">
+      <c r="H10" s="226" t="s">
         <v>530</v>
       </c>
-      <c r="I10" s="293"/>
+      <c r="I10" s="292"/>
     </row>
     <row r="11" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="220" t="s">
+      <c r="A11" s="219" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="226" t="s">
+      <c r="B11" s="225" t="s">
         <v>435</v>
       </c>
-      <c r="C11" s="227" t="s">
+      <c r="C11" s="226" t="s">
         <v>436</v>
       </c>
-      <c r="D11" s="227" t="s">
+      <c r="D11" s="226" t="s">
         <v>527</v>
       </c>
-      <c r="E11" s="227" t="s">
+      <c r="E11" s="226" t="s">
         <v>526</v>
       </c>
-      <c r="F11" s="410" t="s">
+      <c r="F11" s="400" t="s">
         <v>565</v>
       </c>
-      <c r="G11" s="410" t="s">
+      <c r="G11" s="400" t="s">
         <v>566</v>
       </c>
-      <c r="H11" s="227" t="s">
+      <c r="H11" s="226" t="s">
         <v>529</v>
       </c>
-      <c r="I11" s="242" t="s">
+      <c r="I11" s="241" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="220" t="s">
+      <c r="A12" s="219" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="414" t="s">
+      <c r="B12" s="404" t="s">
         <v>622</v>
       </c>
-      <c r="C12" s="308" t="s">
+      <c r="C12" s="307" t="s">
         <v>640</v>
       </c>
-      <c r="D12" s="410" t="s">
+      <c r="D12" s="400" t="s">
         <v>561</v>
       </c>
-      <c r="E12" s="405" t="s">
+      <c r="E12" s="395" t="s">
         <v>382</v>
       </c>
-      <c r="F12" s="405" t="s">
+      <c r="F12" s="395" t="s">
         <v>374</v>
       </c>
-      <c r="G12" s="405" t="s">
+      <c r="G12" s="395" t="s">
         <v>408</v>
       </c>
-      <c r="H12" s="227" t="s">
+      <c r="H12" s="226" t="s">
         <v>414</v>
       </c>
-      <c r="I12" s="242" t="s">
+      <c r="I12" s="241" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="220" t="s">
+      <c r="A13" s="219" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="414" t="s">
+      <c r="B13" s="404" t="s">
         <v>397</v>
       </c>
-      <c r="C13" s="411" t="s">
+      <c r="C13" s="401" t="s">
         <v>398</v>
       </c>
       <c r="D13" s="131" t="s">
         <v>636</v>
       </c>
-      <c r="E13" s="288"/>
-      <c r="F13" s="315"/>
-      <c r="G13" s="405" t="s">
+      <c r="E13" s="287"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="395" t="s">
         <v>607</v>
       </c>
       <c r="H13" s="131" t="s">
         <v>639</v>
       </c>
-      <c r="I13" s="416" t="s">
+      <c r="I13" s="406" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="220" t="s">
+      <c r="A14" s="219" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>383</v>
       </c>
-      <c r="C14" s="288"/>
-      <c r="D14" s="410" t="s">
+      <c r="C14" s="287"/>
+      <c r="D14" s="400" t="s">
         <v>343</v>
       </c>
-      <c r="E14" s="410" t="s">
+      <c r="E14" s="400" t="s">
         <v>344</v>
       </c>
-      <c r="F14" s="129" t="s">
-        <v>296</v>
-      </c>
-      <c r="G14" s="288"/>
-      <c r="H14" s="405" t="s">
+      <c r="G14" s="287"/>
+      <c r="H14" s="395" t="s">
         <v>401</v>
       </c>
-      <c r="I14" s="233"/>
+      <c r="I14" s="232"/>
     </row>
     <row r="15" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="219" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="364" t="s">
+      <c r="B15" s="359" t="s">
         <v>298</v>
       </c>
-      <c r="C15" s="410" t="s">
+      <c r="C15" s="400" t="s">
         <v>345</v>
       </c>
       <c r="D15" s="129" t="s">
         <v>299</v>
       </c>
-      <c r="E15" s="288"/>
+      <c r="E15" s="287"/>
       <c r="F15" s="129" t="s">
         <v>302</v>
       </c>
-      <c r="G15" s="288"/>
-      <c r="H15" s="410" t="s">
+      <c r="G15" s="287"/>
+      <c r="H15" s="400" t="s">
         <v>399</v>
       </c>
-      <c r="I15" s="233"/>
+      <c r="I15" s="232"/>
     </row>
     <row r="16" spans="1:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="220" t="s">
+      <c r="A16" s="219" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="309"/>
-      <c r="C16" s="410" t="s">
+      <c r="B16" s="308"/>
+      <c r="C16" s="400" t="s">
         <v>547</v>
       </c>
       <c r="D16" s="129" t="s">
         <v>300</v>
       </c>
-      <c r="E16" s="228" t="s">
+      <c r="E16" s="227" t="s">
         <v>308</v>
       </c>
       <c r="F16" s="129" t="s">
@@ -12461,281 +12441,281 @@
       <c r="G16" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="H16" s="410" t="s">
+      <c r="H16" s="400" t="s">
         <v>548</v>
       </c>
-      <c r="I16" s="314" t="s">
+      <c r="I16" s="313" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="220" t="s">
+      <c r="A17" s="219" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="413" t="s">
+      <c r="B17" s="403" t="s">
         <v>420</v>
       </c>
-      <c r="C17" s="288"/>
-      <c r="D17" s="261" t="s">
+      <c r="C17" s="287"/>
+      <c r="D17" s="260" t="s">
         <v>315</v>
       </c>
-      <c r="E17" s="315"/>
-      <c r="F17" s="410" t="s">
+      <c r="E17" s="314"/>
+      <c r="F17" s="400" t="s">
         <v>562</v>
       </c>
-      <c r="G17" s="407" t="s">
+      <c r="G17" s="397" t="s">
         <v>466</v>
       </c>
-      <c r="H17" s="418" t="s">
+      <c r="H17" s="408" t="s">
         <v>493</v>
       </c>
-      <c r="I17" s="314" t="s">
+      <c r="I17" s="313" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="220" t="s">
+      <c r="A18" s="219" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="310" t="s">
+      <c r="B18" s="309" t="s">
         <v>309</v>
       </c>
       <c r="C18" s="131" t="s">
         <v>313</v>
       </c>
-      <c r="D18" s="288"/>
-      <c r="E18" s="228" t="s">
+      <c r="D18" s="287"/>
+      <c r="E18" s="227" t="s">
         <v>307</v>
       </c>
-      <c r="F18" s="410" t="s">
+      <c r="F18" s="400" t="s">
         <v>419</v>
       </c>
-      <c r="G18" s="410" t="s">
+      <c r="G18" s="400" t="s">
         <v>461</v>
       </c>
-      <c r="H18" s="228" t="s">
+      <c r="H18" s="227" t="s">
         <v>644</v>
       </c>
-      <c r="I18" s="314" t="s">
+      <c r="I18" s="313" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="220" t="s">
+      <c r="A19" s="219" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="413" t="s">
+      <c r="B19" s="403" t="s">
         <v>549</v>
       </c>
-      <c r="C19" s="410" t="s">
+      <c r="C19" s="400" t="s">
         <v>476</v>
       </c>
       <c r="D19" s="131" t="s">
         <v>633</v>
       </c>
-      <c r="E19" s="315"/>
-      <c r="F19" s="410" t="s">
+      <c r="E19" s="314"/>
+      <c r="F19" s="400" t="s">
         <v>421</v>
       </c>
-      <c r="G19" s="410" t="s">
+      <c r="G19" s="400" t="s">
         <v>477</v>
       </c>
-      <c r="H19" s="410" t="s">
+      <c r="H19" s="400" t="s">
         <v>417</v>
       </c>
-      <c r="I19" s="293"/>
+      <c r="I19" s="292"/>
     </row>
     <row r="20" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="220" t="s">
+      <c r="A20" s="219" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="295"/>
-      <c r="C20" s="288"/>
-      <c r="D20" s="288"/>
-      <c r="E20" s="410" t="s">
+      <c r="B20" s="294"/>
+      <c r="C20" s="287"/>
+      <c r="D20" s="287"/>
+      <c r="E20" s="400" t="s">
         <v>550</v>
       </c>
-      <c r="F20" s="288"/>
-      <c r="G20" s="288"/>
-      <c r="H20" s="410" t="s">
+      <c r="F20" s="287"/>
+      <c r="G20" s="287"/>
+      <c r="H20" s="400" t="s">
         <v>697</v>
       </c>
-      <c r="I20" s="271" t="s">
+      <c r="I20" s="270" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="220" t="s">
+      <c r="A21" s="219" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="295"/>
-      <c r="C21" s="232"/>
-      <c r="D21" s="288"/>
-      <c r="E21" s="315"/>
-      <c r="F21" s="288"/>
-      <c r="G21" s="288"/>
-      <c r="H21" s="288"/>
-      <c r="I21" s="293"/>
+      <c r="B21" s="294"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="287"/>
+      <c r="E21" s="314"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="287"/>
+      <c r="H21" s="287"/>
+      <c r="I21" s="292"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="253" t="s">
+      <c r="A22" s="252" t="s">
         <v>388</v>
       </c>
-      <c r="B22" s="334"/>
-      <c r="C22" s="323"/>
-      <c r="D22" s="323"/>
-      <c r="E22" s="332"/>
-      <c r="F22" s="323"/>
-      <c r="G22" s="332"/>
-      <c r="H22" s="384"/>
-      <c r="I22" s="326"/>
+      <c r="B22" s="333"/>
+      <c r="C22" s="322"/>
+      <c r="D22" s="322"/>
+      <c r="E22" s="331"/>
+      <c r="F22" s="322"/>
+      <c r="G22" s="331"/>
+      <c r="H22" s="379"/>
+      <c r="I22" s="325"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="636" t="s">
+      <c r="A23" s="638" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="637"/>
-      <c r="C23" s="637"/>
-      <c r="D23" s="637"/>
-      <c r="E23" s="637"/>
-      <c r="F23" s="637"/>
-      <c r="G23" s="637"/>
-      <c r="H23" s="637"/>
-      <c r="I23" s="638"/>
+      <c r="B23" s="639"/>
+      <c r="C23" s="639"/>
+      <c r="D23" s="639"/>
+      <c r="E23" s="639"/>
+      <c r="F23" s="639"/>
+      <c r="G23" s="639"/>
+      <c r="H23" s="639"/>
+      <c r="I23" s="640"/>
     </row>
     <row r="24" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="220" t="s">
+      <c r="A24" s="219" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="662" t="s">
+      <c r="B24" s="664" t="s">
         <v>686</v>
       </c>
-      <c r="C24" s="663"/>
-      <c r="D24" s="663"/>
-      <c r="E24" s="290"/>
+      <c r="C24" s="665"/>
+      <c r="D24" s="665"/>
+      <c r="E24" s="289"/>
       <c r="F24" s="151"/>
-      <c r="G24" s="291" t="s">
+      <c r="G24" s="290" t="s">
         <v>533</v>
       </c>
-      <c r="H24" s="290"/>
-      <c r="I24" s="292"/>
+      <c r="H24" s="289"/>
+      <c r="I24" s="291"/>
     </row>
     <row r="25" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="220" t="s">
+      <c r="A25" s="219" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="285" t="s">
+      <c r="B25" s="284" t="s">
         <v>385</v>
       </c>
-      <c r="C25" s="405" t="s">
+      <c r="C25" s="395" t="s">
         <v>400</v>
       </c>
-      <c r="D25" s="227" t="s">
+      <c r="D25" s="226" t="s">
         <v>627</v>
       </c>
-      <c r="E25" s="227" t="s">
+      <c r="E25" s="226" t="s">
         <v>628</v>
       </c>
-      <c r="F25" s="629" t="s">
+      <c r="F25" s="631" t="s">
         <v>681</v>
       </c>
-      <c r="G25" s="629"/>
-      <c r="H25" s="629"/>
-      <c r="I25" s="246"/>
+      <c r="G25" s="631"/>
+      <c r="H25" s="631"/>
+      <c r="I25" s="245"/>
     </row>
     <row r="26" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="220" t="s">
+      <c r="A26" s="219" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="649" t="s">
+      <c r="B26" s="651" t="s">
         <v>684</v>
       </c>
-      <c r="C26" s="650"/>
-      <c r="D26" s="650"/>
-      <c r="E26" s="230"/>
-      <c r="F26" s="346"/>
-      <c r="G26" s="346"/>
-      <c r="H26" s="346"/>
-      <c r="I26" s="233"/>
+      <c r="C26" s="652"/>
+      <c r="D26" s="652"/>
+      <c r="E26" s="229"/>
+      <c r="F26" s="345"/>
+      <c r="G26" s="345"/>
+      <c r="H26" s="345"/>
+      <c r="I26" s="232"/>
     </row>
     <row r="27" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="220" t="s">
+      <c r="A27" s="219" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="651" t="s">
+      <c r="B27" s="653" t="s">
         <v>685</v>
       </c>
-      <c r="C27" s="652"/>
-      <c r="D27" s="652"/>
-      <c r="E27" s="323"/>
-      <c r="F27" s="661" t="s">
+      <c r="C27" s="654"/>
+      <c r="D27" s="654"/>
+      <c r="E27" s="322"/>
+      <c r="F27" s="663" t="s">
         <v>682</v>
       </c>
-      <c r="G27" s="661"/>
-      <c r="H27" s="661"/>
-      <c r="I27" s="326"/>
+      <c r="G27" s="663"/>
+      <c r="H27" s="663"/>
+      <c r="I27" s="325"/>
     </row>
     <row r="28" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="220" t="s">
+      <c r="A28" s="219" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="656" t="s">
+      <c r="B28" s="658" t="s">
         <v>491</v>
       </c>
-      <c r="C28" s="657"/>
-      <c r="D28" s="657"/>
-      <c r="E28" s="657"/>
-      <c r="F28" s="657"/>
-      <c r="G28" s="657"/>
-      <c r="H28" s="657"/>
-      <c r="I28" s="658"/>
+      <c r="C28" s="659"/>
+      <c r="D28" s="659"/>
+      <c r="E28" s="659"/>
+      <c r="F28" s="659"/>
+      <c r="G28" s="659"/>
+      <c r="H28" s="659"/>
+      <c r="I28" s="660"/>
     </row>
     <row r="29" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="220" t="s">
+      <c r="A29" s="219" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="639" t="s">
+      <c r="B29" s="641" t="s">
         <v>491</v>
       </c>
-      <c r="C29" s="640"/>
-      <c r="D29" s="640"/>
-      <c r="E29" s="641"/>
-      <c r="F29" s="325"/>
-      <c r="G29" s="335"/>
-      <c r="H29" s="335"/>
-      <c r="I29" s="336"/>
+      <c r="C29" s="642"/>
+      <c r="D29" s="642"/>
+      <c r="E29" s="643"/>
+      <c r="F29" s="324"/>
+      <c r="G29" s="334"/>
+      <c r="H29" s="334"/>
+      <c r="I29" s="335"/>
     </row>
     <row r="30" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="220" t="s">
+      <c r="A30" s="219" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="337"/>
-      <c r="C30" s="630" t="s">
+      <c r="B30" s="336"/>
+      <c r="C30" s="632" t="s">
         <v>683</v>
       </c>
-      <c r="D30" s="630"/>
-      <c r="E30" s="630"/>
-      <c r="F30" s="288"/>
-      <c r="G30" s="659" t="s">
+      <c r="D30" s="632"/>
+      <c r="E30" s="632"/>
+      <c r="F30" s="287"/>
+      <c r="G30" s="661" t="s">
         <v>680</v>
       </c>
-      <c r="H30" s="659"/>
-      <c r="I30" s="660"/>
+      <c r="H30" s="661"/>
+      <c r="I30" s="662"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="220" t="s">
+      <c r="A31" s="219" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="294"/>
-      <c r="C31" s="247"/>
+      <c r="B31" s="293"/>
+      <c r="C31" s="246"/>
       <c r="D31" s="130" t="s">
         <v>638</v>
       </c>
-      <c r="E31" s="237"/>
-      <c r="F31" s="237"/>
-      <c r="G31" s="237"/>
-      <c r="H31" s="299"/>
-      <c r="I31" s="218" t="s">
+      <c r="E31" s="236"/>
+      <c r="F31" s="236"/>
+      <c r="G31" s="236"/>
+      <c r="H31" s="298"/>
+      <c r="I31" s="217" t="s">
         <v>310</v>
       </c>
       <c r="J31" s="132"/>
@@ -12789,17 +12769,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="675" t="s">
+      <c r="A1" s="666" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="676"/>
-      <c r="C1" s="676"/>
-      <c r="D1" s="676"/>
-      <c r="E1" s="676"/>
-      <c r="F1" s="676"/>
-      <c r="G1" s="676"/>
-      <c r="H1" s="676"/>
-      <c r="I1" s="677"/>
+      <c r="B1" s="667"/>
+      <c r="C1" s="667"/>
+      <c r="D1" s="667"/>
+      <c r="E1" s="667"/>
+      <c r="F1" s="667"/>
+      <c r="G1" s="667"/>
+      <c r="H1" s="667"/>
+      <c r="I1" s="668"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -12860,217 +12840,217 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="678" t="s">
+      <c r="A4" s="669" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="679"/>
-      <c r="C4" s="679"/>
-      <c r="D4" s="679"/>
-      <c r="E4" s="679"/>
-      <c r="F4" s="679"/>
-      <c r="G4" s="679"/>
-      <c r="H4" s="679"/>
-      <c r="I4" s="680"/>
+      <c r="B4" s="670"/>
+      <c r="C4" s="670"/>
+      <c r="D4" s="670"/>
+      <c r="E4" s="670"/>
+      <c r="F4" s="670"/>
+      <c r="G4" s="670"/>
+      <c r="H4" s="670"/>
+      <c r="I4" s="671"/>
     </row>
     <row r="5" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="347" t="s">
+      <c r="A5" s="346" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="372" t="s">
+      <c r="B5" s="367" t="s">
         <v>592</v>
       </c>
-      <c r="C5" s="394" t="s">
+      <c r="C5" s="387" t="s">
         <v>287</v>
       </c>
-      <c r="D5" s="263" t="s">
+      <c r="D5" s="262" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="263" t="s">
+      <c r="E5" s="262" t="s">
         <v>321</v>
       </c>
-      <c r="F5" s="376" t="s">
+      <c r="F5" s="371" t="s">
         <v>596</v>
       </c>
-      <c r="G5" s="377" t="s">
+      <c r="G5" s="372" t="s">
         <v>331</v>
       </c>
-      <c r="H5" s="289"/>
-      <c r="I5" s="281"/>
+      <c r="H5" s="288"/>
+      <c r="I5" s="280"/>
     </row>
     <row r="6" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="373" t="s">
+      <c r="B6" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="C6" s="397" t="s">
+      <c r="C6" s="390" t="s">
         <v>295</v>
       </c>
-      <c r="D6" s="263" t="s">
+      <c r="D6" s="262" t="s">
         <v>325</v>
       </c>
-      <c r="E6" s="263" t="s">
+      <c r="E6" s="262" t="s">
         <v>326</v>
       </c>
-      <c r="F6" s="266" t="s">
+      <c r="F6" s="265" t="s">
         <v>573</v>
       </c>
-      <c r="G6" s="263" t="s">
+      <c r="G6" s="262" t="s">
         <v>325</v>
       </c>
-      <c r="H6" s="288"/>
-      <c r="I6" s="387"/>
+      <c r="H6" s="287"/>
+      <c r="I6" s="382"/>
     </row>
     <row r="7" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="373" t="s">
+      <c r="B7" s="368" t="s">
         <v>593</v>
       </c>
-      <c r="C7" s="397" t="s">
+      <c r="C7" s="390" t="s">
         <v>290</v>
       </c>
-      <c r="D7" s="401" t="s">
+      <c r="D7" s="392" t="s">
         <v>305</v>
       </c>
-      <c r="E7" s="397" t="s">
+      <c r="E7" s="390" t="s">
         <v>486</v>
       </c>
-      <c r="F7" s="400" t="s">
+      <c r="F7" s="391" t="s">
         <v>426</v>
       </c>
-      <c r="G7" s="266" t="s">
+      <c r="G7" s="265" t="s">
         <v>571</v>
       </c>
-      <c r="H7" s="401" t="s">
+      <c r="H7" s="392" t="s">
         <v>304</v>
       </c>
-      <c r="I7" s="265"/>
+      <c r="I7" s="264"/>
     </row>
     <row r="8" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="373" t="s">
+      <c r="B8" s="368" t="s">
         <v>642</v>
       </c>
-      <c r="C8" s="396" t="s">
+      <c r="C8" s="389" t="s">
         <v>576</v>
       </c>
-      <c r="D8" s="400" t="s">
+      <c r="D8" s="391" t="s">
         <v>377</v>
       </c>
-      <c r="E8" s="400" t="s">
+      <c r="E8" s="391" t="s">
         <v>376</v>
       </c>
-      <c r="F8" s="396" t="s">
+      <c r="F8" s="389" t="s">
         <v>578</v>
       </c>
-      <c r="G8" s="288"/>
-      <c r="H8" s="267"/>
-      <c r="I8" s="268"/>
+      <c r="G8" s="287"/>
+      <c r="H8" s="266"/>
+      <c r="I8" s="267"/>
     </row>
     <row r="9" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="374" t="s">
+      <c r="B9" s="369" t="s">
         <v>590</v>
       </c>
-      <c r="C9" s="393" t="s">
+      <c r="C9" s="386" t="s">
         <v>612</v>
       </c>
-      <c r="D9" s="403" t="s">
+      <c r="D9" s="394" t="s">
         <v>587</v>
       </c>
-      <c r="E9" s="403" t="s">
+      <c r="E9" s="394" t="s">
         <v>588</v>
       </c>
-      <c r="F9" s="396" t="s">
+      <c r="F9" s="389" t="s">
         <v>542</v>
       </c>
-      <c r="G9" s="396" t="s">
+      <c r="G9" s="389" t="s">
         <v>582</v>
       </c>
-      <c r="H9" s="315"/>
-      <c r="I9" s="268"/>
+      <c r="H9" s="314"/>
+      <c r="I9" s="267"/>
     </row>
     <row r="10" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="359" t="s">
+      <c r="B10" s="354" t="s">
         <v>597</v>
       </c>
-      <c r="C10" s="288"/>
-      <c r="D10" s="400" t="s">
+      <c r="C10" s="287"/>
+      <c r="D10" s="391" t="s">
         <v>369</v>
       </c>
-      <c r="E10" s="400" t="s">
+      <c r="E10" s="391" t="s">
         <v>370</v>
       </c>
-      <c r="F10" s="217" t="s">
+      <c r="F10" s="216" t="s">
         <v>600</v>
       </c>
-      <c r="G10" s="217" t="s">
+      <c r="G10" s="216" t="s">
         <v>428</v>
       </c>
       <c r="H10" s="140" t="s">
         <v>531</v>
       </c>
-      <c r="I10" s="268"/>
+      <c r="I10" s="267"/>
     </row>
     <row r="11" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="375" t="s">
+      <c r="B11" s="370" t="s">
         <v>595</v>
       </c>
-      <c r="C11" s="263" t="s">
+      <c r="C11" s="262" t="s">
         <v>423</v>
       </c>
-      <c r="D11" s="263" t="s">
+      <c r="D11" s="262" t="s">
         <v>626</v>
       </c>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="262" t="s">
         <v>625</v>
       </c>
-      <c r="F11" s="396" t="s">
+      <c r="F11" s="389" t="s">
         <v>556</v>
       </c>
-      <c r="G11" s="269"/>
-      <c r="H11" s="396" t="s">
+      <c r="G11" s="268"/>
+      <c r="H11" s="389" t="s">
         <v>574</v>
       </c>
-      <c r="I11" s="293"/>
+      <c r="I11" s="292"/>
     </row>
     <row r="12" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="378" t="s">
+      <c r="B12" s="373" t="s">
         <v>570</v>
       </c>
       <c r="C12" s="140" t="s">
         <v>648</v>
       </c>
-      <c r="D12" s="266" t="s">
+      <c r="D12" s="265" t="s">
         <v>569</v>
       </c>
-      <c r="E12" s="400" t="s">
+      <c r="E12" s="391" t="s">
         <v>373</v>
       </c>
-      <c r="F12" s="217" t="s">
+      <c r="F12" s="216" t="s">
         <v>602</v>
       </c>
-      <c r="G12" s="288"/>
-      <c r="H12" s="396" t="s">
+      <c r="G12" s="287"/>
+      <c r="H12" s="389" t="s">
         <v>575</v>
       </c>
-      <c r="I12" s="296" t="s">
+      <c r="I12" s="295" t="s">
         <v>599</v>
       </c>
     </row>
@@ -13078,26 +13058,26 @@
       <c r="A13" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="378" t="s">
+      <c r="B13" s="373" t="s">
         <v>589</v>
       </c>
-      <c r="C13" s="393" t="s">
+      <c r="C13" s="386" t="s">
         <v>607</v>
       </c>
-      <c r="D13" s="217" t="s">
+      <c r="D13" s="216" t="s">
         <v>601</v>
       </c>
-      <c r="E13" s="266" t="s">
+      <c r="E13" s="265" t="s">
         <v>344</v>
       </c>
-      <c r="F13" s="217" t="s">
+      <c r="F13" s="216" t="s">
         <v>614</v>
       </c>
-      <c r="G13" s="288"/>
-      <c r="H13" s="396" t="s">
+      <c r="G13" s="287"/>
+      <c r="H13" s="389" t="s">
         <v>430</v>
       </c>
-      <c r="I13" s="264" t="s">
+      <c r="I13" s="263" t="s">
         <v>320</v>
       </c>
     </row>
@@ -13105,351 +13085,346 @@
       <c r="A14" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="378" t="s">
+      <c r="B14" s="373" t="s">
         <v>454</v>
       </c>
-      <c r="C14" s="288"/>
-      <c r="D14" s="263" t="s">
+      <c r="C14" s="287"/>
+      <c r="D14" s="262" t="s">
         <v>334</v>
       </c>
-      <c r="E14" s="263" t="s">
+      <c r="E14" s="262" t="s">
         <v>324</v>
       </c>
-      <c r="F14" s="396" t="s">
+      <c r="F14" s="389" t="s">
         <v>584</v>
       </c>
-      <c r="G14" s="263" t="s">
+      <c r="G14" s="262" t="s">
         <v>335</v>
       </c>
-      <c r="H14" s="396" t="s">
+      <c r="H14" s="389" t="s">
         <v>585</v>
       </c>
-      <c r="I14" s="281"/>
+      <c r="I14" s="280"/>
     </row>
     <row r="15" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="219" t="s">
         <v>151</v>
       </c>
       <c r="B15" s="151"/>
-      <c r="C15" s="288"/>
-      <c r="D15" s="266" t="s">
+      <c r="C15" s="287"/>
+      <c r="D15" s="265" t="s">
         <v>424</v>
       </c>
-      <c r="E15" s="266" t="s">
+      <c r="E15" s="265" t="s">
         <v>544</v>
       </c>
-      <c r="F15" s="266" t="s">
+      <c r="F15" s="265" t="s">
         <v>425</v>
       </c>
-      <c r="G15" s="266" t="s">
+      <c r="G15" s="265" t="s">
         <v>577</v>
       </c>
-      <c r="H15" s="288"/>
-      <c r="I15" s="314" t="s">
+      <c r="H15" s="287"/>
+      <c r="I15" s="313" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="220" t="s">
+      <c r="A16" s="219" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="379" t="s">
+      <c r="B16" s="374" t="s">
         <v>583</v>
       </c>
-      <c r="C16" s="396" t="s">
-        <v>410</v>
-      </c>
-      <c r="D16" s="396" t="s">
+      <c r="C16" s="287"/>
+      <c r="D16" s="389" t="s">
         <v>581</v>
       </c>
-      <c r="E16" s="262" t="s">
+      <c r="E16" s="261" t="s">
         <v>299</v>
       </c>
-      <c r="F16" s="288"/>
-      <c r="G16" s="266" t="s">
+      <c r="F16" s="287"/>
+      <c r="G16" s="265" t="s">
         <v>564</v>
       </c>
-      <c r="H16" s="266" t="s">
+      <c r="H16" s="265" t="s">
         <v>580</v>
       </c>
-      <c r="I16" s="281"/>
+      <c r="I16" s="280"/>
     </row>
     <row r="17" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="220" t="s">
+      <c r="A17" s="219" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="373" t="s">
+      <c r="B17" s="368" t="s">
         <v>594</v>
       </c>
-      <c r="C17" s="397" t="s">
+      <c r="C17" s="390" t="s">
         <v>292</v>
       </c>
-      <c r="D17" s="266" t="s">
+      <c r="D17" s="265" t="s">
         <v>420</v>
       </c>
-      <c r="E17" s="397" t="s">
+      <c r="E17" s="390" t="s">
         <v>317</v>
       </c>
-      <c r="G17" s="266" t="s">
+      <c r="G17" s="265" t="s">
         <v>586</v>
       </c>
-      <c r="H17" s="266" t="s">
+      <c r="H17" s="265" t="s">
         <v>579</v>
       </c>
-      <c r="I17" s="243"/>
+      <c r="I17" s="242"/>
     </row>
     <row r="18" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="220" t="s">
+      <c r="A18" s="219" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="380" t="s">
+      <c r="B18" s="375" t="s">
         <v>437</v>
       </c>
-      <c r="C18" s="288"/>
-      <c r="D18" s="395" t="s">
+      <c r="C18" s="287"/>
+      <c r="D18" s="388" t="s">
         <v>641</v>
       </c>
-      <c r="E18" s="396" t="s">
+      <c r="E18" s="389" t="s">
         <v>349</v>
       </c>
-      <c r="F18" s="266" t="s">
+      <c r="F18" s="265" t="s">
         <v>348</v>
       </c>
-      <c r="G18" s="288"/>
-      <c r="I18" s="370" t="s">
+      <c r="G18" s="287"/>
+      <c r="I18" s="365" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="220" t="s">
+      <c r="A19" s="219" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="374" t="s">
+      <c r="B19" s="369" t="s">
         <v>598</v>
       </c>
-      <c r="C19" s="262" t="s">
+      <c r="C19" s="261" t="s">
         <v>315</v>
       </c>
-      <c r="D19" s="261" t="s">
+      <c r="D19" s="260" t="s">
         <v>316</v>
       </c>
-      <c r="E19" s="424" t="s">
+      <c r="E19" s="414" t="s">
         <v>546</v>
       </c>
-      <c r="F19" s="288"/>
-      <c r="G19" s="288"/>
-      <c r="H19" s="288"/>
-      <c r="I19" s="271" t="s">
+      <c r="F19" s="287"/>
+      <c r="G19" s="287"/>
+      <c r="H19" s="287"/>
+      <c r="I19" s="270" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="220" t="s">
+      <c r="A20" s="219" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="381"/>
-      <c r="C20" s="288"/>
-      <c r="D20" s="401" t="s">
+      <c r="B20" s="376"/>
+      <c r="C20" s="287"/>
+      <c r="D20" s="392" t="s">
         <v>447</v>
       </c>
-      <c r="E20" s="397" t="s">
+      <c r="E20" s="390" t="s">
         <v>418</v>
       </c>
-      <c r="F20" s="260" t="s">
+      <c r="F20" s="259" t="s">
         <v>635</v>
       </c>
-      <c r="G20" s="397" t="s">
+      <c r="G20" s="390" t="s">
         <v>448</v>
       </c>
-      <c r="H20" s="260" t="s">
+      <c r="H20" s="259" t="s">
         <v>633</v>
       </c>
-      <c r="I20" s="402" t="s">
+      <c r="I20" s="393" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="220" t="s">
+      <c r="A21" s="219" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="382"/>
-      <c r="C21" s="288"/>
-      <c r="D21" s="288"/>
-      <c r="E21" s="288"/>
-      <c r="F21" s="288"/>
-      <c r="G21" s="288"/>
-      <c r="H21" s="288"/>
-      <c r="I21" s="371"/>
+      <c r="B21" s="377"/>
+      <c r="C21" s="287"/>
+      <c r="D21" s="287"/>
+      <c r="E21" s="287"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="287"/>
+      <c r="H21" s="287"/>
+      <c r="I21" s="366"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="253" t="s">
+      <c r="A22" s="252" t="s">
         <v>388</v>
       </c>
-      <c r="B22" s="383"/>
-      <c r="C22" s="384"/>
-      <c r="D22" s="323"/>
-      <c r="E22" s="323"/>
-      <c r="F22" s="385"/>
-      <c r="G22" s="332"/>
-      <c r="H22" s="385"/>
-      <c r="I22" s="386"/>
+      <c r="B22" s="378"/>
+      <c r="C22" s="379"/>
+      <c r="D22" s="322"/>
+      <c r="E22" s="322"/>
+      <c r="F22" s="380"/>
+      <c r="G22" s="331"/>
+      <c r="H22" s="380"/>
+      <c r="I22" s="381"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="681" t="s">
+      <c r="A23" s="672" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="682"/>
-      <c r="C23" s="682"/>
-      <c r="D23" s="682"/>
-      <c r="E23" s="682"/>
-      <c r="F23" s="682"/>
-      <c r="G23" s="682"/>
-      <c r="H23" s="682"/>
-      <c r="I23" s="683"/>
+      <c r="B23" s="673"/>
+      <c r="C23" s="673"/>
+      <c r="D23" s="673"/>
+      <c r="E23" s="673"/>
+      <c r="F23" s="673"/>
+      <c r="G23" s="673"/>
+      <c r="H23" s="673"/>
+      <c r="I23" s="674"/>
     </row>
     <row r="24" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="347" t="s">
+      <c r="A24" s="346" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="674" t="s">
+      <c r="B24" s="689" t="s">
         <v>678</v>
       </c>
-      <c r="C24" s="648"/>
-      <c r="D24" s="648"/>
-      <c r="E24" s="348"/>
-      <c r="F24" s="289"/>
-      <c r="G24" s="665" t="s">
+      <c r="C24" s="650"/>
+      <c r="D24" s="650"/>
+      <c r="E24" s="690" t="s">
+        <v>490</v>
+      </c>
+      <c r="F24" s="691"/>
+      <c r="G24" s="680" t="s">
         <v>670</v>
       </c>
-      <c r="H24" s="665"/>
-      <c r="I24" s="667"/>
+      <c r="H24" s="680"/>
+      <c r="I24" s="682"/>
     </row>
     <row r="25" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="672" t="s">
+      <c r="B25" s="687" t="s">
         <v>677</v>
       </c>
-      <c r="C25" s="650"/>
-      <c r="D25" s="650"/>
-      <c r="E25" s="272"/>
+      <c r="C25" s="652"/>
+      <c r="D25" s="652"/>
+      <c r="E25" s="271"/>
       <c r="F25" s="151"/>
-      <c r="G25" s="684" t="s">
+      <c r="G25" s="675" t="s">
         <v>671</v>
       </c>
-      <c r="H25" s="684"/>
-      <c r="I25" s="685"/>
+      <c r="H25" s="675"/>
+      <c r="I25" s="676"/>
     </row>
     <row r="26" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="672" t="s">
+      <c r="B26" s="687" t="s">
         <v>676</v>
       </c>
-      <c r="C26" s="650"/>
-      <c r="D26" s="650"/>
-      <c r="E26" s="273"/>
-      <c r="F26" s="273"/>
-      <c r="G26" s="686" t="s">
+      <c r="C26" s="652"/>
+      <c r="D26" s="652"/>
+      <c r="E26" s="272"/>
+      <c r="F26" s="272"/>
+      <c r="G26" s="677" t="s">
         <v>672</v>
       </c>
-      <c r="H26" s="686"/>
-      <c r="I26" s="687"/>
+      <c r="H26" s="677"/>
+      <c r="I26" s="678"/>
     </row>
     <row r="27" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="673" t="s">
+      <c r="B27" s="688" t="s">
         <v>675</v>
       </c>
-      <c r="C27" s="652"/>
-      <c r="D27" s="652"/>
-      <c r="E27" s="327"/>
-      <c r="F27" s="327"/>
-      <c r="G27" s="668" t="s">
+      <c r="C27" s="654"/>
+      <c r="D27" s="654"/>
+      <c r="E27" s="326"/>
+      <c r="F27" s="326"/>
+      <c r="G27" s="683" t="s">
         <v>674</v>
       </c>
-      <c r="H27" s="668"/>
-      <c r="I27" s="669"/>
+      <c r="H27" s="683"/>
+      <c r="I27" s="684"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="639" t="s">
+      <c r="B28" s="641" t="s">
         <v>491</v>
       </c>
-      <c r="C28" s="640"/>
-      <c r="D28" s="640"/>
-      <c r="E28" s="640"/>
-      <c r="F28" s="640"/>
-      <c r="G28" s="640"/>
-      <c r="H28" s="640"/>
-      <c r="I28" s="641"/>
+      <c r="C28" s="642"/>
+      <c r="D28" s="642"/>
+      <c r="E28" s="642"/>
+      <c r="F28" s="642"/>
+      <c r="G28" s="642"/>
+      <c r="H28" s="642"/>
+      <c r="I28" s="643"/>
     </row>
     <row r="29" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="639" t="s">
+      <c r="B29" s="641" t="s">
         <v>491</v>
       </c>
-      <c r="C29" s="640"/>
-      <c r="D29" s="640"/>
-      <c r="E29" s="641"/>
-      <c r="F29" s="329"/>
-      <c r="G29" s="670" t="s">
+      <c r="C29" s="642"/>
+      <c r="D29" s="642"/>
+      <c r="E29" s="643"/>
+      <c r="F29" s="328"/>
+      <c r="G29" s="685" t="s">
         <v>673</v>
       </c>
-      <c r="H29" s="670"/>
-      <c r="I29" s="671"/>
+      <c r="H29" s="685"/>
+      <c r="I29" s="686"/>
     </row>
     <row r="30" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="220" t="s">
+      <c r="A30" s="219" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="328"/>
-      <c r="C30" s="664" t="s">
+      <c r="B30" s="327"/>
+      <c r="C30" s="679" t="s">
         <v>679</v>
       </c>
-      <c r="D30" s="665"/>
-      <c r="E30" s="666"/>
-      <c r="F30" s="639" t="s">
+      <c r="D30" s="680"/>
+      <c r="E30" s="681"/>
+      <c r="F30" s="641" t="s">
         <v>491</v>
       </c>
-      <c r="G30" s="640"/>
-      <c r="H30" s="640"/>
-      <c r="I30" s="641"/>
+      <c r="G30" s="642"/>
+      <c r="H30" s="642"/>
+      <c r="I30" s="643"/>
     </row>
     <row r="31" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="274"/>
-      <c r="C31" s="275"/>
-      <c r="D31" s="330" t="s">
+      <c r="B31" s="273"/>
+      <c r="C31" s="274"/>
+      <c r="D31" s="329" t="s">
         <v>637</v>
       </c>
-      <c r="E31" s="275"/>
-      <c r="F31" s="330" t="s">
+      <c r="E31" s="274"/>
+      <c r="F31" s="329" t="s">
         <v>310</v>
       </c>
-      <c r="G31" s="276" t="s">
+      <c r="G31" s="275" t="s">
         <v>638</v>
       </c>
-      <c r="H31" s="299"/>
-      <c r="I31" s="331"/>
+      <c r="H31" s="298"/>
+      <c r="I31" s="330"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+  <mergeCells count="17">
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="G27:I27"/>
@@ -13461,6 +13436,12 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.21" top="0.23" bottom="0.22" header="0.17" footer="0.17"/>

--- a/include/BSCS.xlsx
+++ b/include/BSCS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Spring-2018" sheetId="1" r:id="rId1"/>
@@ -4760,21 +4760,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4817,6 +4802,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -5135,6 +5135,159 @@
     <xf numFmtId="0" fontId="54" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5218,159 +5371,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5471,6 +5471,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5508,43 +5547,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="27" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5574,21 +5589,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5749,7 +5749,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6327,16 +6327,16 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="427" t="s">
+      <c r="H12" s="441" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="427"/>
-      <c r="J12" s="427"/>
-      <c r="K12" s="427"/>
-      <c r="L12" s="427"/>
-      <c r="M12" s="427"/>
-      <c r="N12" s="427"/>
-      <c r="O12" s="427"/>
+      <c r="I12" s="441"/>
+      <c r="J12" s="441"/>
+      <c r="K12" s="441"/>
+      <c r="L12" s="441"/>
+      <c r="M12" s="441"/>
+      <c r="N12" s="441"/>
+      <c r="O12" s="441"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -6350,17 +6350,17 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="428" t="s">
+      <c r="H13" s="442" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="428"/>
-      <c r="J13" s="428"/>
-      <c r="K13" s="428"/>
-      <c r="L13" s="428"/>
-      <c r="M13" s="428"/>
-      <c r="N13" s="428"/>
-      <c r="O13" s="428"/>
-      <c r="P13" s="428"/>
+      <c r="I13" s="442"/>
+      <c r="J13" s="442"/>
+      <c r="K13" s="442"/>
+      <c r="L13" s="442"/>
+      <c r="M13" s="442"/>
+      <c r="N13" s="442"/>
+      <c r="O13" s="442"/>
+      <c r="P13" s="442"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="7"/>
@@ -6373,17 +6373,17 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="429" t="s">
+      <c r="H14" s="443" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="429"/>
-      <c r="J14" s="429"/>
-      <c r="K14" s="429"/>
-      <c r="L14" s="429"/>
-      <c r="M14" s="429"/>
-      <c r="N14" s="429"/>
-      <c r="O14" s="429"/>
-      <c r="P14" s="429"/>
+      <c r="I14" s="443"/>
+      <c r="J14" s="443"/>
+      <c r="K14" s="443"/>
+      <c r="L14" s="443"/>
+      <c r="M14" s="443"/>
+      <c r="N14" s="443"/>
+      <c r="O14" s="443"/>
+      <c r="P14" s="443"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="7"/>
@@ -6396,17 +6396,17 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="430" t="s">
+      <c r="H15" s="444" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="430"/>
-      <c r="J15" s="430"/>
-      <c r="K15" s="430"/>
-      <c r="L15" s="430"/>
-      <c r="M15" s="430"/>
-      <c r="N15" s="430"/>
-      <c r="O15" s="430"/>
-      <c r="P15" s="430"/>
+      <c r="I15" s="444"/>
+      <c r="J15" s="444"/>
+      <c r="K15" s="444"/>
+      <c r="L15" s="444"/>
+      <c r="M15" s="444"/>
+      <c r="N15" s="444"/>
+      <c r="O15" s="444"/>
+      <c r="P15" s="444"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="7"/>
@@ -6419,17 +6419,17 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="431" t="s">
+      <c r="H16" s="445" t="s">
         <v>643</v>
       </c>
-      <c r="I16" s="431"/>
-      <c r="J16" s="431"/>
-      <c r="K16" s="431"/>
-      <c r="L16" s="431"/>
-      <c r="M16" s="431"/>
-      <c r="N16" s="431"/>
-      <c r="O16" s="431"/>
-      <c r="P16" s="431"/>
+      <c r="I16" s="445"/>
+      <c r="J16" s="445"/>
+      <c r="K16" s="445"/>
+      <c r="L16" s="445"/>
+      <c r="M16" s="445"/>
+      <c r="N16" s="445"/>
+      <c r="O16" s="445"/>
+      <c r="P16" s="445"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="7"/>
@@ -6612,13 +6612,13 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="434" t="s">
+      <c r="O24" s="429" t="s">
         <v>7</v>
       </c>
-      <c r="P24" s="435"/>
-      <c r="Q24" s="435"/>
-      <c r="R24" s="435"/>
-      <c r="S24" s="436"/>
+      <c r="P24" s="430"/>
+      <c r="Q24" s="430"/>
+      <c r="R24" s="430"/>
+      <c r="S24" s="431"/>
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="2:20" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6635,13 +6635,13 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="437" t="s">
+      <c r="O25" s="432" t="s">
         <v>198</v>
       </c>
-      <c r="P25" s="438"/>
-      <c r="Q25" s="438"/>
-      <c r="R25" s="438"/>
-      <c r="S25" s="439"/>
+      <c r="P25" s="433"/>
+      <c r="Q25" s="433"/>
+      <c r="R25" s="433"/>
+      <c r="S25" s="434"/>
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6650,23 +6650,23 @@
       <c r="D26" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="432" t="s">
+      <c r="E26" s="427" t="s">
         <v>700</v>
       </c>
-      <c r="F26" s="432"/>
-      <c r="G26" s="432"/>
-      <c r="H26" s="432"/>
-      <c r="I26" s="432"/>
+      <c r="F26" s="427"/>
+      <c r="G26" s="427"/>
+      <c r="H26" s="427"/>
+      <c r="I26" s="427"/>
       <c r="J26" s="28"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="440"/>
-      <c r="P26" s="441"/>
-      <c r="Q26" s="441"/>
-      <c r="R26" s="441"/>
-      <c r="S26" s="442"/>
+      <c r="O26" s="435"/>
+      <c r="P26" s="436"/>
+      <c r="Q26" s="436"/>
+      <c r="R26" s="436"/>
+      <c r="S26" s="437"/>
       <c r="T26" s="7"/>
     </row>
     <row r="27" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6676,24 +6676,24 @@
         <v>9</v>
       </c>
       <c r="E27" s="25"/>
-      <c r="F27" s="433" t="s">
+      <c r="F27" s="428" t="s">
         <v>701</v>
       </c>
-      <c r="G27" s="433"/>
-      <c r="H27" s="433"/>
+      <c r="G27" s="428"/>
+      <c r="H27" s="428"/>
       <c r="I27" s="26"/>
       <c r="J27" s="30"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="443" t="s">
+      <c r="O27" s="438" t="s">
         <v>10</v>
       </c>
-      <c r="P27" s="444"/>
-      <c r="Q27" s="444"/>
-      <c r="R27" s="444"/>
-      <c r="S27" s="445"/>
+      <c r="P27" s="439"/>
+      <c r="Q27" s="439"/>
+      <c r="R27" s="439"/>
+      <c r="S27" s="440"/>
       <c r="T27" s="7"/>
     </row>
     <row r="28" spans="2:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6759,16 +6759,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="H14:P14"/>
+    <mergeCell ref="H15:P15"/>
+    <mergeCell ref="H16:P16"/>
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="O24:S24"/>
     <mergeCell ref="O25:S26"/>
     <mergeCell ref="O27:S27"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="H13:P13"/>
-    <mergeCell ref="H14:P14"/>
-    <mergeCell ref="H15:P15"/>
-    <mergeCell ref="H16:P16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6783,7 +6783,7 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C21" sqref="C21:J22"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
@@ -6805,17 +6805,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="694" t="s">
+      <c r="A1" s="699" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="695"/>
-      <c r="C1" s="695"/>
-      <c r="D1" s="695"/>
-      <c r="E1" s="695"/>
-      <c r="F1" s="695"/>
-      <c r="G1" s="695"/>
-      <c r="H1" s="695"/>
-      <c r="I1" s="696"/>
+      <c r="B1" s="700"/>
+      <c r="C1" s="700"/>
+      <c r="D1" s="700"/>
+      <c r="E1" s="700"/>
+      <c r="F1" s="700"/>
+      <c r="G1" s="700"/>
+      <c r="H1" s="700"/>
+      <c r="I1" s="701"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="219" t="s">
@@ -6876,17 +6876,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="697" t="s">
+      <c r="A4" s="702" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="698"/>
-      <c r="C4" s="698"/>
-      <c r="D4" s="698"/>
-      <c r="E4" s="698"/>
-      <c r="F4" s="698"/>
-      <c r="G4" s="698"/>
-      <c r="H4" s="698"/>
-      <c r="I4" s="699"/>
+      <c r="B4" s="703"/>
+      <c r="C4" s="703"/>
+      <c r="D4" s="703"/>
+      <c r="E4" s="703"/>
+      <c r="F4" s="703"/>
+      <c r="G4" s="703"/>
+      <c r="H4" s="703"/>
+      <c r="I4" s="704"/>
     </row>
     <row r="5" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="301" t="s">
@@ -6907,7 +6907,9 @@
       <c r="F5" s="409" t="s">
         <v>387</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="398" t="s">
+        <v>343</v>
+      </c>
       <c r="H5" s="288"/>
       <c r="I5" s="296"/>
     </row>
@@ -6938,9 +6940,6 @@
       <c r="A7" s="219" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="398" t="s">
-        <v>343</v>
-      </c>
       <c r="C7" s="400" t="s">
         <v>441</v>
       </c>
@@ -6959,7 +6958,7 @@
       <c r="A8" s="219" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="151"/>
+      <c r="B8" s="294"/>
       <c r="C8" s="395" t="s">
         <v>438</v>
       </c>
@@ -7134,7 +7133,9 @@
       <c r="A17" s="219" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="151"/>
+      <c r="B17" s="215" t="s">
+        <v>475</v>
+      </c>
       <c r="C17" s="400" t="s">
         <v>462</v>
       </c>
@@ -7145,9 +7146,6 @@
       <c r="F17" s="400" t="s">
         <v>548</v>
       </c>
-      <c r="G17" s="215" t="s">
-        <v>475</v>
-      </c>
       <c r="H17" s="400" t="s">
         <v>547</v>
       </c>
@@ -7184,7 +7182,9 @@
       <c r="A19" s="219" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="151"/>
+      <c r="B19" s="403" t="s">
+        <v>427</v>
+      </c>
       <c r="C19" s="400" t="s">
         <v>463</v>
       </c>
@@ -7196,9 +7196,6 @@
       </c>
       <c r="F19" s="400" t="s">
         <v>477</v>
-      </c>
-      <c r="G19" s="403" t="s">
-        <v>427</v>
       </c>
       <c r="H19" s="400" t="s">
         <v>476</v>
@@ -7257,40 +7254,40 @@
       <c r="I22" s="347"/>
     </row>
     <row r="23" spans="1:9" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="697" t="s">
+      <c r="A23" s="702" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="700"/>
-      <c r="C23" s="700"/>
-      <c r="D23" s="700"/>
-      <c r="E23" s="700"/>
-      <c r="F23" s="700"/>
-      <c r="G23" s="700"/>
-      <c r="H23" s="700"/>
-      <c r="I23" s="701"/>
+      <c r="B23" s="705"/>
+      <c r="C23" s="705"/>
+      <c r="D23" s="705"/>
+      <c r="E23" s="705"/>
+      <c r="F23" s="705"/>
+      <c r="G23" s="705"/>
+      <c r="H23" s="705"/>
+      <c r="I23" s="706"/>
     </row>
     <row r="24" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="223" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="692" t="s">
+      <c r="B24" s="697" t="s">
         <v>664</v>
       </c>
-      <c r="C24" s="693"/>
-      <c r="D24" s="693"/>
+      <c r="C24" s="698"/>
+      <c r="D24" s="698"/>
       <c r="E24" s="288"/>
       <c r="F24" s="234"/>
       <c r="G24" s="650" t="s">
         <v>665</v>
       </c>
       <c r="H24" s="650"/>
-      <c r="I24" s="702"/>
+      <c r="I24" s="707"/>
     </row>
     <row r="25" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="219" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="703" t="s">
+      <c r="B25" s="692" t="s">
         <v>663</v>
       </c>
       <c r="C25" s="661"/>
@@ -7307,7 +7304,7 @@
       <c r="A26" s="219" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="703" t="s">
+      <c r="B26" s="692" t="s">
         <v>662</v>
       </c>
       <c r="C26" s="661"/>
@@ -7320,17 +7317,17 @@
         <v>667</v>
       </c>
       <c r="H26" s="631"/>
-      <c r="I26" s="705"/>
+      <c r="I26" s="694"/>
     </row>
     <row r="27" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="219" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="706" t="s">
+      <c r="B27" s="695" t="s">
         <v>687</v>
       </c>
-      <c r="C27" s="707"/>
-      <c r="D27" s="707"/>
+      <c r="C27" s="696"/>
+      <c r="D27" s="696"/>
       <c r="E27" s="320"/>
       <c r="F27" s="321"/>
       <c r="G27" s="322"/>
@@ -7371,7 +7368,7 @@
       <c r="A30" s="219" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="704" t="s">
+      <c r="B30" s="693" t="s">
         <v>669</v>
       </c>
       <c r="C30" s="632"/>
@@ -7405,6 +7402,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="G24:I24"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="B26:D26"/>
@@ -7414,11 +7416,6 @@
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="G24:I24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.2" bottom="0.24" header="0.17" footer="0.17"/>
@@ -7918,17 +7915,17 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="672" t="s">
+      <c r="A23" s="685" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="673"/>
-      <c r="C23" s="673"/>
-      <c r="D23" s="673"/>
-      <c r="E23" s="673"/>
-      <c r="F23" s="673"/>
-      <c r="G23" s="673"/>
-      <c r="H23" s="673"/>
-      <c r="I23" s="674"/>
+      <c r="B23" s="686"/>
+      <c r="C23" s="686"/>
+      <c r="D23" s="686"/>
+      <c r="E23" s="686"/>
+      <c r="F23" s="686"/>
+      <c r="G23" s="686"/>
+      <c r="H23" s="686"/>
+      <c r="I23" s="687"/>
     </row>
     <row r="24" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
@@ -7946,10 +7943,10 @@
       <c r="G24" s="716" t="s">
         <v>190</v>
       </c>
-      <c r="H24" s="690" t="s">
+      <c r="H24" s="677" t="s">
         <v>490</v>
       </c>
-      <c r="I24" s="691"/>
+      <c r="I24" s="678"/>
     </row>
     <row r="25" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
@@ -10752,30 +10749,30 @@
     </row>
     <row r="2" spans="2:12" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="37"/>
-      <c r="C2" s="586" t="s">
+      <c r="C2" s="575" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="587"/>
-      <c r="E2" s="587"/>
-      <c r="F2" s="587"/>
-      <c r="G2" s="587"/>
-      <c r="H2" s="587"/>
-      <c r="I2" s="587"/>
-      <c r="J2" s="588"/>
+      <c r="D2" s="576"/>
+      <c r="E2" s="576"/>
+      <c r="F2" s="576"/>
+      <c r="G2" s="576"/>
+      <c r="H2" s="576"/>
+      <c r="I2" s="576"/>
+      <c r="J2" s="577"/>
       <c r="K2" s="38"/>
     </row>
     <row r="3" spans="2:12" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
-      <c r="C3" s="589" t="s">
+      <c r="C3" s="578" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="590"/>
-      <c r="E3" s="590"/>
-      <c r="F3" s="590"/>
-      <c r="G3" s="590"/>
-      <c r="H3" s="590"/>
-      <c r="I3" s="590"/>
-      <c r="J3" s="591"/>
+      <c r="D3" s="579"/>
+      <c r="E3" s="579"/>
+      <c r="F3" s="579"/>
+      <c r="G3" s="579"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
       <c r="K3" s="38"/>
     </row>
     <row r="4" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10792,42 +10789,42 @@
     </row>
     <row r="5" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
-      <c r="C5" s="592" t="s">
+      <c r="C5" s="581" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="593"/>
-      <c r="E5" s="593"/>
-      <c r="F5" s="593"/>
-      <c r="G5" s="593"/>
-      <c r="H5" s="593"/>
-      <c r="I5" s="593"/>
-      <c r="J5" s="594"/>
+      <c r="D5" s="582"/>
+      <c r="E5" s="582"/>
+      <c r="F5" s="582"/>
+      <c r="G5" s="582"/>
+      <c r="H5" s="582"/>
+      <c r="I5" s="582"/>
+      <c r="J5" s="583"/>
       <c r="K5" s="38"/>
     </row>
     <row r="6" spans="2:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="37"/>
-      <c r="C6" s="595"/>
-      <c r="D6" s="596"/>
-      <c r="E6" s="596"/>
-      <c r="F6" s="596"/>
-      <c r="G6" s="596"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="596"/>
-      <c r="J6" s="597"/>
+      <c r="C6" s="584"/>
+      <c r="D6" s="585"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="585"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
       <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="37"/>
-      <c r="C7" s="605" t="s">
+      <c r="C7" s="597" t="s">
         <v>694</v>
       </c>
-      <c r="D7" s="606"/>
-      <c r="E7" s="606"/>
-      <c r="F7" s="606"/>
-      <c r="G7" s="606"/>
-      <c r="H7" s="606"/>
-      <c r="I7" s="606"/>
-      <c r="J7" s="607"/>
+      <c r="D7" s="598"/>
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="598"/>
+      <c r="J7" s="599"/>
       <c r="K7" s="38"/>
       <c r="L7" s="40"/>
     </row>
@@ -10845,112 +10842,112 @@
     </row>
     <row r="9" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="37"/>
-      <c r="C9" s="598" t="s">
+      <c r="C9" s="587" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="599"/>
-      <c r="E9" s="599"/>
-      <c r="F9" s="599"/>
-      <c r="G9" s="599"/>
-      <c r="H9" s="599"/>
-      <c r="I9" s="599"/>
-      <c r="J9" s="600"/>
+      <c r="D9" s="588"/>
+      <c r="E9" s="588"/>
+      <c r="F9" s="588"/>
+      <c r="G9" s="588"/>
+      <c r="H9" s="588"/>
+      <c r="I9" s="588"/>
+      <c r="J9" s="589"/>
       <c r="K9" s="38"/>
     </row>
     <row r="10" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
-      <c r="C10" s="601"/>
-      <c r="D10" s="602"/>
-      <c r="E10" s="602"/>
-      <c r="F10" s="602"/>
-      <c r="G10" s="602"/>
-      <c r="H10" s="603"/>
-      <c r="I10" s="603"/>
-      <c r="J10" s="604"/>
+      <c r="C10" s="590"/>
+      <c r="D10" s="591"/>
+      <c r="E10" s="591"/>
+      <c r="F10" s="591"/>
+      <c r="G10" s="591"/>
+      <c r="H10" s="592"/>
+      <c r="I10" s="592"/>
+      <c r="J10" s="593"/>
       <c r="K10" s="38"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
-      <c r="C11" s="580" t="s">
+      <c r="C11" s="594" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="581"/>
-      <c r="E11" s="581"/>
-      <c r="F11" s="581"/>
-      <c r="G11" s="582"/>
-      <c r="H11" s="583" t="s">
+      <c r="D11" s="595"/>
+      <c r="E11" s="595"/>
+      <c r="F11" s="595"/>
+      <c r="G11" s="596"/>
+      <c r="H11" s="600" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="584"/>
-      <c r="J11" s="585"/>
+      <c r="I11" s="601"/>
+      <c r="J11" s="602"/>
       <c r="K11" s="38"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="37"/>
-      <c r="C12" s="552" t="s">
+      <c r="C12" s="603" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="553"/>
-      <c r="E12" s="553"/>
-      <c r="F12" s="553"/>
-      <c r="G12" s="553"/>
-      <c r="H12" s="553"/>
-      <c r="I12" s="553"/>
-      <c r="J12" s="554"/>
+      <c r="D12" s="604"/>
+      <c r="E12" s="604"/>
+      <c r="F12" s="604"/>
+      <c r="G12" s="604"/>
+      <c r="H12" s="604"/>
+      <c r="I12" s="604"/>
+      <c r="J12" s="605"/>
       <c r="K12" s="38"/>
     </row>
     <row r="13" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
-      <c r="C13" s="555"/>
-      <c r="D13" s="556"/>
-      <c r="E13" s="556"/>
-      <c r="F13" s="556"/>
-      <c r="G13" s="556"/>
-      <c r="H13" s="556"/>
-      <c r="I13" s="556"/>
-      <c r="J13" s="557"/>
+      <c r="C13" s="606"/>
+      <c r="D13" s="607"/>
+      <c r="E13" s="607"/>
+      <c r="F13" s="607"/>
+      <c r="G13" s="607"/>
+      <c r="H13" s="607"/>
+      <c r="I13" s="607"/>
+      <c r="J13" s="608"/>
       <c r="K13" s="38"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
-      <c r="C14" s="580" t="s">
+      <c r="C14" s="594" t="s">
         <v>258</v>
       </c>
-      <c r="D14" s="581"/>
-      <c r="E14" s="581"/>
-      <c r="F14" s="581"/>
-      <c r="G14" s="582"/>
-      <c r="H14" s="583" t="s">
+      <c r="D14" s="595"/>
+      <c r="E14" s="595"/>
+      <c r="F14" s="595"/>
+      <c r="G14" s="596"/>
+      <c r="H14" s="600" t="s">
         <v>116</v>
       </c>
-      <c r="I14" s="584"/>
-      <c r="J14" s="585"/>
+      <c r="I14" s="601"/>
+      <c r="J14" s="602"/>
       <c r="K14" s="38"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="37"/>
-      <c r="C15" s="552" t="s">
+      <c r="C15" s="603" t="s">
         <v>260</v>
       </c>
-      <c r="D15" s="553"/>
-      <c r="E15" s="553"/>
-      <c r="F15" s="553"/>
-      <c r="G15" s="553"/>
-      <c r="H15" s="553"/>
-      <c r="I15" s="553"/>
-      <c r="J15" s="554"/>
+      <c r="D15" s="604"/>
+      <c r="E15" s="604"/>
+      <c r="F15" s="604"/>
+      <c r="G15" s="604"/>
+      <c r="H15" s="604"/>
+      <c r="I15" s="604"/>
+      <c r="J15" s="605"/>
       <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
-      <c r="C16" s="555"/>
-      <c r="D16" s="556"/>
-      <c r="E16" s="556"/>
-      <c r="F16" s="556"/>
-      <c r="G16" s="556"/>
-      <c r="H16" s="556"/>
-      <c r="I16" s="556"/>
-      <c r="J16" s="557"/>
+      <c r="C16" s="606"/>
+      <c r="D16" s="607"/>
+      <c r="E16" s="607"/>
+      <c r="F16" s="607"/>
+      <c r="G16" s="607"/>
+      <c r="H16" s="607"/>
+      <c r="I16" s="607"/>
+      <c r="J16" s="608"/>
       <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10967,84 +10964,84 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="37"/>
-      <c r="C18" s="570" t="s">
+      <c r="C18" s="621" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="571"/>
-      <c r="E18" s="571"/>
-      <c r="F18" s="571"/>
-      <c r="G18" s="571"/>
-      <c r="H18" s="571"/>
-      <c r="I18" s="571"/>
-      <c r="J18" s="572"/>
+      <c r="D18" s="622"/>
+      <c r="E18" s="622"/>
+      <c r="F18" s="622"/>
+      <c r="G18" s="622"/>
+      <c r="H18" s="622"/>
+      <c r="I18" s="622"/>
+      <c r="J18" s="623"/>
       <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
-      <c r="C19" s="573"/>
-      <c r="D19" s="574"/>
-      <c r="E19" s="574"/>
-      <c r="F19" s="575"/>
-      <c r="G19" s="575"/>
-      <c r="H19" s="575"/>
-      <c r="I19" s="575"/>
-      <c r="J19" s="576"/>
+      <c r="C19" s="624"/>
+      <c r="D19" s="625"/>
+      <c r="E19" s="625"/>
+      <c r="F19" s="626"/>
+      <c r="G19" s="626"/>
+      <c r="H19" s="626"/>
+      <c r="I19" s="626"/>
+      <c r="J19" s="627"/>
       <c r="K19" s="38"/>
     </row>
     <row r="20" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="37"/>
-      <c r="C20" s="577" t="s">
+      <c r="C20" s="628" t="s">
         <v>261</v>
       </c>
-      <c r="D20" s="578"/>
-      <c r="E20" s="579"/>
-      <c r="F20" s="564" t="s">
+      <c r="D20" s="629"/>
+      <c r="E20" s="630"/>
+      <c r="F20" s="615" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="565"/>
-      <c r="H20" s="565"/>
-      <c r="I20" s="565"/>
-      <c r="J20" s="566"/>
+      <c r="G20" s="616"/>
+      <c r="H20" s="616"/>
+      <c r="I20" s="616"/>
+      <c r="J20" s="617"/>
       <c r="K20" s="38"/>
     </row>
     <row r="21" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="37"/>
-      <c r="C21" s="558" t="s">
+      <c r="C21" s="609" t="s">
         <v>268</v>
       </c>
-      <c r="D21" s="559"/>
-      <c r="E21" s="559"/>
-      <c r="F21" s="559"/>
-      <c r="G21" s="559"/>
-      <c r="H21" s="559"/>
-      <c r="I21" s="559"/>
-      <c r="J21" s="560"/>
+      <c r="D21" s="610"/>
+      <c r="E21" s="610"/>
+      <c r="F21" s="610"/>
+      <c r="G21" s="610"/>
+      <c r="H21" s="610"/>
+      <c r="I21" s="610"/>
+      <c r="J21" s="611"/>
       <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
-      <c r="C22" s="561"/>
-      <c r="D22" s="562"/>
-      <c r="E22" s="562"/>
-      <c r="F22" s="562"/>
-      <c r="G22" s="562"/>
-      <c r="H22" s="562"/>
-      <c r="I22" s="562"/>
-      <c r="J22" s="563"/>
+      <c r="C22" s="612"/>
+      <c r="D22" s="613"/>
+      <c r="E22" s="613"/>
+      <c r="F22" s="613"/>
+      <c r="G22" s="613"/>
+      <c r="H22" s="613"/>
+      <c r="I22" s="613"/>
+      <c r="J22" s="614"/>
       <c r="K22" s="38"/>
     </row>
     <row r="23" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
-      <c r="C23" s="567" t="s">
+      <c r="C23" s="618" t="s">
         <v>265</v>
       </c>
-      <c r="D23" s="568"/>
-      <c r="E23" s="568"/>
-      <c r="F23" s="568"/>
-      <c r="G23" s="568"/>
-      <c r="H23" s="568"/>
-      <c r="I23" s="568"/>
-      <c r="J23" s="569"/>
+      <c r="D23" s="619"/>
+      <c r="E23" s="619"/>
+      <c r="F23" s="619"/>
+      <c r="G23" s="619"/>
+      <c r="H23" s="619"/>
+      <c r="I23" s="619"/>
+      <c r="J23" s="620"/>
       <c r="K23" s="38"/>
     </row>
     <row r="24" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11061,98 +11058,98 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="37"/>
-      <c r="C25" s="617" t="s">
+      <c r="C25" s="561" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="618"/>
-      <c r="E25" s="618"/>
-      <c r="F25" s="618"/>
-      <c r="G25" s="618"/>
-      <c r="H25" s="618"/>
-      <c r="I25" s="618"/>
-      <c r="J25" s="619"/>
+      <c r="D25" s="562"/>
+      <c r="E25" s="562"/>
+      <c r="F25" s="562"/>
+      <c r="G25" s="562"/>
+      <c r="H25" s="562"/>
+      <c r="I25" s="562"/>
+      <c r="J25" s="563"/>
       <c r="K25" s="38"/>
     </row>
     <row r="26" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
-      <c r="C26" s="620"/>
-      <c r="D26" s="621"/>
-      <c r="E26" s="621"/>
-      <c r="F26" s="621"/>
-      <c r="G26" s="621"/>
-      <c r="H26" s="621"/>
-      <c r="I26" s="621"/>
-      <c r="J26" s="622"/>
+      <c r="C26" s="564"/>
+      <c r="D26" s="565"/>
+      <c r="E26" s="565"/>
+      <c r="F26" s="565"/>
+      <c r="G26" s="565"/>
+      <c r="H26" s="565"/>
+      <c r="I26" s="565"/>
+      <c r="J26" s="566"/>
       <c r="K26" s="38"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
-      <c r="C27" s="623" t="s">
+      <c r="C27" s="567" t="s">
         <v>270</v>
       </c>
-      <c r="D27" s="624"/>
-      <c r="E27" s="624"/>
-      <c r="F27" s="624"/>
-      <c r="G27" s="624"/>
-      <c r="H27" s="624"/>
-      <c r="I27" s="624"/>
-      <c r="J27" s="625"/>
+      <c r="D27" s="568"/>
+      <c r="E27" s="568"/>
+      <c r="F27" s="568"/>
+      <c r="G27" s="568"/>
+      <c r="H27" s="568"/>
+      <c r="I27" s="568"/>
+      <c r="J27" s="569"/>
       <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
-      <c r="C28" s="623" t="s">
+      <c r="C28" s="567" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="626"/>
-      <c r="E28" s="626"/>
-      <c r="F28" s="626"/>
-      <c r="G28" s="626"/>
-      <c r="H28" s="626"/>
-      <c r="I28" s="626"/>
-      <c r="J28" s="627"/>
+      <c r="D28" s="570"/>
+      <c r="E28" s="570"/>
+      <c r="F28" s="570"/>
+      <c r="G28" s="570"/>
+      <c r="H28" s="570"/>
+      <c r="I28" s="570"/>
+      <c r="J28" s="571"/>
       <c r="K28" s="38"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="37"/>
-      <c r="C29" s="628" t="s">
+      <c r="C29" s="572" t="s">
         <v>269</v>
       </c>
-      <c r="D29" s="629"/>
-      <c r="E29" s="629"/>
-      <c r="F29" s="629"/>
-      <c r="G29" s="629"/>
-      <c r="H29" s="629"/>
-      <c r="I29" s="629"/>
-      <c r="J29" s="630"/>
+      <c r="D29" s="573"/>
+      <c r="E29" s="573"/>
+      <c r="F29" s="573"/>
+      <c r="G29" s="573"/>
+      <c r="H29" s="573"/>
+      <c r="I29" s="573"/>
+      <c r="J29" s="574"/>
       <c r="K29" s="38"/>
     </row>
     <row r="30" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
-      <c r="C30" s="608" t="s">
+      <c r="C30" s="552" t="s">
         <v>510</v>
       </c>
-      <c r="D30" s="609"/>
-      <c r="E30" s="609"/>
-      <c r="F30" s="609"/>
-      <c r="G30" s="609"/>
-      <c r="H30" s="609"/>
-      <c r="I30" s="609"/>
-      <c r="J30" s="610"/>
+      <c r="D30" s="553"/>
+      <c r="E30" s="553"/>
+      <c r="F30" s="553"/>
+      <c r="G30" s="553"/>
+      <c r="H30" s="553"/>
+      <c r="I30" s="553"/>
+      <c r="J30" s="554"/>
       <c r="K30" s="38"/>
     </row>
     <row r="31" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
-      <c r="C31" s="608" t="s">
+      <c r="C31" s="552" t="s">
         <v>267</v>
       </c>
-      <c r="D31" s="609"/>
-      <c r="E31" s="609"/>
-      <c r="F31" s="609"/>
-      <c r="G31" s="609"/>
-      <c r="H31" s="609"/>
-      <c r="I31" s="609"/>
-      <c r="J31" s="610"/>
+      <c r="D31" s="553"/>
+      <c r="E31" s="553"/>
+      <c r="F31" s="553"/>
+      <c r="G31" s="553"/>
+      <c r="H31" s="553"/>
+      <c r="I31" s="553"/>
+      <c r="J31" s="554"/>
       <c r="K31" s="38"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11169,28 +11166,28 @@
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="37"/>
-      <c r="C33" s="611" t="s">
+      <c r="C33" s="555" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="612"/>
-      <c r="E33" s="612"/>
-      <c r="F33" s="612"/>
-      <c r="G33" s="612"/>
-      <c r="H33" s="612"/>
-      <c r="I33" s="612"/>
-      <c r="J33" s="613"/>
+      <c r="D33" s="556"/>
+      <c r="E33" s="556"/>
+      <c r="F33" s="556"/>
+      <c r="G33" s="556"/>
+      <c r="H33" s="556"/>
+      <c r="I33" s="556"/>
+      <c r="J33" s="557"/>
       <c r="K33" s="38"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
-      <c r="C34" s="614"/>
-      <c r="D34" s="615"/>
-      <c r="E34" s="615"/>
-      <c r="F34" s="615"/>
-      <c r="G34" s="615"/>
-      <c r="H34" s="615"/>
-      <c r="I34" s="615"/>
-      <c r="J34" s="616"/>
+      <c r="C34" s="558"/>
+      <c r="D34" s="559"/>
+      <c r="E34" s="559"/>
+      <c r="F34" s="559"/>
+      <c r="G34" s="559"/>
+      <c r="H34" s="559"/>
+      <c r="I34" s="559"/>
+      <c r="J34" s="560"/>
       <c r="K34" s="38"/>
     </row>
     <row r="35" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11212,20 +11209,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C33:J34"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C25:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C5:J6"/>
-    <mergeCell ref="C9:J10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="H11:J11"/>
     <mergeCell ref="C12:J13"/>
     <mergeCell ref="C21:J22"/>
     <mergeCell ref="F20:J20"/>
@@ -11235,6 +11218,20 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="C15:J16"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C5:J6"/>
+    <mergeCell ref="C9:J10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C33:J34"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C25:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11247,7 +11244,7 @@
   </sheetPr>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C21" sqref="C21:J22"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
@@ -12769,17 +12766,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="666" t="s">
+      <c r="A1" s="679" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="667"/>
-      <c r="C1" s="667"/>
-      <c r="D1" s="667"/>
-      <c r="E1" s="667"/>
-      <c r="F1" s="667"/>
-      <c r="G1" s="667"/>
-      <c r="H1" s="667"/>
-      <c r="I1" s="668"/>
+      <c r="B1" s="680"/>
+      <c r="C1" s="680"/>
+      <c r="D1" s="680"/>
+      <c r="E1" s="680"/>
+      <c r="F1" s="680"/>
+      <c r="G1" s="680"/>
+      <c r="H1" s="680"/>
+      <c r="I1" s="681"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -12840,17 +12837,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="669" t="s">
+      <c r="A4" s="682" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="670"/>
-      <c r="C4" s="670"/>
-      <c r="D4" s="670"/>
-      <c r="E4" s="670"/>
-      <c r="F4" s="670"/>
-      <c r="G4" s="670"/>
-      <c r="H4" s="670"/>
-      <c r="I4" s="671"/>
+      <c r="B4" s="683"/>
+      <c r="C4" s="683"/>
+      <c r="D4" s="683"/>
+      <c r="E4" s="683"/>
+      <c r="F4" s="683"/>
+      <c r="G4" s="683"/>
+      <c r="H4" s="683"/>
+      <c r="I4" s="684"/>
     </row>
     <row r="5" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="346" t="s">
@@ -13273,87 +13270,87 @@
       <c r="I22" s="381"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="672" t="s">
+      <c r="A23" s="685" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="673"/>
-      <c r="C23" s="673"/>
-      <c r="D23" s="673"/>
-      <c r="E23" s="673"/>
-      <c r="F23" s="673"/>
-      <c r="G23" s="673"/>
-      <c r="H23" s="673"/>
-      <c r="I23" s="674"/>
+      <c r="B23" s="686"/>
+      <c r="C23" s="686"/>
+      <c r="D23" s="686"/>
+      <c r="E23" s="686"/>
+      <c r="F23" s="686"/>
+      <c r="G23" s="686"/>
+      <c r="H23" s="686"/>
+      <c r="I23" s="687"/>
     </row>
     <row r="24" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="346" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="689" t="s">
+      <c r="B24" s="676" t="s">
         <v>678</v>
       </c>
       <c r="C24" s="650"/>
       <c r="D24" s="650"/>
-      <c r="E24" s="690" t="s">
+      <c r="E24" s="677" t="s">
         <v>490</v>
       </c>
-      <c r="F24" s="691"/>
-      <c r="G24" s="680" t="s">
+      <c r="F24" s="678"/>
+      <c r="G24" s="667" t="s">
         <v>670</v>
       </c>
-      <c r="H24" s="680"/>
-      <c r="I24" s="682"/>
+      <c r="H24" s="667"/>
+      <c r="I24" s="669"/>
     </row>
     <row r="25" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="687" t="s">
+      <c r="B25" s="674" t="s">
         <v>677</v>
       </c>
       <c r="C25" s="652"/>
       <c r="D25" s="652"/>
       <c r="E25" s="271"/>
       <c r="F25" s="151"/>
-      <c r="G25" s="675" t="s">
+      <c r="G25" s="688" t="s">
         <v>671</v>
       </c>
-      <c r="H25" s="675"/>
-      <c r="I25" s="676"/>
+      <c r="H25" s="688"/>
+      <c r="I25" s="689"/>
     </row>
     <row r="26" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="687" t="s">
+      <c r="B26" s="674" t="s">
         <v>676</v>
       </c>
       <c r="C26" s="652"/>
       <c r="D26" s="652"/>
       <c r="E26" s="272"/>
       <c r="F26" s="272"/>
-      <c r="G26" s="677" t="s">
+      <c r="G26" s="690" t="s">
         <v>672</v>
       </c>
-      <c r="H26" s="677"/>
-      <c r="I26" s="678"/>
+      <c r="H26" s="690"/>
+      <c r="I26" s="691"/>
     </row>
     <row r="27" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="688" t="s">
+      <c r="B27" s="675" t="s">
         <v>675</v>
       </c>
       <c r="C27" s="654"/>
       <c r="D27" s="654"/>
       <c r="E27" s="326"/>
       <c r="F27" s="326"/>
-      <c r="G27" s="683" t="s">
+      <c r="G27" s="670" t="s">
         <v>674</v>
       </c>
-      <c r="H27" s="683"/>
-      <c r="I27" s="684"/>
+      <c r="H27" s="670"/>
+      <c r="I27" s="671"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
@@ -13381,22 +13378,22 @@
       <c r="D29" s="642"/>
       <c r="E29" s="643"/>
       <c r="F29" s="328"/>
-      <c r="G29" s="685" t="s">
+      <c r="G29" s="672" t="s">
         <v>673</v>
       </c>
-      <c r="H29" s="685"/>
-      <c r="I29" s="686"/>
+      <c r="H29" s="672"/>
+      <c r="I29" s="673"/>
     </row>
     <row r="30" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="219" t="s">
         <v>185</v>
       </c>
       <c r="B30" s="327"/>
-      <c r="C30" s="679" t="s">
+      <c r="C30" s="666" t="s">
         <v>679</v>
       </c>
-      <c r="D30" s="680"/>
-      <c r="E30" s="681"/>
+      <c r="D30" s="667"/>
+      <c r="E30" s="668"/>
       <c r="F30" s="641" t="s">
         <v>491</v>
       </c>
@@ -13425,6 +13422,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="G27:I27"/>
@@ -13437,11 +13439,6 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.21" top="0.23" bottom="0.22" header="0.17" footer="0.17"/>

--- a/include/BSCS.xlsx
+++ b/include/BSCS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Fall-2018" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="Friday" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">Monday!$A$1:$I$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Monday!$A$1:$I$30</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="646">
   <si>
     <t>National University</t>
   </si>
@@ -591,9 +591,6 @@
   </si>
   <si>
     <t>CA-Gr2(C,D)                      Dr. Hasina</t>
-  </si>
-  <si>
-    <t>PIT-B  Khalid</t>
   </si>
   <si>
     <t>B                                 R                         E            A               K</t>
@@ -845,9 +842,6 @@
     <t xml:space="preserve">Course Planning:Gr1(A,B,C), Gr2(D,E,F,G)                                 Dr. Zeeshan Ahmed(Gr1,Gr2)                                                        </t>
   </si>
   <si>
-    <t>Course Planning:Gr1(A,B,C,D,E,F,G)                                              Mr. Ubaid Aftab Chawla(Gr1)</t>
-  </si>
-  <si>
     <t>Course Planning:Gr1(A,B,C,D,E,F,G)                                             Mr. Faraz Idris (Gr1)</t>
   </si>
   <si>
@@ -884,9 +878,6 @@
     <t>CS Elective Track</t>
   </si>
   <si>
-    <t xml:space="preserve">             Introduction to project Management                          OR                              Information Processing Techniques                            OR                  Data Science                                                                                                                                             OR        Introdution to Cloud Computing                                  OR                              Design Defects and Restructuring                     </t>
-  </si>
-  <si>
     <t>Take Courses according to the respective course pairing to avoid clashes in MID and FINAL EXAMINATIONS</t>
   </si>
   <si>
@@ -905,72 +896,12 @@
     <t>Course Planning:Gr1(A,B,C), Gr2(D,E,F,G)                                   Ms. Nazia Imam(Gr1), Ms. Sameera Sultan(Gr2)</t>
   </si>
   <si>
-    <t xml:space="preserve">ITC-B                                  Dr. Farooque                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC-G                                  Dr. Farooque                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC-A                                  M. Shahzad                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC-C                                  M. Shahzad                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC-E                                  M. Shahzad                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC-D                                  Tania                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC-F                                  Tania                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC-H                                  Tania                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC-I                                  Shaoib Rauf                                             </t>
-  </si>
-  <si>
-    <t>ITC-Lab E(E1+E2)        Rahemeen &amp; Faheem</t>
-  </si>
-  <si>
-    <t>ITC-Lab D(D1+D2)        Farah &amp; Irfan</t>
-  </si>
-  <si>
     <t xml:space="preserve">IRS-E                                  Osama                                           </t>
   </si>
   <si>
-    <t xml:space="preserve">BE-A                                  Adeel                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-D                                  Adeel                                         </t>
-  </si>
-  <si>
     <t>Ms. Rabia Tabbasum (C,E,G,I), Mr. Javaid Qureshi (B,H), Mr. M. Adeel (A,D), Ms. Sonia Nasir (F)</t>
   </si>
   <si>
-    <t xml:space="preserve">BE-B                                  Javaid Qureshi                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-H                                  Javaid Qureshi                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-F                                  Sonia                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-C                                 Rabia                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-E                                 Rabia                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-G                                 Rabia                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-I                                 Rabia                                         </t>
-  </si>
-  <si>
     <t xml:space="preserve">IRS-B                                  Dr. Shahzad                                          </t>
   </si>
   <si>
@@ -983,9 +914,6 @@
     <t xml:space="preserve">IRS-I                                  Dr. Shahzad                                          </t>
   </si>
   <si>
-    <t xml:space="preserve">IRS-I                                               Dr. Shahzad                                          </t>
-  </si>
-  <si>
     <t xml:space="preserve">IRS-D                                             Dr. Shahzad                                          </t>
   </si>
   <si>
@@ -1085,12 +1013,6 @@
     <t xml:space="preserve">Cal-I                                                Nadeem                                     </t>
   </si>
   <si>
-    <t xml:space="preserve">BE-I                                Rabia                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-E                               Rabia                                         </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cal-H                                                 Javeria                                     </t>
   </si>
   <si>
@@ -1112,9 +1034,6 @@
     <t>DLD-Gr1                      Khalid</t>
   </si>
   <si>
-    <t>COAL-C                Faraz</t>
-  </si>
-  <si>
     <t>COAL-A                Nadeem kafi</t>
   </si>
   <si>
@@ -1202,9 +1121,6 @@
     <t>FA-Gr1(D,E,F,G)                                         Ahsan</t>
   </si>
   <si>
-    <t>MM Gr1(D,E,F,G)                                         Asiya</t>
-  </si>
-  <si>
     <t>Psych-Gr2(C,D)  Sumaira</t>
   </si>
   <si>
@@ -1277,24 +1193,12 @@
     <t>LA-G                                                                                     Dr. Sadaqat</t>
   </si>
   <si>
-    <t>OS Lab- Gr4(G)                  Summiyah</t>
-  </si>
-  <si>
     <t>Mr. Basit Ali (B,D,F), Ms. Ammara Yaseen (A,C,E), Ms. Tooba Ali Zahid (G)</t>
   </si>
   <si>
     <t>Mr. M. Nadeem (B,D), Mr. Awais Ahmed(E,F,G), Ms. Tooba Ali Zahid (A,C)</t>
   </si>
   <si>
-    <t xml:space="preserve">OOAD-Lab D               Nadeem            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOAD-Lab A              Tooba         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOAD-Lab G              Awais      </t>
-  </si>
-  <si>
     <t xml:space="preserve">OR-Gr1                             Asama    </t>
   </si>
   <si>
@@ -1463,15 +1367,9 @@
     <t>Algo-G                           Subhash</t>
   </si>
   <si>
-    <t>HCI-A                    Behraj</t>
-  </si>
-  <si>
     <t>HCI-C                   Behraj</t>
   </si>
   <si>
-    <t>HCI-E                   Behraj</t>
-  </si>
-  <si>
     <t>Course Planning:Gr1(A,B,C), Gr2(D,E,F,G)                                                        Mr. Murtaza Manawar Fazal</t>
   </si>
   <si>
@@ -1580,15 +1478,6 @@
     <t>HCI-G                               Farrukh</t>
   </si>
   <si>
-    <t xml:space="preserve">PIT-D                            TBA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIT-F                             TBA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIT-D                                      TBA </t>
-  </si>
-  <si>
     <t xml:space="preserve">PIT-C                           Saeeda </t>
   </si>
   <si>
@@ -1688,9 +1577,6 @@
     <t xml:space="preserve">Eng-Lab A2                                                             Saqib </t>
   </si>
   <si>
-    <t>ITC-Lab B(B1+B2)                                                                                                                 Abdul Aziz &amp; Mubashara</t>
-  </si>
-  <si>
     <t>COAL Lab-G                                                                                                                 Zain</t>
   </si>
   <si>
@@ -1760,12 +1646,6 @@
     <t>Eng-Lab H1                                                                              Kishwar</t>
   </si>
   <si>
-    <t>ITC-Lab F(F1+F2)                                                                                                     Farah &amp; Irfan</t>
-  </si>
-  <si>
-    <t>ITC-Lab I(I1+I2)                                                                                                                      Abdul Aziz &amp; Mubashara</t>
-  </si>
-  <si>
     <t xml:space="preserve">CP Lab-Gr1(A,B,C)                                                                                                       Maham     </t>
   </si>
   <si>
@@ -1784,9 +1664,6 @@
     <t>Ms. Hubrah Razi(A1,B1,D2,E1,G2,I1), Ms. Kishwar Nazli(C1,D1,F2,G1,H1,I2), Mr. Saqib Mubeen(A2,B2,C2,), Ms. Afreen Zehra(E2,F1,H2)</t>
   </si>
   <si>
-    <t>ITC-Lab A(A1+A2)                                                                                            Rahemeen &amp; Faheem</t>
-  </si>
-  <si>
     <t>ICT-Lab B                                                                              Munim</t>
   </si>
   <si>
@@ -1814,9 +1691,6 @@
     <t>DB-Lab A                                                                                                                            Ammara</t>
   </si>
   <si>
-    <t>ITC-Lab H(H1+H2)                                                                                                                     Farah &amp; Irfan</t>
-  </si>
-  <si>
     <t xml:space="preserve">DS Lab-E                                                                                                                          Faizan  </t>
   </si>
   <si>
@@ -1826,18 +1700,12 @@
     <t>OS Lab- Gr3(E,F)                                                                                                                                                                     Summiyah</t>
   </si>
   <si>
-    <t>ITC-Lab C(C1+C2)                                                                                                                       Rahemeen &amp; Faheem</t>
-  </si>
-  <si>
     <t>ICT-Lab I                                                                                                  Munim</t>
   </si>
   <si>
     <t>ICT-Lab C                                                                                            Hamza</t>
   </si>
   <si>
-    <t>ITC-Lab G(G1+G2)                                                                                                                    Abdul Aziz &amp; Mubashara</t>
-  </si>
-  <si>
     <t>CN-Gr1  Lab                                                                                                                                        TBA</t>
   </si>
   <si>
@@ -1896,9 +1764,6 @@
   </si>
   <si>
     <t>COAL Lab-A                                                                                                                                  Abdul khaliq</t>
-  </si>
-  <si>
-    <t>DB-Lab C                                                                                                                              Ammara</t>
   </si>
   <si>
     <t>COAL Lab-E                                                                                                                               Zain</t>
@@ -1948,13 +1813,190 @@
     <t>Course Planning:Gr1(A,B,C), Gr2(D,E,F,G)                                                Mr. M. Amjad (Gr1), Dr. Sadaqat Hussain (Gr2)</t>
   </si>
   <si>
-    <t>24th August 2018</t>
+    <t>IS-A                                                     Dr. Sufian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-A                                  Adeel                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-B                                  Javaid Qureshi                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-C                                 Rabia                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-D                                  Adeel                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-E                                 Rabia                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-E                               Rabia                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-F                                  Sonia                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-G                                 Rabia                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-H                                  Javaid Qureshi                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-I                                 Rabia                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-I                                Rabia                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-A                                  M. Shahzad                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-B                                  Dr. Farooque                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-C                                  M. Shahzad                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-D                                  Tania                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-E                                  M. Shahzad                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-F                                  Tania                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-G                                  Dr. Farooque                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-H                                  Tania                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-I                                  Shaoib Rauf                                             </t>
+  </si>
+  <si>
+    <t>PF-Lab B(B1+B2)                                                                                                                 Abdul Aziz &amp; Mubashara</t>
+  </si>
+  <si>
+    <t>PF-Lab A(A1+A2)                                                                                            Rahemeen &amp; Faheem</t>
+  </si>
+  <si>
+    <t>PF-Lab H(H1+H2)                                                                                                                     Farah &amp; Irfan</t>
+  </si>
+  <si>
+    <t>PF-Lab C(C1+C2)                                                                                                                       Rahemeen &amp; Faheem</t>
+  </si>
+  <si>
+    <t>PF-Lab G(G1+G2)                                                                                                                    Abdul Aziz &amp; Mubashara</t>
+  </si>
+  <si>
+    <t>PF-Lab F(F1+F2)                                                                                                     Farah &amp; Irfan</t>
+  </si>
+  <si>
+    <t>PF-Lab I(I1+I2)                                                                                                                      Abdul Aziz &amp; Mubashara</t>
+  </si>
+  <si>
+    <t>IS-D                                               Dr. Fahad</t>
+  </si>
+  <si>
+    <t>MM Gr2(D,E,F,G)                                         Asiya</t>
+  </si>
+  <si>
+    <t>DB-Lab E                                                                                                                              Ammara</t>
+  </si>
+  <si>
+    <t>COAL-C                             Faraz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRS-I                                 Dr. Shahzad                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRS-D                                              Dr. Shahzad                                          </t>
+  </si>
+  <si>
+    <t>Lab-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOAD-Lab A                                                                                                            Tooba         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOAD-Lab G                                                                                                                              Awais      </t>
+  </si>
+  <si>
+    <t>Algo-F                                                                               Zeeshan</t>
+  </si>
+  <si>
+    <t>OOAD-G                                                               Rubab</t>
+  </si>
+  <si>
+    <t>Psych-Gr3(E,F,G)                                Sumaira</t>
+  </si>
+  <si>
+    <t>OS Lab- Gr4(G)                                                                                                                                                                                         Summiyah</t>
+  </si>
+  <si>
+    <t>PF-Lab D(D1+D2)                                                                                                                                           Farah &amp; Irfan</t>
+  </si>
+  <si>
+    <t>PF-Lab E(E1+E2)                                                                                                                                   Rahemeen &amp; Faheem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOAD-Lab D                                                                                                                                                           Nadeem            </t>
+  </si>
+  <si>
+    <t>Course Planning:Gr1(A,B,C), Gr2(D,E,F,G)                                              Mr. Ubaid Aftab Chawla(Gr1,Gr2)</t>
+  </si>
+  <si>
+    <t>CS Elective Track-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to project Management                          OR                              Information Processing Techniques</t>
+  </si>
+  <si>
+    <t>CS Elective Track-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Science                                                               OR                              Introdution to Cloud Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           Design Defects and Restructuring                     </t>
+  </si>
+  <si>
+    <t>CS Elective Track-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIT-F                                           Ali Naqvi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-E                                                Rabia                                         </t>
+  </si>
+  <si>
+    <t>DS-Gr2                                   Dr. Zeeshan</t>
+  </si>
+  <si>
+    <t>DS-Gr1                                  Dr. Zeeshan</t>
+  </si>
+  <si>
+    <t>ISPM-Gr2                                  Ubaid</t>
+  </si>
+  <si>
+    <t>HCI-E                                  Behraj</t>
+  </si>
+  <si>
+    <t>HCI-A                                   Behraj</t>
+  </si>
+  <si>
+    <t>IS-F                                          Dr. Fahad</t>
+  </si>
+  <si>
+    <t>28th August 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2383,7 +2425,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2534,8 +2576,14 @@
         <bgColor rgb="FF9BBB59"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="62">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -3267,7 +3315,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -3279,23 +3329,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -3305,13 +3342,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -3321,7 +3358,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="559">
+  <cellXfs count="565">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3768,9 +3805,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3813,14 +3847,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3841,10 +3870,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3889,7 +3914,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="59" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3902,22 +3926,7 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3935,29 +3944,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="21" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="46" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4002,17 +3995,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4038,36 +4021,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4670,15 +4636,6 @@
     <xf numFmtId="0" fontId="39" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4705,45 +4662,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4765,6 +4683,36 @@
     <xf numFmtId="0" fontId="44" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4785,14 +4733,17 @@
     <xf numFmtId="0" fontId="26" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4821,32 +4772,17 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4854,31 +4790,150 @@
     <xf numFmtId="0" fontId="62" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4892,10 +4947,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFF99"/>
       <color rgb="FF66FF33"/>
       <color rgb="FFFF66CC"/>
       <color rgb="FFFF5050"/>
-      <color rgb="FFCCFF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5501,16 +5556,16 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="286" t="s">
+      <c r="H12" s="257" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="286"/>
-      <c r="J12" s="286"/>
-      <c r="K12" s="286"/>
-      <c r="L12" s="286"/>
-      <c r="M12" s="286"/>
-      <c r="N12" s="286"/>
-      <c r="O12" s="286"/>
+      <c r="I12" s="257"/>
+      <c r="J12" s="257"/>
+      <c r="K12" s="257"/>
+      <c r="L12" s="257"/>
+      <c r="M12" s="257"/>
+      <c r="N12" s="257"/>
+      <c r="O12" s="257"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -5524,17 +5579,17 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="287" t="s">
+      <c r="H13" s="258" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="287"/>
-      <c r="J13" s="287"/>
-      <c r="K13" s="287"/>
-      <c r="L13" s="287"/>
-      <c r="M13" s="287"/>
-      <c r="N13" s="287"/>
-      <c r="O13" s="287"/>
-      <c r="P13" s="287"/>
+      <c r="I13" s="258"/>
+      <c r="J13" s="258"/>
+      <c r="K13" s="258"/>
+      <c r="L13" s="258"/>
+      <c r="M13" s="258"/>
+      <c r="N13" s="258"/>
+      <c r="O13" s="258"/>
+      <c r="P13" s="258"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="7"/>
@@ -5547,17 +5602,17 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="288" t="s">
+      <c r="H14" s="259" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="288"/>
-      <c r="J14" s="288"/>
-      <c r="K14" s="288"/>
-      <c r="L14" s="288"/>
-      <c r="M14" s="288"/>
-      <c r="N14" s="288"/>
-      <c r="O14" s="288"/>
-      <c r="P14" s="288"/>
+      <c r="I14" s="259"/>
+      <c r="J14" s="259"/>
+      <c r="K14" s="259"/>
+      <c r="L14" s="259"/>
+      <c r="M14" s="259"/>
+      <c r="N14" s="259"/>
+      <c r="O14" s="259"/>
+      <c r="P14" s="259"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="7"/>
@@ -5570,17 +5625,17 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="289" t="s">
+      <c r="H15" s="260" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="289"/>
-      <c r="J15" s="289"/>
-      <c r="K15" s="289"/>
-      <c r="L15" s="289"/>
-      <c r="M15" s="289"/>
-      <c r="N15" s="289"/>
-      <c r="O15" s="289"/>
-      <c r="P15" s="289"/>
+      <c r="I15" s="260"/>
+      <c r="J15" s="260"/>
+      <c r="K15" s="260"/>
+      <c r="L15" s="260"/>
+      <c r="M15" s="260"/>
+      <c r="N15" s="260"/>
+      <c r="O15" s="260"/>
+      <c r="P15" s="260"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="7"/>
@@ -5593,17 +5648,17 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="290" t="s">
-        <v>204</v>
-      </c>
-      <c r="I16" s="290"/>
-      <c r="J16" s="290"/>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
-      <c r="M16" s="290"/>
-      <c r="N16" s="290"/>
-      <c r="O16" s="290"/>
-      <c r="P16" s="290"/>
+      <c r="H16" s="261" t="s">
+        <v>203</v>
+      </c>
+      <c r="I16" s="261"/>
+      <c r="J16" s="261"/>
+      <c r="K16" s="261"/>
+      <c r="L16" s="261"/>
+      <c r="M16" s="261"/>
+      <c r="N16" s="261"/>
+      <c r="O16" s="261"/>
+      <c r="P16" s="261"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="7"/>
@@ -5683,7 +5738,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>5</v>
@@ -5786,13 +5841,13 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="293" t="s">
+      <c r="O24" s="264" t="s">
         <v>6</v>
       </c>
-      <c r="P24" s="294"/>
-      <c r="Q24" s="294"/>
-      <c r="R24" s="294"/>
-      <c r="S24" s="295"/>
+      <c r="P24" s="265"/>
+      <c r="Q24" s="265"/>
+      <c r="R24" s="265"/>
+      <c r="S24" s="266"/>
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="2:20" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5809,13 +5864,13 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="296" t="s">
-        <v>200</v>
-      </c>
-      <c r="P25" s="297"/>
-      <c r="Q25" s="297"/>
-      <c r="R25" s="297"/>
-      <c r="S25" s="298"/>
+      <c r="O25" s="267" t="s">
+        <v>199</v>
+      </c>
+      <c r="P25" s="268"/>
+      <c r="Q25" s="268"/>
+      <c r="R25" s="268"/>
+      <c r="S25" s="269"/>
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="2:20" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5824,23 +5879,23 @@
       <c r="D26" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="291" t="s">
-        <v>631</v>
-      </c>
-      <c r="F26" s="291"/>
-      <c r="G26" s="291"/>
-      <c r="H26" s="291"/>
-      <c r="I26" s="291"/>
+      <c r="E26" s="262" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="262"/>
+      <c r="G26" s="262"/>
+      <c r="H26" s="262"/>
+      <c r="I26" s="262"/>
       <c r="J26" s="105"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="299"/>
-      <c r="P26" s="300"/>
-      <c r="Q26" s="300"/>
-      <c r="R26" s="300"/>
-      <c r="S26" s="301"/>
+      <c r="O26" s="270"/>
+      <c r="P26" s="271"/>
+      <c r="Q26" s="271"/>
+      <c r="R26" s="271"/>
+      <c r="S26" s="272"/>
       <c r="T26" s="7"/>
     </row>
     <row r="27" spans="2:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5850,24 +5905,24 @@
         <v>8</v>
       </c>
       <c r="E27" s="102"/>
-      <c r="F27" s="292" t="s">
-        <v>205</v>
-      </c>
-      <c r="G27" s="292"/>
-      <c r="H27" s="292"/>
+      <c r="F27" s="263" t="s">
+        <v>645</v>
+      </c>
+      <c r="G27" s="263"/>
+      <c r="H27" s="263"/>
       <c r="I27" s="103"/>
       <c r="J27" s="107"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="302" t="s">
+      <c r="O27" s="273" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="303"/>
-      <c r="Q27" s="303"/>
-      <c r="R27" s="303"/>
-      <c r="S27" s="304"/>
+      <c r="P27" s="274"/>
+      <c r="Q27" s="274"/>
+      <c r="R27" s="274"/>
+      <c r="S27" s="275"/>
       <c r="T27" s="7"/>
     </row>
     <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5958,8 +6013,8 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I1"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5984,17 +6039,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="519" t="s">
+      <c r="A1" s="484" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="520"/>
-      <c r="C1" s="520"/>
-      <c r="D1" s="520"/>
-      <c r="E1" s="520"/>
-      <c r="F1" s="520"/>
-      <c r="G1" s="520"/>
-      <c r="H1" s="520"/>
-      <c r="I1" s="521"/>
+      <c r="B1" s="485"/>
+      <c r="C1" s="485"/>
+      <c r="D1" s="485"/>
+      <c r="E1" s="485"/>
+      <c r="F1" s="485"/>
+      <c r="G1" s="485"/>
+      <c r="H1" s="485"/>
+      <c r="I1" s="486"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
@@ -6055,67 +6110,78 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="522" t="s">
+      <c r="A4" s="487" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="523"/>
-      <c r="C4" s="523"/>
-      <c r="D4" s="523"/>
-      <c r="E4" s="523"/>
-      <c r="F4" s="523"/>
-      <c r="G4" s="523"/>
-      <c r="H4" s="523"/>
-      <c r="I4" s="524"/>
+      <c r="B4" s="488"/>
+      <c r="C4" s="488"/>
+      <c r="D4" s="488"/>
+      <c r="E4" s="488"/>
+      <c r="F4" s="488"/>
+      <c r="G4" s="488"/>
+      <c r="H4" s="488"/>
+      <c r="I4" s="489"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="538" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="255" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" s="247" t="s">
-        <v>293</v>
-      </c>
-      <c r="E5" s="247" t="s">
-        <v>295</v>
-      </c>
-      <c r="F5" s="178"/>
-      <c r="G5" s="266" t="s">
-        <v>447</v>
-      </c>
-      <c r="I5" s="219"/>
+      <c r="B5" s="237" t="s">
+        <v>600</v>
+      </c>
+      <c r="C5" s="229" t="s">
+        <v>598</v>
+      </c>
+      <c r="D5" s="177"/>
+      <c r="E5" s="229" t="s">
+        <v>602</v>
+      </c>
+      <c r="F5" s="177"/>
+      <c r="G5" s="244" t="s">
+        <v>415</v>
+      </c>
+      <c r="H5" s="177"/>
+      <c r="I5" s="213"/>
     </row>
     <row r="6" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="240" t="s">
-        <v>292</v>
+      <c r="B6" s="225" t="s">
+        <v>604</v>
       </c>
       <c r="C6" s="154" t="s">
-        <v>291</v>
-      </c>
-      <c r="E6" s="229" t="s">
-        <v>362</v>
-      </c>
-      <c r="F6" s="229" t="s">
-        <v>363</v>
-      </c>
-      <c r="I6" s="187"/>
+        <v>599</v>
+      </c>
+      <c r="D6" s="153"/>
+      <c r="E6" s="219" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" s="219" t="s">
+        <v>336</v>
+      </c>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="186"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="230" t="s">
-        <v>484</v>
-      </c>
-      <c r="E7" s="230" t="s">
-        <v>482</v>
-      </c>
-      <c r="F7" s="230" t="s">
-        <v>525</v>
+      <c r="B7" s="254" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" s="254" t="s">
+        <v>447</v>
+      </c>
+      <c r="D7" s="254" t="s">
+        <v>458</v>
+      </c>
+      <c r="E7" s="254" t="s">
+        <v>641</v>
+      </c>
+      <c r="G7" s="254" t="s">
+        <v>458</v>
       </c>
       <c r="H7" s="167"/>
       <c r="I7" s="130"/>
@@ -6124,48 +6190,45 @@
       <c r="A8" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="240" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8" s="230" t="s">
-        <v>481</v>
-      </c>
-      <c r="D8" s="226" t="s">
-        <v>452</v>
-      </c>
-      <c r="E8" s="226" t="s">
-        <v>441</v>
-      </c>
-      <c r="F8" s="226" t="s">
-        <v>442</v>
-      </c>
-      <c r="G8" s="159"/>
-      <c r="H8" s="226" t="s">
-        <v>451</v>
-      </c>
-      <c r="I8" s="181"/>
+      <c r="B8" s="225" t="s">
+        <v>606</v>
+      </c>
+      <c r="D8" s="252" t="s">
+        <v>420</v>
+      </c>
+      <c r="E8" s="252" t="s">
+        <v>409</v>
+      </c>
+      <c r="F8" s="252" t="s">
+        <v>410</v>
+      </c>
+      <c r="H8" s="252" t="s">
+        <v>419</v>
+      </c>
+      <c r="I8" s="180"/>
     </row>
     <row r="9" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="228" t="s">
-        <v>453</v>
-      </c>
-      <c r="C9" s="226" t="s">
-        <v>455</v>
-      </c>
-      <c r="D9" s="226" t="s">
-        <v>454</v>
-      </c>
-      <c r="E9" s="256" t="s">
-        <v>364</v>
-      </c>
-      <c r="F9" s="229" t="s">
-        <v>365</v>
-      </c>
+      <c r="B9" s="256" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="252" t="s">
+        <v>423</v>
+      </c>
+      <c r="D9" s="252" t="s">
+        <v>422</v>
+      </c>
+      <c r="E9" s="219" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" s="219" t="s">
+        <v>338</v>
+      </c>
+      <c r="G9" s="153"/>
       <c r="H9" s="156" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="I9" s="131"/>
     </row>
@@ -6173,430 +6236,455 @@
       <c r="A10" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="240" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10" s="179" t="s">
-        <v>464</v>
-      </c>
-      <c r="D10" s="179" t="s">
-        <v>463</v>
-      </c>
-      <c r="E10" s="188" t="s">
-        <v>399</v>
-      </c>
+      <c r="B10" s="225" t="s">
+        <v>595</v>
+      </c>
+      <c r="C10" s="252" t="s">
+        <v>432</v>
+      </c>
+      <c r="D10" s="252" t="s">
+        <v>431</v>
+      </c>
+      <c r="E10" s="152" t="s">
+        <v>371</v>
+      </c>
+      <c r="F10" s="153"/>
       <c r="G10" s="152" t="s">
-        <v>400</v>
-      </c>
-      <c r="I10" s="187"/>
+        <v>372</v>
+      </c>
+      <c r="H10" s="153"/>
+      <c r="I10" s="186"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="156" t="s">
-        <v>626</v>
-      </c>
-      <c r="C11" s="230" t="s">
-        <v>494</v>
-      </c>
-      <c r="D11" s="230" t="s">
-        <v>493</v>
-      </c>
-      <c r="E11" s="230" t="s">
-        <v>504</v>
-      </c>
-      <c r="G11" s="230" t="s">
-        <v>493</v>
+      <c r="B11" s="226" t="s">
+        <v>581</v>
+      </c>
+      <c r="C11" s="254" t="s">
+        <v>460</v>
+      </c>
+      <c r="D11" s="254" t="s">
+        <v>459</v>
+      </c>
+      <c r="E11" s="254" t="s">
+        <v>470</v>
+      </c>
+      <c r="F11" s="153"/>
+      <c r="G11" s="254" t="s">
+        <v>459</v>
       </c>
       <c r="H11" s="156" t="s">
-        <v>627</v>
-      </c>
-      <c r="I11" s="187"/>
+        <v>582</v>
+      </c>
+      <c r="I11" s="186"/>
     </row>
     <row r="12" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="236" t="s">
-        <v>485</v>
-      </c>
-      <c r="C12" s="230" t="s">
-        <v>487</v>
+      <c r="B12" s="254" t="s">
+        <v>488</v>
+      </c>
+      <c r="C12" s="254" t="s">
+        <v>644</v>
       </c>
       <c r="D12" s="169" t="s">
         <v>187</v>
       </c>
       <c r="E12" s="154" t="s">
-        <v>306</v>
-      </c>
-      <c r="F12" s="230" t="s">
-        <v>486</v>
-      </c>
-      <c r="I12" s="181"/>
+        <v>588</v>
+      </c>
+      <c r="F12" s="254" t="s">
+        <v>452</v>
+      </c>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="180"/>
     </row>
     <row r="13" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="228" t="s">
+      <c r="B13" s="256" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="226" t="s">
-        <v>472</v>
-      </c>
-      <c r="E13" s="256" t="s">
-        <v>368</v>
-      </c>
-      <c r="F13" s="229" t="s">
-        <v>370</v>
-      </c>
-      <c r="G13" s="226" t="s">
-        <v>473</v>
-      </c>
-      <c r="H13" s="229" t="s">
-        <v>369</v>
-      </c>
-      <c r="I13" s="187"/>
+      <c r="C13" s="252" t="s">
+        <v>440</v>
+      </c>
+      <c r="D13" s="153"/>
+      <c r="E13" s="219" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" s="219" t="s">
+        <v>343</v>
+      </c>
+      <c r="G13" s="252" t="s">
+        <v>441</v>
+      </c>
+      <c r="H13" s="219" t="s">
+        <v>342</v>
+      </c>
+      <c r="I13" s="186"/>
     </row>
     <row r="14" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="184"/>
+      <c r="B14" s="183"/>
       <c r="C14" s="169" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="D14" s="169" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="E14" s="165"/>
+      <c r="F14" s="153"/>
       <c r="G14" s="159"/>
       <c r="H14" s="169" t="s">
-        <v>444</v>
-      </c>
-      <c r="I14" s="187"/>
+        <v>412</v>
+      </c>
+      <c r="I14" s="186"/>
     </row>
     <row r="15" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="77" t="s">
         <v>150</v>
       </c>
+      <c r="B15" s="256" t="s">
+        <v>408</v>
+      </c>
       <c r="C15" s="169" t="s">
-        <v>449</v>
-      </c>
-      <c r="E15" s="229" t="s">
-        <v>366</v>
-      </c>
-      <c r="F15" s="229" t="s">
-        <v>367</v>
+        <v>417</v>
+      </c>
+      <c r="D15" s="153"/>
+      <c r="E15" s="219" t="s">
+        <v>339</v>
+      </c>
+      <c r="F15" s="219" t="s">
+        <v>340</v>
       </c>
       <c r="G15" s="169" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="H15" s="169" t="s">
-        <v>448</v>
-      </c>
-      <c r="I15" s="180"/>
+        <v>416</v>
+      </c>
+      <c r="I15" s="253" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="240" t="s">
-        <v>332</v>
+      <c r="B16" s="225" t="s">
+        <v>308</v>
       </c>
       <c r="C16" s="154" t="s">
-        <v>333</v>
-      </c>
-      <c r="D16" s="230" t="s">
-        <v>492</v>
-      </c>
-      <c r="E16" s="153"/>
+        <v>309</v>
+      </c>
+      <c r="D16" s="252" t="s">
+        <v>438</v>
+      </c>
+      <c r="E16" s="252" t="s">
+        <v>436</v>
+      </c>
       <c r="F16" s="154" t="s">
-        <v>334</v>
-      </c>
-      <c r="G16" s="167"/>
+        <v>310</v>
+      </c>
+      <c r="G16" s="252" t="s">
+        <v>437</v>
+      </c>
       <c r="H16" s="154" t="s">
-        <v>349</v>
-      </c>
-      <c r="I16" s="176" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="I16" s="175" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
         <v>158</v>
       </c>
+      <c r="B17" s="224" t="s">
+        <v>451</v>
+      </c>
+      <c r="C17" s="254" t="s">
+        <v>453</v>
+      </c>
       <c r="D17" s="167"/>
-      <c r="E17" s="241" t="s">
-        <v>411</v>
+      <c r="E17" s="156" t="s">
+        <v>383</v>
       </c>
       <c r="F17" s="156" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="G17" s="167"/>
-      <c r="I17" s="156" t="s">
-        <v>410</v>
+      <c r="H17" s="153"/>
+      <c r="I17" s="196" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="156" t="s">
-        <v>376</v>
+      <c r="B18" s="226" t="s">
+        <v>349</v>
       </c>
       <c r="C18" s="156" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="D18" s="154" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="E18" s="154" t="s">
-        <v>325</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
       <c r="H18" s="154" t="s">
-        <v>324</v>
-      </c>
-      <c r="I18" s="176" t="s">
-        <v>340</v>
+        <v>300</v>
+      </c>
+      <c r="I18" s="175" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="240" t="s">
-        <v>314</v>
+      <c r="B19" s="225" t="s">
+        <v>291</v>
       </c>
       <c r="C19" s="154" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="D19" s="154" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="E19" s="154" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="F19" s="154" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="G19" s="153"/>
       <c r="H19" s="154" t="s">
-        <v>313</v>
-      </c>
-      <c r="I19" s="176" t="s">
-        <v>315</v>
+        <v>290</v>
+      </c>
+      <c r="I19" s="175" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="186" t="s">
+      <c r="A20" s="185" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="228" t="s">
-        <v>440</v>
-      </c>
-      <c r="C20" s="271" t="s">
-        <v>548</v>
+      <c r="B20" s="183"/>
+      <c r="C20" s="154" t="s">
+        <v>511</v>
       </c>
       <c r="D20" s="154" t="s">
-        <v>549</v>
+        <v>512</v>
       </c>
       <c r="E20" s="154" t="s">
-        <v>548</v>
-      </c>
-      <c r="F20" s="279" t="s">
-        <v>628</v>
+        <v>511</v>
+      </c>
+      <c r="F20" s="252" t="s">
+        <v>583</v>
       </c>
       <c r="G20" s="153"/>
-      <c r="H20" s="500" t="s">
-        <v>574</v>
-      </c>
-      <c r="I20" s="527"/>
+      <c r="H20" s="476" t="s">
+        <v>536</v>
+      </c>
+      <c r="I20" s="493"/>
     </row>
     <row r="21" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="240" t="s">
-        <v>320</v>
+      <c r="B21" s="225" t="s">
+        <v>296</v>
       </c>
       <c r="C21" s="154" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="D21" s="153"/>
       <c r="E21" s="154" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="F21" s="154" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="G21" s="153"/>
       <c r="H21" s="154" t="s">
-        <v>330</v>
-      </c>
-      <c r="I21" s="176" t="s">
-        <v>331</v>
+        <v>306</v>
+      </c>
+      <c r="I21" s="175" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="184" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="268" t="s">
-        <v>335</v>
-      </c>
-      <c r="C22" s="196" t="s">
-        <v>336</v>
-      </c>
-      <c r="D22" s="196" t="s">
-        <v>329</v>
-      </c>
-      <c r="E22" s="196" t="s">
-        <v>328</v>
-      </c>
-      <c r="F22" s="215"/>
-      <c r="G22" s="215"/>
-      <c r="H22" s="196" t="s">
-        <v>327</v>
-      </c>
-      <c r="I22" s="176" t="s">
-        <v>339</v>
+      <c r="B22" s="245" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" s="227" t="s">
+        <v>312</v>
+      </c>
+      <c r="D22" s="227" t="s">
+        <v>305</v>
+      </c>
+      <c r="E22" s="227" t="s">
+        <v>304</v>
+      </c>
+      <c r="F22" s="235"/>
+      <c r="G22" s="235"/>
+      <c r="H22" s="227" t="s">
+        <v>303</v>
+      </c>
+      <c r="I22" s="231" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="81" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="522" t="s">
+      <c r="A23" s="487" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="525"/>
-      <c r="C23" s="525"/>
-      <c r="D23" s="525"/>
-      <c r="E23" s="525"/>
-      <c r="F23" s="525"/>
-      <c r="G23" s="525"/>
-      <c r="H23" s="525"/>
-      <c r="I23" s="526"/>
+      <c r="B23" s="490"/>
+      <c r="C23" s="490"/>
+      <c r="D23" s="490"/>
+      <c r="E23" s="490"/>
+      <c r="F23" s="490"/>
+      <c r="G23" s="490"/>
+      <c r="H23" s="490"/>
+      <c r="I23" s="491"/>
     </row>
     <row r="24" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="544" t="s">
-        <v>576</v>
-      </c>
-      <c r="C24" s="542"/>
-      <c r="D24" s="542"/>
-      <c r="E24" s="542" t="s">
-        <v>607</v>
-      </c>
-      <c r="F24" s="542"/>
-      <c r="G24" s="509" t="s">
-        <v>622</v>
-      </c>
-      <c r="H24" s="509"/>
-      <c r="I24" s="510"/>
+      <c r="B24" s="499" t="s">
+        <v>612</v>
+      </c>
+      <c r="C24" s="477"/>
+      <c r="D24" s="477"/>
+      <c r="E24" s="477" t="s">
+        <v>563</v>
+      </c>
+      <c r="F24" s="477"/>
+      <c r="G24" s="532" t="s">
+        <v>616</v>
+      </c>
+      <c r="H24" s="532"/>
+      <c r="I24" s="547"/>
     </row>
     <row r="25" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="543" t="s">
-        <v>577</v>
-      </c>
-      <c r="C25" s="503"/>
-      <c r="D25" s="503"/>
-      <c r="E25" s="503" t="s">
-        <v>608</v>
-      </c>
-      <c r="F25" s="503"/>
-      <c r="G25" s="509" t="s">
-        <v>625</v>
-      </c>
-      <c r="H25" s="509"/>
-      <c r="I25" s="510"/>
+      <c r="B25" s="508" t="s">
+        <v>613</v>
+      </c>
+      <c r="C25" s="492"/>
+      <c r="D25" s="492"/>
+      <c r="E25" s="492" t="s">
+        <v>564</v>
+      </c>
+      <c r="F25" s="492"/>
+      <c r="G25" s="482" t="s">
+        <v>580</v>
+      </c>
+      <c r="H25" s="482"/>
+      <c r="I25" s="483"/>
     </row>
     <row r="26" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="509" t="s">
-        <v>420</v>
-      </c>
-      <c r="C26" s="509"/>
-      <c r="D26" s="510"/>
+      <c r="B26" s="495" t="s">
+        <v>622</v>
+      </c>
+      <c r="C26" s="482"/>
+      <c r="D26" s="482"/>
       <c r="E26" s="167"/>
       <c r="F26" s="129"/>
-      <c r="G26" s="534" t="s">
-        <v>578</v>
-      </c>
-      <c r="H26" s="504"/>
-      <c r="I26" s="504"/>
+      <c r="G26" s="478" t="s">
+        <v>538</v>
+      </c>
+      <c r="H26" s="478"/>
+      <c r="I26" s="479"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="545" t="s">
-        <v>621</v>
-      </c>
-      <c r="C27" s="545"/>
-      <c r="D27" s="546"/>
+      <c r="B27" s="517" t="s">
+        <v>577</v>
+      </c>
+      <c r="C27" s="480"/>
+      <c r="D27" s="480"/>
+      <c r="E27" s="153"/>
       <c r="F27" s="80"/>
-      <c r="G27" s="534" t="s">
-        <v>610</v>
-      </c>
-      <c r="H27" s="504"/>
-      <c r="I27" s="504"/>
+      <c r="G27" s="478" t="s">
+        <v>566</v>
+      </c>
+      <c r="H27" s="478"/>
+      <c r="I27" s="479"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="507" t="s">
-        <v>623</v>
-      </c>
-      <c r="C28" s="507"/>
-      <c r="D28" s="535"/>
+      <c r="B28" s="517" t="s">
+        <v>578</v>
+      </c>
+      <c r="C28" s="480"/>
+      <c r="D28" s="480"/>
       <c r="E28" s="129"/>
       <c r="F28" s="129"/>
-      <c r="G28" s="504" t="s">
-        <v>609</v>
-      </c>
-      <c r="H28" s="504"/>
-      <c r="I28" s="504"/>
+      <c r="G28" s="478" t="s">
+        <v>565</v>
+      </c>
+      <c r="H28" s="478"/>
+      <c r="I28" s="479"/>
     </row>
     <row r="29" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="259"/>
+      <c r="B29" s="241"/>
       <c r="C29" s="167"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
       <c r="F29" s="165"/>
       <c r="G29" s="165"/>
-      <c r="H29" s="500" t="s">
-        <v>575</v>
-      </c>
-      <c r="I29" s="527"/>
+      <c r="H29" s="476" t="s">
+        <v>537</v>
+      </c>
+      <c r="I29" s="493"/>
     </row>
     <row r="30" spans="1:9" s="95" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="172" t="s">
         <v>181</v>
       </c>
-      <c r="B30" s="540" t="s">
-        <v>611</v>
-      </c>
-      <c r="C30" s="540"/>
-      <c r="D30" s="541"/>
-      <c r="E30" s="265"/>
-      <c r="F30" s="265"/>
+      <c r="B30" s="548" t="s">
+        <v>567</v>
+      </c>
+      <c r="C30" s="506"/>
+      <c r="D30" s="506"/>
+      <c r="E30" s="243"/>
+      <c r="F30" s="243"/>
+      <c r="G30" s="197"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G27:I27"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A23:I23"/>
@@ -6610,6 +6698,11 @@
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G27:I27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.2" bottom="0.24" header="0.17" footer="0.17"/>
@@ -6624,9 +6717,9 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I1"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6645,17 +6738,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="519" t="s">
+      <c r="A1" s="484" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="520"/>
-      <c r="C1" s="520"/>
-      <c r="D1" s="520"/>
-      <c r="E1" s="520"/>
-      <c r="F1" s="520"/>
-      <c r="G1" s="520"/>
-      <c r="H1" s="520"/>
-      <c r="I1" s="521"/>
+      <c r="B1" s="485"/>
+      <c r="C1" s="485"/>
+      <c r="D1" s="485"/>
+      <c r="E1" s="485"/>
+      <c r="F1" s="485"/>
+      <c r="G1" s="485"/>
+      <c r="H1" s="485"/>
+      <c r="I1" s="486"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
@@ -6716,126 +6809,124 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="522" t="s">
+      <c r="A4" s="487" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="547"/>
-      <c r="C4" s="547"/>
-      <c r="D4" s="547"/>
-      <c r="E4" s="547"/>
-      <c r="F4" s="547"/>
-      <c r="G4" s="523"/>
-      <c r="H4" s="523"/>
-      <c r="I4" s="524"/>
+      <c r="B4" s="488"/>
+      <c r="C4" s="488"/>
+      <c r="D4" s="488"/>
+      <c r="E4" s="488"/>
+      <c r="F4" s="488"/>
+      <c r="G4" s="488"/>
+      <c r="H4" s="488"/>
+      <c r="I4" s="489"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="538" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="239" t="s">
-        <v>359</v>
-      </c>
-      <c r="D5" s="226" t="s">
-        <v>455</v>
-      </c>
-      <c r="E5" s="226" t="s">
-        <v>454</v>
-      </c>
-      <c r="F5" s="269" t="s">
-        <v>442</v>
-      </c>
-      <c r="G5" s="548" t="s">
-        <v>542</v>
-      </c>
-      <c r="H5" s="228" t="s">
-        <v>441</v>
-      </c>
-      <c r="I5" s="221"/>
-    </row>
-    <row r="6" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="228" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="177"/>
+      <c r="D5" s="178" t="s">
+        <v>423</v>
+      </c>
+      <c r="E5" s="178" t="s">
+        <v>422</v>
+      </c>
+      <c r="F5" s="539" t="s">
+        <v>410</v>
+      </c>
+      <c r="G5" s="509" t="s">
+        <v>505</v>
+      </c>
+      <c r="H5" s="540" t="s">
+        <v>409</v>
+      </c>
+      <c r="I5" s="242"/>
+    </row>
+    <row r="6" spans="1:9" ht="3.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="228" t="s">
-        <v>465</v>
-      </c>
-      <c r="C6" s="226" t="s">
-        <v>467</v>
-      </c>
+      <c r="B6" s="183"/>
+      <c r="C6" s="153"/>
       <c r="D6" s="153"/>
-      <c r="E6" s="226" t="s">
-        <v>466</v>
-      </c>
-      <c r="F6" s="220"/>
-      <c r="G6" s="549"/>
-      <c r="H6" s="217"/>
-      <c r="I6" s="181"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="510"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="180"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="228" t="s">
-        <v>468</v>
-      </c>
-      <c r="C7" s="226" t="s">
-        <v>469</v>
+      <c r="B7" s="256" t="s">
+        <v>436</v>
+      </c>
+      <c r="C7" s="252" t="s">
+        <v>437</v>
       </c>
       <c r="D7" s="159"/>
-      <c r="E7" s="226" t="s">
-        <v>470</v>
-      </c>
-      <c r="F7" s="220"/>
-      <c r="G7" s="549"/>
+      <c r="E7" s="252" t="s">
+        <v>438</v>
+      </c>
+      <c r="F7" s="214"/>
+      <c r="G7" s="510"/>
+      <c r="H7" s="183"/>
       <c r="I7" s="130"/>
     </row>
     <row r="8" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="228" t="s">
-        <v>472</v>
-      </c>
-      <c r="C8" s="226" t="s">
-        <v>473</v>
+      <c r="B8" s="256" t="s">
+        <v>440</v>
+      </c>
+      <c r="C8" s="252" t="s">
+        <v>441</v>
       </c>
       <c r="D8" s="152" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="E8" s="152" t="s">
-        <v>402</v>
-      </c>
-      <c r="F8" s="269" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="549"/>
-      <c r="H8" s="236" t="s">
-        <v>523</v>
-      </c>
-      <c r="I8" s="231" t="s">
-        <v>524</v>
+        <v>374</v>
+      </c>
+      <c r="F8" s="247" t="s">
+        <v>623</v>
+      </c>
+      <c r="G8" s="510"/>
+      <c r="H8" s="224" t="s">
+        <v>486</v>
+      </c>
+      <c r="I8" s="255" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="230" t="s">
-        <v>526</v>
-      </c>
-      <c r="D9" s="230" t="s">
-        <v>527</v>
-      </c>
-      <c r="E9" s="226" t="s">
-        <v>471</v>
-      </c>
-      <c r="F9" s="269" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" s="549"/>
-      <c r="H9" s="236" t="s">
-        <v>522</v>
+      <c r="B9" s="256" t="s">
+        <v>583</v>
+      </c>
+      <c r="C9" s="254" t="s">
+        <v>489</v>
+      </c>
+      <c r="D9" s="254" t="s">
+        <v>490</v>
+      </c>
+      <c r="E9" s="252" t="s">
+        <v>439</v>
+      </c>
+      <c r="F9" s="247" t="s">
+        <v>624</v>
+      </c>
+      <c r="G9" s="510"/>
+      <c r="H9" s="224" t="s">
+        <v>485</v>
       </c>
       <c r="I9" s="131"/>
     </row>
@@ -6843,425 +6934,424 @@
       <c r="A10" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="236" t="s">
-        <v>528</v>
-      </c>
-      <c r="C10" s="230" t="s">
-        <v>529</v>
+      <c r="B10" s="224" t="s">
+        <v>491</v>
+      </c>
+      <c r="C10" s="254" t="s">
+        <v>492</v>
       </c>
       <c r="D10" s="152" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="E10" s="152" t="s">
-        <v>456</v>
-      </c>
-      <c r="F10" s="270" t="s">
-        <v>530</v>
-      </c>
-      <c r="G10" s="549"/>
-      <c r="H10" s="188" t="s">
-        <v>462</v>
-      </c>
-      <c r="I10" s="181"/>
+        <v>424</v>
+      </c>
+      <c r="F10" s="248" t="s">
+        <v>493</v>
+      </c>
+      <c r="G10" s="510"/>
+      <c r="H10" s="187" t="s">
+        <v>430</v>
+      </c>
+      <c r="I10" s="180"/>
     </row>
     <row r="11" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="241" t="s">
-        <v>379</v>
+      <c r="B11" s="226" t="s">
+        <v>352</v>
       </c>
       <c r="C11" s="156" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="D11" s="152" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="E11" s="152" t="s">
-        <v>404</v>
-      </c>
-      <c r="F11" s="220"/>
-      <c r="G11" s="549"/>
-      <c r="H11" s="228" t="s">
-        <v>428</v>
-      </c>
-      <c r="I11" s="227" t="s">
-        <v>434</v>
+        <v>376</v>
+      </c>
+      <c r="F11" s="214"/>
+      <c r="G11" s="510"/>
+      <c r="H11" s="256" t="s">
+        <v>396</v>
+      </c>
+      <c r="I11" s="253" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="228" t="s">
-        <v>475</v>
-      </c>
-      <c r="C12" s="226" t="s">
-        <v>474</v>
-      </c>
-      <c r="D12" s="167"/>
-      <c r="E12" s="226" t="s">
-        <v>476</v>
-      </c>
-      <c r="F12" s="198" t="s">
-        <v>388</v>
-      </c>
-      <c r="G12" s="549"/>
-      <c r="H12" s="256" t="s">
-        <v>389</v>
-      </c>
-      <c r="I12" s="181"/>
+      <c r="B12" s="256" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" s="252" t="s">
+        <v>442</v>
+      </c>
+      <c r="D12" s="252" t="s">
+        <v>421</v>
+      </c>
+      <c r="E12" s="252" t="s">
+        <v>444</v>
+      </c>
+      <c r="F12" s="194" t="s">
+        <v>361</v>
+      </c>
+      <c r="G12" s="510"/>
+      <c r="H12" s="238" t="s">
+        <v>362</v>
+      </c>
+      <c r="I12" s="180"/>
     </row>
     <row r="13" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="241" t="s">
-        <v>383</v>
+      <c r="B13" s="226" t="s">
+        <v>356</v>
       </c>
       <c r="C13" s="156" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="D13" s="153"/>
-      <c r="E13" s="230" t="s">
-        <v>531</v>
-      </c>
-      <c r="F13" s="269" t="s">
-        <v>440</v>
-      </c>
-      <c r="G13" s="549"/>
-      <c r="H13" s="228" t="s">
-        <v>628</v>
-      </c>
-      <c r="I13" s="200" t="s">
-        <v>414</v>
+      <c r="E13" s="254" t="s">
+        <v>494</v>
+      </c>
+      <c r="F13" s="542"/>
+      <c r="G13" s="510"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="196" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="236" t="s">
-        <v>532</v>
-      </c>
-      <c r="C14" s="230" t="s">
-        <v>533</v>
+      <c r="B14" s="224" t="s">
+        <v>495</v>
+      </c>
+      <c r="C14" s="254" t="s">
+        <v>496</v>
       </c>
       <c r="D14" s="153"/>
       <c r="E14" s="167"/>
-      <c r="F14" s="198" t="s">
-        <v>193</v>
-      </c>
-      <c r="G14" s="549"/>
-      <c r="H14" s="256" t="s">
-        <v>390</v>
-      </c>
-      <c r="I14" s="187"/>
+      <c r="F14" s="194" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" s="510"/>
+      <c r="H14" s="238" t="s">
+        <v>615</v>
+      </c>
+      <c r="I14" s="186"/>
     </row>
     <row r="15" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="241" t="s">
-        <v>380</v>
+      <c r="B15" s="226" t="s">
+        <v>353</v>
       </c>
       <c r="C15" s="156" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="D15" s="167"/>
       <c r="E15" s="156" t="s">
-        <v>382</v>
-      </c>
-      <c r="F15" s="198" t="s">
-        <v>395</v>
-      </c>
-      <c r="G15" s="549"/>
-      <c r="H15" s="228" t="s">
-        <v>429</v>
-      </c>
-      <c r="I15" s="227" t="s">
-        <v>430</v>
+        <v>355</v>
+      </c>
+      <c r="F15" s="194" t="s">
+        <v>367</v>
+      </c>
+      <c r="G15" s="510"/>
+      <c r="H15" s="256" t="s">
+        <v>397</v>
+      </c>
+      <c r="I15" s="253" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="240" t="s">
-        <v>332</v>
+      <c r="B16" s="225" t="s">
+        <v>308</v>
       </c>
       <c r="C16" s="154" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="D16" s="154" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="E16" s="164"/>
-      <c r="F16" s="271" t="s">
-        <v>333</v>
-      </c>
-      <c r="G16" s="549"/>
-      <c r="H16" s="228" t="s">
-        <v>431</v>
-      </c>
-      <c r="I16" s="227" t="s">
-        <v>432</v>
+      <c r="F16" s="249" t="s">
+        <v>309</v>
+      </c>
+      <c r="G16" s="510"/>
+      <c r="H16" s="256" t="s">
+        <v>399</v>
+      </c>
+      <c r="I16" s="253" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="240" t="s">
-        <v>335</v>
-      </c>
+      <c r="B17" s="225" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="154" t="s">
-        <v>541</v>
-      </c>
-      <c r="F17" s="271" t="s">
-        <v>336</v>
-      </c>
-      <c r="G17" s="549"/>
-      <c r="H17" s="240" t="s">
-        <v>326</v>
-      </c>
-      <c r="I17" s="176" t="s">
-        <v>341</v>
+        <v>504</v>
+      </c>
+      <c r="F17" s="249" t="s">
+        <v>312</v>
+      </c>
+      <c r="G17" s="510"/>
+      <c r="H17" s="225" t="s">
+        <v>302</v>
+      </c>
+      <c r="I17" s="175" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="240" t="s">
-        <v>309</v>
+      <c r="B18" s="225" t="s">
+        <v>589</v>
       </c>
       <c r="C18" s="154" t="s">
-        <v>311</v>
+        <v>594</v>
       </c>
       <c r="D18" s="156" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="E18" s="156" t="s">
-        <v>413</v>
-      </c>
-      <c r="F18" s="271" t="s">
-        <v>310</v>
-      </c>
-      <c r="G18" s="549"/>
-      <c r="H18" s="240" t="s">
-        <v>312</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="F18" s="249" t="s">
+        <v>638</v>
+      </c>
+      <c r="G18" s="510"/>
+      <c r="H18" s="225" t="s">
+        <v>596</v>
+      </c>
+      <c r="I18" s="179"/>
     </row>
     <row r="19" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="240" t="s">
-        <v>338</v>
+      <c r="B19" s="225" t="s">
+        <v>314</v>
       </c>
       <c r="C19" s="154" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="D19" s="154" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="E19" s="154" t="s">
+        <v>292</v>
+      </c>
+      <c r="F19" s="249" t="s">
+        <v>295</v>
+      </c>
+      <c r="G19" s="510"/>
+      <c r="H19" s="225" t="s">
+        <v>324</v>
+      </c>
+      <c r="I19" s="253" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="185" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="475" t="s">
+        <v>539</v>
+      </c>
+      <c r="C20" s="476"/>
+      <c r="D20" s="154" t="s">
         <v>315</v>
       </c>
-      <c r="F19" s="271" t="s">
-        <v>319</v>
-      </c>
-      <c r="G19" s="549"/>
-      <c r="H19" s="240" t="s">
-        <v>348</v>
-      </c>
-      <c r="I19" s="227" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="186" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="499" t="s">
-        <v>579</v>
-      </c>
-      <c r="C20" s="500"/>
-      <c r="D20" s="154" t="s">
-        <v>339</v>
-      </c>
       <c r="E20" s="154" t="s">
-        <v>337</v>
-      </c>
-      <c r="F20" s="198" t="s">
-        <v>394</v>
-      </c>
-      <c r="G20" s="549"/>
-      <c r="H20" s="256" t="s">
-        <v>392</v>
-      </c>
-      <c r="I20" s="250" t="s">
-        <v>387</v>
+        <v>313</v>
+      </c>
+      <c r="F20" s="194" t="s">
+        <v>366</v>
+      </c>
+      <c r="G20" s="510"/>
+      <c r="H20" s="238" t="s">
+        <v>625</v>
+      </c>
+      <c r="I20" s="232" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="240" t="s">
-        <v>324</v>
+      <c r="B21" s="225" t="s">
+        <v>300</v>
       </c>
       <c r="C21" s="154" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="D21" s="159"/>
       <c r="E21" s="154" t="s">
-        <v>323</v>
-      </c>
-      <c r="F21" s="271" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" s="249" t="s">
+        <v>297</v>
+      </c>
+      <c r="G21" s="510"/>
+      <c r="H21" s="475" t="s">
+        <v>542</v>
+      </c>
+      <c r="I21" s="493"/>
+    </row>
+    <row r="22" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="184" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="245" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" s="227" t="s">
+        <v>304</v>
+      </c>
+      <c r="D22" s="227" t="s">
+        <v>318</v>
+      </c>
+      <c r="E22" s="235"/>
+      <c r="F22" s="250" t="s">
         <v>321</v>
       </c>
-      <c r="G21" s="549"/>
-      <c r="H21" s="500" t="s">
-        <v>582</v>
-      </c>
-      <c r="I21" s="500"/>
-    </row>
-    <row r="22" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="185" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="267" t="s">
-        <v>327</v>
-      </c>
-      <c r="C22" s="244" t="s">
-        <v>328</v>
-      </c>
-      <c r="D22" s="244" t="s">
-        <v>342</v>
-      </c>
-      <c r="E22" s="253"/>
-      <c r="F22" s="272" t="s">
-        <v>345</v>
-      </c>
-      <c r="G22" s="550"/>
-      <c r="H22" s="267" t="s">
-        <v>329</v>
-      </c>
-      <c r="I22" s="273"/>
+      <c r="G22" s="543"/>
+      <c r="H22" s="245" t="s">
+        <v>305</v>
+      </c>
+      <c r="I22" s="251"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="522" t="s">
+      <c r="A23" s="487" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="525"/>
-      <c r="C23" s="525"/>
-      <c r="D23" s="525"/>
-      <c r="E23" s="525"/>
-      <c r="F23" s="525"/>
-      <c r="G23" s="525"/>
-      <c r="H23" s="525"/>
-      <c r="I23" s="526"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="77" t="s">
+      <c r="B23" s="490"/>
+      <c r="C23" s="490"/>
+      <c r="D23" s="490"/>
+      <c r="E23" s="490"/>
+      <c r="F23" s="490"/>
+      <c r="G23" s="490"/>
+      <c r="H23" s="490"/>
+      <c r="I23" s="491"/>
+    </row>
+    <row r="24" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="185" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="542" t="s">
-        <v>300</v>
-      </c>
-      <c r="C24" s="542"/>
-      <c r="D24" s="554"/>
-      <c r="E24" s="204"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="551" t="s">
-        <v>189</v>
-      </c>
-      <c r="H24" s="274"/>
-      <c r="I24" s="275"/>
-    </row>
-    <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="499" t="s">
+        <v>628</v>
+      </c>
+      <c r="C24" s="477"/>
+      <c r="D24" s="477"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="544"/>
+      <c r="G24" s="511" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="541"/>
+      <c r="I24" s="213"/>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="503" t="s">
-        <v>301</v>
-      </c>
-      <c r="C25" s="503"/>
-      <c r="D25" s="555"/>
+      <c r="B25" s="508" t="s">
+        <v>627</v>
+      </c>
+      <c r="C25" s="492"/>
+      <c r="D25" s="492"/>
       <c r="E25" s="129"/>
       <c r="F25" s="147"/>
-      <c r="G25" s="552"/>
-      <c r="H25" s="217"/>
+      <c r="G25" s="512"/>
+      <c r="H25" s="211"/>
       <c r="I25" s="131"/>
     </row>
     <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="509" t="s">
-        <v>419</v>
-      </c>
-      <c r="C26" s="509"/>
-      <c r="D26" s="510"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="552"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="542"/>
+      <c r="G26" s="512"/>
       <c r="H26" s="149"/>
       <c r="I26" s="131"/>
     </row>
-    <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="557" t="s">
-        <v>415</v>
-      </c>
-      <c r="C27" s="558"/>
-      <c r="D27" s="558"/>
-      <c r="E27" s="129"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="481" t="s">
+        <v>626</v>
+      </c>
+      <c r="D27" s="481"/>
+      <c r="E27" s="481"/>
       <c r="F27" s="148"/>
-      <c r="G27" s="552"/>
+      <c r="G27" s="512"/>
       <c r="H27" s="150"/>
       <c r="I27" s="132"/>
     </row>
-    <row r="28" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="190"/>
+      <c r="B28" s="189"/>
       <c r="C28" s="80"/>
-      <c r="D28" s="509" t="s">
-        <v>418</v>
-      </c>
-      <c r="E28" s="509"/>
-      <c r="F28" s="510"/>
-      <c r="G28" s="552"/>
-      <c r="H28" s="190"/>
-      <c r="I28" s="189"/>
+      <c r="D28" s="482" t="s">
+        <v>629</v>
+      </c>
+      <c r="E28" s="482"/>
+      <c r="F28" s="545"/>
+      <c r="G28" s="512"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="188"/>
     </row>
     <row r="29" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="556" t="s">
-        <v>580</v>
-      </c>
-      <c r="C29" s="532"/>
-      <c r="D29" s="276"/>
-      <c r="E29" s="276"/>
-      <c r="F29" s="277" t="s">
-        <v>385</v>
-      </c>
-      <c r="G29" s="553"/>
-      <c r="H29" s="500" t="s">
-        <v>581</v>
-      </c>
-      <c r="I29" s="500"/>
+      <c r="B29" s="498" t="s">
+        <v>540</v>
+      </c>
+      <c r="C29" s="474"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="546" t="s">
+        <v>358</v>
+      </c>
+      <c r="G29" s="513"/>
+      <c r="H29" s="474" t="s">
+        <v>541</v>
+      </c>
+      <c r="I29" s="494"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A23:I23"/>
@@ -7271,8 +7361,7 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C27:E27"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="H21:I21"/>
@@ -7313,59 +7402,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="316" t="s">
+      <c r="B1" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="317"/>
-      <c r="D1" s="317"/>
-      <c r="E1" s="317"/>
-      <c r="F1" s="317"/>
-      <c r="G1" s="317"/>
-      <c r="H1" s="317"/>
-      <c r="I1" s="318"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="289"/>
     </row>
     <row r="2" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="319"/>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
-      <c r="G2" s="320"/>
-      <c r="H2" s="320"/>
-      <c r="I2" s="321"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="292"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="314" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="322" t="s">
+      <c r="A3" s="285" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="293" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="294"/>
+      <c r="D3" s="294"/>
+      <c r="E3" s="294"/>
+      <c r="F3" s="294"/>
+      <c r="G3" s="294"/>
+      <c r="H3" s="294"/>
+      <c r="I3" s="295"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="286"/>
+      <c r="B4" s="296" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="323"/>
-      <c r="D3" s="323"/>
-      <c r="E3" s="323"/>
-      <c r="F3" s="323"/>
-      <c r="G3" s="323"/>
-      <c r="H3" s="323"/>
-      <c r="I3" s="324"/>
-    </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="315"/>
-      <c r="B4" s="325" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="326"/>
-      <c r="D4" s="326"/>
-      <c r="E4" s="326"/>
-      <c r="F4" s="326"/>
-      <c r="G4" s="326"/>
-      <c r="H4" s="326"/>
-      <c r="I4" s="327"/>
+      <c r="C4" s="297"/>
+      <c r="D4" s="297"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="297"/>
+      <c r="G4" s="297"/>
+      <c r="H4" s="297"/>
+      <c r="I4" s="298"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="315"/>
+      <c r="A5" s="286"/>
       <c r="B5" s="110" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="111" t="s">
         <v>11</v>
@@ -7390,31 +7479,31 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="315"/>
-      <c r="B6" s="328" t="s">
+      <c r="A6" s="286"/>
+      <c r="B6" s="299" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="329"/>
-      <c r="D6" s="329"/>
-      <c r="E6" s="329"/>
-      <c r="F6" s="329"/>
-      <c r="G6" s="329"/>
-      <c r="H6" s="329"/>
-      <c r="I6" s="330"/>
+      <c r="C6" s="300"/>
+      <c r="D6" s="300"/>
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
+      <c r="H6" s="300"/>
+      <c r="I6" s="301"/>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="315"/>
+      <c r="A7" s="286"/>
       <c r="B7" s="83">
         <v>1</v>
       </c>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="190" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="82" t="s">
-        <v>207</v>
-      </c>
       <c r="E7" s="101" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F7" s="101">
         <v>9</v>
@@ -7425,23 +7514,23 @@
       <c r="H7" s="101">
         <v>2018</v>
       </c>
-      <c r="I7" s="211" t="s">
-        <v>251</v>
+      <c r="I7" s="205" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="315"/>
+      <c r="A8" s="286"/>
       <c r="B8" s="100">
         <v>2</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="206" t="s">
         <v>208</v>
       </c>
+      <c r="D8" s="200" t="s">
+        <v>207</v>
+      </c>
       <c r="E8" s="101" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F8" s="101">
         <v>18</v>
@@ -7452,23 +7541,23 @@
       <c r="H8" s="101">
         <v>2018</v>
       </c>
-      <c r="I8" s="211" t="s">
-        <v>253</v>
+      <c r="I8" s="205" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="315"/>
+      <c r="A9" s="286"/>
       <c r="B9" s="100">
         <v>3</v>
       </c>
       <c r="C9" s="101" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="200" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="206" t="s">
-        <v>214</v>
-      </c>
       <c r="E9" s="101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F9" s="101">
         <v>9</v>
@@ -7479,23 +7568,23 @@
       <c r="H9" s="101">
         <v>2018</v>
       </c>
-      <c r="I9" s="211" t="s">
-        <v>546</v>
+      <c r="I9" s="205" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="315"/>
+      <c r="A10" s="286"/>
       <c r="B10" s="100">
         <v>4</v>
       </c>
-      <c r="C10" s="192" t="s">
-        <v>222</v>
+      <c r="C10" s="190" t="s">
+        <v>221</v>
       </c>
       <c r="D10" s="82" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="101" t="s">
         <v>217</v>
-      </c>
-      <c r="E10" s="101" t="s">
-        <v>218</v>
       </c>
       <c r="F10" s="101">
         <v>9</v>
@@ -7507,22 +7596,22 @@
         <v>2018</v>
       </c>
       <c r="I10" s="85" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="315"/>
+      <c r="A11" s="286"/>
       <c r="B11" s="100">
         <v>5</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D11" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="101" t="s">
         <v>219</v>
-      </c>
-      <c r="E11" s="101" t="s">
-        <v>220</v>
       </c>
       <c r="F11" s="101">
         <v>9</v>
@@ -7533,20 +7622,20 @@
       <c r="H11" s="101">
         <v>2018</v>
       </c>
-      <c r="I11" s="211" t="s">
-        <v>305</v>
+      <c r="I11" s="205" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="315"/>
+      <c r="A12" s="286"/>
       <c r="B12" s="100">
         <v>6</v>
       </c>
-      <c r="C12" s="208" t="s">
+      <c r="C12" s="202" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="82" t="s">
         <v>223</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>224</v>
       </c>
       <c r="E12" s="101" t="s">
         <v>19</v>
@@ -7560,23 +7649,23 @@
       <c r="H12" s="101">
         <v>2018</v>
       </c>
-      <c r="I12" s="211" t="s">
-        <v>545</v>
+      <c r="I12" s="205" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="315"/>
+      <c r="A13" s="286"/>
       <c r="B13" s="100">
         <v>7</v>
       </c>
-      <c r="C13" s="192" t="s">
-        <v>227</v>
-      </c>
-      <c r="D13" s="206" t="s">
-        <v>225</v>
+      <c r="C13" s="190" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="200" t="s">
+        <v>224</v>
       </c>
       <c r="E13" s="101" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F13" s="101">
         <v>18</v>
@@ -7588,11 +7677,11 @@
         <v>2018</v>
       </c>
       <c r="I13" s="108" t="s">
-        <v>583</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="109" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="315"/>
+      <c r="A14" s="286"/>
       <c r="B14" s="100">
         <v>8</v>
       </c>
@@ -7615,11 +7704,11 @@
         <v>2018</v>
       </c>
       <c r="I14" s="108" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="315"/>
+      <c r="A15" s="286"/>
       <c r="B15" s="100">
         <v>9</v>
       </c>
@@ -7627,7 +7716,7 @@
         <v>159</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E15" s="101" t="s">
         <v>157</v>
@@ -7641,71 +7730,71 @@
       <c r="H15" s="101">
         <v>2018</v>
       </c>
-      <c r="I15" s="211" t="s">
-        <v>534</v>
+      <c r="I15" s="205" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="315"/>
-      <c r="B16" s="331" t="s">
+      <c r="A16" s="286"/>
+      <c r="B16" s="302" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="332"/>
-      <c r="D16" s="332"/>
-      <c r="E16" s="332"/>
+      <c r="C16" s="303"/>
+      <c r="D16" s="303"/>
+      <c r="E16" s="303"/>
       <c r="F16" s="113">
         <f>SUM(F7:F15)</f>
         <v>100</v>
       </c>
-      <c r="G16" s="332"/>
-      <c r="H16" s="332"/>
-      <c r="I16" s="333"/>
+      <c r="G16" s="303"/>
+      <c r="H16" s="303"/>
+      <c r="I16" s="304"/>
     </row>
     <row r="17" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="315"/>
-      <c r="B17" s="305" t="s">
-        <v>256</v>
-      </c>
-      <c r="C17" s="306"/>
-      <c r="D17" s="306"/>
-      <c r="E17" s="306"/>
-      <c r="F17" s="306"/>
-      <c r="G17" s="306"/>
-      <c r="H17" s="306"/>
-      <c r="I17" s="307"/>
+      <c r="A17" s="286"/>
+      <c r="B17" s="276" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="277"/>
+      <c r="D17" s="277"/>
+      <c r="E17" s="277"/>
+      <c r="F17" s="277"/>
+      <c r="G17" s="277"/>
+      <c r="H17" s="277"/>
+      <c r="I17" s="278"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="315"/>
-      <c r="B18" s="308"/>
-      <c r="C18" s="309"/>
-      <c r="D18" s="309"/>
-      <c r="E18" s="309"/>
-      <c r="F18" s="309"/>
-      <c r="G18" s="309"/>
-      <c r="H18" s="309"/>
-      <c r="I18" s="310"/>
+      <c r="A18" s="286"/>
+      <c r="B18" s="279"/>
+      <c r="C18" s="280"/>
+      <c r="D18" s="280"/>
+      <c r="E18" s="280"/>
+      <c r="F18" s="280"/>
+      <c r="G18" s="280"/>
+      <c r="H18" s="280"/>
+      <c r="I18" s="281"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="315"/>
-      <c r="B19" s="308"/>
-      <c r="C19" s="309"/>
-      <c r="D19" s="309"/>
-      <c r="E19" s="309"/>
-      <c r="F19" s="309"/>
-      <c r="G19" s="309"/>
-      <c r="H19" s="309"/>
-      <c r="I19" s="310"/>
+      <c r="A19" s="286"/>
+      <c r="B19" s="279"/>
+      <c r="C19" s="280"/>
+      <c r="D19" s="280"/>
+      <c r="E19" s="280"/>
+      <c r="F19" s="280"/>
+      <c r="G19" s="280"/>
+      <c r="H19" s="280"/>
+      <c r="I19" s="281"/>
     </row>
     <row r="20" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="315"/>
-      <c r="B20" s="311"/>
-      <c r="C20" s="312"/>
-      <c r="D20" s="312"/>
-      <c r="E20" s="312"/>
-      <c r="F20" s="312"/>
-      <c r="G20" s="312"/>
-      <c r="H20" s="312"/>
-      <c r="I20" s="313"/>
+      <c r="A20" s="286"/>
+      <c r="B20" s="282"/>
+      <c r="C20" s="283"/>
+      <c r="D20" s="283"/>
+      <c r="E20" s="283"/>
+      <c r="F20" s="283"/>
+      <c r="G20" s="283"/>
+      <c r="H20" s="283"/>
+      <c r="I20" s="284"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7752,61 +7841,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="334"/>
-      <c r="B1" s="336" t="s">
+      <c r="A1" s="305"/>
+      <c r="B1" s="307" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="337"/>
-      <c r="D1" s="337"/>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
-      <c r="G1" s="337"/>
-      <c r="H1" s="337"/>
-      <c r="I1" s="338"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="309"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="335"/>
-      <c r="B2" s="339"/>
-      <c r="C2" s="340"/>
-      <c r="D2" s="340"/>
-      <c r="E2" s="340"/>
-      <c r="F2" s="340"/>
-      <c r="G2" s="340"/>
-      <c r="H2" s="340"/>
-      <c r="I2" s="341"/>
+      <c r="A2" s="306"/>
+      <c r="B2" s="310"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="311"/>
+      <c r="H2" s="311"/>
+      <c r="I2" s="312"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="342" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="345" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="347"/>
+      <c r="A3" s="313" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="316" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="317"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="317"/>
+      <c r="F3" s="317"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="317"/>
+      <c r="I3" s="318"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="343"/>
-      <c r="B4" s="348" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="349"/>
-      <c r="D4" s="349"/>
-      <c r="E4" s="349"/>
-      <c r="F4" s="349"/>
-      <c r="G4" s="349"/>
-      <c r="H4" s="349"/>
-      <c r="I4" s="350"/>
+      <c r="A4" s="314"/>
+      <c r="B4" s="319" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="320"/>
+      <c r="D4" s="320"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="320"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="321"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="343"/>
+      <c r="A5" s="314"/>
       <c r="B5" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>11</v>
@@ -7831,20 +7920,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="343"/>
-      <c r="B6" s="351" t="s">
+      <c r="A6" s="314"/>
+      <c r="B6" s="322" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="352"/>
-      <c r="D6" s="352"/>
-      <c r="E6" s="352"/>
-      <c r="F6" s="352"/>
-      <c r="G6" s="352"/>
-      <c r="H6" s="352"/>
-      <c r="I6" s="353"/>
+      <c r="C6" s="323"/>
+      <c r="D6" s="323"/>
+      <c r="E6" s="323"/>
+      <c r="F6" s="323"/>
+      <c r="G6" s="323"/>
+      <c r="H6" s="323"/>
+      <c r="I6" s="324"/>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="343"/>
+      <c r="A7" s="314"/>
       <c r="B7" s="50">
         <v>1</v>
       </c>
@@ -7866,12 +7955,12 @@
       <c r="H7" s="17">
         <v>2017</v>
       </c>
-      <c r="I7" s="224" t="s">
-        <v>254</v>
+      <c r="I7" s="217" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="343"/>
+      <c r="A8" s="314"/>
       <c r="B8" s="50">
         <v>2</v>
       </c>
@@ -7893,12 +7982,12 @@
       <c r="H8" s="17">
         <v>2017</v>
       </c>
-      <c r="I8" s="210" t="s">
-        <v>255</v>
+      <c r="I8" s="204" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="343"/>
+      <c r="A9" s="314"/>
       <c r="B9" s="50">
         <v>3</v>
       </c>
@@ -7921,11 +8010,11 @@
         <v>2017</v>
       </c>
       <c r="I9" s="114" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="343"/>
+      <c r="A10" s="314"/>
       <c r="B10" s="50">
         <v>4</v>
       </c>
@@ -7948,11 +8037,11 @@
         <v>2017</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>624</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="343"/>
+      <c r="A11" s="314"/>
       <c r="B11" s="50">
         <v>5</v>
       </c>
@@ -7975,11 +8064,11 @@
         <v>2017</v>
       </c>
       <c r="I11" s="86" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="343"/>
+      <c r="A12" s="314"/>
       <c r="B12" s="50">
         <v>6</v>
       </c>
@@ -8002,24 +8091,24 @@
         <v>2017</v>
       </c>
       <c r="I12" s="115" t="s">
-        <v>629</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="343"/>
-      <c r="B13" s="354" t="s">
+      <c r="A13" s="314"/>
+      <c r="B13" s="325" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="355"/>
-      <c r="D13" s="355"/>
-      <c r="E13" s="355"/>
-      <c r="F13" s="355"/>
-      <c r="G13" s="355"/>
-      <c r="H13" s="355"/>
-      <c r="I13" s="356"/>
+      <c r="C13" s="326"/>
+      <c r="D13" s="326"/>
+      <c r="E13" s="326"/>
+      <c r="F13" s="326"/>
+      <c r="G13" s="326"/>
+      <c r="H13" s="326"/>
+      <c r="I13" s="327"/>
     </row>
     <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="343"/>
+      <c r="A14" s="314"/>
       <c r="B14" s="92">
         <v>7</v>
       </c>
@@ -8041,23 +8130,23 @@
       <c r="H14" s="25">
         <v>2017</v>
       </c>
-      <c r="I14" s="225" t="s">
-        <v>535</v>
+      <c r="I14" s="218" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="343"/>
+      <c r="A15" s="314"/>
       <c r="B15" s="92">
         <v>8</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D15" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" s="117" t="s">
         <v>233</v>
-      </c>
-      <c r="E15" s="117" t="s">
-        <v>234</v>
       </c>
       <c r="F15" s="32">
         <v>2</v>
@@ -8068,12 +8157,12 @@
       <c r="H15" s="25">
         <v>2017</v>
       </c>
-      <c r="I15" s="225" t="s">
-        <v>536</v>
+      <c r="I15" s="218" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="343"/>
+      <c r="A16" s="314"/>
       <c r="B16" s="92">
         <v>9</v>
       </c>
@@ -8095,25 +8184,25 @@
       <c r="H16" s="25">
         <v>2017</v>
       </c>
-      <c r="I16" s="225" t="s">
-        <v>537</v>
+      <c r="I16" s="218" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="343"/>
-      <c r="B17" s="357" t="s">
+      <c r="A17" s="314"/>
+      <c r="B17" s="328" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="358"/>
-      <c r="D17" s="358"/>
-      <c r="E17" s="358"/>
-      <c r="F17" s="358"/>
-      <c r="G17" s="358"/>
-      <c r="H17" s="358"/>
-      <c r="I17" s="359"/>
+      <c r="C17" s="329"/>
+      <c r="D17" s="329"/>
+      <c r="E17" s="329"/>
+      <c r="F17" s="329"/>
+      <c r="G17" s="329"/>
+      <c r="H17" s="329"/>
+      <c r="I17" s="330"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="343"/>
+      <c r="A18" s="314"/>
       <c r="B18" s="92">
         <v>10</v>
       </c>
@@ -8135,12 +8224,12 @@
       <c r="H18" s="25">
         <v>2017</v>
       </c>
-      <c r="I18" s="225" t="s">
-        <v>260</v>
+      <c r="I18" s="218" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="343"/>
+      <c r="A19" s="314"/>
       <c r="B19" s="92">
         <v>11</v>
       </c>
@@ -8162,12 +8251,12 @@
       <c r="H19" s="25">
         <v>2017</v>
       </c>
-      <c r="I19" s="225" t="s">
-        <v>261</v>
+      <c r="I19" s="218" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="343"/>
+      <c r="A20" s="314"/>
       <c r="B20" s="92">
         <v>12</v>
       </c>
@@ -8190,11 +8279,11 @@
         <v>2017</v>
       </c>
       <c r="I20" s="86" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="343"/>
+      <c r="A21" s="314"/>
       <c r="B21" s="92">
         <v>13</v>
       </c>
@@ -8217,11 +8306,11 @@
         <v>2017</v>
       </c>
       <c r="I21" s="86" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="343"/>
+      <c r="A22" s="314"/>
       <c r="B22" s="92">
         <v>14</v>
       </c>
@@ -8244,11 +8333,11 @@
         <v>2017</v>
       </c>
       <c r="I22" s="86" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="343"/>
+      <c r="A23" s="314"/>
       <c r="B23" s="92">
         <v>15</v>
       </c>
@@ -8270,25 +8359,25 @@
       <c r="H23" s="25">
         <v>2017</v>
       </c>
-      <c r="I23" s="225" t="s">
-        <v>289</v>
+      <c r="I23" s="218" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="344"/>
-      <c r="B24" s="360" t="s">
+      <c r="A24" s="315"/>
+      <c r="B24" s="331" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="361"/>
-      <c r="D24" s="361"/>
-      <c r="E24" s="361"/>
+      <c r="C24" s="332"/>
+      <c r="D24" s="332"/>
+      <c r="E24" s="332"/>
       <c r="F24" s="36">
         <f>SUM(F7:F23)</f>
         <v>59</v>
       </c>
       <c r="G24" s="37"/>
-      <c r="H24" s="362"/>
-      <c r="I24" s="363"/>
+      <c r="H24" s="333"/>
+      <c r="I24" s="334"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8319,10 +8408,10 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="5" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:I2"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8342,61 +8431,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="366"/>
-      <c r="B1" s="367" t="s">
+      <c r="A1" s="337"/>
+      <c r="B1" s="338" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="339"/>
+      <c r="F1" s="339"/>
+      <c r="G1" s="339"/>
+      <c r="H1" s="339"/>
+      <c r="I1" s="339"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="366"/>
-      <c r="B2" s="369"/>
-      <c r="C2" s="370"/>
-      <c r="D2" s="370"/>
-      <c r="E2" s="370"/>
-      <c r="F2" s="370"/>
-      <c r="G2" s="370"/>
-      <c r="H2" s="370"/>
-      <c r="I2" s="370"/>
+      <c r="A2" s="337"/>
+      <c r="B2" s="340"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="341"/>
+      <c r="F2" s="341"/>
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="341"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="371" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="374" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="375"/>
-      <c r="D3" s="375"/>
-      <c r="E3" s="375"/>
-      <c r="F3" s="375"/>
-      <c r="G3" s="375"/>
-      <c r="H3" s="375"/>
-      <c r="I3" s="376"/>
+      <c r="A3" s="342" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="345" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="346"/>
+      <c r="F3" s="346"/>
+      <c r="G3" s="346"/>
+      <c r="H3" s="346"/>
+      <c r="I3" s="347"/>
     </row>
     <row r="4" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="372"/>
-      <c r="B4" s="377" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="378"/>
-      <c r="D4" s="378"/>
-      <c r="E4" s="378"/>
-      <c r="F4" s="378"/>
-      <c r="G4" s="378"/>
-      <c r="H4" s="378"/>
-      <c r="I4" s="379"/>
+      <c r="A4" s="343"/>
+      <c r="B4" s="348" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="349"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="372"/>
+      <c r="A5" s="343"/>
       <c r="B5" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>11</v>
@@ -8421,20 +8510,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="372"/>
-      <c r="B6" s="380" t="s">
+      <c r="A6" s="343"/>
+      <c r="B6" s="351" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="381"/>
-      <c r="D6" s="381"/>
-      <c r="E6" s="381"/>
-      <c r="F6" s="381"/>
-      <c r="G6" s="381"/>
-      <c r="H6" s="381"/>
-      <c r="I6" s="382"/>
+      <c r="C6" s="352"/>
+      <c r="D6" s="352"/>
+      <c r="E6" s="352"/>
+      <c r="F6" s="352"/>
+      <c r="G6" s="352"/>
+      <c r="H6" s="352"/>
+      <c r="I6" s="353"/>
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="372"/>
+      <c r="A7" s="343"/>
       <c r="B7" s="48">
         <v>1</v>
       </c>
@@ -8456,18 +8545,18 @@
       <c r="H7" s="43">
         <v>2016</v>
       </c>
-      <c r="I7" s="197" t="s">
-        <v>252</v>
-      </c>
-      <c r="K7" s="223" t="s">
-        <v>355</v>
-      </c>
-      <c r="L7" s="222" t="s">
-        <v>356</v>
+      <c r="I7" s="193" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" s="216" t="s">
+        <v>329</v>
+      </c>
+      <c r="L7" s="215" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="372"/>
+      <c r="A8" s="343"/>
       <c r="B8" s="48">
         <v>2</v>
       </c>
@@ -8489,18 +8578,18 @@
       <c r="H8" s="43">
         <v>2016</v>
       </c>
-      <c r="I8" s="232" t="s">
-        <v>416</v>
-      </c>
-      <c r="K8" s="223" t="s">
-        <v>357</v>
-      </c>
-      <c r="L8" s="222" t="s">
-        <v>358</v>
+      <c r="I8" s="220" t="s">
+        <v>387</v>
+      </c>
+      <c r="K8" s="216" t="s">
+        <v>331</v>
+      </c>
+      <c r="L8" s="215" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="372"/>
+      <c r="A9" s="343"/>
       <c r="B9" s="48">
         <v>3</v>
       </c>
@@ -8523,11 +8612,11 @@
         <v>2016</v>
       </c>
       <c r="I9" s="121" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="372"/>
+      <c r="A10" s="343"/>
       <c r="B10" s="48">
         <v>4</v>
       </c>
@@ -8549,12 +8638,12 @@
       <c r="H10" s="43">
         <v>2016</v>
       </c>
-      <c r="I10" s="233" t="s">
-        <v>417</v>
+      <c r="I10" s="221" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="372"/>
+      <c r="A11" s="343"/>
       <c r="B11" s="49">
         <v>5</v>
       </c>
@@ -8577,11 +8666,11 @@
         <v>2016</v>
       </c>
       <c r="I11" s="121" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="372"/>
+      <c r="A12" s="343"/>
       <c r="B12" s="160">
         <v>6</v>
       </c>
@@ -8604,35 +8693,35 @@
         <v>2016</v>
       </c>
       <c r="I12" s="126" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="372"/>
-      <c r="B13" s="383" t="s">
-        <v>288</v>
-      </c>
-      <c r="C13" s="384"/>
-      <c r="D13" s="384"/>
-      <c r="E13" s="384"/>
-      <c r="F13" s="384"/>
-      <c r="G13" s="384"/>
-      <c r="H13" s="384"/>
-      <c r="I13" s="385"/>
+      <c r="A13" s="343"/>
+      <c r="B13" s="354" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="356"/>
     </row>
     <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="372"/>
+      <c r="A14" s="343"/>
       <c r="B14" s="161">
         <v>7</v>
       </c>
       <c r="C14" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="93" t="s">
         <v>235</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="E14" s="127" t="s">
         <v>236</v>
-      </c>
-      <c r="E14" s="127" t="s">
-        <v>237</v>
       </c>
       <c r="F14" s="41">
         <v>2</v>
@@ -8643,23 +8732,23 @@
       <c r="H14" s="41">
         <v>2015</v>
       </c>
-      <c r="I14" s="234" t="s">
-        <v>538</v>
+      <c r="I14" s="222" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="372"/>
+      <c r="A15" s="343"/>
       <c r="B15" s="161">
         <v>8</v>
       </c>
       <c r="C15" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="119" t="s">
         <v>238</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="E15" s="119" t="s">
-        <v>239</v>
       </c>
       <c r="F15" s="43">
         <v>2</v>
@@ -8670,23 +8759,23 @@
       <c r="H15" s="43">
         <v>2015</v>
       </c>
-      <c r="I15" s="234" t="s">
-        <v>539</v>
+      <c r="I15" s="222" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="372"/>
+      <c r="A16" s="343"/>
       <c r="B16" s="161">
         <v>10</v>
       </c>
       <c r="C16" s="122" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="118" t="s">
         <v>198</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="118" t="s">
-        <v>199</v>
       </c>
       <c r="F16" s="43">
         <v>2</v>
@@ -8697,20 +8786,20 @@
       <c r="H16" s="43">
         <v>2015</v>
       </c>
-      <c r="I16" s="234" t="s">
-        <v>290</v>
+      <c r="I16" s="222" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="372"/>
+      <c r="A17" s="343"/>
       <c r="B17" s="161">
         <v>11</v>
       </c>
       <c r="C17" s="122" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E17" s="118" t="s">
         <v>75</v>
@@ -8724,25 +8813,25 @@
       <c r="H17" s="43">
         <v>2015</v>
       </c>
-      <c r="I17" s="234" t="s">
-        <v>287</v>
+      <c r="I17" s="222" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="372"/>
-      <c r="B18" s="386" t="s">
+      <c r="A18" s="343"/>
+      <c r="B18" s="357" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="387"/>
-      <c r="D18" s="387"/>
-      <c r="E18" s="387"/>
-      <c r="F18" s="387"/>
-      <c r="G18" s="387"/>
-      <c r="H18" s="387"/>
-      <c r="I18" s="388"/>
+      <c r="C18" s="358"/>
+      <c r="D18" s="358"/>
+      <c r="E18" s="358"/>
+      <c r="F18" s="358"/>
+      <c r="G18" s="358"/>
+      <c r="H18" s="358"/>
+      <c r="I18" s="359"/>
     </row>
     <row r="19" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="372"/>
+      <c r="A19" s="343"/>
       <c r="B19" s="49">
         <v>13</v>
       </c>
@@ -8765,11 +8854,11 @@
         <v>2015</v>
       </c>
       <c r="I19" s="53" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="372"/>
+      <c r="A20" s="343"/>
       <c r="B20" s="49">
         <v>14</v>
       </c>
@@ -8792,11 +8881,11 @@
         <v>2015</v>
       </c>
       <c r="I20" s="54" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="372"/>
+      <c r="A21" s="343"/>
       <c r="B21" s="49">
         <v>15</v>
       </c>
@@ -8818,12 +8907,12 @@
       <c r="H21" s="43">
         <v>2015</v>
       </c>
-      <c r="I21" s="235" t="s">
-        <v>630</v>
+      <c r="I21" s="223" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="372"/>
+      <c r="A22" s="343"/>
       <c r="B22" s="49">
         <v>16</v>
       </c>
@@ -8845,32 +8934,32 @@
       <c r="H22" s="43">
         <v>2015</v>
       </c>
-      <c r="I22" s="235" t="s">
-        <v>268</v>
+      <c r="I22" s="223" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="373"/>
-      <c r="B23" s="389" t="s">
+      <c r="A23" s="344"/>
+      <c r="B23" s="360" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="390"/>
-      <c r="D23" s="390"/>
-      <c r="E23" s="390"/>
+      <c r="C23" s="361"/>
+      <c r="D23" s="361"/>
+      <c r="E23" s="361"/>
       <c r="F23" s="55">
         <f>SUM(F7:F22)</f>
         <v>58</v>
       </c>
-      <c r="G23" s="391"/>
-      <c r="H23" s="391"/>
-      <c r="I23" s="392"/>
+      <c r="G23" s="362"/>
+      <c r="H23" s="362"/>
+      <c r="I23" s="363"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="364" t="s">
-        <v>354</v>
-      </c>
-      <c r="E25" s="365"/>
+      <c r="D25" s="335" t="s">
+        <v>328</v>
+      </c>
+      <c r="E25" s="336"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8898,11 +8987,11 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:I2"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8930,61 +9019,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="396"/>
-      <c r="B1" s="397" t="s">
+      <c r="A1" s="367"/>
+      <c r="B1" s="368" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="398"/>
-      <c r="D1" s="398"/>
-      <c r="E1" s="398"/>
-      <c r="F1" s="398"/>
-      <c r="G1" s="398"/>
-      <c r="H1" s="398"/>
-      <c r="I1" s="399"/>
+      <c r="C1" s="369"/>
+      <c r="D1" s="369"/>
+      <c r="E1" s="369"/>
+      <c r="F1" s="369"/>
+      <c r="G1" s="369"/>
+      <c r="H1" s="369"/>
+      <c r="I1" s="370"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="396"/>
-      <c r="B2" s="400"/>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="401"/>
-      <c r="F2" s="401"/>
-      <c r="G2" s="401"/>
-      <c r="H2" s="401"/>
-      <c r="I2" s="402"/>
+      <c r="A2" s="367"/>
+      <c r="B2" s="371"/>
+      <c r="C2" s="372"/>
+      <c r="D2" s="372"/>
+      <c r="E2" s="372"/>
+      <c r="F2" s="372"/>
+      <c r="G2" s="372"/>
+      <c r="H2" s="372"/>
+      <c r="I2" s="373"/>
     </row>
     <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="403" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="406" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="407"/>
-      <c r="D3" s="407"/>
-      <c r="E3" s="407"/>
-      <c r="F3" s="407"/>
-      <c r="G3" s="407"/>
-      <c r="H3" s="407"/>
-      <c r="I3" s="408"/>
+      <c r="A3" s="374" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="377" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="378"/>
+      <c r="D3" s="378"/>
+      <c r="E3" s="378"/>
+      <c r="F3" s="378"/>
+      <c r="G3" s="378"/>
+      <c r="H3" s="378"/>
+      <c r="I3" s="379"/>
     </row>
     <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="404"/>
-      <c r="B4" s="409" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="410"/>
-      <c r="D4" s="410"/>
-      <c r="E4" s="410"/>
-      <c r="F4" s="410"/>
-      <c r="G4" s="410"/>
-      <c r="H4" s="410"/>
-      <c r="I4" s="411"/>
+      <c r="A4" s="375"/>
+      <c r="B4" s="380" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="381"/>
+      <c r="D4" s="381"/>
+      <c r="E4" s="381"/>
+      <c r="F4" s="381"/>
+      <c r="G4" s="381"/>
+      <c r="H4" s="381"/>
+      <c r="I4" s="382"/>
     </row>
     <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="404"/>
+      <c r="A5" s="375"/>
       <c r="B5" s="88" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="89" t="s">
         <v>11</v>
@@ -9009,21 +9098,21 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="404"/>
-      <c r="B6" s="412" t="s">
+      <c r="A6" s="375"/>
+      <c r="B6" s="383" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="413"/>
-      <c r="D6" s="413"/>
-      <c r="E6" s="413"/>
-      <c r="F6" s="413"/>
-      <c r="G6" s="413"/>
-      <c r="H6" s="413"/>
-      <c r="I6" s="414"/>
+      <c r="C6" s="384"/>
+      <c r="D6" s="384"/>
+      <c r="E6" s="384"/>
+      <c r="F6" s="384"/>
+      <c r="G6" s="384"/>
+      <c r="H6" s="384"/>
+      <c r="I6" s="385"/>
       <c r="M6" s="87"/>
     </row>
     <row r="7" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="404"/>
+      <c r="A7" s="375"/>
       <c r="B7" s="62">
         <v>1</v>
       </c>
@@ -9046,17 +9135,17 @@
         <v>2015</v>
       </c>
       <c r="I7" s="91" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M7" s="151"/>
       <c r="N7" s="151"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="404"/>
+      <c r="A8" s="375"/>
       <c r="B8" s="62">
         <v>2</v>
       </c>
-      <c r="C8" s="209" t="s">
+      <c r="C8" s="203" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="73" t="s">
@@ -9078,11 +9167,11 @@
       <c r="M8" s="87"/>
     </row>
     <row r="9" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="404"/>
+      <c r="A9" s="375"/>
       <c r="B9" s="62">
         <v>3</v>
       </c>
-      <c r="C9" s="209" t="s">
+      <c r="C9" s="203" t="s">
         <v>97</v>
       </c>
       <c r="D9" s="73" t="s">
@@ -9098,18 +9187,18 @@
         <v>3</v>
       </c>
       <c r="H9" s="64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I9" s="91"/>
       <c r="M9" s="151"/>
     </row>
     <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="404"/>
+      <c r="A10" s="375"/>
       <c r="B10" s="62">
         <v>4</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" s="71" t="s">
         <v>100</v>
@@ -9127,7 +9216,7 @@
         <v>2015</v>
       </c>
       <c r="I10" s="72" t="s">
-        <v>543</v>
+        <v>506</v>
       </c>
       <c r="K10" s="151"/>
       <c r="L10" s="151"/>
@@ -9135,35 +9224,35 @@
       <c r="N10" s="151"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="404"/>
-      <c r="B11" s="415" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="416"/>
-      <c r="D11" s="416"/>
-      <c r="E11" s="416"/>
-      <c r="F11" s="416"/>
-      <c r="G11" s="416"/>
-      <c r="H11" s="416"/>
-      <c r="I11" s="417"/>
+      <c r="A11" s="375"/>
+      <c r="B11" s="386" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="387"/>
+      <c r="D11" s="387"/>
+      <c r="E11" s="387"/>
+      <c r="F11" s="387"/>
+      <c r="G11" s="387"/>
+      <c r="H11" s="387"/>
+      <c r="I11" s="388"/>
       <c r="K11" s="151"/>
       <c r="L11" s="151"/>
       <c r="M11" s="151"/>
       <c r="N11" s="151"/>
     </row>
     <row r="12" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="404"/>
+      <c r="A12" s="375"/>
       <c r="B12" s="67">
         <v>5</v>
       </c>
       <c r="C12" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="E12" s="65" t="s">
         <v>244</v>
-      </c>
-      <c r="E12" s="65" t="s">
-        <v>245</v>
       </c>
       <c r="F12" s="64">
         <v>7</v>
@@ -9175,7 +9264,7 @@
         <v>2015</v>
       </c>
       <c r="I12" s="69" t="s">
-        <v>540</v>
+        <v>503</v>
       </c>
       <c r="K12" s="151"/>
       <c r="L12" s="151"/>
@@ -9183,31 +9272,31 @@
       <c r="N12" s="151"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="404"/>
-      <c r="B13" s="415" t="s">
+      <c r="A13" s="375"/>
+      <c r="B13" s="386" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="416"/>
-      <c r="D13" s="416"/>
-      <c r="E13" s="416"/>
-      <c r="F13" s="416"/>
-      <c r="G13" s="416"/>
-      <c r="H13" s="416"/>
-      <c r="I13" s="417"/>
+      <c r="C13" s="387"/>
+      <c r="D13" s="387"/>
+      <c r="E13" s="387"/>
+      <c r="F13" s="387"/>
+      <c r="G13" s="387"/>
+      <c r="H13" s="387"/>
+      <c r="I13" s="388"/>
     </row>
     <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="404"/>
+      <c r="A14" s="375"/>
       <c r="B14" s="62">
         <v>7</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D14" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" s="64" t="s">
         <v>241</v>
-      </c>
-      <c r="E14" s="64" t="s">
-        <v>242</v>
       </c>
       <c r="F14" s="64">
         <v>1</v>
@@ -9219,16 +9308,16 @@
         <v>2015</v>
       </c>
       <c r="I14" s="69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="404"/>
+      <c r="A15" s="375"/>
       <c r="B15" s="62">
         <v>8</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D15" s="75" t="s">
         <v>169</v>
@@ -9246,11 +9335,11 @@
         <v>2015</v>
       </c>
       <c r="I15" s="69" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="404"/>
+      <c r="A16" s="375"/>
       <c r="B16" s="62">
         <v>9</v>
       </c>
@@ -9258,10 +9347,10 @@
         <v>156</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="F16" s="64">
         <v>1</v>
@@ -9273,19 +9362,19 @@
         <v>2015</v>
       </c>
       <c r="I16" s="69" t="s">
-        <v>271</v>
+        <v>630</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="404"/>
+      <c r="A17" s="375"/>
       <c r="B17" s="62">
         <v>10</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E17" s="65" t="s">
         <v>113</v>
@@ -9300,19 +9389,19 @@
         <v>2015</v>
       </c>
       <c r="I17" s="68" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="404"/>
+      <c r="A18" s="375"/>
       <c r="B18" s="62">
         <v>11</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E18" s="65" t="s">
         <v>171</v>
@@ -9327,24 +9416,24 @@
         <v>2015</v>
       </c>
       <c r="I18" s="68" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="404"/>
-      <c r="B19" s="412" t="s">
+      <c r="A19" s="375"/>
+      <c r="B19" s="383" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="413"/>
-      <c r="D19" s="413"/>
-      <c r="E19" s="413"/>
-      <c r="F19" s="413"/>
-      <c r="G19" s="413"/>
-      <c r="H19" s="413"/>
-      <c r="I19" s="414"/>
+      <c r="C19" s="384"/>
+      <c r="D19" s="384"/>
+      <c r="E19" s="384"/>
+      <c r="F19" s="384"/>
+      <c r="G19" s="384"/>
+      <c r="H19" s="384"/>
+      <c r="I19" s="385"/>
     </row>
     <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="404"/>
+      <c r="A20" s="375"/>
       <c r="B20" s="162">
         <v>13</v>
       </c>
@@ -9367,11 +9456,11 @@
         <v>2015</v>
       </c>
       <c r="I20" s="96" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="404"/>
+      <c r="A21" s="375"/>
       <c r="B21" s="162">
         <v>14</v>
       </c>
@@ -9394,11 +9483,11 @@
         <v>2015</v>
       </c>
       <c r="I21" s="72" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="404"/>
+      <c r="A22" s="375"/>
       <c r="B22" s="162">
         <v>15</v>
       </c>
@@ -9421,24 +9510,24 @@
         <v>2015</v>
       </c>
       <c r="I22" s="68" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="405"/>
-      <c r="B23" s="393" t="s">
+      <c r="A23" s="376"/>
+      <c r="B23" s="364" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="394"/>
-      <c r="D23" s="394"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="195">
+      <c r="C23" s="365"/>
+      <c r="D23" s="365"/>
+      <c r="E23" s="365"/>
+      <c r="F23" s="191">
         <f>SUM(F7:F22)</f>
         <v>33</v>
       </c>
-      <c r="G23" s="394"/>
-      <c r="H23" s="394"/>
-      <c r="I23" s="395"/>
+      <c r="G23" s="365"/>
+      <c r="H23" s="365"/>
+      <c r="I23" s="366"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9461,10 +9550,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L34"/>
+  <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9495,30 +9584,30 @@
     </row>
     <row r="2" spans="2:12" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="137"/>
-      <c r="C2" s="452" t="s">
+      <c r="C2" s="423" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="453"/>
-      <c r="E2" s="453"/>
-      <c r="F2" s="453"/>
-      <c r="G2" s="453"/>
-      <c r="H2" s="453"/>
-      <c r="I2" s="453"/>
-      <c r="J2" s="454"/>
+      <c r="D2" s="424"/>
+      <c r="E2" s="424"/>
+      <c r="F2" s="424"/>
+      <c r="G2" s="424"/>
+      <c r="H2" s="424"/>
+      <c r="I2" s="424"/>
+      <c r="J2" s="425"/>
       <c r="K2" s="138"/>
     </row>
     <row r="3" spans="2:12" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="137"/>
-      <c r="C3" s="455" t="s">
-        <v>285</v>
-      </c>
-      <c r="D3" s="456"/>
-      <c r="E3" s="456"/>
-      <c r="F3" s="456"/>
-      <c r="G3" s="456"/>
-      <c r="H3" s="456"/>
-      <c r="I3" s="456"/>
-      <c r="J3" s="457"/>
+      <c r="C3" s="426" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="427"/>
+      <c r="E3" s="427"/>
+      <c r="F3" s="427"/>
+      <c r="G3" s="427"/>
+      <c r="H3" s="427"/>
+      <c r="I3" s="427"/>
+      <c r="J3" s="428"/>
       <c r="K3" s="138"/>
     </row>
     <row r="4" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9535,42 +9624,42 @@
     </row>
     <row r="5" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="137"/>
-      <c r="C5" s="458" t="s">
+      <c r="C5" s="429" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="459"/>
-      <c r="E5" s="459"/>
-      <c r="F5" s="459"/>
-      <c r="G5" s="459"/>
-      <c r="H5" s="459"/>
-      <c r="I5" s="459"/>
-      <c r="J5" s="460"/>
+      <c r="D5" s="430"/>
+      <c r="E5" s="430"/>
+      <c r="F5" s="430"/>
+      <c r="G5" s="430"/>
+      <c r="H5" s="430"/>
+      <c r="I5" s="430"/>
+      <c r="J5" s="431"/>
       <c r="K5" s="138"/>
     </row>
     <row r="6" spans="2:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="137"/>
-      <c r="C6" s="461"/>
-      <c r="D6" s="462"/>
-      <c r="E6" s="462"/>
-      <c r="F6" s="462"/>
-      <c r="G6" s="462"/>
-      <c r="H6" s="462"/>
-      <c r="I6" s="462"/>
-      <c r="J6" s="463"/>
+      <c r="C6" s="432"/>
+      <c r="D6" s="433"/>
+      <c r="E6" s="433"/>
+      <c r="F6" s="433"/>
+      <c r="G6" s="433"/>
+      <c r="H6" s="433"/>
+      <c r="I6" s="433"/>
+      <c r="J6" s="434"/>
       <c r="K6" s="138"/>
     </row>
     <row r="7" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="137"/>
-      <c r="C7" s="474" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="475"/>
-      <c r="E7" s="475"/>
-      <c r="F7" s="475"/>
-      <c r="G7" s="475"/>
-      <c r="H7" s="475"/>
-      <c r="I7" s="475"/>
-      <c r="J7" s="476"/>
+      <c r="C7" s="445" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="446"/>
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="446"/>
+      <c r="I7" s="446"/>
+      <c r="J7" s="447"/>
       <c r="K7" s="138"/>
       <c r="L7" s="140"/>
     </row>
@@ -9588,98 +9677,98 @@
     </row>
     <row r="9" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="137"/>
-      <c r="C9" s="464" t="s">
+      <c r="C9" s="435" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="465"/>
-      <c r="E9" s="465"/>
-      <c r="F9" s="465"/>
-      <c r="G9" s="465"/>
-      <c r="H9" s="465"/>
-      <c r="I9" s="465"/>
-      <c r="J9" s="466"/>
+      <c r="D9" s="436"/>
+      <c r="E9" s="436"/>
+      <c r="F9" s="436"/>
+      <c r="G9" s="436"/>
+      <c r="H9" s="436"/>
+      <c r="I9" s="436"/>
+      <c r="J9" s="437"/>
       <c r="K9" s="138"/>
     </row>
     <row r="10" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="137"/>
-      <c r="C10" s="467"/>
-      <c r="D10" s="468"/>
-      <c r="E10" s="468"/>
-      <c r="F10" s="468"/>
-      <c r="G10" s="468"/>
-      <c r="H10" s="469"/>
-      <c r="I10" s="469"/>
-      <c r="J10" s="470"/>
+      <c r="C10" s="438"/>
+      <c r="D10" s="439"/>
+      <c r="E10" s="439"/>
+      <c r="F10" s="439"/>
+      <c r="G10" s="439"/>
+      <c r="H10" s="440"/>
+      <c r="I10" s="440"/>
+      <c r="J10" s="441"/>
       <c r="K10" s="138"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="137"/>
-      <c r="C11" s="471" t="s">
+      <c r="C11" s="442" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="472"/>
-      <c r="E11" s="472"/>
-      <c r="F11" s="472"/>
-      <c r="G11" s="473"/>
-      <c r="H11" s="477" t="s">
+      <c r="D11" s="443"/>
+      <c r="E11" s="443"/>
+      <c r="F11" s="443"/>
+      <c r="G11" s="444"/>
+      <c r="H11" s="448" t="s">
         <v>115</v>
       </c>
-      <c r="I11" s="478"/>
-      <c r="J11" s="479"/>
+      <c r="I11" s="449"/>
+      <c r="J11" s="450"/>
       <c r="K11" s="138"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="137"/>
-      <c r="C12" s="418" t="s">
-        <v>277</v>
-      </c>
-      <c r="D12" s="419"/>
-      <c r="E12" s="419"/>
-      <c r="F12" s="419"/>
-      <c r="G12" s="419"/>
-      <c r="H12" s="419"/>
-      <c r="I12" s="419"/>
-      <c r="J12" s="420"/>
+      <c r="C12" s="389" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="390"/>
+      <c r="E12" s="390"/>
+      <c r="F12" s="390"/>
+      <c r="G12" s="390"/>
+      <c r="H12" s="390"/>
+      <c r="I12" s="390"/>
+      <c r="J12" s="391"/>
       <c r="K12" s="138"/>
     </row>
     <row r="13" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="137"/>
-      <c r="C13" s="421"/>
-      <c r="D13" s="422"/>
-      <c r="E13" s="422"/>
-      <c r="F13" s="422"/>
-      <c r="G13" s="422"/>
-      <c r="H13" s="422"/>
-      <c r="I13" s="422"/>
-      <c r="J13" s="423"/>
+      <c r="C13" s="392"/>
+      <c r="D13" s="393"/>
+      <c r="E13" s="393"/>
+      <c r="F13" s="393"/>
+      <c r="G13" s="393"/>
+      <c r="H13" s="393"/>
+      <c r="I13" s="393"/>
+      <c r="J13" s="394"/>
       <c r="K13" s="138"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="137"/>
-      <c r="C14" s="446" t="s">
+      <c r="C14" s="417" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="447"/>
-      <c r="E14" s="447"/>
-      <c r="F14" s="447"/>
-      <c r="G14" s="447"/>
-      <c r="H14" s="447"/>
-      <c r="I14" s="447"/>
-      <c r="J14" s="448"/>
+      <c r="D14" s="418"/>
+      <c r="E14" s="418"/>
+      <c r="F14" s="418"/>
+      <c r="G14" s="418"/>
+      <c r="H14" s="418"/>
+      <c r="I14" s="418"/>
+      <c r="J14" s="419"/>
       <c r="K14" s="138"/>
     </row>
     <row r="15" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="137"/>
-      <c r="C15" s="449" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" s="450"/>
-      <c r="E15" s="450"/>
-      <c r="F15" s="450"/>
-      <c r="G15" s="450"/>
-      <c r="H15" s="450"/>
-      <c r="I15" s="450"/>
-      <c r="J15" s="451"/>
+      <c r="C15" s="420" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="421"/>
+      <c r="E15" s="421"/>
+      <c r="F15" s="421"/>
+      <c r="G15" s="421"/>
+      <c r="H15" s="421"/>
+      <c r="I15" s="421"/>
+      <c r="J15" s="422"/>
       <c r="K15" s="138"/>
     </row>
     <row r="16" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9696,84 +9785,84 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="137"/>
-      <c r="C17" s="436" t="s">
+      <c r="C17" s="407" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="437"/>
-      <c r="E17" s="437"/>
-      <c r="F17" s="437"/>
-      <c r="G17" s="437"/>
-      <c r="H17" s="437"/>
-      <c r="I17" s="437"/>
-      <c r="J17" s="438"/>
+      <c r="D17" s="408"/>
+      <c r="E17" s="408"/>
+      <c r="F17" s="408"/>
+      <c r="G17" s="408"/>
+      <c r="H17" s="408"/>
+      <c r="I17" s="408"/>
+      <c r="J17" s="409"/>
       <c r="K17" s="138"/>
     </row>
     <row r="18" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="137"/>
-      <c r="C18" s="439"/>
-      <c r="D18" s="440"/>
-      <c r="E18" s="440"/>
-      <c r="F18" s="441"/>
-      <c r="G18" s="441"/>
-      <c r="H18" s="441"/>
-      <c r="I18" s="441"/>
-      <c r="J18" s="442"/>
+      <c r="C18" s="410"/>
+      <c r="D18" s="411"/>
+      <c r="E18" s="411"/>
+      <c r="F18" s="412"/>
+      <c r="G18" s="412"/>
+      <c r="H18" s="412"/>
+      <c r="I18" s="412"/>
+      <c r="J18" s="413"/>
       <c r="K18" s="138"/>
     </row>
     <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="137"/>
-      <c r="C19" s="443" t="s">
-        <v>286</v>
-      </c>
-      <c r="D19" s="444"/>
-      <c r="E19" s="445"/>
-      <c r="F19" s="430" t="s">
+      <c r="C19" s="414" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" s="415"/>
+      <c r="E19" s="416"/>
+      <c r="F19" s="401" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="431"/>
-      <c r="H19" s="431"/>
-      <c r="I19" s="431"/>
-      <c r="J19" s="432"/>
+      <c r="G19" s="402"/>
+      <c r="H19" s="402"/>
+      <c r="I19" s="402"/>
+      <c r="J19" s="403"/>
       <c r="K19" s="138"/>
     </row>
     <row r="20" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="137"/>
-      <c r="C20" s="424" t="s">
-        <v>280</v>
-      </c>
-      <c r="D20" s="425"/>
-      <c r="E20" s="425"/>
-      <c r="F20" s="425"/>
-      <c r="G20" s="425"/>
-      <c r="H20" s="425"/>
-      <c r="I20" s="425"/>
-      <c r="J20" s="426"/>
+      <c r="C20" s="395" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" s="396"/>
+      <c r="E20" s="396"/>
+      <c r="F20" s="396"/>
+      <c r="G20" s="396"/>
+      <c r="H20" s="396"/>
+      <c r="I20" s="396"/>
+      <c r="J20" s="397"/>
       <c r="K20" s="138"/>
     </row>
     <row r="21" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="137"/>
-      <c r="C21" s="427"/>
-      <c r="D21" s="428"/>
-      <c r="E21" s="428"/>
-      <c r="F21" s="428"/>
-      <c r="G21" s="428"/>
-      <c r="H21" s="428"/>
-      <c r="I21" s="428"/>
-      <c r="J21" s="429"/>
+      <c r="C21" s="398"/>
+      <c r="D21" s="399"/>
+      <c r="E21" s="399"/>
+      <c r="F21" s="399"/>
+      <c r="G21" s="399"/>
+      <c r="H21" s="399"/>
+      <c r="I21" s="399"/>
+      <c r="J21" s="400"/>
       <c r="K21" s="138"/>
     </row>
     <row r="22" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="137"/>
-      <c r="C22" s="433" t="s">
+      <c r="C22" s="404" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="434"/>
-      <c r="E22" s="434"/>
-      <c r="F22" s="434"/>
-      <c r="G22" s="434"/>
-      <c r="H22" s="434"/>
-      <c r="I22" s="434"/>
-      <c r="J22" s="435"/>
+      <c r="D22" s="405"/>
+      <c r="E22" s="405"/>
+      <c r="F22" s="405"/>
+      <c r="G22" s="405"/>
+      <c r="H22" s="405"/>
+      <c r="I22" s="405"/>
+      <c r="J22" s="406"/>
       <c r="K22" s="138"/>
     </row>
     <row r="23" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9790,138 +9879,177 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="137"/>
-      <c r="C24" s="480" t="s">
+      <c r="C24" s="451" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="481"/>
-      <c r="E24" s="481"/>
-      <c r="F24" s="481"/>
-      <c r="G24" s="481"/>
-      <c r="H24" s="481"/>
-      <c r="I24" s="481"/>
-      <c r="J24" s="482"/>
+      <c r="D24" s="452"/>
+      <c r="E24" s="452"/>
+      <c r="F24" s="452"/>
+      <c r="G24" s="452"/>
+      <c r="H24" s="452"/>
+      <c r="I24" s="452"/>
+      <c r="J24" s="453"/>
       <c r="K24" s="138"/>
     </row>
     <row r="25" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="137"/>
-      <c r="C25" s="483"/>
-      <c r="D25" s="484"/>
-      <c r="E25" s="484"/>
-      <c r="F25" s="484"/>
-      <c r="G25" s="484"/>
-      <c r="H25" s="484"/>
-      <c r="I25" s="484"/>
-      <c r="J25" s="485"/>
+      <c r="C25" s="454"/>
+      <c r="D25" s="455"/>
+      <c r="E25" s="455"/>
+      <c r="F25" s="455"/>
+      <c r="G25" s="455"/>
+      <c r="H25" s="455"/>
+      <c r="I25" s="455"/>
+      <c r="J25" s="456"/>
       <c r="K25" s="138"/>
     </row>
     <row r="26" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="137"/>
-      <c r="C26" s="489" t="s">
-        <v>283</v>
-      </c>
-      <c r="D26" s="490"/>
-      <c r="E26" s="491"/>
-      <c r="F26" s="489" t="s">
+      <c r="C26" s="457" t="s">
+        <v>281</v>
+      </c>
+      <c r="D26" s="458"/>
+      <c r="E26" s="459"/>
+      <c r="F26" s="457" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="490"/>
-      <c r="H26" s="490"/>
-      <c r="I26" s="490"/>
-      <c r="J26" s="491"/>
+      <c r="G26" s="458"/>
+      <c r="H26" s="458"/>
+      <c r="I26" s="458"/>
+      <c r="J26" s="459"/>
       <c r="K26" s="138"/>
     </row>
-    <row r="27" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="137"/>
-      <c r="C27" s="486" t="s">
-        <v>284</v>
-      </c>
-      <c r="D27" s="487"/>
-      <c r="E27" s="487"/>
-      <c r="F27" s="487"/>
-      <c r="G27" s="487"/>
-      <c r="H27" s="487"/>
-      <c r="I27" s="487"/>
-      <c r="J27" s="488"/>
+      <c r="C27" s="457" t="s">
+        <v>631</v>
+      </c>
+      <c r="D27" s="458"/>
+      <c r="E27" s="459"/>
+      <c r="F27" s="549" t="s">
+        <v>632</v>
+      </c>
+      <c r="G27" s="550"/>
+      <c r="H27" s="550"/>
+      <c r="I27" s="550"/>
+      <c r="J27" s="551"/>
       <c r="K27" s="138"/>
     </row>
-    <row r="28" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="137"/>
-      <c r="C28" s="495"/>
-      <c r="D28" s="496"/>
-      <c r="E28" s="496"/>
-      <c r="F28" s="496"/>
-      <c r="G28" s="496"/>
-      <c r="H28" s="496"/>
-      <c r="I28" s="496"/>
-      <c r="J28" s="497"/>
+      <c r="C28" s="457" t="s">
+        <v>633</v>
+      </c>
+      <c r="D28" s="458"/>
+      <c r="E28" s="459"/>
+      <c r="F28" s="549" t="s">
+        <v>634</v>
+      </c>
+      <c r="G28" s="550"/>
+      <c r="H28" s="550"/>
+      <c r="I28" s="550"/>
+      <c r="J28" s="551"/>
       <c r="K28" s="138"/>
     </row>
-    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="137"/>
-      <c r="C29" s="492" t="s">
-        <v>282</v>
-      </c>
-      <c r="D29" s="493"/>
-      <c r="E29" s="493"/>
-      <c r="F29" s="493"/>
-      <c r="G29" s="493"/>
-      <c r="H29" s="493"/>
-      <c r="I29" s="493"/>
-      <c r="J29" s="494"/>
+      <c r="C29" s="457" t="s">
+        <v>636</v>
+      </c>
+      <c r="D29" s="458"/>
+      <c r="E29" s="459"/>
+      <c r="F29" s="549" t="s">
+        <v>635</v>
+      </c>
+      <c r="G29" s="550"/>
+      <c r="H29" s="550"/>
+      <c r="I29" s="550"/>
+      <c r="J29" s="551"/>
       <c r="K29" s="138"/>
     </row>
-    <row r="30" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="137"/>
-      <c r="C30" s="492" t="s">
-        <v>281</v>
-      </c>
-      <c r="D30" s="493"/>
-      <c r="E30" s="493"/>
-      <c r="F30" s="493"/>
-      <c r="G30" s="493"/>
-      <c r="H30" s="493"/>
-      <c r="I30" s="493"/>
-      <c r="J30" s="494"/>
+      <c r="C30" s="463"/>
+      <c r="D30" s="464"/>
+      <c r="E30" s="464"/>
+      <c r="F30" s="464"/>
+      <c r="G30" s="464"/>
+      <c r="H30" s="464"/>
+      <c r="I30" s="464"/>
+      <c r="J30" s="465"/>
       <c r="K30" s="138"/>
     </row>
-    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="137"/>
-      <c r="C31" s="141"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="143"/>
+      <c r="C31" s="460" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="461"/>
+      <c r="E31" s="461"/>
+      <c r="F31" s="461"/>
+      <c r="G31" s="461"/>
+      <c r="H31" s="461"/>
+      <c r="I31" s="461"/>
+      <c r="J31" s="462"/>
       <c r="K31" s="138"/>
     </row>
-    <row r="32" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="144"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="146"/>
-    </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J34" s="136" t="s">
+    <row r="32" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="137"/>
+      <c r="C32" s="460" t="s">
+        <v>279</v>
+      </c>
+      <c r="D32" s="461"/>
+      <c r="E32" s="461"/>
+      <c r="F32" s="461"/>
+      <c r="G32" s="461"/>
+      <c r="H32" s="461"/>
+      <c r="I32" s="461"/>
+      <c r="J32" s="462"/>
+      <c r="K32" s="138"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="137"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="138"/>
+    </row>
+    <row r="34" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="144"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="146"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J36" s="136" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="C24:J25"/>
-    <mergeCell ref="C27:J27"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:J26"/>
+    <mergeCell ref="C32:J32"/>
     <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="C29:E29"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="C5:J6"/>
@@ -9948,9 +10076,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
@@ -9973,17 +10101,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="511" t="s">
+      <c r="A1" s="466" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="513"/>
+      <c r="B1" s="467"/>
+      <c r="C1" s="467"/>
+      <c r="D1" s="467"/>
+      <c r="E1" s="467"/>
+      <c r="F1" s="467"/>
+      <c r="G1" s="467"/>
+      <c r="H1" s="467"/>
+      <c r="I1" s="468"/>
     </row>
     <row r="2" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="157" t="s">
@@ -10044,607 +10172,617 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="514" t="s">
+      <c r="A4" s="469" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="515"/>
-      <c r="C4" s="515"/>
-      <c r="D4" s="515"/>
-      <c r="E4" s="515"/>
-      <c r="F4" s="515"/>
-      <c r="G4" s="515"/>
-      <c r="H4" s="515"/>
-      <c r="I4" s="516"/>
+      <c r="B4" s="470"/>
+      <c r="C4" s="470"/>
+      <c r="D4" s="470"/>
+      <c r="E4" s="470"/>
+      <c r="F4" s="470"/>
+      <c r="G4" s="470"/>
+      <c r="H4" s="470"/>
+      <c r="I4" s="471"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="195" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="246" t="s">
-        <v>359</v>
-      </c>
-      <c r="C5" s="247" t="s">
-        <v>294</v>
-      </c>
-      <c r="D5" s="194" t="s">
-        <v>359</v>
-      </c>
-      <c r="E5" s="247" t="s">
-        <v>295</v>
-      </c>
-      <c r="F5" s="247" t="s">
-        <v>293</v>
-      </c>
-      <c r="G5" s="236" t="s">
-        <v>486</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="248" t="s">
-        <v>475</v>
+      <c r="B5" s="519" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="520" t="s">
+        <v>600</v>
+      </c>
+      <c r="D5" s="521" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="520" t="s">
+        <v>602</v>
+      </c>
+      <c r="F5" s="520" t="s">
+        <v>598</v>
+      </c>
+      <c r="G5" s="522" t="s">
+        <v>452</v>
+      </c>
+      <c r="H5" s="523" t="s">
+        <v>433</v>
+      </c>
+      <c r="I5" s="524" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="172" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="282" t="s">
-        <v>487</v>
-      </c>
-      <c r="C6" s="229" t="s">
-        <v>362</v>
-      </c>
-      <c r="D6" s="283" t="s">
-        <v>485</v>
-      </c>
-      <c r="E6" s="229" t="s">
-        <v>363</v>
-      </c>
-      <c r="F6" s="280" t="s">
-        <v>441</v>
-      </c>
-      <c r="G6" s="280" t="s">
-        <v>442</v>
-      </c>
-      <c r="H6" s="280" t="s">
-        <v>452</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="B6" s="525" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" s="219" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="254" t="s">
+        <v>451</v>
+      </c>
+      <c r="E6" s="219" t="s">
+        <v>336</v>
+      </c>
+      <c r="F6" s="252" t="s">
+        <v>409</v>
+      </c>
+      <c r="G6" s="252" t="s">
+        <v>410</v>
+      </c>
+      <c r="H6" s="170"/>
+      <c r="I6" s="174"/>
     </row>
     <row r="7" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="172" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="240" t="s">
-        <v>296</v>
+      <c r="B7" s="526" t="s">
+        <v>603</v>
       </c>
       <c r="C7" s="154" t="s">
-        <v>298</v>
+        <v>601</v>
       </c>
       <c r="D7" s="170"/>
       <c r="E7" s="154" t="s">
-        <v>297</v>
-      </c>
-      <c r="F7" s="282" t="s">
-        <v>501</v>
-      </c>
-      <c r="G7" s="282" t="s">
-        <v>502</v>
-      </c>
-      <c r="H7" s="280" t="s">
-        <v>469</v>
-      </c>
-      <c r="I7" s="212"/>
+        <v>605</v>
+      </c>
+      <c r="F7" s="254" t="s">
+        <v>467</v>
+      </c>
+      <c r="G7" s="254" t="s">
+        <v>468</v>
+      </c>
+      <c r="H7" s="170"/>
+      <c r="I7" s="206"/>
     </row>
     <row r="8" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="173" t="s">
+      <c r="A8" s="172" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="241" t="s">
-        <v>360</v>
-      </c>
-      <c r="C8" s="229" t="s">
-        <v>364</v>
-      </c>
-      <c r="D8" s="241" t="s">
-        <v>613</v>
-      </c>
-      <c r="E8" s="229" t="s">
-        <v>365</v>
+      <c r="B8" s="527" t="s">
+        <v>617</v>
+      </c>
+      <c r="C8" s="219" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="156" t="s">
+        <v>569</v>
+      </c>
+      <c r="E8" s="219" t="s">
+        <v>338</v>
       </c>
       <c r="F8" s="156" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="G8" s="156" t="s">
-        <v>374</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
+        <v>347</v>
+      </c>
+      <c r="H8" s="170"/>
+      <c r="I8" s="253" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="173" t="s">
+      <c r="A9" s="172" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="236" t="s">
-        <v>495</v>
-      </c>
-      <c r="C9" s="229" t="s">
-        <v>368</v>
-      </c>
-      <c r="D9" s="282" t="s">
-        <v>496</v>
-      </c>
-      <c r="E9" s="229" t="s">
-        <v>369</v>
+      <c r="B9" s="525" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" s="219" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="254" t="s">
+        <v>462</v>
+      </c>
+      <c r="E9" s="219" t="s">
+        <v>343</v>
       </c>
       <c r="F9" s="156" t="s">
-        <v>373</v>
-      </c>
-      <c r="G9" s="229" t="s">
-        <v>370</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="283" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="173" t="s">
+        <v>346</v>
+      </c>
+      <c r="G9" s="219" t="s">
+        <v>342</v>
+      </c>
+      <c r="H9" s="170"/>
+      <c r="I9" s="255" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="172" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="172" t="s">
-        <v>497</v>
-      </c>
-      <c r="C10" s="282" t="s">
-        <v>488</v>
-      </c>
-      <c r="D10" s="172" t="s">
-        <v>615</v>
-      </c>
-      <c r="E10" s="172" t="s">
-        <v>614</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="280" t="s">
-        <v>453</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="175"/>
+      <c r="B10" s="525" t="s">
+        <v>463</v>
+      </c>
+      <c r="C10" s="254" t="s">
+        <v>454</v>
+      </c>
+      <c r="D10" s="254" t="s">
+        <v>571</v>
+      </c>
+      <c r="E10" s="254" t="s">
+        <v>570</v>
+      </c>
+      <c r="F10" s="170"/>
+      <c r="G10" s="154" t="s">
+        <v>606</v>
+      </c>
+      <c r="H10" s="170"/>
+      <c r="I10" s="174"/>
     </row>
     <row r="11" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="173" t="s">
+      <c r="A11" s="172" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="241" t="s">
-        <v>361</v>
+      <c r="B11" s="527" t="s">
+        <v>334</v>
       </c>
       <c r="C11" s="156" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="D11" s="156" t="s">
-        <v>612</v>
-      </c>
-      <c r="E11" s="280" t="s">
-        <v>436</v>
-      </c>
-      <c r="F11" s="282" t="s">
-        <v>499</v>
-      </c>
-      <c r="G11" s="283" t="s">
-        <v>482</v>
-      </c>
-      <c r="H11" s="282" t="s">
-        <v>481</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>568</v>
+      </c>
+      <c r="E11" s="252" t="s">
+        <v>404</v>
+      </c>
+      <c r="F11" s="254" t="s">
+        <v>465</v>
+      </c>
+      <c r="G11" s="254" t="s">
+        <v>586</v>
+      </c>
+      <c r="H11" s="254" t="s">
+        <v>447</v>
+      </c>
+      <c r="I11" s="174"/>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="172" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="284" t="s">
-        <v>185</v>
+      <c r="B12" s="528" t="s">
+        <v>421</v>
       </c>
       <c r="C12" s="169" t="s">
         <v>187</v>
       </c>
-      <c r="D12" s="283" t="s">
-        <v>483</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="282" t="s">
-        <v>503</v>
-      </c>
-      <c r="G12" s="282" t="s">
-        <v>619</v>
-      </c>
-      <c r="H12" s="282" t="s">
-        <v>498</v>
-      </c>
-      <c r="I12" s="281" t="s">
-        <v>471</v>
-      </c>
+      <c r="D12" s="254" t="s">
+        <v>614</v>
+      </c>
+      <c r="E12" s="170"/>
+      <c r="F12" s="254" t="s">
+        <v>469</v>
+      </c>
+      <c r="G12" s="254" t="s">
+        <v>575</v>
+      </c>
+      <c r="H12" s="170"/>
+      <c r="I12" s="174"/>
     </row>
     <row r="13" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="173" t="s">
+      <c r="A13" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="236" t="s">
-        <v>616</v>
-      </c>
-      <c r="C13" s="229" t="s">
-        <v>366</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="229" t="s">
-        <v>367</v>
-      </c>
-      <c r="F13" s="282" t="s">
-        <v>618</v>
-      </c>
-      <c r="G13" s="282" t="s">
-        <v>617</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="175"/>
+      <c r="B13" s="525" t="s">
+        <v>572</v>
+      </c>
+      <c r="C13" s="219" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="254" t="s">
+        <v>466</v>
+      </c>
+      <c r="E13" s="219" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13" s="254" t="s">
+        <v>574</v>
+      </c>
+      <c r="G13" s="254" t="s">
+        <v>573</v>
+      </c>
+      <c r="H13" s="254" t="s">
+        <v>464</v>
+      </c>
+      <c r="I13" s="174"/>
     </row>
     <row r="14" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="172" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="236" t="s">
-        <v>489</v>
-      </c>
-      <c r="C14" s="282" t="s">
-        <v>490</v>
-      </c>
-      <c r="D14" s="282" t="s">
-        <v>500</v>
-      </c>
-      <c r="E14" s="280" t="s">
-        <v>432</v>
-      </c>
-      <c r="F14" s="280" t="s">
+      <c r="B14" s="525" t="s">
+        <v>455</v>
+      </c>
+      <c r="C14" s="254" t="s">
+        <v>456</v>
+      </c>
+      <c r="D14" s="252" t="s">
+        <v>436</v>
+      </c>
+      <c r="E14" s="252" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" s="252" t="s">
+        <v>403</v>
+      </c>
+      <c r="G14" s="252" t="s">
+        <v>438</v>
+      </c>
+      <c r="H14" s="252" t="s">
+        <v>437</v>
+      </c>
+      <c r="I14" s="207"/>
+    </row>
+    <row r="15" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="172" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="528" t="s">
+        <v>419</v>
+      </c>
+      <c r="C15" s="252" t="s">
+        <v>420</v>
+      </c>
+      <c r="D15" s="170"/>
+      <c r="E15" s="252" t="s">
+        <v>389</v>
+      </c>
+      <c r="F15" s="156" t="s">
+        <v>377</v>
+      </c>
+      <c r="G15" s="154" t="s">
+        <v>595</v>
+      </c>
+      <c r="H15" s="154" t="s">
+        <v>327</v>
+      </c>
+      <c r="I15" s="207"/>
+    </row>
+    <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="172" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="528" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" s="154" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16" s="252" t="s">
+        <v>444</v>
+      </c>
+      <c r="E16" s="154" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" s="252" t="s">
+        <v>405</v>
+      </c>
+      <c r="G16" s="154" t="s">
+        <v>587</v>
+      </c>
+      <c r="H16" s="154" t="s">
+        <v>590</v>
+      </c>
+      <c r="I16" s="175" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="172" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="528" t="s">
         <v>435</v>
       </c>
-      <c r="G14" s="163"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="213"/>
-    </row>
-    <row r="15" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="173" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="240" t="s">
-        <v>299</v>
-      </c>
-      <c r="C15" s="280" t="s">
-        <v>451</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="280" t="s">
-        <v>421</v>
-      </c>
-      <c r="F15" s="156" t="s">
-        <v>405</v>
-      </c>
-      <c r="G15" s="154" t="s">
-        <v>307</v>
-      </c>
-      <c r="H15" s="154" t="s">
-        <v>353</v>
-      </c>
-      <c r="I15" s="213"/>
-    </row>
-    <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="173" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="284" t="s">
-        <v>474</v>
-      </c>
-      <c r="C16" s="154" t="s">
-        <v>332</v>
-      </c>
-      <c r="D16" s="280" t="s">
-        <v>476</v>
-      </c>
-      <c r="E16" s="154" t="s">
-        <v>333</v>
-      </c>
-      <c r="F16" s="280" t="s">
-        <v>437</v>
-      </c>
-      <c r="G16" s="154" t="s">
-        <v>303</v>
-      </c>
-      <c r="H16" s="154" t="s">
-        <v>304</v>
-      </c>
-      <c r="I16" s="176" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="173" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="284" t="s">
-        <v>467</v>
-      </c>
-      <c r="C17" s="280" t="s">
-        <v>468</v>
-      </c>
-      <c r="D17" s="280" t="s">
-        <v>470</v>
+      <c r="C17" s="252" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="252" t="s">
+        <v>439</v>
       </c>
       <c r="E17" s="154" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="F17" s="154" t="s">
-        <v>335</v>
-      </c>
-      <c r="G17" s="280" t="s">
-        <v>465</v>
-      </c>
-      <c r="H17" s="280" t="s">
-        <v>466</v>
-      </c>
-      <c r="I17" s="176" t="s">
-        <v>340</v>
+        <v>311</v>
+      </c>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="175" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="173" t="s">
+      <c r="A18" s="172" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="240" t="s">
-        <v>309</v>
+      <c r="B18" s="526" t="s">
+        <v>589</v>
       </c>
       <c r="C18" s="154" t="s">
-        <v>311</v>
+        <v>594</v>
       </c>
       <c r="D18" s="170"/>
       <c r="E18" s="154" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="F18" s="154" t="s">
-        <v>312</v>
+        <v>596</v>
       </c>
       <c r="G18" s="154" t="s">
-        <v>310</v>
+        <v>591</v>
       </c>
       <c r="H18" s="154" t="s">
-        <v>338</v>
-      </c>
-      <c r="I18" s="176" t="s">
-        <v>337</v>
+        <v>314</v>
+      </c>
+      <c r="I18" s="175" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="95" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="240" t="s">
-        <v>306</v>
+      <c r="B19" s="526" t="s">
+        <v>588</v>
       </c>
       <c r="C19" s="154" t="s">
-        <v>314</v>
+        <v>618</v>
       </c>
       <c r="D19" s="154" t="s">
-        <v>313</v>
-      </c>
-      <c r="E19" s="280" t="s">
-        <v>438</v>
-      </c>
-      <c r="F19" s="280" t="s">
-        <v>439</v>
+        <v>290</v>
+      </c>
+      <c r="E19" s="252" t="s">
+        <v>406</v>
+      </c>
+      <c r="F19" s="252" t="s">
+        <v>407</v>
       </c>
       <c r="G19" s="154" t="s">
-        <v>317</v>
+        <v>619</v>
       </c>
       <c r="H19" s="154" t="s">
-        <v>315</v>
-      </c>
-      <c r="I19" s="175"/>
+        <v>292</v>
+      </c>
+      <c r="I19" s="174"/>
     </row>
     <row r="20" spans="1:9" s="95" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="174" t="s">
+      <c r="A20" s="173" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="499" t="s">
-        <v>551</v>
-      </c>
-      <c r="C20" s="500"/>
+      <c r="B20" s="529" t="s">
+        <v>514</v>
+      </c>
+      <c r="C20" s="476"/>
       <c r="D20" s="154" t="s">
-        <v>541</v>
-      </c>
-      <c r="E20" s="500" t="s">
-        <v>565</v>
-      </c>
-      <c r="F20" s="500"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
+        <v>504</v>
+      </c>
+      <c r="E20" s="476" t="s">
+        <v>527</v>
+      </c>
+      <c r="F20" s="476"/>
+      <c r="G20" s="154" t="s">
+        <v>297</v>
+      </c>
+      <c r="H20" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="I20" s="174"/>
     </row>
     <row r="21" spans="1:9" s="95" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="173" t="s">
+      <c r="A21" s="172" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="154" t="s">
-        <v>322</v>
+      <c r="B21" s="526" t="s">
+        <v>298</v>
       </c>
       <c r="C21" s="154" t="s">
-        <v>308</v>
+        <v>593</v>
       </c>
       <c r="D21" s="154" t="s">
-        <v>323</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="154" t="s">
-        <v>308</v>
-      </c>
-      <c r="G21" s="154" t="s">
+        <v>299</v>
+      </c>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="174"/>
+    </row>
+    <row r="22" spans="1:9" s="95" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="172" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="530"/>
+      <c r="C22" s="192" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="192" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="192" t="s">
+        <v>319</v>
+      </c>
+      <c r="F22" s="197"/>
+      <c r="G22" s="192" t="s">
         <v>321</v>
       </c>
-      <c r="H21" s="154" t="s">
+      <c r="H22" s="192" t="s">
         <v>320</v>
       </c>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" s="95" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="242" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="243"/>
-      <c r="C22" s="244" t="s">
-        <v>302</v>
-      </c>
-      <c r="D22" s="244" t="s">
-        <v>302</v>
-      </c>
-      <c r="E22" s="244" t="s">
-        <v>343</v>
-      </c>
-      <c r="F22" s="244" t="s">
-        <v>345</v>
-      </c>
-      <c r="G22" s="245"/>
-      <c r="H22" s="244" t="s">
-        <v>344</v>
-      </c>
-      <c r="I22" s="249" t="s">
-        <v>342</v>
+      <c r="I22" s="531" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="95" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="514" t="s">
+      <c r="A23" s="469" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="517"/>
-      <c r="C23" s="517"/>
-      <c r="D23" s="517"/>
-      <c r="E23" s="517"/>
-      <c r="F23" s="517"/>
-      <c r="G23" s="517"/>
-      <c r="H23" s="517"/>
-      <c r="I23" s="518"/>
+      <c r="B23" s="472"/>
+      <c r="C23" s="472"/>
+      <c r="D23" s="472"/>
+      <c r="E23" s="472"/>
+      <c r="F23" s="472"/>
+      <c r="G23" s="472"/>
+      <c r="H23" s="472"/>
+      <c r="I23" s="473"/>
     </row>
     <row r="24" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="238" t="s">
+      <c r="A24" s="172" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="506" t="s">
-        <v>553</v>
-      </c>
-      <c r="C24" s="506"/>
-      <c r="D24" s="506"/>
-      <c r="E24" s="501" t="s">
-        <v>554</v>
-      </c>
-      <c r="F24" s="501"/>
-      <c r="G24" s="501" t="s">
-        <v>552</v>
-      </c>
-      <c r="H24" s="501"/>
-      <c r="I24" s="502"/>
+      <c r="B24" s="533" t="s">
+        <v>515</v>
+      </c>
+      <c r="C24" s="505"/>
+      <c r="D24" s="505"/>
+      <c r="E24" s="507" t="s">
+        <v>516</v>
+      </c>
+      <c r="F24" s="507"/>
+      <c r="G24" s="534" t="s">
+        <v>520</v>
+      </c>
+      <c r="H24" s="534"/>
+      <c r="I24" s="535"/>
     </row>
     <row r="25" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="237" t="s">
+      <c r="A25" s="172" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="508" t="s">
-        <v>557</v>
-      </c>
-      <c r="C25" s="508"/>
-      <c r="D25" s="508"/>
+      <c r="B25" s="504" t="s">
+        <v>519</v>
+      </c>
+      <c r="C25" s="481"/>
+      <c r="D25" s="481"/>
       <c r="E25" s="170"/>
       <c r="F25" s="170"/>
-      <c r="G25" s="509" t="s">
-        <v>556</v>
-      </c>
-      <c r="H25" s="509"/>
-      <c r="I25" s="510"/>
+      <c r="G25" s="482" t="s">
+        <v>518</v>
+      </c>
+      <c r="H25" s="482"/>
+      <c r="I25" s="483"/>
     </row>
     <row r="26" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="237" t="s">
+      <c r="A26" s="172" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="509" t="s">
-        <v>558</v>
-      </c>
-      <c r="C26" s="509"/>
-      <c r="D26" s="509"/>
+      <c r="B26" s="516"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="170"/>
       <c r="E26" s="171"/>
       <c r="F26" s="155"/>
-      <c r="G26" s="504" t="s">
-        <v>559</v>
-      </c>
-      <c r="H26" s="504"/>
-      <c r="I26" s="505"/>
-    </row>
-    <row r="27" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="237" t="s">
+      <c r="G26" s="478" t="s">
+        <v>521</v>
+      </c>
+      <c r="H26" s="478"/>
+      <c r="I26" s="479"/>
+    </row>
+    <row r="27" spans="1:9" s="95" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="172" t="s">
+        <v>620</v>
+      </c>
+      <c r="B27" s="518"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="492" t="s">
+        <v>607</v>
+      </c>
+      <c r="H27" s="492"/>
+      <c r="I27" s="515"/>
+    </row>
+    <row r="28" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="172" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="509" t="s">
-        <v>562</v>
-      </c>
-      <c r="C27" s="509"/>
-      <c r="D27" s="509"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="504" t="s">
-        <v>561</v>
-      </c>
-      <c r="H27" s="504"/>
-      <c r="I27" s="505"/>
-    </row>
-    <row r="28" spans="1:9" s="95" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="237" t="s">
+      <c r="B28" s="495" t="s">
+        <v>524</v>
+      </c>
+      <c r="C28" s="482"/>
+      <c r="D28" s="482"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="478" t="s">
+        <v>523</v>
+      </c>
+      <c r="H28" s="478"/>
+      <c r="I28" s="479"/>
+    </row>
+    <row r="29" spans="1:9" s="95" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="172" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="507" t="s">
-        <v>563</v>
-      </c>
-      <c r="C28" s="507"/>
-      <c r="D28" s="507"/>
-      <c r="E28" s="503" t="s">
-        <v>555</v>
-      </c>
-      <c r="F28" s="503"/>
-      <c r="G28" s="504" t="s">
-        <v>560</v>
-      </c>
-      <c r="H28" s="504"/>
-      <c r="I28" s="505"/>
-    </row>
-    <row r="29" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="237" t="s">
+      <c r="B29" s="517" t="s">
+        <v>525</v>
+      </c>
+      <c r="C29" s="480"/>
+      <c r="D29" s="480"/>
+      <c r="E29" s="492" t="s">
+        <v>517</v>
+      </c>
+      <c r="F29" s="492"/>
+      <c r="G29" s="478" t="s">
+        <v>522</v>
+      </c>
+      <c r="H29" s="478"/>
+      <c r="I29" s="479"/>
+    </row>
+    <row r="30" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="172" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="498" t="s">
-        <v>550</v>
-      </c>
-      <c r="C29" s="498"/>
-      <c r="D29" s="201"/>
-      <c r="E29" s="498" t="s">
-        <v>564</v>
-      </c>
-      <c r="F29" s="498"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="202"/>
-    </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="I30" s="79"/>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B30" s="498" t="s">
+        <v>513</v>
+      </c>
+      <c r="C30" s="474"/>
+      <c r="D30" s="197"/>
+      <c r="E30" s="474" t="s">
+        <v>526</v>
+      </c>
+      <c r="F30" s="474"/>
+      <c r="G30" s="197"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="198"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="I31" s="79"/>
+    </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10683,27 +10821,28 @@
     <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G24:I24"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A23:I23"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E28:F28"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
     <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.21" top="0.22" bottom="0.2" header="0.17" footer="0.17"/>
@@ -10716,10 +10855,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -10738,20 +10877,20 @@
     <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="519" t="s">
+    <row r="1" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="484" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="520"/>
-      <c r="C1" s="520"/>
-      <c r="D1" s="520"/>
-      <c r="E1" s="520"/>
-      <c r="F1" s="520"/>
-      <c r="G1" s="520"/>
-      <c r="H1" s="520"/>
-      <c r="I1" s="521"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="485"/>
+      <c r="C1" s="485"/>
+      <c r="D1" s="485"/>
+      <c r="E1" s="485"/>
+      <c r="F1" s="485"/>
+      <c r="G1" s="485"/>
+      <c r="H1" s="485"/>
+      <c r="I1" s="486"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>118</v>
       </c>
@@ -10780,7 +10919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
         <v>119</v>
       </c>
@@ -10809,588 +10948,610 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="522" t="s">
+    <row r="4" spans="1:17" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="487" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="523"/>
-      <c r="C4" s="523"/>
-      <c r="D4" s="523"/>
-      <c r="E4" s="523"/>
-      <c r="F4" s="523"/>
-      <c r="G4" s="523"/>
-      <c r="H4" s="523"/>
-      <c r="I4" s="524"/>
-    </row>
-    <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="185" t="s">
+      <c r="B4" s="488"/>
+      <c r="C4" s="488"/>
+      <c r="D4" s="488"/>
+      <c r="E4" s="488"/>
+      <c r="F4" s="488"/>
+      <c r="G4" s="488"/>
+      <c r="H4" s="488"/>
+      <c r="I4" s="489"/>
+    </row>
+    <row r="5" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="255" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" s="247" t="s">
-        <v>294</v>
-      </c>
-      <c r="D5" s="226" t="s">
-        <v>465</v>
-      </c>
-      <c r="E5" s="247" t="s">
-        <v>293</v>
-      </c>
-      <c r="F5" s="179" t="s">
-        <v>451</v>
-      </c>
-      <c r="G5" s="179" t="s">
-        <v>452</v>
-      </c>
-      <c r="H5" s="179" t="s">
-        <v>467</v>
-      </c>
-      <c r="I5" s="248" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="237" t="s">
+        <v>602</v>
+      </c>
+      <c r="C5" s="229" t="s">
+        <v>600</v>
+      </c>
+      <c r="D5" s="178" t="s">
+        <v>433</v>
+      </c>
+      <c r="E5" s="229" t="s">
+        <v>598</v>
+      </c>
+      <c r="F5" s="178" t="s">
+        <v>419</v>
+      </c>
+      <c r="G5" s="178" t="s">
+        <v>420</v>
+      </c>
+      <c r="H5" s="178" t="s">
+        <v>435</v>
+      </c>
+      <c r="I5" s="230" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="256" t="s">
-        <v>362</v>
-      </c>
-      <c r="C6" s="229" t="s">
-        <v>363</v>
+      <c r="B6" s="238" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="219" t="s">
+        <v>336</v>
       </c>
       <c r="D6" s="154" t="s">
-        <v>291</v>
+        <v>599</v>
       </c>
       <c r="E6" s="154" t="s">
-        <v>292</v>
-      </c>
-      <c r="F6" s="230" t="s">
-        <v>509</v>
-      </c>
-      <c r="G6" s="153"/>
-      <c r="H6" s="230" t="s">
-        <v>507</v>
-      </c>
-      <c r="I6" s="177"/>
-    </row>
-    <row r="7" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+      <c r="F6" s="254" t="s">
+        <v>475</v>
+      </c>
+      <c r="G6" s="154" t="s">
+        <v>588</v>
+      </c>
+      <c r="H6" s="153"/>
+      <c r="I6" s="176"/>
+    </row>
+    <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="257" t="s">
-        <v>447</v>
-      </c>
-      <c r="C7" s="230" t="s">
-        <v>490</v>
-      </c>
-      <c r="D7" s="230" t="s">
-        <v>489</v>
-      </c>
-      <c r="E7" s="230" t="s">
-        <v>508</v>
-      </c>
-      <c r="F7" s="226" t="s">
-        <v>464</v>
-      </c>
-      <c r="G7" s="226" t="s">
-        <v>463</v>
+      <c r="B7" s="239" t="s">
+        <v>415</v>
+      </c>
+      <c r="C7" s="254" t="s">
+        <v>470</v>
+      </c>
+      <c r="D7" s="254" t="s">
+        <v>459</v>
+      </c>
+      <c r="E7" s="153"/>
+      <c r="F7" s="252" t="s">
+        <v>432</v>
+      </c>
+      <c r="G7" s="252" t="s">
+        <v>431</v>
       </c>
       <c r="H7" s="153"/>
-      <c r="I7" s="214"/>
-    </row>
-    <row r="8" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="208"/>
+    </row>
+    <row r="8" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="256" t="s">
-        <v>364</v>
+      <c r="B8" s="238" t="s">
+        <v>337</v>
       </c>
       <c r="C8" s="154" t="s">
-        <v>296</v>
+        <v>601</v>
       </c>
       <c r="D8" s="154" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" s="229" t="s">
-        <v>365</v>
+        <v>605</v>
+      </c>
+      <c r="E8" s="219" t="s">
+        <v>338</v>
       </c>
       <c r="F8" s="154" t="s">
-        <v>297</v>
-      </c>
-      <c r="G8" s="230" t="s">
-        <v>504</v>
+        <v>603</v>
+      </c>
+      <c r="G8" s="254" t="s">
+        <v>643</v>
       </c>
       <c r="H8" s="153"/>
-      <c r="I8" s="214"/>
-    </row>
-    <row r="9" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="208"/>
+    </row>
+    <row r="9" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="256" t="s">
-        <v>368</v>
-      </c>
-      <c r="C9" s="229" t="s">
-        <v>370</v>
-      </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="230" t="s">
-        <v>479</v>
-      </c>
-      <c r="F9" s="229" t="s">
-        <v>369</v>
-      </c>
-      <c r="G9" s="153"/>
+      <c r="B9" s="238" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="219" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" s="254" t="s">
+        <v>472</v>
+      </c>
+      <c r="E9" s="254" t="s">
+        <v>471</v>
+      </c>
+      <c r="F9" s="219" t="s">
+        <v>342</v>
+      </c>
+      <c r="G9" s="254" t="s">
+        <v>470</v>
+      </c>
       <c r="H9" s="159"/>
-      <c r="I9" s="181"/>
-    </row>
-    <row r="10" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="180"/>
+    </row>
+    <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="236" t="s">
-        <v>478</v>
-      </c>
-      <c r="C10" s="230" t="s">
-        <v>477</v>
+      <c r="B10" s="224" t="s">
+        <v>639</v>
+      </c>
+      <c r="C10" s="254" t="s">
+        <v>640</v>
       </c>
       <c r="D10" s="152" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="E10" s="152" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="F10" s="167"/>
       <c r="G10" s="152" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="H10" s="168"/>
-      <c r="I10" s="181"/>
-    </row>
-    <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="180"/>
+    </row>
+    <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="188" t="s">
-        <v>397</v>
+      <c r="B11" s="187" t="s">
+        <v>369</v>
       </c>
       <c r="C11" s="152" t="s">
-        <v>396</v>
-      </c>
-      <c r="D11" s="230" t="s">
-        <v>488</v>
-      </c>
-      <c r="E11" s="230" t="s">
-        <v>510</v>
-      </c>
-      <c r="F11" s="230" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="226" t="s">
+        <v>368</v>
+      </c>
+      <c r="D11" s="254" t="s">
+        <v>642</v>
+      </c>
+      <c r="E11" s="254" t="s">
+        <v>445</v>
+      </c>
+      <c r="F11" s="153"/>
+      <c r="G11" s="252" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="226" t="s">
-        <v>472</v>
-      </c>
-      <c r="I11" s="187"/>
+      <c r="H11" s="252" t="s">
+        <v>440</v>
+      </c>
+      <c r="I11" s="186"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="236" t="s">
-        <v>506</v>
+      <c r="B12" s="224" t="s">
+        <v>454</v>
       </c>
       <c r="C12" s="169" t="s">
         <v>187</v>
       </c>
-      <c r="D12" s="226" t="s">
-        <v>453</v>
-      </c>
-      <c r="E12" s="230" t="s">
-        <v>505</v>
-      </c>
-      <c r="F12" s="159"/>
-      <c r="G12" s="154" t="s">
-        <v>306</v>
-      </c>
-      <c r="H12" s="229" t="s">
-        <v>388</v>
-      </c>
-      <c r="I12" s="250" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="254" t="s">
+        <v>473</v>
+      </c>
+      <c r="E12" s="254" t="s">
+        <v>474</v>
+      </c>
+      <c r="F12" s="254" t="s">
+        <v>476</v>
+      </c>
+      <c r="G12" s="254" t="s">
+        <v>486</v>
+      </c>
+      <c r="H12" s="219" t="s">
+        <v>361</v>
+      </c>
+      <c r="I12" s="232" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="256" t="s">
-        <v>366</v>
-      </c>
-      <c r="C13" s="229" t="s">
-        <v>367</v>
+      <c r="B13" s="238" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" s="219" t="s">
+        <v>340</v>
       </c>
       <c r="D13" s="153"/>
-      <c r="E13" s="230" t="s">
-        <v>511</v>
-      </c>
-      <c r="F13" s="230" t="s">
-        <v>512</v>
-      </c>
-      <c r="G13" s="159"/>
-      <c r="H13" s="230" t="s">
-        <v>513</v>
-      </c>
-      <c r="I13" s="207"/>
+      <c r="E13" s="254" t="s">
+        <v>477</v>
+      </c>
+      <c r="F13" s="254" t="s">
+        <v>479</v>
+      </c>
+      <c r="G13" s="153"/>
+      <c r="H13" s="254" t="s">
+        <v>478</v>
+      </c>
+      <c r="I13" s="201"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="228" t="s">
-        <v>473</v>
+      <c r="B14" s="256" t="s">
+        <v>441</v>
       </c>
       <c r="C14" s="169" t="s">
-        <v>445</v>
-      </c>
-      <c r="D14" s="230" t="s">
-        <v>492</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="D14" s="153"/>
       <c r="E14" s="169" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="F14" s="169" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="230" t="s">
-        <v>492</v>
+        <v>414</v>
+      </c>
+      <c r="G14" s="254" t="s">
+        <v>641</v>
       </c>
       <c r="H14" s="153"/>
-      <c r="I14" s="182"/>
-    </row>
-    <row r="15" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="181"/>
+      <c r="Q14" s="159"/>
+    </row>
+    <row r="15" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="240" t="s">
-        <v>299</v>
+      <c r="B15" s="225" t="s">
+        <v>606</v>
       </c>
       <c r="C15" s="154" t="s">
-        <v>308</v>
+        <v>593</v>
       </c>
       <c r="D15" s="168"/>
       <c r="E15" s="156" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="F15" s="156" t="s">
-        <v>410</v>
-      </c>
-      <c r="G15" s="167"/>
-      <c r="H15" s="229" t="s">
-        <v>386</v>
-      </c>
-      <c r="I15" s="200" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+      <c r="G15" s="154" t="s">
+        <v>593</v>
+      </c>
+      <c r="H15" s="219" t="s">
+        <v>359</v>
+      </c>
+      <c r="I15" s="196" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="257" t="s">
-        <v>450</v>
-      </c>
-      <c r="C16" s="230" t="s">
-        <v>504</v>
-      </c>
-      <c r="D16" s="230" t="s">
-        <v>493</v>
+      <c r="B16" s="239" t="s">
+        <v>418</v>
+      </c>
+      <c r="C16" s="254" t="s">
+        <v>641</v>
+      </c>
+      <c r="D16" s="254" t="s">
+        <v>458</v>
       </c>
       <c r="E16" s="169" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="F16" s="169" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="G16" s="154" t="s">
-        <v>303</v>
+        <v>587</v>
       </c>
       <c r="H16" s="154" t="s">
-        <v>304</v>
-      </c>
-      <c r="I16" s="177"/>
+        <v>590</v>
+      </c>
+      <c r="I16" s="176"/>
     </row>
     <row r="17" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="228" t="s">
-        <v>471</v>
-      </c>
-      <c r="C17" s="226" t="s">
+      <c r="B17" s="256" t="s">
+        <v>439</v>
+      </c>
+      <c r="C17" s="252" t="s">
         <v>185</v>
       </c>
       <c r="D17" s="167"/>
-      <c r="F17" s="226" t="s">
-        <v>440</v>
+      <c r="E17" s="153"/>
+      <c r="F17" s="252" t="s">
+        <v>408</v>
       </c>
       <c r="G17" s="167"/>
-      <c r="H17" s="229" t="s">
-        <v>193</v>
-      </c>
-      <c r="I17" s="250" t="s">
-        <v>390</v>
+      <c r="H17" s="219" t="s">
+        <v>192</v>
+      </c>
+      <c r="I17" s="232" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="241" t="s">
-        <v>408</v>
+      <c r="B18" s="226" t="s">
+        <v>380</v>
       </c>
       <c r="C18" s="156" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="D18" s="166"/>
-      <c r="E18" s="226" t="s">
-        <v>628</v>
-      </c>
-      <c r="F18" s="229" t="s">
-        <v>391</v>
+      <c r="E18" s="252" t="s">
+        <v>583</v>
+      </c>
+      <c r="F18" s="219" t="s">
+        <v>363</v>
       </c>
       <c r="G18" s="156" t="s">
-        <v>406</v>
-      </c>
-      <c r="H18" s="229" t="s">
-        <v>387</v>
-      </c>
-      <c r="I18" s="250" t="s">
-        <v>392</v>
+        <v>378</v>
+      </c>
+      <c r="H18" s="219" t="s">
+        <v>360</v>
+      </c>
+      <c r="I18" s="232" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="240" t="s">
-        <v>307</v>
+      <c r="B19" s="225" t="s">
+        <v>595</v>
       </c>
       <c r="C19" s="154" t="s">
-        <v>326</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
       <c r="F19" s="153"/>
       <c r="G19" s="154" t="s">
-        <v>325</v>
-      </c>
-      <c r="H19" s="229" t="s">
-        <v>385</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="H19" s="219" t="s">
+        <v>358</v>
+      </c>
+      <c r="I19" s="179"/>
     </row>
     <row r="20" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="186" t="s">
+      <c r="A20" s="185" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="262" t="s">
-        <v>547</v>
-      </c>
-      <c r="D20" s="176" t="s">
-        <v>548</v>
+      <c r="B20" s="183"/>
+      <c r="C20" s="154" t="s">
+        <v>510</v>
+      </c>
+      <c r="D20" s="154" t="s">
+        <v>511</v>
       </c>
       <c r="E20" s="154" t="s">
-        <v>549</v>
+        <v>512</v>
       </c>
       <c r="F20" s="165"/>
-      <c r="H20" s="500" t="s">
-        <v>567</v>
-      </c>
-      <c r="I20" s="527"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="476" t="s">
+        <v>529</v>
+      </c>
+      <c r="I20" s="493"/>
     </row>
     <row r="21" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="499" t="s">
-        <v>566</v>
-      </c>
-      <c r="C21" s="500"/>
+      <c r="B21" s="475" t="s">
+        <v>528</v>
+      </c>
+      <c r="C21" s="476"/>
       <c r="D21" s="154" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="E21" s="154" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="F21" s="166"/>
       <c r="G21" s="154" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="H21" s="154" t="s">
-        <v>324</v>
-      </c>
-      <c r="I21" s="176" t="s">
-        <v>345</v>
+        <v>300</v>
+      </c>
+      <c r="I21" s="175" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="258"/>
-      <c r="C22" s="196" t="s">
-        <v>329</v>
-      </c>
-      <c r="D22" s="196" t="s">
-        <v>349</v>
-      </c>
-      <c r="E22" s="196" t="s">
-        <v>350</v>
-      </c>
-      <c r="F22" s="215"/>
-      <c r="G22" s="196" t="s">
-        <v>328</v>
-      </c>
-      <c r="H22" s="196" t="s">
-        <v>327</v>
-      </c>
-      <c r="I22" s="216"/>
+      <c r="B22" s="240"/>
+      <c r="C22" s="192" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="192" t="s">
+        <v>325</v>
+      </c>
+      <c r="E22" s="192" t="s">
+        <v>326</v>
+      </c>
+      <c r="F22" s="209"/>
+      <c r="G22" s="192" t="s">
+        <v>304</v>
+      </c>
+      <c r="H22" s="192" t="s">
+        <v>303</v>
+      </c>
+      <c r="I22" s="210"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="522" t="s">
+      <c r="A23" s="487" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="525"/>
-      <c r="C23" s="525"/>
-      <c r="D23" s="525"/>
-      <c r="E23" s="525"/>
-      <c r="F23" s="525"/>
-      <c r="G23" s="525"/>
-      <c r="H23" s="525"/>
-      <c r="I23" s="526"/>
+      <c r="B23" s="490"/>
+      <c r="C23" s="490"/>
+      <c r="D23" s="490"/>
+      <c r="E23" s="490"/>
+      <c r="F23" s="490"/>
+      <c r="G23" s="490"/>
+      <c r="H23" s="490"/>
+      <c r="I23" s="491"/>
     </row>
     <row r="24" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="251" t="s">
+      <c r="A24" s="233" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="501" t="s">
-        <v>584</v>
-      </c>
-      <c r="C24" s="501"/>
-      <c r="D24" s="501"/>
-      <c r="E24" s="501" t="s">
-        <v>585</v>
-      </c>
-      <c r="F24" s="501"/>
-      <c r="G24" s="501" t="s">
-        <v>594</v>
-      </c>
-      <c r="H24" s="501"/>
-      <c r="I24" s="502"/>
+      <c r="B24" s="552" t="s">
+        <v>608</v>
+      </c>
+      <c r="C24" s="507"/>
+      <c r="D24" s="507"/>
+      <c r="E24" s="507" t="s">
+        <v>544</v>
+      </c>
+      <c r="F24" s="507"/>
+      <c r="G24" s="507" t="s">
+        <v>609</v>
+      </c>
+      <c r="H24" s="507"/>
+      <c r="I24" s="514"/>
     </row>
     <row r="25" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="205" t="s">
+      <c r="A25" s="199" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="508" t="s">
-        <v>589</v>
-      </c>
-      <c r="C25" s="508"/>
-      <c r="D25" s="508"/>
-      <c r="E25" s="503" t="s">
-        <v>587</v>
-      </c>
-      <c r="F25" s="503"/>
-      <c r="G25" s="509" t="s">
-        <v>591</v>
-      </c>
-      <c r="H25" s="509"/>
-      <c r="I25" s="510"/>
+      <c r="B25" s="553" t="s">
+        <v>548</v>
+      </c>
+      <c r="C25" s="481"/>
+      <c r="D25" s="481"/>
+      <c r="E25" s="492" t="s">
+        <v>546</v>
+      </c>
+      <c r="F25" s="492"/>
+      <c r="G25" s="482" t="s">
+        <v>550</v>
+      </c>
+      <c r="H25" s="482"/>
+      <c r="I25" s="483"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="205" t="s">
+      <c r="A26" s="199" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="504" t="s">
-        <v>588</v>
-      </c>
-      <c r="C26" s="504"/>
-      <c r="D26" s="504"/>
+      <c r="B26" s="554" t="s">
+        <v>547</v>
+      </c>
+      <c r="C26" s="478"/>
+      <c r="D26" s="478"/>
       <c r="E26" s="153"/>
       <c r="F26" s="153"/>
-      <c r="G26" s="509" t="s">
-        <v>593</v>
-      </c>
-      <c r="H26" s="509"/>
-      <c r="I26" s="510"/>
-    </row>
-    <row r="27" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="205" t="s">
+      <c r="G26" s="482" t="s">
+        <v>552</v>
+      </c>
+      <c r="H26" s="482"/>
+      <c r="I26" s="483"/>
+    </row>
+    <row r="27" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="199" t="s">
+        <v>620</v>
+      </c>
+      <c r="B27" s="555"/>
+      <c r="C27" s="536"/>
+      <c r="D27" s="536"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="536"/>
+      <c r="H27" s="536"/>
+      <c r="I27" s="537"/>
+    </row>
+    <row r="28" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="199" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="153"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="507" t="s">
-        <v>620</v>
-      </c>
-      <c r="F27" s="507"/>
-      <c r="G27" s="507"/>
-      <c r="H27" s="252"/>
-      <c r="I27" s="254"/>
-    </row>
-    <row r="28" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="205" t="s">
+      <c r="B28" s="556"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="480" t="s">
+        <v>576</v>
+      </c>
+      <c r="F28" s="480"/>
+      <c r="G28" s="480"/>
+      <c r="H28" s="234"/>
+      <c r="I28" s="236"/>
+    </row>
+    <row r="29" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="199" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="509" t="s">
-        <v>590</v>
-      </c>
-      <c r="C28" s="509"/>
-      <c r="D28" s="509"/>
-      <c r="E28" s="503" t="s">
-        <v>586</v>
-      </c>
-      <c r="F28" s="503"/>
-      <c r="G28" s="509" t="s">
-        <v>592</v>
-      </c>
-      <c r="H28" s="509"/>
-      <c r="I28" s="510"/>
-    </row>
-    <row r="29" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="205" t="s">
+      <c r="B29" s="557" t="s">
+        <v>549</v>
+      </c>
+      <c r="C29" s="482"/>
+      <c r="D29" s="482"/>
+      <c r="E29" s="492" t="s">
+        <v>545</v>
+      </c>
+      <c r="F29" s="492"/>
+      <c r="G29" s="482" t="s">
+        <v>551</v>
+      </c>
+      <c r="H29" s="482"/>
+      <c r="I29" s="483"/>
+    </row>
+    <row r="30" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="199" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="498" t="s">
-        <v>568</v>
-      </c>
-      <c r="C29" s="498"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="215"/>
-      <c r="G29" s="215"/>
-      <c r="H29" s="498" t="s">
-        <v>569</v>
-      </c>
-      <c r="I29" s="528"/>
-    </row>
-    <row r="30" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B30" s="558" t="s">
+        <v>530</v>
+      </c>
+      <c r="C30" s="474"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="209"/>
+      <c r="G30" s="209"/>
+      <c r="H30" s="474" t="s">
+        <v>531</v>
+      </c>
+      <c r="I30" s="494"/>
+    </row>
+    <row r="31" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A23:I23"/>
@@ -11413,10 +11574,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -11437,17 +11598,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="519" t="s">
+      <c r="A1" s="484" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="520"/>
-      <c r="C1" s="520"/>
-      <c r="D1" s="520"/>
-      <c r="E1" s="520"/>
-      <c r="F1" s="520"/>
-      <c r="G1" s="520"/>
-      <c r="H1" s="520"/>
-      <c r="I1" s="521"/>
+      <c r="B1" s="485"/>
+      <c r="C1" s="485"/>
+      <c r="D1" s="485"/>
+      <c r="E1" s="485"/>
+      <c r="F1" s="485"/>
+      <c r="G1" s="485"/>
+      <c r="H1" s="485"/>
+      <c r="I1" s="486"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
@@ -11508,147 +11669,146 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="522" t="s">
+      <c r="A4" s="559" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="523"/>
-      <c r="C4" s="523"/>
-      <c r="D4" s="523"/>
-      <c r="E4" s="523"/>
-      <c r="F4" s="523"/>
-      <c r="G4" s="523"/>
-      <c r="H4" s="523"/>
-      <c r="I4" s="524"/>
-    </row>
-    <row r="5" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="186" t="s">
+      <c r="B4" s="488"/>
+      <c r="C4" s="488"/>
+      <c r="D4" s="488"/>
+      <c r="E4" s="488"/>
+      <c r="F4" s="488"/>
+      <c r="G4" s="488"/>
+      <c r="H4" s="488"/>
+      <c r="I4" s="489"/>
+    </row>
+    <row r="5" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="228" t="s">
-        <v>454</v>
-      </c>
-      <c r="C5" s="226" t="s">
-        <v>455</v>
-      </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="203"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="261"/>
+      <c r="B5" s="562" t="s">
+        <v>605</v>
+      </c>
+      <c r="C5" s="522" t="s">
+        <v>480</v>
+      </c>
+      <c r="D5" s="522" t="s">
+        <v>481</v>
+      </c>
+      <c r="E5" s="520" t="s">
+        <v>603</v>
+      </c>
+      <c r="F5" s="520" t="s">
+        <v>601</v>
+      </c>
+      <c r="G5" s="523" t="s">
+        <v>423</v>
+      </c>
+      <c r="H5" s="523" t="s">
+        <v>422</v>
+      </c>
+      <c r="I5" s="560"/>
     </row>
     <row r="6" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="240" t="s">
-        <v>291</v>
+      <c r="B6" s="225" t="s">
+        <v>599</v>
       </c>
       <c r="C6" s="154" t="s">
-        <v>292</v>
+        <v>604</v>
       </c>
       <c r="D6" s="169" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="E6" s="159"/>
-      <c r="F6" s="193"/>
+      <c r="F6" s="153"/>
       <c r="G6" s="169" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="H6" s="169" t="s">
-        <v>446</v>
-      </c>
-      <c r="I6" s="187"/>
-    </row>
-    <row r="7" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+      <c r="I6" s="186"/>
+    </row>
+    <row r="7" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="240" t="s">
-        <v>298</v>
-      </c>
-      <c r="C7" s="226" t="s">
-        <v>469</v>
-      </c>
+      <c r="B7" s="256" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" s="153"/>
       <c r="D7" s="153"/>
-      <c r="E7" s="154" t="s">
-        <v>297</v>
-      </c>
-      <c r="F7" s="154" t="s">
-        <v>296</v>
-      </c>
-      <c r="G7" s="227" t="s">
-        <v>470</v>
-      </c>
-      <c r="H7" s="226" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="252" t="s">
+        <v>435</v>
+      </c>
+      <c r="H7" s="153"/>
+      <c r="I7" s="253" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="259"/>
-      <c r="C8" s="230" t="s">
-        <v>514</v>
-      </c>
-      <c r="D8" s="230" t="s">
-        <v>515</v>
-      </c>
+      <c r="B8" s="183"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
       <c r="E8" s="167"/>
       <c r="F8" s="165"/>
-      <c r="G8" s="152" t="s">
-        <v>396</v>
-      </c>
-      <c r="H8" s="152" t="s">
-        <v>397</v>
-      </c>
-      <c r="I8" s="191"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="179"/>
     </row>
     <row r="9" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="236" t="s">
-        <v>487</v>
+      <c r="B9" s="224" t="s">
+        <v>453</v>
       </c>
       <c r="C9" s="166"/>
       <c r="D9" s="168"/>
       <c r="E9" s="168"/>
       <c r="F9" s="167"/>
-      <c r="G9" s="230" t="s">
-        <v>485</v>
-      </c>
-      <c r="H9" s="230" t="s">
-        <v>486</v>
-      </c>
-      <c r="I9" s="187"/>
+      <c r="G9" s="254" t="s">
+        <v>451</v>
+      </c>
+      <c r="H9" s="254" t="s">
+        <v>452</v>
+      </c>
+      <c r="I9" s="186"/>
     </row>
     <row r="10" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="236" t="s">
-        <v>519</v>
-      </c>
-      <c r="C10" s="230" t="s">
-        <v>520</v>
+      <c r="B10" s="224" t="s">
+        <v>482</v>
+      </c>
+      <c r="C10" s="254" t="s">
+        <v>483</v>
       </c>
       <c r="D10" s="152" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="E10" s="152" t="s">
-        <v>460</v>
-      </c>
-      <c r="F10" s="230" t="s">
-        <v>521</v>
+        <v>428</v>
+      </c>
+      <c r="F10" s="254" t="s">
+        <v>484</v>
       </c>
       <c r="G10" s="152" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="H10" s="156" t="s">
-        <v>361</v>
-      </c>
-      <c r="I10" s="200" t="s">
-        <v>377</v>
+        <v>334</v>
+      </c>
+      <c r="I10" s="196" t="s">
+        <v>350</v>
       </c>
       <c r="P10" s="87"/>
     </row>
@@ -11656,437 +11816,463 @@
       <c r="A11" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="228" t="s">
-        <v>475</v>
-      </c>
-      <c r="C11" s="226" t="s">
-        <v>476</v>
+      <c r="B11" s="256" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11" s="252" t="s">
+        <v>444</v>
       </c>
       <c r="D11" s="167"/>
-      <c r="E11" s="226" t="s">
-        <v>428</v>
-      </c>
-      <c r="F11" s="226" t="s">
-        <v>427</v>
-      </c>
-      <c r="G11" s="230" t="s">
-        <v>482</v>
-      </c>
-      <c r="H11" s="230" t="s">
-        <v>481</v>
-      </c>
-      <c r="I11" s="227" t="s">
-        <v>474</v>
+      <c r="E11" s="252" t="s">
+        <v>396</v>
+      </c>
+      <c r="F11" s="252" t="s">
+        <v>395</v>
+      </c>
+      <c r="G11" s="254" t="s">
+        <v>448</v>
+      </c>
+      <c r="H11" s="254" t="s">
+        <v>447</v>
+      </c>
+      <c r="I11" s="253" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="188" t="s">
-        <v>399</v>
+      <c r="B12" s="187" t="s">
+        <v>371</v>
       </c>
       <c r="C12" s="152" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="D12" s="159"/>
-      <c r="E12" s="226" t="s">
-        <v>424</v>
-      </c>
-      <c r="F12" s="226" t="s">
-        <v>425</v>
-      </c>
-      <c r="G12" s="230" t="s">
-        <v>483</v>
-      </c>
-      <c r="H12" s="230" t="s">
-        <v>484</v>
-      </c>
-      <c r="I12" s="181"/>
+      <c r="E12" s="252" t="s">
+        <v>392</v>
+      </c>
+      <c r="F12" s="252" t="s">
+        <v>393</v>
+      </c>
+      <c r="G12" s="254" t="s">
+        <v>449</v>
+      </c>
+      <c r="H12" s="254" t="s">
+        <v>450</v>
+      </c>
+      <c r="I12" s="180"/>
       <c r="P12" s="87"/>
     </row>
     <row r="13" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="236" t="s">
-        <v>516</v>
-      </c>
-      <c r="C13" s="230" t="s">
-        <v>517</v>
-      </c>
-      <c r="D13" s="218"/>
+      <c r="B13" s="224" t="s">
+        <v>573</v>
+      </c>
+      <c r="C13" s="254" t="s">
+        <v>637</v>
+      </c>
+      <c r="D13" s="212"/>
       <c r="E13" s="153"/>
-      <c r="F13" s="230" t="s">
-        <v>518</v>
-      </c>
-      <c r="G13" s="166"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="187"/>
+      <c r="F13" s="254" t="s">
+        <v>573</v>
+      </c>
+      <c r="G13" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="H13" s="152" t="s">
+        <v>369</v>
+      </c>
+      <c r="I13" s="186"/>
       <c r="O13" s="87"/>
     </row>
     <row r="14" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="184"/>
-      <c r="C14" s="179" t="s">
-        <v>464</v>
-      </c>
-      <c r="D14" s="260" t="s">
-        <v>447</v>
-      </c>
-      <c r="E14" s="226" t="s">
-        <v>422</v>
-      </c>
-      <c r="F14" s="226" t="s">
-        <v>423</v>
-      </c>
-      <c r="G14" s="193"/>
-      <c r="H14" s="179" t="s">
-        <v>463</v>
-      </c>
-      <c r="I14" s="187"/>
+      <c r="B14" s="183"/>
+      <c r="C14" s="252" t="s">
+        <v>432</v>
+      </c>
+      <c r="D14" s="169" t="s">
+        <v>415</v>
+      </c>
+      <c r="E14" s="252" t="s">
+        <v>390</v>
+      </c>
+      <c r="F14" s="252" t="s">
+        <v>391</v>
+      </c>
+      <c r="G14" s="153"/>
+      <c r="H14" s="252" t="s">
+        <v>431</v>
+      </c>
+      <c r="I14" s="186"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="184"/>
+      <c r="B15" s="183"/>
       <c r="C15" s="169" t="s">
-        <v>449</v>
-      </c>
-      <c r="D15" s="257" t="s">
-        <v>450</v>
+        <v>417</v>
+      </c>
+      <c r="D15" s="169" t="s">
+        <v>418</v>
       </c>
       <c r="E15" s="164"/>
-      <c r="F15" s="229" t="s">
-        <v>386</v>
+      <c r="F15" s="219" t="s">
+        <v>359</v>
       </c>
       <c r="G15" s="169" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="H15" s="167"/>
-      <c r="I15" s="214"/>
+      <c r="I15" s="208"/>
     </row>
     <row r="16" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="184"/>
+      <c r="B16" s="183"/>
       <c r="C16" s="153"/>
       <c r="D16" s="154" t="s">
-        <v>302</v>
-      </c>
-      <c r="E16" s="229" t="s">
-        <v>388</v>
-      </c>
-      <c r="F16" s="229" t="s">
-        <v>389</v>
+        <v>288</v>
+      </c>
+      <c r="E16" s="219" t="s">
+        <v>361</v>
+      </c>
+      <c r="F16" s="219" t="s">
+        <v>362</v>
       </c>
       <c r="G16" s="129"/>
       <c r="H16" s="154" t="s">
-        <v>303</v>
-      </c>
-      <c r="I16" s="176" t="s">
-        <v>304</v>
+        <v>587</v>
+      </c>
+      <c r="I16" s="175" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="241" t="s">
-        <v>411</v>
+      <c r="B17" s="226" t="s">
+        <v>383</v>
       </c>
       <c r="C17" s="156" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="D17" s="163"/>
-      <c r="E17" s="229" t="s">
-        <v>193</v>
-      </c>
-      <c r="F17" s="229" t="s">
-        <v>390</v>
+      <c r="E17" s="219" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="219" t="s">
+        <v>615</v>
       </c>
       <c r="G17" s="167"/>
       <c r="H17" s="156" t="s">
-        <v>409</v>
-      </c>
-      <c r="I17" s="187"/>
+        <v>381</v>
+      </c>
+      <c r="I17" s="186"/>
     </row>
     <row r="18" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="240" t="s">
-        <v>311</v>
+      <c r="B18" s="225" t="s">
+        <v>594</v>
       </c>
       <c r="C18" s="154" t="s">
-        <v>351</v>
+        <v>597</v>
       </c>
       <c r="D18" s="154" t="s">
-        <v>541</v>
-      </c>
-      <c r="E18" s="226" t="s">
-        <v>426</v>
+        <v>504</v>
+      </c>
+      <c r="E18" s="252" t="s">
+        <v>394</v>
       </c>
       <c r="F18" s="154" t="s">
-        <v>309</v>
+        <v>589</v>
       </c>
       <c r="G18" s="154" t="s">
-        <v>352</v>
+        <v>592</v>
       </c>
       <c r="H18" s="153"/>
-      <c r="I18" s="187"/>
+      <c r="I18" s="186"/>
     </row>
     <row r="19" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="241" t="s">
-        <v>406</v>
+      <c r="B19" s="226" t="s">
+        <v>378</v>
       </c>
       <c r="C19" s="156" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="D19" s="154" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="E19" s="154" t="s">
-        <v>318</v>
-      </c>
-      <c r="F19" s="229" t="s">
-        <v>385</v>
+        <v>294</v>
+      </c>
+      <c r="F19" s="219" t="s">
+        <v>358</v>
       </c>
       <c r="G19" s="156" t="s">
-        <v>408</v>
-      </c>
-      <c r="I19" s="285" t="s">
-        <v>628</v>
+        <v>380</v>
+      </c>
+      <c r="H19" s="153"/>
+      <c r="I19" s="253" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="499" t="s">
-        <v>571</v>
-      </c>
-      <c r="C20" s="500"/>
+      <c r="B20" s="475" t="s">
+        <v>533</v>
+      </c>
+      <c r="C20" s="476"/>
       <c r="D20" s="129"/>
-      <c r="E20" s="229" t="s">
-        <v>394</v>
-      </c>
-      <c r="F20" s="229" t="s">
-        <v>392</v>
-      </c>
-      <c r="H20" s="500" t="s">
-        <v>570</v>
-      </c>
-      <c r="I20" s="527"/>
+      <c r="E20" s="219" t="s">
+        <v>366</v>
+      </c>
+      <c r="F20" s="219" t="s">
+        <v>364</v>
+      </c>
+      <c r="G20" s="153"/>
+      <c r="H20" s="476" t="s">
+        <v>532</v>
+      </c>
+      <c r="I20" s="493"/>
     </row>
     <row r="21" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="205" t="s">
+      <c r="A21" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="165"/>
+      <c r="B21" s="241"/>
       <c r="C21" s="154" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="D21" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="154" t="s">
+        <v>298</v>
+      </c>
+      <c r="F21" s="252" t="s">
+        <v>408</v>
+      </c>
+      <c r="G21" s="156" t="s">
+        <v>377</v>
+      </c>
+      <c r="H21" s="154" t="s">
+        <v>327</v>
+      </c>
+      <c r="I21" s="232" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="246" t="s">
         <v>320</v>
       </c>
-      <c r="E21" s="154" t="s">
-        <v>322</v>
-      </c>
-      <c r="F21" s="278" t="s">
-        <v>440</v>
-      </c>
-      <c r="G21" s="156" t="s">
-        <v>405</v>
-      </c>
-      <c r="H21" s="154" t="s">
-        <v>353</v>
-      </c>
-      <c r="I21" s="229" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="186" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="262" t="s">
-        <v>344</v>
-      </c>
-      <c r="C22" s="262" t="s">
-        <v>343</v>
-      </c>
-      <c r="D22" s="263"/>
-      <c r="E22" s="262" t="s">
-        <v>347</v>
-      </c>
-      <c r="G22" s="262" t="s">
-        <v>348</v>
-      </c>
-      <c r="H22" s="262" t="s">
-        <v>350</v>
-      </c>
-      <c r="I22" s="264"/>
+      <c r="C22" s="192" t="s">
+        <v>319</v>
+      </c>
+      <c r="D22" s="561"/>
+      <c r="E22" s="192" t="s">
+        <v>323</v>
+      </c>
+      <c r="F22" s="182"/>
+      <c r="G22" s="192" t="s">
+        <v>324</v>
+      </c>
+      <c r="H22" s="192" t="s">
+        <v>326</v>
+      </c>
+      <c r="I22" s="210"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="529" t="s">
+      <c r="A23" s="564" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="530"/>
-      <c r="C23" s="530"/>
-      <c r="D23" s="530"/>
-      <c r="E23" s="530"/>
-      <c r="F23" s="530"/>
-      <c r="G23" s="530"/>
-      <c r="H23" s="530"/>
-      <c r="I23" s="531"/>
+      <c r="B23" s="496"/>
+      <c r="C23" s="496"/>
+      <c r="D23" s="496"/>
+      <c r="E23" s="496"/>
+      <c r="F23" s="496"/>
+      <c r="G23" s="496"/>
+      <c r="H23" s="496"/>
+      <c r="I23" s="497"/>
     </row>
     <row r="24" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="186" t="s">
+      <c r="A24" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="533" t="s">
-        <v>598</v>
-      </c>
-      <c r="C24" s="501"/>
-      <c r="D24" s="501"/>
-      <c r="E24" s="501" t="s">
-        <v>599</v>
-      </c>
-      <c r="F24" s="501"/>
-      <c r="G24" s="501" t="s">
-        <v>601</v>
-      </c>
-      <c r="H24" s="501"/>
-      <c r="I24" s="502"/>
+      <c r="B24" s="563" t="s">
+        <v>621</v>
+      </c>
+      <c r="C24" s="534"/>
+      <c r="D24" s="534"/>
+      <c r="E24" s="507" t="s">
+        <v>556</v>
+      </c>
+      <c r="F24" s="507"/>
+      <c r="G24" s="507" t="s">
+        <v>611</v>
+      </c>
+      <c r="H24" s="507"/>
+      <c r="I24" s="514"/>
       <c r="J24" s="87"/>
     </row>
     <row r="25" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="538" t="s">
-        <v>597</v>
-      </c>
-      <c r="C25" s="508"/>
-      <c r="D25" s="508"/>
-      <c r="E25" s="503" t="s">
-        <v>600</v>
-      </c>
-      <c r="F25" s="503"/>
-      <c r="G25" s="507" t="s">
-        <v>606</v>
-      </c>
-      <c r="H25" s="507"/>
-      <c r="I25" s="535"/>
+      <c r="B25" s="504" t="s">
+        <v>555</v>
+      </c>
+      <c r="C25" s="481"/>
+      <c r="D25" s="481"/>
+      <c r="E25" s="492" t="s">
+        <v>557</v>
+      </c>
+      <c r="F25" s="492"/>
+      <c r="G25" s="480" t="s">
+        <v>562</v>
+      </c>
+      <c r="H25" s="480"/>
+      <c r="I25" s="501"/>
       <c r="J25" s="87"/>
     </row>
     <row r="26" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="534" t="s">
-        <v>595</v>
-      </c>
-      <c r="C26" s="504"/>
-      <c r="D26" s="504"/>
-      <c r="E26" s="230" t="s">
-        <v>488</v>
+      <c r="B26" s="500" t="s">
+        <v>553</v>
+      </c>
+      <c r="C26" s="478"/>
+      <c r="D26" s="478"/>
+      <c r="E26" s="254" t="s">
+        <v>454</v>
       </c>
       <c r="F26" s="153"/>
-      <c r="G26" s="536" t="s">
-        <v>602</v>
-      </c>
-      <c r="H26" s="536"/>
-      <c r="I26" s="537"/>
+      <c r="G26" s="502" t="s">
+        <v>558</v>
+      </c>
+      <c r="H26" s="502"/>
+      <c r="I26" s="503"/>
       <c r="J26" s="87"/>
     </row>
-    <row r="27" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="77" t="s">
+        <v>620</v>
+      </c>
+      <c r="B27" s="508" t="s">
+        <v>610</v>
+      </c>
+      <c r="C27" s="492"/>
+      <c r="D27" s="492"/>
+      <c r="E27" s="536"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="536"/>
+      <c r="H27" s="536"/>
+      <c r="I27" s="537"/>
+      <c r="J27" s="87"/>
+    </row>
+    <row r="28" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="534" t="s">
-        <v>596</v>
-      </c>
-      <c r="C27" s="504"/>
-      <c r="D27" s="504"/>
-      <c r="E27" s="230" t="s">
-        <v>490</v>
-      </c>
-      <c r="F27" s="230" t="s">
-        <v>489</v>
-      </c>
-      <c r="G27" s="507" t="s">
-        <v>603</v>
-      </c>
-      <c r="H27" s="507"/>
-      <c r="I27" s="535"/>
-      <c r="J27" s="87"/>
-    </row>
-    <row r="28" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="77" t="s">
+      <c r="B28" s="500" t="s">
+        <v>554</v>
+      </c>
+      <c r="C28" s="478"/>
+      <c r="D28" s="478"/>
+      <c r="E28" s="254" t="s">
+        <v>456</v>
+      </c>
+      <c r="F28" s="254" t="s">
+        <v>455</v>
+      </c>
+      <c r="G28" s="480" t="s">
+        <v>559</v>
+      </c>
+      <c r="H28" s="480"/>
+      <c r="I28" s="501"/>
+      <c r="J28" s="87"/>
+    </row>
+    <row r="29" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="539" t="s">
-        <v>605</v>
-      </c>
-      <c r="C28" s="509"/>
-      <c r="D28" s="509"/>
-      <c r="G28" s="509" t="s">
-        <v>604</v>
-      </c>
-      <c r="H28" s="509"/>
-      <c r="I28" s="510"/>
-    </row>
-    <row r="29" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="77" t="s">
+      <c r="B29" s="495" t="s">
+        <v>561</v>
+      </c>
+      <c r="C29" s="482"/>
+      <c r="D29" s="482"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="482" t="s">
+        <v>560</v>
+      </c>
+      <c r="H29" s="482"/>
+      <c r="I29" s="483"/>
+    </row>
+    <row r="30" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="532" t="s">
-        <v>572</v>
-      </c>
-      <c r="C29" s="498"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="196" t="s">
-        <v>341</v>
-      </c>
-      <c r="G29" s="183"/>
-      <c r="H29" s="498" t="s">
-        <v>573</v>
-      </c>
-      <c r="I29" s="528"/>
-      <c r="J29" s="87"/>
+      <c r="B30" s="498" t="s">
+        <v>534</v>
+      </c>
+      <c r="C30" s="474"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="192" t="s">
+        <v>317</v>
+      </c>
+      <c r="G30" s="182"/>
+      <c r="H30" s="474" t="s">
+        <v>535</v>
+      </c>
+      <c r="I30" s="494"/>
+      <c r="J30" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A23:I23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.21" top="0.23" bottom="0.22" header="0.17" footer="0.17"/>

--- a/include/BSCS.xlsx
+++ b/include/BSCS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Fall-2018" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Monday!$A$1:$I$32</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="662">
   <si>
     <t>National University</t>
   </si>
@@ -1079,9 +1079,6 @@
     <t>FA-Gr1(A,B,C)                                         Ahsan</t>
   </si>
   <si>
-    <t>FA-Gr1(D,E,F,G)                                         Ahsan</t>
-  </si>
-  <si>
     <t>Psych-Gr3(E,F,G)  Sumaira</t>
   </si>
   <si>
@@ -1428,9 +1425,6 @@
   </si>
   <si>
     <t>PIT-B                                     Khalid</t>
-  </si>
-  <si>
-    <t>PIT-G                                       Khalid</t>
   </si>
   <si>
     <t>IS-D                                                  Dr. Fahad</t>
@@ -1969,12 +1963,6 @@
     <t>Course Planning:Gr1(A,B,C,D,E,F,G)                                   Dr. Usman (Gr1)</t>
   </si>
   <si>
-    <t>03rd September 2018</t>
-  </si>
-  <si>
-    <t>04th September 2018</t>
-  </si>
-  <si>
     <t>CS Elective Track-4</t>
   </si>
   <si>
@@ -2042,12 +2030,21 @@
   </si>
   <si>
     <t xml:space="preserve">Eng-I2                                                Javed Iqbal                                 </t>
+  </si>
+  <si>
+    <t>PIT-G                                     Khalid</t>
+  </si>
+  <si>
+    <t>07th September 2018</t>
+  </si>
+  <si>
+    <t>10th September 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="63" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2639,7 +2636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -3333,19 +3330,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3390,7 +3374,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="612">
+  <cellXfs count="611">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3962,7 +3946,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="25" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3981,10 +3965,7 @@
     <xf numFmtId="0" fontId="26" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
@@ -4050,13 +4031,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4141,13 +4116,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4159,6 +4128,108 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4201,21 +4272,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4555,6 +4611,192 @@
     <xf numFmtId="0" fontId="25" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4607,231 +4849,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4857,7 +4874,58 @@
     <xf numFmtId="0" fontId="53" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4880,29 +4948,53 @@
     <xf numFmtId="0" fontId="26" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4910,44 +5002,10 @@
     <xf numFmtId="0" fontId="26" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4965,123 +5023,44 @@
     <xf numFmtId="0" fontId="46" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5469,7 +5448,7 @@
   </sheetPr>
   <dimension ref="B1:T30"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="H16" sqref="H16:P16"/>
     </sheetView>
   </sheetViews>
@@ -5703,16 +5682,16 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="308" t="s">
+      <c r="H12" s="326" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="308"/>
-      <c r="J12" s="308"/>
-      <c r="K12" s="308"/>
-      <c r="L12" s="308"/>
-      <c r="M12" s="308"/>
-      <c r="N12" s="308"/>
-      <c r="O12" s="308"/>
+      <c r="I12" s="326"/>
+      <c r="J12" s="326"/>
+      <c r="K12" s="326"/>
+      <c r="L12" s="326"/>
+      <c r="M12" s="326"/>
+      <c r="N12" s="326"/>
+      <c r="O12" s="326"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -5726,17 +5705,17 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="309" t="s">
+      <c r="H13" s="327" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="309"/>
-      <c r="J13" s="309"/>
-      <c r="K13" s="309"/>
-      <c r="L13" s="309"/>
-      <c r="M13" s="309"/>
-      <c r="N13" s="309"/>
-      <c r="O13" s="309"/>
-      <c r="P13" s="309"/>
+      <c r="I13" s="327"/>
+      <c r="J13" s="327"/>
+      <c r="K13" s="327"/>
+      <c r="L13" s="327"/>
+      <c r="M13" s="327"/>
+      <c r="N13" s="327"/>
+      <c r="O13" s="327"/>
+      <c r="P13" s="327"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="7"/>
@@ -5749,17 +5728,17 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="310" t="s">
+      <c r="H14" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="310"/>
-      <c r="J14" s="310"/>
-      <c r="K14" s="310"/>
-      <c r="L14" s="310"/>
-      <c r="M14" s="310"/>
-      <c r="N14" s="310"/>
-      <c r="O14" s="310"/>
-      <c r="P14" s="310"/>
+      <c r="I14" s="328"/>
+      <c r="J14" s="328"/>
+      <c r="K14" s="328"/>
+      <c r="L14" s="328"/>
+      <c r="M14" s="328"/>
+      <c r="N14" s="328"/>
+      <c r="O14" s="328"/>
+      <c r="P14" s="328"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="7"/>
@@ -5772,17 +5751,17 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="311" t="s">
+      <c r="H15" s="329" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="311"/>
-      <c r="J15" s="311"/>
-      <c r="K15" s="311"/>
-      <c r="L15" s="311"/>
-      <c r="M15" s="311"/>
-      <c r="N15" s="311"/>
-      <c r="O15" s="311"/>
-      <c r="P15" s="311"/>
+      <c r="I15" s="329"/>
+      <c r="J15" s="329"/>
+      <c r="K15" s="329"/>
+      <c r="L15" s="329"/>
+      <c r="M15" s="329"/>
+      <c r="N15" s="329"/>
+      <c r="O15" s="329"/>
+      <c r="P15" s="329"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="7"/>
@@ -5795,17 +5774,17 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="312" t="s">
+      <c r="H16" s="330" t="s">
         <v>203</v>
       </c>
-      <c r="I16" s="312"/>
-      <c r="J16" s="312"/>
-      <c r="K16" s="312"/>
-      <c r="L16" s="312"/>
-      <c r="M16" s="312"/>
-      <c r="N16" s="312"/>
-      <c r="O16" s="312"/>
-      <c r="P16" s="312"/>
+      <c r="I16" s="330"/>
+      <c r="J16" s="330"/>
+      <c r="K16" s="330"/>
+      <c r="L16" s="330"/>
+      <c r="M16" s="330"/>
+      <c r="N16" s="330"/>
+      <c r="O16" s="330"/>
+      <c r="P16" s="330"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="7"/>
@@ -5988,13 +5967,13 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="296" t="s">
+      <c r="O24" s="333" t="s">
         <v>6</v>
       </c>
-      <c r="P24" s="297"/>
-      <c r="Q24" s="297"/>
-      <c r="R24" s="297"/>
-      <c r="S24" s="298"/>
+      <c r="P24" s="334"/>
+      <c r="Q24" s="334"/>
+      <c r="R24" s="334"/>
+      <c r="S24" s="335"/>
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="2:20" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6011,13 +5990,13 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="299" t="s">
+      <c r="O25" s="336" t="s">
         <v>199</v>
       </c>
-      <c r="P25" s="300"/>
-      <c r="Q25" s="300"/>
-      <c r="R25" s="300"/>
-      <c r="S25" s="301"/>
+      <c r="P25" s="337"/>
+      <c r="Q25" s="337"/>
+      <c r="R25" s="337"/>
+      <c r="S25" s="338"/>
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="2:20" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6026,23 +6005,23 @@
       <c r="D26" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="294" t="s">
-        <v>638</v>
-      </c>
-      <c r="F26" s="294"/>
-      <c r="G26" s="294"/>
-      <c r="H26" s="294"/>
-      <c r="I26" s="294"/>
+      <c r="E26" s="331" t="s">
+        <v>660</v>
+      </c>
+      <c r="F26" s="331"/>
+      <c r="G26" s="331"/>
+      <c r="H26" s="331"/>
+      <c r="I26" s="331"/>
       <c r="J26" s="104"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="302"/>
-      <c r="P26" s="303"/>
-      <c r="Q26" s="303"/>
-      <c r="R26" s="303"/>
-      <c r="S26" s="304"/>
+      <c r="O26" s="339"/>
+      <c r="P26" s="340"/>
+      <c r="Q26" s="340"/>
+      <c r="R26" s="340"/>
+      <c r="S26" s="341"/>
       <c r="T26" s="7"/>
     </row>
     <row r="27" spans="2:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6052,24 +6031,24 @@
         <v>8</v>
       </c>
       <c r="E27" s="101"/>
-      <c r="F27" s="295" t="s">
-        <v>639</v>
-      </c>
-      <c r="G27" s="295"/>
-      <c r="H27" s="295"/>
+      <c r="F27" s="332" t="s">
+        <v>661</v>
+      </c>
+      <c r="G27" s="332"/>
+      <c r="H27" s="332"/>
       <c r="I27" s="102"/>
       <c r="J27" s="106"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="305" t="s">
+      <c r="O27" s="342" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="306"/>
-      <c r="Q27" s="306"/>
-      <c r="R27" s="306"/>
-      <c r="S27" s="307"/>
+      <c r="P27" s="343"/>
+      <c r="Q27" s="343"/>
+      <c r="R27" s="343"/>
+      <c r="S27" s="344"/>
       <c r="T27" s="7"/>
     </row>
     <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6135,16 +6114,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="O25:S26"/>
+    <mergeCell ref="O27:S27"/>
     <mergeCell ref="H12:O12"/>
     <mergeCell ref="H13:P13"/>
     <mergeCell ref="H14:P14"/>
     <mergeCell ref="H15:P15"/>
     <mergeCell ref="H16:P16"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="O25:S26"/>
-    <mergeCell ref="O27:S27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6178,17 +6157,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="529" t="s">
+      <c r="A1" s="565" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="530"/>
-      <c r="C1" s="530"/>
-      <c r="D1" s="530"/>
-      <c r="E1" s="530"/>
-      <c r="F1" s="530"/>
-      <c r="G1" s="530"/>
-      <c r="H1" s="530"/>
-      <c r="I1" s="531"/>
+      <c r="B1" s="566"/>
+      <c r="C1" s="566"/>
+      <c r="D1" s="566"/>
+      <c r="E1" s="566"/>
+      <c r="F1" s="566"/>
+      <c r="G1" s="566"/>
+      <c r="H1" s="566"/>
+      <c r="I1" s="567"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
@@ -6249,51 +6228,51 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="532" t="s">
+      <c r="A4" s="568" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="533"/>
-      <c r="C4" s="533"/>
-      <c r="D4" s="533"/>
-      <c r="E4" s="533"/>
-      <c r="F4" s="533"/>
-      <c r="G4" s="533"/>
-      <c r="H4" s="533"/>
-      <c r="I4" s="534"/>
+      <c r="B4" s="569"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="569"/>
+      <c r="E4" s="569"/>
+      <c r="F4" s="569"/>
+      <c r="G4" s="569"/>
+      <c r="H4" s="569"/>
+      <c r="I4" s="570"/>
     </row>
     <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="597"/>
-      <c r="C5" s="286" t="s">
-        <v>406</v>
-      </c>
-      <c r="D5" s="286" t="s">
+      <c r="B5" s="308"/>
+      <c r="C5" s="318" t="s">
         <v>405</v>
       </c>
+      <c r="D5" s="318" t="s">
+        <v>404</v>
+      </c>
       <c r="E5" s="167"/>
-      <c r="F5" s="286" t="s">
-        <v>393</v>
-      </c>
-      <c r="G5" s="286" t="s">
+      <c r="F5" s="318" t="s">
         <v>392</v>
       </c>
+      <c r="G5" s="318" t="s">
+        <v>391</v>
+      </c>
       <c r="H5" s="167"/>
-      <c r="I5" s="596"/>
+      <c r="I5" s="307"/>
     </row>
     <row r="6" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="204" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C6" s="145" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D6" s="159" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E6" s="198" t="s">
         <v>328</v>
@@ -6301,12 +6280,12 @@
       <c r="F6" s="198" t="s">
         <v>329</v>
       </c>
-      <c r="G6" s="246"/>
+      <c r="G6" s="245"/>
       <c r="H6" s="159" t="s">
-        <v>397</v>
-      </c>
-      <c r="I6" s="568" t="s">
-        <v>395</v>
+        <v>396</v>
+      </c>
+      <c r="I6" s="293" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6314,35 +6293,33 @@
         <v>131</v>
       </c>
       <c r="B7" s="204" t="s">
+        <v>551</v>
+      </c>
+      <c r="C7" s="145" t="s">
+        <v>549</v>
+      </c>
+      <c r="D7" s="147" t="s">
+        <v>606</v>
+      </c>
+      <c r="E7" s="145" t="s">
         <v>553</v>
       </c>
-      <c r="C7" s="145" t="s">
-        <v>551</v>
-      </c>
-      <c r="D7" s="147" t="s">
-        <v>608</v>
-      </c>
-      <c r="E7" s="145" t="s">
-        <v>555</v>
-      </c>
       <c r="F7" s="147" t="s">
-        <v>605</v>
-      </c>
-      <c r="G7" s="236" t="s">
-        <v>327</v>
-      </c>
-      <c r="H7" s="246"/>
-      <c r="I7" s="247"/>
+        <v>603</v>
+      </c>
+      <c r="G7" s="322"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="246"/>
     </row>
     <row r="8" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="203" t="s">
-        <v>430</v>
-      </c>
-      <c r="C8" s="284" t="s">
         <v>429</v>
+      </c>
+      <c r="C8" s="281" t="s">
+        <v>428</v>
       </c>
       <c r="D8" s="144"/>
       <c r="E8" s="198" t="s">
@@ -6351,35 +6328,35 @@
       <c r="F8" s="198" t="s">
         <v>331</v>
       </c>
-      <c r="G8" s="246"/>
+      <c r="G8" s="245"/>
       <c r="H8" s="144"/>
-      <c r="I8" s="248"/>
+      <c r="I8" s="247"/>
     </row>
     <row r="9" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="77" t="s">
         <v>133</v>
       </c>
       <c r="B9" s="204" t="s">
-        <v>559</v>
-      </c>
-      <c r="C9" s="279" t="s">
-        <v>414</v>
-      </c>
-      <c r="D9" s="279" t="s">
+        <v>557</v>
+      </c>
+      <c r="C9" s="314" t="s">
         <v>413</v>
       </c>
-      <c r="E9" s="279" t="s">
+      <c r="D9" s="314" t="s">
+        <v>412</v>
+      </c>
+      <c r="E9" s="314" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" s="159" t="s">
+        <v>397</v>
+      </c>
+      <c r="G9" s="245"/>
+      <c r="H9" s="314" t="s">
+        <v>425</v>
+      </c>
+      <c r="I9" s="315" t="s">
         <v>424</v>
-      </c>
-      <c r="F9" s="159" t="s">
-        <v>398</v>
-      </c>
-      <c r="G9" s="246"/>
-      <c r="H9" s="279" t="s">
-        <v>426</v>
-      </c>
-      <c r="I9" s="280" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6387,17 +6364,17 @@
         <v>134</v>
       </c>
       <c r="B10" s="203" t="s">
-        <v>467</v>
-      </c>
-      <c r="C10" s="284" t="s">
-        <v>592</v>
-      </c>
-      <c r="D10" s="291"/>
-      <c r="E10" s="279" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" s="281" t="s">
+        <v>590</v>
+      </c>
+      <c r="D10" s="286"/>
+      <c r="E10" s="314" t="s">
+        <v>401</v>
+      </c>
+      <c r="F10" s="314" t="s">
         <v>402</v>
-      </c>
-      <c r="F10" s="279" t="s">
-        <v>403</v>
       </c>
       <c r="G10" s="144"/>
       <c r="H10" s="144"/>
@@ -6408,23 +6385,23 @@
         <v>135</v>
       </c>
       <c r="B11" s="204" t="s">
-        <v>541</v>
-      </c>
-      <c r="C11" s="279" t="s">
+        <v>539</v>
+      </c>
+      <c r="C11" s="314" t="s">
+        <v>417</v>
+      </c>
+      <c r="D11" s="314" t="s">
         <v>418</v>
       </c>
-      <c r="D11" s="279" t="s">
+      <c r="E11" s="314" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="314" t="s">
         <v>419</v>
-      </c>
-      <c r="E11" s="279" t="s">
-        <v>184</v>
-      </c>
-      <c r="F11" s="279" t="s">
-        <v>420</v>
       </c>
       <c r="G11" s="144"/>
       <c r="H11" s="145" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I11" s="168"/>
     </row>
@@ -6432,96 +6409,100 @@
       <c r="A12" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="281" t="s">
-        <v>423</v>
-      </c>
-      <c r="C12" s="279" t="s">
+      <c r="B12" s="316" t="s">
         <v>422</v>
+      </c>
+      <c r="C12" s="314" t="s">
+        <v>421</v>
       </c>
       <c r="D12" s="159" t="s">
         <v>187</v>
       </c>
-      <c r="E12" s="279" t="s">
-        <v>404</v>
+      <c r="E12" s="314" t="s">
+        <v>403</v>
       </c>
       <c r="F12" s="159" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G12" s="144"/>
       <c r="H12" s="159" t="s">
-        <v>400</v>
-      </c>
-      <c r="I12" s="568" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="293" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
         <v>137</v>
       </c>
       <c r="B13" s="203" t="s">
-        <v>593</v>
-      </c>
-      <c r="C13" s="284" t="s">
-        <v>473</v>
-      </c>
-      <c r="D13" s="246"/>
-      <c r="E13" s="198" t="s">
-        <v>334</v>
-      </c>
-      <c r="F13" s="198" t="s">
-        <v>336</v>
-      </c>
-      <c r="G13" s="291"/>
-      <c r="H13" s="198" t="s">
-        <v>335</v>
-      </c>
-      <c r="I13" s="222"/>
+        <v>591</v>
+      </c>
+      <c r="C13" s="281" t="s">
+        <v>471</v>
+      </c>
+      <c r="D13" s="281" t="s">
+        <v>467</v>
+      </c>
+      <c r="E13" s="281" t="s">
+        <v>466</v>
+      </c>
+      <c r="F13" s="281" t="s">
+        <v>445</v>
+      </c>
+      <c r="G13" s="235" t="s">
+        <v>327</v>
+      </c>
+      <c r="H13" s="322"/>
+      <c r="I13" s="282" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
         <v>138</v>
       </c>
       <c r="B14" s="203" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="281" t="s">
+        <v>434</v>
+      </c>
+      <c r="D14" s="281" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" s="281" t="s">
+        <v>587</v>
+      </c>
+      <c r="F14" s="281" t="s">
         <v>433</v>
       </c>
-      <c r="C14" s="284" t="s">
-        <v>435</v>
-      </c>
-      <c r="D14" s="284" t="s">
-        <v>438</v>
-      </c>
-      <c r="E14" s="284" t="s">
-        <v>589</v>
-      </c>
-      <c r="F14" s="284" t="s">
-        <v>434</v>
-      </c>
-      <c r="G14" s="284" t="s">
-        <v>438</v>
-      </c>
-      <c r="H14" s="284" t="s">
-        <v>651</v>
+      <c r="G14" s="281" t="s">
+        <v>437</v>
+      </c>
+      <c r="H14" s="281" t="s">
+        <v>647</v>
       </c>
       <c r="I14" s="168"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="77" t="s">
-        <v>597</v>
-      </c>
-      <c r="B15" s="510" t="s">
-        <v>645</v>
-      </c>
-      <c r="C15" s="511"/>
-      <c r="D15" s="284" t="s">
-        <v>439</v>
-      </c>
-      <c r="E15" s="284" t="s">
-        <v>449</v>
+        <v>595</v>
+      </c>
+      <c r="B15" s="554" t="s">
+        <v>641</v>
+      </c>
+      <c r="C15" s="547"/>
+      <c r="D15" s="281" t="s">
+        <v>438</v>
+      </c>
+      <c r="E15" s="281" t="s">
+        <v>448</v>
       </c>
       <c r="F15" s="144"/>
-      <c r="G15" s="284" t="s">
-        <v>439</v>
+      <c r="G15" s="281" t="s">
+        <v>438</v>
       </c>
       <c r="H15" s="144"/>
       <c r="I15" s="168"/>
@@ -6532,16 +6513,18 @@
       </c>
       <c r="B16" s="172"/>
       <c r="C16" s="144"/>
-      <c r="D16" s="246"/>
+      <c r="D16" s="245"/>
       <c r="E16" s="198" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F16" s="198" t="s">
-        <v>333</v>
-      </c>
-      <c r="G16" s="251"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="567"/>
+        <v>336</v>
+      </c>
+      <c r="G16" s="250"/>
+      <c r="H16" s="198" t="s">
+        <v>335</v>
+      </c>
+      <c r="I16" s="168"/>
     </row>
     <row r="17" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
@@ -6553,14 +6536,14 @@
       <c r="C17" s="145" t="s">
         <v>296</v>
       </c>
-      <c r="D17" s="291"/>
+      <c r="D17" s="286"/>
       <c r="E17" s="145" t="s">
         <v>295</v>
       </c>
       <c r="F17" s="144"/>
-      <c r="G17" s="291"/>
+      <c r="G17" s="286"/>
       <c r="H17" s="144"/>
-      <c r="I17" s="253"/>
+      <c r="I17" s="168"/>
     </row>
     <row r="18" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="77" t="s">
@@ -6574,16 +6557,16 @@
         <v>286</v>
       </c>
       <c r="E18" s="147" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F18" s="147" t="s">
+        <v>366</v>
+      </c>
+      <c r="G18" s="245"/>
+      <c r="H18" s="147" t="s">
         <v>367</v>
       </c>
-      <c r="G18" s="246"/>
-      <c r="H18" s="246"/>
-      <c r="I18" s="182" t="s">
-        <v>368</v>
-      </c>
+      <c r="I18" s="168"/>
     </row>
     <row r="19" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
@@ -6595,25 +6578,25 @@
       <c r="C19" s="145" t="s">
         <v>299</v>
       </c>
-      <c r="D19" s="245"/>
+      <c r="D19" s="244"/>
       <c r="E19" s="145" t="s">
         <v>298</v>
       </c>
-      <c r="F19" s="246"/>
-      <c r="G19" s="246"/>
+      <c r="F19" s="245"/>
+      <c r="G19" s="245"/>
       <c r="H19" s="145" t="s">
-        <v>655</v>
-      </c>
-      <c r="I19" s="280" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+      <c r="I19" s="315" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="281" t="s">
-        <v>391</v>
+      <c r="B20" s="316" t="s">
+        <v>390</v>
       </c>
       <c r="C20" s="145" t="s">
         <v>318</v>
@@ -6621,10 +6604,14 @@
       <c r="D20" s="145" t="s">
         <v>317</v>
       </c>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="279" t="s">
-        <v>391</v>
+      <c r="E20" s="198" t="s">
+        <v>332</v>
+      </c>
+      <c r="F20" s="198" t="s">
+        <v>333</v>
+      </c>
+      <c r="G20" s="314" t="s">
+        <v>390</v>
       </c>
       <c r="H20" s="145" t="s">
         <v>319</v>
@@ -6635,22 +6622,22 @@
     </row>
     <row r="21" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="174" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B21" s="204" t="s">
         <v>304</v>
       </c>
-      <c r="C21" s="289"/>
-      <c r="D21" s="289"/>
+      <c r="C21" s="285"/>
+      <c r="D21" s="285"/>
       <c r="E21" s="145" t="s">
         <v>305</v>
       </c>
       <c r="F21" s="145" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="G21" s="144"/>
-      <c r="H21" s="279" t="s">
-        <v>380</v>
+      <c r="H21" s="314" t="s">
+        <v>379</v>
       </c>
       <c r="I21" s="165" t="s">
         <v>303</v>
@@ -6664,18 +6651,18 @@
         <v>291</v>
       </c>
       <c r="C22" s="145" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D22" s="145" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E22" s="145" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F22" s="145" t="s">
         <v>294</v>
       </c>
-      <c r="G22" s="246"/>
+      <c r="G22" s="245"/>
       <c r="H22" s="145" t="s">
         <v>301</v>
       </c>
@@ -6687,18 +6674,18 @@
       <c r="A23" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="244"/>
+      <c r="B23" s="243"/>
       <c r="C23" s="145" t="s">
         <v>309</v>
       </c>
-      <c r="D23" s="246"/>
+      <c r="D23" s="245"/>
       <c r="E23" s="145" t="s">
         <v>308</v>
       </c>
       <c r="F23" s="145" t="s">
         <v>285</v>
       </c>
-      <c r="G23" s="246"/>
+      <c r="G23" s="245"/>
       <c r="H23" s="145" t="s">
         <v>310</v>
       </c>
@@ -6707,143 +6694,143 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="173" t="s">
+      <c r="A24" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="217" t="s">
+      <c r="B24" s="218" t="s">
         <v>307</v>
       </c>
-      <c r="C24" s="255"/>
-      <c r="D24" s="206" t="s">
+      <c r="C24" s="323"/>
+      <c r="D24" s="179" t="s">
         <v>311</v>
       </c>
-      <c r="E24" s="558"/>
-      <c r="F24" s="558"/>
-      <c r="G24" s="558"/>
-      <c r="H24" s="558"/>
-      <c r="I24" s="559" t="s">
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="221" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="561" t="s">
-        <v>647</v>
-      </c>
-      <c r="B25" s="562"/>
-      <c r="C25" s="562"/>
-      <c r="D25" s="562"/>
-      <c r="E25" s="562"/>
-      <c r="F25" s="563"/>
-      <c r="G25" s="566" t="s">
-        <v>652</v>
-      </c>
-      <c r="H25" s="564"/>
-      <c r="I25" s="565"/>
+      <c r="A25" s="593" t="s">
+        <v>643</v>
+      </c>
+      <c r="B25" s="594"/>
+      <c r="C25" s="594"/>
+      <c r="D25" s="594"/>
+      <c r="E25" s="594"/>
+      <c r="F25" s="595"/>
+      <c r="G25" s="291" t="s">
+        <v>648</v>
+      </c>
+      <c r="H25" s="596"/>
+      <c r="I25" s="597"/>
     </row>
     <row r="26" spans="1:9" s="80" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="593" t="s">
+      <c r="A26" s="568" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="586"/>
-      <c r="C26" s="586"/>
-      <c r="D26" s="586"/>
-      <c r="E26" s="586"/>
-      <c r="F26" s="586"/>
-      <c r="G26" s="586"/>
-      <c r="H26" s="586"/>
-      <c r="I26" s="587"/>
+      <c r="B26" s="571"/>
+      <c r="C26" s="571"/>
+      <c r="D26" s="571"/>
+      <c r="E26" s="571"/>
+      <c r="F26" s="571"/>
+      <c r="G26" s="571"/>
+      <c r="H26" s="571"/>
+      <c r="I26" s="572"/>
     </row>
     <row r="27" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="549" t="s">
-        <v>569</v>
-      </c>
-      <c r="C27" s="550"/>
-      <c r="D27" s="550"/>
-      <c r="E27" s="594"/>
-      <c r="F27" s="594"/>
-      <c r="G27" s="594"/>
-      <c r="H27" s="594"/>
-      <c r="I27" s="595"/>
+      <c r="B27" s="582" t="s">
+        <v>567</v>
+      </c>
+      <c r="C27" s="583"/>
+      <c r="D27" s="583"/>
+      <c r="E27" s="313"/>
+      <c r="F27" s="313"/>
+      <c r="G27" s="313"/>
+      <c r="H27" s="584" t="s">
+        <v>517</v>
+      </c>
+      <c r="I27" s="598"/>
     </row>
     <row r="28" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="516" t="s">
-        <v>535</v>
-      </c>
-      <c r="C28" s="508"/>
-      <c r="D28" s="508"/>
-      <c r="E28" s="258"/>
-      <c r="F28" s="258"/>
-      <c r="G28" s="258"/>
-      <c r="H28" s="258"/>
-      <c r="I28" s="570"/>
+      <c r="B28" s="558" t="s">
+        <v>533</v>
+      </c>
+      <c r="C28" s="550"/>
+      <c r="D28" s="550"/>
+      <c r="E28" s="255"/>
+      <c r="F28" s="255"/>
+      <c r="G28" s="255"/>
+      <c r="H28" s="549" t="s">
+        <v>642</v>
+      </c>
+      <c r="I28" s="557"/>
     </row>
     <row r="29" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="553" t="s">
-        <v>533</v>
-      </c>
-      <c r="C29" s="527"/>
-      <c r="D29" s="527"/>
-      <c r="E29" s="246"/>
-      <c r="F29" s="256"/>
-      <c r="G29" s="246"/>
-      <c r="H29" s="246"/>
-      <c r="I29" s="248"/>
+      <c r="B29" s="586" t="s">
+        <v>531</v>
+      </c>
+      <c r="C29" s="546"/>
+      <c r="D29" s="546"/>
+      <c r="E29" s="245"/>
+      <c r="F29" s="253"/>
+      <c r="G29" s="245"/>
+      <c r="H29" s="245"/>
+      <c r="I29" s="247"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="77" t="s">
-        <v>572</v>
-      </c>
-      <c r="B30" s="548" t="s">
-        <v>520</v>
-      </c>
-      <c r="C30" s="514"/>
-      <c r="D30" s="514" t="s">
-        <v>646</v>
-      </c>
-      <c r="E30" s="514"/>
-      <c r="F30" s="256"/>
-      <c r="G30" s="291"/>
-      <c r="H30" s="514" t="s">
-        <v>519</v>
-      </c>
-      <c r="I30" s="515"/>
+        <v>570</v>
+      </c>
+      <c r="B30" s="580" t="s">
+        <v>518</v>
+      </c>
+      <c r="C30" s="549"/>
+      <c r="D30" s="322"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="253"/>
+      <c r="G30" s="286"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="292"/>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="516" t="s">
-        <v>574</v>
-      </c>
-      <c r="C31" s="508"/>
-      <c r="D31" s="508"/>
-      <c r="E31" s="246"/>
-      <c r="F31" s="257"/>
-      <c r="G31" s="260"/>
-      <c r="H31" s="260"/>
-      <c r="I31" s="571"/>
+      <c r="B31" s="558" t="s">
+        <v>572</v>
+      </c>
+      <c r="C31" s="550"/>
+      <c r="D31" s="550"/>
+      <c r="E31" s="245"/>
+      <c r="F31" s="254"/>
+      <c r="G31" s="257"/>
+      <c r="H31" s="257"/>
+      <c r="I31" s="295"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="553" t="s">
-        <v>532</v>
-      </c>
-      <c r="C32" s="527"/>
-      <c r="D32" s="527"/>
-      <c r="E32" s="256"/>
-      <c r="F32" s="256"/>
-      <c r="G32" s="260"/>
+      <c r="B32" s="586" t="s">
+        <v>530</v>
+      </c>
+      <c r="C32" s="546"/>
+      <c r="D32" s="546"/>
+      <c r="E32" s="253"/>
+      <c r="F32" s="253"/>
+      <c r="G32" s="257"/>
       <c r="H32" s="144"/>
       <c r="I32" s="168"/>
     </row>
@@ -6851,47 +6838,47 @@
       <c r="A33" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="560"/>
-      <c r="C33" s="246"/>
-      <c r="D33" s="246"/>
-      <c r="E33" s="246"/>
-      <c r="F33" s="290"/>
-      <c r="G33" s="290"/>
-      <c r="H33" s="259"/>
-      <c r="I33" s="569"/>
+      <c r="B33" s="290"/>
+      <c r="C33" s="245"/>
+      <c r="D33" s="245"/>
+      <c r="E33" s="245"/>
+      <c r="F33" s="321"/>
+      <c r="G33" s="321"/>
+      <c r="H33" s="256"/>
+      <c r="I33" s="294"/>
     </row>
     <row r="34" spans="1:9" s="94" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="162" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="554" t="s">
-        <v>523</v>
-      </c>
-      <c r="C34" s="555"/>
-      <c r="D34" s="555"/>
-      <c r="E34" s="572"/>
-      <c r="F34" s="572"/>
-      <c r="G34" s="573"/>
-      <c r="H34" s="573"/>
-      <c r="I34" s="574"/>
+      <c r="B34" s="591" t="s">
+        <v>521</v>
+      </c>
+      <c r="C34" s="592"/>
+      <c r="D34" s="592"/>
+      <c r="E34" s="296"/>
+      <c r="F34" s="296"/>
+      <c r="G34" s="297"/>
+      <c r="H34" s="297"/>
+      <c r="I34" s="298"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A26:I26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.2" bottom="0.24" header="0.17" footer="0.17"/>
@@ -6924,17 +6911,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="529" t="s">
+      <c r="A1" s="565" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="530"/>
-      <c r="C1" s="530"/>
-      <c r="D1" s="530"/>
-      <c r="E1" s="530"/>
-      <c r="F1" s="530"/>
-      <c r="G1" s="530"/>
-      <c r="H1" s="530"/>
-      <c r="I1" s="531"/>
+      <c r="B1" s="566"/>
+      <c r="C1" s="566"/>
+      <c r="D1" s="566"/>
+      <c r="E1" s="566"/>
+      <c r="F1" s="566"/>
+      <c r="G1" s="566"/>
+      <c r="H1" s="566"/>
+      <c r="I1" s="567"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
@@ -6995,144 +6982,140 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="532" t="s">
+      <c r="A4" s="568" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="533"/>
-      <c r="C4" s="533"/>
-      <c r="D4" s="533"/>
-      <c r="E4" s="533"/>
-      <c r="F4" s="533"/>
-      <c r="G4" s="533"/>
-      <c r="H4" s="533"/>
-      <c r="I4" s="534"/>
+      <c r="B4" s="569"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="569"/>
+      <c r="E4" s="569"/>
+      <c r="F4" s="569"/>
+      <c r="G4" s="569"/>
+      <c r="H4" s="569"/>
+      <c r="I4" s="570"/>
     </row>
     <row r="5" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="223" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="225" t="s">
+      <c r="B5" s="317" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" s="318" t="s">
         <v>422</v>
       </c>
-      <c r="C5" s="286" t="s">
-        <v>423</v>
-      </c>
-      <c r="D5" s="261"/>
-      <c r="E5" s="286" t="s">
-        <v>575</v>
+      <c r="D5" s="258"/>
+      <c r="E5" s="318" t="s">
+        <v>573</v>
       </c>
       <c r="F5" s="224" t="s">
-        <v>393</v>
-      </c>
-      <c r="G5" s="610" t="s">
-        <v>480</v>
-      </c>
-      <c r="H5" s="225" t="s">
         <v>392</v>
       </c>
-      <c r="I5" s="266"/>
+      <c r="G5" s="601" t="s">
+        <v>478</v>
+      </c>
+      <c r="H5" s="317" t="s">
+        <v>391</v>
+      </c>
+      <c r="I5" s="263"/>
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="172"/>
+      <c r="B6" s="143" t="s">
+        <v>360</v>
+      </c>
       <c r="C6" s="143" t="s">
-        <v>362</v>
-      </c>
-      <c r="D6" s="143" t="s">
         <v>361</v>
       </c>
-      <c r="E6" s="246"/>
-      <c r="F6" s="292"/>
-      <c r="G6" s="606"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="245"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="602"/>
       <c r="H6" s="204" t="s">
         <v>300</v>
       </c>
       <c r="I6" s="165" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="281" t="s">
+      <c r="B7" s="316" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" s="314" t="s">
         <v>405</v>
       </c>
-      <c r="C7" s="279" t="s">
-        <v>406</v>
-      </c>
-      <c r="D7" s="284" t="s">
-        <v>468</v>
-      </c>
-      <c r="E7" s="284" t="s">
-        <v>469</v>
-      </c>
-      <c r="F7" s="292"/>
-      <c r="G7" s="606"/>
+      <c r="D7" s="322"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="602"/>
       <c r="H7" s="204" t="s">
         <v>318</v>
       </c>
-      <c r="I7" s="247"/>
+      <c r="I7" s="246"/>
     </row>
     <row r="8" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="205" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C8" s="147" t="s">
         <v>341</v>
       </c>
-      <c r="D8" s="262"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="606"/>
-      <c r="H8" s="249"/>
+      <c r="D8" s="259"/>
+      <c r="E8" s="259"/>
+      <c r="F8" s="287"/>
+      <c r="G8" s="602"/>
+      <c r="H8" s="248"/>
       <c r="I8" s="222"/>
     </row>
     <row r="9" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="281" t="s">
+      <c r="B9" s="316" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" s="314" t="s">
+        <v>417</v>
+      </c>
+      <c r="D9" s="286"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="320" t="s">
         <v>419</v>
       </c>
-      <c r="C9" s="279" t="s">
-        <v>418</v>
-      </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="288" t="s">
-        <v>420</v>
-      </c>
-      <c r="G9" s="606"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="250"/>
+      <c r="G9" s="602"/>
+      <c r="H9" s="248"/>
+      <c r="I9" s="249"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="249"/>
+      <c r="B10" s="248"/>
       <c r="C10" s="143" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D10" s="143" t="s">
+        <v>410</v>
+      </c>
+      <c r="E10" s="259"/>
+      <c r="F10" s="310" t="s">
         <v>411</v>
       </c>
-      <c r="E10" s="262"/>
-      <c r="F10" s="600" t="s">
-        <v>412</v>
-      </c>
-      <c r="G10" s="606"/>
-      <c r="H10" s="281" t="s">
+      <c r="G10" s="602"/>
+      <c r="H10" s="316" t="s">
+        <v>380</v>
+      </c>
+      <c r="I10" s="315" t="s">
         <v>381</v>
-      </c>
-      <c r="I10" s="280" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7140,89 +7123,82 @@
         <v>135</v>
       </c>
       <c r="B11" s="203" t="s">
-        <v>464</v>
-      </c>
-      <c r="C11" s="279" t="s">
-        <v>576</v>
+        <v>463</v>
+      </c>
+      <c r="C11" s="314" t="s">
+        <v>574</v>
       </c>
       <c r="D11" s="144"/>
-      <c r="E11" s="279" t="s">
-        <v>421</v>
-      </c>
-      <c r="F11" s="226"/>
-      <c r="G11" s="606"/>
-      <c r="H11" s="281" t="s">
+      <c r="E11" s="314" t="s">
+        <v>420</v>
+      </c>
+      <c r="F11" s="225"/>
+      <c r="G11" s="602"/>
+      <c r="H11" s="316" t="s">
+        <v>382</v>
+      </c>
+      <c r="I11" s="315" t="s">
         <v>383</v>
-      </c>
-      <c r="I11" s="280" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="601" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" s="279" t="s">
-        <v>404</v>
-      </c>
-      <c r="D12" s="284" t="s">
-        <v>466</v>
-      </c>
-      <c r="E12" s="284" t="s">
-        <v>465</v>
-      </c>
-      <c r="F12" s="263"/>
-      <c r="G12" s="606"/>
+      <c r="B12" s="322"/>
+      <c r="C12" s="314" t="s">
+        <v>403</v>
+      </c>
+      <c r="D12" s="144"/>
+      <c r="E12" s="322"/>
+      <c r="F12" s="260"/>
+      <c r="G12" s="602"/>
       <c r="H12" s="214" t="s">
-        <v>353</v>
-      </c>
-      <c r="I12" s="280" t="s">
-        <v>385</v>
+        <v>352</v>
+      </c>
+      <c r="I12" s="315" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="252"/>
+      <c r="B13" s="143" t="s">
+        <v>358</v>
+      </c>
       <c r="C13" s="143" t="s">
         <v>359</v>
       </c>
-      <c r="D13" s="143" t="s">
-        <v>360</v>
-      </c>
-      <c r="E13" s="291"/>
-      <c r="F13" s="264"/>
-      <c r="G13" s="606"/>
-      <c r="H13" s="252"/>
-      <c r="I13" s="254"/>
+      <c r="E13" s="286"/>
+      <c r="F13" s="261"/>
+      <c r="G13" s="602"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="252"/>
     </row>
     <row r="14" spans="1:9" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="249"/>
-      <c r="C14" s="291"/>
-      <c r="D14" s="246"/>
+      <c r="B14" s="248"/>
+      <c r="C14" s="286"/>
+      <c r="D14" s="245"/>
       <c r="E14" s="144"/>
-      <c r="F14" s="226"/>
-      <c r="G14" s="606"/>
+      <c r="F14" s="225"/>
+      <c r="G14" s="602"/>
       <c r="H14" s="172"/>
       <c r="I14" s="168"/>
     </row>
     <row r="15" spans="1:9" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="77" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B15" s="172"/>
       <c r="C15" s="144"/>
-      <c r="D15" s="246"/>
+      <c r="D15" s="245"/>
       <c r="E15" s="144"/>
-      <c r="F15" s="226"/>
-      <c r="G15" s="606"/>
+      <c r="F15" s="225"/>
+      <c r="G15" s="602"/>
       <c r="H15" s="172"/>
       <c r="I15" s="168"/>
     </row>
@@ -7230,25 +7206,25 @@
       <c r="A16" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="510" t="s">
-        <v>500</v>
-      </c>
-      <c r="C16" s="511"/>
+      <c r="B16" s="554" t="s">
+        <v>498</v>
+      </c>
+      <c r="C16" s="547"/>
       <c r="D16" s="147" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E16" s="147" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F16" s="181" t="s">
-        <v>603</v>
-      </c>
-      <c r="G16" s="606"/>
+        <v>601</v>
+      </c>
+      <c r="G16" s="602"/>
       <c r="H16" s="214" t="s">
         <v>348</v>
       </c>
       <c r="I16" s="182" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7261,16 +7237,16 @@
       <c r="C17" s="145" t="s">
         <v>305</v>
       </c>
-      <c r="D17" s="245"/>
+      <c r="D17" s="244"/>
       <c r="E17" s="145" t="s">
         <v>287</v>
       </c>
       <c r="F17" s="219" t="s">
         <v>290</v>
       </c>
-      <c r="G17" s="606"/>
-      <c r="H17" s="281" t="s">
-        <v>380</v>
+      <c r="G17" s="602"/>
+      <c r="H17" s="316" t="s">
+        <v>379</v>
       </c>
       <c r="I17" s="165" t="s">
         <v>304</v>
@@ -7286,15 +7262,16 @@
       <c r="C18" s="147" t="s">
         <v>343</v>
       </c>
-      <c r="D18" s="246"/>
+      <c r="D18" s="245"/>
       <c r="E18" s="147" t="s">
         <v>344</v>
       </c>
-      <c r="F18" s="226"/>
-      <c r="G18" s="606"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="602"/>
       <c r="H18" s="204" t="s">
         <v>297</v>
       </c>
+      <c r="I18" s="292"/>
     </row>
     <row r="19" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
@@ -7306,17 +7283,17 @@
       <c r="C19" s="145" t="s">
         <v>296</v>
       </c>
-      <c r="D19" s="242"/>
-      <c r="E19" s="242"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="241"/>
       <c r="F19" s="181" t="s">
-        <v>568</v>
-      </c>
-      <c r="G19" s="606"/>
+        <v>566</v>
+      </c>
+      <c r="G19" s="602"/>
       <c r="H19" s="214" t="s">
         <v>192</v>
       </c>
-      <c r="I19" s="280" t="s">
-        <v>650</v>
+      <c r="I19" s="315" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7324,32 +7301,32 @@
         <v>142</v>
       </c>
       <c r="B20" s="204" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C20" s="145" t="s">
-        <v>547</v>
-      </c>
-      <c r="D20" s="245"/>
+        <v>545</v>
+      </c>
+      <c r="D20" s="244"/>
       <c r="E20" s="145" t="s">
         <v>294</v>
       </c>
       <c r="F20" s="219" t="s">
         <v>292</v>
       </c>
-      <c r="G20" s="606"/>
+      <c r="G20" s="602"/>
       <c r="H20" s="204" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="I20" s="165" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="174" t="s">
-        <v>598</v>
-      </c>
-      <c r="B21" s="281" t="s">
-        <v>536</v>
+        <v>596</v>
+      </c>
+      <c r="B21" s="316" t="s">
+        <v>534</v>
       </c>
       <c r="C21" s="145" t="s">
         <v>308</v>
@@ -7358,12 +7335,12 @@
         <v>309</v>
       </c>
       <c r="E21" s="145" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F21" s="219" t="s">
-        <v>653</v>
-      </c>
-      <c r="G21" s="606"/>
+        <v>649</v>
+      </c>
+      <c r="G21" s="602"/>
       <c r="H21" s="214" t="s">
         <v>345</v>
       </c>
@@ -7383,12 +7360,12 @@
         <v>312</v>
       </c>
       <c r="E22" s="144"/>
-      <c r="F22" s="226"/>
-      <c r="G22" s="606"/>
-      <c r="H22" s="510" t="s">
-        <v>502</v>
-      </c>
-      <c r="I22" s="538"/>
+      <c r="F22" s="225"/>
+      <c r="G22" s="602"/>
+      <c r="H22" s="554" t="s">
+        <v>500</v>
+      </c>
+      <c r="I22" s="573"/>
     </row>
     <row r="23" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="77" t="s">
@@ -7400,14 +7377,14 @@
       <c r="C23" s="145" t="s">
         <v>299</v>
       </c>
-      <c r="D23" s="291"/>
-      <c r="E23" s="245"/>
+      <c r="D23" s="286"/>
+      <c r="E23" s="244"/>
       <c r="F23" s="181" t="s">
-        <v>577</v>
-      </c>
-      <c r="G23" s="606"/>
+        <v>575</v>
+      </c>
+      <c r="G23" s="602"/>
       <c r="H23" s="214" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I23" s="208" t="s">
         <v>347</v>
@@ -7427,8 +7404,8 @@
         <v>319</v>
       </c>
       <c r="E24" s="171"/>
-      <c r="F24" s="604"/>
-      <c r="G24" s="611"/>
+      <c r="F24" s="312"/>
+      <c r="G24" s="603"/>
       <c r="H24" s="218" t="s">
         <v>311</v>
       </c>
@@ -7437,138 +7414,128 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="532" t="s">
+      <c r="A25" s="568" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="535"/>
-      <c r="C25" s="535"/>
-      <c r="D25" s="535"/>
-      <c r="E25" s="535"/>
-      <c r="F25" s="535"/>
-      <c r="G25" s="535"/>
-      <c r="H25" s="535"/>
-      <c r="I25" s="536"/>
+      <c r="B25" s="571"/>
+      <c r="C25" s="571"/>
+      <c r="D25" s="571"/>
+      <c r="E25" s="571"/>
+      <c r="F25" s="571"/>
+      <c r="G25" s="571"/>
+      <c r="H25" s="571"/>
+      <c r="I25" s="572"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="209" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="528" t="s">
-        <v>611</v>
-      </c>
-      <c r="C26" s="528"/>
-      <c r="D26" s="528"/>
-      <c r="E26" s="243"/>
-      <c r="F26" s="598" t="s">
-        <v>654</v>
-      </c>
-      <c r="G26" s="607" t="s">
+      <c r="B26" s="548" t="s">
+        <v>609</v>
+      </c>
+      <c r="C26" s="548"/>
+      <c r="D26" s="548"/>
+      <c r="E26" s="242"/>
+      <c r="G26" s="604" t="s">
         <v>188</v>
       </c>
-      <c r="H26" s="605" t="s">
-        <v>654</v>
-      </c>
-      <c r="I26" s="602"/>
+      <c r="H26" s="324"/>
+      <c r="I26" s="325"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="184" t="s">
+      <c r="A27" s="319" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="514" t="s">
-        <v>580</v>
-      </c>
-      <c r="C27" s="514"/>
-      <c r="D27" s="514"/>
+      <c r="B27" s="549" t="s">
+        <v>578</v>
+      </c>
+      <c r="C27" s="549"/>
+      <c r="D27" s="549"/>
       <c r="E27" s="144"/>
-      <c r="F27" s="226"/>
-      <c r="G27" s="608"/>
-      <c r="H27" s="252"/>
-      <c r="I27" s="248"/>
+      <c r="F27" s="225"/>
+      <c r="G27" s="605"/>
+      <c r="H27" s="251"/>
+      <c r="I27" s="247"/>
     </row>
     <row r="28" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="184" t="s">
+      <c r="A28" s="319" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="246"/>
-      <c r="C28" s="246"/>
-      <c r="D28" s="507" t="s">
-        <v>578</v>
-      </c>
-      <c r="E28" s="507"/>
-      <c r="F28" s="603"/>
-      <c r="G28" s="608"/>
-      <c r="H28" s="267"/>
-      <c r="I28" s="599"/>
+      <c r="B28" s="245"/>
+      <c r="C28" s="245"/>
+      <c r="D28" s="553" t="s">
+        <v>576</v>
+      </c>
+      <c r="E28" s="553"/>
+      <c r="F28" s="610"/>
+      <c r="G28" s="605"/>
+      <c r="H28" s="264"/>
+      <c r="I28" s="309"/>
     </row>
     <row r="29" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="184" t="s">
-        <v>572</v>
-      </c>
-      <c r="B29" s="514" t="s">
+      <c r="A29" s="319" t="s">
+        <v>570</v>
+      </c>
+      <c r="B29" s="549" t="s">
+        <v>577</v>
+      </c>
+      <c r="C29" s="549"/>
+      <c r="D29" s="549"/>
+      <c r="E29" s="245"/>
+      <c r="F29" s="261"/>
+      <c r="G29" s="605"/>
+      <c r="H29" s="262"/>
+      <c r="I29" s="252"/>
+    </row>
+    <row r="30" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="319" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="245"/>
+      <c r="C30" s="607" t="s">
+        <v>650</v>
+      </c>
+      <c r="D30" s="608"/>
+      <c r="E30" s="609"/>
+      <c r="F30" s="265"/>
+      <c r="G30" s="605"/>
+      <c r="H30" s="268"/>
+      <c r="I30" s="269"/>
+    </row>
+    <row r="31" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="319" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="254"/>
+      <c r="C31" s="254"/>
+      <c r="D31" s="550" t="s">
         <v>579</v>
       </c>
-      <c r="C29" s="514"/>
-      <c r="D29" s="514"/>
-      <c r="E29" s="246"/>
-      <c r="F29" s="264"/>
-      <c r="G29" s="608"/>
-      <c r="H29" s="265"/>
-      <c r="I29" s="254"/>
-    </row>
-    <row r="30" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="184" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="246"/>
-      <c r="C30" s="556"/>
-      <c r="D30" s="556"/>
-      <c r="E30" s="556"/>
-      <c r="F30" s="268"/>
-      <c r="G30" s="608"/>
-      <c r="H30" s="271"/>
-      <c r="I30" s="272"/>
-    </row>
-    <row r="31" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="184" t="s">
-        <v>173</v>
-      </c>
-      <c r="B31" s="257"/>
-      <c r="C31" s="257"/>
-      <c r="D31" s="508" t="s">
-        <v>581</v>
-      </c>
-      <c r="E31" s="508"/>
-      <c r="F31" s="557"/>
-      <c r="G31" s="608"/>
-      <c r="H31" s="269"/>
-      <c r="I31" s="273"/>
+      <c r="E31" s="550"/>
+      <c r="F31" s="599"/>
+      <c r="G31" s="605"/>
+      <c r="H31" s="266"/>
+      <c r="I31" s="270"/>
     </row>
     <row r="32" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="184" t="s">
+      <c r="A32" s="319" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="539" t="s">
-        <v>599</v>
-      </c>
-      <c r="C32" s="539"/>
-      <c r="D32" s="270"/>
-      <c r="E32" s="270"/>
-      <c r="F32" s="604"/>
-      <c r="G32" s="609"/>
-      <c r="H32" s="547" t="s">
-        <v>501</v>
-      </c>
-      <c r="I32" s="540"/>
+      <c r="B32" s="579" t="s">
+        <v>597</v>
+      </c>
+      <c r="C32" s="579"/>
+      <c r="D32" s="267"/>
+      <c r="E32" s="267"/>
+      <c r="F32" s="312"/>
+      <c r="G32" s="606"/>
+      <c r="H32" s="578" t="s">
+        <v>499</v>
+      </c>
+      <c r="I32" s="600"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="D28:F28"/>
+  <mergeCells count="15">
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="H32:I32"/>
@@ -7578,6 +7545,12 @@
     <mergeCell ref="G5:G24"/>
     <mergeCell ref="G26:G32"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="D28:F28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.21" top="0.25" bottom="0.22" header="0.17" footer="0.17"/>
@@ -7596,7 +7569,7 @@
       <pane xSplit="9" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7615,57 +7588,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="324" t="s">
+      <c r="B1" s="356" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="326"/>
+      <c r="C1" s="357"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="358"/>
     </row>
     <row r="2" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="327"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="328"/>
-      <c r="I2" s="329"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="360"/>
+      <c r="G2" s="360"/>
+      <c r="H2" s="360"/>
+      <c r="I2" s="361"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="322" t="s">
+      <c r="A3" s="354" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="330" t="s">
+      <c r="B3" s="362" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="331"/>
-      <c r="D3" s="331"/>
-      <c r="E3" s="331"/>
-      <c r="F3" s="331"/>
-      <c r="G3" s="331"/>
-      <c r="H3" s="331"/>
-      <c r="I3" s="332"/>
+      <c r="C3" s="363"/>
+      <c r="D3" s="363"/>
+      <c r="E3" s="363"/>
+      <c r="F3" s="363"/>
+      <c r="G3" s="363"/>
+      <c r="H3" s="363"/>
+      <c r="I3" s="364"/>
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="323"/>
-      <c r="B4" s="333" t="s">
+      <c r="A4" s="355"/>
+      <c r="B4" s="365" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="334"/>
-      <c r="D4" s="334"/>
-      <c r="E4" s="334"/>
-      <c r="F4" s="334"/>
-      <c r="G4" s="334"/>
-      <c r="H4" s="334"/>
-      <c r="I4" s="335"/>
+      <c r="C4" s="366"/>
+      <c r="D4" s="366"/>
+      <c r="E4" s="366"/>
+      <c r="F4" s="366"/>
+      <c r="G4" s="366"/>
+      <c r="H4" s="366"/>
+      <c r="I4" s="367"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="323"/>
+      <c r="A5" s="355"/>
       <c r="B5" s="109" t="s">
         <v>226</v>
       </c>
@@ -7692,20 +7665,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="323"/>
-      <c r="B6" s="336" t="s">
+      <c r="A6" s="355"/>
+      <c r="B6" s="368" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="337"/>
-      <c r="D6" s="337"/>
-      <c r="E6" s="337"/>
-      <c r="F6" s="337"/>
-      <c r="G6" s="337"/>
-      <c r="H6" s="337"/>
-      <c r="I6" s="338"/>
+      <c r="C6" s="369"/>
+      <c r="D6" s="369"/>
+      <c r="E6" s="369"/>
+      <c r="F6" s="369"/>
+      <c r="G6" s="369"/>
+      <c r="H6" s="369"/>
+      <c r="I6" s="370"/>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="323"/>
+      <c r="A7" s="355"/>
       <c r="B7" s="82">
         <v>1</v>
       </c>
@@ -7732,7 +7705,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="323"/>
+      <c r="A8" s="355"/>
       <c r="B8" s="99">
         <v>2</v>
       </c>
@@ -7759,7 +7732,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="323"/>
+      <c r="A9" s="355"/>
       <c r="B9" s="99">
         <v>3</v>
       </c>
@@ -7782,11 +7755,11 @@
         <v>2018</v>
       </c>
       <c r="I9" s="189" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="323"/>
+      <c r="A10" s="355"/>
       <c r="B10" s="99">
         <v>4</v>
       </c>
@@ -7813,7 +7786,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="323"/>
+      <c r="A11" s="355"/>
       <c r="B11" s="99">
         <v>5</v>
       </c>
@@ -7840,7 +7813,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="323"/>
+      <c r="A12" s="355"/>
       <c r="B12" s="99">
         <v>6</v>
       </c>
@@ -7863,11 +7836,11 @@
         <v>2018</v>
       </c>
       <c r="I12" s="189" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="323"/>
+      <c r="A13" s="355"/>
       <c r="B13" s="99">
         <v>7</v>
       </c>
@@ -7890,11 +7863,11 @@
         <v>2018</v>
       </c>
       <c r="I13" s="107" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="108" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="323"/>
+      <c r="A14" s="355"/>
       <c r="B14" s="99">
         <v>8</v>
       </c>
@@ -7921,7 +7894,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="323"/>
+      <c r="A15" s="355"/>
       <c r="B15" s="99">
         <v>9</v>
       </c>
@@ -7944,70 +7917,70 @@
         <v>2018</v>
       </c>
       <c r="I15" s="189" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="323"/>
-      <c r="B16" s="339" t="s">
+      <c r="A16" s="355"/>
+      <c r="B16" s="371" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="340"/>
-      <c r="D16" s="340"/>
-      <c r="E16" s="340"/>
+      <c r="C16" s="372"/>
+      <c r="D16" s="372"/>
+      <c r="E16" s="372"/>
       <c r="F16" s="112">
         <f>SUM(F7:F15)</f>
         <v>100</v>
       </c>
-      <c r="G16" s="340"/>
-      <c r="H16" s="340"/>
-      <c r="I16" s="341"/>
+      <c r="G16" s="372"/>
+      <c r="H16" s="372"/>
+      <c r="I16" s="373"/>
     </row>
     <row r="17" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="323"/>
-      <c r="B17" s="313" t="s">
+      <c r="A17" s="355"/>
+      <c r="B17" s="345" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="314"/>
-      <c r="D17" s="314"/>
-      <c r="E17" s="314"/>
-      <c r="F17" s="314"/>
-      <c r="G17" s="314"/>
-      <c r="H17" s="314"/>
-      <c r="I17" s="315"/>
+      <c r="C17" s="346"/>
+      <c r="D17" s="346"/>
+      <c r="E17" s="346"/>
+      <c r="F17" s="346"/>
+      <c r="G17" s="346"/>
+      <c r="H17" s="346"/>
+      <c r="I17" s="347"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="323"/>
-      <c r="B18" s="316"/>
-      <c r="C18" s="317"/>
-      <c r="D18" s="317"/>
-      <c r="E18" s="317"/>
-      <c r="F18" s="317"/>
-      <c r="G18" s="317"/>
-      <c r="H18" s="317"/>
-      <c r="I18" s="318"/>
+      <c r="A18" s="355"/>
+      <c r="B18" s="348"/>
+      <c r="C18" s="349"/>
+      <c r="D18" s="349"/>
+      <c r="E18" s="349"/>
+      <c r="F18" s="349"/>
+      <c r="G18" s="349"/>
+      <c r="H18" s="349"/>
+      <c r="I18" s="350"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="323"/>
-      <c r="B19" s="316"/>
-      <c r="C19" s="317"/>
-      <c r="D19" s="317"/>
-      <c r="E19" s="317"/>
-      <c r="F19" s="317"/>
-      <c r="G19" s="317"/>
-      <c r="H19" s="317"/>
-      <c r="I19" s="318"/>
+      <c r="A19" s="355"/>
+      <c r="B19" s="348"/>
+      <c r="C19" s="349"/>
+      <c r="D19" s="349"/>
+      <c r="E19" s="349"/>
+      <c r="F19" s="349"/>
+      <c r="G19" s="349"/>
+      <c r="H19" s="349"/>
+      <c r="I19" s="350"/>
     </row>
     <row r="20" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="323"/>
-      <c r="B20" s="319"/>
-      <c r="C20" s="320"/>
-      <c r="D20" s="320"/>
-      <c r="E20" s="320"/>
-      <c r="F20" s="320"/>
-      <c r="G20" s="320"/>
-      <c r="H20" s="320"/>
-      <c r="I20" s="321"/>
+      <c r="A20" s="355"/>
+      <c r="B20" s="351"/>
+      <c r="C20" s="352"/>
+      <c r="D20" s="352"/>
+      <c r="E20" s="352"/>
+      <c r="F20" s="352"/>
+      <c r="G20" s="352"/>
+      <c r="H20" s="352"/>
+      <c r="I20" s="353"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8054,59 +8027,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="342"/>
-      <c r="B1" s="344" t="s">
+      <c r="A1" s="374"/>
+      <c r="B1" s="376" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="346"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
+      <c r="H1" s="377"/>
+      <c r="I1" s="378"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="343"/>
-      <c r="B2" s="347"/>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="348"/>
-      <c r="I2" s="349"/>
+      <c r="A2" s="375"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="380"/>
+      <c r="D2" s="380"/>
+      <c r="E2" s="380"/>
+      <c r="F2" s="380"/>
+      <c r="G2" s="380"/>
+      <c r="H2" s="380"/>
+      <c r="I2" s="381"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="382" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="353" t="s">
+      <c r="B3" s="385" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="354"/>
-      <c r="D3" s="354"/>
-      <c r="E3" s="354"/>
-      <c r="F3" s="354"/>
-      <c r="G3" s="354"/>
-      <c r="H3" s="354"/>
-      <c r="I3" s="355"/>
+      <c r="C3" s="386"/>
+      <c r="D3" s="386"/>
+      <c r="E3" s="386"/>
+      <c r="F3" s="386"/>
+      <c r="G3" s="386"/>
+      <c r="H3" s="386"/>
+      <c r="I3" s="387"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="351"/>
-      <c r="B4" s="356" t="s">
+      <c r="A4" s="383"/>
+      <c r="B4" s="388" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="357"/>
-      <c r="D4" s="357"/>
-      <c r="E4" s="357"/>
-      <c r="F4" s="357"/>
-      <c r="G4" s="357"/>
-      <c r="H4" s="357"/>
-      <c r="I4" s="358"/>
+      <c r="C4" s="389"/>
+      <c r="D4" s="389"/>
+      <c r="E4" s="389"/>
+      <c r="F4" s="389"/>
+      <c r="G4" s="389"/>
+      <c r="H4" s="389"/>
+      <c r="I4" s="390"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="351"/>
+      <c r="A5" s="383"/>
       <c r="B5" s="13" t="s">
         <v>226</v>
       </c>
@@ -8133,20 +8106,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="351"/>
-      <c r="B6" s="359" t="s">
+      <c r="A6" s="383"/>
+      <c r="B6" s="391" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="360"/>
-      <c r="D6" s="360"/>
-      <c r="E6" s="360"/>
-      <c r="F6" s="360"/>
-      <c r="G6" s="360"/>
-      <c r="H6" s="360"/>
-      <c r="I6" s="361"/>
+      <c r="C6" s="392"/>
+      <c r="D6" s="392"/>
+      <c r="E6" s="392"/>
+      <c r="F6" s="392"/>
+      <c r="G6" s="392"/>
+      <c r="H6" s="392"/>
+      <c r="I6" s="393"/>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="351"/>
+      <c r="A7" s="383"/>
       <c r="B7" s="50">
         <v>1</v>
       </c>
@@ -8173,7 +8146,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="351"/>
+      <c r="A8" s="383"/>
       <c r="B8" s="50">
         <v>2</v>
       </c>
@@ -8200,7 +8173,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="351"/>
+      <c r="A9" s="383"/>
       <c r="B9" s="50">
         <v>3</v>
       </c>
@@ -8223,11 +8196,11 @@
         <v>2017</v>
       </c>
       <c r="I9" s="113" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="351"/>
+      <c r="A10" s="383"/>
       <c r="B10" s="50">
         <v>4</v>
       </c>
@@ -8250,11 +8223,11 @@
         <v>2017</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="351"/>
+      <c r="A11" s="383"/>
       <c r="B11" s="50">
         <v>5</v>
       </c>
@@ -8277,11 +8250,11 @@
         <v>2017</v>
       </c>
       <c r="I11" s="85" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="351"/>
+      <c r="A12" s="383"/>
       <c r="B12" s="50">
         <v>6</v>
       </c>
@@ -8304,24 +8277,24 @@
         <v>2017</v>
       </c>
       <c r="I12" s="114" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="351"/>
-      <c r="B13" s="362" t="s">
+      <c r="A13" s="383"/>
+      <c r="B13" s="394" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="363"/>
-      <c r="D13" s="363"/>
-      <c r="E13" s="363"/>
-      <c r="F13" s="363"/>
-      <c r="G13" s="363"/>
-      <c r="H13" s="363"/>
-      <c r="I13" s="364"/>
+      <c r="C13" s="395"/>
+      <c r="D13" s="395"/>
+      <c r="E13" s="395"/>
+      <c r="F13" s="395"/>
+      <c r="G13" s="395"/>
+      <c r="H13" s="395"/>
+      <c r="I13" s="396"/>
     </row>
     <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="351"/>
+      <c r="A14" s="383"/>
       <c r="B14" s="91">
         <v>7</v>
       </c>
@@ -8344,11 +8317,11 @@
         <v>2017</v>
       </c>
       <c r="I14" s="197" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="351"/>
+      <c r="A15" s="383"/>
       <c r="B15" s="91">
         <v>8</v>
       </c>
@@ -8371,11 +8344,11 @@
         <v>2017</v>
       </c>
       <c r="I15" s="197" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="351"/>
+      <c r="A16" s="383"/>
       <c r="B16" s="91">
         <v>9</v>
       </c>
@@ -8398,21 +8371,21 @@
         <v>2017</v>
       </c>
       <c r="I16" s="197" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="351"/>
-      <c r="B17" s="365" t="s">
+      <c r="A17" s="383"/>
+      <c r="B17" s="397" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="366"/>
-      <c r="D17" s="366"/>
-      <c r="E17" s="366"/>
-      <c r="F17" s="366"/>
-      <c r="G17" s="366"/>
-      <c r="H17" s="366"/>
-      <c r="I17" s="367"/>
+      <c r="C17" s="398"/>
+      <c r="D17" s="398"/>
+      <c r="E17" s="398"/>
+      <c r="F17" s="398"/>
+      <c r="G17" s="398"/>
+      <c r="H17" s="398"/>
+      <c r="I17" s="399"/>
       <c r="P17" s="108"/>
       <c r="Q17" s="108"/>
       <c r="R17" s="108"/>
@@ -8420,7 +8393,7 @@
       <c r="T17" s="108"/>
     </row>
     <row r="18" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="351"/>
+      <c r="A18" s="383"/>
       <c r="B18" s="91">
         <v>10</v>
       </c>
@@ -8447,7 +8420,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="351"/>
+      <c r="A19" s="383"/>
       <c r="B19" s="91">
         <v>11</v>
       </c>
@@ -8474,7 +8447,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="351"/>
+      <c r="A20" s="383"/>
       <c r="B20" s="91">
         <v>12</v>
       </c>
@@ -8501,7 +8474,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="351"/>
+      <c r="A21" s="383"/>
       <c r="B21" s="91">
         <v>13</v>
       </c>
@@ -8528,7 +8501,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="351"/>
+      <c r="A22" s="383"/>
       <c r="B22" s="91">
         <v>14</v>
       </c>
@@ -8555,7 +8528,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="351"/>
+      <c r="A23" s="383"/>
       <c r="B23" s="91">
         <v>15</v>
       </c>
@@ -8582,20 +8555,20 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="352"/>
-      <c r="B24" s="368" t="s">
+      <c r="A24" s="384"/>
+      <c r="B24" s="400" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="369"/>
-      <c r="D24" s="369"/>
-      <c r="E24" s="369"/>
+      <c r="C24" s="401"/>
+      <c r="D24" s="401"/>
+      <c r="E24" s="401"/>
       <c r="F24" s="36">
         <f>SUM(F7:F23)</f>
         <v>59</v>
       </c>
       <c r="G24" s="37"/>
-      <c r="H24" s="370"/>
-      <c r="I24" s="371"/>
+      <c r="H24" s="402"/>
+      <c r="I24" s="403"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8649,59 +8622,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="374"/>
-      <c r="B1" s="375" t="s">
+      <c r="A1" s="406"/>
+      <c r="B1" s="407" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="376"/>
-      <c r="D1" s="376"/>
-      <c r="E1" s="376"/>
-      <c r="F1" s="376"/>
-      <c r="G1" s="376"/>
-      <c r="H1" s="376"/>
-      <c r="I1" s="376"/>
+      <c r="C1" s="408"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="408"/>
+      <c r="H1" s="408"/>
+      <c r="I1" s="408"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="374"/>
-      <c r="B2" s="377"/>
-      <c r="C2" s="378"/>
-      <c r="D2" s="378"/>
-      <c r="E2" s="378"/>
-      <c r="F2" s="378"/>
-      <c r="G2" s="378"/>
-      <c r="H2" s="378"/>
-      <c r="I2" s="378"/>
+      <c r="A2" s="406"/>
+      <c r="B2" s="409"/>
+      <c r="C2" s="410"/>
+      <c r="D2" s="410"/>
+      <c r="E2" s="410"/>
+      <c r="F2" s="410"/>
+      <c r="G2" s="410"/>
+      <c r="H2" s="410"/>
+      <c r="I2" s="410"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="379" t="s">
+      <c r="A3" s="411" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="382" t="s">
+      <c r="B3" s="414" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="383"/>
-      <c r="D3" s="383"/>
-      <c r="E3" s="383"/>
-      <c r="F3" s="383"/>
-      <c r="G3" s="383"/>
-      <c r="H3" s="383"/>
-      <c r="I3" s="384"/>
+      <c r="C3" s="415"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="415"/>
+      <c r="F3" s="415"/>
+      <c r="G3" s="415"/>
+      <c r="H3" s="415"/>
+      <c r="I3" s="416"/>
     </row>
     <row r="4" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="380"/>
-      <c r="B4" s="385" t="s">
+      <c r="A4" s="412"/>
+      <c r="B4" s="417" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="386"/>
-      <c r="D4" s="386"/>
-      <c r="E4" s="386"/>
-      <c r="F4" s="386"/>
-      <c r="G4" s="386"/>
-      <c r="H4" s="386"/>
-      <c r="I4" s="387"/>
+      <c r="C4" s="418"/>
+      <c r="D4" s="418"/>
+      <c r="E4" s="418"/>
+      <c r="F4" s="418"/>
+      <c r="G4" s="418"/>
+      <c r="H4" s="418"/>
+      <c r="I4" s="419"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="380"/>
+      <c r="A5" s="412"/>
       <c r="B5" s="39" t="s">
         <v>226</v>
       </c>
@@ -8728,20 +8701,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="380"/>
-      <c r="B6" s="388" t="s">
+      <c r="A6" s="412"/>
+      <c r="B6" s="420" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="389"/>
-      <c r="D6" s="389"/>
-      <c r="E6" s="389"/>
-      <c r="F6" s="389"/>
-      <c r="G6" s="389"/>
-      <c r="H6" s="389"/>
-      <c r="I6" s="390"/>
+      <c r="C6" s="421"/>
+      <c r="D6" s="421"/>
+      <c r="E6" s="421"/>
+      <c r="F6" s="421"/>
+      <c r="G6" s="421"/>
+      <c r="H6" s="421"/>
+      <c r="I6" s="422"/>
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="380"/>
+      <c r="A7" s="412"/>
       <c r="B7" s="48">
         <v>1</v>
       </c>
@@ -8774,7 +8747,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="380"/>
+      <c r="A8" s="412"/>
       <c r="B8" s="48">
         <v>2</v>
       </c>
@@ -8797,7 +8770,7 @@
         <v>2016</v>
       </c>
       <c r="I8" s="199" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K8" s="195" t="s">
         <v>325</v>
@@ -8807,7 +8780,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="380"/>
+      <c r="A9" s="412"/>
       <c r="B9" s="48">
         <v>3</v>
       </c>
@@ -8834,7 +8807,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="380"/>
+      <c r="A10" s="412"/>
       <c r="B10" s="48">
         <v>4</v>
       </c>
@@ -8857,11 +8830,11 @@
         <v>2016</v>
       </c>
       <c r="I10" s="200" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="380"/>
+      <c r="A11" s="412"/>
       <c r="B11" s="49">
         <v>5</v>
       </c>
@@ -8888,7 +8861,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="380"/>
+      <c r="A12" s="412"/>
       <c r="B12" s="151">
         <v>6</v>
       </c>
@@ -8915,20 +8888,20 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="380"/>
-      <c r="B13" s="391" t="s">
-        <v>661</v>
-      </c>
-      <c r="C13" s="392"/>
-      <c r="D13" s="392"/>
-      <c r="E13" s="392"/>
-      <c r="F13" s="392"/>
-      <c r="G13" s="392"/>
-      <c r="H13" s="392"/>
-      <c r="I13" s="393"/>
+      <c r="A13" s="412"/>
+      <c r="B13" s="423" t="s">
+        <v>657</v>
+      </c>
+      <c r="C13" s="424"/>
+      <c r="D13" s="424"/>
+      <c r="E13" s="424"/>
+      <c r="F13" s="424"/>
+      <c r="G13" s="424"/>
+      <c r="H13" s="424"/>
+      <c r="I13" s="425"/>
     </row>
     <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="380"/>
+      <c r="A14" s="412"/>
       <c r="B14" s="152">
         <v>7</v>
       </c>
@@ -8951,11 +8924,11 @@
         <v>2015</v>
       </c>
       <c r="I14" s="201" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="380"/>
+      <c r="A15" s="412"/>
       <c r="B15" s="152">
         <v>8</v>
       </c>
@@ -8978,11 +8951,11 @@
         <v>2015</v>
       </c>
       <c r="I15" s="201" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="380"/>
+      <c r="A16" s="412"/>
       <c r="B16" s="152">
         <v>9</v>
       </c>
@@ -9009,7 +8982,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="380"/>
+      <c r="A17" s="412"/>
       <c r="B17" s="152">
         <v>10</v>
       </c>
@@ -9036,18 +9009,18 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" s="380"/>
+      <c r="A18" s="412"/>
       <c r="B18" s="152">
         <v>11</v>
       </c>
       <c r="C18" s="121" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E18" s="117" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F18" s="43">
         <v>1</v>
@@ -9058,25 +9031,25 @@
       <c r="H18" s="43">
         <v>2015</v>
       </c>
-      <c r="I18" s="293" t="s">
-        <v>637</v>
+      <c r="I18" s="288" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="380"/>
-      <c r="B19" s="394" t="s">
+      <c r="A19" s="412"/>
+      <c r="B19" s="426" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="395"/>
-      <c r="D19" s="395"/>
-      <c r="E19" s="395"/>
-      <c r="F19" s="395"/>
-      <c r="G19" s="395"/>
-      <c r="H19" s="395"/>
-      <c r="I19" s="396"/>
+      <c r="C19" s="427"/>
+      <c r="D19" s="427"/>
+      <c r="E19" s="427"/>
+      <c r="F19" s="427"/>
+      <c r="G19" s="427"/>
+      <c r="H19" s="427"/>
+      <c r="I19" s="428"/>
     </row>
     <row r="20" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="380"/>
+      <c r="A20" s="412"/>
       <c r="B20" s="49">
         <v>12</v>
       </c>
@@ -9103,7 +9076,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="380"/>
+      <c r="A21" s="412"/>
       <c r="B21" s="49">
         <v>13</v>
       </c>
@@ -9126,11 +9099,11 @@
         <v>2015</v>
       </c>
       <c r="I21" s="54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="380"/>
+      <c r="A22" s="412"/>
       <c r="B22" s="49">
         <v>14</v>
       </c>
@@ -9153,11 +9126,11 @@
         <v>2015</v>
       </c>
       <c r="I22" s="202" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="380"/>
+      <c r="A23" s="412"/>
       <c r="B23" s="49">
         <v>15</v>
       </c>
@@ -9184,27 +9157,27 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="381"/>
-      <c r="B24" s="397" t="s">
+      <c r="A24" s="413"/>
+      <c r="B24" s="429" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="398"/>
-      <c r="D24" s="398"/>
-      <c r="E24" s="398"/>
+      <c r="C24" s="430"/>
+      <c r="D24" s="430"/>
+      <c r="E24" s="430"/>
       <c r="F24" s="55">
         <f>SUM(F7:F23)</f>
         <v>59</v>
       </c>
-      <c r="G24" s="399"/>
-      <c r="H24" s="399"/>
-      <c r="I24" s="400"/>
+      <c r="G24" s="431"/>
+      <c r="H24" s="431"/>
+      <c r="I24" s="432"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="372" t="s">
+      <c r="D26" s="404" t="s">
         <v>322</v>
       </c>
-      <c r="E26" s="373"/>
+      <c r="E26" s="405"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9264,59 +9237,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="404"/>
-      <c r="B1" s="405" t="s">
+      <c r="A1" s="436"/>
+      <c r="B1" s="437" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
-      <c r="F1" s="406"/>
-      <c r="G1" s="406"/>
-      <c r="H1" s="406"/>
-      <c r="I1" s="407"/>
+      <c r="C1" s="438"/>
+      <c r="D1" s="438"/>
+      <c r="E1" s="438"/>
+      <c r="F1" s="438"/>
+      <c r="G1" s="438"/>
+      <c r="H1" s="438"/>
+      <c r="I1" s="439"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="404"/>
-      <c r="B2" s="408"/>
-      <c r="C2" s="409"/>
-      <c r="D2" s="409"/>
-      <c r="E2" s="409"/>
-      <c r="F2" s="409"/>
-      <c r="G2" s="409"/>
-      <c r="H2" s="409"/>
-      <c r="I2" s="410"/>
+      <c r="A2" s="436"/>
+      <c r="B2" s="440"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="441"/>
+      <c r="E2" s="441"/>
+      <c r="F2" s="441"/>
+      <c r="G2" s="441"/>
+      <c r="H2" s="441"/>
+      <c r="I2" s="442"/>
     </row>
     <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="411" t="s">
+      <c r="A3" s="443" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="414" t="s">
+      <c r="B3" s="446" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="415"/>
-      <c r="D3" s="415"/>
-      <c r="E3" s="415"/>
-      <c r="F3" s="415"/>
-      <c r="G3" s="415"/>
-      <c r="H3" s="415"/>
-      <c r="I3" s="416"/>
+      <c r="C3" s="447"/>
+      <c r="D3" s="447"/>
+      <c r="E3" s="447"/>
+      <c r="F3" s="447"/>
+      <c r="G3" s="447"/>
+      <c r="H3" s="447"/>
+      <c r="I3" s="448"/>
     </row>
     <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="412"/>
-      <c r="B4" s="417" t="s">
+      <c r="A4" s="444"/>
+      <c r="B4" s="449" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="418"/>
-      <c r="D4" s="418"/>
-      <c r="E4" s="418"/>
-      <c r="F4" s="418"/>
-      <c r="G4" s="418"/>
-      <c r="H4" s="418"/>
-      <c r="I4" s="419"/>
+      <c r="C4" s="450"/>
+      <c r="D4" s="450"/>
+      <c r="E4" s="450"/>
+      <c r="F4" s="450"/>
+      <c r="G4" s="450"/>
+      <c r="H4" s="450"/>
+      <c r="I4" s="451"/>
     </row>
     <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="412"/>
+      <c r="A5" s="444"/>
       <c r="B5" s="87" t="s">
         <v>226</v>
       </c>
@@ -9343,21 +9316,21 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="412"/>
-      <c r="B6" s="420" t="s">
+      <c r="A6" s="444"/>
+      <c r="B6" s="452" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="421"/>
-      <c r="D6" s="421"/>
-      <c r="E6" s="421"/>
-      <c r="F6" s="421"/>
-      <c r="G6" s="421"/>
-      <c r="H6" s="421"/>
-      <c r="I6" s="422"/>
+      <c r="C6" s="453"/>
+      <c r="D6" s="453"/>
+      <c r="E6" s="453"/>
+      <c r="F6" s="453"/>
+      <c r="G6" s="453"/>
+      <c r="H6" s="453"/>
+      <c r="I6" s="454"/>
       <c r="M6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="412"/>
+      <c r="A7" s="444"/>
       <c r="B7" s="62">
         <v>1</v>
       </c>
@@ -9386,7 +9359,7 @@
       <c r="N7" s="142"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="412"/>
+      <c r="A8" s="444"/>
       <c r="B8" s="62">
         <v>2</v>
       </c>
@@ -9409,12 +9382,12 @@
         <v>2015</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="M8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="412"/>
+      <c r="A9" s="444"/>
       <c r="B9" s="62">
         <v>3</v>
       </c>
@@ -9437,12 +9410,12 @@
         <v>238</v>
       </c>
       <c r="I9" s="90" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="M9" s="142"/>
     </row>
     <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="412"/>
+      <c r="A10" s="444"/>
       <c r="B10" s="62">
         <v>4</v>
       </c>
@@ -9465,7 +9438,7 @@
         <v>2015</v>
       </c>
       <c r="I10" s="72" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K10" s="142"/>
       <c r="L10" s="142"/>
@@ -9473,24 +9446,24 @@
       <c r="N10" s="142"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="412"/>
-      <c r="B11" s="423" t="s">
+      <c r="A11" s="444"/>
+      <c r="B11" s="455" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="424"/>
-      <c r="D11" s="424"/>
-      <c r="E11" s="424"/>
-      <c r="F11" s="424"/>
-      <c r="G11" s="424"/>
-      <c r="H11" s="424"/>
-      <c r="I11" s="425"/>
+      <c r="C11" s="456"/>
+      <c r="D11" s="456"/>
+      <c r="E11" s="456"/>
+      <c r="F11" s="456"/>
+      <c r="G11" s="456"/>
+      <c r="H11" s="456"/>
+      <c r="I11" s="457"/>
       <c r="K11" s="142"/>
       <c r="L11" s="142"/>
       <c r="M11" s="142"/>
       <c r="N11" s="142"/>
     </row>
     <row r="12" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="412"/>
+      <c r="A12" s="444"/>
       <c r="B12" s="67">
         <v>5</v>
       </c>
@@ -9513,7 +9486,7 @@
         <v>2015</v>
       </c>
       <c r="I12" s="69" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K12" s="142"/>
       <c r="L12" s="142"/>
@@ -9521,20 +9494,20 @@
       <c r="N12" s="142"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="412"/>
-      <c r="B13" s="423" t="s">
+      <c r="A13" s="444"/>
+      <c r="B13" s="455" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="424"/>
-      <c r="D13" s="424"/>
-      <c r="E13" s="424"/>
-      <c r="F13" s="424"/>
-      <c r="G13" s="424"/>
-      <c r="H13" s="424"/>
-      <c r="I13" s="425"/>
+      <c r="C13" s="456"/>
+      <c r="D13" s="456"/>
+      <c r="E13" s="456"/>
+      <c r="F13" s="456"/>
+      <c r="G13" s="456"/>
+      <c r="H13" s="456"/>
+      <c r="I13" s="457"/>
     </row>
     <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="412"/>
+      <c r="A14" s="444"/>
       <c r="B14" s="62">
         <v>7</v>
       </c>
@@ -9561,7 +9534,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="412"/>
+      <c r="A15" s="444"/>
       <c r="B15" s="62">
         <v>8</v>
       </c>
@@ -9588,7 +9561,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="412"/>
+      <c r="A16" s="444"/>
       <c r="B16" s="62">
         <v>9</v>
       </c>
@@ -9599,7 +9572,7 @@
         <v>195</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F16" s="64">
         <v>2</v>
@@ -9611,11 +9584,11 @@
         <v>2015</v>
       </c>
       <c r="I16" s="69" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="412"/>
+      <c r="A17" s="444"/>
       <c r="B17" s="62">
         <v>10</v>
       </c>
@@ -9638,24 +9611,24 @@
         <v>2015</v>
       </c>
       <c r="I17" s="68" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="412"/>
-      <c r="B18" s="420" t="s">
-        <v>633</v>
-      </c>
-      <c r="C18" s="421"/>
-      <c r="D18" s="421"/>
-      <c r="E18" s="421"/>
-      <c r="F18" s="421"/>
-      <c r="G18" s="421"/>
-      <c r="H18" s="421"/>
-      <c r="I18" s="422"/>
+      <c r="A18" s="444"/>
+      <c r="B18" s="452" t="s">
+        <v>631</v>
+      </c>
+      <c r="C18" s="453"/>
+      <c r="D18" s="453"/>
+      <c r="E18" s="453"/>
+      <c r="F18" s="453"/>
+      <c r="G18" s="453"/>
+      <c r="H18" s="453"/>
+      <c r="I18" s="454"/>
     </row>
     <row r="19" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="412"/>
+      <c r="A19" s="444"/>
       <c r="B19" s="62">
         <v>11</v>
       </c>
@@ -9678,22 +9651,22 @@
         <v>2015</v>
       </c>
       <c r="I19" s="68" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="412"/>
+      <c r="A20" s="444"/>
       <c r="B20" s="62">
         <v>12</v>
       </c>
       <c r="C20" s="63" t="s">
+        <v>628</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>629</v>
+      </c>
+      <c r="E20" s="65" t="s">
         <v>630</v>
-      </c>
-      <c r="D20" s="75" t="s">
-        <v>631</v>
-      </c>
-      <c r="E20" s="65" t="s">
-        <v>632</v>
       </c>
       <c r="F20" s="64">
         <v>1</v>
@@ -9705,24 +9678,24 @@
         <v>2015</v>
       </c>
       <c r="I20" s="68" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="412"/>
-      <c r="B21" s="420" t="s">
+      <c r="A21" s="444"/>
+      <c r="B21" s="452" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="421"/>
-      <c r="D21" s="421"/>
-      <c r="E21" s="421"/>
-      <c r="F21" s="421"/>
-      <c r="G21" s="421"/>
-      <c r="H21" s="421"/>
-      <c r="I21" s="422"/>
+      <c r="C21" s="453"/>
+      <c r="D21" s="453"/>
+      <c r="E21" s="453"/>
+      <c r="F21" s="453"/>
+      <c r="G21" s="453"/>
+      <c r="H21" s="453"/>
+      <c r="I21" s="454"/>
     </row>
     <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="412"/>
+      <c r="A22" s="444"/>
       <c r="B22" s="153">
         <v>13</v>
       </c>
@@ -9749,7 +9722,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="412"/>
+      <c r="A23" s="444"/>
       <c r="B23" s="153">
         <v>14</v>
       </c>
@@ -9772,11 +9745,11 @@
         <v>2015</v>
       </c>
       <c r="I23" s="72" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="412"/>
+      <c r="A24" s="444"/>
       <c r="B24" s="153">
         <v>15</v>
       </c>
@@ -9799,24 +9772,24 @@
         <v>2015</v>
       </c>
       <c r="I24" s="68" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="413"/>
-      <c r="B25" s="401" t="s">
+      <c r="A25" s="445"/>
+      <c r="B25" s="433" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="402"/>
-      <c r="D25" s="402"/>
-      <c r="E25" s="402"/>
+      <c r="C25" s="434"/>
+      <c r="D25" s="434"/>
+      <c r="E25" s="434"/>
       <c r="F25" s="178">
         <f>SUM(F7:F24)</f>
         <v>35</v>
       </c>
-      <c r="G25" s="402"/>
-      <c r="H25" s="402"/>
-      <c r="I25" s="403"/>
+      <c r="G25" s="434"/>
+      <c r="H25" s="434"/>
+      <c r="I25" s="435"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -9874,30 +9847,30 @@
     </row>
     <row r="2" spans="2:12" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="132"/>
-      <c r="C2" s="444" t="s">
+      <c r="C2" s="492" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="445"/>
-      <c r="E2" s="445"/>
-      <c r="F2" s="445"/>
-      <c r="G2" s="445"/>
-      <c r="H2" s="445"/>
-      <c r="I2" s="445"/>
-      <c r="J2" s="446"/>
+      <c r="D2" s="493"/>
+      <c r="E2" s="493"/>
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="493"/>
+      <c r="I2" s="493"/>
+      <c r="J2" s="494"/>
       <c r="K2" s="133"/>
     </row>
     <row r="3" spans="2:12" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="132"/>
-      <c r="C3" s="447" t="s">
+      <c r="C3" s="495" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="448"/>
-      <c r="E3" s="448"/>
-      <c r="F3" s="448"/>
-      <c r="G3" s="448"/>
-      <c r="H3" s="448"/>
-      <c r="I3" s="448"/>
-      <c r="J3" s="449"/>
+      <c r="D3" s="496"/>
+      <c r="E3" s="496"/>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="496"/>
+      <c r="I3" s="496"/>
+      <c r="J3" s="497"/>
       <c r="K3" s="133"/>
     </row>
     <row r="4" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9914,42 +9887,42 @@
     </row>
     <row r="5" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="132"/>
-      <c r="C5" s="450" t="s">
+      <c r="C5" s="498" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="451"/>
-      <c r="E5" s="451"/>
-      <c r="F5" s="451"/>
-      <c r="G5" s="451"/>
-      <c r="H5" s="451"/>
-      <c r="I5" s="451"/>
-      <c r="J5" s="452"/>
+      <c r="D5" s="499"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="499"/>
+      <c r="I5" s="499"/>
+      <c r="J5" s="500"/>
       <c r="K5" s="133"/>
     </row>
     <row r="6" spans="2:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="132"/>
-      <c r="C6" s="453"/>
-      <c r="D6" s="454"/>
-      <c r="E6" s="454"/>
-      <c r="F6" s="454"/>
-      <c r="G6" s="454"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="454"/>
-      <c r="J6" s="455"/>
+      <c r="C6" s="501"/>
+      <c r="D6" s="502"/>
+      <c r="E6" s="502"/>
+      <c r="F6" s="502"/>
+      <c r="G6" s="502"/>
+      <c r="H6" s="502"/>
+      <c r="I6" s="502"/>
+      <c r="J6" s="503"/>
       <c r="K6" s="133"/>
     </row>
     <row r="7" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="132"/>
-      <c r="C7" s="466" t="s">
+      <c r="C7" s="514" t="s">
         <v>270</v>
       </c>
-      <c r="D7" s="467"/>
-      <c r="E7" s="467"/>
-      <c r="F7" s="467"/>
-      <c r="G7" s="467"/>
-      <c r="H7" s="467"/>
-      <c r="I7" s="467"/>
-      <c r="J7" s="468"/>
+      <c r="D7" s="515"/>
+      <c r="E7" s="515"/>
+      <c r="F7" s="515"/>
+      <c r="G7" s="515"/>
+      <c r="H7" s="515"/>
+      <c r="I7" s="515"/>
+      <c r="J7" s="516"/>
       <c r="K7" s="133"/>
       <c r="L7" s="135"/>
     </row>
@@ -9967,98 +9940,98 @@
     </row>
     <row r="9" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="132"/>
-      <c r="C9" s="456" t="s">
+      <c r="C9" s="504" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="457"/>
-      <c r="E9" s="457"/>
-      <c r="F9" s="457"/>
-      <c r="G9" s="457"/>
-      <c r="H9" s="457"/>
-      <c r="I9" s="457"/>
-      <c r="J9" s="458"/>
+      <c r="D9" s="505"/>
+      <c r="E9" s="505"/>
+      <c r="F9" s="505"/>
+      <c r="G9" s="505"/>
+      <c r="H9" s="505"/>
+      <c r="I9" s="505"/>
+      <c r="J9" s="506"/>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="132"/>
-      <c r="C10" s="459"/>
-      <c r="D10" s="460"/>
-      <c r="E10" s="460"/>
-      <c r="F10" s="460"/>
-      <c r="G10" s="460"/>
-      <c r="H10" s="461"/>
-      <c r="I10" s="461"/>
-      <c r="J10" s="462"/>
+      <c r="C10" s="507"/>
+      <c r="D10" s="508"/>
+      <c r="E10" s="508"/>
+      <c r="F10" s="508"/>
+      <c r="G10" s="508"/>
+      <c r="H10" s="509"/>
+      <c r="I10" s="509"/>
+      <c r="J10" s="510"/>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="132"/>
-      <c r="C11" s="463" t="s">
+      <c r="C11" s="511" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="464"/>
-      <c r="E11" s="464"/>
-      <c r="F11" s="464"/>
-      <c r="G11" s="465"/>
-      <c r="H11" s="469" t="s">
+      <c r="D11" s="512"/>
+      <c r="E11" s="512"/>
+      <c r="F11" s="512"/>
+      <c r="G11" s="513"/>
+      <c r="H11" s="517" t="s">
         <v>115</v>
       </c>
-      <c r="I11" s="470"/>
-      <c r="J11" s="471"/>
+      <c r="I11" s="518"/>
+      <c r="J11" s="519"/>
       <c r="K11" s="133"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="132"/>
-      <c r="C12" s="472" t="s">
+      <c r="C12" s="458" t="s">
         <v>271</v>
       </c>
-      <c r="D12" s="473"/>
-      <c r="E12" s="473"/>
-      <c r="F12" s="473"/>
-      <c r="G12" s="473"/>
-      <c r="H12" s="473"/>
-      <c r="I12" s="473"/>
-      <c r="J12" s="474"/>
+      <c r="D12" s="459"/>
+      <c r="E12" s="459"/>
+      <c r="F12" s="459"/>
+      <c r="G12" s="459"/>
+      <c r="H12" s="459"/>
+      <c r="I12" s="459"/>
+      <c r="J12" s="460"/>
       <c r="K12" s="133"/>
     </row>
     <row r="13" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="132"/>
-      <c r="C13" s="475"/>
-      <c r="D13" s="476"/>
-      <c r="E13" s="476"/>
-      <c r="F13" s="476"/>
-      <c r="G13" s="476"/>
-      <c r="H13" s="476"/>
-      <c r="I13" s="476"/>
-      <c r="J13" s="477"/>
+      <c r="C13" s="461"/>
+      <c r="D13" s="462"/>
+      <c r="E13" s="462"/>
+      <c r="F13" s="462"/>
+      <c r="G13" s="462"/>
+      <c r="H13" s="462"/>
+      <c r="I13" s="462"/>
+      <c r="J13" s="463"/>
       <c r="K13" s="133"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="132"/>
-      <c r="C14" s="500" t="s">
+      <c r="C14" s="486" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="501"/>
-      <c r="E14" s="501"/>
-      <c r="F14" s="501"/>
-      <c r="G14" s="501"/>
-      <c r="H14" s="501"/>
-      <c r="I14" s="501"/>
-      <c r="J14" s="502"/>
+      <c r="D14" s="487"/>
+      <c r="E14" s="487"/>
+      <c r="F14" s="487"/>
+      <c r="G14" s="487"/>
+      <c r="H14" s="487"/>
+      <c r="I14" s="487"/>
+      <c r="J14" s="488"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="132"/>
-      <c r="C15" s="503" t="s">
+      <c r="C15" s="489" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="504"/>
-      <c r="E15" s="504"/>
-      <c r="F15" s="504"/>
-      <c r="G15" s="504"/>
-      <c r="H15" s="504"/>
-      <c r="I15" s="504"/>
-      <c r="J15" s="505"/>
+      <c r="D15" s="490"/>
+      <c r="E15" s="490"/>
+      <c r="F15" s="490"/>
+      <c r="G15" s="490"/>
+      <c r="H15" s="490"/>
+      <c r="I15" s="490"/>
+      <c r="J15" s="491"/>
       <c r="K15" s="133"/>
     </row>
     <row r="16" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10075,84 +10048,84 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="132"/>
-      <c r="C17" s="490" t="s">
+      <c r="C17" s="476" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="491"/>
-      <c r="E17" s="491"/>
-      <c r="F17" s="491"/>
-      <c r="G17" s="491"/>
-      <c r="H17" s="491"/>
-      <c r="I17" s="491"/>
-      <c r="J17" s="492"/>
+      <c r="D17" s="477"/>
+      <c r="E17" s="477"/>
+      <c r="F17" s="477"/>
+      <c r="G17" s="477"/>
+      <c r="H17" s="477"/>
+      <c r="I17" s="477"/>
+      <c r="J17" s="478"/>
       <c r="K17" s="133"/>
     </row>
     <row r="18" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="132"/>
-      <c r="C18" s="493"/>
-      <c r="D18" s="494"/>
-      <c r="E18" s="494"/>
-      <c r="F18" s="495"/>
-      <c r="G18" s="495"/>
-      <c r="H18" s="495"/>
-      <c r="I18" s="495"/>
-      <c r="J18" s="496"/>
+      <c r="C18" s="479"/>
+      <c r="D18" s="480"/>
+      <c r="E18" s="480"/>
+      <c r="F18" s="481"/>
+      <c r="G18" s="481"/>
+      <c r="H18" s="481"/>
+      <c r="I18" s="481"/>
+      <c r="J18" s="482"/>
       <c r="K18" s="133"/>
     </row>
     <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="132"/>
-      <c r="C19" s="497" t="s">
+      <c r="C19" s="483" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="498"/>
-      <c r="E19" s="499"/>
-      <c r="F19" s="484" t="s">
+      <c r="D19" s="484"/>
+      <c r="E19" s="485"/>
+      <c r="F19" s="470" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="485"/>
-      <c r="H19" s="485"/>
-      <c r="I19" s="485"/>
-      <c r="J19" s="486"/>
+      <c r="G19" s="471"/>
+      <c r="H19" s="471"/>
+      <c r="I19" s="471"/>
+      <c r="J19" s="472"/>
       <c r="K19" s="133"/>
     </row>
     <row r="20" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="132"/>
-      <c r="C20" s="478" t="s">
+      <c r="C20" s="464" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="479"/>
-      <c r="E20" s="479"/>
-      <c r="F20" s="479"/>
-      <c r="G20" s="479"/>
-      <c r="H20" s="479"/>
-      <c r="I20" s="479"/>
-      <c r="J20" s="480"/>
+      <c r="D20" s="465"/>
+      <c r="E20" s="465"/>
+      <c r="F20" s="465"/>
+      <c r="G20" s="465"/>
+      <c r="H20" s="465"/>
+      <c r="I20" s="465"/>
+      <c r="J20" s="466"/>
       <c r="K20" s="133"/>
     </row>
     <row r="21" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="132"/>
-      <c r="C21" s="481"/>
-      <c r="D21" s="482"/>
-      <c r="E21" s="482"/>
-      <c r="F21" s="482"/>
-      <c r="G21" s="482"/>
-      <c r="H21" s="482"/>
-      <c r="I21" s="482"/>
-      <c r="J21" s="483"/>
+      <c r="C21" s="467"/>
+      <c r="D21" s="468"/>
+      <c r="E21" s="468"/>
+      <c r="F21" s="468"/>
+      <c r="G21" s="468"/>
+      <c r="H21" s="468"/>
+      <c r="I21" s="468"/>
+      <c r="J21" s="469"/>
       <c r="K21" s="133"/>
     </row>
     <row r="22" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="132"/>
-      <c r="C22" s="487" t="s">
+      <c r="C22" s="473" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="488"/>
-      <c r="E22" s="488"/>
-      <c r="F22" s="488"/>
-      <c r="G22" s="488"/>
-      <c r="H22" s="488"/>
-      <c r="I22" s="488"/>
-      <c r="J22" s="489"/>
+      <c r="D22" s="474"/>
+      <c r="E22" s="474"/>
+      <c r="F22" s="474"/>
+      <c r="G22" s="474"/>
+      <c r="H22" s="474"/>
+      <c r="I22" s="474"/>
+      <c r="J22" s="475"/>
       <c r="K22" s="133"/>
     </row>
     <row r="23" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10169,148 +10142,148 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="132"/>
-      <c r="C24" s="426" t="s">
+      <c r="C24" s="520" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="427"/>
-      <c r="E24" s="427"/>
-      <c r="F24" s="427"/>
-      <c r="G24" s="427"/>
-      <c r="H24" s="427"/>
-      <c r="I24" s="427"/>
-      <c r="J24" s="428"/>
+      <c r="D24" s="521"/>
+      <c r="E24" s="521"/>
+      <c r="F24" s="521"/>
+      <c r="G24" s="521"/>
+      <c r="H24" s="521"/>
+      <c r="I24" s="521"/>
+      <c r="J24" s="522"/>
       <c r="K24" s="133"/>
     </row>
     <row r="25" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="132"/>
-      <c r="C25" s="429"/>
-      <c r="D25" s="430"/>
-      <c r="E25" s="430"/>
-      <c r="F25" s="430"/>
-      <c r="G25" s="430"/>
-      <c r="H25" s="430"/>
-      <c r="I25" s="430"/>
-      <c r="J25" s="431"/>
+      <c r="C25" s="523"/>
+      <c r="D25" s="524"/>
+      <c r="E25" s="524"/>
+      <c r="F25" s="524"/>
+      <c r="G25" s="524"/>
+      <c r="H25" s="524"/>
+      <c r="I25" s="524"/>
+      <c r="J25" s="525"/>
       <c r="K25" s="133"/>
     </row>
     <row r="26" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="132"/>
-      <c r="C26" s="432" t="s">
+      <c r="C26" s="526" t="s">
         <v>277</v>
       </c>
-      <c r="D26" s="433"/>
-      <c r="E26" s="434"/>
-      <c r="F26" s="432" t="s">
+      <c r="D26" s="527"/>
+      <c r="E26" s="528"/>
+      <c r="F26" s="526" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="433"/>
-      <c r="H26" s="433"/>
-      <c r="I26" s="433"/>
-      <c r="J26" s="434"/>
+      <c r="G26" s="527"/>
+      <c r="H26" s="527"/>
+      <c r="I26" s="527"/>
+      <c r="J26" s="528"/>
       <c r="K26" s="133"/>
     </row>
     <row r="27" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="132"/>
-      <c r="C27" s="432" t="s">
-        <v>583</v>
-      </c>
-      <c r="D27" s="433"/>
-      <c r="E27" s="434"/>
-      <c r="F27" s="441" t="s">
-        <v>584</v>
-      </c>
-      <c r="G27" s="442"/>
-      <c r="H27" s="442"/>
-      <c r="I27" s="442"/>
-      <c r="J27" s="443"/>
+      <c r="C27" s="526" t="s">
+        <v>581</v>
+      </c>
+      <c r="D27" s="527"/>
+      <c r="E27" s="528"/>
+      <c r="F27" s="535" t="s">
+        <v>582</v>
+      </c>
+      <c r="G27" s="536"/>
+      <c r="H27" s="536"/>
+      <c r="I27" s="536"/>
+      <c r="J27" s="537"/>
       <c r="K27" s="133"/>
     </row>
     <row r="28" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="132"/>
-      <c r="C28" s="432" t="s">
-        <v>585</v>
-      </c>
-      <c r="D28" s="433"/>
-      <c r="E28" s="434"/>
-      <c r="F28" s="441" t="s">
-        <v>586</v>
-      </c>
-      <c r="G28" s="442"/>
-      <c r="H28" s="442"/>
-      <c r="I28" s="442"/>
-      <c r="J28" s="443"/>
+      <c r="C28" s="526" t="s">
+        <v>583</v>
+      </c>
+      <c r="D28" s="527"/>
+      <c r="E28" s="528"/>
+      <c r="F28" s="535" t="s">
+        <v>584</v>
+      </c>
+      <c r="G28" s="536"/>
+      <c r="H28" s="536"/>
+      <c r="I28" s="536"/>
+      <c r="J28" s="537"/>
       <c r="K28" s="133"/>
     </row>
     <row r="29" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="132"/>
-      <c r="C29" s="432" t="s">
-        <v>587</v>
-      </c>
-      <c r="D29" s="433"/>
-      <c r="E29" s="434"/>
-      <c r="F29" s="441" t="s">
-        <v>641</v>
-      </c>
-      <c r="G29" s="442"/>
-      <c r="H29" s="442"/>
-      <c r="I29" s="442"/>
-      <c r="J29" s="443"/>
+      <c r="C29" s="526" t="s">
+        <v>585</v>
+      </c>
+      <c r="D29" s="527"/>
+      <c r="E29" s="528"/>
+      <c r="F29" s="535" t="s">
+        <v>637</v>
+      </c>
+      <c r="G29" s="536"/>
+      <c r="H29" s="536"/>
+      <c r="I29" s="536"/>
+      <c r="J29" s="537"/>
       <c r="K29" s="133"/>
     </row>
     <row r="30" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="132"/>
-      <c r="C30" s="432" t="s">
-        <v>640</v>
-      </c>
-      <c r="D30" s="433"/>
-      <c r="E30" s="434"/>
-      <c r="F30" s="441" t="s">
-        <v>642</v>
-      </c>
-      <c r="G30" s="442"/>
-      <c r="H30" s="442"/>
-      <c r="I30" s="442"/>
-      <c r="J30" s="443"/>
+      <c r="C30" s="526" t="s">
+        <v>636</v>
+      </c>
+      <c r="D30" s="527"/>
+      <c r="E30" s="528"/>
+      <c r="F30" s="535" t="s">
+        <v>638</v>
+      </c>
+      <c r="G30" s="536"/>
+      <c r="H30" s="536"/>
+      <c r="I30" s="536"/>
+      <c r="J30" s="537"/>
       <c r="K30" s="133"/>
     </row>
     <row r="31" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="132"/>
-      <c r="C31" s="438"/>
-      <c r="D31" s="439"/>
-      <c r="E31" s="439"/>
-      <c r="F31" s="439"/>
-      <c r="G31" s="439"/>
-      <c r="H31" s="439"/>
-      <c r="I31" s="439"/>
-      <c r="J31" s="440"/>
+      <c r="C31" s="532"/>
+      <c r="D31" s="533"/>
+      <c r="E31" s="533"/>
+      <c r="F31" s="533"/>
+      <c r="G31" s="533"/>
+      <c r="H31" s="533"/>
+      <c r="I31" s="533"/>
+      <c r="J31" s="534"/>
       <c r="K31" s="133"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="132"/>
-      <c r="C32" s="435" t="s">
+      <c r="C32" s="529" t="s">
         <v>276</v>
       </c>
-      <c r="D32" s="436"/>
-      <c r="E32" s="436"/>
-      <c r="F32" s="436"/>
-      <c r="G32" s="436"/>
-      <c r="H32" s="436"/>
-      <c r="I32" s="436"/>
-      <c r="J32" s="437"/>
+      <c r="D32" s="530"/>
+      <c r="E32" s="530"/>
+      <c r="F32" s="530"/>
+      <c r="G32" s="530"/>
+      <c r="H32" s="530"/>
+      <c r="I32" s="530"/>
+      <c r="J32" s="531"/>
       <c r="K32" s="133"/>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="132"/>
-      <c r="C33" s="435" t="s">
+      <c r="C33" s="529" t="s">
         <v>275</v>
       </c>
-      <c r="D33" s="436"/>
-      <c r="E33" s="436"/>
-      <c r="F33" s="436"/>
-      <c r="G33" s="436"/>
-      <c r="H33" s="436"/>
-      <c r="I33" s="436"/>
-      <c r="J33" s="437"/>
+      <c r="D33" s="530"/>
+      <c r="E33" s="530"/>
+      <c r="F33" s="530"/>
+      <c r="G33" s="530"/>
+      <c r="H33" s="530"/>
+      <c r="I33" s="530"/>
+      <c r="J33" s="531"/>
       <c r="K33" s="133"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10344,21 +10317,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C12:J13"/>
-    <mergeCell ref="C20:J21"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C17:J18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C5:J6"/>
-    <mergeCell ref="C9:J10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="H11:J11"/>
     <mergeCell ref="C24:J25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:J26"/>
@@ -10373,6 +10331,21 @@
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="F30:J30"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C5:J6"/>
+    <mergeCell ref="C9:J10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:J13"/>
+    <mergeCell ref="C20:J21"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C17:J18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10406,17 +10379,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="519" t="s">
+      <c r="A1" s="538" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="520"/>
-      <c r="C1" s="520"/>
-      <c r="D1" s="520"/>
-      <c r="E1" s="520"/>
-      <c r="F1" s="520"/>
-      <c r="G1" s="520"/>
-      <c r="H1" s="520"/>
-      <c r="I1" s="521"/>
+      <c r="B1" s="539"/>
+      <c r="C1" s="539"/>
+      <c r="D1" s="539"/>
+      <c r="E1" s="539"/>
+      <c r="F1" s="539"/>
+      <c r="G1" s="539"/>
+      <c r="H1" s="539"/>
+      <c r="I1" s="540"/>
     </row>
     <row r="2" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="148" t="s">
@@ -10477,39 +10450,39 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="522" t="s">
+      <c r="A4" s="541" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="523"/>
-      <c r="C4" s="523"/>
-      <c r="D4" s="523"/>
-      <c r="E4" s="523"/>
-      <c r="F4" s="523"/>
-      <c r="G4" s="523"/>
-      <c r="H4" s="523"/>
-      <c r="I4" s="524"/>
+      <c r="B4" s="542"/>
+      <c r="C4" s="542"/>
+      <c r="D4" s="542"/>
+      <c r="E4" s="542"/>
+      <c r="F4" s="542"/>
+      <c r="G4" s="542"/>
+      <c r="H4" s="542"/>
+      <c r="I4" s="543"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="278" t="s">
+      <c r="A5" s="275" t="s">
         <v>129</v>
       </c>
       <c r="B5" s="213" t="s">
+        <v>554</v>
+      </c>
+      <c r="C5" s="207" t="s">
+        <v>552</v>
+      </c>
+      <c r="D5" s="271" t="s">
+        <v>612</v>
+      </c>
+      <c r="E5" s="207" t="s">
         <v>556</v>
       </c>
-      <c r="C5" s="207" t="s">
-        <v>554</v>
-      </c>
-      <c r="D5" s="274" t="s">
-        <v>614</v>
-      </c>
-      <c r="E5" s="207" t="s">
-        <v>558</v>
-      </c>
-      <c r="F5" s="275"/>
-      <c r="G5" s="274" t="s">
-        <v>618</v>
-      </c>
-      <c r="H5" s="274" t="s">
+      <c r="F5" s="272"/>
+      <c r="G5" s="271" t="s">
+        <v>616</v>
+      </c>
+      <c r="H5" s="271" t="s">
         <v>343</v>
       </c>
       <c r="I5" s="193"/>
@@ -10519,13 +10492,13 @@
         <v>130</v>
       </c>
       <c r="B6" s="205" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C6" s="147" t="s">
-        <v>524</v>
-      </c>
-      <c r="D6" s="279" t="s">
-        <v>418</v>
+        <v>522</v>
+      </c>
+      <c r="D6" s="276" t="s">
+        <v>417</v>
       </c>
       <c r="E6" s="198" t="s">
         <v>329</v>
@@ -10533,11 +10506,11 @@
       <c r="F6" s="198" t="s">
         <v>328</v>
       </c>
-      <c r="G6" s="279" t="s">
-        <v>420</v>
-      </c>
-      <c r="H6" s="279" t="s">
+      <c r="G6" s="276" t="s">
         <v>419</v>
+      </c>
+      <c r="H6" s="276" t="s">
+        <v>418</v>
       </c>
       <c r="I6" s="7"/>
     </row>
@@ -10546,26 +10519,26 @@
         <v>131</v>
       </c>
       <c r="B7" s="203" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C7" s="145" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D7" s="160"/>
       <c r="E7" s="145" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F7" s="145" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G7" s="145" t="s">
-        <v>559</v>
-      </c>
-      <c r="H7" s="279" t="s">
+        <v>557</v>
+      </c>
+      <c r="H7" s="276" t="s">
+        <v>414</v>
+      </c>
+      <c r="I7" s="277" t="s">
         <v>415</v>
-      </c>
-      <c r="I7" s="280" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10575,74 +10548,76 @@
       <c r="B8" s="214" t="s">
         <v>330</v>
       </c>
-      <c r="C8" s="279" t="s">
+      <c r="C8" s="276" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="279" t="s">
-        <v>421</v>
+      <c r="D8" s="276" t="s">
+        <v>420</v>
       </c>
       <c r="E8" s="198" t="s">
         <v>331</v>
       </c>
-      <c r="F8" s="284" t="s">
+      <c r="F8" s="281" t="s">
+        <v>439</v>
+      </c>
+      <c r="G8" s="281" t="s">
         <v>440</v>
       </c>
-      <c r="G8" s="284" t="s">
-        <v>441</v>
-      </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="285" t="s">
-        <v>448</v>
+      <c r="I8" s="282" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="162" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="281" t="s">
+      <c r="B9" s="278" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" s="276" t="s">
         <v>402</v>
       </c>
-      <c r="C9" s="279" t="s">
-        <v>403</v>
-      </c>
-      <c r="D9" s="284" t="s">
+      <c r="D9" s="281" t="s">
+        <v>524</v>
+      </c>
+      <c r="E9" s="281" t="s">
+        <v>523</v>
+      </c>
+      <c r="F9" s="281" t="s">
+        <v>525</v>
+      </c>
+      <c r="G9" s="281" t="s">
+        <v>441</v>
+      </c>
+      <c r="H9" s="281" t="s">
         <v>526</v>
       </c>
-      <c r="E9" s="284" t="s">
-        <v>525</v>
-      </c>
-      <c r="F9" s="284" t="s">
+      <c r="I9" s="282" t="s">
         <v>527</v>
-      </c>
-      <c r="G9" s="284" t="s">
-        <v>442</v>
-      </c>
-      <c r="H9" s="284" t="s">
-        <v>528</v>
-      </c>
-      <c r="I9" s="285" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="162" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="281" t="s">
-        <v>417</v>
-      </c>
-      <c r="C10" s="284" t="s">
-        <v>436</v>
-      </c>
-      <c r="D10" s="284" t="s">
+      <c r="B10" s="278" t="s">
+        <v>416</v>
+      </c>
+      <c r="C10" s="281" t="s">
+        <v>435</v>
+      </c>
+      <c r="D10" s="281" t="s">
+        <v>445</v>
+      </c>
+      <c r="E10" s="281" t="s">
         <v>446</v>
       </c>
-      <c r="E10" s="284" t="s">
-        <v>447</v>
-      </c>
-      <c r="F10" s="291"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="236" t="s">
+      <c r="F10" s="286"/>
+      <c r="G10" s="311" t="s">
+        <v>327</v>
+      </c>
+      <c r="H10" s="235" t="s">
         <v>327</v>
       </c>
       <c r="I10" s="190"/>
@@ -10652,47 +10627,47 @@
         <v>135</v>
       </c>
       <c r="B11" s="203" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C11" s="160"/>
-      <c r="D11" s="284" t="s">
+      <c r="D11" s="281" t="s">
+        <v>432</v>
+      </c>
+      <c r="E11" s="281" t="s">
+        <v>444</v>
+      </c>
+      <c r="F11" s="281" t="s">
+        <v>442</v>
+      </c>
+      <c r="G11" s="281" t="s">
+        <v>434</v>
+      </c>
+      <c r="H11" s="281" t="s">
         <v>433</v>
       </c>
-      <c r="E11" s="284" t="s">
-        <v>445</v>
-      </c>
-      <c r="F11" s="284" t="s">
+      <c r="I11" s="282" t="s">
         <v>443</v>
-      </c>
-      <c r="G11" s="284" t="s">
-        <v>435</v>
-      </c>
-      <c r="H11" s="284" t="s">
-        <v>434</v>
-      </c>
-      <c r="I11" s="285" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="162" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="281" t="s">
-        <v>404</v>
+      <c r="B12" s="278" t="s">
+        <v>403</v>
       </c>
       <c r="C12" s="159" t="s">
         <v>187</v>
       </c>
       <c r="D12" s="150"/>
-      <c r="E12" s="279" t="s">
-        <v>387</v>
-      </c>
-      <c r="F12" s="279" t="s">
+      <c r="E12" s="276" t="s">
+        <v>386</v>
+      </c>
+      <c r="F12" s="276" t="s">
+        <v>391</v>
+      </c>
+      <c r="G12" s="276" t="s">
         <v>392</v>
-      </c>
-      <c r="G12" s="279" t="s">
-        <v>393</v>
       </c>
       <c r="H12" s="160"/>
       <c r="I12" s="164"/>
@@ -10702,21 +10677,21 @@
         <v>137</v>
       </c>
       <c r="B13" s="176" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C13" s="143" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D13" s="150"/>
-      <c r="E13" s="284" t="s">
-        <v>429</v>
+      <c r="E13" s="281" t="s">
+        <v>428</v>
       </c>
       <c r="F13" s="160"/>
       <c r="G13" s="147" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H13" s="147" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I13" s="190"/>
     </row>
@@ -10725,16 +10700,16 @@
         <v>138</v>
       </c>
       <c r="B14" s="203" t="s">
-        <v>567</v>
-      </c>
-      <c r="C14" s="284" t="s">
-        <v>595</v>
-      </c>
-      <c r="D14" s="284" t="s">
-        <v>596</v>
-      </c>
-      <c r="E14" s="284" t="s">
-        <v>530</v>
+        <v>565</v>
+      </c>
+      <c r="C14" s="281" t="s">
+        <v>593</v>
+      </c>
+      <c r="D14" s="281" t="s">
+        <v>594</v>
+      </c>
+      <c r="E14" s="281" t="s">
+        <v>528</v>
       </c>
       <c r="F14" s="150"/>
       <c r="G14" s="160"/>
@@ -10743,17 +10718,17 @@
     </row>
     <row r="15" spans="1:9" s="94" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="162" t="s">
-        <v>597</v>
-      </c>
-      <c r="B15" s="510" t="s">
-        <v>623</v>
-      </c>
-      <c r="C15" s="511"/>
+        <v>595</v>
+      </c>
+      <c r="B15" s="554" t="s">
+        <v>621</v>
+      </c>
+      <c r="C15" s="547"/>
       <c r="D15" s="150"/>
-      <c r="E15" s="511" t="s">
-        <v>624</v>
-      </c>
-      <c r="F15" s="511"/>
+      <c r="E15" s="547" t="s">
+        <v>622</v>
+      </c>
+      <c r="F15" s="547"/>
       <c r="G15" s="150"/>
       <c r="H15" s="150"/>
       <c r="I15" s="190"/>
@@ -10774,10 +10749,10 @@
         <v>334</v>
       </c>
       <c r="G16" s="145" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H16" s="145" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I16" s="190"/>
     </row>
@@ -10785,27 +10760,27 @@
       <c r="A17" s="162" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="281" t="s">
-        <v>424</v>
+      <c r="B17" s="278" t="s">
+        <v>423</v>
       </c>
       <c r="C17" s="145" t="s">
         <v>303</v>
       </c>
-      <c r="D17" s="279" t="s">
-        <v>426</v>
+      <c r="D17" s="276" t="s">
+        <v>425</v>
       </c>
       <c r="E17" s="145" t="s">
         <v>304</v>
       </c>
-      <c r="F17" s="279" t="s">
-        <v>388</v>
+      <c r="F17" s="276" t="s">
+        <v>387</v>
       </c>
       <c r="G17" s="160"/>
       <c r="H17" s="145" t="s">
         <v>305</v>
       </c>
-      <c r="I17" s="280" t="s">
-        <v>425</v>
+      <c r="I17" s="277" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -10813,18 +10788,18 @@
         <v>158</v>
       </c>
       <c r="B18" s="204" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C18" s="160"/>
       <c r="D18" s="150"/>
-      <c r="E18" s="279" t="s">
-        <v>384</v>
-      </c>
-      <c r="F18" s="279" t="s">
-        <v>386</v>
+      <c r="E18" s="276" t="s">
+        <v>383</v>
+      </c>
+      <c r="F18" s="276" t="s">
+        <v>385</v>
       </c>
       <c r="G18" s="145" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H18" s="161"/>
       <c r="I18" s="164"/>
@@ -10846,7 +10821,7 @@
       <c r="F19" s="198" t="s">
         <v>332</v>
       </c>
-      <c r="G19" s="283"/>
+      <c r="G19" s="280"/>
       <c r="H19" s="145" t="s">
         <v>308</v>
       </c>
@@ -10859,42 +10834,42 @@
         <v>142</v>
       </c>
       <c r="B20" s="204" t="s">
+        <v>540</v>
+      </c>
+      <c r="C20" s="145" t="s">
+        <v>545</v>
+      </c>
+      <c r="D20" s="160"/>
+      <c r="E20" s="276" t="s">
+        <v>645</v>
+      </c>
+      <c r="F20" s="145" t="s">
+        <v>547</v>
+      </c>
+      <c r="G20" s="145" t="s">
         <v>542</v>
       </c>
-      <c r="C20" s="145" t="s">
-        <v>547</v>
-      </c>
-      <c r="D20" s="160"/>
-      <c r="E20" s="279" t="s">
-        <v>649</v>
-      </c>
-      <c r="F20" s="145" t="s">
-        <v>549</v>
-      </c>
-      <c r="G20" s="145" t="s">
-        <v>544</v>
-      </c>
-      <c r="H20" s="283"/>
+      <c r="H20" s="280"/>
       <c r="I20" s="190"/>
     </row>
     <row r="21" spans="1:9" s="94" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="163" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B21" s="205" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C21" s="147" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D21" s="147" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E21" s="147" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F21" s="147" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G21" s="160"/>
       <c r="H21" s="145" t="s">
@@ -10910,19 +10885,19 @@
       </c>
       <c r="B22" s="220"/>
       <c r="C22" s="145" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D22" s="145" t="s">
         <v>285</v>
       </c>
-      <c r="E22" s="279" t="s">
+      <c r="E22" s="276" t="s">
+        <v>388</v>
+      </c>
+      <c r="F22" s="276" t="s">
         <v>389</v>
       </c>
-      <c r="F22" s="279" t="s">
-        <v>390</v>
-      </c>
       <c r="G22" s="145" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I22" s="145" t="s">
         <v>287</v>
@@ -10936,7 +10911,7 @@
         <v>293</v>
       </c>
       <c r="C23" s="145" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D23" s="145" t="s">
         <v>294</v>
@@ -10973,7 +10948,7 @@
       <c r="E24" s="179" t="s">
         <v>313</v>
       </c>
-      <c r="F24" s="232"/>
+      <c r="F24" s="231"/>
       <c r="G24" s="183"/>
       <c r="H24" s="179" t="s">
         <v>312</v>
@@ -10983,63 +10958,63 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="94" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="522" t="s">
+      <c r="A25" s="541" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="525"/>
-      <c r="C25" s="525"/>
-      <c r="D25" s="525"/>
-      <c r="E25" s="525"/>
-      <c r="F25" s="525"/>
-      <c r="G25" s="525"/>
-      <c r="H25" s="525"/>
-      <c r="I25" s="526"/>
+      <c r="B25" s="544"/>
+      <c r="C25" s="544"/>
+      <c r="D25" s="544"/>
+      <c r="E25" s="544"/>
+      <c r="F25" s="544"/>
+      <c r="G25" s="544"/>
+      <c r="H25" s="544"/>
+      <c r="I25" s="545"/>
     </row>
     <row r="26" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="517" t="s">
-        <v>521</v>
-      </c>
-      <c r="C26" s="518"/>
-      <c r="D26" s="518"/>
-      <c r="E26" s="276"/>
-      <c r="F26" s="528" t="s">
-        <v>487</v>
-      </c>
-      <c r="G26" s="528"/>
-      <c r="H26" s="528"/>
-      <c r="I26" s="277"/>
+      <c r="B26" s="559" t="s">
+        <v>519</v>
+      </c>
+      <c r="C26" s="560"/>
+      <c r="D26" s="560"/>
+      <c r="E26" s="273"/>
+      <c r="F26" s="548" t="s">
+        <v>485</v>
+      </c>
+      <c r="G26" s="548"/>
+      <c r="H26" s="548"/>
+      <c r="I26" s="274"/>
     </row>
     <row r="27" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="162" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="516" t="s">
-        <v>496</v>
-      </c>
-      <c r="C27" s="508"/>
-      <c r="D27" s="508"/>
-      <c r="E27" s="514" t="s">
-        <v>488</v>
-      </c>
-      <c r="F27" s="514"/>
-      <c r="G27" s="508" t="s">
-        <v>492</v>
-      </c>
-      <c r="H27" s="508"/>
-      <c r="I27" s="509"/>
+      <c r="B27" s="558" t="s">
+        <v>494</v>
+      </c>
+      <c r="C27" s="550"/>
+      <c r="D27" s="550"/>
+      <c r="E27" s="549" t="s">
+        <v>486</v>
+      </c>
+      <c r="F27" s="549"/>
+      <c r="G27" s="550" t="s">
+        <v>490</v>
+      </c>
+      <c r="H27" s="550"/>
+      <c r="I27" s="551"/>
     </row>
     <row r="28" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="512" t="s">
-        <v>499</v>
-      </c>
-      <c r="C28" s="513"/>
-      <c r="D28" s="513"/>
+      <c r="B28" s="555" t="s">
+        <v>497</v>
+      </c>
+      <c r="C28" s="556"/>
+      <c r="D28" s="556"/>
       <c r="E28" s="161"/>
       <c r="F28" s="146"/>
       <c r="G28" s="210"/>
@@ -11048,67 +11023,67 @@
     </row>
     <row r="29" spans="1:9" s="94" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="162" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B29" s="220"/>
       <c r="C29" s="160"/>
       <c r="D29" s="160"/>
-      <c r="E29" s="514" t="s">
-        <v>489</v>
-      </c>
-      <c r="F29" s="514"/>
-      <c r="G29" s="514" t="s">
-        <v>560</v>
-      </c>
-      <c r="H29" s="514"/>
-      <c r="I29" s="515"/>
+      <c r="E29" s="549" t="s">
+        <v>487</v>
+      </c>
+      <c r="F29" s="549"/>
+      <c r="G29" s="549" t="s">
+        <v>558</v>
+      </c>
+      <c r="H29" s="549"/>
+      <c r="I29" s="557"/>
     </row>
     <row r="30" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="162" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="512" t="s">
-        <v>522</v>
-      </c>
-      <c r="C30" s="513"/>
-      <c r="D30" s="513"/>
+      <c r="B30" s="555" t="s">
+        <v>520</v>
+      </c>
+      <c r="C30" s="556"/>
+      <c r="D30" s="556"/>
       <c r="E30" s="161"/>
-      <c r="F30" s="527" t="s">
-        <v>627</v>
-      </c>
-      <c r="G30" s="527"/>
-      <c r="H30" s="527"/>
+      <c r="F30" s="546" t="s">
+        <v>625</v>
+      </c>
+      <c r="G30" s="546"/>
+      <c r="H30" s="546"/>
       <c r="I30" s="164"/>
     </row>
     <row r="31" spans="1:9" s="94" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="162" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="506" t="s">
-        <v>491</v>
-      </c>
-      <c r="C31" s="507"/>
-      <c r="D31" s="507"/>
+      <c r="B31" s="552" t="s">
+        <v>489</v>
+      </c>
+      <c r="C31" s="553"/>
+      <c r="D31" s="553"/>
       <c r="E31" s="210"/>
       <c r="F31" s="210"/>
-      <c r="G31" s="508" t="s">
-        <v>490</v>
-      </c>
-      <c r="H31" s="508"/>
-      <c r="I31" s="509"/>
+      <c r="G31" s="550" t="s">
+        <v>488</v>
+      </c>
+      <c r="H31" s="550"/>
+      <c r="I31" s="551"/>
     </row>
     <row r="32" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="162" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="234"/>
-      <c r="C32" s="235"/>
-      <c r="D32" s="232"/>
-      <c r="E32" s="235"/>
-      <c r="F32" s="235"/>
-      <c r="G32" s="232"/>
-      <c r="H32" s="232"/>
-      <c r="I32" s="233"/>
+      <c r="B32" s="233"/>
+      <c r="C32" s="234"/>
+      <c r="D32" s="231"/>
+      <c r="E32" s="234"/>
+      <c r="F32" s="234"/>
+      <c r="G32" s="231"/>
+      <c r="H32" s="231"/>
+      <c r="I32" s="232"/>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="79"/>
@@ -11160,14 +11135,6 @@
     <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="B15:C15"/>
@@ -11177,6 +11144,14 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.21" top="0.22" bottom="0.2" header="0.17" footer="0.17"/>
@@ -11210,17 +11185,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="529" t="s">
+      <c r="A1" s="565" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="530"/>
-      <c r="C1" s="530"/>
-      <c r="D1" s="530"/>
-      <c r="E1" s="530"/>
-      <c r="F1" s="530"/>
-      <c r="G1" s="530"/>
-      <c r="H1" s="530"/>
-      <c r="I1" s="531"/>
+      <c r="B1" s="566"/>
+      <c r="C1" s="566"/>
+      <c r="D1" s="566"/>
+      <c r="E1" s="566"/>
+      <c r="F1" s="566"/>
+      <c r="G1" s="566"/>
+      <c r="H1" s="566"/>
+      <c r="I1" s="567"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
@@ -11281,59 +11256,59 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="532" t="s">
+      <c r="A4" s="568" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="533"/>
-      <c r="C4" s="533"/>
-      <c r="D4" s="533"/>
-      <c r="E4" s="533"/>
-      <c r="F4" s="533"/>
-      <c r="G4" s="533"/>
-      <c r="H4" s="533"/>
-      <c r="I4" s="534"/>
+      <c r="B4" s="569"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="569"/>
+      <c r="E4" s="569"/>
+      <c r="F4" s="569"/>
+      <c r="G4" s="569"/>
+      <c r="H4" s="569"/>
+      <c r="I4" s="570"/>
     </row>
     <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="173" t="s">
         <v>129</v>
       </c>
       <c r="B5" s="213" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C5" s="207" t="s">
-        <v>553</v>
-      </c>
-      <c r="D5" s="286" t="s">
+        <v>551</v>
+      </c>
+      <c r="D5" s="283" t="s">
+        <v>414</v>
+      </c>
+      <c r="E5" s="207" t="s">
+        <v>549</v>
+      </c>
+      <c r="F5" s="207" t="s">
+        <v>554</v>
+      </c>
+      <c r="G5" s="302" t="s">
+        <v>589</v>
+      </c>
+      <c r="H5" s="283" t="s">
+        <v>416</v>
+      </c>
+      <c r="I5" s="284" t="s">
         <v>415</v>
-      </c>
-      <c r="E5" s="207" t="s">
-        <v>551</v>
-      </c>
-      <c r="F5" s="207" t="s">
-        <v>556</v>
-      </c>
-      <c r="G5" s="588" t="s">
-        <v>591</v>
-      </c>
-      <c r="H5" s="286" t="s">
-        <v>417</v>
-      </c>
-      <c r="I5" s="287" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="281" t="s">
-        <v>423</v>
+      <c r="B6" s="278" t="s">
+        <v>422</v>
       </c>
       <c r="C6" s="145" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D6" s="145" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E6" s="198" t="s">
         <v>328</v>
@@ -11341,11 +11316,11 @@
       <c r="F6" s="198" t="s">
         <v>329</v>
       </c>
-      <c r="G6" s="279" t="s">
+      <c r="G6" s="276" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="279" t="s">
-        <v>422</v>
+      <c r="H6" s="276" t="s">
+        <v>421</v>
       </c>
       <c r="I6" s="166"/>
     </row>
@@ -11353,20 +11328,20 @@
       <c r="A7" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="281" t="s">
-        <v>421</v>
-      </c>
-      <c r="C7" s="279" t="s">
+      <c r="B7" s="278" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" s="276" t="s">
         <v>185</v>
       </c>
       <c r="D7" s="145" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E7" s="145" t="s">
-        <v>557</v>
-      </c>
-      <c r="F7" s="284" t="s">
-        <v>454</v>
+        <v>555</v>
+      </c>
+      <c r="F7" s="281" t="s">
+        <v>453</v>
       </c>
       <c r="G7" s="144"/>
       <c r="H7" s="157"/>
@@ -11376,12 +11351,12 @@
       <c r="A8" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="230"/>
-      <c r="C8" s="284" t="s">
-        <v>449</v>
-      </c>
-      <c r="D8" s="284" t="s">
-        <v>439</v>
+      <c r="B8" s="229"/>
+      <c r="C8" s="281" t="s">
+        <v>448</v>
+      </c>
+      <c r="D8" s="281" t="s">
+        <v>438</v>
       </c>
       <c r="E8" s="198" t="s">
         <v>330</v>
@@ -11389,8 +11364,8 @@
       <c r="F8" s="198" t="s">
         <v>331</v>
       </c>
-      <c r="G8" s="284" t="s">
-        <v>449</v>
+      <c r="G8" s="281" t="s">
+        <v>448</v>
       </c>
       <c r="H8" s="157"/>
       <c r="I8" s="191"/>
@@ -11400,20 +11375,20 @@
         <v>133</v>
       </c>
       <c r="B9" s="215" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C9" s="154"/>
-      <c r="D9" s="284" t="s">
+      <c r="D9" s="281" t="s">
+        <v>451</v>
+      </c>
+      <c r="E9" s="281" t="s">
         <v>452</v>
       </c>
-      <c r="E9" s="284" t="s">
-        <v>453</v>
-      </c>
-      <c r="F9" s="279" t="s">
-        <v>414</v>
-      </c>
-      <c r="G9" s="279" t="s">
+      <c r="F9" s="276" t="s">
         <v>413</v>
+      </c>
+      <c r="G9" s="276" t="s">
+        <v>412</v>
       </c>
       <c r="H9" s="150"/>
       <c r="I9" s="169"/>
@@ -11423,20 +11398,20 @@
         <v>134</v>
       </c>
       <c r="B10" s="203" t="s">
-        <v>596</v>
-      </c>
-      <c r="C10" s="284" t="s">
-        <v>595</v>
+        <v>594</v>
+      </c>
+      <c r="C10" s="281" t="s">
+        <v>593</v>
       </c>
       <c r="D10" s="143" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E10" s="143" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F10" s="144"/>
       <c r="G10" s="143" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H10" s="158"/>
       <c r="I10" s="169"/>
@@ -11446,24 +11421,24 @@
         <v>135</v>
       </c>
       <c r="B11" s="205" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C11" s="147" t="s">
-        <v>605</v>
-      </c>
-      <c r="D11" s="284" t="s">
-        <v>590</v>
-      </c>
-      <c r="E11" s="284" t="s">
-        <v>427</v>
+        <v>603</v>
+      </c>
+      <c r="D11" s="281" t="s">
+        <v>588</v>
+      </c>
+      <c r="E11" s="281" t="s">
+        <v>426</v>
       </c>
       <c r="F11" s="157"/>
       <c r="G11" s="143" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H11" s="144"/>
-      <c r="I11" s="589" t="s">
-        <v>357</v>
+      <c r="I11" s="303" t="s">
+        <v>356</v>
       </c>
       <c r="K11" s="1"/>
     </row>
@@ -11472,32 +11447,32 @@
         <v>136</v>
       </c>
       <c r="B12" s="203" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C12" s="159" t="s">
         <v>187</v>
       </c>
-      <c r="D12" s="284" t="s">
-        <v>451</v>
-      </c>
-      <c r="E12" s="284" t="s">
+      <c r="D12" s="281" t="s">
         <v>450</v>
       </c>
+      <c r="E12" s="281" t="s">
+        <v>449</v>
+      </c>
       <c r="F12" s="143" t="s">
+        <v>353</v>
+      </c>
+      <c r="G12" s="143" t="s">
         <v>354</v>
       </c>
-      <c r="G12" s="143" t="s">
-        <v>355</v>
-      </c>
       <c r="H12" s="154"/>
-      <c r="I12" s="229"/>
+      <c r="I12" s="228"/>
     </row>
     <row r="13" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
         <v>137</v>
       </c>
       <c r="B13" s="204" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C13" s="147" t="s">
         <v>337</v>
@@ -11506,11 +11481,11 @@
       <c r="E13" s="147" t="s">
         <v>338</v>
       </c>
-      <c r="F13" s="279" t="s">
+      <c r="F13" s="276" t="s">
+        <v>401</v>
+      </c>
+      <c r="G13" s="276" t="s">
         <v>402</v>
-      </c>
-      <c r="G13" s="279" t="s">
-        <v>403</v>
       </c>
       <c r="H13" s="150"/>
       <c r="I13" s="182" t="s">
@@ -11525,46 +11500,46 @@
       <c r="B14" s="214" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="284" t="s">
-        <v>589</v>
-      </c>
-      <c r="D14" s="284" t="s">
-        <v>438</v>
+      <c r="C14" s="281" t="s">
+        <v>587</v>
+      </c>
+      <c r="D14" s="281" t="s">
+        <v>437</v>
       </c>
       <c r="E14" s="159" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F14" s="159" t="s">
-        <v>397</v>
-      </c>
-      <c r="G14" s="284" t="s">
-        <v>589</v>
+        <v>396</v>
+      </c>
+      <c r="G14" s="281" t="s">
+        <v>587</v>
       </c>
       <c r="H14" s="157"/>
       <c r="I14" s="170"/>
     </row>
     <row r="15" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="77" t="s">
-        <v>597</v>
-      </c>
-      <c r="B15" s="510" t="s">
-        <v>626</v>
-      </c>
-      <c r="C15" s="511"/>
+        <v>595</v>
+      </c>
+      <c r="B15" s="554" t="s">
+        <v>624</v>
+      </c>
+      <c r="C15" s="547"/>
       <c r="D15" s="157"/>
       <c r="E15" s="198" t="s">
         <v>332</v>
       </c>
-      <c r="F15" s="284" t="s">
-        <v>455</v>
-      </c>
-      <c r="G15" s="284" t="s">
-        <v>465</v>
-      </c>
-      <c r="H15" s="511" t="s">
-        <v>643</v>
-      </c>
-      <c r="I15" s="538"/>
+      <c r="F15" s="281" t="s">
+        <v>454</v>
+      </c>
+      <c r="G15" s="281" t="s">
+        <v>464</v>
+      </c>
+      <c r="H15" s="547" t="s">
+        <v>639</v>
+      </c>
+      <c r="I15" s="573"/>
     </row>
     <row r="16" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
@@ -11574,7 +11549,7 @@
         <v>336</v>
       </c>
       <c r="C16" s="145" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D16" s="144"/>
       <c r="E16" s="198" t="s">
@@ -11584,13 +11559,13 @@
         <v>335</v>
       </c>
       <c r="G16" s="145" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H16" s="145" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I16" s="165" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11598,18 +11573,18 @@
         <v>140</v>
       </c>
       <c r="B17" s="205" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C17" s="159" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D17" s="150"/>
       <c r="E17" s="147" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F17" s="156"/>
       <c r="G17" s="147" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H17" s="198" t="s">
         <v>346</v>
@@ -11621,19 +11596,19 @@
         <v>158</v>
       </c>
       <c r="B18" s="215" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C18" s="144"/>
       <c r="D18" s="144"/>
       <c r="E18" s="159" t="s">
+        <v>398</v>
+      </c>
+      <c r="F18" s="159" t="s">
         <v>399</v>
-      </c>
-      <c r="F18" s="159" t="s">
-        <v>400</v>
       </c>
       <c r="G18" s="157"/>
       <c r="H18" s="198" t="s">
-        <v>349</v>
+        <v>601</v>
       </c>
       <c r="I18" s="208" t="s">
         <v>348</v>
@@ -11644,40 +11619,40 @@
         <v>141</v>
       </c>
       <c r="B19" s="172"/>
-      <c r="C19" s="228"/>
+      <c r="C19" s="227"/>
       <c r="D19" s="156"/>
-      <c r="E19" s="284" t="s">
+      <c r="E19" s="281" t="s">
+        <v>455</v>
+      </c>
+      <c r="F19" s="281" t="s">
+        <v>457</v>
+      </c>
+      <c r="G19" s="227"/>
+      <c r="H19" s="281" t="s">
         <v>456</v>
       </c>
-      <c r="F19" s="284" t="s">
-        <v>458</v>
-      </c>
-      <c r="G19" s="228"/>
-      <c r="H19" s="284" t="s">
-        <v>457</v>
-      </c>
-      <c r="I19" s="229"/>
+      <c r="I19" s="228"/>
     </row>
     <row r="20" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="77" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B20" s="205" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" s="147" t="s">
         <v>364</v>
       </c>
-      <c r="C20" s="147" t="s">
+      <c r="D20" s="144"/>
+      <c r="E20" s="276" t="s">
+        <v>534</v>
+      </c>
+      <c r="F20" s="147" t="s">
         <v>365</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="279" t="s">
-        <v>536</v>
-      </c>
-      <c r="F20" s="147" t="s">
-        <v>366</v>
-      </c>
-      <c r="G20" s="228"/>
+      <c r="G20" s="227"/>
       <c r="H20" s="198" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I20" s="208" t="s">
         <v>347</v>
@@ -11687,7 +11662,7 @@
       <c r="A21" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="282"/>
+      <c r="B21" s="279"/>
       <c r="C21" s="145" t="s">
         <v>300</v>
       </c>
@@ -11696,11 +11671,11 @@
       </c>
       <c r="E21" s="157"/>
       <c r="F21" s="145" t="s">
-        <v>644</v>
-      </c>
-      <c r="G21" s="283"/>
+        <v>640</v>
+      </c>
+      <c r="G21" s="280"/>
       <c r="H21" s="198" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I21" s="208" t="s">
         <v>192</v>
@@ -11711,33 +11686,33 @@
         <v>144</v>
       </c>
       <c r="B22" s="204" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C22" s="145" t="s">
+        <v>482</v>
+      </c>
+      <c r="D22" s="145" t="s">
+        <v>483</v>
+      </c>
+      <c r="E22" s="145" t="s">
         <v>484</v>
       </c>
-      <c r="D22" s="145" t="s">
-        <v>485</v>
-      </c>
-      <c r="E22" s="145" t="s">
-        <v>486</v>
-      </c>
-      <c r="F22" s="279" t="s">
-        <v>391</v>
+      <c r="F22" s="276" t="s">
+        <v>390</v>
       </c>
       <c r="G22" s="157"/>
       <c r="H22" s="198" t="s">
         <v>345</v>
       </c>
       <c r="I22" s="165" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="241"/>
+      <c r="B23" s="240"/>
       <c r="C23" s="144"/>
       <c r="D23" s="145" t="s">
         <v>314</v>
@@ -11760,7 +11735,7 @@
       <c r="A24" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="591"/>
+      <c r="B24" s="305"/>
       <c r="C24" s="206" t="s">
         <v>297</v>
       </c>
@@ -11774,107 +11749,107 @@
       <c r="G24" s="206" t="s">
         <v>296</v>
       </c>
-      <c r="H24" s="592" t="s">
+      <c r="H24" s="306" t="s">
         <v>295</v>
       </c>
-      <c r="I24" s="590"/>
+      <c r="I24" s="304"/>
     </row>
     <row r="25" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="532" t="s">
+      <c r="A25" s="568" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="535"/>
-      <c r="C25" s="535"/>
-      <c r="D25" s="535"/>
-      <c r="E25" s="535"/>
-      <c r="F25" s="535"/>
-      <c r="G25" s="535"/>
-      <c r="H25" s="535"/>
-      <c r="I25" s="536"/>
+      <c r="B25" s="571"/>
+      <c r="C25" s="571"/>
+      <c r="D25" s="571"/>
+      <c r="E25" s="571"/>
+      <c r="F25" s="571"/>
+      <c r="G25" s="571"/>
+      <c r="H25" s="571"/>
+      <c r="I25" s="572"/>
     </row>
     <row r="26" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="184" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="576" t="s">
-        <v>511</v>
-      </c>
-      <c r="C26" s="577"/>
-      <c r="D26" s="577"/>
-      <c r="E26" s="542" t="s">
-        <v>503</v>
-      </c>
-      <c r="F26" s="542"/>
-      <c r="G26" s="542" t="s">
-        <v>562</v>
-      </c>
-      <c r="H26" s="542"/>
-      <c r="I26" s="543"/>
+      <c r="B26" s="574" t="s">
+        <v>509</v>
+      </c>
+      <c r="C26" s="575"/>
+      <c r="D26" s="575"/>
+      <c r="E26" s="576" t="s">
+        <v>501</v>
+      </c>
+      <c r="F26" s="576"/>
+      <c r="G26" s="576" t="s">
+        <v>560</v>
+      </c>
+      <c r="H26" s="576"/>
+      <c r="I26" s="577"/>
     </row>
     <row r="27" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="184" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="544" t="s">
-        <v>506</v>
-      </c>
-      <c r="C27" s="507"/>
-      <c r="D27" s="507"/>
-      <c r="E27" s="514" t="s">
+      <c r="B27" s="564" t="s">
         <v>504</v>
       </c>
-      <c r="F27" s="514"/>
-      <c r="G27" s="508" t="s">
-        <v>510</v>
-      </c>
-      <c r="H27" s="508"/>
-      <c r="I27" s="509"/>
+      <c r="C27" s="553"/>
+      <c r="D27" s="553"/>
+      <c r="E27" s="549" t="s">
+        <v>502</v>
+      </c>
+      <c r="F27" s="549"/>
+      <c r="G27" s="550" t="s">
+        <v>508</v>
+      </c>
+      <c r="H27" s="550"/>
+      <c r="I27" s="551"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="184" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="578" t="s">
-        <v>493</v>
-      </c>
-      <c r="C28" s="513"/>
-      <c r="D28" s="513"/>
+      <c r="B28" s="561" t="s">
+        <v>491</v>
+      </c>
+      <c r="C28" s="556"/>
+      <c r="D28" s="556"/>
       <c r="E28" s="157"/>
       <c r="F28" s="157"/>
-      <c r="G28" s="508" t="s">
-        <v>508</v>
-      </c>
-      <c r="H28" s="508"/>
-      <c r="I28" s="509"/>
+      <c r="G28" s="550" t="s">
+        <v>506</v>
+      </c>
+      <c r="H28" s="550"/>
+      <c r="I28" s="551"/>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="184" t="s">
-        <v>572</v>
-      </c>
-      <c r="B29" s="579" t="s">
-        <v>561</v>
-      </c>
-      <c r="C29" s="514"/>
-      <c r="D29" s="514"/>
+        <v>570</v>
+      </c>
+      <c r="B29" s="563" t="s">
+        <v>559</v>
+      </c>
+      <c r="C29" s="549"/>
+      <c r="D29" s="549"/>
       <c r="E29" s="144"/>
       <c r="F29" s="144"/>
-      <c r="G29" s="514" t="s">
-        <v>566</v>
-      </c>
-      <c r="H29" s="514"/>
-      <c r="I29" s="515"/>
+      <c r="G29" s="549" t="s">
+        <v>564</v>
+      </c>
+      <c r="H29" s="549"/>
+      <c r="I29" s="557"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="184" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="578" t="s">
-        <v>505</v>
-      </c>
-      <c r="C30" s="513"/>
-      <c r="D30" s="513"/>
-      <c r="E30" s="239"/>
-      <c r="F30" s="239"/>
+      <c r="B30" s="561" t="s">
+        <v>503</v>
+      </c>
+      <c r="C30" s="556"/>
+      <c r="D30" s="556"/>
+      <c r="E30" s="238"/>
+      <c r="F30" s="238"/>
       <c r="G30" s="144"/>
       <c r="H30" s="144"/>
       <c r="I30" s="168"/>
@@ -11883,53 +11858,53 @@
       <c r="A31" s="184" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="541" t="s">
-        <v>507</v>
-      </c>
-      <c r="C31" s="508"/>
-      <c r="D31" s="508"/>
+      <c r="B31" s="562" t="s">
+        <v>505</v>
+      </c>
+      <c r="C31" s="550"/>
+      <c r="D31" s="550"/>
       <c r="E31" s="210"/>
       <c r="F31" s="210"/>
-      <c r="G31" s="508" t="s">
-        <v>509</v>
-      </c>
-      <c r="H31" s="508"/>
-      <c r="I31" s="509"/>
+      <c r="G31" s="550" t="s">
+        <v>507</v>
+      </c>
+      <c r="H31" s="550"/>
+      <c r="I31" s="551"/>
     </row>
     <row r="32" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="184" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="580"/>
-      <c r="C32" s="235"/>
-      <c r="D32" s="238"/>
-      <c r="E32" s="238"/>
+      <c r="B32" s="299"/>
+      <c r="C32" s="234"/>
+      <c r="D32" s="237"/>
+      <c r="E32" s="237"/>
       <c r="F32" s="192"/>
       <c r="G32" s="192"/>
-      <c r="H32" s="235"/>
-      <c r="I32" s="240"/>
+      <c r="H32" s="234"/>
+      <c r="I32" s="239"/>
     </row>
     <row r="33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="G29:I29"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.21" top="0.22" bottom="0.21" header="0.17" footer="0.17"/>
@@ -11945,7 +11920,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -11964,17 +11939,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="529" t="s">
+      <c r="A1" s="565" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="530"/>
-      <c r="C1" s="530"/>
-      <c r="D1" s="530"/>
-      <c r="E1" s="530"/>
-      <c r="F1" s="530"/>
-      <c r="G1" s="530"/>
-      <c r="H1" s="530"/>
-      <c r="I1" s="531"/>
+      <c r="B1" s="566"/>
+      <c r="C1" s="566"/>
+      <c r="D1" s="566"/>
+      <c r="E1" s="566"/>
+      <c r="F1" s="566"/>
+      <c r="G1" s="566"/>
+      <c r="H1" s="566"/>
+      <c r="I1" s="567"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
@@ -12035,42 +12010,42 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="532" t="s">
+      <c r="A4" s="568" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="533"/>
-      <c r="C4" s="533"/>
-      <c r="D4" s="533"/>
-      <c r="E4" s="533"/>
-      <c r="F4" s="533"/>
-      <c r="G4" s="533"/>
-      <c r="H4" s="533"/>
-      <c r="I4" s="534"/>
+      <c r="B4" s="569"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="569"/>
+      <c r="E4" s="569"/>
+      <c r="F4" s="569"/>
+      <c r="G4" s="569"/>
+      <c r="H4" s="569"/>
+      <c r="I4" s="570"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>129</v>
       </c>
       <c r="B5" s="213" t="s">
-        <v>558</v>
-      </c>
-      <c r="C5" s="274" t="s">
-        <v>606</v>
-      </c>
-      <c r="D5" s="274" t="s">
+        <v>556</v>
+      </c>
+      <c r="C5" s="271" t="s">
+        <v>604</v>
+      </c>
+      <c r="D5" s="271" t="s">
         <v>340</v>
       </c>
       <c r="E5" s="207" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F5" s="207" t="s">
-        <v>554</v>
-      </c>
-      <c r="G5" s="286" t="s">
+        <v>552</v>
+      </c>
+      <c r="G5" s="283" t="s">
+        <v>404</v>
+      </c>
+      <c r="H5" s="283" t="s">
         <v>405</v>
-      </c>
-      <c r="H5" s="286" t="s">
-        <v>406</v>
       </c>
       <c r="I5" s="216"/>
     </row>
@@ -12079,21 +12054,21 @@
         <v>130</v>
       </c>
       <c r="B6" s="204" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C6" s="145" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D6" s="159" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E6" s="150"/>
       <c r="F6" s="157"/>
-      <c r="G6" s="279" t="s">
+      <c r="G6" s="276" t="s">
+        <v>412</v>
+      </c>
+      <c r="H6" s="276" t="s">
         <v>413</v>
-      </c>
-      <c r="H6" s="279" t="s">
-        <v>414</v>
       </c>
       <c r="I6" s="175"/>
     </row>
@@ -12102,22 +12077,22 @@
         <v>131</v>
       </c>
       <c r="B7" s="203" t="s">
-        <v>435</v>
-      </c>
-      <c r="C7" s="284" t="s">
-        <v>433</v>
+        <v>434</v>
+      </c>
+      <c r="C7" s="281" t="s">
+        <v>432</v>
       </c>
       <c r="D7" s="157"/>
       <c r="E7" s="157"/>
       <c r="F7" s="157"/>
-      <c r="G7" s="284" t="s">
-        <v>471</v>
-      </c>
-      <c r="H7" s="284" t="s">
-        <v>434</v>
-      </c>
-      <c r="I7" s="285" t="s">
-        <v>625</v>
+      <c r="G7" s="281" t="s">
+        <v>469</v>
+      </c>
+      <c r="H7" s="281" t="s">
+        <v>433</v>
+      </c>
+      <c r="I7" s="282" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12125,19 +12100,19 @@
         <v>132</v>
       </c>
       <c r="B8" s="203" t="s">
+        <v>468</v>
+      </c>
+      <c r="C8" s="281" t="s">
         <v>470</v>
-      </c>
-      <c r="C8" s="284" t="s">
-        <v>472</v>
       </c>
       <c r="D8" s="144"/>
       <c r="E8" s="157"/>
       <c r="F8" s="155"/>
-      <c r="G8" s="284" t="s">
-        <v>460</v>
-      </c>
-      <c r="H8" s="284" t="s">
+      <c r="G8" s="281" t="s">
         <v>459</v>
+      </c>
+      <c r="H8" s="281" t="s">
+        <v>458</v>
       </c>
       <c r="I8" s="169"/>
     </row>
@@ -12146,10 +12121,10 @@
         <v>133</v>
       </c>
       <c r="B9" s="203" t="s">
+        <v>428</v>
+      </c>
+      <c r="C9" s="281" t="s">
         <v>429</v>
-      </c>
-      <c r="C9" s="284" t="s">
-        <v>430</v>
       </c>
       <c r="D9" s="144"/>
       <c r="E9" s="158"/>
@@ -12163,22 +12138,22 @@
         <v>134</v>
       </c>
       <c r="B10" s="203" t="s">
-        <v>528</v>
-      </c>
-      <c r="C10" s="284" t="s">
-        <v>588</v>
+        <v>526</v>
+      </c>
+      <c r="C10" s="281" t="s">
+        <v>586</v>
       </c>
       <c r="D10" s="143" t="s">
+        <v>408</v>
+      </c>
+      <c r="E10" s="143" t="s">
         <v>409</v>
       </c>
-      <c r="E10" s="143" t="s">
-        <v>410</v>
-      </c>
-      <c r="F10" s="284" t="s">
-        <v>528</v>
+      <c r="F10" s="281" t="s">
+        <v>526</v>
       </c>
       <c r="G10" s="143" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H10" s="157"/>
       <c r="I10" s="169"/>
@@ -12188,14 +12163,14 @@
         <v>135</v>
       </c>
       <c r="B11" s="203" t="s">
-        <v>432</v>
-      </c>
-      <c r="C11" s="284" t="s">
         <v>431</v>
       </c>
+      <c r="C11" s="281" t="s">
+        <v>430</v>
+      </c>
       <c r="D11" s="157"/>
-      <c r="F11" s="279" t="s">
-        <v>379</v>
+      <c r="F11" s="276" t="s">
+        <v>378</v>
       </c>
       <c r="G11" s="150"/>
       <c r="H11" s="150"/>
@@ -12206,22 +12181,22 @@
         <v>136</v>
       </c>
       <c r="B12" s="203" t="s">
+        <v>460</v>
+      </c>
+      <c r="C12" s="144"/>
+      <c r="D12" s="281" t="s">
         <v>461</v>
       </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="284" t="s">
+      <c r="E12" s="150"/>
+      <c r="F12" s="281" t="s">
         <v>462</v>
       </c>
-      <c r="E12" s="150"/>
-      <c r="F12" s="284" t="s">
-        <v>463</v>
-      </c>
       <c r="G12" s="159" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H12" s="150"/>
-      <c r="I12" s="568" t="s">
-        <v>395</v>
+      <c r="I12" s="293" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12229,116 +12204,116 @@
         <v>137</v>
       </c>
       <c r="B13" s="215" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C13" s="144"/>
       <c r="D13" s="159" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E13" s="143" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F13" s="143" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G13" s="144"/>
       <c r="H13" s="158"/>
-      <c r="I13" s="568" t="s">
-        <v>399</v>
+      <c r="I13" s="293" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="281" t="s">
-        <v>426</v>
+      <c r="B14" s="278" t="s">
+        <v>425</v>
       </c>
       <c r="C14" s="150"/>
       <c r="D14" s="156"/>
-      <c r="E14" s="279" t="s">
+      <c r="E14" s="276" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" s="276" t="s">
         <v>377</v>
       </c>
-      <c r="F14" s="279" t="s">
-        <v>378</v>
-      </c>
       <c r="G14" s="144"/>
-      <c r="H14" s="279" t="s">
+      <c r="H14" s="276" t="s">
+        <v>423</v>
+      </c>
+      <c r="I14" s="277" t="s">
         <v>424</v>
-      </c>
-      <c r="I14" s="280" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="77" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B15" s="215" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C15" s="150"/>
       <c r="D15" s="156"/>
-      <c r="E15" s="279" t="s">
+      <c r="E15" s="276" t="s">
+        <v>374</v>
+      </c>
+      <c r="F15" s="276" t="s">
         <v>375</v>
       </c>
-      <c r="F15" s="279" t="s">
-        <v>376</v>
-      </c>
       <c r="G15" s="144"/>
-      <c r="H15" s="511" t="s">
-        <v>648</v>
-      </c>
-      <c r="I15" s="538"/>
+      <c r="H15" s="547" t="s">
+        <v>644</v>
+      </c>
+      <c r="I15" s="573"/>
     </row>
     <row r="16" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="281" t="s">
-        <v>415</v>
+      <c r="B16" s="278" t="s">
+        <v>414</v>
       </c>
       <c r="C16" s="144"/>
-      <c r="D16" s="279" t="s">
-        <v>417</v>
+      <c r="D16" s="276" t="s">
+        <v>416</v>
       </c>
       <c r="E16" s="198" t="s">
         <v>348</v>
       </c>
       <c r="F16" s="198" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G16" s="156"/>
-      <c r="H16" s="279" t="s">
-        <v>416</v>
-      </c>
-      <c r="I16" s="237"/>
+      <c r="H16" s="276" t="s">
+        <v>415</v>
+      </c>
+      <c r="I16" s="236"/>
     </row>
     <row r="17" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
         <v>140</v>
       </c>
       <c r="B17" s="205" t="s">
-        <v>364</v>
-      </c>
-      <c r="C17" s="279" t="s">
-        <v>536</v>
+        <v>363</v>
+      </c>
+      <c r="C17" s="276" t="s">
+        <v>534</v>
       </c>
       <c r="D17" s="145" t="s">
         <v>283</v>
       </c>
       <c r="E17" s="147" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F17" s="147" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G17" s="144"/>
       <c r="H17" s="145" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I17" s="165" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12347,12 +12322,12 @@
       </c>
       <c r="B18" s="172"/>
       <c r="C18" s="157"/>
-      <c r="D18" s="283"/>
+      <c r="D18" s="280"/>
       <c r="E18" s="198" t="s">
         <v>192</v>
       </c>
       <c r="F18" s="198" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G18" s="157"/>
       <c r="H18" s="144"/>
@@ -12363,48 +12338,47 @@
         <v>141</v>
       </c>
       <c r="B19" s="204" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C19" s="145" t="s">
-        <v>550</v>
-      </c>
-      <c r="D19" s="283"/>
-      <c r="E19" s="279" t="s">
-        <v>649</v>
-      </c>
-      <c r="F19" s="145" t="s">
-        <v>542</v>
+        <v>548</v>
+      </c>
+      <c r="D19" s="280"/>
+      <c r="E19" s="276" t="s">
+        <v>645</v>
       </c>
       <c r="G19" s="145" t="s">
-        <v>545</v>
-      </c>
-      <c r="H19" s="157"/>
+        <v>543</v>
+      </c>
+      <c r="H19" s="145" t="s">
+        <v>540</v>
+      </c>
       <c r="I19" s="175"/>
     </row>
     <row r="20" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="227"/>
+      <c r="B20" s="226"/>
       <c r="C20" s="145" t="s">
         <v>321</v>
       </c>
-      <c r="D20" s="283"/>
-      <c r="E20" s="283"/>
+      <c r="D20" s="280"/>
+      <c r="E20" s="280"/>
       <c r="F20" s="145" t="s">
         <v>321</v>
       </c>
       <c r="G20" s="147" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H20" s="157"/>
       <c r="I20" s="175"/>
     </row>
     <row r="21" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="77" t="s">
-        <v>598</v>
-      </c>
-      <c r="B21" s="227"/>
+        <v>596</v>
+      </c>
+      <c r="B21" s="226"/>
       <c r="C21" s="144"/>
       <c r="D21" s="145" t="s">
         <v>285</v>
@@ -12412,8 +12386,8 @@
       <c r="E21" s="145" t="s">
         <v>289</v>
       </c>
-      <c r="F21" s="279" t="s">
-        <v>391</v>
+      <c r="F21" s="276" t="s">
+        <v>390</v>
       </c>
       <c r="G21" s="144"/>
       <c r="H21" s="144"/>
@@ -12423,10 +12397,10 @@
       <c r="A22" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="510" t="s">
-        <v>497</v>
-      </c>
-      <c r="C22" s="511"/>
+      <c r="B22" s="554" t="s">
+        <v>495</v>
+      </c>
+      <c r="C22" s="547"/>
       <c r="D22" s="145" t="s">
         <v>291</v>
       </c>
@@ -12443,21 +12417,21 @@
         <v>139</v>
       </c>
       <c r="B23" s="214" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C23" s="144"/>
-      <c r="D23" s="283"/>
+      <c r="D23" s="280"/>
       <c r="E23" s="198" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F23" s="198" t="s">
-        <v>350</v>
-      </c>
-      <c r="G23" s="228"/>
+        <v>349</v>
+      </c>
+      <c r="G23" s="227"/>
       <c r="H23" s="198" t="s">
-        <v>610</v>
-      </c>
-      <c r="I23" s="229"/>
+        <v>608</v>
+      </c>
+      <c r="I23" s="228"/>
     </row>
     <row r="24" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="77" t="s">
@@ -12469,130 +12443,130 @@
       <c r="C24" s="206" t="s">
         <v>313</v>
       </c>
-      <c r="D24" s="583"/>
+      <c r="D24" s="300"/>
       <c r="E24" s="206" t="s">
         <v>317</v>
       </c>
-      <c r="F24" s="558"/>
+      <c r="F24" s="289"/>
       <c r="G24" s="206" t="s">
         <v>318</v>
       </c>
       <c r="H24" s="206" t="s">
         <v>320</v>
       </c>
-      <c r="I24" s="584"/>
+      <c r="I24" s="301"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="585" t="s">
+      <c r="A25" s="588" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="545"/>
-      <c r="C25" s="545"/>
-      <c r="D25" s="545"/>
-      <c r="E25" s="545"/>
-      <c r="F25" s="545"/>
-      <c r="G25" s="545"/>
-      <c r="H25" s="545"/>
-      <c r="I25" s="546"/>
+      <c r="B25" s="589"/>
+      <c r="C25" s="589"/>
+      <c r="D25" s="589"/>
+      <c r="E25" s="589"/>
+      <c r="F25" s="589"/>
+      <c r="G25" s="589"/>
+      <c r="H25" s="589"/>
+      <c r="I25" s="590"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="581" t="s">
-        <v>517</v>
-      </c>
-      <c r="C26" s="552"/>
-      <c r="D26" s="552"/>
-      <c r="E26" s="551" t="s">
-        <v>514</v>
-      </c>
-      <c r="F26" s="551"/>
-      <c r="G26" s="518" t="s">
+      <c r="B26" s="582" t="s">
+        <v>515</v>
+      </c>
+      <c r="C26" s="583"/>
+      <c r="D26" s="583"/>
+      <c r="E26" s="584" t="s">
         <v>512</v>
       </c>
-      <c r="H26" s="518"/>
-      <c r="I26" s="582"/>
+      <c r="F26" s="584"/>
+      <c r="G26" s="560" t="s">
+        <v>510</v>
+      </c>
+      <c r="H26" s="560"/>
+      <c r="I26" s="581"/>
       <c r="J26" s="86"/>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="516" t="s">
-        <v>518</v>
-      </c>
-      <c r="C27" s="508"/>
-      <c r="D27" s="508"/>
-      <c r="E27" s="514" t="s">
-        <v>515</v>
-      </c>
-      <c r="F27" s="514"/>
-      <c r="G27" s="514" t="s">
-        <v>564</v>
-      </c>
-      <c r="H27" s="514"/>
-      <c r="I27" s="515"/>
+      <c r="B27" s="558" t="s">
+        <v>516</v>
+      </c>
+      <c r="C27" s="550"/>
+      <c r="D27" s="550"/>
+      <c r="E27" s="549" t="s">
+        <v>513</v>
+      </c>
+      <c r="F27" s="549"/>
+      <c r="G27" s="549" t="s">
+        <v>562</v>
+      </c>
+      <c r="H27" s="549"/>
+      <c r="I27" s="557"/>
       <c r="J27" s="86"/>
     </row>
     <row r="28" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="553" t="s">
-        <v>531</v>
-      </c>
-      <c r="C28" s="527"/>
-      <c r="D28" s="527"/>
-      <c r="E28" s="284" t="s">
-        <v>436</v>
+      <c r="B28" s="586" t="s">
+        <v>529</v>
+      </c>
+      <c r="C28" s="546"/>
+      <c r="D28" s="546"/>
+      <c r="E28" s="281" t="s">
+        <v>435</v>
       </c>
       <c r="F28" s="157"/>
-      <c r="G28" s="507" t="s">
-        <v>513</v>
-      </c>
-      <c r="H28" s="507"/>
-      <c r="I28" s="575"/>
+      <c r="G28" s="553" t="s">
+        <v>511</v>
+      </c>
+      <c r="H28" s="553"/>
+      <c r="I28" s="585"/>
       <c r="J28" s="86"/>
     </row>
     <row r="29" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="77" t="s">
-        <v>572</v>
-      </c>
-      <c r="B29" s="548" t="s">
-        <v>563</v>
-      </c>
-      <c r="C29" s="514"/>
-      <c r="D29" s="514"/>
+        <v>570</v>
+      </c>
+      <c r="B29" s="580" t="s">
+        <v>561</v>
+      </c>
+      <c r="C29" s="549"/>
+      <c r="D29" s="549"/>
       <c r="E29" s="150"/>
       <c r="F29" s="157"/>
-      <c r="G29" s="514" t="s">
-        <v>565</v>
-      </c>
-      <c r="H29" s="514"/>
-      <c r="I29" s="515"/>
+      <c r="G29" s="549" t="s">
+        <v>563</v>
+      </c>
+      <c r="H29" s="549"/>
+      <c r="I29" s="557"/>
       <c r="J29" s="86"/>
     </row>
     <row r="30" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="516" t="s">
-        <v>573</v>
-      </c>
-      <c r="C30" s="508"/>
-      <c r="D30" s="508"/>
-      <c r="E30" s="284" t="s">
-        <v>596</v>
-      </c>
-      <c r="F30" s="284" t="s">
-        <v>595</v>
-      </c>
-      <c r="G30" s="513" t="s">
-        <v>495</v>
-      </c>
-      <c r="H30" s="513"/>
-      <c r="I30" s="537"/>
+      <c r="B30" s="558" t="s">
+        <v>571</v>
+      </c>
+      <c r="C30" s="550"/>
+      <c r="D30" s="550"/>
+      <c r="E30" s="281" t="s">
+        <v>594</v>
+      </c>
+      <c r="F30" s="281" t="s">
+        <v>593</v>
+      </c>
+      <c r="G30" s="556" t="s">
+        <v>493</v>
+      </c>
+      <c r="H30" s="556"/>
+      <c r="I30" s="587"/>
       <c r="J30" s="86"/>
     </row>
     <row r="31" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12600,36 +12574,40 @@
         <v>173</v>
       </c>
       <c r="B31" s="172"/>
-      <c r="C31" s="527" t="s">
-        <v>516</v>
-      </c>
-      <c r="D31" s="527"/>
-      <c r="E31" s="527"/>
+      <c r="C31" s="546" t="s">
+        <v>514</v>
+      </c>
+      <c r="D31" s="546"/>
+      <c r="E31" s="546"/>
       <c r="F31" s="157"/>
-      <c r="G31" s="513" t="s">
-        <v>494</v>
-      </c>
-      <c r="H31" s="513"/>
-      <c r="I31" s="537"/>
+      <c r="G31" s="556" t="s">
+        <v>492</v>
+      </c>
+      <c r="H31" s="556"/>
+      <c r="I31" s="587"/>
     </row>
     <row r="32" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="547" t="s">
-        <v>498</v>
-      </c>
-      <c r="C32" s="539"/>
-      <c r="D32" s="238"/>
-      <c r="E32" s="238"/>
-      <c r="F32" s="231"/>
-      <c r="G32" s="238"/>
-      <c r="H32" s="235"/>
-      <c r="I32" s="240"/>
+      <c r="B32" s="578" t="s">
+        <v>496</v>
+      </c>
+      <c r="C32" s="579"/>
+      <c r="D32" s="237"/>
+      <c r="E32" s="237"/>
+      <c r="F32" s="230"/>
+      <c r="G32" s="237"/>
+      <c r="H32" s="234"/>
+      <c r="I32" s="239"/>
       <c r="J32" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B32:C32"/>
@@ -12646,10 +12624,6 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="G31:I31"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.21" top="0.23" bottom="0.22" header="0.17" footer="0.17"/>

--- a/include/BSCS.xlsx
+++ b/include/BSCS.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="663">
   <si>
     <t>National University</t>
   </si>
@@ -957,9 +957,6 @@
   </si>
   <si>
     <t xml:space="preserve">Eng-F2                                                Hafza                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eng-G2                                                Hafza                               </t>
   </si>
   <si>
     <t xml:space="preserve">Eng-I1                                                Hafza                               </t>
@@ -1849,15 +1846,9 @@
     <t>Eng-Lab I2                                                                                            Kishwar</t>
   </si>
   <si>
-    <t>Ms. Hubrah Razi(A1,B1,D2,E1,G2,I1), Ms. Kishwar Nazli(C1,D1,F2,G1,H1,I2), Mr. TBA (A2,B2,C2,), Ms. TBA (E2,F1,H2)</t>
-  </si>
-  <si>
     <t>Discrete-A                            Shoaib Raza</t>
   </si>
   <si>
-    <t>Ms. Nazia Imam (B1,D1,F1), Ms. Faiza Mumtaz (A1,C1,E1), Mr. Javed Iqbal (A2,C2,E2,I2), Mr. Ahmed Bux (B2,D2,H1), Ms. Hafsa Yusra (F2,G2,I1), Ms. Sabeen Amjad (H2,G1)</t>
-  </si>
-  <si>
     <t>FA-Gr2(D,E,F,G)                                         Ahsan</t>
   </si>
   <si>
@@ -2017,9 +2008,6 @@
     <t xml:space="preserve">AP-E                                Rabia                                         </t>
   </si>
   <si>
-    <t>Mr. Shoaib Raza</t>
-  </si>
-  <si>
     <t>Mr. M. Shahzad</t>
   </si>
   <si>
@@ -2035,10 +2023,25 @@
     <t>PIT-G                                     Khalid</t>
   </si>
   <si>
-    <t>07th September 2018</t>
-  </si>
-  <si>
-    <t>10th September 2018</t>
+    <t>Mr. Shoaib Raza(Gr1),Mr. Abdul Rehman(Gr2)</t>
+  </si>
+  <si>
+    <t>Ms. Hubrah Razi(A1,A2,B1,B2,D2,E1,E2,G2,I1),                           Ms. Kishwar Nazli(C1,C2,D1,F1,F2,G1,H1,H2,I2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eng-G2                                                Afsheen                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eng-G2                                                Afsheen                            </t>
+  </si>
+  <si>
+    <t>Ms. Nazia Imam (B1,D1,F1), Ms. Faiza Mumtaz (A1,C1,E1), Mr. Javed Iqbal (A2,C2,E2,I2), Mr. Ahmed Bux (B2,D2,H1), Ms. Hafsa Yusra (F2,I1), Ms. Sabeen Amjad (H2,G1),Ms. Afsheen Zehra(G2)</t>
+  </si>
+  <si>
+    <t>17th September 2018</t>
+  </si>
+  <si>
+    <t>14th September 2018</t>
   </si>
 </sst>
 </file>
@@ -3374,7 +3377,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="611">
+  <cellXfs count="615">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3851,9 +3854,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4003,9 +4003,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4206,28 +4203,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4272,6 +4272,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4611,6 +4626,144 @@
     <xf numFmtId="0" fontId="25" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4713,142 +4866,43 @@
     <xf numFmtId="0" fontId="20" fillId="18" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4874,58 +4928,7 @@
     <xf numFmtId="0" fontId="53" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4948,6 +4951,9 @@
     <xf numFmtId="0" fontId="26" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4963,34 +4969,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5002,10 +4987,34 @@
     <xf numFmtId="0" fontId="26" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5024,6 +5033,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5682,16 +5697,16 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="326" t="s">
+      <c r="H12" s="344" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="326"/>
-      <c r="J12" s="326"/>
-      <c r="K12" s="326"/>
-      <c r="L12" s="326"/>
-      <c r="M12" s="326"/>
-      <c r="N12" s="326"/>
-      <c r="O12" s="326"/>
+      <c r="I12" s="344"/>
+      <c r="J12" s="344"/>
+      <c r="K12" s="344"/>
+      <c r="L12" s="344"/>
+      <c r="M12" s="344"/>
+      <c r="N12" s="344"/>
+      <c r="O12" s="344"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -5705,17 +5720,17 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="327" t="s">
+      <c r="H13" s="345" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="327"/>
-      <c r="J13" s="327"/>
-      <c r="K13" s="327"/>
-      <c r="L13" s="327"/>
-      <c r="M13" s="327"/>
-      <c r="N13" s="327"/>
-      <c r="O13" s="327"/>
-      <c r="P13" s="327"/>
+      <c r="I13" s="345"/>
+      <c r="J13" s="345"/>
+      <c r="K13" s="345"/>
+      <c r="L13" s="345"/>
+      <c r="M13" s="345"/>
+      <c r="N13" s="345"/>
+      <c r="O13" s="345"/>
+      <c r="P13" s="345"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="7"/>
@@ -5728,17 +5743,17 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="328" t="s">
+      <c r="H14" s="346" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="328"/>
-      <c r="J14" s="328"/>
-      <c r="K14" s="328"/>
-      <c r="L14" s="328"/>
-      <c r="M14" s="328"/>
-      <c r="N14" s="328"/>
-      <c r="O14" s="328"/>
-      <c r="P14" s="328"/>
+      <c r="I14" s="346"/>
+      <c r="J14" s="346"/>
+      <c r="K14" s="346"/>
+      <c r="L14" s="346"/>
+      <c r="M14" s="346"/>
+      <c r="N14" s="346"/>
+      <c r="O14" s="346"/>
+      <c r="P14" s="346"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="7"/>
@@ -5751,17 +5766,17 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="329" t="s">
+      <c r="H15" s="347" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="329"/>
-      <c r="J15" s="329"/>
-      <c r="K15" s="329"/>
-      <c r="L15" s="329"/>
-      <c r="M15" s="329"/>
-      <c r="N15" s="329"/>
-      <c r="O15" s="329"/>
-      <c r="P15" s="329"/>
+      <c r="I15" s="347"/>
+      <c r="J15" s="347"/>
+      <c r="K15" s="347"/>
+      <c r="L15" s="347"/>
+      <c r="M15" s="347"/>
+      <c r="N15" s="347"/>
+      <c r="O15" s="347"/>
+      <c r="P15" s="347"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="7"/>
@@ -5774,17 +5789,17 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="330" t="s">
+      <c r="H16" s="348" t="s">
         <v>203</v>
       </c>
-      <c r="I16" s="330"/>
-      <c r="J16" s="330"/>
-      <c r="K16" s="330"/>
-      <c r="L16" s="330"/>
-      <c r="M16" s="330"/>
-      <c r="N16" s="330"/>
-      <c r="O16" s="330"/>
-      <c r="P16" s="330"/>
+      <c r="I16" s="348"/>
+      <c r="J16" s="348"/>
+      <c r="K16" s="348"/>
+      <c r="L16" s="348"/>
+      <c r="M16" s="348"/>
+      <c r="N16" s="348"/>
+      <c r="O16" s="348"/>
+      <c r="P16" s="348"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="7"/>
@@ -5967,13 +5982,13 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="333" t="s">
+      <c r="O24" s="332" t="s">
         <v>6</v>
       </c>
-      <c r="P24" s="334"/>
-      <c r="Q24" s="334"/>
-      <c r="R24" s="334"/>
-      <c r="S24" s="335"/>
+      <c r="P24" s="333"/>
+      <c r="Q24" s="333"/>
+      <c r="R24" s="333"/>
+      <c r="S24" s="334"/>
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="2:20" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5990,13 +6005,13 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="336" t="s">
+      <c r="O25" s="335" t="s">
         <v>199</v>
       </c>
-      <c r="P25" s="337"/>
-      <c r="Q25" s="337"/>
-      <c r="R25" s="337"/>
-      <c r="S25" s="338"/>
+      <c r="P25" s="336"/>
+      <c r="Q25" s="336"/>
+      <c r="R25" s="336"/>
+      <c r="S25" s="337"/>
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="2:20" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6005,23 +6020,23 @@
       <c r="D26" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="331" t="s">
-        <v>660</v>
-      </c>
-      <c r="F26" s="331"/>
-      <c r="G26" s="331"/>
-      <c r="H26" s="331"/>
-      <c r="I26" s="331"/>
+      <c r="E26" s="330" t="s">
+        <v>662</v>
+      </c>
+      <c r="F26" s="330"/>
+      <c r="G26" s="330"/>
+      <c r="H26" s="330"/>
+      <c r="I26" s="330"/>
       <c r="J26" s="104"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="339"/>
-      <c r="P26" s="340"/>
-      <c r="Q26" s="340"/>
-      <c r="R26" s="340"/>
-      <c r="S26" s="341"/>
+      <c r="O26" s="338"/>
+      <c r="P26" s="339"/>
+      <c r="Q26" s="339"/>
+      <c r="R26" s="339"/>
+      <c r="S26" s="340"/>
       <c r="T26" s="7"/>
     </row>
     <row r="27" spans="2:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6031,24 +6046,24 @@
         <v>8</v>
       </c>
       <c r="E27" s="101"/>
-      <c r="F27" s="332" t="s">
+      <c r="F27" s="331" t="s">
         <v>661</v>
       </c>
-      <c r="G27" s="332"/>
-      <c r="H27" s="332"/>
+      <c r="G27" s="331"/>
+      <c r="H27" s="331"/>
       <c r="I27" s="102"/>
       <c r="J27" s="106"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="342" t="s">
+      <c r="O27" s="341" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="343"/>
-      <c r="Q27" s="343"/>
-      <c r="R27" s="343"/>
-      <c r="S27" s="344"/>
+      <c r="P27" s="342"/>
+      <c r="Q27" s="342"/>
+      <c r="R27" s="342"/>
+      <c r="S27" s="343"/>
       <c r="T27" s="7"/>
     </row>
     <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6114,16 +6129,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="H14:P14"/>
+    <mergeCell ref="H15:P15"/>
+    <mergeCell ref="H16:P16"/>
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="O24:S24"/>
     <mergeCell ref="O25:S26"/>
     <mergeCell ref="O27:S27"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="H13:P13"/>
-    <mergeCell ref="H14:P14"/>
-    <mergeCell ref="H15:P15"/>
-    <mergeCell ref="H16:P16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6244,164 +6259,164 @@
       <c r="A5" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="308"/>
-      <c r="C5" s="318" t="s">
-        <v>405</v>
-      </c>
-      <c r="D5" s="318" t="s">
+      <c r="B5" s="306"/>
+      <c r="C5" s="326" t="s">
         <v>404</v>
       </c>
-      <c r="E5" s="167"/>
-      <c r="F5" s="318" t="s">
-        <v>392</v>
-      </c>
-      <c r="G5" s="318" t="s">
-        <v>391</v>
-      </c>
+      <c r="D5" s="326" t="s">
+        <v>403</v>
+      </c>
+      <c r="E5" s="323" t="s">
+        <v>417</v>
+      </c>
+      <c r="F5" s="323" t="s">
+        <v>418</v>
+      </c>
+      <c r="G5" s="320"/>
       <c r="H5" s="167"/>
-      <c r="I5" s="307"/>
+      <c r="I5" s="305"/>
     </row>
     <row r="6" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="204" t="s">
-        <v>555</v>
+      <c r="B6" s="203" t="s">
+        <v>554</v>
       </c>
       <c r="C6" s="145" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D6" s="159" t="s">
+        <v>394</v>
+      </c>
+      <c r="E6" s="197" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" s="197" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" s="243"/>
+      <c r="H6" s="159" t="s">
         <v>395</v>
       </c>
-      <c r="E6" s="198" t="s">
-        <v>328</v>
-      </c>
-      <c r="F6" s="198" t="s">
-        <v>329</v>
-      </c>
-      <c r="G6" s="245"/>
-      <c r="H6" s="159" t="s">
-        <v>396</v>
-      </c>
-      <c r="I6" s="293" t="s">
-        <v>394</v>
+      <c r="I6" s="291" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="204" t="s">
-        <v>551</v>
+      <c r="B7" s="203" t="s">
+        <v>550</v>
       </c>
       <c r="C7" s="145" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D7" s="147" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E7" s="145" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F7" s="147" t="s">
-        <v>603</v>
-      </c>
-      <c r="G7" s="322"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="246"/>
+        <v>600</v>
+      </c>
+      <c r="G7" s="320"/>
+      <c r="H7" s="243"/>
+      <c r="I7" s="244"/>
     </row>
     <row r="8" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="203" t="s">
-        <v>429</v>
-      </c>
-      <c r="C8" s="281" t="s">
+      <c r="B8" s="328" t="s">
         <v>428</v>
       </c>
+      <c r="C8" s="279" t="s">
+        <v>427</v>
+      </c>
       <c r="D8" s="144"/>
-      <c r="E8" s="198" t="s">
+      <c r="E8" s="197" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="197" t="s">
         <v>330</v>
       </c>
-      <c r="F8" s="198" t="s">
-        <v>331</v>
-      </c>
-      <c r="G8" s="245"/>
+      <c r="G8" s="243"/>
       <c r="H8" s="144"/>
-      <c r="I8" s="247"/>
+      <c r="I8" s="245"/>
     </row>
     <row r="9" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="204" t="s">
-        <v>557</v>
-      </c>
-      <c r="C9" s="314" t="s">
-        <v>413</v>
-      </c>
-      <c r="D9" s="314" t="s">
+      <c r="B9" s="203" t="s">
+        <v>556</v>
+      </c>
+      <c r="C9" s="323" t="s">
         <v>412</v>
       </c>
-      <c r="E9" s="314" t="s">
+      <c r="D9" s="323" t="s">
+        <v>411</v>
+      </c>
+      <c r="E9" s="323" t="s">
+        <v>422</v>
+      </c>
+      <c r="F9" s="159" t="s">
+        <v>396</v>
+      </c>
+      <c r="G9" s="243"/>
+      <c r="H9" s="323" t="s">
+        <v>424</v>
+      </c>
+      <c r="I9" s="324" t="s">
         <v>423</v>
-      </c>
-      <c r="F9" s="159" t="s">
-        <v>397</v>
-      </c>
-      <c r="G9" s="245"/>
-      <c r="H9" s="314" t="s">
-        <v>425</v>
-      </c>
-      <c r="I9" s="315" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="203" t="s">
-        <v>465</v>
-      </c>
-      <c r="C10" s="281" t="s">
-        <v>590</v>
-      </c>
-      <c r="D10" s="286"/>
-      <c r="E10" s="314" t="s">
+      <c r="B10" s="328" t="s">
+        <v>464</v>
+      </c>
+      <c r="C10" s="279" t="s">
+        <v>589</v>
+      </c>
+      <c r="D10" s="284"/>
+      <c r="E10" s="323" t="s">
+        <v>400</v>
+      </c>
+      <c r="F10" s="323" t="s">
         <v>401</v>
-      </c>
-      <c r="F10" s="314" t="s">
-        <v>402</v>
       </c>
       <c r="G10" s="144"/>
       <c r="H10" s="144"/>
-      <c r="I10" s="222"/>
+      <c r="I10" s="221"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="204" t="s">
-        <v>539</v>
-      </c>
-      <c r="C11" s="314" t="s">
-        <v>417</v>
-      </c>
-      <c r="D11" s="314" t="s">
-        <v>418</v>
-      </c>
-      <c r="E11" s="314" t="s">
+      <c r="B11" s="203" t="s">
+        <v>538</v>
+      </c>
+      <c r="C11" s="323" t="s">
+        <v>416</v>
+      </c>
+      <c r="D11" s="320"/>
+      <c r="E11" s="323" t="s">
         <v>184</v>
       </c>
-      <c r="F11" s="314" t="s">
-        <v>419</v>
-      </c>
-      <c r="G11" s="144"/>
+      <c r="F11" s="326" t="s">
+        <v>391</v>
+      </c>
+      <c r="G11" s="326" t="s">
+        <v>390</v>
+      </c>
       <c r="H11" s="145" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I11" s="168"/>
     </row>
@@ -6409,100 +6424,100 @@
       <c r="A12" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="316" t="s">
-        <v>422</v>
-      </c>
-      <c r="C12" s="314" t="s">
+      <c r="B12" s="325" t="s">
         <v>421</v>
+      </c>
+      <c r="C12" s="323" t="s">
+        <v>420</v>
       </c>
       <c r="D12" s="159" t="s">
         <v>187</v>
       </c>
-      <c r="E12" s="314" t="s">
-        <v>403</v>
+      <c r="E12" s="323" t="s">
+        <v>402</v>
       </c>
       <c r="F12" s="159" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G12" s="144"/>
       <c r="H12" s="159" t="s">
-        <v>399</v>
-      </c>
-      <c r="I12" s="293" t="s">
         <v>398</v>
+      </c>
+      <c r="I12" s="291" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="203" t="s">
-        <v>591</v>
-      </c>
-      <c r="C13" s="281" t="s">
-        <v>471</v>
-      </c>
-      <c r="D13" s="281" t="s">
-        <v>467</v>
-      </c>
-      <c r="E13" s="281" t="s">
+      <c r="B13" s="328" t="s">
+        <v>590</v>
+      </c>
+      <c r="C13" s="279" t="s">
+        <v>470</v>
+      </c>
+      <c r="D13" s="279" t="s">
         <v>466</v>
       </c>
-      <c r="F13" s="281" t="s">
-        <v>445</v>
-      </c>
-      <c r="G13" s="235" t="s">
-        <v>327</v>
-      </c>
-      <c r="H13" s="322"/>
-      <c r="I13" s="282" t="s">
-        <v>659</v>
+      <c r="E13" s="279" t="s">
+        <v>465</v>
+      </c>
+      <c r="F13" s="279" t="s">
+        <v>444</v>
+      </c>
+      <c r="G13" s="234" t="s">
+        <v>326</v>
+      </c>
+      <c r="H13" s="320"/>
+      <c r="I13" s="280" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="203" t="s">
+      <c r="B14" s="328" t="s">
+        <v>431</v>
+      </c>
+      <c r="C14" s="279" t="s">
+        <v>433</v>
+      </c>
+      <c r="D14" s="279" t="s">
+        <v>436</v>
+      </c>
+      <c r="E14" s="279" t="s">
+        <v>586</v>
+      </c>
+      <c r="F14" s="279" t="s">
         <v>432</v>
       </c>
-      <c r="C14" s="281" t="s">
-        <v>434</v>
-      </c>
-      <c r="D14" s="281" t="s">
-        <v>437</v>
-      </c>
-      <c r="E14" s="281" t="s">
-        <v>587</v>
-      </c>
-      <c r="F14" s="281" t="s">
-        <v>433</v>
-      </c>
-      <c r="G14" s="281" t="s">
-        <v>437</v>
-      </c>
-      <c r="H14" s="281" t="s">
-        <v>647</v>
+      <c r="G14" s="279" t="s">
+        <v>436</v>
+      </c>
+      <c r="H14" s="279" t="s">
+        <v>644</v>
       </c>
       <c r="I14" s="168"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="77" t="s">
-        <v>595</v>
-      </c>
-      <c r="B15" s="554" t="s">
-        <v>641</v>
+        <v>594</v>
+      </c>
+      <c r="B15" s="546" t="s">
+        <v>638</v>
       </c>
       <c r="C15" s="547"/>
-      <c r="D15" s="281" t="s">
-        <v>438</v>
-      </c>
-      <c r="E15" s="281" t="s">
-        <v>448</v>
+      <c r="D15" s="279" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" s="279" t="s">
+        <v>447</v>
       </c>
       <c r="F15" s="144"/>
-      <c r="G15" s="281" t="s">
-        <v>438</v>
+      <c r="G15" s="279" t="s">
+        <v>437</v>
       </c>
       <c r="H15" s="144"/>
       <c r="I15" s="168"/>
@@ -6513,16 +6528,16 @@
       </c>
       <c r="B16" s="172"/>
       <c r="C16" s="144"/>
-      <c r="D16" s="245"/>
-      <c r="E16" s="198" t="s">
+      <c r="D16" s="243"/>
+      <c r="E16" s="197" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" s="197" t="s">
+        <v>335</v>
+      </c>
+      <c r="G16" s="248"/>
+      <c r="H16" s="197" t="s">
         <v>334</v>
-      </c>
-      <c r="F16" s="198" t="s">
-        <v>336</v>
-      </c>
-      <c r="G16" s="250"/>
-      <c r="H16" s="198" t="s">
-        <v>335</v>
       </c>
       <c r="I16" s="168"/>
     </row>
@@ -6530,18 +6545,18 @@
       <c r="A17" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="204" t="s">
+      <c r="B17" s="203" t="s">
         <v>297</v>
       </c>
       <c r="C17" s="145" t="s">
         <v>296</v>
       </c>
-      <c r="D17" s="286"/>
+      <c r="D17" s="284"/>
       <c r="E17" s="145" t="s">
         <v>295</v>
       </c>
-      <c r="F17" s="144"/>
-      <c r="G17" s="286"/>
+      <c r="F17" s="320"/>
+      <c r="G17" s="284"/>
       <c r="H17" s="144"/>
       <c r="I17" s="168"/>
     </row>
@@ -6557,14 +6572,14 @@
         <v>286</v>
       </c>
       <c r="E18" s="147" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F18" s="147" t="s">
+        <v>365</v>
+      </c>
+      <c r="G18" s="243"/>
+      <c r="H18" s="147" t="s">
         <v>366</v>
-      </c>
-      <c r="G18" s="245"/>
-      <c r="H18" s="147" t="s">
-        <v>367</v>
       </c>
       <c r="I18" s="168"/>
     </row>
@@ -6572,72 +6587,72 @@
       <c r="A19" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="204" t="s">
+      <c r="B19" s="203" t="s">
         <v>300</v>
       </c>
       <c r="C19" s="145" t="s">
         <v>299</v>
       </c>
-      <c r="D19" s="244"/>
+      <c r="D19" s="242"/>
       <c r="E19" s="145" t="s">
         <v>298</v>
       </c>
-      <c r="F19" s="245"/>
-      <c r="G19" s="245"/>
+      <c r="F19" s="243"/>
+      <c r="G19" s="243"/>
       <c r="H19" s="145" t="s">
-        <v>651</v>
-      </c>
-      <c r="I19" s="315" t="s">
-        <v>534</v>
+        <v>648</v>
+      </c>
+      <c r="I19" s="324" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="316" t="s">
-        <v>390</v>
+      <c r="B20" s="325" t="s">
+        <v>389</v>
       </c>
       <c r="C20" s="145" t="s">
+        <v>317</v>
+      </c>
+      <c r="D20" s="145" t="s">
+        <v>316</v>
+      </c>
+      <c r="E20" s="197" t="s">
+        <v>331</v>
+      </c>
+      <c r="F20" s="197" t="s">
+        <v>332</v>
+      </c>
+      <c r="G20" s="323" t="s">
+        <v>389</v>
+      </c>
+      <c r="H20" s="145" t="s">
         <v>318</v>
       </c>
-      <c r="D20" s="145" t="s">
-        <v>317</v>
-      </c>
-      <c r="E20" s="198" t="s">
-        <v>332</v>
-      </c>
-      <c r="F20" s="198" t="s">
-        <v>333</v>
-      </c>
-      <c r="G20" s="314" t="s">
-        <v>390</v>
-      </c>
-      <c r="H20" s="145" t="s">
+      <c r="I20" s="165" t="s">
         <v>319</v>
-      </c>
-      <c r="I20" s="165" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="174" t="s">
-        <v>596</v>
-      </c>
-      <c r="B21" s="204" t="s">
+        <v>595</v>
+      </c>
+      <c r="B21" s="203" t="s">
         <v>304</v>
       </c>
-      <c r="C21" s="285"/>
-      <c r="D21" s="285"/>
+      <c r="C21" s="283"/>
+      <c r="D21" s="283"/>
       <c r="E21" s="145" t="s">
         <v>305</v>
       </c>
       <c r="F21" s="145" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G21" s="144"/>
-      <c r="H21" s="314" t="s">
-        <v>379</v>
+      <c r="H21" s="323" t="s">
+        <v>378</v>
       </c>
       <c r="I21" s="165" t="s">
         <v>303</v>
@@ -6647,85 +6662,83 @@
       <c r="A22" s="174" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="204" t="s">
+      <c r="B22" s="203" t="s">
         <v>291</v>
       </c>
       <c r="C22" s="145" t="s">
+        <v>482</v>
+      </c>
+      <c r="D22" s="145" t="s">
         <v>483</v>
       </c>
-      <c r="D22" s="145" t="s">
-        <v>484</v>
-      </c>
       <c r="E22" s="145" t="s">
-        <v>483</v>
-      </c>
-      <c r="F22" s="145" t="s">
-        <v>294</v>
-      </c>
-      <c r="G22" s="245"/>
+        <v>482</v>
+      </c>
+      <c r="F22" s="320"/>
+      <c r="G22" s="243"/>
       <c r="H22" s="145" t="s">
         <v>301</v>
       </c>
-      <c r="I22" s="165" t="s">
-        <v>302</v>
-      </c>
+      <c r="I22" s="290"/>
     </row>
     <row r="23" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="243"/>
-      <c r="C23" s="145" t="s">
-        <v>309</v>
-      </c>
-      <c r="D23" s="245"/>
+      <c r="B23" s="241"/>
+      <c r="C23" s="320"/>
+      <c r="D23" s="243"/>
       <c r="E23" s="145" t="s">
         <v>308</v>
       </c>
       <c r="F23" s="145" t="s">
         <v>285</v>
       </c>
-      <c r="G23" s="245"/>
+      <c r="G23" s="243"/>
       <c r="H23" s="145" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I23" s="165" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="173" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="218" t="s">
+      <c r="B24" s="216" t="s">
         <v>307</v>
       </c>
-      <c r="C24" s="323"/>
-      <c r="D24" s="179" t="s">
-        <v>311</v>
-      </c>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
+      <c r="C24" s="329"/>
+      <c r="D24" s="205" t="s">
+        <v>310</v>
+      </c>
+      <c r="E24" s="205" t="s">
+        <v>302</v>
+      </c>
+      <c r="F24" s="216" t="s">
+        <v>294</v>
+      </c>
       <c r="G24" s="171"/>
       <c r="H24" s="171"/>
-      <c r="I24" s="221" t="s">
+      <c r="I24" s="220" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="593" t="s">
-        <v>643</v>
-      </c>
-      <c r="B25" s="594"/>
-      <c r="C25" s="594"/>
-      <c r="D25" s="594"/>
-      <c r="E25" s="594"/>
-      <c r="F25" s="595"/>
-      <c r="G25" s="291" t="s">
-        <v>648</v>
-      </c>
-      <c r="H25" s="596"/>
-      <c r="I25" s="597"/>
+      <c r="A25" s="595" t="s">
+        <v>640</v>
+      </c>
+      <c r="B25" s="596"/>
+      <c r="C25" s="596"/>
+      <c r="D25" s="596"/>
+      <c r="E25" s="596"/>
+      <c r="F25" s="597"/>
+      <c r="G25" s="289" t="s">
+        <v>645</v>
+      </c>
+      <c r="H25" s="598"/>
+      <c r="I25" s="599"/>
     </row>
     <row r="26" spans="1:9" s="80" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="568" t="s">
@@ -6744,93 +6757,93 @@
       <c r="A27" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="582" t="s">
-        <v>567</v>
-      </c>
-      <c r="C27" s="583"/>
-      <c r="D27" s="583"/>
-      <c r="E27" s="313"/>
-      <c r="F27" s="313"/>
-      <c r="G27" s="313"/>
-      <c r="H27" s="584" t="s">
-        <v>517</v>
-      </c>
-      <c r="I27" s="598"/>
+      <c r="B27" s="589" t="s">
+        <v>566</v>
+      </c>
+      <c r="C27" s="590"/>
+      <c r="D27" s="590"/>
+      <c r="E27" s="311"/>
+      <c r="F27" s="311"/>
+      <c r="G27" s="311"/>
+      <c r="H27" s="591" t="s">
+        <v>516</v>
+      </c>
+      <c r="I27" s="600"/>
     </row>
     <row r="28" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="558" t="s">
-        <v>533</v>
-      </c>
-      <c r="C28" s="550"/>
-      <c r="D28" s="550"/>
-      <c r="E28" s="255"/>
-      <c r="F28" s="255"/>
-      <c r="G28" s="255"/>
-      <c r="H28" s="549" t="s">
-        <v>642</v>
-      </c>
-      <c r="I28" s="557"/>
+      <c r="B28" s="552" t="s">
+        <v>532</v>
+      </c>
+      <c r="C28" s="544"/>
+      <c r="D28" s="544"/>
+      <c r="E28" s="253"/>
+      <c r="F28" s="253"/>
+      <c r="G28" s="253"/>
+      <c r="H28" s="550" t="s">
+        <v>639</v>
+      </c>
+      <c r="I28" s="551"/>
     </row>
     <row r="29" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="586" t="s">
-        <v>531</v>
-      </c>
-      <c r="C29" s="546"/>
-      <c r="D29" s="546"/>
-      <c r="E29" s="245"/>
-      <c r="F29" s="253"/>
-      <c r="G29" s="245"/>
-      <c r="H29" s="245"/>
-      <c r="I29" s="247"/>
+      <c r="B29" s="593" t="s">
+        <v>530</v>
+      </c>
+      <c r="C29" s="563"/>
+      <c r="D29" s="563"/>
+      <c r="E29" s="243"/>
+      <c r="F29" s="251"/>
+      <c r="G29" s="243"/>
+      <c r="H29" s="243"/>
+      <c r="I29" s="245"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="77" t="s">
-        <v>570</v>
-      </c>
-      <c r="B30" s="580" t="s">
-        <v>518</v>
-      </c>
-      <c r="C30" s="549"/>
-      <c r="D30" s="322"/>
+        <v>569</v>
+      </c>
+      <c r="B30" s="587" t="s">
+        <v>517</v>
+      </c>
+      <c r="C30" s="550"/>
+      <c r="D30" s="320"/>
       <c r="E30" s="144"/>
-      <c r="F30" s="253"/>
-      <c r="G30" s="286"/>
+      <c r="F30" s="251"/>
+      <c r="G30" s="284"/>
       <c r="H30" s="144"/>
-      <c r="I30" s="292"/>
+      <c r="I30" s="290"/>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="558" t="s">
-        <v>572</v>
-      </c>
-      <c r="C31" s="550"/>
-      <c r="D31" s="550"/>
-      <c r="E31" s="245"/>
-      <c r="F31" s="254"/>
-      <c r="G31" s="257"/>
-      <c r="H31" s="257"/>
-      <c r="I31" s="295"/>
+      <c r="B31" s="552" t="s">
+        <v>571</v>
+      </c>
+      <c r="C31" s="544"/>
+      <c r="D31" s="544"/>
+      <c r="E31" s="243"/>
+      <c r="F31" s="252"/>
+      <c r="G31" s="255"/>
+      <c r="H31" s="255"/>
+      <c r="I31" s="293"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="586" t="s">
-        <v>530</v>
-      </c>
-      <c r="C32" s="546"/>
-      <c r="D32" s="546"/>
-      <c r="E32" s="253"/>
-      <c r="F32" s="253"/>
-      <c r="G32" s="257"/>
+      <c r="B32" s="593" t="s">
+        <v>529</v>
+      </c>
+      <c r="C32" s="563"/>
+      <c r="D32" s="563"/>
+      <c r="E32" s="251"/>
+      <c r="F32" s="251"/>
+      <c r="G32" s="255"/>
       <c r="H32" s="144"/>
       <c r="I32" s="168"/>
     </row>
@@ -6838,32 +6851,38 @@
       <c r="A33" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="290"/>
-      <c r="C33" s="245"/>
-      <c r="D33" s="245"/>
-      <c r="E33" s="245"/>
-      <c r="F33" s="321"/>
-      <c r="G33" s="321"/>
-      <c r="H33" s="256"/>
-      <c r="I33" s="294"/>
+      <c r="B33" s="288"/>
+      <c r="C33" s="243"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="319"/>
+      <c r="G33" s="319"/>
+      <c r="H33" s="254"/>
+      <c r="I33" s="292"/>
     </row>
     <row r="34" spans="1:9" s="94" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="162" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="591" t="s">
-        <v>521</v>
-      </c>
-      <c r="C34" s="592"/>
-      <c r="D34" s="592"/>
-      <c r="E34" s="296"/>
-      <c r="F34" s="296"/>
-      <c r="G34" s="297"/>
-      <c r="H34" s="297"/>
-      <c r="I34" s="298"/>
+      <c r="B34" s="601" t="s">
+        <v>520</v>
+      </c>
+      <c r="C34" s="602"/>
+      <c r="D34" s="602"/>
+      <c r="E34" s="294"/>
+      <c r="F34" s="294"/>
+      <c r="G34" s="295"/>
+      <c r="H34" s="295"/>
+      <c r="I34" s="296"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A26:I26"/>
@@ -6873,12 +6892,6 @@
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.2" bottom="0.24" header="0.17" footer="0.17"/>
@@ -6995,169 +7008,169 @@
       <c r="I4" s="570"/>
     </row>
     <row r="5" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="223" t="s">
+      <c r="A5" s="222" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="317" t="s">
+      <c r="B5" s="315" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="316" t="s">
         <v>421</v>
       </c>
-      <c r="C5" s="318" t="s">
-        <v>422</v>
-      </c>
-      <c r="D5" s="258"/>
-      <c r="E5" s="318" t="s">
-        <v>573</v>
-      </c>
-      <c r="F5" s="224" t="s">
-        <v>392</v>
-      </c>
-      <c r="G5" s="601" t="s">
-        <v>478</v>
-      </c>
-      <c r="H5" s="317" t="s">
+      <c r="D5" s="256"/>
+      <c r="E5" s="316" t="s">
+        <v>572</v>
+      </c>
+      <c r="F5" s="223" t="s">
         <v>391</v>
       </c>
-      <c r="I5" s="263"/>
+      <c r="G5" s="605" t="s">
+        <v>477</v>
+      </c>
+      <c r="H5" s="315" t="s">
+        <v>390</v>
+      </c>
+      <c r="I5" s="261"/>
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="143" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" s="143" t="s">
         <v>360</v>
       </c>
-      <c r="C6" s="143" t="s">
-        <v>361</v>
-      </c>
       <c r="D6" s="144"/>
-      <c r="E6" s="245"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="204" t="s">
+      <c r="E6" s="243"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="606"/>
+      <c r="H6" s="203" t="s">
         <v>300</v>
       </c>
       <c r="I6" s="165" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="316" t="s">
+      <c r="B7" s="314" t="s">
+        <v>403</v>
+      </c>
+      <c r="C7" s="312" t="s">
         <v>404</v>
       </c>
-      <c r="C7" s="314" t="s">
-        <v>405</v>
-      </c>
-      <c r="D7" s="322"/>
+      <c r="D7" s="320"/>
       <c r="E7" s="144"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="602"/>
-      <c r="H7" s="204" t="s">
-        <v>318</v>
-      </c>
-      <c r="I7" s="246"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="606"/>
+      <c r="H7" s="203" t="s">
+        <v>317</v>
+      </c>
+      <c r="I7" s="244"/>
     </row>
     <row r="8" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="205" t="s">
-        <v>604</v>
+      <c r="B8" s="204" t="s">
+        <v>601</v>
       </c>
       <c r="C8" s="147" t="s">
-        <v>341</v>
-      </c>
-      <c r="D8" s="259"/>
-      <c r="E8" s="259"/>
-      <c r="F8" s="287"/>
-      <c r="G8" s="602"/>
-      <c r="H8" s="248"/>
-      <c r="I8" s="222"/>
+        <v>340</v>
+      </c>
+      <c r="D8" s="257"/>
+      <c r="E8" s="257"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="606"/>
+      <c r="H8" s="246"/>
+      <c r="I8" s="221"/>
     </row>
     <row r="9" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="316" t="s">
+      <c r="B9" s="314" t="s">
+        <v>417</v>
+      </c>
+      <c r="C9" s="312" t="s">
+        <v>416</v>
+      </c>
+      <c r="D9" s="284"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="318" t="s">
         <v>418</v>
       </c>
-      <c r="C9" s="314" t="s">
-        <v>417</v>
-      </c>
-      <c r="D9" s="286"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="320" t="s">
-        <v>419</v>
-      </c>
-      <c r="G9" s="602"/>
-      <c r="H9" s="248"/>
-      <c r="I9" s="249"/>
+      <c r="G9" s="606"/>
+      <c r="H9" s="246"/>
+      <c r="I9" s="247"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="248"/>
+      <c r="B10" s="246"/>
       <c r="C10" s="143" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D10" s="143" t="s">
+        <v>409</v>
+      </c>
+      <c r="E10" s="257"/>
+      <c r="F10" s="308" t="s">
         <v>410</v>
       </c>
-      <c r="E10" s="259"/>
-      <c r="F10" s="310" t="s">
-        <v>411</v>
-      </c>
-      <c r="G10" s="602"/>
-      <c r="H10" s="316" t="s">
+      <c r="G10" s="606"/>
+      <c r="H10" s="314" t="s">
+        <v>379</v>
+      </c>
+      <c r="I10" s="313" t="s">
         <v>380</v>
-      </c>
-      <c r="I10" s="315" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="203" t="s">
-        <v>463</v>
-      </c>
-      <c r="C11" s="314" t="s">
-        <v>574</v>
+      <c r="B11" s="202" t="s">
+        <v>462</v>
+      </c>
+      <c r="C11" s="312" t="s">
+        <v>573</v>
       </c>
       <c r="D11" s="144"/>
-      <c r="E11" s="314" t="s">
-        <v>420</v>
-      </c>
-      <c r="F11" s="225"/>
-      <c r="G11" s="602"/>
-      <c r="H11" s="316" t="s">
+      <c r="E11" s="312" t="s">
+        <v>419</v>
+      </c>
+      <c r="F11" s="224"/>
+      <c r="G11" s="606"/>
+      <c r="H11" s="314" t="s">
+        <v>381</v>
+      </c>
+      <c r="I11" s="313" t="s">
         <v>382</v>
-      </c>
-      <c r="I11" s="315" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="322"/>
-      <c r="C12" s="314" t="s">
-        <v>403</v>
+      <c r="B12" s="320"/>
+      <c r="C12" s="312" t="s">
+        <v>402</v>
       </c>
       <c r="D12" s="144"/>
-      <c r="E12" s="322"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="602"/>
-      <c r="H12" s="214" t="s">
-        <v>352</v>
-      </c>
-      <c r="I12" s="315" t="s">
-        <v>384</v>
+      <c r="E12" s="320"/>
+      <c r="F12" s="258"/>
+      <c r="G12" s="606"/>
+      <c r="H12" s="213" t="s">
+        <v>351</v>
+      </c>
+      <c r="I12" s="313" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7165,40 +7178,40 @@
         <v>137</v>
       </c>
       <c r="B13" s="143" t="s">
+        <v>357</v>
+      </c>
+      <c r="C13" s="143" t="s">
         <v>358</v>
       </c>
-      <c r="C13" s="143" t="s">
-        <v>359</v>
-      </c>
-      <c r="E13" s="286"/>
-      <c r="F13" s="261"/>
-      <c r="G13" s="602"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="252"/>
+      <c r="E13" s="284"/>
+      <c r="F13" s="259"/>
+      <c r="G13" s="606"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="250"/>
     </row>
     <row r="14" spans="1:9" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="248"/>
-      <c r="C14" s="286"/>
-      <c r="D14" s="245"/>
+      <c r="B14" s="246"/>
+      <c r="C14" s="284"/>
+      <c r="D14" s="243"/>
       <c r="E14" s="144"/>
-      <c r="F14" s="225"/>
-      <c r="G14" s="602"/>
+      <c r="F14" s="224"/>
+      <c r="G14" s="606"/>
       <c r="H14" s="172"/>
       <c r="I14" s="168"/>
     </row>
     <row r="15" spans="1:9" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="77" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B15" s="172"/>
       <c r="C15" s="144"/>
-      <c r="D15" s="245"/>
+      <c r="D15" s="243"/>
       <c r="E15" s="144"/>
-      <c r="F15" s="225"/>
-      <c r="G15" s="602"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="606"/>
       <c r="H15" s="172"/>
       <c r="I15" s="168"/>
     </row>
@@ -7206,47 +7219,47 @@
       <c r="A16" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="554" t="s">
-        <v>498</v>
+      <c r="B16" s="546" t="s">
+        <v>497</v>
       </c>
       <c r="C16" s="547"/>
       <c r="D16" s="147" t="s">
+        <v>368</v>
+      </c>
+      <c r="E16" s="147" t="s">
+        <v>370</v>
+      </c>
+      <c r="F16" s="181" t="s">
+        <v>598</v>
+      </c>
+      <c r="G16" s="606"/>
+      <c r="H16" s="213" t="s">
+        <v>347</v>
+      </c>
+      <c r="I16" s="182" t="s">
         <v>369</v>
-      </c>
-      <c r="E16" s="147" t="s">
-        <v>371</v>
-      </c>
-      <c r="F16" s="181" t="s">
-        <v>601</v>
-      </c>
-      <c r="G16" s="602"/>
-      <c r="H16" s="214" t="s">
-        <v>348</v>
-      </c>
-      <c r="I16" s="182" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="204" t="s">
+      <c r="B17" s="203" t="s">
         <v>303</v>
       </c>
       <c r="C17" s="145" t="s">
         <v>305</v>
       </c>
-      <c r="D17" s="244"/>
+      <c r="D17" s="242"/>
       <c r="E17" s="145" t="s">
         <v>287</v>
       </c>
-      <c r="F17" s="219" t="s">
+      <c r="F17" s="218" t="s">
         <v>290</v>
       </c>
-      <c r="G17" s="602"/>
-      <c r="H17" s="316" t="s">
-        <v>379</v>
+      <c r="G17" s="606"/>
+      <c r="H17" s="314" t="s">
+        <v>378</v>
       </c>
       <c r="I17" s="165" t="s">
         <v>304</v>
@@ -7256,160 +7269,157 @@
       <c r="A18" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="205" t="s">
+      <c r="B18" s="204" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" s="147" t="s">
         <v>342</v>
       </c>
-      <c r="C18" s="147" t="s">
+      <c r="D18" s="243"/>
+      <c r="E18" s="147" t="s">
         <v>343</v>
       </c>
-      <c r="D18" s="245"/>
-      <c r="E18" s="147" t="s">
-        <v>344</v>
-      </c>
-      <c r="F18" s="225"/>
-      <c r="G18" s="602"/>
-      <c r="H18" s="204" t="s">
+      <c r="F18" s="224"/>
+      <c r="G18" s="606"/>
+      <c r="H18" s="203" t="s">
         <v>297</v>
       </c>
-      <c r="I18" s="292"/>
+      <c r="I18" s="290"/>
     </row>
     <row r="19" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="204" t="s">
+      <c r="B19" s="203" t="s">
         <v>295</v>
       </c>
       <c r="C19" s="145" t="s">
         <v>296</v>
       </c>
-      <c r="D19" s="241"/>
-      <c r="E19" s="241"/>
+      <c r="D19" s="239"/>
+      <c r="E19" s="239"/>
       <c r="F19" s="181" t="s">
-        <v>566</v>
-      </c>
-      <c r="G19" s="602"/>
-      <c r="H19" s="214" t="s">
+        <v>565</v>
+      </c>
+      <c r="G19" s="606"/>
+      <c r="H19" s="213" t="s">
         <v>192</v>
       </c>
-      <c r="I19" s="315" t="s">
-        <v>646</v>
+      <c r="I19" s="313" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="204" t="s">
-        <v>540</v>
+      <c r="B20" s="203" t="s">
+        <v>539</v>
       </c>
       <c r="C20" s="145" t="s">
-        <v>545</v>
-      </c>
-      <c r="D20" s="244"/>
+        <v>544</v>
+      </c>
+      <c r="D20" s="242"/>
       <c r="E20" s="145" t="s">
         <v>294</v>
       </c>
-      <c r="F20" s="219" t="s">
+      <c r="F20" s="218" t="s">
         <v>292</v>
       </c>
-      <c r="G20" s="602"/>
-      <c r="H20" s="204" t="s">
-        <v>652</v>
+      <c r="G20" s="606"/>
+      <c r="H20" s="203" t="s">
+        <v>649</v>
       </c>
       <c r="I20" s="165" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="174" t="s">
-        <v>596</v>
-      </c>
-      <c r="B21" s="316" t="s">
-        <v>534</v>
+        <v>595</v>
+      </c>
+      <c r="B21" s="314" t="s">
+        <v>533</v>
       </c>
       <c r="C21" s="145" t="s">
         <v>308</v>
       </c>
-      <c r="D21" s="145" t="s">
+      <c r="E21" s="145" t="s">
+        <v>646</v>
+      </c>
+      <c r="F21" s="218" t="s">
+        <v>646</v>
+      </c>
+      <c r="G21" s="606"/>
+      <c r="H21" s="213" t="s">
+        <v>344</v>
+      </c>
+      <c r="I21" s="165" t="s">
         <v>309</v>
-      </c>
-      <c r="E21" s="145" t="s">
-        <v>649</v>
-      </c>
-      <c r="F21" s="219" t="s">
-        <v>649</v>
-      </c>
-      <c r="G21" s="602"/>
-      <c r="H21" s="214" t="s">
-        <v>345</v>
-      </c>
-      <c r="I21" s="165" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="174" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="204" t="s">
-        <v>315</v>
+      <c r="B22" s="203" t="s">
+        <v>314</v>
       </c>
       <c r="C22" s="144"/>
       <c r="D22" s="145" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E22" s="144"/>
-      <c r="F22" s="225"/>
-      <c r="G22" s="602"/>
-      <c r="H22" s="554" t="s">
-        <v>500</v>
-      </c>
-      <c r="I22" s="573"/>
+      <c r="F22" s="224"/>
+      <c r="G22" s="606"/>
+      <c r="H22" s="546" t="s">
+        <v>499</v>
+      </c>
+      <c r="I22" s="574"/>
     </row>
     <row r="23" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="204" t="s">
+      <c r="B23" s="203" t="s">
         <v>298</v>
       </c>
       <c r="C23" s="145" t="s">
         <v>299</v>
       </c>
-      <c r="D23" s="286"/>
-      <c r="E23" s="244"/>
+      <c r="D23" s="284"/>
+      <c r="E23" s="242"/>
       <c r="F23" s="181" t="s">
-        <v>575</v>
-      </c>
-      <c r="G23" s="602"/>
-      <c r="H23" s="214" t="s">
-        <v>351</v>
-      </c>
-      <c r="I23" s="208" t="s">
-        <v>347</v>
+        <v>574</v>
+      </c>
+      <c r="G23" s="606"/>
+      <c r="H23" s="213" t="s">
+        <v>350</v>
+      </c>
+      <c r="I23" s="207" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="218" t="s">
+      <c r="B24" s="217" t="s">
         <v>306</v>
       </c>
       <c r="C24" s="179" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D24" s="179" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E24" s="171"/>
-      <c r="F24" s="312"/>
-      <c r="G24" s="603"/>
-      <c r="H24" s="218" t="s">
-        <v>311</v>
-      </c>
-      <c r="I24" s="221" t="s">
+      <c r="F24" s="310"/>
+      <c r="G24" s="607"/>
+      <c r="H24" s="217" t="s">
+        <v>310</v>
+      </c>
+      <c r="I24" s="220" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7427,112 +7437,112 @@
       <c r="I25" s="572"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="209" t="s">
+      <c r="A26" s="208" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="548" t="s">
-        <v>609</v>
-      </c>
-      <c r="C26" s="548"/>
-      <c r="D26" s="548"/>
-      <c r="E26" s="242"/>
-      <c r="G26" s="604" t="s">
+      <c r="B26" s="564" t="s">
+        <v>606</v>
+      </c>
+      <c r="C26" s="564"/>
+      <c r="D26" s="564"/>
+      <c r="E26" s="240"/>
+      <c r="G26" s="608" t="s">
         <v>188</v>
       </c>
-      <c r="H26" s="324"/>
-      <c r="I26" s="325"/>
+      <c r="H26" s="321"/>
+      <c r="I26" s="322"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="319" t="s">
+      <c r="A27" s="317" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="549" t="s">
+      <c r="B27" s="550" t="s">
+        <v>577</v>
+      </c>
+      <c r="C27" s="550"/>
+      <c r="D27" s="550"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="224"/>
+      <c r="G27" s="609"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="245"/>
+    </row>
+    <row r="28" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="317" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="243"/>
+      <c r="C28" s="243"/>
+      <c r="D28" s="543" t="s">
+        <v>575</v>
+      </c>
+      <c r="E28" s="543"/>
+      <c r="F28" s="614"/>
+      <c r="G28" s="609"/>
+      <c r="H28" s="262"/>
+      <c r="I28" s="307"/>
+    </row>
+    <row r="29" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="317" t="s">
+        <v>569</v>
+      </c>
+      <c r="B29" s="550" t="s">
+        <v>576</v>
+      </c>
+      <c r="C29" s="550"/>
+      <c r="D29" s="550"/>
+      <c r="E29" s="243"/>
+      <c r="F29" s="259"/>
+      <c r="G29" s="609"/>
+      <c r="H29" s="260"/>
+      <c r="I29" s="250"/>
+    </row>
+    <row r="30" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="317" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="243"/>
+      <c r="C30" s="611" t="s">
+        <v>647</v>
+      </c>
+      <c r="D30" s="612"/>
+      <c r="E30" s="613"/>
+      <c r="F30" s="263"/>
+      <c r="G30" s="609"/>
+      <c r="H30" s="266"/>
+      <c r="I30" s="267"/>
+    </row>
+    <row r="31" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="317" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="252"/>
+      <c r="C31" s="252"/>
+      <c r="D31" s="544" t="s">
         <v>578</v>
       </c>
-      <c r="C27" s="549"/>
-      <c r="D27" s="549"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="225"/>
-      <c r="G27" s="605"/>
-      <c r="H27" s="251"/>
-      <c r="I27" s="247"/>
-    </row>
-    <row r="28" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="319" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="245"/>
-      <c r="C28" s="245"/>
-      <c r="D28" s="553" t="s">
-        <v>576</v>
-      </c>
-      <c r="E28" s="553"/>
-      <c r="F28" s="610"/>
-      <c r="G28" s="605"/>
-      <c r="H28" s="264"/>
-      <c r="I28" s="309"/>
-    </row>
-    <row r="29" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="319" t="s">
-        <v>570</v>
-      </c>
-      <c r="B29" s="549" t="s">
-        <v>577</v>
-      </c>
-      <c r="C29" s="549"/>
-      <c r="D29" s="549"/>
-      <c r="E29" s="245"/>
-      <c r="F29" s="261"/>
-      <c r="G29" s="605"/>
-      <c r="H29" s="262"/>
-      <c r="I29" s="252"/>
-    </row>
-    <row r="30" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="319" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="245"/>
-      <c r="C30" s="607" t="s">
-        <v>650</v>
-      </c>
-      <c r="D30" s="608"/>
-      <c r="E30" s="609"/>
-      <c r="F30" s="265"/>
-      <c r="G30" s="605"/>
-      <c r="H30" s="268"/>
-      <c r="I30" s="269"/>
-    </row>
-    <row r="31" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="319" t="s">
-        <v>173</v>
-      </c>
-      <c r="B31" s="254"/>
-      <c r="C31" s="254"/>
-      <c r="D31" s="550" t="s">
-        <v>579</v>
-      </c>
-      <c r="E31" s="550"/>
-      <c r="F31" s="599"/>
-      <c r="G31" s="605"/>
-      <c r="H31" s="266"/>
-      <c r="I31" s="270"/>
+      <c r="E31" s="544"/>
+      <c r="F31" s="603"/>
+      <c r="G31" s="609"/>
+      <c r="H31" s="264"/>
+      <c r="I31" s="268"/>
     </row>
     <row r="32" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="319" t="s">
+      <c r="A32" s="317" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="579" t="s">
-        <v>597</v>
-      </c>
-      <c r="C32" s="579"/>
-      <c r="D32" s="267"/>
-      <c r="E32" s="267"/>
-      <c r="F32" s="312"/>
-      <c r="G32" s="606"/>
-      <c r="H32" s="578" t="s">
-        <v>499</v>
-      </c>
-      <c r="I32" s="600"/>
+      <c r="B32" s="586" t="s">
+        <v>596</v>
+      </c>
+      <c r="C32" s="586"/>
+      <c r="D32" s="265"/>
+      <c r="E32" s="265"/>
+      <c r="F32" s="310"/>
+      <c r="G32" s="610"/>
+      <c r="H32" s="585" t="s">
+        <v>498</v>
+      </c>
+      <c r="I32" s="604"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -7588,57 +7598,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="356" t="s">
+      <c r="B1" s="360" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="357"/>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="358"/>
+      <c r="C1" s="361"/>
+      <c r="D1" s="361"/>
+      <c r="E1" s="361"/>
+      <c r="F1" s="361"/>
+      <c r="G1" s="361"/>
+      <c r="H1" s="361"/>
+      <c r="I1" s="362"/>
     </row>
     <row r="2" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="359"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="360"/>
-      <c r="I2" s="361"/>
+      <c r="B2" s="363"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="365"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="358" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="362" t="s">
+      <c r="B3" s="366" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="363"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="363"/>
-      <c r="F3" s="363"/>
-      <c r="G3" s="363"/>
-      <c r="H3" s="363"/>
-      <c r="I3" s="364"/>
+      <c r="C3" s="367"/>
+      <c r="D3" s="367"/>
+      <c r="E3" s="367"/>
+      <c r="F3" s="367"/>
+      <c r="G3" s="367"/>
+      <c r="H3" s="367"/>
+      <c r="I3" s="368"/>
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="355"/>
-      <c r="B4" s="365" t="s">
+      <c r="A4" s="359"/>
+      <c r="B4" s="369" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="366"/>
-      <c r="D4" s="366"/>
-      <c r="E4" s="366"/>
-      <c r="F4" s="366"/>
-      <c r="G4" s="366"/>
-      <c r="H4" s="366"/>
-      <c r="I4" s="367"/>
+      <c r="C4" s="370"/>
+      <c r="D4" s="370"/>
+      <c r="E4" s="370"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
+      <c r="I4" s="371"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="355"/>
+      <c r="A5" s="359"/>
       <c r="B5" s="109" t="s">
         <v>226</v>
       </c>
@@ -7665,20 +7675,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="355"/>
-      <c r="B6" s="368" t="s">
+      <c r="A6" s="359"/>
+      <c r="B6" s="372" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="369"/>
-      <c r="D6" s="369"/>
-      <c r="E6" s="369"/>
-      <c r="F6" s="369"/>
-      <c r="G6" s="369"/>
-      <c r="H6" s="369"/>
-      <c r="I6" s="370"/>
+      <c r="C6" s="373"/>
+      <c r="D6" s="373"/>
+      <c r="E6" s="373"/>
+      <c r="F6" s="373"/>
+      <c r="G6" s="373"/>
+      <c r="H6" s="373"/>
+      <c r="I6" s="374"/>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="355"/>
+      <c r="A7" s="359"/>
       <c r="B7" s="82">
         <v>1</v>
       </c>
@@ -7700,19 +7710,19 @@
       <c r="H7" s="100">
         <v>2018</v>
       </c>
-      <c r="I7" s="189" t="s">
+      <c r="I7" s="188" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="355"/>
+      <c r="A8" s="359"/>
       <c r="B8" s="99">
         <v>2</v>
       </c>
       <c r="C8" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="185" t="s">
+      <c r="D8" s="184" t="s">
         <v>206</v>
       </c>
       <c r="E8" s="100" t="s">
@@ -7727,19 +7737,19 @@
       <c r="H8" s="100">
         <v>2018</v>
       </c>
-      <c r="I8" s="189" t="s">
+      <c r="I8" s="188" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="355"/>
+      <c r="A9" s="359"/>
       <c r="B9" s="99">
         <v>3</v>
       </c>
       <c r="C9" s="100" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="185" t="s">
+      <c r="D9" s="184" t="s">
         <v>212</v>
       </c>
       <c r="E9" s="100" t="s">
@@ -7754,12 +7764,12 @@
       <c r="H9" s="100">
         <v>2018</v>
       </c>
-      <c r="I9" s="189" t="s">
-        <v>481</v>
+      <c r="I9" s="188" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="355"/>
+      <c r="A10" s="359"/>
       <c r="B10" s="99">
         <v>4</v>
       </c>
@@ -7782,11 +7792,11 @@
         <v>2018</v>
       </c>
       <c r="I10" s="84" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="355"/>
+      <c r="A11" s="359"/>
       <c r="B11" s="99">
         <v>5</v>
       </c>
@@ -7808,16 +7818,16 @@
       <c r="H11" s="100">
         <v>2018</v>
       </c>
-      <c r="I11" s="189" t="s">
+      <c r="I11" s="188" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="355"/>
+    <row r="12" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="359"/>
       <c r="B12" s="99">
         <v>6</v>
       </c>
-      <c r="C12" s="186" t="s">
+      <c r="C12" s="185" t="s">
         <v>221</v>
       </c>
       <c r="D12" s="81" t="s">
@@ -7835,19 +7845,19 @@
       <c r="H12" s="100">
         <v>2018</v>
       </c>
-      <c r="I12" s="189" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="355"/>
+      <c r="I12" s="188" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="359"/>
       <c r="B13" s="99">
         <v>7</v>
       </c>
       <c r="C13" s="177" t="s">
         <v>225</v>
       </c>
-      <c r="D13" s="185" t="s">
+      <c r="D13" s="184" t="s">
         <v>223</v>
       </c>
       <c r="E13" s="100" t="s">
@@ -7863,11 +7873,11 @@
         <v>2018</v>
       </c>
       <c r="I13" s="107" t="s">
-        <v>598</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="108" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="355"/>
+      <c r="A14" s="359"/>
       <c r="B14" s="99">
         <v>8</v>
       </c>
@@ -7894,7 +7904,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="355"/>
+      <c r="A15" s="359"/>
       <c r="B15" s="99">
         <v>9</v>
       </c>
@@ -7916,71 +7926,71 @@
       <c r="H15" s="100">
         <v>2018</v>
       </c>
-      <c r="I15" s="189" t="s">
-        <v>592</v>
+      <c r="I15" s="188" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="355"/>
-      <c r="B16" s="371" t="s">
+      <c r="A16" s="359"/>
+      <c r="B16" s="375" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="372"/>
-      <c r="D16" s="372"/>
-      <c r="E16" s="372"/>
+      <c r="C16" s="376"/>
+      <c r="D16" s="376"/>
+      <c r="E16" s="376"/>
       <c r="F16" s="112">
         <f>SUM(F7:F15)</f>
         <v>100</v>
       </c>
-      <c r="G16" s="372"/>
-      <c r="H16" s="372"/>
-      <c r="I16" s="373"/>
+      <c r="G16" s="376"/>
+      <c r="H16" s="376"/>
+      <c r="I16" s="377"/>
     </row>
     <row r="17" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="355"/>
-      <c r="B17" s="345" t="s">
+      <c r="A17" s="359"/>
+      <c r="B17" s="349" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="346"/>
-      <c r="D17" s="346"/>
-      <c r="E17" s="346"/>
-      <c r="F17" s="346"/>
-      <c r="G17" s="346"/>
-      <c r="H17" s="346"/>
-      <c r="I17" s="347"/>
+      <c r="C17" s="350"/>
+      <c r="D17" s="350"/>
+      <c r="E17" s="350"/>
+      <c r="F17" s="350"/>
+      <c r="G17" s="350"/>
+      <c r="H17" s="350"/>
+      <c r="I17" s="351"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="355"/>
-      <c r="B18" s="348"/>
-      <c r="C18" s="349"/>
-      <c r="D18" s="349"/>
-      <c r="E18" s="349"/>
-      <c r="F18" s="349"/>
-      <c r="G18" s="349"/>
-      <c r="H18" s="349"/>
-      <c r="I18" s="350"/>
+      <c r="A18" s="359"/>
+      <c r="B18" s="352"/>
+      <c r="C18" s="353"/>
+      <c r="D18" s="353"/>
+      <c r="E18" s="353"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="353"/>
+      <c r="H18" s="353"/>
+      <c r="I18" s="354"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="355"/>
-      <c r="B19" s="348"/>
-      <c r="C19" s="349"/>
-      <c r="D19" s="349"/>
-      <c r="E19" s="349"/>
-      <c r="F19" s="349"/>
-      <c r="G19" s="349"/>
-      <c r="H19" s="349"/>
-      <c r="I19" s="350"/>
+      <c r="A19" s="359"/>
+      <c r="B19" s="352"/>
+      <c r="C19" s="353"/>
+      <c r="D19" s="353"/>
+      <c r="E19" s="353"/>
+      <c r="F19" s="353"/>
+      <c r="G19" s="353"/>
+      <c r="H19" s="353"/>
+      <c r="I19" s="354"/>
     </row>
     <row r="20" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="355"/>
-      <c r="B20" s="351"/>
-      <c r="C20" s="352"/>
-      <c r="D20" s="352"/>
-      <c r="E20" s="352"/>
-      <c r="F20" s="352"/>
-      <c r="G20" s="352"/>
-      <c r="H20" s="352"/>
-      <c r="I20" s="353"/>
+      <c r="A20" s="359"/>
+      <c r="B20" s="355"/>
+      <c r="C20" s="356"/>
+      <c r="D20" s="356"/>
+      <c r="E20" s="356"/>
+      <c r="F20" s="356"/>
+      <c r="G20" s="356"/>
+      <c r="H20" s="356"/>
+      <c r="I20" s="357"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8027,59 +8037,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="374"/>
-      <c r="B1" s="376" t="s">
+      <c r="A1" s="378"/>
+      <c r="B1" s="380" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="377"/>
-      <c r="D1" s="377"/>
-      <c r="E1" s="377"/>
-      <c r="F1" s="377"/>
-      <c r="G1" s="377"/>
-      <c r="H1" s="377"/>
-      <c r="I1" s="378"/>
+      <c r="C1" s="381"/>
+      <c r="D1" s="381"/>
+      <c r="E1" s="381"/>
+      <c r="F1" s="381"/>
+      <c r="G1" s="381"/>
+      <c r="H1" s="381"/>
+      <c r="I1" s="382"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="375"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="380"/>
-      <c r="D2" s="380"/>
-      <c r="E2" s="380"/>
-      <c r="F2" s="380"/>
-      <c r="G2" s="380"/>
-      <c r="H2" s="380"/>
-      <c r="I2" s="381"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="383"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
+      <c r="H2" s="384"/>
+      <c r="I2" s="385"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="382" t="s">
+      <c r="A3" s="386" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="385" t="s">
+      <c r="B3" s="389" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="386"/>
-      <c r="D3" s="386"/>
-      <c r="E3" s="386"/>
-      <c r="F3" s="386"/>
-      <c r="G3" s="386"/>
-      <c r="H3" s="386"/>
-      <c r="I3" s="387"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
+      <c r="F3" s="390"/>
+      <c r="G3" s="390"/>
+      <c r="H3" s="390"/>
+      <c r="I3" s="391"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="383"/>
-      <c r="B4" s="388" t="s">
+      <c r="A4" s="387"/>
+      <c r="B4" s="392" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="389"/>
-      <c r="D4" s="389"/>
-      <c r="E4" s="389"/>
-      <c r="F4" s="389"/>
-      <c r="G4" s="389"/>
-      <c r="H4" s="389"/>
-      <c r="I4" s="390"/>
+      <c r="C4" s="393"/>
+      <c r="D4" s="393"/>
+      <c r="E4" s="393"/>
+      <c r="F4" s="393"/>
+      <c r="G4" s="393"/>
+      <c r="H4" s="393"/>
+      <c r="I4" s="394"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="383"/>
+      <c r="A5" s="387"/>
       <c r="B5" s="13" t="s">
         <v>226</v>
       </c>
@@ -8106,20 +8116,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="383"/>
-      <c r="B6" s="391" t="s">
+      <c r="A6" s="387"/>
+      <c r="B6" s="395" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="392"/>
-      <c r="D6" s="392"/>
-      <c r="E6" s="392"/>
-      <c r="F6" s="392"/>
-      <c r="G6" s="392"/>
-      <c r="H6" s="392"/>
-      <c r="I6" s="393"/>
+      <c r="C6" s="396"/>
+      <c r="D6" s="396"/>
+      <c r="E6" s="396"/>
+      <c r="F6" s="396"/>
+      <c r="G6" s="396"/>
+      <c r="H6" s="396"/>
+      <c r="I6" s="397"/>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="383"/>
+      <c r="A7" s="387"/>
       <c r="B7" s="50">
         <v>1</v>
       </c>
@@ -8141,12 +8151,12 @@
       <c r="H7" s="17">
         <v>2017</v>
       </c>
-      <c r="I7" s="196" t="s">
+      <c r="I7" s="195" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="383"/>
+      <c r="A8" s="387"/>
       <c r="B8" s="50">
         <v>2</v>
       </c>
@@ -8168,12 +8178,12 @@
       <c r="H8" s="17">
         <v>2017</v>
       </c>
-      <c r="I8" s="188" t="s">
+      <c r="I8" s="187" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="383"/>
+      <c r="A9" s="387"/>
       <c r="B9" s="50">
         <v>3</v>
       </c>
@@ -8196,11 +8206,11 @@
         <v>2017</v>
       </c>
       <c r="I9" s="113" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="383"/>
+      <c r="A10" s="387"/>
       <c r="B10" s="50">
         <v>4</v>
       </c>
@@ -8223,11 +8233,11 @@
         <v>2017</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="383"/>
+      <c r="A11" s="387"/>
       <c r="B11" s="50">
         <v>5</v>
       </c>
@@ -8250,11 +8260,11 @@
         <v>2017</v>
       </c>
       <c r="I11" s="85" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="383"/>
+      <c r="A12" s="387"/>
       <c r="B12" s="50">
         <v>6</v>
       </c>
@@ -8277,24 +8287,24 @@
         <v>2017</v>
       </c>
       <c r="I12" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="383"/>
-      <c r="B13" s="394" t="s">
+      <c r="A13" s="387"/>
+      <c r="B13" s="398" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="395"/>
-      <c r="D13" s="395"/>
-      <c r="E13" s="395"/>
-      <c r="F13" s="395"/>
-      <c r="G13" s="395"/>
-      <c r="H13" s="395"/>
-      <c r="I13" s="396"/>
+      <c r="C13" s="399"/>
+      <c r="D13" s="399"/>
+      <c r="E13" s="399"/>
+      <c r="F13" s="399"/>
+      <c r="G13" s="399"/>
+      <c r="H13" s="399"/>
+      <c r="I13" s="400"/>
     </row>
     <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="383"/>
+      <c r="A14" s="387"/>
       <c r="B14" s="91">
         <v>7</v>
       </c>
@@ -8316,12 +8326,12 @@
       <c r="H14" s="25">
         <v>2017</v>
       </c>
-      <c r="I14" s="197" t="s">
-        <v>472</v>
+      <c r="I14" s="196" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="383"/>
+      <c r="A15" s="387"/>
       <c r="B15" s="91">
         <v>8</v>
       </c>
@@ -8343,12 +8353,12 @@
       <c r="H15" s="25">
         <v>2017</v>
       </c>
-      <c r="I15" s="197" t="s">
-        <v>473</v>
+      <c r="I15" s="196" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="383"/>
+      <c r="A16" s="387"/>
       <c r="B16" s="91">
         <v>9</v>
       </c>
@@ -8370,22 +8380,22 @@
       <c r="H16" s="25">
         <v>2017</v>
       </c>
-      <c r="I16" s="197" t="s">
-        <v>474</v>
+      <c r="I16" s="196" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="383"/>
-      <c r="B17" s="397" t="s">
+      <c r="A17" s="387"/>
+      <c r="B17" s="401" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="398"/>
-      <c r="D17" s="398"/>
-      <c r="E17" s="398"/>
-      <c r="F17" s="398"/>
-      <c r="G17" s="398"/>
-      <c r="H17" s="398"/>
-      <c r="I17" s="399"/>
+      <c r="C17" s="402"/>
+      <c r="D17" s="402"/>
+      <c r="E17" s="402"/>
+      <c r="F17" s="402"/>
+      <c r="G17" s="402"/>
+      <c r="H17" s="402"/>
+      <c r="I17" s="403"/>
       <c r="P17" s="108"/>
       <c r="Q17" s="108"/>
       <c r="R17" s="108"/>
@@ -8393,7 +8403,7 @@
       <c r="T17" s="108"/>
     </row>
     <row r="18" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="383"/>
+      <c r="A18" s="387"/>
       <c r="B18" s="91">
         <v>10</v>
       </c>
@@ -8415,12 +8425,12 @@
       <c r="H18" s="25">
         <v>2017</v>
       </c>
-      <c r="I18" s="197" t="s">
+      <c r="I18" s="196" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="383"/>
+      <c r="A19" s="387"/>
       <c r="B19" s="91">
         <v>11</v>
       </c>
@@ -8442,12 +8452,12 @@
       <c r="H19" s="25">
         <v>2017</v>
       </c>
-      <c r="I19" s="197" t="s">
+      <c r="I19" s="196" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="383"/>
+      <c r="A20" s="387"/>
       <c r="B20" s="91">
         <v>12</v>
       </c>
@@ -8474,7 +8484,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="383"/>
+      <c r="A21" s="387"/>
       <c r="B21" s="91">
         <v>13</v>
       </c>
@@ -8501,7 +8511,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="383"/>
+      <c r="A22" s="387"/>
       <c r="B22" s="91">
         <v>14</v>
       </c>
@@ -8528,7 +8538,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="383"/>
+      <c r="A23" s="387"/>
       <c r="B23" s="91">
         <v>15</v>
       </c>
@@ -8550,25 +8560,25 @@
       <c r="H23" s="25">
         <v>2017</v>
       </c>
-      <c r="I23" s="197" t="s">
+      <c r="I23" s="196" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="384"/>
-      <c r="B24" s="400" t="s">
+      <c r="A24" s="388"/>
+      <c r="B24" s="404" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="401"/>
-      <c r="D24" s="401"/>
-      <c r="E24" s="401"/>
+      <c r="C24" s="405"/>
+      <c r="D24" s="405"/>
+      <c r="E24" s="405"/>
       <c r="F24" s="36">
         <f>SUM(F7:F23)</f>
         <v>59</v>
       </c>
       <c r="G24" s="37"/>
-      <c r="H24" s="402"/>
-      <c r="I24" s="403"/>
+      <c r="H24" s="406"/>
+      <c r="I24" s="407"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8599,7 +8609,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="5" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="B1" sqref="B1:I2"/>
@@ -8622,59 +8632,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="406"/>
-      <c r="B1" s="407" t="s">
+      <c r="A1" s="410"/>
+      <c r="B1" s="411" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="408"/>
-      <c r="D1" s="408"/>
-      <c r="E1" s="408"/>
-      <c r="F1" s="408"/>
-      <c r="G1" s="408"/>
-      <c r="H1" s="408"/>
-      <c r="I1" s="408"/>
+      <c r="C1" s="412"/>
+      <c r="D1" s="412"/>
+      <c r="E1" s="412"/>
+      <c r="F1" s="412"/>
+      <c r="G1" s="412"/>
+      <c r="H1" s="412"/>
+      <c r="I1" s="412"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="406"/>
-      <c r="B2" s="409"/>
-      <c r="C2" s="410"/>
-      <c r="D2" s="410"/>
-      <c r="E2" s="410"/>
-      <c r="F2" s="410"/>
-      <c r="G2" s="410"/>
-      <c r="H2" s="410"/>
-      <c r="I2" s="410"/>
+      <c r="A2" s="410"/>
+      <c r="B2" s="413"/>
+      <c r="C2" s="414"/>
+      <c r="D2" s="414"/>
+      <c r="E2" s="414"/>
+      <c r="F2" s="414"/>
+      <c r="G2" s="414"/>
+      <c r="H2" s="414"/>
+      <c r="I2" s="414"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="411" t="s">
+      <c r="A3" s="415" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="414" t="s">
+      <c r="B3" s="418" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="415"/>
-      <c r="D3" s="415"/>
-      <c r="E3" s="415"/>
-      <c r="F3" s="415"/>
-      <c r="G3" s="415"/>
-      <c r="H3" s="415"/>
-      <c r="I3" s="416"/>
+      <c r="C3" s="419"/>
+      <c r="D3" s="419"/>
+      <c r="E3" s="419"/>
+      <c r="F3" s="419"/>
+      <c r="G3" s="419"/>
+      <c r="H3" s="419"/>
+      <c r="I3" s="420"/>
     </row>
     <row r="4" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="412"/>
-      <c r="B4" s="417" t="s">
+      <c r="A4" s="416"/>
+      <c r="B4" s="421" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="418"/>
-      <c r="D4" s="418"/>
-      <c r="E4" s="418"/>
-      <c r="F4" s="418"/>
-      <c r="G4" s="418"/>
-      <c r="H4" s="418"/>
-      <c r="I4" s="419"/>
+      <c r="C4" s="422"/>
+      <c r="D4" s="422"/>
+      <c r="E4" s="422"/>
+      <c r="F4" s="422"/>
+      <c r="G4" s="422"/>
+      <c r="H4" s="422"/>
+      <c r="I4" s="423"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="412"/>
+      <c r="A5" s="416"/>
       <c r="B5" s="39" t="s">
         <v>226</v>
       </c>
@@ -8701,20 +8711,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="412"/>
-      <c r="B6" s="420" t="s">
+      <c r="A6" s="416"/>
+      <c r="B6" s="424" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="421"/>
-      <c r="D6" s="421"/>
-      <c r="E6" s="421"/>
-      <c r="F6" s="421"/>
-      <c r="G6" s="421"/>
-      <c r="H6" s="421"/>
-      <c r="I6" s="422"/>
+      <c r="C6" s="425"/>
+      <c r="D6" s="425"/>
+      <c r="E6" s="425"/>
+      <c r="F6" s="425"/>
+      <c r="G6" s="425"/>
+      <c r="H6" s="425"/>
+      <c r="I6" s="426"/>
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="412"/>
+      <c r="A7" s="416"/>
       <c r="B7" s="48">
         <v>1</v>
       </c>
@@ -8739,15 +8749,15 @@
       <c r="I7" s="180" t="s">
         <v>250</v>
       </c>
-      <c r="K7" s="195" t="s">
+      <c r="K7" s="194" t="s">
+        <v>322</v>
+      </c>
+      <c r="L7" s="193" t="s">
         <v>323</v>
       </c>
-      <c r="L7" s="194" t="s">
-        <v>324</v>
-      </c>
     </row>
     <row r="8" spans="1:12" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="412"/>
+      <c r="A8" s="416"/>
       <c r="B8" s="48">
         <v>2</v>
       </c>
@@ -8769,18 +8779,18 @@
       <c r="H8" s="43">
         <v>2016</v>
       </c>
-      <c r="I8" s="199" t="s">
-        <v>372</v>
-      </c>
-      <c r="K8" s="195" t="s">
+      <c r="I8" s="198" t="s">
+        <v>371</v>
+      </c>
+      <c r="K8" s="194" t="s">
+        <v>324</v>
+      </c>
+      <c r="L8" s="193" t="s">
         <v>325</v>
       </c>
-      <c r="L8" s="194" t="s">
-        <v>326</v>
-      </c>
     </row>
     <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="412"/>
+      <c r="A9" s="416"/>
       <c r="B9" s="48">
         <v>3</v>
       </c>
@@ -8807,7 +8817,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="412"/>
+      <c r="A10" s="416"/>
       <c r="B10" s="48">
         <v>4</v>
       </c>
@@ -8829,12 +8839,12 @@
       <c r="H10" s="43">
         <v>2016</v>
       </c>
-      <c r="I10" s="200" t="s">
-        <v>373</v>
+      <c r="I10" s="199" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="412"/>
+      <c r="A11" s="416"/>
       <c r="B11" s="49">
         <v>5</v>
       </c>
@@ -8861,7 +8871,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="412"/>
+      <c r="A12" s="416"/>
       <c r="B12" s="151">
         <v>6</v>
       </c>
@@ -8888,20 +8898,20 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="412"/>
-      <c r="B13" s="423" t="s">
-        <v>657</v>
-      </c>
-      <c r="C13" s="424"/>
-      <c r="D13" s="424"/>
-      <c r="E13" s="424"/>
-      <c r="F13" s="424"/>
-      <c r="G13" s="424"/>
-      <c r="H13" s="424"/>
-      <c r="I13" s="425"/>
+      <c r="A13" s="416"/>
+      <c r="B13" s="427" t="s">
+        <v>653</v>
+      </c>
+      <c r="C13" s="428"/>
+      <c r="D13" s="428"/>
+      <c r="E13" s="428"/>
+      <c r="F13" s="428"/>
+      <c r="G13" s="428"/>
+      <c r="H13" s="428"/>
+      <c r="I13" s="429"/>
     </row>
     <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="412"/>
+      <c r="A14" s="416"/>
       <c r="B14" s="152">
         <v>7</v>
       </c>
@@ -8923,12 +8933,12 @@
       <c r="H14" s="41">
         <v>2015</v>
       </c>
-      <c r="I14" s="201" t="s">
-        <v>475</v>
+      <c r="I14" s="200" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="412"/>
+      <c r="A15" s="416"/>
       <c r="B15" s="152">
         <v>8</v>
       </c>
@@ -8950,12 +8960,12 @@
       <c r="H15" s="43">
         <v>2015</v>
       </c>
-      <c r="I15" s="201" t="s">
-        <v>476</v>
+      <c r="I15" s="200" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="412"/>
+      <c r="A16" s="416"/>
       <c r="B16" s="152">
         <v>9</v>
       </c>
@@ -8977,12 +8987,12 @@
       <c r="H16" s="43">
         <v>2015</v>
       </c>
-      <c r="I16" s="201" t="s">
+      <c r="I16" s="200" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="412"/>
+      <c r="A17" s="416"/>
       <c r="B17" s="152">
         <v>10</v>
       </c>
@@ -9004,23 +9014,23 @@
       <c r="H17" s="43">
         <v>2015</v>
       </c>
-      <c r="I17" s="201" t="s">
+      <c r="I17" s="200" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" s="412"/>
+      <c r="A18" s="416"/>
       <c r="B18" s="152">
         <v>11</v>
       </c>
       <c r="C18" s="121" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E18" s="117" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F18" s="43">
         <v>1</v>
@@ -9031,25 +9041,25 @@
       <c r="H18" s="43">
         <v>2015</v>
       </c>
-      <c r="I18" s="288" t="s">
-        <v>635</v>
+      <c r="I18" s="286" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="412"/>
-      <c r="B19" s="426" t="s">
+      <c r="A19" s="416"/>
+      <c r="B19" s="430" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="427"/>
-      <c r="D19" s="427"/>
-      <c r="E19" s="427"/>
-      <c r="F19" s="427"/>
-      <c r="G19" s="427"/>
-      <c r="H19" s="427"/>
-      <c r="I19" s="428"/>
+      <c r="C19" s="431"/>
+      <c r="D19" s="431"/>
+      <c r="E19" s="431"/>
+      <c r="F19" s="431"/>
+      <c r="G19" s="431"/>
+      <c r="H19" s="431"/>
+      <c r="I19" s="432"/>
     </row>
     <row r="20" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="412"/>
+      <c r="A20" s="416"/>
       <c r="B20" s="49">
         <v>12</v>
       </c>
@@ -9076,7 +9086,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="412"/>
+      <c r="A21" s="416"/>
       <c r="B21" s="49">
         <v>13</v>
       </c>
@@ -9099,11 +9109,11 @@
         <v>2015</v>
       </c>
       <c r="I21" s="54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="412"/>
+      <c r="A22" s="416"/>
       <c r="B22" s="49">
         <v>14</v>
       </c>
@@ -9125,12 +9135,12 @@
       <c r="H22" s="43">
         <v>2015</v>
       </c>
-      <c r="I22" s="202" t="s">
-        <v>536</v>
+      <c r="I22" s="201" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="412"/>
+      <c r="A23" s="416"/>
       <c r="B23" s="49">
         <v>15</v>
       </c>
@@ -9152,32 +9162,32 @@
       <c r="H23" s="43">
         <v>2015</v>
       </c>
-      <c r="I23" s="202" t="s">
+      <c r="I23" s="201" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="413"/>
-      <c r="B24" s="429" t="s">
+      <c r="A24" s="417"/>
+      <c r="B24" s="433" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="430"/>
-      <c r="D24" s="430"/>
-      <c r="E24" s="430"/>
+      <c r="C24" s="434"/>
+      <c r="D24" s="434"/>
+      <c r="E24" s="434"/>
       <c r="F24" s="55">
         <f>SUM(F7:F23)</f>
         <v>59</v>
       </c>
-      <c r="G24" s="431"/>
-      <c r="H24" s="431"/>
-      <c r="I24" s="432"/>
+      <c r="G24" s="435"/>
+      <c r="H24" s="435"/>
+      <c r="I24" s="436"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="404" t="s">
-        <v>322</v>
-      </c>
-      <c r="E26" s="405"/>
+      <c r="D26" s="408" t="s">
+        <v>321</v>
+      </c>
+      <c r="E26" s="409"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9216,7 +9226,7 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.85546875" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
@@ -9237,59 +9247,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="436"/>
-      <c r="B1" s="437" t="s">
+      <c r="A1" s="440"/>
+      <c r="B1" s="441" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="438"/>
-      <c r="D1" s="438"/>
-      <c r="E1" s="438"/>
-      <c r="F1" s="438"/>
-      <c r="G1" s="438"/>
-      <c r="H1" s="438"/>
-      <c r="I1" s="439"/>
+      <c r="C1" s="442"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+      <c r="I1" s="443"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="436"/>
-      <c r="B2" s="440"/>
-      <c r="C2" s="441"/>
-      <c r="D2" s="441"/>
-      <c r="E2" s="441"/>
-      <c r="F2" s="441"/>
-      <c r="G2" s="441"/>
-      <c r="H2" s="441"/>
-      <c r="I2" s="442"/>
+      <c r="A2" s="440"/>
+      <c r="B2" s="444"/>
+      <c r="C2" s="445"/>
+      <c r="D2" s="445"/>
+      <c r="E2" s="445"/>
+      <c r="F2" s="445"/>
+      <c r="G2" s="445"/>
+      <c r="H2" s="445"/>
+      <c r="I2" s="446"/>
     </row>
     <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="443" t="s">
+      <c r="A3" s="447" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="446" t="s">
+      <c r="B3" s="450" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="447"/>
-      <c r="D3" s="447"/>
-      <c r="E3" s="447"/>
-      <c r="F3" s="447"/>
-      <c r="G3" s="447"/>
-      <c r="H3" s="447"/>
-      <c r="I3" s="448"/>
+      <c r="C3" s="451"/>
+      <c r="D3" s="451"/>
+      <c r="E3" s="451"/>
+      <c r="F3" s="451"/>
+      <c r="G3" s="451"/>
+      <c r="H3" s="451"/>
+      <c r="I3" s="452"/>
     </row>
     <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="444"/>
-      <c r="B4" s="449" t="s">
+      <c r="A4" s="448"/>
+      <c r="B4" s="453" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="450"/>
-      <c r="D4" s="450"/>
-      <c r="E4" s="450"/>
-      <c r="F4" s="450"/>
-      <c r="G4" s="450"/>
-      <c r="H4" s="450"/>
-      <c r="I4" s="451"/>
+      <c r="C4" s="454"/>
+      <c r="D4" s="454"/>
+      <c r="E4" s="454"/>
+      <c r="F4" s="454"/>
+      <c r="G4" s="454"/>
+      <c r="H4" s="454"/>
+      <c r="I4" s="455"/>
     </row>
     <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="444"/>
+      <c r="A5" s="448"/>
       <c r="B5" s="87" t="s">
         <v>226</v>
       </c>
@@ -9316,21 +9326,21 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="444"/>
-      <c r="B6" s="452" t="s">
+      <c r="A6" s="448"/>
+      <c r="B6" s="456" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="453"/>
-      <c r="D6" s="453"/>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="453"/>
-      <c r="I6" s="454"/>
+      <c r="C6" s="457"/>
+      <c r="D6" s="457"/>
+      <c r="E6" s="457"/>
+      <c r="F6" s="457"/>
+      <c r="G6" s="457"/>
+      <c r="H6" s="457"/>
+      <c r="I6" s="458"/>
       <c r="M6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="444"/>
+      <c r="A7" s="448"/>
       <c r="B7" s="62">
         <v>1</v>
       </c>
@@ -9359,11 +9369,11 @@
       <c r="N7" s="142"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="444"/>
+      <c r="A8" s="448"/>
       <c r="B8" s="62">
         <v>2</v>
       </c>
-      <c r="C8" s="187" t="s">
+      <c r="C8" s="186" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="73" t="s">
@@ -9382,16 +9392,16 @@
         <v>2015</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="M8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="444"/>
+      <c r="A9" s="448"/>
       <c r="B9" s="62">
         <v>3</v>
       </c>
-      <c r="C9" s="187" t="s">
+      <c r="C9" s="186" t="s">
         <v>97</v>
       </c>
       <c r="D9" s="73" t="s">
@@ -9410,12 +9420,12 @@
         <v>238</v>
       </c>
       <c r="I9" s="90" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="M9" s="142"/>
     </row>
     <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="444"/>
+      <c r="A10" s="448"/>
       <c r="B10" s="62">
         <v>4</v>
       </c>
@@ -9438,7 +9448,7 @@
         <v>2015</v>
       </c>
       <c r="I10" s="72" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K10" s="142"/>
       <c r="L10" s="142"/>
@@ -9446,24 +9456,24 @@
       <c r="N10" s="142"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="444"/>
-      <c r="B11" s="455" t="s">
+      <c r="A11" s="448"/>
+      <c r="B11" s="459" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="456"/>
-      <c r="D11" s="456"/>
-      <c r="E11" s="456"/>
-      <c r="F11" s="456"/>
-      <c r="G11" s="456"/>
-      <c r="H11" s="456"/>
-      <c r="I11" s="457"/>
+      <c r="C11" s="460"/>
+      <c r="D11" s="460"/>
+      <c r="E11" s="460"/>
+      <c r="F11" s="460"/>
+      <c r="G11" s="460"/>
+      <c r="H11" s="460"/>
+      <c r="I11" s="461"/>
       <c r="K11" s="142"/>
       <c r="L11" s="142"/>
       <c r="M11" s="142"/>
       <c r="N11" s="142"/>
     </row>
     <row r="12" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="444"/>
+      <c r="A12" s="448"/>
       <c r="B12" s="67">
         <v>5</v>
       </c>
@@ -9486,7 +9496,7 @@
         <v>2015</v>
       </c>
       <c r="I12" s="69" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K12" s="142"/>
       <c r="L12" s="142"/>
@@ -9494,20 +9504,20 @@
       <c r="N12" s="142"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="444"/>
-      <c r="B13" s="455" t="s">
+      <c r="A13" s="448"/>
+      <c r="B13" s="459" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="456"/>
-      <c r="D13" s="456"/>
-      <c r="E13" s="456"/>
-      <c r="F13" s="456"/>
-      <c r="G13" s="456"/>
-      <c r="H13" s="456"/>
-      <c r="I13" s="457"/>
+      <c r="C13" s="460"/>
+      <c r="D13" s="460"/>
+      <c r="E13" s="460"/>
+      <c r="F13" s="460"/>
+      <c r="G13" s="460"/>
+      <c r="H13" s="460"/>
+      <c r="I13" s="461"/>
     </row>
     <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="444"/>
+      <c r="A14" s="448"/>
       <c r="B14" s="62">
         <v>7</v>
       </c>
@@ -9534,7 +9544,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="444"/>
+      <c r="A15" s="448"/>
       <c r="B15" s="62">
         <v>8</v>
       </c>
@@ -9561,7 +9571,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="444"/>
+      <c r="A16" s="448"/>
       <c r="B16" s="62">
         <v>9</v>
       </c>
@@ -9572,7 +9582,7 @@
         <v>195</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F16" s="64">
         <v>2</v>
@@ -9584,11 +9594,11 @@
         <v>2015</v>
       </c>
       <c r="I16" s="69" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="444"/>
+      <c r="A17" s="448"/>
       <c r="B17" s="62">
         <v>10</v>
       </c>
@@ -9611,24 +9621,24 @@
         <v>2015</v>
       </c>
       <c r="I17" s="68" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="444"/>
-      <c r="B18" s="452" t="s">
-        <v>631</v>
-      </c>
-      <c r="C18" s="453"/>
-      <c r="D18" s="453"/>
-      <c r="E18" s="453"/>
-      <c r="F18" s="453"/>
-      <c r="G18" s="453"/>
-      <c r="H18" s="453"/>
-      <c r="I18" s="454"/>
+      <c r="A18" s="448"/>
+      <c r="B18" s="456" t="s">
+        <v>628</v>
+      </c>
+      <c r="C18" s="457"/>
+      <c r="D18" s="457"/>
+      <c r="E18" s="457"/>
+      <c r="F18" s="457"/>
+      <c r="G18" s="457"/>
+      <c r="H18" s="457"/>
+      <c r="I18" s="458"/>
     </row>
     <row r="19" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="444"/>
+      <c r="A19" s="448"/>
       <c r="B19" s="62">
         <v>11</v>
       </c>
@@ -9651,22 +9661,22 @@
         <v>2015</v>
       </c>
       <c r="I19" s="68" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="444"/>
+      <c r="A20" s="448"/>
       <c r="B20" s="62">
         <v>12</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F20" s="64">
         <v>1</v>
@@ -9678,24 +9688,24 @@
         <v>2015</v>
       </c>
       <c r="I20" s="68" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="444"/>
-      <c r="B21" s="452" t="s">
+      <c r="A21" s="448"/>
+      <c r="B21" s="456" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="453"/>
-      <c r="D21" s="453"/>
-      <c r="E21" s="453"/>
-      <c r="F21" s="453"/>
-      <c r="G21" s="453"/>
-      <c r="H21" s="453"/>
-      <c r="I21" s="454"/>
+      <c r="C21" s="457"/>
+      <c r="D21" s="457"/>
+      <c r="E21" s="457"/>
+      <c r="F21" s="457"/>
+      <c r="G21" s="457"/>
+      <c r="H21" s="457"/>
+      <c r="I21" s="458"/>
     </row>
     <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="444"/>
+      <c r="A22" s="448"/>
       <c r="B22" s="153">
         <v>13</v>
       </c>
@@ -9722,7 +9732,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="444"/>
+      <c r="A23" s="448"/>
       <c r="B23" s="153">
         <v>14</v>
       </c>
@@ -9745,11 +9755,11 @@
         <v>2015</v>
       </c>
       <c r="I23" s="72" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="444"/>
+      <c r="A24" s="448"/>
       <c r="B24" s="153">
         <v>15</v>
       </c>
@@ -9772,24 +9782,24 @@
         <v>2015</v>
       </c>
       <c r="I24" s="68" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="445"/>
-      <c r="B25" s="433" t="s">
+      <c r="A25" s="449"/>
+      <c r="B25" s="437" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="434"/>
-      <c r="D25" s="434"/>
-      <c r="E25" s="434"/>
+      <c r="C25" s="438"/>
+      <c r="D25" s="438"/>
+      <c r="E25" s="438"/>
       <c r="F25" s="178">
         <f>SUM(F7:F24)</f>
         <v>35</v>
       </c>
-      <c r="G25" s="434"/>
-      <c r="H25" s="434"/>
-      <c r="I25" s="435"/>
+      <c r="G25" s="438"/>
+      <c r="H25" s="438"/>
+      <c r="I25" s="439"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -9847,30 +9857,30 @@
     </row>
     <row r="2" spans="2:12" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="132"/>
-      <c r="C2" s="492" t="s">
+      <c r="C2" s="480" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="493"/>
-      <c r="E2" s="493"/>
-      <c r="F2" s="493"/>
-      <c r="G2" s="493"/>
-      <c r="H2" s="493"/>
-      <c r="I2" s="493"/>
-      <c r="J2" s="494"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="481"/>
+      <c r="F2" s="481"/>
+      <c r="G2" s="481"/>
+      <c r="H2" s="481"/>
+      <c r="I2" s="481"/>
+      <c r="J2" s="482"/>
       <c r="K2" s="133"/>
     </row>
     <row r="3" spans="2:12" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="132"/>
-      <c r="C3" s="495" t="s">
+      <c r="C3" s="483" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="496"/>
-      <c r="E3" s="496"/>
-      <c r="F3" s="496"/>
-      <c r="G3" s="496"/>
-      <c r="H3" s="496"/>
-      <c r="I3" s="496"/>
-      <c r="J3" s="497"/>
+      <c r="D3" s="484"/>
+      <c r="E3" s="484"/>
+      <c r="F3" s="484"/>
+      <c r="G3" s="484"/>
+      <c r="H3" s="484"/>
+      <c r="I3" s="484"/>
+      <c r="J3" s="485"/>
       <c r="K3" s="133"/>
     </row>
     <row r="4" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9887,42 +9897,42 @@
     </row>
     <row r="5" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="132"/>
-      <c r="C5" s="498" t="s">
+      <c r="C5" s="486" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="499"/>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="499"/>
-      <c r="I5" s="499"/>
-      <c r="J5" s="500"/>
+      <c r="D5" s="487"/>
+      <c r="E5" s="487"/>
+      <c r="F5" s="487"/>
+      <c r="G5" s="487"/>
+      <c r="H5" s="487"/>
+      <c r="I5" s="487"/>
+      <c r="J5" s="488"/>
       <c r="K5" s="133"/>
     </row>
     <row r="6" spans="2:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="132"/>
-      <c r="C6" s="501"/>
-      <c r="D6" s="502"/>
-      <c r="E6" s="502"/>
-      <c r="F6" s="502"/>
-      <c r="G6" s="502"/>
-      <c r="H6" s="502"/>
-      <c r="I6" s="502"/>
-      <c r="J6" s="503"/>
+      <c r="C6" s="489"/>
+      <c r="D6" s="490"/>
+      <c r="E6" s="490"/>
+      <c r="F6" s="490"/>
+      <c r="G6" s="490"/>
+      <c r="H6" s="490"/>
+      <c r="I6" s="490"/>
+      <c r="J6" s="491"/>
       <c r="K6" s="133"/>
     </row>
     <row r="7" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="132"/>
-      <c r="C7" s="514" t="s">
+      <c r="C7" s="502" t="s">
         <v>270</v>
       </c>
-      <c r="D7" s="515"/>
-      <c r="E7" s="515"/>
-      <c r="F7" s="515"/>
-      <c r="G7" s="515"/>
-      <c r="H7" s="515"/>
-      <c r="I7" s="515"/>
-      <c r="J7" s="516"/>
+      <c r="D7" s="503"/>
+      <c r="E7" s="503"/>
+      <c r="F7" s="503"/>
+      <c r="G7" s="503"/>
+      <c r="H7" s="503"/>
+      <c r="I7" s="503"/>
+      <c r="J7" s="504"/>
       <c r="K7" s="133"/>
       <c r="L7" s="135"/>
     </row>
@@ -9940,98 +9950,98 @@
     </row>
     <row r="9" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="132"/>
-      <c r="C9" s="504" t="s">
+      <c r="C9" s="492" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="505"/>
-      <c r="E9" s="505"/>
-      <c r="F9" s="505"/>
-      <c r="G9" s="505"/>
-      <c r="H9" s="505"/>
-      <c r="I9" s="505"/>
-      <c r="J9" s="506"/>
+      <c r="D9" s="493"/>
+      <c r="E9" s="493"/>
+      <c r="F9" s="493"/>
+      <c r="G9" s="493"/>
+      <c r="H9" s="493"/>
+      <c r="I9" s="493"/>
+      <c r="J9" s="494"/>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="132"/>
-      <c r="C10" s="507"/>
-      <c r="D10" s="508"/>
-      <c r="E10" s="508"/>
-      <c r="F10" s="508"/>
-      <c r="G10" s="508"/>
-      <c r="H10" s="509"/>
-      <c r="I10" s="509"/>
-      <c r="J10" s="510"/>
+      <c r="C10" s="495"/>
+      <c r="D10" s="496"/>
+      <c r="E10" s="496"/>
+      <c r="F10" s="496"/>
+      <c r="G10" s="496"/>
+      <c r="H10" s="497"/>
+      <c r="I10" s="497"/>
+      <c r="J10" s="498"/>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="132"/>
-      <c r="C11" s="511" t="s">
+      <c r="C11" s="499" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="512"/>
-      <c r="E11" s="512"/>
-      <c r="F11" s="512"/>
-      <c r="G11" s="513"/>
-      <c r="H11" s="517" t="s">
+      <c r="D11" s="500"/>
+      <c r="E11" s="500"/>
+      <c r="F11" s="500"/>
+      <c r="G11" s="501"/>
+      <c r="H11" s="505" t="s">
         <v>115</v>
       </c>
-      <c r="I11" s="518"/>
-      <c r="J11" s="519"/>
+      <c r="I11" s="506"/>
+      <c r="J11" s="507"/>
       <c r="K11" s="133"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="132"/>
-      <c r="C12" s="458" t="s">
+      <c r="C12" s="508" t="s">
         <v>271</v>
       </c>
-      <c r="D12" s="459"/>
-      <c r="E12" s="459"/>
-      <c r="F12" s="459"/>
-      <c r="G12" s="459"/>
-      <c r="H12" s="459"/>
-      <c r="I12" s="459"/>
-      <c r="J12" s="460"/>
+      <c r="D12" s="509"/>
+      <c r="E12" s="509"/>
+      <c r="F12" s="509"/>
+      <c r="G12" s="509"/>
+      <c r="H12" s="509"/>
+      <c r="I12" s="509"/>
+      <c r="J12" s="510"/>
       <c r="K12" s="133"/>
     </row>
     <row r="13" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="132"/>
-      <c r="C13" s="461"/>
-      <c r="D13" s="462"/>
-      <c r="E13" s="462"/>
-      <c r="F13" s="462"/>
-      <c r="G13" s="462"/>
-      <c r="H13" s="462"/>
-      <c r="I13" s="462"/>
-      <c r="J13" s="463"/>
+      <c r="C13" s="511"/>
+      <c r="D13" s="512"/>
+      <c r="E13" s="512"/>
+      <c r="F13" s="512"/>
+      <c r="G13" s="512"/>
+      <c r="H13" s="512"/>
+      <c r="I13" s="512"/>
+      <c r="J13" s="513"/>
       <c r="K13" s="133"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="132"/>
-      <c r="C14" s="486" t="s">
+      <c r="C14" s="536" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="487"/>
-      <c r="E14" s="487"/>
-      <c r="F14" s="487"/>
-      <c r="G14" s="487"/>
-      <c r="H14" s="487"/>
-      <c r="I14" s="487"/>
-      <c r="J14" s="488"/>
+      <c r="D14" s="537"/>
+      <c r="E14" s="537"/>
+      <c r="F14" s="537"/>
+      <c r="G14" s="537"/>
+      <c r="H14" s="537"/>
+      <c r="I14" s="537"/>
+      <c r="J14" s="538"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="132"/>
-      <c r="C15" s="489" t="s">
+      <c r="C15" s="539" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="490"/>
-      <c r="E15" s="490"/>
-      <c r="F15" s="490"/>
-      <c r="G15" s="490"/>
-      <c r="H15" s="490"/>
-      <c r="I15" s="490"/>
-      <c r="J15" s="491"/>
+      <c r="D15" s="540"/>
+      <c r="E15" s="540"/>
+      <c r="F15" s="540"/>
+      <c r="G15" s="540"/>
+      <c r="H15" s="540"/>
+      <c r="I15" s="540"/>
+      <c r="J15" s="541"/>
       <c r="K15" s="133"/>
     </row>
     <row r="16" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10048,84 +10058,84 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="132"/>
-      <c r="C17" s="476" t="s">
+      <c r="C17" s="526" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="477"/>
-      <c r="E17" s="477"/>
-      <c r="F17" s="477"/>
-      <c r="G17" s="477"/>
-      <c r="H17" s="477"/>
-      <c r="I17" s="477"/>
-      <c r="J17" s="478"/>
+      <c r="D17" s="527"/>
+      <c r="E17" s="527"/>
+      <c r="F17" s="527"/>
+      <c r="G17" s="527"/>
+      <c r="H17" s="527"/>
+      <c r="I17" s="527"/>
+      <c r="J17" s="528"/>
       <c r="K17" s="133"/>
     </row>
     <row r="18" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="132"/>
-      <c r="C18" s="479"/>
-      <c r="D18" s="480"/>
-      <c r="E18" s="480"/>
-      <c r="F18" s="481"/>
-      <c r="G18" s="481"/>
-      <c r="H18" s="481"/>
-      <c r="I18" s="481"/>
-      <c r="J18" s="482"/>
+      <c r="C18" s="529"/>
+      <c r="D18" s="530"/>
+      <c r="E18" s="530"/>
+      <c r="F18" s="531"/>
+      <c r="G18" s="531"/>
+      <c r="H18" s="531"/>
+      <c r="I18" s="531"/>
+      <c r="J18" s="532"/>
       <c r="K18" s="133"/>
     </row>
     <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="132"/>
-      <c r="C19" s="483" t="s">
+      <c r="C19" s="533" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="484"/>
-      <c r="E19" s="485"/>
-      <c r="F19" s="470" t="s">
+      <c r="D19" s="534"/>
+      <c r="E19" s="535"/>
+      <c r="F19" s="520" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="471"/>
-      <c r="H19" s="471"/>
-      <c r="I19" s="471"/>
-      <c r="J19" s="472"/>
+      <c r="G19" s="521"/>
+      <c r="H19" s="521"/>
+      <c r="I19" s="521"/>
+      <c r="J19" s="522"/>
       <c r="K19" s="133"/>
     </row>
     <row r="20" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="132"/>
-      <c r="C20" s="464" t="s">
+      <c r="C20" s="514" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="465"/>
-      <c r="E20" s="465"/>
-      <c r="F20" s="465"/>
-      <c r="G20" s="465"/>
-      <c r="H20" s="465"/>
-      <c r="I20" s="465"/>
-      <c r="J20" s="466"/>
+      <c r="D20" s="515"/>
+      <c r="E20" s="515"/>
+      <c r="F20" s="515"/>
+      <c r="G20" s="515"/>
+      <c r="H20" s="515"/>
+      <c r="I20" s="515"/>
+      <c r="J20" s="516"/>
       <c r="K20" s="133"/>
     </row>
     <row r="21" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="132"/>
-      <c r="C21" s="467"/>
-      <c r="D21" s="468"/>
-      <c r="E21" s="468"/>
-      <c r="F21" s="468"/>
-      <c r="G21" s="468"/>
-      <c r="H21" s="468"/>
-      <c r="I21" s="468"/>
-      <c r="J21" s="469"/>
+      <c r="C21" s="517"/>
+      <c r="D21" s="518"/>
+      <c r="E21" s="518"/>
+      <c r="F21" s="518"/>
+      <c r="G21" s="518"/>
+      <c r="H21" s="518"/>
+      <c r="I21" s="518"/>
+      <c r="J21" s="519"/>
       <c r="K21" s="133"/>
     </row>
     <row r="22" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="132"/>
-      <c r="C22" s="473" t="s">
+      <c r="C22" s="523" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="474"/>
-      <c r="E22" s="474"/>
-      <c r="F22" s="474"/>
-      <c r="G22" s="474"/>
-      <c r="H22" s="474"/>
-      <c r="I22" s="474"/>
-      <c r="J22" s="475"/>
+      <c r="D22" s="524"/>
+      <c r="E22" s="524"/>
+      <c r="F22" s="524"/>
+      <c r="G22" s="524"/>
+      <c r="H22" s="524"/>
+      <c r="I22" s="524"/>
+      <c r="J22" s="525"/>
       <c r="K22" s="133"/>
     </row>
     <row r="23" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10142,148 +10152,148 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="132"/>
-      <c r="C24" s="520" t="s">
+      <c r="C24" s="462" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="521"/>
-      <c r="E24" s="521"/>
-      <c r="F24" s="521"/>
-      <c r="G24" s="521"/>
-      <c r="H24" s="521"/>
-      <c r="I24" s="521"/>
-      <c r="J24" s="522"/>
+      <c r="D24" s="463"/>
+      <c r="E24" s="463"/>
+      <c r="F24" s="463"/>
+      <c r="G24" s="463"/>
+      <c r="H24" s="463"/>
+      <c r="I24" s="463"/>
+      <c r="J24" s="464"/>
       <c r="K24" s="133"/>
     </row>
     <row r="25" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="132"/>
-      <c r="C25" s="523"/>
-      <c r="D25" s="524"/>
-      <c r="E25" s="524"/>
-      <c r="F25" s="524"/>
-      <c r="G25" s="524"/>
-      <c r="H25" s="524"/>
-      <c r="I25" s="524"/>
-      <c r="J25" s="525"/>
+      <c r="C25" s="465"/>
+      <c r="D25" s="466"/>
+      <c r="E25" s="466"/>
+      <c r="F25" s="466"/>
+      <c r="G25" s="466"/>
+      <c r="H25" s="466"/>
+      <c r="I25" s="466"/>
+      <c r="J25" s="467"/>
       <c r="K25" s="133"/>
     </row>
     <row r="26" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="132"/>
-      <c r="C26" s="526" t="s">
+      <c r="C26" s="468" t="s">
         <v>277</v>
       </c>
-      <c r="D26" s="527"/>
-      <c r="E26" s="528"/>
-      <c r="F26" s="526" t="s">
+      <c r="D26" s="469"/>
+      <c r="E26" s="470"/>
+      <c r="F26" s="468" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="527"/>
-      <c r="H26" s="527"/>
-      <c r="I26" s="527"/>
-      <c r="J26" s="528"/>
+      <c r="G26" s="469"/>
+      <c r="H26" s="469"/>
+      <c r="I26" s="469"/>
+      <c r="J26" s="470"/>
       <c r="K26" s="133"/>
     </row>
     <row r="27" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="132"/>
-      <c r="C27" s="526" t="s">
+      <c r="C27" s="468" t="s">
+        <v>580</v>
+      </c>
+      <c r="D27" s="469"/>
+      <c r="E27" s="470"/>
+      <c r="F27" s="477" t="s">
         <v>581</v>
       </c>
-      <c r="D27" s="527"/>
-      <c r="E27" s="528"/>
-      <c r="F27" s="535" t="s">
-        <v>582</v>
-      </c>
-      <c r="G27" s="536"/>
-      <c r="H27" s="536"/>
-      <c r="I27" s="536"/>
-      <c r="J27" s="537"/>
+      <c r="G27" s="478"/>
+      <c r="H27" s="478"/>
+      <c r="I27" s="478"/>
+      <c r="J27" s="479"/>
       <c r="K27" s="133"/>
     </row>
     <row r="28" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="132"/>
-      <c r="C28" s="526" t="s">
+      <c r="C28" s="468" t="s">
+        <v>582</v>
+      </c>
+      <c r="D28" s="469"/>
+      <c r="E28" s="470"/>
+      <c r="F28" s="477" t="s">
         <v>583</v>
       </c>
-      <c r="D28" s="527"/>
-      <c r="E28" s="528"/>
-      <c r="F28" s="535" t="s">
-        <v>584</v>
-      </c>
-      <c r="G28" s="536"/>
-      <c r="H28" s="536"/>
-      <c r="I28" s="536"/>
-      <c r="J28" s="537"/>
+      <c r="G28" s="478"/>
+      <c r="H28" s="478"/>
+      <c r="I28" s="478"/>
+      <c r="J28" s="479"/>
       <c r="K28" s="133"/>
     </row>
     <row r="29" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="132"/>
-      <c r="C29" s="526" t="s">
-        <v>585</v>
-      </c>
-      <c r="D29" s="527"/>
-      <c r="E29" s="528"/>
-      <c r="F29" s="535" t="s">
-        <v>637</v>
-      </c>
-      <c r="G29" s="536"/>
-      <c r="H29" s="536"/>
-      <c r="I29" s="536"/>
-      <c r="J29" s="537"/>
+      <c r="C29" s="468" t="s">
+        <v>584</v>
+      </c>
+      <c r="D29" s="469"/>
+      <c r="E29" s="470"/>
+      <c r="F29" s="477" t="s">
+        <v>634</v>
+      </c>
+      <c r="G29" s="478"/>
+      <c r="H29" s="478"/>
+      <c r="I29" s="478"/>
+      <c r="J29" s="479"/>
       <c r="K29" s="133"/>
     </row>
     <row r="30" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="132"/>
-      <c r="C30" s="526" t="s">
-        <v>636</v>
-      </c>
-      <c r="D30" s="527"/>
-      <c r="E30" s="528"/>
-      <c r="F30" s="535" t="s">
-        <v>638</v>
-      </c>
-      <c r="G30" s="536"/>
-      <c r="H30" s="536"/>
-      <c r="I30" s="536"/>
-      <c r="J30" s="537"/>
+      <c r="C30" s="468" t="s">
+        <v>633</v>
+      </c>
+      <c r="D30" s="469"/>
+      <c r="E30" s="470"/>
+      <c r="F30" s="477" t="s">
+        <v>635</v>
+      </c>
+      <c r="G30" s="478"/>
+      <c r="H30" s="478"/>
+      <c r="I30" s="478"/>
+      <c r="J30" s="479"/>
       <c r="K30" s="133"/>
     </row>
     <row r="31" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="132"/>
-      <c r="C31" s="532"/>
-      <c r="D31" s="533"/>
-      <c r="E31" s="533"/>
-      <c r="F31" s="533"/>
-      <c r="G31" s="533"/>
-      <c r="H31" s="533"/>
-      <c r="I31" s="533"/>
-      <c r="J31" s="534"/>
+      <c r="C31" s="474"/>
+      <c r="D31" s="475"/>
+      <c r="E31" s="475"/>
+      <c r="F31" s="475"/>
+      <c r="G31" s="475"/>
+      <c r="H31" s="475"/>
+      <c r="I31" s="475"/>
+      <c r="J31" s="476"/>
       <c r="K31" s="133"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="132"/>
-      <c r="C32" s="529" t="s">
+      <c r="C32" s="471" t="s">
         <v>276</v>
       </c>
-      <c r="D32" s="530"/>
-      <c r="E32" s="530"/>
-      <c r="F32" s="530"/>
-      <c r="G32" s="530"/>
-      <c r="H32" s="530"/>
-      <c r="I32" s="530"/>
-      <c r="J32" s="531"/>
+      <c r="D32" s="472"/>
+      <c r="E32" s="472"/>
+      <c r="F32" s="472"/>
+      <c r="G32" s="472"/>
+      <c r="H32" s="472"/>
+      <c r="I32" s="472"/>
+      <c r="J32" s="473"/>
       <c r="K32" s="133"/>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="132"/>
-      <c r="C33" s="529" t="s">
+      <c r="C33" s="471" t="s">
         <v>275</v>
       </c>
-      <c r="D33" s="530"/>
-      <c r="E33" s="530"/>
-      <c r="F33" s="530"/>
-      <c r="G33" s="530"/>
-      <c r="H33" s="530"/>
-      <c r="I33" s="530"/>
-      <c r="J33" s="531"/>
+      <c r="D33" s="472"/>
+      <c r="E33" s="472"/>
+      <c r="F33" s="472"/>
+      <c r="G33" s="472"/>
+      <c r="H33" s="472"/>
+      <c r="I33" s="472"/>
+      <c r="J33" s="473"/>
       <c r="K33" s="133"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10317,6 +10327,21 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C12:J13"/>
+    <mergeCell ref="C20:J21"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C17:J18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C5:J6"/>
+    <mergeCell ref="C9:J10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="C24:J25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:J26"/>
@@ -10331,21 +10356,6 @@
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="F30:J30"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C5:J6"/>
-    <mergeCell ref="C9:J10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:J13"/>
-    <mergeCell ref="C20:J21"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C17:J18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10379,17 +10389,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="538" t="s">
+      <c r="A1" s="555" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="539"/>
-      <c r="C1" s="539"/>
-      <c r="D1" s="539"/>
-      <c r="E1" s="539"/>
-      <c r="F1" s="539"/>
-      <c r="G1" s="539"/>
-      <c r="H1" s="539"/>
-      <c r="I1" s="540"/>
+      <c r="B1" s="556"/>
+      <c r="C1" s="556"/>
+      <c r="D1" s="556"/>
+      <c r="E1" s="556"/>
+      <c r="F1" s="556"/>
+      <c r="G1" s="556"/>
+      <c r="H1" s="556"/>
+      <c r="I1" s="557"/>
     </row>
     <row r="2" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="148" t="s">
@@ -10450,67 +10460,67 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="541" t="s">
+      <c r="A4" s="558" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="542"/>
-      <c r="C4" s="542"/>
-      <c r="D4" s="542"/>
-      <c r="E4" s="542"/>
-      <c r="F4" s="542"/>
-      <c r="G4" s="542"/>
-      <c r="H4" s="542"/>
-      <c r="I4" s="543"/>
+      <c r="B4" s="559"/>
+      <c r="C4" s="559"/>
+      <c r="D4" s="559"/>
+      <c r="E4" s="559"/>
+      <c r="F4" s="559"/>
+      <c r="G4" s="559"/>
+      <c r="H4" s="559"/>
+      <c r="I4" s="560"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="275" t="s">
+      <c r="A5" s="273" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="213" t="s">
-        <v>554</v>
-      </c>
-      <c r="C5" s="207" t="s">
-        <v>552</v>
-      </c>
-      <c r="D5" s="271" t="s">
-        <v>612</v>
-      </c>
-      <c r="E5" s="207" t="s">
-        <v>556</v>
-      </c>
-      <c r="F5" s="272"/>
-      <c r="G5" s="271" t="s">
-        <v>616</v>
-      </c>
-      <c r="H5" s="271" t="s">
-        <v>343</v>
-      </c>
-      <c r="I5" s="193"/>
+      <c r="B5" s="212" t="s">
+        <v>553</v>
+      </c>
+      <c r="C5" s="206" t="s">
+        <v>551</v>
+      </c>
+      <c r="D5" s="269" t="s">
+        <v>609</v>
+      </c>
+      <c r="E5" s="206" t="s">
+        <v>555</v>
+      </c>
+      <c r="F5" s="270"/>
+      <c r="G5" s="269" t="s">
+        <v>613</v>
+      </c>
+      <c r="H5" s="269" t="s">
+        <v>342</v>
+      </c>
+      <c r="I5" s="192"/>
     </row>
     <row r="6" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="162" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="205" t="s">
-        <v>604</v>
+      <c r="B6" s="204" t="s">
+        <v>601</v>
       </c>
       <c r="C6" s="147" t="s">
-        <v>522</v>
-      </c>
-      <c r="D6" s="276" t="s">
+        <v>521</v>
+      </c>
+      <c r="D6" s="274" t="s">
+        <v>416</v>
+      </c>
+      <c r="E6" s="197" t="s">
+        <v>328</v>
+      </c>
+      <c r="F6" s="197" t="s">
+        <v>327</v>
+      </c>
+      <c r="G6" s="274" t="s">
+        <v>418</v>
+      </c>
+      <c r="H6" s="274" t="s">
         <v>417</v>
-      </c>
-      <c r="E6" s="198" t="s">
-        <v>329</v>
-      </c>
-      <c r="F6" s="198" t="s">
-        <v>328</v>
-      </c>
-      <c r="G6" s="276" t="s">
-        <v>419</v>
-      </c>
-      <c r="H6" s="276" t="s">
-        <v>418</v>
       </c>
       <c r="I6" s="7"/>
     </row>
@@ -10518,156 +10528,156 @@
       <c r="A7" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="203" t="s">
-        <v>537</v>
+      <c r="B7" s="202" t="s">
+        <v>536</v>
       </c>
       <c r="C7" s="145" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D7" s="160"/>
       <c r="E7" s="145" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F7" s="145" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G7" s="145" t="s">
-        <v>557</v>
-      </c>
-      <c r="H7" s="276" t="s">
+        <v>556</v>
+      </c>
+      <c r="H7" s="274" t="s">
+        <v>413</v>
+      </c>
+      <c r="I7" s="275" t="s">
         <v>414</v>
-      </c>
-      <c r="I7" s="277" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="162" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="214" t="s">
+      <c r="B8" s="213" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" s="274" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="274" t="s">
+        <v>419</v>
+      </c>
+      <c r="E8" s="197" t="s">
         <v>330</v>
       </c>
-      <c r="C8" s="276" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="276" t="s">
-        <v>420</v>
-      </c>
-      <c r="E8" s="198" t="s">
-        <v>331</v>
-      </c>
-      <c r="F8" s="281" t="s">
+      <c r="F8" s="279" t="s">
+        <v>438</v>
+      </c>
+      <c r="G8" s="279" t="s">
         <v>439</v>
       </c>
-      <c r="G8" s="281" t="s">
-        <v>440</v>
-      </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="282" t="s">
-        <v>447</v>
+      <c r="I8" s="280" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="162" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="278" t="s">
+      <c r="B9" s="276" t="s">
+        <v>400</v>
+      </c>
+      <c r="C9" s="274" t="s">
         <v>401</v>
       </c>
-      <c r="C9" s="276" t="s">
-        <v>402</v>
-      </c>
-      <c r="D9" s="281" t="s">
+      <c r="D9" s="279" t="s">
+        <v>523</v>
+      </c>
+      <c r="E9" s="279" t="s">
+        <v>522</v>
+      </c>
+      <c r="F9" s="279" t="s">
         <v>524</v>
       </c>
-      <c r="E9" s="281" t="s">
-        <v>523</v>
-      </c>
-      <c r="F9" s="281" t="s">
+      <c r="G9" s="279" t="s">
+        <v>440</v>
+      </c>
+      <c r="H9" s="279" t="s">
         <v>525</v>
       </c>
-      <c r="G9" s="281" t="s">
-        <v>441</v>
-      </c>
-      <c r="H9" s="281" t="s">
+      <c r="I9" s="280" t="s">
         <v>526</v>
-      </c>
-      <c r="I9" s="282" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="162" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="278" t="s">
-        <v>416</v>
-      </c>
-      <c r="C10" s="281" t="s">
-        <v>435</v>
-      </c>
-      <c r="D10" s="281" t="s">
+      <c r="B10" s="276" t="s">
+        <v>415</v>
+      </c>
+      <c r="C10" s="279" t="s">
+        <v>434</v>
+      </c>
+      <c r="D10" s="279" t="s">
+        <v>444</v>
+      </c>
+      <c r="E10" s="279" t="s">
         <v>445</v>
       </c>
-      <c r="E10" s="281" t="s">
-        <v>446</v>
-      </c>
-      <c r="F10" s="286"/>
-      <c r="G10" s="311" t="s">
-        <v>327</v>
-      </c>
-      <c r="H10" s="235" t="s">
-        <v>327</v>
-      </c>
-      <c r="I10" s="190"/>
+      <c r="F10" s="284"/>
+      <c r="G10" s="309" t="s">
+        <v>326</v>
+      </c>
+      <c r="H10" s="234" t="s">
+        <v>326</v>
+      </c>
+      <c r="I10" s="189"/>
     </row>
     <row r="11" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="162" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="203" t="s">
-        <v>623</v>
+      <c r="B11" s="202" t="s">
+        <v>620</v>
       </c>
       <c r="C11" s="160"/>
-      <c r="D11" s="281" t="s">
+      <c r="D11" s="279" t="s">
+        <v>431</v>
+      </c>
+      <c r="E11" s="279" t="s">
+        <v>443</v>
+      </c>
+      <c r="F11" s="279" t="s">
+        <v>441</v>
+      </c>
+      <c r="G11" s="279" t="s">
+        <v>433</v>
+      </c>
+      <c r="H11" s="279" t="s">
         <v>432</v>
       </c>
-      <c r="E11" s="281" t="s">
-        <v>444</v>
-      </c>
-      <c r="F11" s="281" t="s">
+      <c r="I11" s="280" t="s">
         <v>442</v>
-      </c>
-      <c r="G11" s="281" t="s">
-        <v>434</v>
-      </c>
-      <c r="H11" s="281" t="s">
-        <v>433</v>
-      </c>
-      <c r="I11" s="282" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="162" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="278" t="s">
-        <v>403</v>
+      <c r="B12" s="276" t="s">
+        <v>402</v>
       </c>
       <c r="C12" s="159" t="s">
         <v>187</v>
       </c>
       <c r="D12" s="150"/>
-      <c r="E12" s="276" t="s">
-        <v>386</v>
-      </c>
-      <c r="F12" s="276" t="s">
+      <c r="E12" s="274" t="s">
+        <v>385</v>
+      </c>
+      <c r="F12" s="274" t="s">
+        <v>390</v>
+      </c>
+      <c r="G12" s="274" t="s">
         <v>391</v>
-      </c>
-      <c r="G12" s="276" t="s">
-        <v>392</v>
       </c>
       <c r="H12" s="160"/>
       <c r="I12" s="164"/>
@@ -10677,129 +10687,129 @@
         <v>137</v>
       </c>
       <c r="B13" s="176" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C13" s="143" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D13" s="150"/>
-      <c r="E13" s="281" t="s">
-        <v>428</v>
+      <c r="E13" s="279" t="s">
+        <v>427</v>
       </c>
       <c r="F13" s="160"/>
       <c r="G13" s="147" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H13" s="147" t="s">
-        <v>614</v>
-      </c>
-      <c r="I13" s="190"/>
+        <v>611</v>
+      </c>
+      <c r="I13" s="189"/>
     </row>
     <row r="14" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="162" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="203" t="s">
-        <v>565</v>
-      </c>
-      <c r="C14" s="281" t="s">
+      <c r="B14" s="202" t="s">
+        <v>564</v>
+      </c>
+      <c r="C14" s="279" t="s">
+        <v>592</v>
+      </c>
+      <c r="D14" s="279" t="s">
         <v>593</v>
       </c>
-      <c r="D14" s="281" t="s">
-        <v>594</v>
-      </c>
-      <c r="E14" s="281" t="s">
-        <v>528</v>
+      <c r="E14" s="279" t="s">
+        <v>527</v>
       </c>
       <c r="F14" s="150"/>
       <c r="G14" s="160"/>
       <c r="H14" s="150"/>
-      <c r="I14" s="190"/>
+      <c r="I14" s="189"/>
     </row>
     <row r="15" spans="1:9" s="94" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="162" t="s">
-        <v>595</v>
-      </c>
-      <c r="B15" s="554" t="s">
-        <v>621</v>
+        <v>594</v>
+      </c>
+      <c r="B15" s="546" t="s">
+        <v>618</v>
       </c>
       <c r="C15" s="547"/>
       <c r="D15" s="150"/>
       <c r="E15" s="547" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F15" s="547"/>
       <c r="G15" s="150"/>
       <c r="H15" s="150"/>
-      <c r="I15" s="190"/>
+      <c r="I15" s="189"/>
     </row>
     <row r="16" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="162" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="214" t="s">
-        <v>335</v>
+      <c r="B16" s="213" t="s">
+        <v>334</v>
       </c>
       <c r="C16" s="160"/>
       <c r="D16" s="161"/>
-      <c r="E16" s="198" t="s">
-        <v>336</v>
-      </c>
-      <c r="F16" s="198" t="s">
-        <v>334</v>
+      <c r="E16" s="197" t="s">
+        <v>335</v>
+      </c>
+      <c r="F16" s="197" t="s">
+        <v>333</v>
       </c>
       <c r="G16" s="145" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H16" s="145" t="s">
-        <v>541</v>
-      </c>
-      <c r="I16" s="190"/>
+        <v>540</v>
+      </c>
+      <c r="I16" s="189"/>
     </row>
     <row r="17" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="162" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="278" t="s">
-        <v>423</v>
+      <c r="B17" s="276" t="s">
+        <v>422</v>
       </c>
       <c r="C17" s="145" t="s">
         <v>303</v>
       </c>
-      <c r="D17" s="276" t="s">
-        <v>425</v>
+      <c r="D17" s="274" t="s">
+        <v>424</v>
       </c>
       <c r="E17" s="145" t="s">
         <v>304</v>
       </c>
-      <c r="F17" s="276" t="s">
-        <v>387</v>
+      <c r="F17" s="274" t="s">
+        <v>386</v>
       </c>
       <c r="G17" s="160"/>
       <c r="H17" s="145" t="s">
         <v>305</v>
       </c>
-      <c r="I17" s="277" t="s">
-        <v>424</v>
+      <c r="I17" s="275" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="162" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="204" t="s">
-        <v>539</v>
+      <c r="B18" s="203" t="s">
+        <v>538</v>
       </c>
       <c r="C18" s="160"/>
       <c r="D18" s="150"/>
-      <c r="E18" s="276" t="s">
-        <v>383</v>
-      </c>
-      <c r="F18" s="276" t="s">
-        <v>385</v>
+      <c r="E18" s="274" t="s">
+        <v>382</v>
+      </c>
+      <c r="F18" s="274" t="s">
+        <v>384</v>
       </c>
       <c r="G18" s="145" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H18" s="161"/>
       <c r="I18" s="164"/>
@@ -10808,96 +10818,93 @@
       <c r="A19" s="162" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="204" t="s">
-        <v>310</v>
+      <c r="B19" s="203" t="s">
+        <v>309</v>
       </c>
       <c r="C19" s="160"/>
-      <c r="D19" s="145" t="s">
-        <v>309</v>
-      </c>
-      <c r="E19" s="198" t="s">
-        <v>333</v>
-      </c>
-      <c r="F19" s="198" t="s">
+      <c r="E19" s="197" t="s">
         <v>332</v>
       </c>
-      <c r="G19" s="280"/>
+      <c r="F19" s="197" t="s">
+        <v>331</v>
+      </c>
+      <c r="G19" s="278"/>
       <c r="H19" s="145" t="s">
         <v>308</v>
       </c>
-      <c r="I19" s="208" t="s">
-        <v>345</v>
+      <c r="I19" s="207" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="94" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="162" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="204" t="s">
-        <v>540</v>
+      <c r="B20" s="203" t="s">
+        <v>539</v>
       </c>
       <c r="C20" s="145" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D20" s="160"/>
-      <c r="E20" s="276" t="s">
-        <v>645</v>
+      <c r="E20" s="274" t="s">
+        <v>642</v>
       </c>
       <c r="F20" s="145" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G20" s="145" t="s">
-        <v>542</v>
-      </c>
-      <c r="H20" s="280"/>
-      <c r="I20" s="190"/>
+        <v>541</v>
+      </c>
+      <c r="H20" s="278"/>
+      <c r="I20" s="189"/>
     </row>
     <row r="21" spans="1:9" s="94" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="163" t="s">
-        <v>596</v>
-      </c>
-      <c r="B21" s="205" t="s">
-        <v>368</v>
+        <v>595</v>
+      </c>
+      <c r="B21" s="204" t="s">
+        <v>367</v>
       </c>
       <c r="C21" s="147" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D21" s="147" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E21" s="147" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F21" s="147" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G21" s="160"/>
       <c r="H21" s="145" t="s">
-        <v>321</v>
-      </c>
-      <c r="I21" s="208" t="s">
-        <v>346</v>
+        <v>320</v>
+      </c>
+      <c r="I21" s="207" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="94" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="163" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="220"/>
+      <c r="B22" s="219"/>
       <c r="C22" s="145" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D22" s="145" t="s">
         <v>285</v>
       </c>
-      <c r="E22" s="276" t="s">
+      <c r="E22" s="274" t="s">
+        <v>387</v>
+      </c>
+      <c r="F22" s="274" t="s">
         <v>388</v>
       </c>
-      <c r="F22" s="276" t="s">
-        <v>389</v>
-      </c>
       <c r="G22" s="145" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I22" s="145" t="s">
         <v>287</v>
@@ -10907,11 +10914,11 @@
       <c r="A23" s="162" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="204" t="s">
+      <c r="B23" s="203" t="s">
         <v>293</v>
       </c>
       <c r="C23" s="145" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D23" s="145" t="s">
         <v>294</v>
@@ -10929,15 +10936,15 @@
         <v>291</v>
       </c>
       <c r="I23" s="165" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="94" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="162" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="218" t="s">
-        <v>314</v>
+      <c r="B24" s="217" t="s">
+        <v>313</v>
       </c>
       <c r="C24" s="179" t="s">
         <v>283</v>
@@ -10946,144 +10953,144 @@
         <v>283</v>
       </c>
       <c r="E24" s="179" t="s">
-        <v>313</v>
-      </c>
-      <c r="F24" s="231"/>
+        <v>312</v>
+      </c>
+      <c r="F24" s="230"/>
       <c r="G24" s="183"/>
       <c r="H24" s="179" t="s">
-        <v>312</v>
-      </c>
-      <c r="I24" s="221" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="I24" s="220" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="94" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="541" t="s">
+      <c r="A25" s="558" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="544"/>
-      <c r="C25" s="544"/>
-      <c r="D25" s="544"/>
-      <c r="E25" s="544"/>
-      <c r="F25" s="544"/>
-      <c r="G25" s="544"/>
-      <c r="H25" s="544"/>
-      <c r="I25" s="545"/>
+      <c r="B25" s="561"/>
+      <c r="C25" s="561"/>
+      <c r="D25" s="561"/>
+      <c r="E25" s="561"/>
+      <c r="F25" s="561"/>
+      <c r="G25" s="561"/>
+      <c r="H25" s="561"/>
+      <c r="I25" s="562"/>
     </row>
     <row r="26" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="559" t="s">
-        <v>519</v>
-      </c>
-      <c r="C26" s="560"/>
-      <c r="D26" s="560"/>
-      <c r="E26" s="273"/>
-      <c r="F26" s="548" t="s">
-        <v>485</v>
-      </c>
-      <c r="G26" s="548"/>
-      <c r="H26" s="548"/>
-      <c r="I26" s="274"/>
+      <c r="B26" s="553" t="s">
+        <v>518</v>
+      </c>
+      <c r="C26" s="554"/>
+      <c r="D26" s="554"/>
+      <c r="E26" s="271"/>
+      <c r="F26" s="564" t="s">
+        <v>484</v>
+      </c>
+      <c r="G26" s="564"/>
+      <c r="H26" s="564"/>
+      <c r="I26" s="272"/>
     </row>
     <row r="27" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="162" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="558" t="s">
-        <v>494</v>
-      </c>
-      <c r="C27" s="550"/>
-      <c r="D27" s="550"/>
-      <c r="E27" s="549" t="s">
-        <v>486</v>
-      </c>
-      <c r="F27" s="549"/>
-      <c r="G27" s="550" t="s">
-        <v>490</v>
-      </c>
-      <c r="H27" s="550"/>
-      <c r="I27" s="551"/>
+      <c r="B27" s="552" t="s">
+        <v>493</v>
+      </c>
+      <c r="C27" s="544"/>
+      <c r="D27" s="544"/>
+      <c r="E27" s="550" t="s">
+        <v>485</v>
+      </c>
+      <c r="F27" s="550"/>
+      <c r="G27" s="544" t="s">
+        <v>489</v>
+      </c>
+      <c r="H27" s="544"/>
+      <c r="I27" s="545"/>
     </row>
     <row r="28" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="555" t="s">
-        <v>497</v>
-      </c>
-      <c r="C28" s="556"/>
-      <c r="D28" s="556"/>
+      <c r="B28" s="548" t="s">
+        <v>496</v>
+      </c>
+      <c r="C28" s="549"/>
+      <c r="D28" s="549"/>
       <c r="E28" s="161"/>
       <c r="F28" s="146"/>
-      <c r="G28" s="210"/>
-      <c r="H28" s="210"/>
-      <c r="I28" s="212"/>
+      <c r="G28" s="209"/>
+      <c r="H28" s="209"/>
+      <c r="I28" s="211"/>
     </row>
     <row r="29" spans="1:9" s="94" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="162" t="s">
-        <v>570</v>
-      </c>
-      <c r="B29" s="220"/>
+        <v>569</v>
+      </c>
+      <c r="B29" s="219"/>
       <c r="C29" s="160"/>
       <c r="D29" s="160"/>
-      <c r="E29" s="549" t="s">
-        <v>487</v>
-      </c>
-      <c r="F29" s="549"/>
-      <c r="G29" s="549" t="s">
-        <v>558</v>
-      </c>
-      <c r="H29" s="549"/>
-      <c r="I29" s="557"/>
+      <c r="E29" s="550" t="s">
+        <v>486</v>
+      </c>
+      <c r="F29" s="550"/>
+      <c r="G29" s="550" t="s">
+        <v>557</v>
+      </c>
+      <c r="H29" s="550"/>
+      <c r="I29" s="551"/>
     </row>
     <row r="30" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="162" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="555" t="s">
-        <v>520</v>
-      </c>
-      <c r="C30" s="556"/>
-      <c r="D30" s="556"/>
+      <c r="B30" s="548" t="s">
+        <v>519</v>
+      </c>
+      <c r="C30" s="549"/>
+      <c r="D30" s="549"/>
       <c r="E30" s="161"/>
-      <c r="F30" s="546" t="s">
-        <v>625</v>
-      </c>
-      <c r="G30" s="546"/>
-      <c r="H30" s="546"/>
+      <c r="F30" s="563" t="s">
+        <v>622</v>
+      </c>
+      <c r="G30" s="563"/>
+      <c r="H30" s="563"/>
       <c r="I30" s="164"/>
     </row>
     <row r="31" spans="1:9" s="94" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="162" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="552" t="s">
-        <v>489</v>
-      </c>
-      <c r="C31" s="553"/>
-      <c r="D31" s="553"/>
-      <c r="E31" s="210"/>
-      <c r="F31" s="210"/>
-      <c r="G31" s="550" t="s">
+      <c r="B31" s="542" t="s">
         <v>488</v>
       </c>
-      <c r="H31" s="550"/>
-      <c r="I31" s="551"/>
+      <c r="C31" s="543"/>
+      <c r="D31" s="543"/>
+      <c r="E31" s="209"/>
+      <c r="F31" s="209"/>
+      <c r="G31" s="544" t="s">
+        <v>487</v>
+      </c>
+      <c r="H31" s="544"/>
+      <c r="I31" s="545"/>
     </row>
     <row r="32" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="162" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="233"/>
-      <c r="C32" s="234"/>
-      <c r="D32" s="231"/>
-      <c r="E32" s="234"/>
-      <c r="F32" s="234"/>
-      <c r="G32" s="231"/>
-      <c r="H32" s="231"/>
-      <c r="I32" s="232"/>
+      <c r="B32" s="232"/>
+      <c r="C32" s="233"/>
+      <c r="D32" s="230"/>
+      <c r="E32" s="233"/>
+      <c r="F32" s="233"/>
+      <c r="G32" s="230"/>
+      <c r="H32" s="230"/>
+      <c r="I32" s="231"/>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="79"/>
@@ -11135,6 +11142,14 @@
     <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="B15:C15"/>
@@ -11144,14 +11159,6 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.21" top="0.22" bottom="0.2" header="0.17" footer="0.17"/>
@@ -11272,55 +11279,55 @@
       <c r="A5" s="173" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="213" t="s">
+      <c r="B5" s="212" t="s">
+        <v>552</v>
+      </c>
+      <c r="C5" s="206" t="s">
+        <v>550</v>
+      </c>
+      <c r="D5" s="326" t="s">
+        <v>413</v>
+      </c>
+      <c r="E5" s="206" t="s">
+        <v>548</v>
+      </c>
+      <c r="F5" s="206" t="s">
         <v>553</v>
       </c>
-      <c r="C5" s="207" t="s">
-        <v>551</v>
-      </c>
-      <c r="D5" s="283" t="s">
+      <c r="G5" s="300" t="s">
+        <v>588</v>
+      </c>
+      <c r="H5" s="326" t="s">
+        <v>415</v>
+      </c>
+      <c r="I5" s="282" t="s">
         <v>414</v>
-      </c>
-      <c r="E5" s="207" t="s">
-        <v>549</v>
-      </c>
-      <c r="F5" s="207" t="s">
-        <v>554</v>
-      </c>
-      <c r="G5" s="302" t="s">
-        <v>589</v>
-      </c>
-      <c r="H5" s="283" t="s">
-        <v>416</v>
-      </c>
-      <c r="I5" s="284" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="278" t="s">
-        <v>422</v>
+      <c r="B6" s="325" t="s">
+        <v>421</v>
       </c>
       <c r="C6" s="145" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D6" s="145" t="s">
-        <v>556</v>
-      </c>
-      <c r="E6" s="198" t="s">
+        <v>555</v>
+      </c>
+      <c r="E6" s="197" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" s="197" t="s">
         <v>328</v>
       </c>
-      <c r="F6" s="198" t="s">
-        <v>329</v>
-      </c>
-      <c r="G6" s="276" t="s">
+      <c r="G6" s="323" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="276" t="s">
-        <v>421</v>
+      <c r="H6" s="323" t="s">
+        <v>420</v>
       </c>
       <c r="I6" s="166"/>
     </row>
@@ -11328,67 +11335,71 @@
       <c r="A7" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="278" t="s">
-        <v>420</v>
-      </c>
-      <c r="C7" s="276" t="s">
+      <c r="B7" s="325" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" s="323" t="s">
         <v>185</v>
       </c>
       <c r="D7" s="145" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E7" s="145" t="s">
-        <v>555</v>
-      </c>
-      <c r="F7" s="281" t="s">
-        <v>453</v>
-      </c>
-      <c r="G7" s="144"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="191"/>
+        <v>554</v>
+      </c>
+      <c r="F7" s="279" t="s">
+        <v>452</v>
+      </c>
+      <c r="G7" s="145" t="s">
+        <v>659</v>
+      </c>
+      <c r="H7" s="145" t="s">
+        <v>658</v>
+      </c>
+      <c r="I7" s="190"/>
     </row>
     <row r="8" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="229"/>
-      <c r="C8" s="281" t="s">
-        <v>448</v>
-      </c>
-      <c r="D8" s="281" t="s">
-        <v>438</v>
-      </c>
-      <c r="E8" s="198" t="s">
+      <c r="B8" s="228"/>
+      <c r="C8" s="279" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" s="279" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" s="197" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="197" t="s">
         <v>330</v>
       </c>
-      <c r="F8" s="198" t="s">
-        <v>331</v>
-      </c>
-      <c r="G8" s="281" t="s">
-        <v>448</v>
+      <c r="G8" s="279" t="s">
+        <v>447</v>
       </c>
       <c r="H8" s="157"/>
-      <c r="I8" s="191"/>
+      <c r="I8" s="190"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="215" t="s">
-        <v>397</v>
+      <c r="B9" s="214" t="s">
+        <v>396</v>
       </c>
       <c r="C9" s="154"/>
-      <c r="D9" s="281" t="s">
+      <c r="D9" s="279" t="s">
+        <v>450</v>
+      </c>
+      <c r="E9" s="279" t="s">
         <v>451</v>
       </c>
-      <c r="E9" s="281" t="s">
-        <v>452</v>
-      </c>
-      <c r="F9" s="276" t="s">
-        <v>413</v>
-      </c>
-      <c r="G9" s="276" t="s">
+      <c r="F9" s="323" t="s">
         <v>412</v>
+      </c>
+      <c r="G9" s="323" t="s">
+        <v>411</v>
       </c>
       <c r="H9" s="150"/>
       <c r="I9" s="169"/>
@@ -11397,21 +11408,21 @@
       <c r="A10" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="203" t="s">
-        <v>594</v>
-      </c>
-      <c r="C10" s="281" t="s">
+      <c r="B10" s="328" t="s">
         <v>593</v>
       </c>
+      <c r="C10" s="279" t="s">
+        <v>592</v>
+      </c>
       <c r="D10" s="143" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E10" s="143" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F10" s="144"/>
       <c r="G10" s="143" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H10" s="158"/>
       <c r="I10" s="169"/>
@@ -11420,25 +11431,25 @@
       <c r="A11" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="205" t="s">
-        <v>605</v>
+      <c r="B11" s="204" t="s">
+        <v>602</v>
       </c>
       <c r="C11" s="147" t="s">
-        <v>603</v>
-      </c>
-      <c r="D11" s="281" t="s">
-        <v>588</v>
-      </c>
-      <c r="E11" s="281" t="s">
-        <v>426</v>
+        <v>600</v>
+      </c>
+      <c r="D11" s="279" t="s">
+        <v>587</v>
+      </c>
+      <c r="E11" s="279" t="s">
+        <v>425</v>
       </c>
       <c r="F11" s="157"/>
       <c r="G11" s="143" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H11" s="144"/>
-      <c r="I11" s="303" t="s">
-        <v>356</v>
+      <c r="I11" s="301" t="s">
+        <v>355</v>
       </c>
       <c r="K11" s="1"/>
     </row>
@@ -11446,50 +11457,50 @@
       <c r="A12" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="203" t="s">
-        <v>435</v>
+      <c r="B12" s="328" t="s">
+        <v>434</v>
       </c>
       <c r="C12" s="159" t="s">
         <v>187</v>
       </c>
-      <c r="D12" s="281" t="s">
-        <v>450</v>
-      </c>
-      <c r="E12" s="281" t="s">
+      <c r="D12" s="279" t="s">
         <v>449</v>
       </c>
+      <c r="E12" s="279" t="s">
+        <v>448</v>
+      </c>
       <c r="F12" s="143" t="s">
+        <v>352</v>
+      </c>
+      <c r="G12" s="143" t="s">
         <v>353</v>
       </c>
-      <c r="G12" s="143" t="s">
-        <v>354</v>
-      </c>
       <c r="H12" s="154"/>
-      <c r="I12" s="228"/>
+      <c r="I12" s="227"/>
     </row>
     <row r="13" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="204" t="s">
-        <v>557</v>
+      <c r="B13" s="203" t="s">
+        <v>556</v>
       </c>
       <c r="C13" s="147" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D13" s="157"/>
       <c r="E13" s="147" t="s">
-        <v>338</v>
-      </c>
-      <c r="F13" s="276" t="s">
+        <v>337</v>
+      </c>
+      <c r="F13" s="323" t="s">
+        <v>400</v>
+      </c>
+      <c r="G13" s="323" t="s">
         <v>401</v>
-      </c>
-      <c r="G13" s="276" t="s">
-        <v>402</v>
       </c>
       <c r="H13" s="150"/>
       <c r="I13" s="182" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K13" s="1"/>
     </row>
@@ -11497,97 +11508,97 @@
       <c r="A14" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="214" t="s">
-        <v>333</v>
-      </c>
-      <c r="C14" s="281" t="s">
-        <v>587</v>
-      </c>
-      <c r="D14" s="281" t="s">
-        <v>437</v>
+      <c r="B14" s="213" t="s">
+        <v>332</v>
+      </c>
+      <c r="C14" s="279" t="s">
+        <v>586</v>
+      </c>
+      <c r="D14" s="279" t="s">
+        <v>436</v>
       </c>
       <c r="E14" s="159" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F14" s="159" t="s">
-        <v>396</v>
-      </c>
-      <c r="G14" s="281" t="s">
-        <v>587</v>
+        <v>395</v>
+      </c>
+      <c r="G14" s="279" t="s">
+        <v>586</v>
       </c>
       <c r="H14" s="157"/>
       <c r="I14" s="170"/>
     </row>
     <row r="15" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="77" t="s">
-        <v>595</v>
-      </c>
-      <c r="B15" s="554" t="s">
-        <v>624</v>
+        <v>594</v>
+      </c>
+      <c r="B15" s="546" t="s">
+        <v>621</v>
       </c>
       <c r="C15" s="547"/>
       <c r="D15" s="157"/>
-      <c r="E15" s="198" t="s">
-        <v>332</v>
-      </c>
-      <c r="F15" s="281" t="s">
-        <v>454</v>
-      </c>
-      <c r="G15" s="281" t="s">
-        <v>464</v>
+      <c r="E15" s="197" t="s">
+        <v>331</v>
+      </c>
+      <c r="F15" s="279" t="s">
+        <v>453</v>
+      </c>
+      <c r="G15" s="279" t="s">
+        <v>463</v>
       </c>
       <c r="H15" s="547" t="s">
-        <v>639</v>
-      </c>
-      <c r="I15" s="573"/>
+        <v>636</v>
+      </c>
+      <c r="I15" s="574"/>
     </row>
     <row r="16" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="214" t="s">
-        <v>336</v>
+      <c r="B16" s="213" t="s">
+        <v>335</v>
       </c>
       <c r="C16" s="145" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D16" s="144"/>
-      <c r="E16" s="198" t="s">
+      <c r="E16" s="197" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" s="197" t="s">
         <v>334</v>
       </c>
-      <c r="F16" s="198" t="s">
-        <v>335</v>
-      </c>
       <c r="G16" s="145" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H16" s="145" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I16" s="165" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="205" t="s">
-        <v>366</v>
+      <c r="B17" s="204" t="s">
+        <v>365</v>
       </c>
       <c r="C17" s="159" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D17" s="150"/>
       <c r="E17" s="147" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F17" s="156"/>
       <c r="G17" s="147" t="s">
-        <v>367</v>
-      </c>
-      <c r="H17" s="198" t="s">
-        <v>346</v>
+        <v>366</v>
+      </c>
+      <c r="H17" s="197" t="s">
+        <v>345</v>
       </c>
       <c r="I17" s="168"/>
     </row>
@@ -11595,23 +11606,23 @@
       <c r="A18" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="215" t="s">
-        <v>400</v>
+      <c r="B18" s="214" t="s">
+        <v>399</v>
       </c>
       <c r="C18" s="144"/>
       <c r="D18" s="144"/>
       <c r="E18" s="159" t="s">
+        <v>397</v>
+      </c>
+      <c r="F18" s="159" t="s">
         <v>398</v>
       </c>
-      <c r="F18" s="159" t="s">
-        <v>399</v>
-      </c>
       <c r="G18" s="157"/>
-      <c r="H18" s="198" t="s">
-        <v>601</v>
-      </c>
-      <c r="I18" s="208" t="s">
-        <v>348</v>
+      <c r="H18" s="197" t="s">
+        <v>598</v>
+      </c>
+      <c r="I18" s="207" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11619,50 +11630,50 @@
         <v>141</v>
       </c>
       <c r="B19" s="172"/>
-      <c r="C19" s="227"/>
+      <c r="C19" s="226"/>
       <c r="D19" s="156"/>
-      <c r="E19" s="281" t="s">
+      <c r="E19" s="279" t="s">
+        <v>454</v>
+      </c>
+      <c r="F19" s="279" t="s">
+        <v>456</v>
+      </c>
+      <c r="G19" s="226"/>
+      <c r="H19" s="279" t="s">
         <v>455</v>
       </c>
-      <c r="F19" s="281" t="s">
-        <v>457</v>
-      </c>
-      <c r="G19" s="227"/>
-      <c r="H19" s="281" t="s">
-        <v>456</v>
-      </c>
-      <c r="I19" s="228"/>
+      <c r="I19" s="227"/>
     </row>
     <row r="20" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="77" t="s">
-        <v>596</v>
-      </c>
-      <c r="B20" s="205" t="s">
+        <v>595</v>
+      </c>
+      <c r="B20" s="204" t="s">
+        <v>362</v>
+      </c>
+      <c r="C20" s="147" t="s">
         <v>363</v>
       </c>
-      <c r="C20" s="147" t="s">
+      <c r="D20" s="144"/>
+      <c r="E20" s="323" t="s">
+        <v>533</v>
+      </c>
+      <c r="F20" s="147" t="s">
         <v>364</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="276" t="s">
-        <v>534</v>
-      </c>
-      <c r="F20" s="147" t="s">
-        <v>365</v>
-      </c>
-      <c r="G20" s="227"/>
-      <c r="H20" s="198" t="s">
-        <v>607</v>
-      </c>
-      <c r="I20" s="208" t="s">
-        <v>347</v>
+      <c r="G20" s="226"/>
+      <c r="H20" s="197" t="s">
+        <v>604</v>
+      </c>
+      <c r="I20" s="207" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="279"/>
+      <c r="B21" s="277"/>
       <c r="C21" s="145" t="s">
         <v>300</v>
       </c>
@@ -11671,13 +11682,13 @@
       </c>
       <c r="E21" s="157"/>
       <c r="F21" s="145" t="s">
-        <v>640</v>
-      </c>
-      <c r="G21" s="280"/>
-      <c r="H21" s="198" t="s">
-        <v>566</v>
-      </c>
-      <c r="I21" s="208" t="s">
+        <v>637</v>
+      </c>
+      <c r="G21" s="278"/>
+      <c r="H21" s="197" t="s">
+        <v>565</v>
+      </c>
+      <c r="I21" s="207" t="s">
         <v>192</v>
       </c>
     </row>
@@ -11685,74 +11696,74 @@
       <c r="A22" s="174" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="204" t="s">
-        <v>546</v>
+      <c r="B22" s="203" t="s">
+        <v>545</v>
       </c>
       <c r="C22" s="145" t="s">
+        <v>481</v>
+      </c>
+      <c r="D22" s="145" t="s">
         <v>482</v>
       </c>
-      <c r="D22" s="145" t="s">
+      <c r="E22" s="145" t="s">
         <v>483</v>
       </c>
-      <c r="E22" s="145" t="s">
-        <v>484</v>
-      </c>
-      <c r="F22" s="276" t="s">
-        <v>390</v>
+      <c r="F22" s="323" t="s">
+        <v>389</v>
       </c>
       <c r="G22" s="157"/>
-      <c r="H22" s="198" t="s">
-        <v>345</v>
+      <c r="H22" s="197" t="s">
+        <v>344</v>
       </c>
       <c r="I22" s="165" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="240"/>
+      <c r="B23" s="165" t="s">
+        <v>314</v>
+      </c>
       <c r="C23" s="144"/>
       <c r="D23" s="145" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E23" s="145" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F23" s="156"/>
       <c r="G23" s="145" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H23" s="145" t="s">
         <v>298</v>
       </c>
-      <c r="I23" s="165" t="s">
-        <v>315</v>
-      </c>
+      <c r="I23" s="290"/>
     </row>
     <row r="24" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="305"/>
-      <c r="C24" s="206" t="s">
+      <c r="B24" s="303"/>
+      <c r="C24" s="205" t="s">
         <v>297</v>
       </c>
-      <c r="D24" s="206" t="s">
+      <c r="D24" s="205" t="s">
+        <v>318</v>
+      </c>
+      <c r="E24" s="205" t="s">
         <v>319</v>
       </c>
-      <c r="E24" s="206" t="s">
-        <v>320</v>
-      </c>
-      <c r="F24" s="211"/>
-      <c r="G24" s="206" t="s">
+      <c r="F24" s="210"/>
+      <c r="G24" s="205" t="s">
         <v>296</v>
       </c>
-      <c r="H24" s="306" t="s">
+      <c r="H24" s="304" t="s">
         <v>295</v>
       </c>
-      <c r="I24" s="304"/>
+      <c r="I24" s="302"/>
     </row>
     <row r="25" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="568" t="s">
@@ -11768,125 +11779,134 @@
       <c r="I25" s="572"/>
     </row>
     <row r="26" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="184" t="s">
+      <c r="A26" s="327" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="574" t="s">
-        <v>509</v>
-      </c>
-      <c r="C26" s="575"/>
-      <c r="D26" s="575"/>
-      <c r="E26" s="576" t="s">
+      <c r="B26" s="575" t="s">
+        <v>508</v>
+      </c>
+      <c r="C26" s="576"/>
+      <c r="D26" s="576"/>
+      <c r="E26" s="577" t="s">
+        <v>500</v>
+      </c>
+      <c r="F26" s="577"/>
+      <c r="G26" s="577" t="s">
+        <v>559</v>
+      </c>
+      <c r="H26" s="577"/>
+      <c r="I26" s="578"/>
+    </row>
+    <row r="27" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="327" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="581" t="s">
+        <v>503</v>
+      </c>
+      <c r="C27" s="543"/>
+      <c r="D27" s="543"/>
+      <c r="E27" s="550" t="s">
         <v>501</v>
       </c>
-      <c r="F26" s="576"/>
-      <c r="G26" s="576" t="s">
-        <v>560</v>
-      </c>
-      <c r="H26" s="576"/>
-      <c r="I26" s="577"/>
-    </row>
-    <row r="27" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="184" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="564" t="s">
-        <v>504</v>
-      </c>
-      <c r="C27" s="553"/>
-      <c r="D27" s="553"/>
-      <c r="E27" s="549" t="s">
-        <v>502</v>
-      </c>
-      <c r="F27" s="549"/>
-      <c r="G27" s="550" t="s">
-        <v>508</v>
-      </c>
-      <c r="H27" s="550"/>
-      <c r="I27" s="551"/>
+      <c r="F27" s="550"/>
+      <c r="G27" s="544" t="s">
+        <v>507</v>
+      </c>
+      <c r="H27" s="544"/>
+      <c r="I27" s="545"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="184" t="s">
+      <c r="A28" s="327" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="561" t="s">
-        <v>491</v>
-      </c>
-      <c r="C28" s="556"/>
-      <c r="D28" s="556"/>
+      <c r="B28" s="573" t="s">
+        <v>490</v>
+      </c>
+      <c r="C28" s="549"/>
+      <c r="D28" s="549"/>
       <c r="E28" s="157"/>
       <c r="F28" s="157"/>
-      <c r="G28" s="550" t="s">
-        <v>506</v>
-      </c>
-      <c r="H28" s="550"/>
-      <c r="I28" s="551"/>
+      <c r="G28" s="544" t="s">
+        <v>505</v>
+      </c>
+      <c r="H28" s="544"/>
+      <c r="I28" s="545"/>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="184" t="s">
-        <v>570</v>
-      </c>
-      <c r="B29" s="563" t="s">
-        <v>559</v>
-      </c>
-      <c r="C29" s="549"/>
-      <c r="D29" s="549"/>
+      <c r="A29" s="327" t="s">
+        <v>569</v>
+      </c>
+      <c r="B29" s="580" t="s">
+        <v>558</v>
+      </c>
+      <c r="C29" s="550"/>
+      <c r="D29" s="550"/>
       <c r="E29" s="144"/>
       <c r="F29" s="144"/>
-      <c r="G29" s="549" t="s">
-        <v>564</v>
-      </c>
-      <c r="H29" s="549"/>
-      <c r="I29" s="557"/>
+      <c r="G29" s="550" t="s">
+        <v>563</v>
+      </c>
+      <c r="H29" s="550"/>
+      <c r="I29" s="551"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="327" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="561" t="s">
-        <v>503</v>
-      </c>
-      <c r="C30" s="556"/>
-      <c r="D30" s="556"/>
-      <c r="E30" s="238"/>
-      <c r="F30" s="238"/>
+      <c r="B30" s="573" t="s">
+        <v>502</v>
+      </c>
+      <c r="C30" s="549"/>
+      <c r="D30" s="549"/>
+      <c r="E30" s="237"/>
+      <c r="F30" s="237"/>
       <c r="G30" s="144"/>
       <c r="H30" s="144"/>
       <c r="I30" s="168"/>
     </row>
     <row r="31" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="184" t="s">
+      <c r="A31" s="327" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="562" t="s">
-        <v>505</v>
-      </c>
-      <c r="C31" s="550"/>
-      <c r="D31" s="550"/>
-      <c r="E31" s="210"/>
-      <c r="F31" s="210"/>
-      <c r="G31" s="550" t="s">
-        <v>507</v>
-      </c>
-      <c r="H31" s="550"/>
-      <c r="I31" s="551"/>
+      <c r="B31" s="579" t="s">
+        <v>504</v>
+      </c>
+      <c r="C31" s="544"/>
+      <c r="D31" s="544"/>
+      <c r="E31" s="209"/>
+      <c r="F31" s="209"/>
+      <c r="G31" s="544" t="s">
+        <v>506</v>
+      </c>
+      <c r="H31" s="544"/>
+      <c r="I31" s="545"/>
     </row>
     <row r="32" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="184" t="s">
+      <c r="A32" s="327" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="299"/>
-      <c r="C32" s="234"/>
-      <c r="D32" s="237"/>
-      <c r="E32" s="237"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="192"/>
-      <c r="H32" s="234"/>
-      <c r="I32" s="239"/>
+      <c r="B32" s="297"/>
+      <c r="C32" s="233"/>
+      <c r="D32" s="236"/>
+      <c r="E32" s="236"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="191"/>
+      <c r="H32" s="233"/>
+      <c r="I32" s="238"/>
     </row>
     <row r="33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A25:I25"/>
@@ -11896,15 +11916,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.21" top="0.22" bottom="0.21" header="0.17" footer="0.17"/>
@@ -11920,7 +11931,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -12026,93 +12037,95 @@
       <c r="A5" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="213" t="s">
-        <v>556</v>
-      </c>
-      <c r="C5" s="271" t="s">
-        <v>604</v>
-      </c>
-      <c r="D5" s="271" t="s">
-        <v>340</v>
-      </c>
-      <c r="E5" s="207" t="s">
-        <v>554</v>
-      </c>
-      <c r="F5" s="207" t="s">
-        <v>552</v>
-      </c>
-      <c r="G5" s="283" t="s">
+      <c r="B5" s="212" t="s">
+        <v>555</v>
+      </c>
+      <c r="C5" s="269" t="s">
+        <v>601</v>
+      </c>
+      <c r="D5" s="269" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="206" t="s">
+        <v>553</v>
+      </c>
+      <c r="F5" s="206" t="s">
+        <v>551</v>
+      </c>
+      <c r="G5" s="281" t="s">
+        <v>403</v>
+      </c>
+      <c r="H5" s="281" t="s">
         <v>404</v>
       </c>
-      <c r="H5" s="283" t="s">
-        <v>405</v>
-      </c>
-      <c r="I5" s="216"/>
+      <c r="I5" s="215"/>
     </row>
     <row r="6" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="204" t="s">
-        <v>550</v>
+      <c r="B6" s="203" t="s">
+        <v>549</v>
       </c>
       <c r="C6" s="145" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D6" s="159" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E6" s="150"/>
       <c r="F6" s="157"/>
-      <c r="G6" s="276" t="s">
+      <c r="G6" s="274" t="s">
+        <v>411</v>
+      </c>
+      <c r="H6" s="274" t="s">
         <v>412</v>
       </c>
-      <c r="H6" s="276" t="s">
-        <v>413</v>
-      </c>
       <c r="I6" s="175"/>
     </row>
-    <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="203" t="s">
-        <v>434</v>
-      </c>
-      <c r="C7" s="281" t="s">
+      <c r="B7" s="202" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" s="279" t="s">
+        <v>431</v>
+      </c>
+      <c r="D7" s="157"/>
+      <c r="E7" s="145" t="s">
+        <v>658</v>
+      </c>
+      <c r="F7" s="157"/>
+      <c r="G7" s="279" t="s">
+        <v>468</v>
+      </c>
+      <c r="H7" s="279" t="s">
         <v>432</v>
       </c>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="281" t="s">
-        <v>469</v>
-      </c>
-      <c r="H7" s="281" t="s">
-        <v>433</v>
-      </c>
-      <c r="I7" s="282" t="s">
-        <v>623</v>
+      <c r="I7" s="280" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="203" t="s">
-        <v>468</v>
-      </c>
-      <c r="C8" s="281" t="s">
-        <v>470</v>
+      <c r="B8" s="202" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="279" t="s">
+        <v>469</v>
       </c>
       <c r="D8" s="144"/>
       <c r="E8" s="157"/>
       <c r="F8" s="155"/>
-      <c r="G8" s="281" t="s">
-        <v>459</v>
-      </c>
-      <c r="H8" s="281" t="s">
+      <c r="G8" s="279" t="s">
         <v>458</v>
+      </c>
+      <c r="H8" s="279" t="s">
+        <v>457</v>
       </c>
       <c r="I8" s="169"/>
     </row>
@@ -12120,11 +12133,11 @@
       <c r="A9" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="203" t="s">
+      <c r="B9" s="202" t="s">
+        <v>427</v>
+      </c>
+      <c r="C9" s="279" t="s">
         <v>428</v>
-      </c>
-      <c r="C9" s="281" t="s">
-        <v>429</v>
       </c>
       <c r="D9" s="144"/>
       <c r="E9" s="158"/>
@@ -12137,23 +12150,23 @@
       <c r="A10" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="203" t="s">
-        <v>526</v>
-      </c>
-      <c r="C10" s="281" t="s">
-        <v>586</v>
+      <c r="B10" s="202" t="s">
+        <v>525</v>
+      </c>
+      <c r="C10" s="279" t="s">
+        <v>585</v>
       </c>
       <c r="D10" s="143" t="s">
+        <v>407</v>
+      </c>
+      <c r="E10" s="143" t="s">
         <v>408</v>
       </c>
-      <c r="E10" s="143" t="s">
-        <v>409</v>
-      </c>
-      <c r="F10" s="281" t="s">
-        <v>526</v>
+      <c r="F10" s="279" t="s">
+        <v>525</v>
       </c>
       <c r="G10" s="143" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H10" s="157"/>
       <c r="I10" s="169"/>
@@ -12162,15 +12175,15 @@
       <c r="A11" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="203" t="s">
-        <v>431</v>
-      </c>
-      <c r="C11" s="281" t="s">
+      <c r="B11" s="202" t="s">
         <v>430</v>
       </c>
+      <c r="C11" s="279" t="s">
+        <v>429</v>
+      </c>
       <c r="D11" s="157"/>
-      <c r="F11" s="276" t="s">
-        <v>378</v>
+      <c r="F11" s="274" t="s">
+        <v>377</v>
       </c>
       <c r="G11" s="150"/>
       <c r="H11" s="150"/>
@@ -12180,140 +12193,140 @@
       <c r="A12" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="203" t="s">
+      <c r="B12" s="202" t="s">
+        <v>459</v>
+      </c>
+      <c r="C12" s="144"/>
+      <c r="D12" s="279" t="s">
         <v>460</v>
       </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="281" t="s">
+      <c r="E12" s="150"/>
+      <c r="F12" s="279" t="s">
         <v>461</v>
       </c>
-      <c r="E12" s="150"/>
-      <c r="F12" s="281" t="s">
-        <v>462</v>
-      </c>
       <c r="G12" s="159" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H12" s="150"/>
-      <c r="I12" s="293" t="s">
-        <v>394</v>
+      <c r="I12" s="291" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="215" t="s">
-        <v>399</v>
+      <c r="B13" s="214" t="s">
+        <v>398</v>
       </c>
       <c r="C13" s="144"/>
       <c r="D13" s="159" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E13" s="143" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F13" s="143" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G13" s="144"/>
       <c r="H13" s="158"/>
-      <c r="I13" s="293" t="s">
-        <v>398</v>
+      <c r="I13" s="291" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="278" t="s">
-        <v>425</v>
+      <c r="B14" s="276" t="s">
+        <v>424</v>
       </c>
       <c r="C14" s="150"/>
       <c r="D14" s="156"/>
-      <c r="E14" s="276" t="s">
+      <c r="E14" s="274" t="s">
+        <v>375</v>
+      </c>
+      <c r="F14" s="274" t="s">
         <v>376</v>
       </c>
-      <c r="F14" s="276" t="s">
-        <v>377</v>
-      </c>
       <c r="G14" s="144"/>
-      <c r="H14" s="276" t="s">
+      <c r="H14" s="274" t="s">
+        <v>422</v>
+      </c>
+      <c r="I14" s="275" t="s">
         <v>423</v>
-      </c>
-      <c r="I14" s="277" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="77" t="s">
-        <v>595</v>
-      </c>
-      <c r="B15" s="215" t="s">
-        <v>396</v>
+        <v>594</v>
+      </c>
+      <c r="B15" s="214" t="s">
+        <v>395</v>
       </c>
       <c r="C15" s="150"/>
       <c r="D15" s="156"/>
-      <c r="E15" s="276" t="s">
+      <c r="E15" s="274" t="s">
+        <v>373</v>
+      </c>
+      <c r="F15" s="274" t="s">
         <v>374</v>
-      </c>
-      <c r="F15" s="276" t="s">
-        <v>375</v>
       </c>
       <c r="G15" s="144"/>
       <c r="H15" s="547" t="s">
-        <v>644</v>
-      </c>
-      <c r="I15" s="573"/>
+        <v>641</v>
+      </c>
+      <c r="I15" s="574"/>
     </row>
     <row r="16" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="278" t="s">
+      <c r="B16" s="276" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" s="144"/>
+      <c r="D16" s="274" t="s">
+        <v>415</v>
+      </c>
+      <c r="E16" s="197" t="s">
+        <v>347</v>
+      </c>
+      <c r="F16" s="197" t="s">
+        <v>598</v>
+      </c>
+      <c r="G16" s="156"/>
+      <c r="H16" s="274" t="s">
         <v>414</v>
       </c>
-      <c r="C16" s="144"/>
-      <c r="D16" s="276" t="s">
-        <v>416</v>
-      </c>
-      <c r="E16" s="198" t="s">
-        <v>348</v>
-      </c>
-      <c r="F16" s="198" t="s">
-        <v>601</v>
-      </c>
-      <c r="G16" s="156"/>
-      <c r="H16" s="276" t="s">
-        <v>415</v>
-      </c>
-      <c r="I16" s="236"/>
+      <c r="I16" s="235"/>
     </row>
     <row r="17" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="205" t="s">
-        <v>363</v>
-      </c>
-      <c r="C17" s="276" t="s">
-        <v>534</v>
+      <c r="B17" s="204" t="s">
+        <v>362</v>
+      </c>
+      <c r="C17" s="274" t="s">
+        <v>533</v>
       </c>
       <c r="D17" s="145" t="s">
         <v>283</v>
       </c>
       <c r="E17" s="147" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F17" s="147" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G17" s="144"/>
       <c r="H17" s="145" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I17" s="165" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12322,12 +12335,12 @@
       </c>
       <c r="B18" s="172"/>
       <c r="C18" s="157"/>
-      <c r="D18" s="280"/>
-      <c r="E18" s="198" t="s">
+      <c r="D18" s="278"/>
+      <c r="E18" s="197" t="s">
         <v>192</v>
       </c>
-      <c r="F18" s="198" t="s">
-        <v>566</v>
+      <c r="F18" s="197" t="s">
+        <v>565</v>
       </c>
       <c r="G18" s="157"/>
       <c r="H18" s="144"/>
@@ -12337,21 +12350,21 @@
       <c r="A19" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="204" t="s">
-        <v>545</v>
+      <c r="B19" s="203" t="s">
+        <v>544</v>
       </c>
       <c r="C19" s="145" t="s">
-        <v>548</v>
-      </c>
-      <c r="D19" s="280"/>
-      <c r="E19" s="276" t="s">
-        <v>645</v>
+        <v>547</v>
+      </c>
+      <c r="D19" s="278"/>
+      <c r="E19" s="274" t="s">
+        <v>642</v>
       </c>
       <c r="G19" s="145" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H19" s="145" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I19" s="175"/>
     </row>
@@ -12359,26 +12372,26 @@
       <c r="A20" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="226"/>
+      <c r="B20" s="225"/>
       <c r="C20" s="145" t="s">
-        <v>321</v>
-      </c>
-      <c r="D20" s="280"/>
-      <c r="E20" s="280"/>
+        <v>320</v>
+      </c>
+      <c r="D20" s="278"/>
+      <c r="E20" s="278"/>
       <c r="F20" s="145" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G20" s="147" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H20" s="157"/>
       <c r="I20" s="175"/>
     </row>
     <row r="21" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="77" t="s">
-        <v>596</v>
-      </c>
-      <c r="B21" s="226"/>
+        <v>595</v>
+      </c>
+      <c r="B21" s="225"/>
       <c r="C21" s="144"/>
       <c r="D21" s="145" t="s">
         <v>285</v>
@@ -12386,8 +12399,8 @@
       <c r="E21" s="145" t="s">
         <v>289</v>
       </c>
-      <c r="F21" s="276" t="s">
-        <v>390</v>
+      <c r="F21" s="274" t="s">
+        <v>389</v>
       </c>
       <c r="G21" s="144"/>
       <c r="H21" s="144"/>
@@ -12397,17 +12410,16 @@
       <c r="A22" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="554" t="s">
-        <v>495</v>
+      <c r="B22" s="546" t="s">
+        <v>494</v>
       </c>
       <c r="C22" s="547"/>
       <c r="D22" s="145" t="s">
+        <v>293</v>
+      </c>
+      <c r="E22" s="145" t="s">
         <v>291</v>
       </c>
-      <c r="E22" s="145" t="s">
-        <v>293</v>
-      </c>
-      <c r="F22" s="144"/>
       <c r="G22" s="157"/>
       <c r="H22" s="144"/>
       <c r="I22" s="168"/>
@@ -12416,157 +12428,157 @@
       <c r="A23" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="214" t="s">
-        <v>351</v>
+      <c r="B23" s="213" t="s">
+        <v>350</v>
       </c>
       <c r="C23" s="144"/>
-      <c r="D23" s="280"/>
-      <c r="E23" s="198" t="s">
-        <v>350</v>
-      </c>
-      <c r="F23" s="198" t="s">
+      <c r="D23" s="278"/>
+      <c r="E23" s="197" t="s">
         <v>349</v>
       </c>
-      <c r="G23" s="227"/>
-      <c r="H23" s="198" t="s">
-        <v>608</v>
-      </c>
-      <c r="I23" s="228"/>
+      <c r="F23" s="197" t="s">
+        <v>348</v>
+      </c>
+      <c r="G23" s="226"/>
+      <c r="H23" s="197" t="s">
+        <v>605</v>
+      </c>
+      <c r="I23" s="227"/>
     </row>
     <row r="24" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="217" t="s">
-        <v>314</v>
-      </c>
-      <c r="C24" s="206" t="s">
+      <c r="B24" s="216" t="s">
         <v>313</v>
       </c>
-      <c r="D24" s="300"/>
-      <c r="E24" s="206" t="s">
+      <c r="C24" s="205" t="s">
+        <v>312</v>
+      </c>
+      <c r="D24" s="298"/>
+      <c r="E24" s="205" t="s">
+        <v>316</v>
+      </c>
+      <c r="F24" s="287"/>
+      <c r="G24" s="205" t="s">
         <v>317</v>
       </c>
-      <c r="F24" s="289"/>
-      <c r="G24" s="206" t="s">
-        <v>318</v>
-      </c>
-      <c r="H24" s="206" t="s">
-        <v>320</v>
-      </c>
-      <c r="I24" s="301"/>
+      <c r="H24" s="205" t="s">
+        <v>319</v>
+      </c>
+      <c r="I24" s="299"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="588" t="s">
+      <c r="A25" s="582" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="589"/>
-      <c r="C25" s="589"/>
-      <c r="D25" s="589"/>
-      <c r="E25" s="589"/>
-      <c r="F25" s="589"/>
-      <c r="G25" s="589"/>
-      <c r="H25" s="589"/>
-      <c r="I25" s="590"/>
+      <c r="B25" s="583"/>
+      <c r="C25" s="583"/>
+      <c r="D25" s="583"/>
+      <c r="E25" s="583"/>
+      <c r="F25" s="583"/>
+      <c r="G25" s="583"/>
+      <c r="H25" s="583"/>
+      <c r="I25" s="584"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="582" t="s">
-        <v>515</v>
-      </c>
-      <c r="C26" s="583"/>
-      <c r="D26" s="583"/>
-      <c r="E26" s="584" t="s">
-        <v>512</v>
-      </c>
-      <c r="F26" s="584"/>
-      <c r="G26" s="560" t="s">
-        <v>510</v>
-      </c>
-      <c r="H26" s="560"/>
-      <c r="I26" s="581"/>
+      <c r="B26" s="589" t="s">
+        <v>514</v>
+      </c>
+      <c r="C26" s="590"/>
+      <c r="D26" s="590"/>
+      <c r="E26" s="591" t="s">
+        <v>511</v>
+      </c>
+      <c r="F26" s="591"/>
+      <c r="G26" s="554" t="s">
+        <v>509</v>
+      </c>
+      <c r="H26" s="554"/>
+      <c r="I26" s="588"/>
       <c r="J26" s="86"/>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="558" t="s">
-        <v>516</v>
-      </c>
-      <c r="C27" s="550"/>
-      <c r="D27" s="550"/>
-      <c r="E27" s="549" t="s">
-        <v>513</v>
-      </c>
-      <c r="F27" s="549"/>
-      <c r="G27" s="549" t="s">
-        <v>562</v>
-      </c>
-      <c r="H27" s="549"/>
-      <c r="I27" s="557"/>
+      <c r="B27" s="552" t="s">
+        <v>515</v>
+      </c>
+      <c r="C27" s="544"/>
+      <c r="D27" s="544"/>
+      <c r="E27" s="550" t="s">
+        <v>512</v>
+      </c>
+      <c r="F27" s="550"/>
+      <c r="G27" s="550" t="s">
+        <v>561</v>
+      </c>
+      <c r="H27" s="550"/>
+      <c r="I27" s="551"/>
       <c r="J27" s="86"/>
     </row>
     <row r="28" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="586" t="s">
-        <v>529</v>
-      </c>
-      <c r="C28" s="546"/>
-      <c r="D28" s="546"/>
-      <c r="E28" s="281" t="s">
-        <v>435</v>
+      <c r="B28" s="593" t="s">
+        <v>528</v>
+      </c>
+      <c r="C28" s="563"/>
+      <c r="D28" s="563"/>
+      <c r="E28" s="279" t="s">
+        <v>434</v>
       </c>
       <c r="F28" s="157"/>
-      <c r="G28" s="553" t="s">
-        <v>511</v>
-      </c>
-      <c r="H28" s="553"/>
-      <c r="I28" s="585"/>
+      <c r="G28" s="543" t="s">
+        <v>510</v>
+      </c>
+      <c r="H28" s="543"/>
+      <c r="I28" s="592"/>
       <c r="J28" s="86"/>
     </row>
     <row r="29" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="77" t="s">
-        <v>570</v>
-      </c>
-      <c r="B29" s="580" t="s">
-        <v>561</v>
-      </c>
-      <c r="C29" s="549"/>
-      <c r="D29" s="549"/>
+        <v>569</v>
+      </c>
+      <c r="B29" s="587" t="s">
+        <v>560</v>
+      </c>
+      <c r="C29" s="550"/>
+      <c r="D29" s="550"/>
       <c r="E29" s="150"/>
       <c r="F29" s="157"/>
-      <c r="G29" s="549" t="s">
-        <v>563</v>
-      </c>
-      <c r="H29" s="549"/>
-      <c r="I29" s="557"/>
+      <c r="G29" s="550" t="s">
+        <v>562</v>
+      </c>
+      <c r="H29" s="550"/>
+      <c r="I29" s="551"/>
       <c r="J29" s="86"/>
     </row>
     <row r="30" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="558" t="s">
-        <v>571</v>
-      </c>
-      <c r="C30" s="550"/>
-      <c r="D30" s="550"/>
-      <c r="E30" s="281" t="s">
-        <v>594</v>
-      </c>
-      <c r="F30" s="281" t="s">
+      <c r="B30" s="552" t="s">
+        <v>570</v>
+      </c>
+      <c r="C30" s="544"/>
+      <c r="D30" s="544"/>
+      <c r="E30" s="279" t="s">
         <v>593</v>
       </c>
-      <c r="G30" s="556" t="s">
-        <v>493</v>
-      </c>
-      <c r="H30" s="556"/>
-      <c r="I30" s="587"/>
+      <c r="F30" s="279" t="s">
+        <v>592</v>
+      </c>
+      <c r="G30" s="549" t="s">
+        <v>492</v>
+      </c>
+      <c r="H30" s="549"/>
+      <c r="I30" s="594"/>
       <c r="J30" s="86"/>
     </row>
     <row r="31" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12574,42 +12586,36 @@
         <v>173</v>
       </c>
       <c r="B31" s="172"/>
-      <c r="C31" s="546" t="s">
-        <v>514</v>
-      </c>
-      <c r="D31" s="546"/>
-      <c r="E31" s="546"/>
+      <c r="C31" s="563" t="s">
+        <v>513</v>
+      </c>
+      <c r="D31" s="563"/>
+      <c r="E31" s="563"/>
       <c r="F31" s="157"/>
-      <c r="G31" s="556" t="s">
-        <v>492</v>
-      </c>
-      <c r="H31" s="556"/>
-      <c r="I31" s="587"/>
+      <c r="G31" s="549" t="s">
+        <v>491</v>
+      </c>
+      <c r="H31" s="549"/>
+      <c r="I31" s="594"/>
     </row>
     <row r="32" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="578" t="s">
-        <v>496</v>
-      </c>
-      <c r="C32" s="579"/>
-      <c r="D32" s="237"/>
-      <c r="E32" s="237"/>
-      <c r="F32" s="230"/>
-      <c r="G32" s="237"/>
-      <c r="H32" s="234"/>
-      <c r="I32" s="239"/>
+      <c r="B32" s="585" t="s">
+        <v>495</v>
+      </c>
+      <c r="C32" s="586"/>
+      <c r="D32" s="236"/>
+      <c r="E32" s="236"/>
+      <c r="F32" s="229"/>
+      <c r="G32" s="236"/>
+      <c r="H32" s="233"/>
+      <c r="I32" s="238"/>
       <c r="J32" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="H15:I15"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="G26:I26"/>
@@ -12624,6 +12630,12 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="G31:I31"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.21" top="0.23" bottom="0.22" header="0.17" footer="0.17"/>

--- a/include/BSCS.xlsx
+++ b/include/BSCS.xlsx
@@ -2038,10 +2038,10 @@
     <t>Ms. Nazia Imam (B1,D1,F1), Ms. Faiza Mumtaz (A1,C1,E1), Mr. Javed Iqbal (A2,C2,E2,I2), Mr. Ahmed Bux (B2,D2,H1), Ms. Hafsa Yusra (F2,I1), Ms. Sabeen Amjad (H2,G1),Ms. Afsheen Zehra(G2)</t>
   </si>
   <si>
-    <t>17th September 2018</t>
-  </si>
-  <si>
-    <t>14th September 2018</t>
+    <t>22nd September 2018</t>
+  </si>
+  <si>
+    <t>24th September 2018</t>
   </si>
 </sst>
 </file>
@@ -2639,7 +2639,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -3365,6 +3365,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -3377,7 +3390,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="615">
+  <cellXfs count="618">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3930,9 +3943,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4009,9 +4019,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4153,16 +4160,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4230,6 +4227,44 @@
     <xf numFmtId="0" fontId="46" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4272,21 +4307,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4626,6 +4646,192 @@
     <xf numFmtId="0" fontId="25" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4678,231 +4884,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4928,7 +4909,58 @@
     <xf numFmtId="0" fontId="53" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4951,9 +4983,6 @@
     <xf numFmtId="0" fontId="26" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4969,13 +4998,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4987,34 +5037,10 @@
     <xf numFmtId="0" fontId="26" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5033,12 +5059,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5697,16 +5717,16 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="344" t="s">
+      <c r="H12" s="333" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="344"/>
-      <c r="J12" s="344"/>
-      <c r="K12" s="344"/>
-      <c r="L12" s="344"/>
-      <c r="M12" s="344"/>
-      <c r="N12" s="344"/>
-      <c r="O12" s="344"/>
+      <c r="I12" s="333"/>
+      <c r="J12" s="333"/>
+      <c r="K12" s="333"/>
+      <c r="L12" s="333"/>
+      <c r="M12" s="333"/>
+      <c r="N12" s="333"/>
+      <c r="O12" s="333"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -5720,17 +5740,17 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="345" t="s">
+      <c r="H13" s="334" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="345"/>
-      <c r="J13" s="345"/>
-      <c r="K13" s="345"/>
-      <c r="L13" s="345"/>
-      <c r="M13" s="345"/>
-      <c r="N13" s="345"/>
-      <c r="O13" s="345"/>
-      <c r="P13" s="345"/>
+      <c r="I13" s="334"/>
+      <c r="J13" s="334"/>
+      <c r="K13" s="334"/>
+      <c r="L13" s="334"/>
+      <c r="M13" s="334"/>
+      <c r="N13" s="334"/>
+      <c r="O13" s="334"/>
+      <c r="P13" s="334"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="7"/>
@@ -5743,17 +5763,17 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="346" t="s">
+      <c r="H14" s="335" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="346"/>
-      <c r="J14" s="346"/>
-      <c r="K14" s="346"/>
-      <c r="L14" s="346"/>
-      <c r="M14" s="346"/>
-      <c r="N14" s="346"/>
-      <c r="O14" s="346"/>
-      <c r="P14" s="346"/>
+      <c r="I14" s="335"/>
+      <c r="J14" s="335"/>
+      <c r="K14" s="335"/>
+      <c r="L14" s="335"/>
+      <c r="M14" s="335"/>
+      <c r="N14" s="335"/>
+      <c r="O14" s="335"/>
+      <c r="P14" s="335"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="7"/>
@@ -5766,17 +5786,17 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="347" t="s">
+      <c r="H15" s="336" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="347"/>
-      <c r="J15" s="347"/>
-      <c r="K15" s="347"/>
-      <c r="L15" s="347"/>
-      <c r="M15" s="347"/>
-      <c r="N15" s="347"/>
-      <c r="O15" s="347"/>
-      <c r="P15" s="347"/>
+      <c r="I15" s="336"/>
+      <c r="J15" s="336"/>
+      <c r="K15" s="336"/>
+      <c r="L15" s="336"/>
+      <c r="M15" s="336"/>
+      <c r="N15" s="336"/>
+      <c r="O15" s="336"/>
+      <c r="P15" s="336"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="7"/>
@@ -5789,17 +5809,17 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="348" t="s">
+      <c r="H16" s="337" t="s">
         <v>203</v>
       </c>
-      <c r="I16" s="348"/>
-      <c r="J16" s="348"/>
-      <c r="K16" s="348"/>
-      <c r="L16" s="348"/>
-      <c r="M16" s="348"/>
-      <c r="N16" s="348"/>
-      <c r="O16" s="348"/>
-      <c r="P16" s="348"/>
+      <c r="I16" s="337"/>
+      <c r="J16" s="337"/>
+      <c r="K16" s="337"/>
+      <c r="L16" s="337"/>
+      <c r="M16" s="337"/>
+      <c r="N16" s="337"/>
+      <c r="O16" s="337"/>
+      <c r="P16" s="337"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="7"/>
@@ -5982,13 +6002,13 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="332" t="s">
+      <c r="O24" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="P24" s="333"/>
-      <c r="Q24" s="333"/>
-      <c r="R24" s="333"/>
-      <c r="S24" s="334"/>
+      <c r="P24" s="341"/>
+      <c r="Q24" s="341"/>
+      <c r="R24" s="341"/>
+      <c r="S24" s="342"/>
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="2:20" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6005,13 +6025,13 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="335" t="s">
+      <c r="O25" s="343" t="s">
         <v>199</v>
       </c>
-      <c r="P25" s="336"/>
-      <c r="Q25" s="336"/>
-      <c r="R25" s="336"/>
-      <c r="S25" s="337"/>
+      <c r="P25" s="344"/>
+      <c r="Q25" s="344"/>
+      <c r="R25" s="344"/>
+      <c r="S25" s="345"/>
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="2:20" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6020,23 +6040,23 @@
       <c r="D26" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="330" t="s">
-        <v>662</v>
-      </c>
-      <c r="F26" s="330"/>
-      <c r="G26" s="330"/>
-      <c r="H26" s="330"/>
-      <c r="I26" s="330"/>
+      <c r="E26" s="338" t="s">
+        <v>661</v>
+      </c>
+      <c r="F26" s="338"/>
+      <c r="G26" s="338"/>
+      <c r="H26" s="338"/>
+      <c r="I26" s="338"/>
       <c r="J26" s="104"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="338"/>
-      <c r="P26" s="339"/>
-      <c r="Q26" s="339"/>
-      <c r="R26" s="339"/>
-      <c r="S26" s="340"/>
+      <c r="O26" s="346"/>
+      <c r="P26" s="347"/>
+      <c r="Q26" s="347"/>
+      <c r="R26" s="347"/>
+      <c r="S26" s="348"/>
       <c r="T26" s="7"/>
     </row>
     <row r="27" spans="2:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6046,24 +6066,24 @@
         <v>8</v>
       </c>
       <c r="E27" s="101"/>
-      <c r="F27" s="331" t="s">
-        <v>661</v>
-      </c>
-      <c r="G27" s="331"/>
-      <c r="H27" s="331"/>
+      <c r="F27" s="339" t="s">
+        <v>662</v>
+      </c>
+      <c r="G27" s="339"/>
+      <c r="H27" s="339"/>
       <c r="I27" s="102"/>
       <c r="J27" s="106"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="341" t="s">
+      <c r="O27" s="349" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="342"/>
-      <c r="Q27" s="342"/>
-      <c r="R27" s="342"/>
-      <c r="S27" s="343"/>
+      <c r="P27" s="350"/>
+      <c r="Q27" s="350"/>
+      <c r="R27" s="350"/>
+      <c r="S27" s="351"/>
       <c r="T27" s="7"/>
     </row>
     <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6129,16 +6149,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="O25:S26"/>
+    <mergeCell ref="O27:S27"/>
     <mergeCell ref="H12:O12"/>
     <mergeCell ref="H13:P13"/>
     <mergeCell ref="H14:P14"/>
     <mergeCell ref="H15:P15"/>
     <mergeCell ref="H16:P16"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="O25:S26"/>
-    <mergeCell ref="O27:S27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6172,17 +6192,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="565" t="s">
+      <c r="A1" s="572" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="566"/>
-      <c r="C1" s="566"/>
-      <c r="D1" s="566"/>
-      <c r="E1" s="566"/>
-      <c r="F1" s="566"/>
-      <c r="G1" s="566"/>
-      <c r="H1" s="566"/>
-      <c r="I1" s="567"/>
+      <c r="B1" s="573"/>
+      <c r="C1" s="573"/>
+      <c r="D1" s="573"/>
+      <c r="E1" s="573"/>
+      <c r="F1" s="573"/>
+      <c r="G1" s="573"/>
+      <c r="H1" s="573"/>
+      <c r="I1" s="574"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
@@ -6243,38 +6263,38 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="568" t="s">
+      <c r="A4" s="575" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="569"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="569"/>
-      <c r="E4" s="569"/>
-      <c r="F4" s="569"/>
-      <c r="G4" s="569"/>
-      <c r="H4" s="569"/>
-      <c r="I4" s="570"/>
+      <c r="B4" s="576"/>
+      <c r="C4" s="576"/>
+      <c r="D4" s="576"/>
+      <c r="E4" s="576"/>
+      <c r="F4" s="576"/>
+      <c r="G4" s="576"/>
+      <c r="H4" s="576"/>
+      <c r="I4" s="577"/>
     </row>
     <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="306"/>
-      <c r="C5" s="326" t="s">
+      <c r="B5" s="300"/>
+      <c r="C5" s="320" t="s">
         <v>404</v>
       </c>
-      <c r="D5" s="326" t="s">
+      <c r="D5" s="320" t="s">
         <v>403</v>
       </c>
-      <c r="E5" s="323" t="s">
+      <c r="E5" s="317" t="s">
         <v>417</v>
       </c>
-      <c r="F5" s="323" t="s">
+      <c r="F5" s="317" t="s">
         <v>418</v>
       </c>
-      <c r="G5" s="320"/>
+      <c r="G5" s="314"/>
       <c r="H5" s="167"/>
-      <c r="I5" s="305"/>
+      <c r="I5" s="299"/>
     </row>
     <row r="6" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
@@ -6295,11 +6315,11 @@
       <c r="F6" s="197" t="s">
         <v>328</v>
       </c>
-      <c r="G6" s="243"/>
+      <c r="G6" s="241"/>
       <c r="H6" s="159" t="s">
         <v>395</v>
       </c>
-      <c r="I6" s="291" t="s">
+      <c r="I6" s="289" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6313,27 +6333,21 @@
       <c r="C7" s="145" t="s">
         <v>548</v>
       </c>
-      <c r="D7" s="147" t="s">
-        <v>603</v>
-      </c>
       <c r="E7" s="145" t="s">
         <v>552</v>
       </c>
-      <c r="F7" s="147" t="s">
-        <v>600</v>
-      </c>
-      <c r="G7" s="320"/>
-      <c r="H7" s="243"/>
-      <c r="I7" s="244"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="242"/>
     </row>
     <row r="8" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="328" t="s">
+      <c r="B8" s="322" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="279" t="s">
+      <c r="C8" s="277" t="s">
         <v>427</v>
       </c>
       <c r="D8" s="144"/>
@@ -6343,9 +6357,11 @@
       <c r="F8" s="197" t="s">
         <v>330</v>
       </c>
-      <c r="G8" s="243"/>
+      <c r="G8" s="147" t="s">
+        <v>600</v>
+      </c>
       <c r="H8" s="144"/>
-      <c r="I8" s="245"/>
+      <c r="I8" s="243"/>
     </row>
     <row r="9" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="77" t="s">
@@ -6354,23 +6370,23 @@
       <c r="B9" s="203" t="s">
         <v>556</v>
       </c>
-      <c r="C9" s="323" t="s">
+      <c r="C9" s="317" t="s">
         <v>412</v>
       </c>
-      <c r="D9" s="323" t="s">
+      <c r="D9" s="317" t="s">
         <v>411</v>
       </c>
-      <c r="E9" s="323" t="s">
+      <c r="E9" s="317" t="s">
         <v>422</v>
       </c>
       <c r="F9" s="159" t="s">
         <v>396</v>
       </c>
-      <c r="G9" s="243"/>
-      <c r="H9" s="323" t="s">
+      <c r="G9" s="241"/>
+      <c r="H9" s="317" t="s">
         <v>424</v>
       </c>
-      <c r="I9" s="324" t="s">
+      <c r="I9" s="318" t="s">
         <v>423</v>
       </c>
     </row>
@@ -6378,22 +6394,22 @@
       <c r="A10" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="328" t="s">
+      <c r="B10" s="322" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="279" t="s">
+      <c r="C10" s="277" t="s">
         <v>589</v>
       </c>
-      <c r="D10" s="284"/>
-      <c r="E10" s="323" t="s">
+      <c r="D10" s="282"/>
+      <c r="E10" s="317" t="s">
         <v>400</v>
       </c>
-      <c r="F10" s="323" t="s">
+      <c r="F10" s="317" t="s">
         <v>401</v>
       </c>
       <c r="G10" s="144"/>
       <c r="H10" s="144"/>
-      <c r="I10" s="221"/>
+      <c r="I10" s="220"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
@@ -6402,17 +6418,17 @@
       <c r="B11" s="203" t="s">
         <v>538</v>
       </c>
-      <c r="C11" s="323" t="s">
+      <c r="C11" s="317" t="s">
         <v>416</v>
       </c>
-      <c r="D11" s="320"/>
-      <c r="E11" s="323" t="s">
+      <c r="D11" s="314"/>
+      <c r="E11" s="317" t="s">
         <v>184</v>
       </c>
-      <c r="F11" s="326" t="s">
+      <c r="F11" s="320" t="s">
         <v>391</v>
       </c>
-      <c r="G11" s="326" t="s">
+      <c r="G11" s="320" t="s">
         <v>390</v>
       </c>
       <c r="H11" s="145" t="s">
@@ -6424,16 +6440,16 @@
       <c r="A12" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="325" t="s">
+      <c r="B12" s="319" t="s">
         <v>421</v>
       </c>
-      <c r="C12" s="323" t="s">
+      <c r="C12" s="317" t="s">
         <v>420</v>
       </c>
       <c r="D12" s="159" t="s">
         <v>187</v>
       </c>
-      <c r="E12" s="323" t="s">
+      <c r="E12" s="317" t="s">
         <v>402</v>
       </c>
       <c r="F12" s="159" t="s">
@@ -6443,7 +6459,7 @@
       <c r="H12" s="159" t="s">
         <v>398</v>
       </c>
-      <c r="I12" s="291" t="s">
+      <c r="I12" s="289" t="s">
         <v>397</v>
       </c>
     </row>
@@ -6451,26 +6467,26 @@
       <c r="A13" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="328" t="s">
+      <c r="B13" s="322" t="s">
         <v>590</v>
       </c>
-      <c r="C13" s="279" t="s">
+      <c r="C13" s="277" t="s">
         <v>470</v>
       </c>
-      <c r="D13" s="279" t="s">
+      <c r="D13" s="277" t="s">
         <v>466</v>
       </c>
-      <c r="E13" s="279" t="s">
+      <c r="E13" s="277" t="s">
         <v>465</v>
       </c>
-      <c r="F13" s="279" t="s">
+      <c r="F13" s="277" t="s">
         <v>444</v>
       </c>
-      <c r="G13" s="234" t="s">
+      <c r="G13" s="233" t="s">
         <v>326</v>
       </c>
-      <c r="H13" s="320"/>
-      <c r="I13" s="280" t="s">
+      <c r="H13" s="314"/>
+      <c r="I13" s="278" t="s">
         <v>655</v>
       </c>
     </row>
@@ -6478,25 +6494,25 @@
       <c r="A14" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="328" t="s">
+      <c r="B14" s="322" t="s">
         <v>431</v>
       </c>
-      <c r="C14" s="279" t="s">
+      <c r="C14" s="277" t="s">
         <v>433</v>
       </c>
-      <c r="D14" s="279" t="s">
+      <c r="D14" s="277" t="s">
         <v>436</v>
       </c>
-      <c r="E14" s="279" t="s">
+      <c r="E14" s="277" t="s">
         <v>586</v>
       </c>
-      <c r="F14" s="279" t="s">
+      <c r="F14" s="277" t="s">
         <v>432</v>
       </c>
-      <c r="G14" s="279" t="s">
+      <c r="G14" s="277" t="s">
         <v>436</v>
       </c>
-      <c r="H14" s="279" t="s">
+      <c r="H14" s="277" t="s">
         <v>644</v>
       </c>
       <c r="I14" s="168"/>
@@ -6505,18 +6521,18 @@
       <c r="A15" s="77" t="s">
         <v>594</v>
       </c>
-      <c r="B15" s="546" t="s">
+      <c r="B15" s="561" t="s">
         <v>638</v>
       </c>
-      <c r="C15" s="547"/>
-      <c r="D15" s="279" t="s">
+      <c r="C15" s="554"/>
+      <c r="D15" s="277" t="s">
         <v>437</v>
       </c>
-      <c r="E15" s="279" t="s">
+      <c r="E15" s="277" t="s">
         <v>447</v>
       </c>
       <c r="F15" s="144"/>
-      <c r="G15" s="279" t="s">
+      <c r="G15" s="277" t="s">
         <v>437</v>
       </c>
       <c r="H15" s="144"/>
@@ -6528,14 +6544,14 @@
       </c>
       <c r="B16" s="172"/>
       <c r="C16" s="144"/>
-      <c r="D16" s="243"/>
+      <c r="D16" s="241"/>
       <c r="E16" s="197" t="s">
         <v>333</v>
       </c>
       <c r="F16" s="197" t="s">
         <v>335</v>
       </c>
-      <c r="G16" s="248"/>
+      <c r="G16" s="246"/>
       <c r="H16" s="197" t="s">
         <v>334</v>
       </c>
@@ -6546,18 +6562,22 @@
         <v>140</v>
       </c>
       <c r="B17" s="203" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C17" s="145" t="s">
-        <v>296</v>
-      </c>
-      <c r="D17" s="284"/>
-      <c r="E17" s="145" t="s">
-        <v>295</v>
-      </c>
-      <c r="F17" s="320"/>
-      <c r="G17" s="284"/>
-      <c r="H17" s="144"/>
+        <v>299</v>
+      </c>
+      <c r="D17" s="147" t="s">
+        <v>603</v>
+      </c>
+      <c r="E17" s="143" t="s">
+        <v>355</v>
+      </c>
+      <c r="F17" s="314"/>
+      <c r="G17" s="282"/>
+      <c r="H17" s="145" t="s">
+        <v>648</v>
+      </c>
       <c r="I17" s="168"/>
     </row>
     <row r="18" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6577,7 +6597,7 @@
       <c r="F18" s="147" t="s">
         <v>365</v>
       </c>
-      <c r="G18" s="243"/>
+      <c r="G18" s="241"/>
       <c r="H18" s="147" t="s">
         <v>366</v>
       </c>
@@ -6587,22 +6607,13 @@
       <c r="A19" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="203" t="s">
-        <v>300</v>
-      </c>
-      <c r="C19" s="145" t="s">
-        <v>299</v>
-      </c>
-      <c r="D19" s="242"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="145" t="s">
-        <v>298</v>
-      </c>
-      <c r="F19" s="243"/>
-      <c r="G19" s="243"/>
-      <c r="H19" s="145" t="s">
-        <v>648</v>
-      </c>
-      <c r="I19" s="324" t="s">
+        <v>308</v>
+      </c>
+      <c r="F19" s="241"/>
+      <c r="G19" s="241"/>
+      <c r="I19" s="318" t="s">
         <v>533</v>
       </c>
     </row>
@@ -6610,7 +6621,7 @@
       <c r="A20" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="325" t="s">
+      <c r="B20" s="319" t="s">
         <v>389</v>
       </c>
       <c r="C20" s="145" t="s">
@@ -6625,7 +6636,7 @@
       <c r="F20" s="197" t="s">
         <v>332</v>
       </c>
-      <c r="G20" s="323" t="s">
+      <c r="G20" s="317" t="s">
         <v>389</v>
       </c>
       <c r="H20" s="145" t="s">
@@ -6642,8 +6653,8 @@
       <c r="B21" s="203" t="s">
         <v>304</v>
       </c>
-      <c r="C21" s="283"/>
-      <c r="D21" s="283"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="281"/>
       <c r="E21" s="145" t="s">
         <v>305</v>
       </c>
@@ -6651,7 +6662,7 @@
         <v>646</v>
       </c>
       <c r="G21" s="144"/>
-      <c r="H21" s="323" t="s">
+      <c r="H21" s="317" t="s">
         <v>378</v>
       </c>
       <c r="I21" s="165" t="s">
@@ -6674,27 +6685,31 @@
       <c r="E22" s="145" t="s">
         <v>482</v>
       </c>
-      <c r="F22" s="320"/>
-      <c r="G22" s="243"/>
+      <c r="F22" s="314"/>
+      <c r="G22" s="241"/>
       <c r="H22" s="145" t="s">
         <v>301</v>
       </c>
-      <c r="I22" s="290"/>
+      <c r="I22" s="288"/>
     </row>
     <row r="23" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="241"/>
-      <c r="C23" s="320"/>
-      <c r="D23" s="243"/>
+      <c r="B23" s="203" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="145" t="s">
+        <v>296</v>
+      </c>
+      <c r="D23" s="241"/>
       <c r="E23" s="145" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="F23" s="145" t="s">
         <v>285</v>
       </c>
-      <c r="G23" s="243"/>
+      <c r="G23" s="241"/>
       <c r="H23" s="145" t="s">
         <v>309</v>
       </c>
@@ -6706,52 +6721,52 @@
       <c r="A24" s="173" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="216" t="s">
+      <c r="B24" s="215" t="s">
         <v>307</v>
       </c>
-      <c r="C24" s="329"/>
+      <c r="C24" s="323"/>
       <c r="D24" s="205" t="s">
         <v>310</v>
       </c>
       <c r="E24" s="205" t="s">
         <v>302</v>
       </c>
-      <c r="F24" s="216" t="s">
+      <c r="F24" s="215" t="s">
         <v>294</v>
       </c>
       <c r="G24" s="171"/>
       <c r="H24" s="171"/>
-      <c r="I24" s="220" t="s">
+      <c r="I24" s="219" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="595" t="s">
+      <c r="A25" s="600" t="s">
         <v>640</v>
       </c>
-      <c r="B25" s="596"/>
-      <c r="C25" s="596"/>
-      <c r="D25" s="596"/>
-      <c r="E25" s="596"/>
-      <c r="F25" s="597"/>
-      <c r="G25" s="289" t="s">
+      <c r="B25" s="601"/>
+      <c r="C25" s="601"/>
+      <c r="D25" s="601"/>
+      <c r="E25" s="601"/>
+      <c r="F25" s="602"/>
+      <c r="G25" s="287" t="s">
         <v>645</v>
       </c>
-      <c r="H25" s="598"/>
-      <c r="I25" s="599"/>
+      <c r="H25" s="603"/>
+      <c r="I25" s="604"/>
     </row>
     <row r="26" spans="1:9" s="80" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="568" t="s">
+      <c r="A26" s="575" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="571"/>
-      <c r="C26" s="571"/>
-      <c r="D26" s="571"/>
-      <c r="E26" s="571"/>
-      <c r="F26" s="571"/>
-      <c r="G26" s="571"/>
-      <c r="H26" s="571"/>
-      <c r="I26" s="572"/>
+      <c r="B26" s="578"/>
+      <c r="C26" s="578"/>
+      <c r="D26" s="578"/>
+      <c r="E26" s="578"/>
+      <c r="F26" s="578"/>
+      <c r="G26" s="578"/>
+      <c r="H26" s="578"/>
+      <c r="I26" s="579"/>
     </row>
     <row r="27" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="174" t="s">
@@ -6762,30 +6777,30 @@
       </c>
       <c r="C27" s="590"/>
       <c r="D27" s="590"/>
-      <c r="E27" s="311"/>
-      <c r="F27" s="311"/>
-      <c r="G27" s="311"/>
+      <c r="E27" s="305"/>
+      <c r="F27" s="305"/>
+      <c r="G27" s="305"/>
       <c r="H27" s="591" t="s">
         <v>516</v>
       </c>
-      <c r="I27" s="600"/>
+      <c r="I27" s="605"/>
     </row>
     <row r="28" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="552" t="s">
+      <c r="B28" s="565" t="s">
         <v>532</v>
       </c>
-      <c r="C28" s="544"/>
-      <c r="D28" s="544"/>
-      <c r="E28" s="253"/>
-      <c r="F28" s="253"/>
-      <c r="G28" s="253"/>
-      <c r="H28" s="550" t="s">
+      <c r="C28" s="557"/>
+      <c r="D28" s="557"/>
+      <c r="E28" s="251"/>
+      <c r="F28" s="251"/>
+      <c r="G28" s="251"/>
+      <c r="H28" s="556" t="s">
         <v>639</v>
       </c>
-      <c r="I28" s="551"/>
+      <c r="I28" s="564"/>
     </row>
     <row r="29" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="77" t="s">
@@ -6794,13 +6809,13 @@
       <c r="B29" s="593" t="s">
         <v>530</v>
       </c>
-      <c r="C29" s="563"/>
-      <c r="D29" s="563"/>
-      <c r="E29" s="243"/>
-      <c r="F29" s="251"/>
-      <c r="G29" s="243"/>
-      <c r="H29" s="243"/>
-      <c r="I29" s="245"/>
+      <c r="C29" s="553"/>
+      <c r="D29" s="553"/>
+      <c r="E29" s="241"/>
+      <c r="F29" s="249"/>
+      <c r="G29" s="241"/>
+      <c r="H29" s="241"/>
+      <c r="I29" s="243"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="77" t="s">
@@ -6809,28 +6824,28 @@
       <c r="B30" s="587" t="s">
         <v>517</v>
       </c>
-      <c r="C30" s="550"/>
-      <c r="D30" s="320"/>
+      <c r="C30" s="556"/>
+      <c r="D30" s="314"/>
       <c r="E30" s="144"/>
-      <c r="F30" s="251"/>
-      <c r="G30" s="284"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="282"/>
       <c r="H30" s="144"/>
-      <c r="I30" s="290"/>
+      <c r="I30" s="288"/>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="552" t="s">
+      <c r="B31" s="565" t="s">
         <v>571</v>
       </c>
-      <c r="C31" s="544"/>
-      <c r="D31" s="544"/>
-      <c r="E31" s="243"/>
-      <c r="F31" s="252"/>
-      <c r="G31" s="255"/>
-      <c r="H31" s="255"/>
-      <c r="I31" s="293"/>
+      <c r="C31" s="557"/>
+      <c r="D31" s="557"/>
+      <c r="E31" s="241"/>
+      <c r="F31" s="250"/>
+      <c r="G31" s="253"/>
+      <c r="H31" s="253"/>
+      <c r="I31" s="291"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="77" t="s">
@@ -6839,11 +6854,11 @@
       <c r="B32" s="593" t="s">
         <v>529</v>
       </c>
-      <c r="C32" s="563"/>
-      <c r="D32" s="563"/>
-      <c r="E32" s="251"/>
-      <c r="F32" s="251"/>
-      <c r="G32" s="255"/>
+      <c r="C32" s="553"/>
+      <c r="D32" s="553"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="253"/>
       <c r="H32" s="144"/>
       <c r="I32" s="168"/>
     </row>
@@ -6851,38 +6866,34 @@
       <c r="A33" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="288"/>
-      <c r="C33" s="243"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="243"/>
-      <c r="F33" s="319"/>
-      <c r="G33" s="319"/>
-      <c r="H33" s="254"/>
-      <c r="I33" s="292"/>
+      <c r="B33" s="286"/>
+      <c r="C33" s="241"/>
+      <c r="D33" s="241"/>
+      <c r="E33" s="145" t="s">
+        <v>298</v>
+      </c>
+      <c r="F33" s="313"/>
+      <c r="G33" s="313"/>
+      <c r="H33" s="252"/>
+      <c r="I33" s="290"/>
     </row>
     <row r="34" spans="1:9" s="94" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="162" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="601" t="s">
+      <c r="B34" s="598" t="s">
         <v>520</v>
       </c>
-      <c r="C34" s="602"/>
-      <c r="D34" s="602"/>
-      <c r="E34" s="294"/>
-      <c r="F34" s="294"/>
-      <c r="G34" s="295"/>
-      <c r="H34" s="295"/>
-      <c r="I34" s="296"/>
+      <c r="C34" s="599"/>
+      <c r="D34" s="599"/>
+      <c r="E34" s="292"/>
+      <c r="F34" s="292"/>
+      <c r="G34" s="293"/>
+      <c r="H34" s="293"/>
+      <c r="I34" s="294"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A26:I26"/>
@@ -6892,6 +6903,12 @@
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.2" bottom="0.24" header="0.17" footer="0.17"/>
@@ -6924,17 +6941,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="565" t="s">
+      <c r="A1" s="572" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="566"/>
-      <c r="C1" s="566"/>
-      <c r="D1" s="566"/>
-      <c r="E1" s="566"/>
-      <c r="F1" s="566"/>
-      <c r="G1" s="566"/>
-      <c r="H1" s="566"/>
-      <c r="I1" s="567"/>
+      <c r="B1" s="573"/>
+      <c r="C1" s="573"/>
+      <c r="D1" s="573"/>
+      <c r="E1" s="573"/>
+      <c r="F1" s="573"/>
+      <c r="G1" s="573"/>
+      <c r="H1" s="573"/>
+      <c r="I1" s="574"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
@@ -6995,42 +7012,42 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="568" t="s">
+      <c r="A4" s="575" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="569"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="569"/>
-      <c r="E4" s="569"/>
-      <c r="F4" s="569"/>
-      <c r="G4" s="569"/>
-      <c r="H4" s="569"/>
-      <c r="I4" s="570"/>
+      <c r="B4" s="576"/>
+      <c r="C4" s="576"/>
+      <c r="D4" s="576"/>
+      <c r="E4" s="576"/>
+      <c r="F4" s="576"/>
+      <c r="G4" s="576"/>
+      <c r="H4" s="576"/>
+      <c r="I4" s="577"/>
     </row>
     <row r="5" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="222" t="s">
+      <c r="A5" s="221" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="315" t="s">
+      <c r="B5" s="309" t="s">
         <v>420</v>
       </c>
-      <c r="C5" s="316" t="s">
+      <c r="C5" s="310" t="s">
         <v>421</v>
       </c>
-      <c r="D5" s="256"/>
-      <c r="E5" s="316" t="s">
+      <c r="D5" s="254"/>
+      <c r="E5" s="310" t="s">
         <v>572</v>
       </c>
-      <c r="F5" s="223" t="s">
+      <c r="F5" s="222" t="s">
         <v>391</v>
       </c>
-      <c r="G5" s="605" t="s">
+      <c r="G5" s="608" t="s">
         <v>477</v>
       </c>
-      <c r="H5" s="315" t="s">
+      <c r="H5" s="309" t="s">
         <v>390</v>
       </c>
-      <c r="I5" s="261"/>
+      <c r="I5" s="259"/>
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
@@ -7043,9 +7060,9 @@
         <v>360</v>
       </c>
       <c r="D6" s="144"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="285"/>
-      <c r="G6" s="606"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="283"/>
+      <c r="G6" s="609"/>
       <c r="H6" s="203" t="s">
         <v>300</v>
       </c>
@@ -7057,20 +7074,20 @@
       <c r="A7" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="314" t="s">
+      <c r="B7" s="308" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="312" t="s">
+      <c r="C7" s="306" t="s">
         <v>404</v>
       </c>
-      <c r="D7" s="320"/>
+      <c r="D7" s="314"/>
       <c r="E7" s="144"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="606"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="609"/>
       <c r="H7" s="203" t="s">
         <v>317</v>
       </c>
-      <c r="I7" s="244"/>
+      <c r="I7" s="242"/>
     </row>
     <row r="8" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
@@ -7082,52 +7099,52 @@
       <c r="C8" s="147" t="s">
         <v>340</v>
       </c>
-      <c r="D8" s="257"/>
-      <c r="E8" s="257"/>
-      <c r="F8" s="285"/>
-      <c r="G8" s="606"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="221"/>
+      <c r="D8" s="255"/>
+      <c r="E8" s="255"/>
+      <c r="F8" s="283"/>
+      <c r="G8" s="609"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="220"/>
     </row>
     <row r="9" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="314" t="s">
+      <c r="B9" s="308" t="s">
         <v>417</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="306" t="s">
         <v>416</v>
       </c>
-      <c r="D9" s="284"/>
+      <c r="D9" s="282"/>
       <c r="E9" s="144"/>
-      <c r="F9" s="318" t="s">
+      <c r="F9" s="312" t="s">
         <v>418</v>
       </c>
-      <c r="G9" s="606"/>
-      <c r="H9" s="246"/>
-      <c r="I9" s="247"/>
+      <c r="G9" s="609"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="246"/>
+      <c r="B10" s="244"/>
       <c r="C10" s="143" t="s">
         <v>405</v>
       </c>
       <c r="D10" s="143" t="s">
         <v>409</v>
       </c>
-      <c r="E10" s="257"/>
-      <c r="F10" s="308" t="s">
+      <c r="E10" s="255"/>
+      <c r="F10" s="302" t="s">
         <v>410</v>
       </c>
-      <c r="G10" s="606"/>
-      <c r="H10" s="314" t="s">
+      <c r="G10" s="609"/>
+      <c r="H10" s="308" t="s">
         <v>379</v>
       </c>
-      <c r="I10" s="313" t="s">
+      <c r="I10" s="307" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7138,19 +7155,19 @@
       <c r="B11" s="202" t="s">
         <v>462</v>
       </c>
-      <c r="C11" s="312" t="s">
+      <c r="C11" s="306" t="s">
         <v>573</v>
       </c>
       <c r="D11" s="144"/>
-      <c r="E11" s="312" t="s">
+      <c r="E11" s="306" t="s">
         <v>419</v>
       </c>
-      <c r="F11" s="224"/>
-      <c r="G11" s="606"/>
-      <c r="H11" s="314" t="s">
+      <c r="F11" s="223"/>
+      <c r="G11" s="609"/>
+      <c r="H11" s="308" t="s">
         <v>381</v>
       </c>
-      <c r="I11" s="313" t="s">
+      <c r="I11" s="307" t="s">
         <v>382</v>
       </c>
     </row>
@@ -7158,18 +7175,18 @@
       <c r="A12" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="320"/>
-      <c r="C12" s="312" t="s">
+      <c r="B12" s="314"/>
+      <c r="C12" s="306" t="s">
         <v>402</v>
       </c>
       <c r="D12" s="144"/>
-      <c r="E12" s="320"/>
-      <c r="F12" s="258"/>
-      <c r="G12" s="606"/>
-      <c r="H12" s="213" t="s">
+      <c r="E12" s="314"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="609"/>
+      <c r="H12" s="212" t="s">
         <v>351</v>
       </c>
-      <c r="I12" s="313" t="s">
+      <c r="I12" s="307" t="s">
         <v>383</v>
       </c>
     </row>
@@ -7183,22 +7200,22 @@
       <c r="C13" s="143" t="s">
         <v>358</v>
       </c>
-      <c r="E13" s="284"/>
-      <c r="F13" s="259"/>
-      <c r="G13" s="606"/>
-      <c r="H13" s="249"/>
-      <c r="I13" s="250"/>
+      <c r="E13" s="282"/>
+      <c r="F13" s="257"/>
+      <c r="G13" s="609"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="248"/>
     </row>
     <row r="14" spans="1:9" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="246"/>
-      <c r="C14" s="284"/>
-      <c r="D14" s="243"/>
+      <c r="B14" s="244"/>
+      <c r="C14" s="282"/>
+      <c r="D14" s="241"/>
       <c r="E14" s="144"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="606"/>
+      <c r="F14" s="223"/>
+      <c r="G14" s="609"/>
       <c r="H14" s="172"/>
       <c r="I14" s="168"/>
     </row>
@@ -7208,10 +7225,10 @@
       </c>
       <c r="B15" s="172"/>
       <c r="C15" s="144"/>
-      <c r="D15" s="243"/>
+      <c r="D15" s="241"/>
       <c r="E15" s="144"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="606"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="609"/>
       <c r="H15" s="172"/>
       <c r="I15" s="168"/>
     </row>
@@ -7219,10 +7236,10 @@
       <c r="A16" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="546" t="s">
+      <c r="B16" s="561" t="s">
         <v>497</v>
       </c>
-      <c r="C16" s="547"/>
+      <c r="C16" s="554"/>
       <c r="D16" s="147" t="s">
         <v>368</v>
       </c>
@@ -7232,8 +7249,8 @@
       <c r="F16" s="181" t="s">
         <v>598</v>
       </c>
-      <c r="G16" s="606"/>
-      <c r="H16" s="213" t="s">
+      <c r="G16" s="609"/>
+      <c r="H16" s="212" t="s">
         <v>347</v>
       </c>
       <c r="I16" s="182" t="s">
@@ -7250,15 +7267,15 @@
       <c r="C17" s="145" t="s">
         <v>305</v>
       </c>
-      <c r="D17" s="242"/>
+      <c r="D17" s="240"/>
       <c r="E17" s="145" t="s">
         <v>287</v>
       </c>
-      <c r="F17" s="218" t="s">
+      <c r="F17" s="217" t="s">
         <v>290</v>
       </c>
-      <c r="G17" s="606"/>
-      <c r="H17" s="314" t="s">
+      <c r="G17" s="609"/>
+      <c r="H17" s="308" t="s">
         <v>378</v>
       </c>
       <c r="I17" s="165" t="s">
@@ -7275,16 +7292,16 @@
       <c r="C18" s="147" t="s">
         <v>342</v>
       </c>
-      <c r="D18" s="243"/>
+      <c r="D18" s="241"/>
       <c r="E18" s="147" t="s">
         <v>343</v>
       </c>
-      <c r="F18" s="224"/>
-      <c r="G18" s="606"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="609"/>
       <c r="H18" s="203" t="s">
         <v>297</v>
       </c>
-      <c r="I18" s="290"/>
+      <c r="I18" s="288"/>
     </row>
     <row r="19" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
@@ -7296,16 +7313,18 @@
       <c r="C19" s="145" t="s">
         <v>296</v>
       </c>
-      <c r="D19" s="239"/>
-      <c r="E19" s="239"/>
+      <c r="D19" s="238"/>
+      <c r="E19" s="147" t="s">
+        <v>366</v>
+      </c>
       <c r="F19" s="181" t="s">
         <v>565</v>
       </c>
-      <c r="G19" s="606"/>
-      <c r="H19" s="213" t="s">
+      <c r="G19" s="609"/>
+      <c r="H19" s="212" t="s">
         <v>192</v>
       </c>
-      <c r="I19" s="313" t="s">
+      <c r="I19" s="307" t="s">
         <v>643</v>
       </c>
     </row>
@@ -7319,14 +7338,14 @@
       <c r="C20" s="145" t="s">
         <v>544</v>
       </c>
-      <c r="D20" s="242"/>
+      <c r="D20" s="240"/>
       <c r="E20" s="145" t="s">
         <v>294</v>
       </c>
-      <c r="F20" s="218" t="s">
+      <c r="F20" s="217" t="s">
         <v>292</v>
       </c>
-      <c r="G20" s="606"/>
+      <c r="G20" s="609"/>
       <c r="H20" s="203" t="s">
         <v>649</v>
       </c>
@@ -7338,7 +7357,7 @@
       <c r="A21" s="174" t="s">
         <v>595</v>
       </c>
-      <c r="B21" s="314" t="s">
+      <c r="B21" s="308" t="s">
         <v>533</v>
       </c>
       <c r="C21" s="145" t="s">
@@ -7347,11 +7366,11 @@
       <c r="E21" s="145" t="s">
         <v>646</v>
       </c>
-      <c r="F21" s="218" t="s">
+      <c r="F21" s="217" t="s">
         <v>646</v>
       </c>
-      <c r="G21" s="606"/>
-      <c r="H21" s="213" t="s">
+      <c r="G21" s="609"/>
+      <c r="H21" s="212" t="s">
         <v>344</v>
       </c>
       <c r="I21" s="165" t="s">
@@ -7370,12 +7389,12 @@
         <v>311</v>
       </c>
       <c r="E22" s="144"/>
-      <c r="F22" s="224"/>
-      <c r="G22" s="606"/>
-      <c r="H22" s="546" t="s">
+      <c r="F22" s="223"/>
+      <c r="G22" s="609"/>
+      <c r="H22" s="561" t="s">
         <v>499</v>
       </c>
-      <c r="I22" s="574"/>
+      <c r="I22" s="580"/>
     </row>
     <row r="23" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="77" t="s">
@@ -7387,13 +7406,13 @@
       <c r="C23" s="145" t="s">
         <v>299</v>
       </c>
-      <c r="D23" s="284"/>
-      <c r="E23" s="242"/>
+      <c r="D23" s="282"/>
+      <c r="E23" s="240"/>
       <c r="F23" s="181" t="s">
         <v>574</v>
       </c>
-      <c r="G23" s="606"/>
-      <c r="H23" s="213" t="s">
+      <c r="G23" s="609"/>
+      <c r="H23" s="212" t="s">
         <v>350</v>
       </c>
       <c r="I23" s="207" t="s">
@@ -7404,7 +7423,7 @@
       <c r="A24" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="217" t="s">
+      <c r="B24" s="216" t="s">
         <v>306</v>
       </c>
       <c r="C24" s="179" t="s">
@@ -7414,135 +7433,135 @@
         <v>318</v>
       </c>
       <c r="E24" s="171"/>
-      <c r="F24" s="310"/>
-      <c r="G24" s="607"/>
-      <c r="H24" s="217" t="s">
+      <c r="F24" s="304"/>
+      <c r="G24" s="610"/>
+      <c r="H24" s="216" t="s">
         <v>310</v>
       </c>
-      <c r="I24" s="220" t="s">
+      <c r="I24" s="219" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="568" t="s">
+      <c r="A25" s="575" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="571"/>
-      <c r="C25" s="571"/>
-      <c r="D25" s="571"/>
-      <c r="E25" s="571"/>
-      <c r="F25" s="571"/>
-      <c r="G25" s="571"/>
-      <c r="H25" s="571"/>
-      <c r="I25" s="572"/>
+      <c r="B25" s="578"/>
+      <c r="C25" s="578"/>
+      <c r="D25" s="578"/>
+      <c r="E25" s="578"/>
+      <c r="F25" s="578"/>
+      <c r="G25" s="578"/>
+      <c r="H25" s="578"/>
+      <c r="I25" s="579"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="208" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="564" t="s">
+      <c r="B26" s="555" t="s">
         <v>606</v>
       </c>
-      <c r="C26" s="564"/>
-      <c r="D26" s="564"/>
-      <c r="E26" s="240"/>
-      <c r="G26" s="608" t="s">
+      <c r="C26" s="555"/>
+      <c r="D26" s="555"/>
+      <c r="E26" s="239"/>
+      <c r="G26" s="611" t="s">
         <v>188</v>
       </c>
-      <c r="H26" s="321"/>
-      <c r="I26" s="322"/>
+      <c r="H26" s="315"/>
+      <c r="I26" s="316"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="317" t="s">
+      <c r="A27" s="311" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="550" t="s">
+      <c r="B27" s="556" t="s">
         <v>577</v>
       </c>
-      <c r="C27" s="550"/>
-      <c r="D27" s="550"/>
+      <c r="C27" s="556"/>
+      <c r="D27" s="556"/>
       <c r="E27" s="144"/>
-      <c r="F27" s="224"/>
-      <c r="G27" s="609"/>
-      <c r="H27" s="249"/>
-      <c r="I27" s="245"/>
+      <c r="F27" s="223"/>
+      <c r="G27" s="612"/>
+      <c r="H27" s="247"/>
+      <c r="I27" s="243"/>
     </row>
     <row r="28" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="317" t="s">
+      <c r="A28" s="311" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="243"/>
-      <c r="C28" s="243"/>
-      <c r="D28" s="543" t="s">
+      <c r="B28" s="241"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="560" t="s">
         <v>575</v>
       </c>
-      <c r="E28" s="543"/>
-      <c r="F28" s="614"/>
-      <c r="G28" s="609"/>
-      <c r="H28" s="262"/>
-      <c r="I28" s="307"/>
+      <c r="E28" s="560"/>
+      <c r="F28" s="617"/>
+      <c r="G28" s="612"/>
+      <c r="H28" s="260"/>
+      <c r="I28" s="301"/>
     </row>
     <row r="29" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="317" t="s">
+      <c r="A29" s="311" t="s">
         <v>569</v>
       </c>
-      <c r="B29" s="550" t="s">
+      <c r="B29" s="556" t="s">
         <v>576</v>
       </c>
-      <c r="C29" s="550"/>
-      <c r="D29" s="550"/>
-      <c r="E29" s="243"/>
-      <c r="F29" s="259"/>
-      <c r="G29" s="609"/>
-      <c r="H29" s="260"/>
-      <c r="I29" s="250"/>
+      <c r="C29" s="556"/>
+      <c r="D29" s="556"/>
+      <c r="E29" s="241"/>
+      <c r="F29" s="257"/>
+      <c r="G29" s="612"/>
+      <c r="H29" s="258"/>
+      <c r="I29" s="248"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="317" t="s">
+      <c r="A30" s="311" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="243"/>
-      <c r="C30" s="611" t="s">
+      <c r="B30" s="241"/>
+      <c r="C30" s="614" t="s">
         <v>647</v>
       </c>
-      <c r="D30" s="612"/>
-      <c r="E30" s="613"/>
-      <c r="F30" s="263"/>
-      <c r="G30" s="609"/>
-      <c r="H30" s="266"/>
-      <c r="I30" s="267"/>
+      <c r="D30" s="615"/>
+      <c r="E30" s="616"/>
+      <c r="F30" s="261"/>
+      <c r="G30" s="612"/>
+      <c r="H30" s="264"/>
+      <c r="I30" s="265"/>
     </row>
     <row r="31" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="317" t="s">
+      <c r="A31" s="311" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="252"/>
-      <c r="C31" s="252"/>
-      <c r="D31" s="544" t="s">
+      <c r="B31" s="250"/>
+      <c r="C31" s="250"/>
+      <c r="D31" s="557" t="s">
         <v>578</v>
       </c>
-      <c r="E31" s="544"/>
-      <c r="F31" s="603"/>
-      <c r="G31" s="609"/>
-      <c r="H31" s="264"/>
-      <c r="I31" s="268"/>
+      <c r="E31" s="557"/>
+      <c r="F31" s="606"/>
+      <c r="G31" s="612"/>
+      <c r="H31" s="262"/>
+      <c r="I31" s="266"/>
     </row>
     <row r="32" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="317" t="s">
+      <c r="A32" s="311" t="s">
         <v>149</v>
       </c>
       <c r="B32" s="586" t="s">
         <v>596</v>
       </c>
       <c r="C32" s="586"/>
-      <c r="D32" s="265"/>
-      <c r="E32" s="265"/>
-      <c r="F32" s="310"/>
-      <c r="G32" s="610"/>
+      <c r="D32" s="263"/>
+      <c r="E32" s="263"/>
+      <c r="F32" s="304"/>
+      <c r="G32" s="613"/>
       <c r="H32" s="585" t="s">
         <v>498</v>
       </c>
-      <c r="I32" s="604"/>
+      <c r="I32" s="607"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -7598,57 +7617,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="360" t="s">
+      <c r="B1" s="363" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="361"/>
-      <c r="D1" s="361"/>
-      <c r="E1" s="361"/>
-      <c r="F1" s="361"/>
-      <c r="G1" s="361"/>
-      <c r="H1" s="361"/>
-      <c r="I1" s="362"/>
+      <c r="C1" s="364"/>
+      <c r="D1" s="364"/>
+      <c r="E1" s="364"/>
+      <c r="F1" s="364"/>
+      <c r="G1" s="364"/>
+      <c r="H1" s="364"/>
+      <c r="I1" s="365"/>
     </row>
     <row r="2" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="363"/>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
-      <c r="F2" s="364"/>
-      <c r="G2" s="364"/>
-      <c r="H2" s="364"/>
-      <c r="I2" s="365"/>
+      <c r="B2" s="366"/>
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="367"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="367"/>
+      <c r="H2" s="367"/>
+      <c r="I2" s="368"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="358" t="s">
+      <c r="A3" s="361" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="366" t="s">
+      <c r="B3" s="369" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="367"/>
-      <c r="D3" s="367"/>
-      <c r="E3" s="367"/>
-      <c r="F3" s="367"/>
-      <c r="G3" s="367"/>
-      <c r="H3" s="367"/>
-      <c r="I3" s="368"/>
+      <c r="C3" s="370"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
+      <c r="F3" s="370"/>
+      <c r="G3" s="370"/>
+      <c r="H3" s="370"/>
+      <c r="I3" s="371"/>
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="359"/>
-      <c r="B4" s="369" t="s">
+      <c r="A4" s="362"/>
+      <c r="B4" s="372" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="370"/>
-      <c r="D4" s="370"/>
-      <c r="E4" s="370"/>
-      <c r="F4" s="370"/>
-      <c r="G4" s="370"/>
-      <c r="H4" s="370"/>
-      <c r="I4" s="371"/>
+      <c r="C4" s="373"/>
+      <c r="D4" s="373"/>
+      <c r="E4" s="373"/>
+      <c r="F4" s="373"/>
+      <c r="G4" s="373"/>
+      <c r="H4" s="373"/>
+      <c r="I4" s="374"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="359"/>
+      <c r="A5" s="362"/>
       <c r="B5" s="109" t="s">
         <v>226</v>
       </c>
@@ -7675,20 +7694,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="359"/>
-      <c r="B6" s="372" t="s">
+      <c r="A6" s="362"/>
+      <c r="B6" s="375" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="373"/>
-      <c r="D6" s="373"/>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="373"/>
-      <c r="I6" s="374"/>
+      <c r="C6" s="376"/>
+      <c r="D6" s="376"/>
+      <c r="E6" s="376"/>
+      <c r="F6" s="376"/>
+      <c r="G6" s="376"/>
+      <c r="H6" s="376"/>
+      <c r="I6" s="377"/>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="359"/>
+      <c r="A7" s="362"/>
       <c r="B7" s="82">
         <v>1</v>
       </c>
@@ -7715,7 +7734,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="359"/>
+      <c r="A8" s="362"/>
       <c r="B8" s="99">
         <v>2</v>
       </c>
@@ -7742,7 +7761,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="359"/>
+      <c r="A9" s="362"/>
       <c r="B9" s="99">
         <v>3</v>
       </c>
@@ -7769,7 +7788,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="359"/>
+      <c r="A10" s="362"/>
       <c r="B10" s="99">
         <v>4</v>
       </c>
@@ -7796,7 +7815,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="359"/>
+      <c r="A11" s="362"/>
       <c r="B11" s="99">
         <v>5</v>
       </c>
@@ -7823,7 +7842,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="359"/>
+      <c r="A12" s="362"/>
       <c r="B12" s="99">
         <v>6</v>
       </c>
@@ -7850,7 +7869,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="359"/>
+      <c r="A13" s="362"/>
       <c r="B13" s="99">
         <v>7</v>
       </c>
@@ -7877,7 +7896,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="108" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="359"/>
+      <c r="A14" s="362"/>
       <c r="B14" s="99">
         <v>8</v>
       </c>
@@ -7904,7 +7923,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="359"/>
+      <c r="A15" s="362"/>
       <c r="B15" s="99">
         <v>9</v>
       </c>
@@ -7931,66 +7950,66 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="359"/>
-      <c r="B16" s="375" t="s">
+      <c r="A16" s="362"/>
+      <c r="B16" s="378" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="376"/>
-      <c r="D16" s="376"/>
-      <c r="E16" s="376"/>
+      <c r="C16" s="379"/>
+      <c r="D16" s="379"/>
+      <c r="E16" s="379"/>
       <c r="F16" s="112">
         <f>SUM(F7:F15)</f>
         <v>100</v>
       </c>
-      <c r="G16" s="376"/>
-      <c r="H16" s="376"/>
-      <c r="I16" s="377"/>
+      <c r="G16" s="379"/>
+      <c r="H16" s="379"/>
+      <c r="I16" s="380"/>
     </row>
     <row r="17" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="359"/>
-      <c r="B17" s="349" t="s">
+      <c r="A17" s="362"/>
+      <c r="B17" s="352" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="350"/>
-      <c r="D17" s="350"/>
-      <c r="E17" s="350"/>
-      <c r="F17" s="350"/>
-      <c r="G17" s="350"/>
-      <c r="H17" s="350"/>
-      <c r="I17" s="351"/>
+      <c r="C17" s="353"/>
+      <c r="D17" s="353"/>
+      <c r="E17" s="353"/>
+      <c r="F17" s="353"/>
+      <c r="G17" s="353"/>
+      <c r="H17" s="353"/>
+      <c r="I17" s="354"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="359"/>
-      <c r="B18" s="352"/>
-      <c r="C18" s="353"/>
-      <c r="D18" s="353"/>
-      <c r="E18" s="353"/>
-      <c r="F18" s="353"/>
-      <c r="G18" s="353"/>
-      <c r="H18" s="353"/>
-      <c r="I18" s="354"/>
+      <c r="A18" s="362"/>
+      <c r="B18" s="355"/>
+      <c r="C18" s="356"/>
+      <c r="D18" s="356"/>
+      <c r="E18" s="356"/>
+      <c r="F18" s="356"/>
+      <c r="G18" s="356"/>
+      <c r="H18" s="356"/>
+      <c r="I18" s="357"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="359"/>
-      <c r="B19" s="352"/>
-      <c r="C19" s="353"/>
-      <c r="D19" s="353"/>
-      <c r="E19" s="353"/>
-      <c r="F19" s="353"/>
-      <c r="G19" s="353"/>
-      <c r="H19" s="353"/>
-      <c r="I19" s="354"/>
+      <c r="A19" s="362"/>
+      <c r="B19" s="355"/>
+      <c r="C19" s="356"/>
+      <c r="D19" s="356"/>
+      <c r="E19" s="356"/>
+      <c r="F19" s="356"/>
+      <c r="G19" s="356"/>
+      <c r="H19" s="356"/>
+      <c r="I19" s="357"/>
     </row>
     <row r="20" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="359"/>
-      <c r="B20" s="355"/>
-      <c r="C20" s="356"/>
-      <c r="D20" s="356"/>
-      <c r="E20" s="356"/>
-      <c r="F20" s="356"/>
-      <c r="G20" s="356"/>
-      <c r="H20" s="356"/>
-      <c r="I20" s="357"/>
+      <c r="A20" s="362"/>
+      <c r="B20" s="358"/>
+      <c r="C20" s="359"/>
+      <c r="D20" s="359"/>
+      <c r="E20" s="359"/>
+      <c r="F20" s="359"/>
+      <c r="G20" s="359"/>
+      <c r="H20" s="359"/>
+      <c r="I20" s="360"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8019,7 +8038,7 @@
       <pane xSplit="9" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:I2"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8037,59 +8056,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="378"/>
-      <c r="B1" s="380" t="s">
+      <c r="A1" s="381"/>
+      <c r="B1" s="383" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="381"/>
-      <c r="D1" s="381"/>
-      <c r="E1" s="381"/>
-      <c r="F1" s="381"/>
-      <c r="G1" s="381"/>
-      <c r="H1" s="381"/>
-      <c r="I1" s="382"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="385"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="379"/>
-      <c r="B2" s="383"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
-      <c r="H2" s="384"/>
-      <c r="I2" s="385"/>
+      <c r="A2" s="382"/>
+      <c r="B2" s="386"/>
+      <c r="C2" s="387"/>
+      <c r="D2" s="387"/>
+      <c r="E2" s="387"/>
+      <c r="F2" s="387"/>
+      <c r="G2" s="387"/>
+      <c r="H2" s="387"/>
+      <c r="I2" s="388"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="386" t="s">
+      <c r="A3" s="389" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="389" t="s">
+      <c r="B3" s="392" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="390"/>
-      <c r="D3" s="390"/>
-      <c r="E3" s="390"/>
-      <c r="F3" s="390"/>
-      <c r="G3" s="390"/>
-      <c r="H3" s="390"/>
-      <c r="I3" s="391"/>
+      <c r="C3" s="393"/>
+      <c r="D3" s="393"/>
+      <c r="E3" s="393"/>
+      <c r="F3" s="393"/>
+      <c r="G3" s="393"/>
+      <c r="H3" s="393"/>
+      <c r="I3" s="394"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="387"/>
-      <c r="B4" s="392" t="s">
+      <c r="A4" s="390"/>
+      <c r="B4" s="395" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="393"/>
-      <c r="D4" s="393"/>
-      <c r="E4" s="393"/>
-      <c r="F4" s="393"/>
-      <c r="G4" s="393"/>
-      <c r="H4" s="393"/>
-      <c r="I4" s="394"/>
+      <c r="C4" s="396"/>
+      <c r="D4" s="396"/>
+      <c r="E4" s="396"/>
+      <c r="F4" s="396"/>
+      <c r="G4" s="396"/>
+      <c r="H4" s="396"/>
+      <c r="I4" s="397"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="387"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="13" t="s">
         <v>226</v>
       </c>
@@ -8116,20 +8135,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="387"/>
-      <c r="B6" s="395" t="s">
+      <c r="A6" s="390"/>
+      <c r="B6" s="398" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="396"/>
-      <c r="D6" s="396"/>
-      <c r="E6" s="396"/>
-      <c r="F6" s="396"/>
-      <c r="G6" s="396"/>
-      <c r="H6" s="396"/>
-      <c r="I6" s="397"/>
+      <c r="C6" s="399"/>
+      <c r="D6" s="399"/>
+      <c r="E6" s="399"/>
+      <c r="F6" s="399"/>
+      <c r="G6" s="399"/>
+      <c r="H6" s="399"/>
+      <c r="I6" s="400"/>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="387"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="50">
         <v>1</v>
       </c>
@@ -8156,7 +8175,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="387"/>
+      <c r="A8" s="390"/>
       <c r="B8" s="50">
         <v>2</v>
       </c>
@@ -8183,7 +8202,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="387"/>
+      <c r="A9" s="390"/>
       <c r="B9" s="50">
         <v>3</v>
       </c>
@@ -8210,7 +8229,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="387"/>
+      <c r="A10" s="390"/>
       <c r="B10" s="50">
         <v>4</v>
       </c>
@@ -8237,7 +8256,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="387"/>
+      <c r="A11" s="390"/>
       <c r="B11" s="50">
         <v>5</v>
       </c>
@@ -8264,7 +8283,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="387"/>
+      <c r="A12" s="390"/>
       <c r="B12" s="50">
         <v>6</v>
       </c>
@@ -8291,20 +8310,20 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="387"/>
-      <c r="B13" s="398" t="s">
+      <c r="A13" s="390"/>
+      <c r="B13" s="401" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="399"/>
-      <c r="D13" s="399"/>
-      <c r="E13" s="399"/>
-      <c r="F13" s="399"/>
-      <c r="G13" s="399"/>
-      <c r="H13" s="399"/>
-      <c r="I13" s="400"/>
+      <c r="C13" s="402"/>
+      <c r="D13" s="402"/>
+      <c r="E13" s="402"/>
+      <c r="F13" s="402"/>
+      <c r="G13" s="402"/>
+      <c r="H13" s="402"/>
+      <c r="I13" s="403"/>
     </row>
     <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="387"/>
+      <c r="A14" s="390"/>
       <c r="B14" s="91">
         <v>7</v>
       </c>
@@ -8331,7 +8350,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="387"/>
+      <c r="A15" s="390"/>
       <c r="B15" s="91">
         <v>8</v>
       </c>
@@ -8358,7 +8377,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="387"/>
+      <c r="A16" s="390"/>
       <c r="B16" s="91">
         <v>9</v>
       </c>
@@ -8385,17 +8404,17 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="387"/>
-      <c r="B17" s="401" t="s">
+      <c r="A17" s="390"/>
+      <c r="B17" s="404" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="402"/>
-      <c r="D17" s="402"/>
-      <c r="E17" s="402"/>
-      <c r="F17" s="402"/>
-      <c r="G17" s="402"/>
-      <c r="H17" s="402"/>
-      <c r="I17" s="403"/>
+      <c r="C17" s="405"/>
+      <c r="D17" s="405"/>
+      <c r="E17" s="405"/>
+      <c r="F17" s="405"/>
+      <c r="G17" s="405"/>
+      <c r="H17" s="405"/>
+      <c r="I17" s="406"/>
       <c r="P17" s="108"/>
       <c r="Q17" s="108"/>
       <c r="R17" s="108"/>
@@ -8403,7 +8422,7 @@
       <c r="T17" s="108"/>
     </row>
     <row r="18" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="387"/>
+      <c r="A18" s="390"/>
       <c r="B18" s="91">
         <v>10</v>
       </c>
@@ -8430,7 +8449,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="387"/>
+      <c r="A19" s="390"/>
       <c r="B19" s="91">
         <v>11</v>
       </c>
@@ -8457,7 +8476,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="387"/>
+      <c r="A20" s="390"/>
       <c r="B20" s="91">
         <v>12</v>
       </c>
@@ -8484,7 +8503,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="387"/>
+      <c r="A21" s="390"/>
       <c r="B21" s="91">
         <v>13</v>
       </c>
@@ -8511,7 +8530,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="387"/>
+      <c r="A22" s="390"/>
       <c r="B22" s="91">
         <v>14</v>
       </c>
@@ -8538,7 +8557,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="387"/>
+      <c r="A23" s="390"/>
       <c r="B23" s="91">
         <v>15</v>
       </c>
@@ -8565,20 +8584,20 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="388"/>
-      <c r="B24" s="404" t="s">
+      <c r="A24" s="391"/>
+      <c r="B24" s="407" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="405"/>
-      <c r="D24" s="405"/>
-      <c r="E24" s="405"/>
+      <c r="C24" s="408"/>
+      <c r="D24" s="408"/>
+      <c r="E24" s="408"/>
       <c r="F24" s="36">
         <f>SUM(F7:F23)</f>
         <v>59</v>
       </c>
       <c r="G24" s="37"/>
-      <c r="H24" s="406"/>
-      <c r="I24" s="407"/>
+      <c r="H24" s="409"/>
+      <c r="I24" s="410"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8609,7 +8628,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="5" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="B1" sqref="B1:I2"/>
@@ -8632,59 +8651,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="410"/>
-      <c r="B1" s="411" t="s">
+      <c r="A1" s="413"/>
+      <c r="B1" s="414" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="412"/>
-      <c r="D1" s="412"/>
-      <c r="E1" s="412"/>
-      <c r="F1" s="412"/>
-      <c r="G1" s="412"/>
-      <c r="H1" s="412"/>
-      <c r="I1" s="412"/>
+      <c r="C1" s="415"/>
+      <c r="D1" s="415"/>
+      <c r="E1" s="415"/>
+      <c r="F1" s="415"/>
+      <c r="G1" s="415"/>
+      <c r="H1" s="415"/>
+      <c r="I1" s="415"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="410"/>
-      <c r="B2" s="413"/>
-      <c r="C2" s="414"/>
-      <c r="D2" s="414"/>
-      <c r="E2" s="414"/>
-      <c r="F2" s="414"/>
-      <c r="G2" s="414"/>
-      <c r="H2" s="414"/>
-      <c r="I2" s="414"/>
+      <c r="A2" s="413"/>
+      <c r="B2" s="416"/>
+      <c r="C2" s="417"/>
+      <c r="D2" s="417"/>
+      <c r="E2" s="417"/>
+      <c r="F2" s="417"/>
+      <c r="G2" s="417"/>
+      <c r="H2" s="417"/>
+      <c r="I2" s="417"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="415" t="s">
+      <c r="A3" s="418" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="418" t="s">
+      <c r="B3" s="421" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="419"/>
-      <c r="D3" s="419"/>
-      <c r="E3" s="419"/>
-      <c r="F3" s="419"/>
-      <c r="G3" s="419"/>
-      <c r="H3" s="419"/>
-      <c r="I3" s="420"/>
+      <c r="C3" s="422"/>
+      <c r="D3" s="422"/>
+      <c r="E3" s="422"/>
+      <c r="F3" s="422"/>
+      <c r="G3" s="422"/>
+      <c r="H3" s="422"/>
+      <c r="I3" s="423"/>
     </row>
     <row r="4" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="416"/>
-      <c r="B4" s="421" t="s">
+      <c r="A4" s="419"/>
+      <c r="B4" s="424" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="422"/>
-      <c r="F4" s="422"/>
-      <c r="G4" s="422"/>
-      <c r="H4" s="422"/>
-      <c r="I4" s="423"/>
+      <c r="C4" s="425"/>
+      <c r="D4" s="425"/>
+      <c r="E4" s="425"/>
+      <c r="F4" s="425"/>
+      <c r="G4" s="425"/>
+      <c r="H4" s="425"/>
+      <c r="I4" s="426"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="416"/>
+      <c r="A5" s="419"/>
       <c r="B5" s="39" t="s">
         <v>226</v>
       </c>
@@ -8711,20 +8730,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="416"/>
-      <c r="B6" s="424" t="s">
+      <c r="A6" s="419"/>
+      <c r="B6" s="427" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="425"/>
-      <c r="D6" s="425"/>
-      <c r="E6" s="425"/>
-      <c r="F6" s="425"/>
-      <c r="G6" s="425"/>
-      <c r="H6" s="425"/>
-      <c r="I6" s="426"/>
+      <c r="C6" s="428"/>
+      <c r="D6" s="428"/>
+      <c r="E6" s="428"/>
+      <c r="F6" s="428"/>
+      <c r="G6" s="428"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="429"/>
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="416"/>
+      <c r="A7" s="419"/>
       <c r="B7" s="48">
         <v>1</v>
       </c>
@@ -8757,7 +8776,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="416"/>
+      <c r="A8" s="419"/>
       <c r="B8" s="48">
         <v>2</v>
       </c>
@@ -8790,7 +8809,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="416"/>
+      <c r="A9" s="419"/>
       <c r="B9" s="48">
         <v>3</v>
       </c>
@@ -8817,7 +8836,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="416"/>
+      <c r="A10" s="419"/>
       <c r="B10" s="48">
         <v>4</v>
       </c>
@@ -8844,7 +8863,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="416"/>
+      <c r="A11" s="419"/>
       <c r="B11" s="49">
         <v>5</v>
       </c>
@@ -8871,7 +8890,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="416"/>
+      <c r="A12" s="419"/>
       <c r="B12" s="151">
         <v>6</v>
       </c>
@@ -8898,20 +8917,20 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="416"/>
-      <c r="B13" s="427" t="s">
+      <c r="A13" s="419"/>
+      <c r="B13" s="430" t="s">
         <v>653</v>
       </c>
-      <c r="C13" s="428"/>
-      <c r="D13" s="428"/>
-      <c r="E13" s="428"/>
-      <c r="F13" s="428"/>
-      <c r="G13" s="428"/>
-      <c r="H13" s="428"/>
-      <c r="I13" s="429"/>
+      <c r="C13" s="431"/>
+      <c r="D13" s="431"/>
+      <c r="E13" s="431"/>
+      <c r="F13" s="431"/>
+      <c r="G13" s="431"/>
+      <c r="H13" s="431"/>
+      <c r="I13" s="432"/>
     </row>
     <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="416"/>
+      <c r="A14" s="419"/>
       <c r="B14" s="152">
         <v>7</v>
       </c>
@@ -8938,7 +8957,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="416"/>
+      <c r="A15" s="419"/>
       <c r="B15" s="152">
         <v>8</v>
       </c>
@@ -8965,7 +8984,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="416"/>
+      <c r="A16" s="419"/>
       <c r="B16" s="152">
         <v>9</v>
       </c>
@@ -8992,7 +9011,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="416"/>
+      <c r="A17" s="419"/>
       <c r="B17" s="152">
         <v>10</v>
       </c>
@@ -9019,7 +9038,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" s="416"/>
+      <c r="A18" s="419"/>
       <c r="B18" s="152">
         <v>11</v>
       </c>
@@ -9041,25 +9060,25 @@
       <c r="H18" s="43">
         <v>2015</v>
       </c>
-      <c r="I18" s="286" t="s">
+      <c r="I18" s="284" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="416"/>
-      <c r="B19" s="430" t="s">
+      <c r="A19" s="419"/>
+      <c r="B19" s="433" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="431"/>
-      <c r="D19" s="431"/>
-      <c r="E19" s="431"/>
-      <c r="F19" s="431"/>
-      <c r="G19" s="431"/>
-      <c r="H19" s="431"/>
-      <c r="I19" s="432"/>
+      <c r="C19" s="434"/>
+      <c r="D19" s="434"/>
+      <c r="E19" s="434"/>
+      <c r="F19" s="434"/>
+      <c r="G19" s="434"/>
+      <c r="H19" s="434"/>
+      <c r="I19" s="435"/>
     </row>
     <row r="20" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="416"/>
+      <c r="A20" s="419"/>
       <c r="B20" s="49">
         <v>12</v>
       </c>
@@ -9086,7 +9105,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="416"/>
+      <c r="A21" s="419"/>
       <c r="B21" s="49">
         <v>13</v>
       </c>
@@ -9113,7 +9132,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="416"/>
+      <c r="A22" s="419"/>
       <c r="B22" s="49">
         <v>14</v>
       </c>
@@ -9140,7 +9159,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="416"/>
+      <c r="A23" s="419"/>
       <c r="B23" s="49">
         <v>15</v>
       </c>
@@ -9167,27 +9186,27 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="417"/>
-      <c r="B24" s="433" t="s">
+      <c r="A24" s="420"/>
+      <c r="B24" s="436" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="434"/>
-      <c r="D24" s="434"/>
-      <c r="E24" s="434"/>
+      <c r="C24" s="437"/>
+      <c r="D24" s="437"/>
+      <c r="E24" s="437"/>
       <c r="F24" s="55">
         <f>SUM(F7:F23)</f>
         <v>59</v>
       </c>
-      <c r="G24" s="435"/>
-      <c r="H24" s="435"/>
-      <c r="I24" s="436"/>
+      <c r="G24" s="438"/>
+      <c r="H24" s="438"/>
+      <c r="I24" s="439"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="408" t="s">
+      <c r="D26" s="411" t="s">
         <v>321</v>
       </c>
-      <c r="E26" s="409"/>
+      <c r="E26" s="412"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9216,7 +9235,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="5" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="B1" sqref="B1:I2"/>
@@ -9247,59 +9266,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="440"/>
-      <c r="B1" s="441" t="s">
+      <c r="A1" s="443"/>
+      <c r="B1" s="444" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="442"/>
-      <c r="D1" s="442"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
-      <c r="I1" s="443"/>
+      <c r="C1" s="445"/>
+      <c r="D1" s="445"/>
+      <c r="E1" s="445"/>
+      <c r="F1" s="445"/>
+      <c r="G1" s="445"/>
+      <c r="H1" s="445"/>
+      <c r="I1" s="446"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="440"/>
-      <c r="B2" s="444"/>
-      <c r="C2" s="445"/>
-      <c r="D2" s="445"/>
-      <c r="E2" s="445"/>
-      <c r="F2" s="445"/>
-      <c r="G2" s="445"/>
-      <c r="H2" s="445"/>
-      <c r="I2" s="446"/>
+      <c r="A2" s="443"/>
+      <c r="B2" s="447"/>
+      <c r="C2" s="448"/>
+      <c r="D2" s="448"/>
+      <c r="E2" s="448"/>
+      <c r="F2" s="448"/>
+      <c r="G2" s="448"/>
+      <c r="H2" s="448"/>
+      <c r="I2" s="449"/>
     </row>
     <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="447" t="s">
+      <c r="A3" s="450" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="450" t="s">
+      <c r="B3" s="453" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="451"/>
-      <c r="D3" s="451"/>
-      <c r="E3" s="451"/>
-      <c r="F3" s="451"/>
-      <c r="G3" s="451"/>
-      <c r="H3" s="451"/>
-      <c r="I3" s="452"/>
+      <c r="C3" s="454"/>
+      <c r="D3" s="454"/>
+      <c r="E3" s="454"/>
+      <c r="F3" s="454"/>
+      <c r="G3" s="454"/>
+      <c r="H3" s="454"/>
+      <c r="I3" s="455"/>
     </row>
     <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="448"/>
-      <c r="B4" s="453" t="s">
+      <c r="A4" s="451"/>
+      <c r="B4" s="456" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="454"/>
-      <c r="D4" s="454"/>
-      <c r="E4" s="454"/>
-      <c r="F4" s="454"/>
-      <c r="G4" s="454"/>
-      <c r="H4" s="454"/>
-      <c r="I4" s="455"/>
+      <c r="C4" s="457"/>
+      <c r="D4" s="457"/>
+      <c r="E4" s="457"/>
+      <c r="F4" s="457"/>
+      <c r="G4" s="457"/>
+      <c r="H4" s="457"/>
+      <c r="I4" s="458"/>
     </row>
     <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="448"/>
+      <c r="A5" s="451"/>
       <c r="B5" s="87" t="s">
         <v>226</v>
       </c>
@@ -9326,21 +9345,21 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="448"/>
-      <c r="B6" s="456" t="s">
+      <c r="A6" s="451"/>
+      <c r="B6" s="459" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="457"/>
-      <c r="D6" s="457"/>
-      <c r="E6" s="457"/>
-      <c r="F6" s="457"/>
-      <c r="G6" s="457"/>
-      <c r="H6" s="457"/>
-      <c r="I6" s="458"/>
+      <c r="C6" s="460"/>
+      <c r="D6" s="460"/>
+      <c r="E6" s="460"/>
+      <c r="F6" s="460"/>
+      <c r="G6" s="460"/>
+      <c r="H6" s="460"/>
+      <c r="I6" s="461"/>
       <c r="M6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="448"/>
+      <c r="A7" s="451"/>
       <c r="B7" s="62">
         <v>1</v>
       </c>
@@ -9369,7 +9388,7 @@
       <c r="N7" s="142"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="448"/>
+      <c r="A8" s="451"/>
       <c r="B8" s="62">
         <v>2</v>
       </c>
@@ -9397,7 +9416,7 @@
       <c r="M8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="448"/>
+      <c r="A9" s="451"/>
       <c r="B9" s="62">
         <v>3</v>
       </c>
@@ -9425,7 +9444,7 @@
       <c r="M9" s="142"/>
     </row>
     <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="448"/>
+      <c r="A10" s="451"/>
       <c r="B10" s="62">
         <v>4</v>
       </c>
@@ -9456,24 +9475,24 @@
       <c r="N10" s="142"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="448"/>
-      <c r="B11" s="459" t="s">
+      <c r="A11" s="451"/>
+      <c r="B11" s="462" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="460"/>
-      <c r="D11" s="460"/>
-      <c r="E11" s="460"/>
-      <c r="F11" s="460"/>
-      <c r="G11" s="460"/>
-      <c r="H11" s="460"/>
-      <c r="I11" s="461"/>
+      <c r="C11" s="463"/>
+      <c r="D11" s="463"/>
+      <c r="E11" s="463"/>
+      <c r="F11" s="463"/>
+      <c r="G11" s="463"/>
+      <c r="H11" s="463"/>
+      <c r="I11" s="464"/>
       <c r="K11" s="142"/>
       <c r="L11" s="142"/>
       <c r="M11" s="142"/>
       <c r="N11" s="142"/>
     </row>
     <row r="12" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="448"/>
+      <c r="A12" s="451"/>
       <c r="B12" s="67">
         <v>5</v>
       </c>
@@ -9504,20 +9523,20 @@
       <c r="N12" s="142"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="448"/>
-      <c r="B13" s="459" t="s">
+      <c r="A13" s="451"/>
+      <c r="B13" s="462" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="460"/>
-      <c r="D13" s="460"/>
-      <c r="E13" s="460"/>
-      <c r="F13" s="460"/>
-      <c r="G13" s="460"/>
-      <c r="H13" s="460"/>
-      <c r="I13" s="461"/>
+      <c r="C13" s="463"/>
+      <c r="D13" s="463"/>
+      <c r="E13" s="463"/>
+      <c r="F13" s="463"/>
+      <c r="G13" s="463"/>
+      <c r="H13" s="463"/>
+      <c r="I13" s="464"/>
     </row>
     <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="448"/>
+      <c r="A14" s="451"/>
       <c r="B14" s="62">
         <v>7</v>
       </c>
@@ -9544,7 +9563,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="448"/>
+      <c r="A15" s="451"/>
       <c r="B15" s="62">
         <v>8</v>
       </c>
@@ -9571,7 +9590,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="448"/>
+      <c r="A16" s="451"/>
       <c r="B16" s="62">
         <v>9</v>
       </c>
@@ -9598,7 +9617,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="448"/>
+      <c r="A17" s="451"/>
       <c r="B17" s="62">
         <v>10</v>
       </c>
@@ -9625,20 +9644,20 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="448"/>
-      <c r="B18" s="456" t="s">
+      <c r="A18" s="451"/>
+      <c r="B18" s="459" t="s">
         <v>628</v>
       </c>
-      <c r="C18" s="457"/>
-      <c r="D18" s="457"/>
-      <c r="E18" s="457"/>
-      <c r="F18" s="457"/>
-      <c r="G18" s="457"/>
-      <c r="H18" s="457"/>
-      <c r="I18" s="458"/>
+      <c r="C18" s="460"/>
+      <c r="D18" s="460"/>
+      <c r="E18" s="460"/>
+      <c r="F18" s="460"/>
+      <c r="G18" s="460"/>
+      <c r="H18" s="460"/>
+      <c r="I18" s="461"/>
     </row>
     <row r="19" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="448"/>
+      <c r="A19" s="451"/>
       <c r="B19" s="62">
         <v>11</v>
       </c>
@@ -9665,7 +9684,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="448"/>
+      <c r="A20" s="451"/>
       <c r="B20" s="62">
         <v>12</v>
       </c>
@@ -9692,20 +9711,20 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="448"/>
-      <c r="B21" s="456" t="s">
+      <c r="A21" s="451"/>
+      <c r="B21" s="459" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="457"/>
-      <c r="D21" s="457"/>
-      <c r="E21" s="457"/>
-      <c r="F21" s="457"/>
-      <c r="G21" s="457"/>
-      <c r="H21" s="457"/>
-      <c r="I21" s="458"/>
+      <c r="C21" s="460"/>
+      <c r="D21" s="460"/>
+      <c r="E21" s="460"/>
+      <c r="F21" s="460"/>
+      <c r="G21" s="460"/>
+      <c r="H21" s="460"/>
+      <c r="I21" s="461"/>
     </row>
     <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="448"/>
+      <c r="A22" s="451"/>
       <c r="B22" s="153">
         <v>13</v>
       </c>
@@ -9732,7 +9751,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="448"/>
+      <c r="A23" s="451"/>
       <c r="B23" s="153">
         <v>14</v>
       </c>
@@ -9759,7 +9778,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="448"/>
+      <c r="A24" s="451"/>
       <c r="B24" s="153">
         <v>15</v>
       </c>
@@ -9786,20 +9805,20 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="449"/>
-      <c r="B25" s="437" t="s">
+      <c r="A25" s="452"/>
+      <c r="B25" s="440" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="438"/>
-      <c r="D25" s="438"/>
-      <c r="E25" s="438"/>
+      <c r="C25" s="441"/>
+      <c r="D25" s="441"/>
+      <c r="E25" s="441"/>
       <c r="F25" s="178">
         <f>SUM(F7:F24)</f>
         <v>35</v>
       </c>
-      <c r="G25" s="438"/>
-      <c r="H25" s="438"/>
-      <c r="I25" s="439"/>
+      <c r="G25" s="441"/>
+      <c r="H25" s="441"/>
+      <c r="I25" s="442"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -9857,30 +9876,30 @@
     </row>
     <row r="2" spans="2:12" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="132"/>
-      <c r="C2" s="480" t="s">
+      <c r="C2" s="499" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="481"/>
-      <c r="E2" s="481"/>
-      <c r="F2" s="481"/>
-      <c r="G2" s="481"/>
-      <c r="H2" s="481"/>
-      <c r="I2" s="481"/>
-      <c r="J2" s="482"/>
+      <c r="D2" s="500"/>
+      <c r="E2" s="500"/>
+      <c r="F2" s="500"/>
+      <c r="G2" s="500"/>
+      <c r="H2" s="500"/>
+      <c r="I2" s="500"/>
+      <c r="J2" s="501"/>
       <c r="K2" s="133"/>
     </row>
     <row r="3" spans="2:12" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="132"/>
-      <c r="C3" s="483" t="s">
+      <c r="C3" s="502" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="484"/>
-      <c r="E3" s="484"/>
-      <c r="F3" s="484"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="484"/>
-      <c r="I3" s="484"/>
-      <c r="J3" s="485"/>
+      <c r="D3" s="503"/>
+      <c r="E3" s="503"/>
+      <c r="F3" s="503"/>
+      <c r="G3" s="503"/>
+      <c r="H3" s="503"/>
+      <c r="I3" s="503"/>
+      <c r="J3" s="504"/>
       <c r="K3" s="133"/>
     </row>
     <row r="4" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9897,42 +9916,42 @@
     </row>
     <row r="5" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="132"/>
-      <c r="C5" s="486" t="s">
+      <c r="C5" s="505" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="487"/>
-      <c r="E5" s="487"/>
-      <c r="F5" s="487"/>
-      <c r="G5" s="487"/>
-      <c r="H5" s="487"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="488"/>
+      <c r="D5" s="506"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="506"/>
+      <c r="I5" s="506"/>
+      <c r="J5" s="507"/>
       <c r="K5" s="133"/>
     </row>
     <row r="6" spans="2:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="132"/>
-      <c r="C6" s="489"/>
-      <c r="D6" s="490"/>
-      <c r="E6" s="490"/>
-      <c r="F6" s="490"/>
-      <c r="G6" s="490"/>
-      <c r="H6" s="490"/>
-      <c r="I6" s="490"/>
-      <c r="J6" s="491"/>
+      <c r="C6" s="508"/>
+      <c r="D6" s="509"/>
+      <c r="E6" s="509"/>
+      <c r="F6" s="509"/>
+      <c r="G6" s="509"/>
+      <c r="H6" s="509"/>
+      <c r="I6" s="509"/>
+      <c r="J6" s="510"/>
       <c r="K6" s="133"/>
     </row>
     <row r="7" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="132"/>
-      <c r="C7" s="502" t="s">
+      <c r="C7" s="521" t="s">
         <v>270</v>
       </c>
-      <c r="D7" s="503"/>
-      <c r="E7" s="503"/>
-      <c r="F7" s="503"/>
-      <c r="G7" s="503"/>
-      <c r="H7" s="503"/>
-      <c r="I7" s="503"/>
-      <c r="J7" s="504"/>
+      <c r="D7" s="522"/>
+      <c r="E7" s="522"/>
+      <c r="F7" s="522"/>
+      <c r="G7" s="522"/>
+      <c r="H7" s="522"/>
+      <c r="I7" s="522"/>
+      <c r="J7" s="523"/>
       <c r="K7" s="133"/>
       <c r="L7" s="135"/>
     </row>
@@ -9950,98 +9969,98 @@
     </row>
     <row r="9" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="132"/>
-      <c r="C9" s="492" t="s">
+      <c r="C9" s="511" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="493"/>
-      <c r="E9" s="493"/>
-      <c r="F9" s="493"/>
-      <c r="G9" s="493"/>
-      <c r="H9" s="493"/>
-      <c r="I9" s="493"/>
-      <c r="J9" s="494"/>
+      <c r="D9" s="512"/>
+      <c r="E9" s="512"/>
+      <c r="F9" s="512"/>
+      <c r="G9" s="512"/>
+      <c r="H9" s="512"/>
+      <c r="I9" s="512"/>
+      <c r="J9" s="513"/>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="132"/>
-      <c r="C10" s="495"/>
-      <c r="D10" s="496"/>
-      <c r="E10" s="496"/>
-      <c r="F10" s="496"/>
-      <c r="G10" s="496"/>
-      <c r="H10" s="497"/>
-      <c r="I10" s="497"/>
-      <c r="J10" s="498"/>
+      <c r="C10" s="514"/>
+      <c r="D10" s="515"/>
+      <c r="E10" s="515"/>
+      <c r="F10" s="515"/>
+      <c r="G10" s="515"/>
+      <c r="H10" s="516"/>
+      <c r="I10" s="516"/>
+      <c r="J10" s="517"/>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="132"/>
-      <c r="C11" s="499" t="s">
+      <c r="C11" s="518" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="500"/>
-      <c r="E11" s="500"/>
-      <c r="F11" s="500"/>
-      <c r="G11" s="501"/>
-      <c r="H11" s="505" t="s">
+      <c r="D11" s="519"/>
+      <c r="E11" s="519"/>
+      <c r="F11" s="519"/>
+      <c r="G11" s="520"/>
+      <c r="H11" s="524" t="s">
         <v>115</v>
       </c>
-      <c r="I11" s="506"/>
-      <c r="J11" s="507"/>
+      <c r="I11" s="525"/>
+      <c r="J11" s="526"/>
       <c r="K11" s="133"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="132"/>
-      <c r="C12" s="508" t="s">
+      <c r="C12" s="465" t="s">
         <v>271</v>
       </c>
-      <c r="D12" s="509"/>
-      <c r="E12" s="509"/>
-      <c r="F12" s="509"/>
-      <c r="G12" s="509"/>
-      <c r="H12" s="509"/>
-      <c r="I12" s="509"/>
-      <c r="J12" s="510"/>
+      <c r="D12" s="466"/>
+      <c r="E12" s="466"/>
+      <c r="F12" s="466"/>
+      <c r="G12" s="466"/>
+      <c r="H12" s="466"/>
+      <c r="I12" s="466"/>
+      <c r="J12" s="467"/>
       <c r="K12" s="133"/>
     </row>
     <row r="13" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="132"/>
-      <c r="C13" s="511"/>
-      <c r="D13" s="512"/>
-      <c r="E13" s="512"/>
-      <c r="F13" s="512"/>
-      <c r="G13" s="512"/>
-      <c r="H13" s="512"/>
-      <c r="I13" s="512"/>
-      <c r="J13" s="513"/>
+      <c r="C13" s="468"/>
+      <c r="D13" s="469"/>
+      <c r="E13" s="469"/>
+      <c r="F13" s="469"/>
+      <c r="G13" s="469"/>
+      <c r="H13" s="469"/>
+      <c r="I13" s="469"/>
+      <c r="J13" s="470"/>
       <c r="K13" s="133"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="132"/>
-      <c r="C14" s="536" t="s">
+      <c r="C14" s="493" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="537"/>
-      <c r="E14" s="537"/>
-      <c r="F14" s="537"/>
-      <c r="G14" s="537"/>
-      <c r="H14" s="537"/>
-      <c r="I14" s="537"/>
-      <c r="J14" s="538"/>
+      <c r="D14" s="494"/>
+      <c r="E14" s="494"/>
+      <c r="F14" s="494"/>
+      <c r="G14" s="494"/>
+      <c r="H14" s="494"/>
+      <c r="I14" s="494"/>
+      <c r="J14" s="495"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="132"/>
-      <c r="C15" s="539" t="s">
+      <c r="C15" s="496" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="540"/>
-      <c r="E15" s="540"/>
-      <c r="F15" s="540"/>
-      <c r="G15" s="540"/>
-      <c r="H15" s="540"/>
-      <c r="I15" s="540"/>
-      <c r="J15" s="541"/>
+      <c r="D15" s="497"/>
+      <c r="E15" s="497"/>
+      <c r="F15" s="497"/>
+      <c r="G15" s="497"/>
+      <c r="H15" s="497"/>
+      <c r="I15" s="497"/>
+      <c r="J15" s="498"/>
       <c r="K15" s="133"/>
     </row>
     <row r="16" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10058,84 +10077,84 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="132"/>
-      <c r="C17" s="526" t="s">
+      <c r="C17" s="483" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="527"/>
-      <c r="E17" s="527"/>
-      <c r="F17" s="527"/>
-      <c r="G17" s="527"/>
-      <c r="H17" s="527"/>
-      <c r="I17" s="527"/>
-      <c r="J17" s="528"/>
+      <c r="D17" s="484"/>
+      <c r="E17" s="484"/>
+      <c r="F17" s="484"/>
+      <c r="G17" s="484"/>
+      <c r="H17" s="484"/>
+      <c r="I17" s="484"/>
+      <c r="J17" s="485"/>
       <c r="K17" s="133"/>
     </row>
     <row r="18" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="132"/>
-      <c r="C18" s="529"/>
-      <c r="D18" s="530"/>
-      <c r="E18" s="530"/>
-      <c r="F18" s="531"/>
-      <c r="G18" s="531"/>
-      <c r="H18" s="531"/>
-      <c r="I18" s="531"/>
-      <c r="J18" s="532"/>
+      <c r="C18" s="486"/>
+      <c r="D18" s="487"/>
+      <c r="E18" s="487"/>
+      <c r="F18" s="488"/>
+      <c r="G18" s="488"/>
+      <c r="H18" s="488"/>
+      <c r="I18" s="488"/>
+      <c r="J18" s="489"/>
       <c r="K18" s="133"/>
     </row>
     <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="132"/>
-      <c r="C19" s="533" t="s">
+      <c r="C19" s="490" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="534"/>
-      <c r="E19" s="535"/>
-      <c r="F19" s="520" t="s">
+      <c r="D19" s="491"/>
+      <c r="E19" s="492"/>
+      <c r="F19" s="477" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="521"/>
-      <c r="H19" s="521"/>
-      <c r="I19" s="521"/>
-      <c r="J19" s="522"/>
+      <c r="G19" s="478"/>
+      <c r="H19" s="478"/>
+      <c r="I19" s="478"/>
+      <c r="J19" s="479"/>
       <c r="K19" s="133"/>
     </row>
     <row r="20" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="132"/>
-      <c r="C20" s="514" t="s">
+      <c r="C20" s="471" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="515"/>
-      <c r="E20" s="515"/>
-      <c r="F20" s="515"/>
-      <c r="G20" s="515"/>
-      <c r="H20" s="515"/>
-      <c r="I20" s="515"/>
-      <c r="J20" s="516"/>
+      <c r="D20" s="472"/>
+      <c r="E20" s="472"/>
+      <c r="F20" s="472"/>
+      <c r="G20" s="472"/>
+      <c r="H20" s="472"/>
+      <c r="I20" s="472"/>
+      <c r="J20" s="473"/>
       <c r="K20" s="133"/>
     </row>
     <row r="21" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="132"/>
-      <c r="C21" s="517"/>
-      <c r="D21" s="518"/>
-      <c r="E21" s="518"/>
-      <c r="F21" s="518"/>
-      <c r="G21" s="518"/>
-      <c r="H21" s="518"/>
-      <c r="I21" s="518"/>
-      <c r="J21" s="519"/>
+      <c r="C21" s="474"/>
+      <c r="D21" s="475"/>
+      <c r="E21" s="475"/>
+      <c r="F21" s="475"/>
+      <c r="G21" s="475"/>
+      <c r="H21" s="475"/>
+      <c r="I21" s="475"/>
+      <c r="J21" s="476"/>
       <c r="K21" s="133"/>
     </row>
     <row r="22" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="132"/>
-      <c r="C22" s="523" t="s">
+      <c r="C22" s="480" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="524"/>
-      <c r="E22" s="524"/>
-      <c r="F22" s="524"/>
-      <c r="G22" s="524"/>
-      <c r="H22" s="524"/>
-      <c r="I22" s="524"/>
-      <c r="J22" s="525"/>
+      <c r="D22" s="481"/>
+      <c r="E22" s="481"/>
+      <c r="F22" s="481"/>
+      <c r="G22" s="481"/>
+      <c r="H22" s="481"/>
+      <c r="I22" s="481"/>
+      <c r="J22" s="482"/>
       <c r="K22" s="133"/>
     </row>
     <row r="23" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10152,148 +10171,148 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="132"/>
-      <c r="C24" s="462" t="s">
+      <c r="C24" s="527" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="463"/>
-      <c r="E24" s="463"/>
-      <c r="F24" s="463"/>
-      <c r="G24" s="463"/>
-      <c r="H24" s="463"/>
-      <c r="I24" s="463"/>
-      <c r="J24" s="464"/>
+      <c r="D24" s="528"/>
+      <c r="E24" s="528"/>
+      <c r="F24" s="528"/>
+      <c r="G24" s="528"/>
+      <c r="H24" s="528"/>
+      <c r="I24" s="528"/>
+      <c r="J24" s="529"/>
       <c r="K24" s="133"/>
     </row>
     <row r="25" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="132"/>
-      <c r="C25" s="465"/>
-      <c r="D25" s="466"/>
-      <c r="E25" s="466"/>
-      <c r="F25" s="466"/>
-      <c r="G25" s="466"/>
-      <c r="H25" s="466"/>
-      <c r="I25" s="466"/>
-      <c r="J25" s="467"/>
+      <c r="C25" s="530"/>
+      <c r="D25" s="531"/>
+      <c r="E25" s="531"/>
+      <c r="F25" s="531"/>
+      <c r="G25" s="531"/>
+      <c r="H25" s="531"/>
+      <c r="I25" s="531"/>
+      <c r="J25" s="532"/>
       <c r="K25" s="133"/>
     </row>
     <row r="26" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="132"/>
-      <c r="C26" s="468" t="s">
+      <c r="C26" s="533" t="s">
         <v>277</v>
       </c>
-      <c r="D26" s="469"/>
-      <c r="E26" s="470"/>
-      <c r="F26" s="468" t="s">
+      <c r="D26" s="534"/>
+      <c r="E26" s="535"/>
+      <c r="F26" s="533" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="469"/>
-      <c r="H26" s="469"/>
-      <c r="I26" s="469"/>
-      <c r="J26" s="470"/>
+      <c r="G26" s="534"/>
+      <c r="H26" s="534"/>
+      <c r="I26" s="534"/>
+      <c r="J26" s="535"/>
       <c r="K26" s="133"/>
     </row>
     <row r="27" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="132"/>
-      <c r="C27" s="468" t="s">
+      <c r="C27" s="533" t="s">
         <v>580</v>
       </c>
-      <c r="D27" s="469"/>
-      <c r="E27" s="470"/>
-      <c r="F27" s="477" t="s">
+      <c r="D27" s="534"/>
+      <c r="E27" s="535"/>
+      <c r="F27" s="542" t="s">
         <v>581</v>
       </c>
-      <c r="G27" s="478"/>
-      <c r="H27" s="478"/>
-      <c r="I27" s="478"/>
-      <c r="J27" s="479"/>
+      <c r="G27" s="543"/>
+      <c r="H27" s="543"/>
+      <c r="I27" s="543"/>
+      <c r="J27" s="544"/>
       <c r="K27" s="133"/>
     </row>
     <row r="28" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="132"/>
-      <c r="C28" s="468" t="s">
+      <c r="C28" s="533" t="s">
         <v>582</v>
       </c>
-      <c r="D28" s="469"/>
-      <c r="E28" s="470"/>
-      <c r="F28" s="477" t="s">
+      <c r="D28" s="534"/>
+      <c r="E28" s="535"/>
+      <c r="F28" s="542" t="s">
         <v>583</v>
       </c>
-      <c r="G28" s="478"/>
-      <c r="H28" s="478"/>
-      <c r="I28" s="478"/>
-      <c r="J28" s="479"/>
+      <c r="G28" s="543"/>
+      <c r="H28" s="543"/>
+      <c r="I28" s="543"/>
+      <c r="J28" s="544"/>
       <c r="K28" s="133"/>
     </row>
     <row r="29" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="132"/>
-      <c r="C29" s="468" t="s">
+      <c r="C29" s="533" t="s">
         <v>584</v>
       </c>
-      <c r="D29" s="469"/>
-      <c r="E29" s="470"/>
-      <c r="F29" s="477" t="s">
+      <c r="D29" s="534"/>
+      <c r="E29" s="535"/>
+      <c r="F29" s="542" t="s">
         <v>634</v>
       </c>
-      <c r="G29" s="478"/>
-      <c r="H29" s="478"/>
-      <c r="I29" s="478"/>
-      <c r="J29" s="479"/>
+      <c r="G29" s="543"/>
+      <c r="H29" s="543"/>
+      <c r="I29" s="543"/>
+      <c r="J29" s="544"/>
       <c r="K29" s="133"/>
     </row>
     <row r="30" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="132"/>
-      <c r="C30" s="468" t="s">
+      <c r="C30" s="533" t="s">
         <v>633</v>
       </c>
-      <c r="D30" s="469"/>
-      <c r="E30" s="470"/>
-      <c r="F30" s="477" t="s">
+      <c r="D30" s="534"/>
+      <c r="E30" s="535"/>
+      <c r="F30" s="542" t="s">
         <v>635</v>
       </c>
-      <c r="G30" s="478"/>
-      <c r="H30" s="478"/>
-      <c r="I30" s="478"/>
-      <c r="J30" s="479"/>
+      <c r="G30" s="543"/>
+      <c r="H30" s="543"/>
+      <c r="I30" s="543"/>
+      <c r="J30" s="544"/>
       <c r="K30" s="133"/>
     </row>
     <row r="31" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="132"/>
-      <c r="C31" s="474"/>
-      <c r="D31" s="475"/>
-      <c r="E31" s="475"/>
-      <c r="F31" s="475"/>
-      <c r="G31" s="475"/>
-      <c r="H31" s="475"/>
-      <c r="I31" s="475"/>
-      <c r="J31" s="476"/>
+      <c r="C31" s="539"/>
+      <c r="D31" s="540"/>
+      <c r="E31" s="540"/>
+      <c r="F31" s="540"/>
+      <c r="G31" s="540"/>
+      <c r="H31" s="540"/>
+      <c r="I31" s="540"/>
+      <c r="J31" s="541"/>
       <c r="K31" s="133"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="132"/>
-      <c r="C32" s="471" t="s">
+      <c r="C32" s="536" t="s">
         <v>276</v>
       </c>
-      <c r="D32" s="472"/>
-      <c r="E32" s="472"/>
-      <c r="F32" s="472"/>
-      <c r="G32" s="472"/>
-      <c r="H32" s="472"/>
-      <c r="I32" s="472"/>
-      <c r="J32" s="473"/>
+      <c r="D32" s="537"/>
+      <c r="E32" s="537"/>
+      <c r="F32" s="537"/>
+      <c r="G32" s="537"/>
+      <c r="H32" s="537"/>
+      <c r="I32" s="537"/>
+      <c r="J32" s="538"/>
       <c r="K32" s="133"/>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="132"/>
-      <c r="C33" s="471" t="s">
+      <c r="C33" s="536" t="s">
         <v>275</v>
       </c>
-      <c r="D33" s="472"/>
-      <c r="E33" s="472"/>
-      <c r="F33" s="472"/>
-      <c r="G33" s="472"/>
-      <c r="H33" s="472"/>
-      <c r="I33" s="472"/>
-      <c r="J33" s="473"/>
+      <c r="D33" s="537"/>
+      <c r="E33" s="537"/>
+      <c r="F33" s="537"/>
+      <c r="G33" s="537"/>
+      <c r="H33" s="537"/>
+      <c r="I33" s="537"/>
+      <c r="J33" s="538"/>
       <c r="K33" s="133"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10327,21 +10346,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C12:J13"/>
-    <mergeCell ref="C20:J21"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C17:J18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C5:J6"/>
-    <mergeCell ref="C9:J10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="H11:J11"/>
     <mergeCell ref="C24:J25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:J26"/>
@@ -10356,6 +10360,21 @@
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="F30:J30"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C5:J6"/>
+    <mergeCell ref="C9:J10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:J13"/>
+    <mergeCell ref="C20:J21"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C17:J18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10389,17 +10408,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="555" t="s">
+      <c r="A1" s="545" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="556"/>
-      <c r="C1" s="556"/>
-      <c r="D1" s="556"/>
-      <c r="E1" s="556"/>
-      <c r="F1" s="556"/>
-      <c r="G1" s="556"/>
-      <c r="H1" s="556"/>
-      <c r="I1" s="557"/>
+      <c r="B1" s="546"/>
+      <c r="C1" s="546"/>
+      <c r="D1" s="546"/>
+      <c r="E1" s="546"/>
+      <c r="F1" s="546"/>
+      <c r="G1" s="546"/>
+      <c r="H1" s="546"/>
+      <c r="I1" s="547"/>
     </row>
     <row r="2" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="148" t="s">
@@ -10460,39 +10479,39 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="558" t="s">
+      <c r="A4" s="548" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="559"/>
-      <c r="C4" s="559"/>
-      <c r="D4" s="559"/>
-      <c r="E4" s="559"/>
-      <c r="F4" s="559"/>
-      <c r="G4" s="559"/>
-      <c r="H4" s="559"/>
-      <c r="I4" s="560"/>
+      <c r="B4" s="549"/>
+      <c r="C4" s="549"/>
+      <c r="D4" s="549"/>
+      <c r="E4" s="549"/>
+      <c r="F4" s="549"/>
+      <c r="G4" s="549"/>
+      <c r="H4" s="549"/>
+      <c r="I4" s="550"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="273" t="s">
+      <c r="A5" s="271" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="211" t="s">
         <v>553</v>
       </c>
       <c r="C5" s="206" t="s">
         <v>551</v>
       </c>
-      <c r="D5" s="269" t="s">
+      <c r="D5" s="267" t="s">
         <v>609</v>
       </c>
       <c r="E5" s="206" t="s">
         <v>555</v>
       </c>
-      <c r="F5" s="270"/>
-      <c r="G5" s="269" t="s">
+      <c r="F5" s="268"/>
+      <c r="G5" s="267" t="s">
         <v>613</v>
       </c>
-      <c r="H5" s="269" t="s">
+      <c r="H5" s="267" t="s">
         <v>342</v>
       </c>
       <c r="I5" s="192"/>
@@ -10507,7 +10526,7 @@
       <c r="C6" s="147" t="s">
         <v>521</v>
       </c>
-      <c r="D6" s="274" t="s">
+      <c r="D6" s="324" t="s">
         <v>416</v>
       </c>
       <c r="E6" s="197" t="s">
@@ -10516,10 +10535,10 @@
       <c r="F6" s="197" t="s">
         <v>327</v>
       </c>
-      <c r="G6" s="274" t="s">
+      <c r="G6" s="324" t="s">
         <v>418</v>
       </c>
-      <c r="H6" s="274" t="s">
+      <c r="H6" s="324" t="s">
         <v>417</v>
       </c>
       <c r="I6" s="7"/>
@@ -10528,7 +10547,7 @@
       <c r="A7" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="202" t="s">
+      <c r="B7" s="328" t="s">
         <v>536</v>
       </c>
       <c r="C7" s="145" t="s">
@@ -10544,10 +10563,10 @@
       <c r="G7" s="145" t="s">
         <v>556</v>
       </c>
-      <c r="H7" s="274" t="s">
+      <c r="H7" s="324" t="s">
         <v>413</v>
       </c>
-      <c r="I7" s="275" t="s">
+      <c r="I7" s="325" t="s">
         <v>414</v>
       </c>
     </row>
@@ -10555,26 +10574,26 @@
       <c r="A8" s="162" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="213" t="s">
+      <c r="B8" s="212" t="s">
         <v>329</v>
       </c>
-      <c r="C8" s="274" t="s">
+      <c r="C8" s="324" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="274" t="s">
+      <c r="D8" s="324" t="s">
         <v>419</v>
       </c>
       <c r="E8" s="197" t="s">
         <v>330</v>
       </c>
-      <c r="F8" s="279" t="s">
+      <c r="F8" s="277" t="s">
         <v>438</v>
       </c>
-      <c r="G8" s="279" t="s">
+      <c r="G8" s="277" t="s">
         <v>439</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="280" t="s">
+      <c r="I8" s="278" t="s">
         <v>446</v>
       </c>
     </row>
@@ -10582,28 +10601,28 @@
       <c r="A9" s="162" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="276" t="s">
+      <c r="B9" s="326" t="s">
         <v>400</v>
       </c>
-      <c r="C9" s="274" t="s">
+      <c r="C9" s="324" t="s">
         <v>401</v>
       </c>
-      <c r="D9" s="279" t="s">
+      <c r="D9" s="277" t="s">
         <v>523</v>
       </c>
-      <c r="E9" s="279" t="s">
+      <c r="E9" s="277" t="s">
         <v>522</v>
       </c>
-      <c r="F9" s="279" t="s">
+      <c r="F9" s="277" t="s">
         <v>524</v>
       </c>
-      <c r="G9" s="279" t="s">
+      <c r="G9" s="277" t="s">
         <v>440</v>
       </c>
-      <c r="H9" s="279" t="s">
+      <c r="H9" s="277" t="s">
         <v>525</v>
       </c>
-      <c r="I9" s="280" t="s">
+      <c r="I9" s="278" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10611,23 +10630,23 @@
       <c r="A10" s="162" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="276" t="s">
+      <c r="B10" s="326" t="s">
         <v>415</v>
       </c>
-      <c r="C10" s="279" t="s">
+      <c r="C10" s="277" t="s">
         <v>434</v>
       </c>
-      <c r="D10" s="279" t="s">
+      <c r="D10" s="277" t="s">
         <v>444</v>
       </c>
-      <c r="E10" s="279" t="s">
+      <c r="E10" s="277" t="s">
         <v>445</v>
       </c>
-      <c r="F10" s="284"/>
-      <c r="G10" s="309" t="s">
+      <c r="F10" s="282"/>
+      <c r="G10" s="303" t="s">
         <v>326</v>
       </c>
-      <c r="H10" s="234" t="s">
+      <c r="H10" s="233" t="s">
         <v>326</v>
       </c>
       <c r="I10" s="189"/>
@@ -10636,51 +10655,51 @@
       <c r="A11" s="162" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="202" t="s">
+      <c r="B11" s="328" t="s">
         <v>620</v>
       </c>
       <c r="C11" s="160"/>
-      <c r="D11" s="279" t="s">
+      <c r="D11" s="277" t="s">
         <v>431</v>
       </c>
-      <c r="E11" s="279" t="s">
+      <c r="E11" s="277" t="s">
         <v>443</v>
       </c>
-      <c r="F11" s="279" t="s">
+      <c r="F11" s="277" t="s">
         <v>441</v>
       </c>
-      <c r="G11" s="279" t="s">
+      <c r="G11" s="277" t="s">
         <v>433</v>
       </c>
-      <c r="H11" s="279" t="s">
+      <c r="H11" s="277" t="s">
         <v>432</v>
       </c>
-      <c r="I11" s="280" t="s">
-        <v>442</v>
-      </c>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="162" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="276" t="s">
+      <c r="B12" s="326" t="s">
         <v>402</v>
       </c>
       <c r="C12" s="159" t="s">
         <v>187</v>
       </c>
       <c r="D12" s="150"/>
-      <c r="E12" s="274" t="s">
+      <c r="E12" s="324" t="s">
         <v>385</v>
       </c>
-      <c r="F12" s="274" t="s">
+      <c r="F12" s="324" t="s">
         <v>390</v>
       </c>
-      <c r="G12" s="274" t="s">
+      <c r="G12" s="324" t="s">
         <v>391</v>
       </c>
-      <c r="H12" s="160"/>
-      <c r="I12" s="164"/>
+      <c r="H12" s="277" t="s">
+        <v>442</v>
+      </c>
+      <c r="I12" s="332"/>
     </row>
     <row r="13" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="162" t="s">
@@ -10693,7 +10712,7 @@
         <v>608</v>
       </c>
       <c r="D13" s="150"/>
-      <c r="E13" s="279" t="s">
+      <c r="E13" s="277" t="s">
         <v>427</v>
       </c>
       <c r="F13" s="160"/>
@@ -10709,16 +10728,16 @@
       <c r="A14" s="162" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="202" t="s">
+      <c r="B14" s="328" t="s">
         <v>564</v>
       </c>
-      <c r="C14" s="279" t="s">
+      <c r="C14" s="277" t="s">
         <v>592</v>
       </c>
-      <c r="D14" s="279" t="s">
+      <c r="D14" s="277" t="s">
         <v>593</v>
       </c>
-      <c r="E14" s="279" t="s">
+      <c r="E14" s="277" t="s">
         <v>527</v>
       </c>
       <c r="F14" s="150"/>
@@ -10730,15 +10749,15 @@
       <c r="A15" s="162" t="s">
         <v>594</v>
       </c>
-      <c r="B15" s="546" t="s">
+      <c r="B15" s="561" t="s">
         <v>618</v>
       </c>
-      <c r="C15" s="547"/>
+      <c r="C15" s="554"/>
       <c r="D15" s="150"/>
-      <c r="E15" s="547" t="s">
+      <c r="E15" s="554" t="s">
         <v>619</v>
       </c>
-      <c r="F15" s="547"/>
+      <c r="F15" s="554"/>
       <c r="G15" s="150"/>
       <c r="H15" s="150"/>
       <c r="I15" s="189"/>
@@ -10747,7 +10766,7 @@
       <c r="A16" s="162" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="213" t="s">
+      <c r="B16" s="212" t="s">
         <v>334</v>
       </c>
       <c r="C16" s="160"/>
@@ -10770,26 +10789,26 @@
       <c r="A17" s="162" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="276" t="s">
+      <c r="B17" s="326" t="s">
         <v>422</v>
       </c>
       <c r="C17" s="145" t="s">
         <v>303</v>
       </c>
-      <c r="D17" s="274" t="s">
+      <c r="D17" s="324" t="s">
         <v>424</v>
       </c>
       <c r="E17" s="145" t="s">
         <v>304</v>
       </c>
-      <c r="F17" s="274" t="s">
+      <c r="F17" s="324" t="s">
         <v>386</v>
       </c>
       <c r="G17" s="160"/>
       <c r="H17" s="145" t="s">
         <v>305</v>
       </c>
-      <c r="I17" s="275" t="s">
+      <c r="I17" s="325" t="s">
         <v>423</v>
       </c>
     </row>
@@ -10802,10 +10821,10 @@
       </c>
       <c r="C18" s="160"/>
       <c r="D18" s="150"/>
-      <c r="E18" s="274" t="s">
+      <c r="E18" s="324" t="s">
         <v>382</v>
       </c>
-      <c r="F18" s="274" t="s">
+      <c r="F18" s="324" t="s">
         <v>384</v>
       </c>
       <c r="G18" s="145" t="s">
@@ -10822,13 +10841,14 @@
         <v>309</v>
       </c>
       <c r="C19" s="160"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="197" t="s">
         <v>332</v>
       </c>
       <c r="F19" s="197" t="s">
         <v>331</v>
       </c>
-      <c r="G19" s="278"/>
+      <c r="G19" s="276"/>
       <c r="H19" s="145" t="s">
         <v>308</v>
       </c>
@@ -10847,7 +10867,7 @@
         <v>544</v>
       </c>
       <c r="D20" s="160"/>
-      <c r="E20" s="274" t="s">
+      <c r="E20" s="324" t="s">
         <v>642</v>
       </c>
       <c r="F20" s="145" t="s">
@@ -10856,7 +10876,7 @@
       <c r="G20" s="145" t="s">
         <v>541</v>
       </c>
-      <c r="H20" s="278"/>
+      <c r="H20" s="276"/>
       <c r="I20" s="189"/>
     </row>
     <row r="21" spans="1:9" s="94" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10890,23 +10910,24 @@
       <c r="A22" s="163" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="219"/>
+      <c r="B22" s="218"/>
       <c r="C22" s="145" t="s">
         <v>567</v>
       </c>
       <c r="D22" s="145" t="s">
         <v>285</v>
       </c>
-      <c r="E22" s="274" t="s">
+      <c r="E22" s="324" t="s">
         <v>387</v>
       </c>
-      <c r="F22" s="274" t="s">
+      <c r="F22" s="324" t="s">
         <v>388</v>
       </c>
       <c r="G22" s="145" t="s">
         <v>568</v>
       </c>
-      <c r="I22" s="145" t="s">
+      <c r="H22" s="6"/>
+      <c r="I22" s="165" t="s">
         <v>287</v>
       </c>
     </row>
@@ -10943,7 +10964,7 @@
       <c r="A24" s="162" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="217" t="s">
+      <c r="B24" s="216" t="s">
         <v>313</v>
       </c>
       <c r="C24" s="179" t="s">
@@ -10955,142 +10976,142 @@
       <c r="E24" s="179" t="s">
         <v>312</v>
       </c>
-      <c r="F24" s="230"/>
+      <c r="F24" s="229"/>
       <c r="G24" s="183"/>
       <c r="H24" s="179" t="s">
         <v>311</v>
       </c>
-      <c r="I24" s="220" t="s">
+      <c r="I24" s="219" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="94" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="558" t="s">
+      <c r="A25" s="548" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="561"/>
-      <c r="C25" s="561"/>
-      <c r="D25" s="561"/>
-      <c r="E25" s="561"/>
-      <c r="F25" s="561"/>
-      <c r="G25" s="561"/>
-      <c r="H25" s="561"/>
-      <c r="I25" s="562"/>
+      <c r="B25" s="551"/>
+      <c r="C25" s="551"/>
+      <c r="D25" s="551"/>
+      <c r="E25" s="551"/>
+      <c r="F25" s="551"/>
+      <c r="G25" s="551"/>
+      <c r="H25" s="551"/>
+      <c r="I25" s="552"/>
     </row>
     <row r="26" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="553" t="s">
+      <c r="B26" s="566" t="s">
         <v>518</v>
       </c>
-      <c r="C26" s="554"/>
-      <c r="D26" s="554"/>
-      <c r="E26" s="271"/>
-      <c r="F26" s="564" t="s">
+      <c r="C26" s="567"/>
+      <c r="D26" s="567"/>
+      <c r="E26" s="269"/>
+      <c r="F26" s="555" t="s">
         <v>484</v>
       </c>
-      <c r="G26" s="564"/>
-      <c r="H26" s="564"/>
-      <c r="I26" s="272"/>
+      <c r="G26" s="555"/>
+      <c r="H26" s="555"/>
+      <c r="I26" s="270"/>
     </row>
     <row r="27" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="162" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="552" t="s">
+      <c r="B27" s="565" t="s">
         <v>493</v>
       </c>
-      <c r="C27" s="544"/>
-      <c r="D27" s="544"/>
-      <c r="E27" s="550" t="s">
+      <c r="C27" s="557"/>
+      <c r="D27" s="557"/>
+      <c r="E27" s="556" t="s">
         <v>485</v>
       </c>
-      <c r="F27" s="550"/>
-      <c r="G27" s="544" t="s">
+      <c r="F27" s="556"/>
+      <c r="G27" s="557" t="s">
         <v>489</v>
       </c>
-      <c r="H27" s="544"/>
-      <c r="I27" s="545"/>
+      <c r="H27" s="557"/>
+      <c r="I27" s="558"/>
     </row>
     <row r="28" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="548" t="s">
+      <c r="B28" s="562" t="s">
         <v>496</v>
       </c>
-      <c r="C28" s="549"/>
-      <c r="D28" s="549"/>
+      <c r="C28" s="563"/>
+      <c r="D28" s="563"/>
       <c r="E28" s="161"/>
       <c r="F28" s="146"/>
       <c r="G28" s="209"/>
       <c r="H28" s="209"/>
-      <c r="I28" s="211"/>
+      <c r="I28" s="210"/>
     </row>
     <row r="29" spans="1:9" s="94" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="162" t="s">
         <v>569</v>
       </c>
-      <c r="B29" s="219"/>
+      <c r="B29" s="218"/>
       <c r="C29" s="160"/>
       <c r="D29" s="160"/>
-      <c r="E29" s="550" t="s">
+      <c r="E29" s="556" t="s">
         <v>486</v>
       </c>
-      <c r="F29" s="550"/>
-      <c r="G29" s="550" t="s">
+      <c r="F29" s="556"/>
+      <c r="G29" s="556" t="s">
         <v>557</v>
       </c>
-      <c r="H29" s="550"/>
-      <c r="I29" s="551"/>
+      <c r="H29" s="556"/>
+      <c r="I29" s="564"/>
     </row>
     <row r="30" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="162" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="548" t="s">
+      <c r="B30" s="562" t="s">
         <v>519</v>
       </c>
-      <c r="C30" s="549"/>
-      <c r="D30" s="549"/>
+      <c r="C30" s="563"/>
+      <c r="D30" s="563"/>
       <c r="E30" s="161"/>
-      <c r="F30" s="563" t="s">
+      <c r="F30" s="553" t="s">
         <v>622</v>
       </c>
-      <c r="G30" s="563"/>
-      <c r="H30" s="563"/>
+      <c r="G30" s="553"/>
+      <c r="H30" s="553"/>
       <c r="I30" s="164"/>
     </row>
     <row r="31" spans="1:9" s="94" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="162" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="542" t="s">
+      <c r="B31" s="559" t="s">
         <v>488</v>
       </c>
-      <c r="C31" s="543"/>
-      <c r="D31" s="543"/>
+      <c r="C31" s="560"/>
+      <c r="D31" s="560"/>
       <c r="E31" s="209"/>
       <c r="F31" s="209"/>
-      <c r="G31" s="544" t="s">
+      <c r="G31" s="557" t="s">
         <v>487</v>
       </c>
-      <c r="H31" s="544"/>
-      <c r="I31" s="545"/>
+      <c r="H31" s="557"/>
+      <c r="I31" s="558"/>
     </row>
     <row r="32" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="162" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="232"/>
-      <c r="C32" s="233"/>
-      <c r="D32" s="230"/>
-      <c r="E32" s="233"/>
-      <c r="F32" s="233"/>
-      <c r="G32" s="230"/>
-      <c r="H32" s="230"/>
-      <c r="I32" s="231"/>
+      <c r="B32" s="231"/>
+      <c r="C32" s="232"/>
+      <c r="D32" s="229"/>
+      <c r="E32" s="232"/>
+      <c r="F32" s="232"/>
+      <c r="G32" s="229"/>
+      <c r="H32" s="229"/>
+      <c r="I32" s="230"/>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="79"/>
@@ -11142,14 +11163,6 @@
     <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="B15:C15"/>
@@ -11159,6 +11172,14 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.21" top="0.22" bottom="0.2" header="0.17" footer="0.17"/>
@@ -11192,17 +11213,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="565" t="s">
+      <c r="A1" s="572" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="566"/>
-      <c r="C1" s="566"/>
-      <c r="D1" s="566"/>
-      <c r="E1" s="566"/>
-      <c r="F1" s="566"/>
-      <c r="G1" s="566"/>
-      <c r="H1" s="566"/>
-      <c r="I1" s="567"/>
+      <c r="B1" s="573"/>
+      <c r="C1" s="573"/>
+      <c r="D1" s="573"/>
+      <c r="E1" s="573"/>
+      <c r="F1" s="573"/>
+      <c r="G1" s="573"/>
+      <c r="H1" s="573"/>
+      <c r="I1" s="574"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
@@ -11263,29 +11284,29 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="568" t="s">
+      <c r="A4" s="575" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="569"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="569"/>
-      <c r="E4" s="569"/>
-      <c r="F4" s="569"/>
-      <c r="G4" s="569"/>
-      <c r="H4" s="569"/>
-      <c r="I4" s="570"/>
+      <c r="B4" s="576"/>
+      <c r="C4" s="576"/>
+      <c r="D4" s="576"/>
+      <c r="E4" s="576"/>
+      <c r="F4" s="576"/>
+      <c r="G4" s="576"/>
+      <c r="H4" s="576"/>
+      <c r="I4" s="577"/>
     </row>
     <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="173" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="211" t="s">
         <v>552</v>
       </c>
       <c r="C5" s="206" t="s">
         <v>550</v>
       </c>
-      <c r="D5" s="326" t="s">
+      <c r="D5" s="327" t="s">
         <v>413</v>
       </c>
       <c r="E5" s="206" t="s">
@@ -11294,13 +11315,13 @@
       <c r="F5" s="206" t="s">
         <v>553</v>
       </c>
-      <c r="G5" s="300" t="s">
+      <c r="G5" s="298" t="s">
         <v>588</v>
       </c>
-      <c r="H5" s="326" t="s">
+      <c r="H5" s="327" t="s">
         <v>415</v>
       </c>
-      <c r="I5" s="282" t="s">
+      <c r="I5" s="280" t="s">
         <v>414</v>
       </c>
     </row>
@@ -11308,7 +11329,7 @@
       <c r="A6" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="325" t="s">
+      <c r="B6" s="326" t="s">
         <v>421</v>
       </c>
       <c r="C6" s="145" t="s">
@@ -11323,10 +11344,10 @@
       <c r="F6" s="197" t="s">
         <v>328</v>
       </c>
-      <c r="G6" s="323" t="s">
+      <c r="G6" s="324" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="323" t="s">
+      <c r="H6" s="324" t="s">
         <v>420</v>
       </c>
       <c r="I6" s="166"/>
@@ -11335,10 +11356,10 @@
       <c r="A7" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="325" t="s">
+      <c r="B7" s="326" t="s">
         <v>419</v>
       </c>
-      <c r="C7" s="323" t="s">
+      <c r="C7" s="324" t="s">
         <v>185</v>
       </c>
       <c r="D7" s="145" t="s">
@@ -11347,7 +11368,7 @@
       <c r="E7" s="145" t="s">
         <v>554</v>
       </c>
-      <c r="F7" s="279" t="s">
+      <c r="F7" s="277" t="s">
         <v>452</v>
       </c>
       <c r="G7" s="145" t="s">
@@ -11362,11 +11383,11 @@
       <c r="A8" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="228"/>
-      <c r="C8" s="279" t="s">
+      <c r="B8" s="227"/>
+      <c r="C8" s="277" t="s">
         <v>447</v>
       </c>
-      <c r="D8" s="279" t="s">
+      <c r="D8" s="277" t="s">
         <v>437</v>
       </c>
       <c r="E8" s="197" t="s">
@@ -11375,7 +11396,7 @@
       <c r="F8" s="197" t="s">
         <v>330</v>
       </c>
-      <c r="G8" s="279" t="s">
+      <c r="G8" s="277" t="s">
         <v>447</v>
       </c>
       <c r="H8" s="157"/>
@@ -11385,20 +11406,20 @@
       <c r="A9" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="214" t="s">
+      <c r="B9" s="213" t="s">
         <v>396</v>
       </c>
       <c r="C9" s="154"/>
-      <c r="D9" s="279" t="s">
+      <c r="D9" s="277" t="s">
         <v>450</v>
       </c>
-      <c r="E9" s="279" t="s">
+      <c r="E9" s="277" t="s">
         <v>451</v>
       </c>
-      <c r="F9" s="323" t="s">
+      <c r="F9" s="324" t="s">
         <v>412</v>
       </c>
-      <c r="G9" s="323" t="s">
+      <c r="G9" s="324" t="s">
         <v>411</v>
       </c>
       <c r="H9" s="150"/>
@@ -11411,7 +11432,7 @@
       <c r="B10" s="328" t="s">
         <v>593</v>
       </c>
-      <c r="C10" s="279" t="s">
+      <c r="C10" s="277" t="s">
         <v>592</v>
       </c>
       <c r="D10" s="143" t="s">
@@ -11437,10 +11458,10 @@
       <c r="C11" s="147" t="s">
         <v>600</v>
       </c>
-      <c r="D11" s="279" t="s">
+      <c r="D11" s="277" t="s">
         <v>587</v>
       </c>
-      <c r="E11" s="279" t="s">
+      <c r="E11" s="277" t="s">
         <v>425</v>
       </c>
       <c r="F11" s="157"/>
@@ -11448,9 +11469,7 @@
         <v>356</v>
       </c>
       <c r="H11" s="144"/>
-      <c r="I11" s="301" t="s">
-        <v>355</v>
-      </c>
+      <c r="I11" s="288"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11463,10 +11482,10 @@
       <c r="C12" s="159" t="s">
         <v>187</v>
       </c>
-      <c r="D12" s="279" t="s">
+      <c r="D12" s="277" t="s">
         <v>449</v>
       </c>
-      <c r="E12" s="279" t="s">
+      <c r="E12" s="277" t="s">
         <v>448</v>
       </c>
       <c r="F12" s="143" t="s">
@@ -11476,7 +11495,7 @@
         <v>353</v>
       </c>
       <c r="H12" s="154"/>
-      <c r="I12" s="227"/>
+      <c r="I12" s="226"/>
     </row>
     <row r="13" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
@@ -11489,14 +11508,9 @@
         <v>336</v>
       </c>
       <c r="D13" s="157"/>
-      <c r="E13" s="147" t="s">
+      <c r="E13" s="144"/>
+      <c r="G13" s="147" t="s">
         <v>337</v>
-      </c>
-      <c r="F13" s="323" t="s">
-        <v>400</v>
-      </c>
-      <c r="G13" s="323" t="s">
-        <v>401</v>
       </c>
       <c r="H13" s="150"/>
       <c r="I13" s="182" t="s">
@@ -11504,17 +11518,14 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="213" t="s">
-        <v>332</v>
-      </c>
-      <c r="C14" s="279" t="s">
+      <c r="C14" s="277" t="s">
         <v>586</v>
       </c>
-      <c r="D14" s="279" t="s">
+      <c r="D14" s="277" t="s">
         <v>436</v>
       </c>
       <c r="E14" s="159" t="s">
@@ -11523,7 +11534,7 @@
       <c r="F14" s="159" t="s">
         <v>395</v>
       </c>
-      <c r="G14" s="279" t="s">
+      <c r="G14" s="277" t="s">
         <v>586</v>
       </c>
       <c r="H14" s="157"/>
@@ -11533,30 +11544,32 @@
       <c r="A15" s="77" t="s">
         <v>594</v>
       </c>
-      <c r="B15" s="546" t="s">
+      <c r="B15" s="561" t="s">
         <v>621</v>
       </c>
-      <c r="C15" s="547"/>
-      <c r="D15" s="157"/>
+      <c r="C15" s="554"/>
+      <c r="D15" s="212" t="s">
+        <v>332</v>
+      </c>
       <c r="E15" s="197" t="s">
         <v>331</v>
       </c>
-      <c r="F15" s="279" t="s">
+      <c r="F15" s="277" t="s">
         <v>453</v>
       </c>
-      <c r="G15" s="279" t="s">
+      <c r="G15" s="277" t="s">
         <v>463</v>
       </c>
-      <c r="H15" s="547" t="s">
+      <c r="H15" s="554" t="s">
         <v>636</v>
       </c>
-      <c r="I15" s="574"/>
+      <c r="I15" s="580"/>
     </row>
     <row r="16" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="213" t="s">
+      <c r="B16" s="212" t="s">
         <v>335</v>
       </c>
       <c r="C16" s="145" t="s">
@@ -11593,9 +11606,11 @@
       <c r="E17" s="147" t="s">
         <v>367</v>
       </c>
-      <c r="F17" s="156"/>
-      <c r="G17" s="147" t="s">
-        <v>366</v>
+      <c r="F17" s="324" t="s">
+        <v>400</v>
+      </c>
+      <c r="G17" s="324" t="s">
+        <v>401</v>
       </c>
       <c r="H17" s="197" t="s">
         <v>345</v>
@@ -11606,7 +11621,7 @@
       <c r="A18" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="214" t="s">
+      <c r="B18" s="213" t="s">
         <v>399</v>
       </c>
       <c r="C18" s="144"/>
@@ -11630,19 +11645,19 @@
         <v>141</v>
       </c>
       <c r="B19" s="172"/>
-      <c r="C19" s="226"/>
+      <c r="C19" s="225"/>
       <c r="D19" s="156"/>
-      <c r="E19" s="279" t="s">
+      <c r="E19" s="277" t="s">
         <v>454</v>
       </c>
-      <c r="F19" s="279" t="s">
+      <c r="F19" s="277" t="s">
         <v>456</v>
       </c>
-      <c r="G19" s="226"/>
-      <c r="H19" s="279" t="s">
+      <c r="G19" s="225"/>
+      <c r="H19" s="277" t="s">
         <v>455</v>
       </c>
-      <c r="I19" s="227"/>
+      <c r="I19" s="226"/>
     </row>
     <row r="20" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="77" t="s">
@@ -11655,13 +11670,13 @@
         <v>363</v>
       </c>
       <c r="D20" s="144"/>
-      <c r="E20" s="323" t="s">
+      <c r="E20" s="324" t="s">
         <v>533</v>
       </c>
       <c r="F20" s="147" t="s">
         <v>364</v>
       </c>
-      <c r="G20" s="226"/>
+      <c r="G20" s="225"/>
       <c r="H20" s="197" t="s">
         <v>604</v>
       </c>
@@ -11673,7 +11688,7 @@
       <c r="A21" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="277"/>
+      <c r="B21" s="275"/>
       <c r="C21" s="145" t="s">
         <v>300</v>
       </c>
@@ -11684,7 +11699,7 @@
       <c r="F21" s="145" t="s">
         <v>637</v>
       </c>
-      <c r="G21" s="278"/>
+      <c r="G21" s="276"/>
       <c r="H21" s="197" t="s">
         <v>565</v>
       </c>
@@ -11699,7 +11714,7 @@
       <c r="B22" s="203" t="s">
         <v>545</v>
       </c>
-      <c r="C22" s="145" t="s">
+      <c r="C22" s="205" t="s">
         <v>481</v>
       </c>
       <c r="D22" s="145" t="s">
@@ -11708,7 +11723,7 @@
       <c r="E22" s="145" t="s">
         <v>483</v>
       </c>
-      <c r="F22" s="323" t="s">
+      <c r="F22" s="324" t="s">
         <v>389</v>
       </c>
       <c r="G22" s="157"/>
@@ -11723,11 +11738,11 @@
       <c r="A23" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="165" t="s">
+      <c r="B23" s="217" t="s">
         <v>314</v>
       </c>
       <c r="C23" s="144"/>
-      <c r="D23" s="145" t="s">
+      <c r="D23" s="203" t="s">
         <v>313</v>
       </c>
       <c r="E23" s="145" t="s">
@@ -11740,164 +11755,173 @@
       <c r="H23" s="145" t="s">
         <v>298</v>
       </c>
-      <c r="I23" s="290"/>
+      <c r="I23" s="288"/>
     </row>
     <row r="24" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="303"/>
-      <c r="C24" s="205" t="s">
+      <c r="B24" s="329"/>
+      <c r="C24" s="330" t="s">
         <v>297</v>
       </c>
-      <c r="D24" s="205" t="s">
+      <c r="D24" s="179" t="s">
         <v>318</v>
       </c>
-      <c r="E24" s="205" t="s">
+      <c r="E24" s="179" t="s">
         <v>319</v>
       </c>
-      <c r="F24" s="210"/>
-      <c r="G24" s="205" t="s">
+      <c r="F24" s="191"/>
+      <c r="G24" s="179" t="s">
         <v>296</v>
       </c>
-      <c r="H24" s="304" t="s">
+      <c r="H24" s="330" t="s">
         <v>295</v>
       </c>
-      <c r="I24" s="302"/>
+      <c r="I24" s="331"/>
     </row>
     <row r="25" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="568" t="s">
+      <c r="A25" s="575" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="571"/>
-      <c r="C25" s="571"/>
-      <c r="D25" s="571"/>
-      <c r="E25" s="571"/>
-      <c r="F25" s="571"/>
-      <c r="G25" s="571"/>
-      <c r="H25" s="571"/>
-      <c r="I25" s="572"/>
+      <c r="B25" s="578"/>
+      <c r="C25" s="578"/>
+      <c r="D25" s="578"/>
+      <c r="E25" s="578"/>
+      <c r="F25" s="578"/>
+      <c r="G25" s="578"/>
+      <c r="H25" s="578"/>
+      <c r="I25" s="579"/>
     </row>
     <row r="26" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="327" t="s">
+      <c r="A26" s="321" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="575" t="s">
+      <c r="B26" s="581" t="s">
         <v>508</v>
       </c>
-      <c r="C26" s="576"/>
-      <c r="D26" s="576"/>
-      <c r="E26" s="577" t="s">
+      <c r="C26" s="582"/>
+      <c r="D26" s="582"/>
+      <c r="E26" s="583" t="s">
         <v>500</v>
       </c>
-      <c r="F26" s="577"/>
-      <c r="G26" s="577" t="s">
+      <c r="F26" s="583"/>
+      <c r="G26" s="583" t="s">
         <v>559</v>
       </c>
-      <c r="H26" s="577"/>
-      <c r="I26" s="578"/>
+      <c r="H26" s="583"/>
+      <c r="I26" s="584"/>
     </row>
     <row r="27" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="327" t="s">
+      <c r="A27" s="321" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="581" t="s">
+      <c r="B27" s="571" t="s">
         <v>503</v>
       </c>
-      <c r="C27" s="543"/>
-      <c r="D27" s="543"/>
-      <c r="E27" s="550" t="s">
+      <c r="C27" s="560"/>
+      <c r="D27" s="560"/>
+      <c r="E27" s="556" t="s">
         <v>501</v>
       </c>
-      <c r="F27" s="550"/>
-      <c r="G27" s="544" t="s">
+      <c r="F27" s="556"/>
+      <c r="G27" s="557" t="s">
         <v>507</v>
       </c>
-      <c r="H27" s="544"/>
-      <c r="I27" s="545"/>
+      <c r="H27" s="557"/>
+      <c r="I27" s="558"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="327" t="s">
+      <c r="A28" s="321" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="573" t="s">
+      <c r="B28" s="568" t="s">
         <v>490</v>
       </c>
-      <c r="C28" s="549"/>
-      <c r="D28" s="549"/>
+      <c r="C28" s="563"/>
+      <c r="D28" s="563"/>
       <c r="E28" s="157"/>
       <c r="F28" s="157"/>
-      <c r="G28" s="544" t="s">
+      <c r="G28" s="557" t="s">
         <v>505</v>
       </c>
-      <c r="H28" s="544"/>
-      <c r="I28" s="545"/>
+      <c r="H28" s="557"/>
+      <c r="I28" s="558"/>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="327" t="s">
+      <c r="A29" s="321" t="s">
         <v>569</v>
       </c>
-      <c r="B29" s="580" t="s">
+      <c r="B29" s="570" t="s">
         <v>558</v>
       </c>
-      <c r="C29" s="550"/>
-      <c r="D29" s="550"/>
+      <c r="C29" s="556"/>
+      <c r="D29" s="556"/>
       <c r="E29" s="144"/>
       <c r="F29" s="144"/>
-      <c r="G29" s="550" t="s">
+      <c r="G29" s="556" t="s">
         <v>563</v>
       </c>
-      <c r="H29" s="550"/>
-      <c r="I29" s="551"/>
+      <c r="H29" s="556"/>
+      <c r="I29" s="564"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="327" t="s">
+      <c r="A30" s="321" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="573" t="s">
+      <c r="B30" s="568" t="s">
         <v>502</v>
       </c>
-      <c r="C30" s="549"/>
-      <c r="D30" s="549"/>
-      <c r="E30" s="237"/>
-      <c r="F30" s="237"/>
+      <c r="C30" s="563"/>
+      <c r="D30" s="563"/>
+      <c r="E30" s="236"/>
+      <c r="F30" s="236"/>
       <c r="G30" s="144"/>
       <c r="H30" s="144"/>
       <c r="I30" s="168"/>
     </row>
     <row r="31" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="327" t="s">
+      <c r="A31" s="321" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="579" t="s">
+      <c r="B31" s="569" t="s">
         <v>504</v>
       </c>
-      <c r="C31" s="544"/>
-      <c r="D31" s="544"/>
+      <c r="C31" s="557"/>
+      <c r="D31" s="557"/>
       <c r="E31" s="209"/>
       <c r="F31" s="209"/>
-      <c r="G31" s="544" t="s">
+      <c r="G31" s="557" t="s">
         <v>506</v>
       </c>
-      <c r="H31" s="544"/>
-      <c r="I31" s="545"/>
+      <c r="H31" s="557"/>
+      <c r="I31" s="558"/>
     </row>
     <row r="32" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="327" t="s">
+      <c r="A32" s="321" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="297"/>
-      <c r="C32" s="233"/>
-      <c r="D32" s="236"/>
-      <c r="E32" s="236"/>
+      <c r="B32" s="295"/>
+      <c r="C32" s="232"/>
+      <c r="D32" s="235"/>
+      <c r="E32" s="235"/>
       <c r="F32" s="191"/>
       <c r="G32" s="191"/>
-      <c r="H32" s="233"/>
-      <c r="I32" s="238"/>
+      <c r="H32" s="232"/>
+      <c r="I32" s="237"/>
     </row>
     <row r="33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="B31:D31"/>
@@ -11907,15 +11931,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="G29:I29"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.21" top="0.22" bottom="0.21" header="0.17" footer="0.17"/>
@@ -11947,20 +11962,21 @@
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="565" t="s">
+      <c r="A1" s="572" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="566"/>
-      <c r="C1" s="566"/>
-      <c r="D1" s="566"/>
-      <c r="E1" s="566"/>
-      <c r="F1" s="566"/>
-      <c r="G1" s="566"/>
-      <c r="H1" s="566"/>
-      <c r="I1" s="567"/>
+      <c r="B1" s="573"/>
+      <c r="C1" s="573"/>
+      <c r="D1" s="573"/>
+      <c r="E1" s="573"/>
+      <c r="F1" s="573"/>
+      <c r="G1" s="573"/>
+      <c r="H1" s="573"/>
+      <c r="I1" s="574"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
@@ -12021,29 +12037,29 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="568" t="s">
+      <c r="A4" s="575" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="569"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="569"/>
-      <c r="E4" s="569"/>
-      <c r="F4" s="569"/>
-      <c r="G4" s="569"/>
-      <c r="H4" s="569"/>
-      <c r="I4" s="570"/>
+      <c r="B4" s="576"/>
+      <c r="C4" s="576"/>
+      <c r="D4" s="576"/>
+      <c r="E4" s="576"/>
+      <c r="F4" s="576"/>
+      <c r="G4" s="576"/>
+      <c r="H4" s="576"/>
+      <c r="I4" s="577"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="211" t="s">
         <v>555</v>
       </c>
-      <c r="C5" s="269" t="s">
+      <c r="C5" s="267" t="s">
         <v>601</v>
       </c>
-      <c r="D5" s="269" t="s">
+      <c r="D5" s="267" t="s">
         <v>339</v>
       </c>
       <c r="E5" s="206" t="s">
@@ -12052,13 +12068,13 @@
       <c r="F5" s="206" t="s">
         <v>551</v>
       </c>
-      <c r="G5" s="281" t="s">
+      <c r="G5" s="279" t="s">
         <v>403</v>
       </c>
-      <c r="H5" s="281" t="s">
+      <c r="H5" s="279" t="s">
         <v>404</v>
       </c>
-      <c r="I5" s="215"/>
+      <c r="I5" s="214"/>
     </row>
     <row r="6" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
@@ -12075,10 +12091,10 @@
       </c>
       <c r="E6" s="150"/>
       <c r="F6" s="157"/>
-      <c r="G6" s="274" t="s">
+      <c r="G6" s="272" t="s">
         <v>411</v>
       </c>
-      <c r="H6" s="274" t="s">
+      <c r="H6" s="272" t="s">
         <v>412</v>
       </c>
       <c r="I6" s="175"/>
@@ -12090,7 +12106,7 @@
       <c r="B7" s="202" t="s">
         <v>433</v>
       </c>
-      <c r="C7" s="279" t="s">
+      <c r="C7" s="277" t="s">
         <v>431</v>
       </c>
       <c r="D7" s="157"/>
@@ -12098,13 +12114,13 @@
         <v>658</v>
       </c>
       <c r="F7" s="157"/>
-      <c r="G7" s="279" t="s">
+      <c r="G7" s="277" t="s">
         <v>468</v>
       </c>
-      <c r="H7" s="279" t="s">
+      <c r="H7" s="277" t="s">
         <v>432</v>
       </c>
-      <c r="I7" s="280" t="s">
+      <c r="I7" s="278" t="s">
         <v>620</v>
       </c>
     </row>
@@ -12115,16 +12131,16 @@
       <c r="B8" s="202" t="s">
         <v>467</v>
       </c>
-      <c r="C8" s="279" t="s">
+      <c r="C8" s="277" t="s">
         <v>469</v>
       </c>
       <c r="D8" s="144"/>
       <c r="E8" s="157"/>
       <c r="F8" s="155"/>
-      <c r="G8" s="279" t="s">
+      <c r="G8" s="277" t="s">
         <v>458</v>
       </c>
-      <c r="H8" s="279" t="s">
+      <c r="H8" s="277" t="s">
         <v>457</v>
       </c>
       <c r="I8" s="169"/>
@@ -12136,7 +12152,7 @@
       <c r="B9" s="202" t="s">
         <v>427</v>
       </c>
-      <c r="C9" s="279" t="s">
+      <c r="C9" s="277" t="s">
         <v>428</v>
       </c>
       <c r="D9" s="144"/>
@@ -12153,7 +12169,7 @@
       <c r="B10" s="202" t="s">
         <v>525</v>
       </c>
-      <c r="C10" s="279" t="s">
+      <c r="C10" s="277" t="s">
         <v>585</v>
       </c>
       <c r="D10" s="143" t="s">
@@ -12162,7 +12178,7 @@
       <c r="E10" s="143" t="s">
         <v>408</v>
       </c>
-      <c r="F10" s="279" t="s">
+      <c r="F10" s="277" t="s">
         <v>525</v>
       </c>
       <c r="G10" s="143" t="s">
@@ -12178,11 +12194,11 @@
       <c r="B11" s="202" t="s">
         <v>430</v>
       </c>
-      <c r="C11" s="279" t="s">
+      <c r="C11" s="277" t="s">
         <v>429</v>
       </c>
       <c r="D11" s="157"/>
-      <c r="F11" s="274" t="s">
+      <c r="F11" s="272" t="s">
         <v>377</v>
       </c>
       <c r="G11" s="150"/>
@@ -12197,18 +12213,18 @@
         <v>459</v>
       </c>
       <c r="C12" s="144"/>
-      <c r="D12" s="279" t="s">
+      <c r="D12" s="277" t="s">
         <v>460</v>
       </c>
       <c r="E12" s="150"/>
-      <c r="F12" s="279" t="s">
+      <c r="F12" s="277" t="s">
         <v>461</v>
       </c>
       <c r="G12" s="159" t="s">
         <v>394</v>
       </c>
       <c r="H12" s="150"/>
-      <c r="I12" s="291" t="s">
+      <c r="I12" s="289" t="s">
         <v>393</v>
       </c>
     </row>
@@ -12216,7 +12232,7 @@
       <c r="A13" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="214" t="s">
+      <c r="B13" s="213" t="s">
         <v>398</v>
       </c>
       <c r="C13" s="144"/>
@@ -12231,7 +12247,7 @@
       </c>
       <c r="G13" s="144"/>
       <c r="H13" s="158"/>
-      <c r="I13" s="291" t="s">
+      <c r="I13" s="289" t="s">
         <v>397</v>
       </c>
     </row>
@@ -12239,22 +12255,22 @@
       <c r="A14" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="276" t="s">
+      <c r="B14" s="274" t="s">
         <v>424</v>
       </c>
       <c r="C14" s="150"/>
       <c r="D14" s="156"/>
-      <c r="E14" s="274" t="s">
+      <c r="E14" s="272" t="s">
         <v>375</v>
       </c>
-      <c r="F14" s="274" t="s">
+      <c r="F14" s="272" t="s">
         <v>376</v>
       </c>
       <c r="G14" s="144"/>
-      <c r="H14" s="274" t="s">
+      <c r="H14" s="272" t="s">
         <v>422</v>
       </c>
-      <c r="I14" s="275" t="s">
+      <c r="I14" s="273" t="s">
         <v>423</v>
       </c>
     </row>
@@ -12262,32 +12278,32 @@
       <c r="A15" s="77" t="s">
         <v>594</v>
       </c>
-      <c r="B15" s="214" t="s">
+      <c r="B15" s="213" t="s">
         <v>395</v>
       </c>
       <c r="C15" s="150"/>
       <c r="D15" s="156"/>
-      <c r="E15" s="274" t="s">
+      <c r="E15" s="272" t="s">
         <v>373</v>
       </c>
-      <c r="F15" s="274" t="s">
+      <c r="F15" s="272" t="s">
         <v>374</v>
       </c>
       <c r="G15" s="144"/>
-      <c r="H15" s="547" t="s">
+      <c r="H15" s="554" t="s">
         <v>641</v>
       </c>
-      <c r="I15" s="574"/>
+      <c r="I15" s="580"/>
     </row>
     <row r="16" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="276" t="s">
+      <c r="B16" s="274" t="s">
         <v>413</v>
       </c>
       <c r="C16" s="144"/>
-      <c r="D16" s="274" t="s">
+      <c r="D16" s="272" t="s">
         <v>415</v>
       </c>
       <c r="E16" s="197" t="s">
@@ -12297,10 +12313,10 @@
         <v>598</v>
       </c>
       <c r="G16" s="156"/>
-      <c r="H16" s="274" t="s">
+      <c r="H16" s="272" t="s">
         <v>414</v>
       </c>
-      <c r="I16" s="235"/>
+      <c r="I16" s="234"/>
     </row>
     <row r="17" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
@@ -12309,7 +12325,7 @@
       <c r="B17" s="204" t="s">
         <v>362</v>
       </c>
-      <c r="C17" s="274" t="s">
+      <c r="C17" s="272" t="s">
         <v>533</v>
       </c>
       <c r="D17" s="145" t="s">
@@ -12335,7 +12351,7 @@
       </c>
       <c r="B18" s="172"/>
       <c r="C18" s="157"/>
-      <c r="D18" s="278"/>
+      <c r="D18" s="276"/>
       <c r="E18" s="197" t="s">
         <v>192</v>
       </c>
@@ -12356,8 +12372,8 @@
       <c r="C19" s="145" t="s">
         <v>547</v>
       </c>
-      <c r="D19" s="278"/>
-      <c r="E19" s="274" t="s">
+      <c r="D19" s="276"/>
+      <c r="E19" s="272" t="s">
         <v>642</v>
       </c>
       <c r="G19" s="145" t="s">
@@ -12372,12 +12388,12 @@
       <c r="A20" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="225"/>
+      <c r="B20" s="224"/>
       <c r="C20" s="145" t="s">
         <v>320</v>
       </c>
-      <c r="D20" s="278"/>
-      <c r="E20" s="278"/>
+      <c r="D20" s="276"/>
+      <c r="E20" s="276"/>
       <c r="F20" s="145" t="s">
         <v>320</v>
       </c>
@@ -12391,7 +12407,7 @@
       <c r="A21" s="77" t="s">
         <v>595</v>
       </c>
-      <c r="B21" s="225"/>
+      <c r="B21" s="224"/>
       <c r="C21" s="144"/>
       <c r="D21" s="145" t="s">
         <v>285</v>
@@ -12399,7 +12415,7 @@
       <c r="E21" s="145" t="s">
         <v>289</v>
       </c>
-      <c r="F21" s="274" t="s">
+      <c r="F21" s="272" t="s">
         <v>389</v>
       </c>
       <c r="G21" s="144"/>
@@ -12410,10 +12426,10 @@
       <c r="A22" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="546" t="s">
+      <c r="B22" s="561" t="s">
         <v>494</v>
       </c>
-      <c r="C22" s="547"/>
+      <c r="C22" s="554"/>
       <c r="D22" s="145" t="s">
         <v>293</v>
       </c>
@@ -12428,58 +12444,58 @@
       <c r="A23" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="213" t="s">
+      <c r="B23" s="212" t="s">
         <v>350</v>
       </c>
       <c r="C23" s="144"/>
-      <c r="D23" s="278"/>
+      <c r="D23" s="276"/>
       <c r="E23" s="197" t="s">
         <v>349</v>
       </c>
       <c r="F23" s="197" t="s">
         <v>348</v>
       </c>
-      <c r="G23" s="226"/>
+      <c r="G23" s="225"/>
       <c r="H23" s="197" t="s">
         <v>605</v>
       </c>
-      <c r="I23" s="227"/>
+      <c r="I23" s="226"/>
     </row>
     <row r="24" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="216" t="s">
+      <c r="B24" s="215" t="s">
         <v>313</v>
       </c>
       <c r="C24" s="205" t="s">
         <v>312</v>
       </c>
-      <c r="D24" s="298"/>
+      <c r="D24" s="296"/>
       <c r="E24" s="205" t="s">
         <v>316</v>
       </c>
-      <c r="F24" s="287"/>
+      <c r="F24" s="285"/>
       <c r="G24" s="205" t="s">
         <v>317</v>
       </c>
       <c r="H24" s="205" t="s">
         <v>319</v>
       </c>
-      <c r="I24" s="299"/>
+      <c r="I24" s="297"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="582" t="s">
+      <c r="A25" s="595" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="583"/>
-      <c r="C25" s="583"/>
-      <c r="D25" s="583"/>
-      <c r="E25" s="583"/>
-      <c r="F25" s="583"/>
-      <c r="G25" s="583"/>
-      <c r="H25" s="583"/>
-      <c r="I25" s="584"/>
+      <c r="B25" s="596"/>
+      <c r="C25" s="596"/>
+      <c r="D25" s="596"/>
+      <c r="E25" s="596"/>
+      <c r="F25" s="596"/>
+      <c r="G25" s="596"/>
+      <c r="H25" s="596"/>
+      <c r="I25" s="597"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="174" t="s">
@@ -12494,10 +12510,10 @@
         <v>511</v>
       </c>
       <c r="F26" s="591"/>
-      <c r="G26" s="554" t="s">
+      <c r="G26" s="567" t="s">
         <v>509</v>
       </c>
-      <c r="H26" s="554"/>
+      <c r="H26" s="567"/>
       <c r="I26" s="588"/>
       <c r="J26" s="86"/>
     </row>
@@ -12505,20 +12521,20 @@
       <c r="A27" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="552" t="s">
+      <c r="B27" s="565" t="s">
         <v>515</v>
       </c>
-      <c r="C27" s="544"/>
-      <c r="D27" s="544"/>
-      <c r="E27" s="550" t="s">
+      <c r="C27" s="557"/>
+      <c r="D27" s="557"/>
+      <c r="E27" s="556" t="s">
         <v>512</v>
       </c>
-      <c r="F27" s="550"/>
-      <c r="G27" s="550" t="s">
+      <c r="F27" s="556"/>
+      <c r="G27" s="556" t="s">
         <v>561</v>
       </c>
-      <c r="H27" s="550"/>
-      <c r="I27" s="551"/>
+      <c r="H27" s="556"/>
+      <c r="I27" s="564"/>
       <c r="J27" s="86"/>
     </row>
     <row r="28" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12528,16 +12544,16 @@
       <c r="B28" s="593" t="s">
         <v>528</v>
       </c>
-      <c r="C28" s="563"/>
-      <c r="D28" s="563"/>
-      <c r="E28" s="279" t="s">
+      <c r="C28" s="553"/>
+      <c r="D28" s="553"/>
+      <c r="E28" s="277" t="s">
         <v>434</v>
       </c>
       <c r="F28" s="157"/>
-      <c r="G28" s="543" t="s">
+      <c r="G28" s="560" t="s">
         <v>510</v>
       </c>
-      <c r="H28" s="543"/>
+      <c r="H28" s="560"/>
       <c r="I28" s="592"/>
       <c r="J28" s="86"/>
     </row>
@@ -12548,36 +12564,36 @@
       <c r="B29" s="587" t="s">
         <v>560</v>
       </c>
-      <c r="C29" s="550"/>
-      <c r="D29" s="550"/>
+      <c r="C29" s="556"/>
+      <c r="D29" s="556"/>
       <c r="E29" s="150"/>
       <c r="F29" s="157"/>
-      <c r="G29" s="550" t="s">
+      <c r="G29" s="556" t="s">
         <v>562</v>
       </c>
-      <c r="H29" s="550"/>
-      <c r="I29" s="551"/>
+      <c r="H29" s="556"/>
+      <c r="I29" s="564"/>
       <c r="J29" s="86"/>
     </row>
     <row r="30" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="552" t="s">
+      <c r="B30" s="565" t="s">
         <v>570</v>
       </c>
-      <c r="C30" s="544"/>
-      <c r="D30" s="544"/>
-      <c r="E30" s="279" t="s">
+      <c r="C30" s="557"/>
+      <c r="D30" s="557"/>
+      <c r="E30" s="277" t="s">
         <v>593</v>
       </c>
-      <c r="F30" s="279" t="s">
+      <c r="F30" s="277" t="s">
         <v>592</v>
       </c>
-      <c r="G30" s="549" t="s">
+      <c r="G30" s="563" t="s">
         <v>492</v>
       </c>
-      <c r="H30" s="549"/>
+      <c r="H30" s="563"/>
       <c r="I30" s="594"/>
       <c r="J30" s="86"/>
     </row>
@@ -12586,16 +12602,16 @@
         <v>173</v>
       </c>
       <c r="B31" s="172"/>
-      <c r="C31" s="563" t="s">
+      <c r="C31" s="553" t="s">
         <v>513</v>
       </c>
-      <c r="D31" s="563"/>
-      <c r="E31" s="563"/>
+      <c r="D31" s="553"/>
+      <c r="E31" s="553"/>
       <c r="F31" s="157"/>
-      <c r="G31" s="549" t="s">
+      <c r="G31" s="563" t="s">
         <v>491</v>
       </c>
-      <c r="H31" s="549"/>
+      <c r="H31" s="563"/>
       <c r="I31" s="594"/>
     </row>
     <row r="32" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12606,16 +12622,22 @@
         <v>495</v>
       </c>
       <c r="C32" s="586"/>
-      <c r="D32" s="236"/>
-      <c r="E32" s="236"/>
-      <c r="F32" s="229"/>
-      <c r="G32" s="236"/>
-      <c r="H32" s="233"/>
-      <c r="I32" s="238"/>
+      <c r="D32" s="235"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="228"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="232"/>
+      <c r="I32" s="237"/>
       <c r="J32" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="G26:I26"/>
@@ -12630,12 +12652,6 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="G31:I31"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.21" top="0.23" bottom="0.22" header="0.17" footer="0.17"/>

--- a/include/BSCS.xlsx
+++ b/include/BSCS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10710" windowHeight="6825" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Fall-2018" sheetId="1" r:id="rId1"/>
@@ -2038,10 +2038,10 @@
     <t>Ms. Nazia Imam (B1,D1,F1), Ms. Faiza Mumtaz (A1,C1,E1), Mr. Javed Iqbal (A2,C2,E2,I2), Mr. Ahmed Bux (B2,D2,H1), Ms. Hafsa Yusra (F2,I1), Ms. Sabeen Amjad (H2,G1),Ms. Afsheen Zehra(G2)</t>
   </si>
   <si>
-    <t>22nd September 2018</t>
-  </si>
-  <si>
-    <t>24th September 2018</t>
+    <t>08th October 2018</t>
+  </si>
+  <si>
+    <t>05th October 2018</t>
   </si>
 </sst>
 </file>
@@ -3390,7 +3390,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="618">
+  <cellXfs count="617">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4206,31 +4206,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4250,6 +4232,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5717,16 +5714,16 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="333" t="s">
+      <c r="H12" s="332" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="333"/>
-      <c r="J12" s="333"/>
-      <c r="K12" s="333"/>
-      <c r="L12" s="333"/>
-      <c r="M12" s="333"/>
-      <c r="N12" s="333"/>
-      <c r="O12" s="333"/>
+      <c r="I12" s="332"/>
+      <c r="J12" s="332"/>
+      <c r="K12" s="332"/>
+      <c r="L12" s="332"/>
+      <c r="M12" s="332"/>
+      <c r="N12" s="332"/>
+      <c r="O12" s="332"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -5740,17 +5737,17 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="334" t="s">
+      <c r="H13" s="333" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="334"/>
-      <c r="J13" s="334"/>
-      <c r="K13" s="334"/>
-      <c r="L13" s="334"/>
-      <c r="M13" s="334"/>
-      <c r="N13" s="334"/>
-      <c r="O13" s="334"/>
-      <c r="P13" s="334"/>
+      <c r="I13" s="333"/>
+      <c r="J13" s="333"/>
+      <c r="K13" s="333"/>
+      <c r="L13" s="333"/>
+      <c r="M13" s="333"/>
+      <c r="N13" s="333"/>
+      <c r="O13" s="333"/>
+      <c r="P13" s="333"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="7"/>
@@ -5763,17 +5760,17 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="335" t="s">
+      <c r="H14" s="334" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="335"/>
-      <c r="J14" s="335"/>
-      <c r="K14" s="335"/>
-      <c r="L14" s="335"/>
-      <c r="M14" s="335"/>
-      <c r="N14" s="335"/>
-      <c r="O14" s="335"/>
-      <c r="P14" s="335"/>
+      <c r="I14" s="334"/>
+      <c r="J14" s="334"/>
+      <c r="K14" s="334"/>
+      <c r="L14" s="334"/>
+      <c r="M14" s="334"/>
+      <c r="N14" s="334"/>
+      <c r="O14" s="334"/>
+      <c r="P14" s="334"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="7"/>
@@ -5786,17 +5783,17 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="336" t="s">
+      <c r="H15" s="335" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="336"/>
-      <c r="J15" s="336"/>
-      <c r="K15" s="336"/>
-      <c r="L15" s="336"/>
-      <c r="M15" s="336"/>
-      <c r="N15" s="336"/>
-      <c r="O15" s="336"/>
-      <c r="P15" s="336"/>
+      <c r="I15" s="335"/>
+      <c r="J15" s="335"/>
+      <c r="K15" s="335"/>
+      <c r="L15" s="335"/>
+      <c r="M15" s="335"/>
+      <c r="N15" s="335"/>
+      <c r="O15" s="335"/>
+      <c r="P15" s="335"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="7"/>
@@ -5809,17 +5806,17 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="337" t="s">
+      <c r="H16" s="336" t="s">
         <v>203</v>
       </c>
-      <c r="I16" s="337"/>
-      <c r="J16" s="337"/>
-      <c r="K16" s="337"/>
-      <c r="L16" s="337"/>
-      <c r="M16" s="337"/>
-      <c r="N16" s="337"/>
-      <c r="O16" s="337"/>
-      <c r="P16" s="337"/>
+      <c r="I16" s="336"/>
+      <c r="J16" s="336"/>
+      <c r="K16" s="336"/>
+      <c r="L16" s="336"/>
+      <c r="M16" s="336"/>
+      <c r="N16" s="336"/>
+      <c r="O16" s="336"/>
+      <c r="P16" s="336"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="7"/>
@@ -6002,13 +5999,13 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="340" t="s">
+      <c r="O24" s="339" t="s">
         <v>6</v>
       </c>
-      <c r="P24" s="341"/>
-      <c r="Q24" s="341"/>
-      <c r="R24" s="341"/>
-      <c r="S24" s="342"/>
+      <c r="P24" s="340"/>
+      <c r="Q24" s="340"/>
+      <c r="R24" s="340"/>
+      <c r="S24" s="341"/>
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="2:20" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6025,13 +6022,13 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="343" t="s">
+      <c r="O25" s="342" t="s">
         <v>199</v>
       </c>
-      <c r="P25" s="344"/>
-      <c r="Q25" s="344"/>
-      <c r="R25" s="344"/>
-      <c r="S25" s="345"/>
+      <c r="P25" s="343"/>
+      <c r="Q25" s="343"/>
+      <c r="R25" s="343"/>
+      <c r="S25" s="344"/>
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="2:20" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6040,23 +6037,23 @@
       <c r="D26" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="338" t="s">
-        <v>661</v>
-      </c>
-      <c r="F26" s="338"/>
-      <c r="G26" s="338"/>
-      <c r="H26" s="338"/>
-      <c r="I26" s="338"/>
+      <c r="E26" s="337" t="s">
+        <v>662</v>
+      </c>
+      <c r="F26" s="337"/>
+      <c r="G26" s="337"/>
+      <c r="H26" s="337"/>
+      <c r="I26" s="337"/>
       <c r="J26" s="104"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="346"/>
-      <c r="P26" s="347"/>
-      <c r="Q26" s="347"/>
-      <c r="R26" s="347"/>
-      <c r="S26" s="348"/>
+      <c r="O26" s="345"/>
+      <c r="P26" s="346"/>
+      <c r="Q26" s="346"/>
+      <c r="R26" s="346"/>
+      <c r="S26" s="347"/>
       <c r="T26" s="7"/>
     </row>
     <row r="27" spans="2:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6066,24 +6063,24 @@
         <v>8</v>
       </c>
       <c r="E27" s="101"/>
-      <c r="F27" s="339" t="s">
-        <v>662</v>
-      </c>
-      <c r="G27" s="339"/>
-      <c r="H27" s="339"/>
+      <c r="F27" s="338" t="s">
+        <v>661</v>
+      </c>
+      <c r="G27" s="338"/>
+      <c r="H27" s="338"/>
       <c r="I27" s="102"/>
       <c r="J27" s="106"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="349" t="s">
+      <c r="O27" s="348" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="350"/>
-      <c r="Q27" s="350"/>
-      <c r="R27" s="350"/>
-      <c r="S27" s="351"/>
+      <c r="P27" s="349"/>
+      <c r="Q27" s="349"/>
+      <c r="R27" s="349"/>
+      <c r="S27" s="350"/>
       <c r="T27" s="7"/>
     </row>
     <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6192,17 +6189,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="572" t="s">
+      <c r="A1" s="571" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="573"/>
-      <c r="C1" s="573"/>
-      <c r="D1" s="573"/>
-      <c r="E1" s="573"/>
-      <c r="F1" s="573"/>
-      <c r="G1" s="573"/>
-      <c r="H1" s="573"/>
-      <c r="I1" s="574"/>
+      <c r="B1" s="572"/>
+      <c r="C1" s="572"/>
+      <c r="D1" s="572"/>
+      <c r="E1" s="572"/>
+      <c r="F1" s="572"/>
+      <c r="G1" s="572"/>
+      <c r="H1" s="572"/>
+      <c r="I1" s="573"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
@@ -6263,33 +6260,33 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="575" t="s">
+      <c r="A4" s="574" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="576"/>
-      <c r="C4" s="576"/>
-      <c r="D4" s="576"/>
-      <c r="E4" s="576"/>
-      <c r="F4" s="576"/>
-      <c r="G4" s="576"/>
-      <c r="H4" s="576"/>
-      <c r="I4" s="577"/>
+      <c r="B4" s="575"/>
+      <c r="C4" s="575"/>
+      <c r="D4" s="575"/>
+      <c r="E4" s="575"/>
+      <c r="F4" s="575"/>
+      <c r="G4" s="575"/>
+      <c r="H4" s="575"/>
+      <c r="I4" s="576"/>
     </row>
     <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>129</v>
       </c>
       <c r="B5" s="300"/>
-      <c r="C5" s="320" t="s">
+      <c r="C5" s="330" t="s">
         <v>404</v>
       </c>
-      <c r="D5" s="320" t="s">
+      <c r="D5" s="330" t="s">
         <v>403</v>
       </c>
-      <c r="E5" s="317" t="s">
+      <c r="E5" s="327" t="s">
         <v>417</v>
       </c>
-      <c r="F5" s="317" t="s">
+      <c r="F5" s="327" t="s">
         <v>418</v>
       </c>
       <c r="G5" s="314"/>
@@ -6333,9 +6330,11 @@
       <c r="C7" s="145" t="s">
         <v>548</v>
       </c>
+      <c r="D7" s="314"/>
       <c r="E7" s="145" t="s">
         <v>552</v>
       </c>
+      <c r="F7" s="314"/>
       <c r="G7" s="144"/>
       <c r="H7" s="241"/>
       <c r="I7" s="242"/>
@@ -6344,7 +6343,7 @@
       <c r="A8" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="322" t="s">
+      <c r="B8" s="331" t="s">
         <v>428</v>
       </c>
       <c r="C8" s="277" t="s">
@@ -6370,23 +6369,23 @@
       <c r="B9" s="203" t="s">
         <v>556</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="327" t="s">
         <v>412</v>
       </c>
-      <c r="D9" s="317" t="s">
+      <c r="D9" s="327" t="s">
         <v>411</v>
       </c>
-      <c r="E9" s="317" t="s">
+      <c r="E9" s="327" t="s">
         <v>422</v>
       </c>
       <c r="F9" s="159" t="s">
         <v>396</v>
       </c>
       <c r="G9" s="241"/>
-      <c r="H9" s="317" t="s">
+      <c r="H9" s="327" t="s">
         <v>424</v>
       </c>
-      <c r="I9" s="318" t="s">
+      <c r="I9" s="328" t="s">
         <v>423</v>
       </c>
     </row>
@@ -6394,17 +6393,17 @@
       <c r="A10" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="322" t="s">
+      <c r="B10" s="331" t="s">
         <v>464</v>
       </c>
       <c r="C10" s="277" t="s">
         <v>589</v>
       </c>
       <c r="D10" s="282"/>
-      <c r="E10" s="317" t="s">
+      <c r="E10" s="327" t="s">
         <v>400</v>
       </c>
-      <c r="F10" s="317" t="s">
+      <c r="F10" s="327" t="s">
         <v>401</v>
       </c>
       <c r="G10" s="144"/>
@@ -6418,17 +6417,17 @@
       <c r="B11" s="203" t="s">
         <v>538</v>
       </c>
-      <c r="C11" s="317" t="s">
+      <c r="C11" s="327" t="s">
         <v>416</v>
       </c>
       <c r="D11" s="314"/>
-      <c r="E11" s="317" t="s">
+      <c r="E11" s="327" t="s">
         <v>184</v>
       </c>
-      <c r="F11" s="320" t="s">
+      <c r="F11" s="330" t="s">
         <v>391</v>
       </c>
-      <c r="G11" s="320" t="s">
+      <c r="G11" s="330" t="s">
         <v>390</v>
       </c>
       <c r="H11" s="145" t="s">
@@ -6440,16 +6439,16 @@
       <c r="A12" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="319" t="s">
+      <c r="B12" s="329" t="s">
         <v>421</v>
       </c>
-      <c r="C12" s="317" t="s">
+      <c r="C12" s="327" t="s">
         <v>420</v>
       </c>
       <c r="D12" s="159" t="s">
         <v>187</v>
       </c>
-      <c r="E12" s="317" t="s">
+      <c r="E12" s="327" t="s">
         <v>402</v>
       </c>
       <c r="F12" s="159" t="s">
@@ -6467,7 +6466,7 @@
       <c r="A13" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="322" t="s">
+      <c r="B13" s="331" t="s">
         <v>590</v>
       </c>
       <c r="C13" s="277" t="s">
@@ -6494,7 +6493,7 @@
       <c r="A14" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="322" t="s">
+      <c r="B14" s="331" t="s">
         <v>431</v>
       </c>
       <c r="C14" s="277" t="s">
@@ -6521,10 +6520,10 @@
       <c r="A15" s="77" t="s">
         <v>594</v>
       </c>
-      <c r="B15" s="561" t="s">
+      <c r="B15" s="560" t="s">
         <v>638</v>
       </c>
-      <c r="C15" s="554"/>
+      <c r="C15" s="553"/>
       <c r="D15" s="277" t="s">
         <v>437</v>
       </c>
@@ -6580,17 +6579,13 @@
       </c>
       <c r="I17" s="168"/>
     </row>
-    <row r="18" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="77" t="s">
         <v>158</v>
       </c>
       <c r="B18" s="172"/>
-      <c r="C18" s="145" t="s">
-        <v>288</v>
-      </c>
-      <c r="D18" s="145" t="s">
-        <v>286</v>
-      </c>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
       <c r="E18" s="147" t="s">
         <v>367</v>
       </c>
@@ -6607,13 +6602,24 @@
       <c r="A19" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="240"/>
+      <c r="B19" s="314"/>
+      <c r="C19" s="145" t="s">
+        <v>288</v>
+      </c>
+      <c r="D19" s="217" t="s">
+        <v>287</v>
+      </c>
       <c r="E19" s="145" t="s">
         <v>308</v>
       </c>
-      <c r="F19" s="241"/>
+      <c r="F19" s="145" t="s">
+        <v>285</v>
+      </c>
       <c r="G19" s="241"/>
-      <c r="I19" s="318" t="s">
+      <c r="H19" s="145" t="s">
+        <v>286</v>
+      </c>
+      <c r="I19" s="328" t="s">
         <v>533</v>
       </c>
     </row>
@@ -6621,7 +6627,7 @@
       <c r="A20" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="319" t="s">
+      <c r="B20" s="329" t="s">
         <v>389</v>
       </c>
       <c r="C20" s="145" t="s">
@@ -6636,7 +6642,7 @@
       <c r="F20" s="197" t="s">
         <v>332</v>
       </c>
-      <c r="G20" s="317" t="s">
+      <c r="G20" s="327" t="s">
         <v>389</v>
       </c>
       <c r="H20" s="145" t="s">
@@ -6662,7 +6668,7 @@
         <v>646</v>
       </c>
       <c r="G21" s="144"/>
-      <c r="H21" s="317" t="s">
+      <c r="H21" s="327" t="s">
         <v>378</v>
       </c>
       <c r="I21" s="165" t="s">
@@ -6706,16 +6712,12 @@
       <c r="E23" s="145" t="s">
         <v>295</v>
       </c>
-      <c r="F23" s="145" t="s">
-        <v>285</v>
-      </c>
+      <c r="F23" s="144"/>
       <c r="G23" s="241"/>
       <c r="H23" s="145" t="s">
         <v>309</v>
       </c>
-      <c r="I23" s="165" t="s">
-        <v>287</v>
-      </c>
+      <c r="I23" s="288"/>
     </row>
     <row r="24" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="173" t="s">
@@ -6724,7 +6726,7 @@
       <c r="B24" s="215" t="s">
         <v>307</v>
       </c>
-      <c r="C24" s="323"/>
+      <c r="C24" s="318"/>
       <c r="D24" s="205" t="s">
         <v>310</v>
       </c>
@@ -6741,76 +6743,76 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="600" t="s">
+      <c r="A25" s="599" t="s">
         <v>640</v>
       </c>
-      <c r="B25" s="601"/>
-      <c r="C25" s="601"/>
-      <c r="D25" s="601"/>
-      <c r="E25" s="601"/>
-      <c r="F25" s="602"/>
+      <c r="B25" s="600"/>
+      <c r="C25" s="600"/>
+      <c r="D25" s="600"/>
+      <c r="E25" s="600"/>
+      <c r="F25" s="601"/>
       <c r="G25" s="287" t="s">
         <v>645</v>
       </c>
-      <c r="H25" s="603"/>
-      <c r="I25" s="604"/>
+      <c r="H25" s="602"/>
+      <c r="I25" s="603"/>
     </row>
     <row r="26" spans="1:9" s="80" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="575" t="s">
+      <c r="A26" s="574" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="578"/>
-      <c r="C26" s="578"/>
-      <c r="D26" s="578"/>
-      <c r="E26" s="578"/>
-      <c r="F26" s="578"/>
-      <c r="G26" s="578"/>
-      <c r="H26" s="578"/>
-      <c r="I26" s="579"/>
+      <c r="B26" s="577"/>
+      <c r="C26" s="577"/>
+      <c r="D26" s="577"/>
+      <c r="E26" s="577"/>
+      <c r="F26" s="577"/>
+      <c r="G26" s="577"/>
+      <c r="H26" s="577"/>
+      <c r="I26" s="578"/>
     </row>
     <row r="27" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="589" t="s">
+      <c r="B27" s="588" t="s">
         <v>566</v>
       </c>
-      <c r="C27" s="590"/>
-      <c r="D27" s="590"/>
+      <c r="C27" s="589"/>
+      <c r="D27" s="589"/>
       <c r="E27" s="305"/>
       <c r="F27" s="305"/>
       <c r="G27" s="305"/>
-      <c r="H27" s="591" t="s">
+      <c r="H27" s="590" t="s">
         <v>516</v>
       </c>
-      <c r="I27" s="605"/>
+      <c r="I27" s="604"/>
     </row>
     <row r="28" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="565" t="s">
+      <c r="B28" s="564" t="s">
         <v>532</v>
       </c>
-      <c r="C28" s="557"/>
-      <c r="D28" s="557"/>
+      <c r="C28" s="556"/>
+      <c r="D28" s="556"/>
       <c r="E28" s="251"/>
       <c r="F28" s="251"/>
       <c r="G28" s="251"/>
-      <c r="H28" s="556" t="s">
+      <c r="H28" s="555" t="s">
         <v>639</v>
       </c>
-      <c r="I28" s="564"/>
+      <c r="I28" s="563"/>
     </row>
     <row r="29" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="593" t="s">
+      <c r="B29" s="592" t="s">
         <v>530</v>
       </c>
-      <c r="C29" s="553"/>
-      <c r="D29" s="553"/>
+      <c r="C29" s="552"/>
+      <c r="D29" s="552"/>
       <c r="E29" s="241"/>
       <c r="F29" s="249"/>
       <c r="G29" s="241"/>
@@ -6821,10 +6823,10 @@
       <c r="A30" s="77" t="s">
         <v>569</v>
       </c>
-      <c r="B30" s="587" t="s">
+      <c r="B30" s="586" t="s">
         <v>517</v>
       </c>
-      <c r="C30" s="556"/>
+      <c r="C30" s="555"/>
       <c r="D30" s="314"/>
       <c r="E30" s="144"/>
       <c r="F30" s="249"/>
@@ -6836,11 +6838,11 @@
       <c r="A31" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="565" t="s">
+      <c r="B31" s="564" t="s">
         <v>571</v>
       </c>
-      <c r="C31" s="557"/>
-      <c r="D31" s="557"/>
+      <c r="C31" s="556"/>
+      <c r="D31" s="556"/>
       <c r="E31" s="241"/>
       <c r="F31" s="250"/>
       <c r="G31" s="253"/>
@@ -6851,11 +6853,11 @@
       <c r="A32" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="593" t="s">
+      <c r="B32" s="592" t="s">
         <v>529</v>
       </c>
-      <c r="C32" s="553"/>
-      <c r="D32" s="553"/>
+      <c r="C32" s="552"/>
+      <c r="D32" s="552"/>
       <c r="E32" s="249"/>
       <c r="F32" s="249"/>
       <c r="G32" s="253"/>
@@ -6881,11 +6883,11 @@
       <c r="A34" s="162" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="598" t="s">
+      <c r="B34" s="597" t="s">
         <v>520</v>
       </c>
-      <c r="C34" s="599"/>
-      <c r="D34" s="599"/>
+      <c r="C34" s="598"/>
+      <c r="D34" s="598"/>
       <c r="E34" s="292"/>
       <c r="F34" s="292"/>
       <c r="G34" s="293"/>
@@ -6941,17 +6943,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="572" t="s">
+      <c r="A1" s="571" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="573"/>
-      <c r="C1" s="573"/>
-      <c r="D1" s="573"/>
-      <c r="E1" s="573"/>
-      <c r="F1" s="573"/>
-      <c r="G1" s="573"/>
-      <c r="H1" s="573"/>
-      <c r="I1" s="574"/>
+      <c r="B1" s="572"/>
+      <c r="C1" s="572"/>
+      <c r="D1" s="572"/>
+      <c r="E1" s="572"/>
+      <c r="F1" s="572"/>
+      <c r="G1" s="572"/>
+      <c r="H1" s="572"/>
+      <c r="I1" s="573"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
@@ -7012,17 +7014,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="575" t="s">
+      <c r="A4" s="574" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="576"/>
-      <c r="C4" s="576"/>
-      <c r="D4" s="576"/>
-      <c r="E4" s="576"/>
-      <c r="F4" s="576"/>
-      <c r="G4" s="576"/>
-      <c r="H4" s="576"/>
-      <c r="I4" s="577"/>
+      <c r="B4" s="575"/>
+      <c r="C4" s="575"/>
+      <c r="D4" s="575"/>
+      <c r="E4" s="575"/>
+      <c r="F4" s="575"/>
+      <c r="G4" s="575"/>
+      <c r="H4" s="575"/>
+      <c r="I4" s="576"/>
     </row>
     <row r="5" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="221" t="s">
@@ -7041,7 +7043,7 @@
       <c r="F5" s="222" t="s">
         <v>391</v>
       </c>
-      <c r="G5" s="608" t="s">
+      <c r="G5" s="607" t="s">
         <v>477</v>
       </c>
       <c r="H5" s="309" t="s">
@@ -7062,7 +7064,7 @@
       <c r="D6" s="144"/>
       <c r="E6" s="241"/>
       <c r="F6" s="283"/>
-      <c r="G6" s="609"/>
+      <c r="G6" s="608"/>
       <c r="H6" s="203" t="s">
         <v>300</v>
       </c>
@@ -7083,7 +7085,7 @@
       <c r="D7" s="314"/>
       <c r="E7" s="144"/>
       <c r="F7" s="283"/>
-      <c r="G7" s="609"/>
+      <c r="G7" s="608"/>
       <c r="H7" s="203" t="s">
         <v>317</v>
       </c>
@@ -7102,7 +7104,7 @@
       <c r="D8" s="255"/>
       <c r="E8" s="255"/>
       <c r="F8" s="283"/>
-      <c r="G8" s="609"/>
+      <c r="G8" s="608"/>
       <c r="H8" s="244"/>
       <c r="I8" s="220"/>
     </row>
@@ -7121,7 +7123,7 @@
       <c r="F9" s="312" t="s">
         <v>418</v>
       </c>
-      <c r="G9" s="609"/>
+      <c r="G9" s="608"/>
       <c r="H9" s="244"/>
       <c r="I9" s="245"/>
     </row>
@@ -7140,7 +7142,7 @@
       <c r="F10" s="302" t="s">
         <v>410</v>
       </c>
-      <c r="G10" s="609"/>
+      <c r="G10" s="608"/>
       <c r="H10" s="308" t="s">
         <v>379</v>
       </c>
@@ -7152,9 +7154,7 @@
       <c r="A11" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="202" t="s">
-        <v>462</v>
-      </c>
+      <c r="B11" s="172"/>
       <c r="C11" s="306" t="s">
         <v>573</v>
       </c>
@@ -7162,8 +7162,10 @@
       <c r="E11" s="306" t="s">
         <v>419</v>
       </c>
-      <c r="F11" s="223"/>
-      <c r="G11" s="609"/>
+      <c r="F11" s="202" t="s">
+        <v>462</v>
+      </c>
+      <c r="G11" s="608"/>
       <c r="H11" s="308" t="s">
         <v>381</v>
       </c>
@@ -7182,7 +7184,7 @@
       <c r="D12" s="144"/>
       <c r="E12" s="314"/>
       <c r="F12" s="256"/>
-      <c r="G12" s="609"/>
+      <c r="G12" s="608"/>
       <c r="H12" s="212" t="s">
         <v>351</v>
       </c>
@@ -7202,7 +7204,7 @@
       </c>
       <c r="E13" s="282"/>
       <c r="F13" s="257"/>
-      <c r="G13" s="609"/>
+      <c r="G13" s="608"/>
       <c r="H13" s="247"/>
       <c r="I13" s="248"/>
     </row>
@@ -7215,7 +7217,7 @@
       <c r="D14" s="241"/>
       <c r="E14" s="144"/>
       <c r="F14" s="223"/>
-      <c r="G14" s="609"/>
+      <c r="G14" s="608"/>
       <c r="H14" s="172"/>
       <c r="I14" s="168"/>
     </row>
@@ -7228,7 +7230,7 @@
       <c r="D15" s="241"/>
       <c r="E15" s="144"/>
       <c r="F15" s="223"/>
-      <c r="G15" s="609"/>
+      <c r="G15" s="608"/>
       <c r="H15" s="172"/>
       <c r="I15" s="168"/>
     </row>
@@ -7236,10 +7238,10 @@
       <c r="A16" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="561" t="s">
+      <c r="B16" s="560" t="s">
         <v>497</v>
       </c>
-      <c r="C16" s="554"/>
+      <c r="C16" s="553"/>
       <c r="D16" s="147" t="s">
         <v>368</v>
       </c>
@@ -7249,7 +7251,7 @@
       <c r="F16" s="181" t="s">
         <v>598</v>
       </c>
-      <c r="G16" s="609"/>
+      <c r="G16" s="608"/>
       <c r="H16" s="212" t="s">
         <v>347</v>
       </c>
@@ -7274,7 +7276,7 @@
       <c r="F17" s="217" t="s">
         <v>290</v>
       </c>
-      <c r="G17" s="609"/>
+      <c r="G17" s="608"/>
       <c r="H17" s="308" t="s">
         <v>378</v>
       </c>
@@ -7297,7 +7299,7 @@
         <v>343</v>
       </c>
       <c r="F18" s="223"/>
-      <c r="G18" s="609"/>
+      <c r="G18" s="608"/>
       <c r="H18" s="203" t="s">
         <v>297</v>
       </c>
@@ -7320,7 +7322,7 @@
       <c r="F19" s="181" t="s">
         <v>565</v>
       </c>
-      <c r="G19" s="609"/>
+      <c r="G19" s="608"/>
       <c r="H19" s="212" t="s">
         <v>192</v>
       </c>
@@ -7345,7 +7347,7 @@
       <c r="F20" s="217" t="s">
         <v>292</v>
       </c>
-      <c r="G20" s="609"/>
+      <c r="G20" s="608"/>
       <c r="H20" s="203" t="s">
         <v>649</v>
       </c>
@@ -7369,7 +7371,7 @@
       <c r="F21" s="217" t="s">
         <v>646</v>
       </c>
-      <c r="G21" s="609"/>
+      <c r="G21" s="608"/>
       <c r="H21" s="212" t="s">
         <v>344</v>
       </c>
@@ -7390,11 +7392,11 @@
       </c>
       <c r="E22" s="144"/>
       <c r="F22" s="223"/>
-      <c r="G22" s="609"/>
-      <c r="H22" s="561" t="s">
+      <c r="G22" s="608"/>
+      <c r="H22" s="560" t="s">
         <v>499</v>
       </c>
-      <c r="I22" s="580"/>
+      <c r="I22" s="579"/>
     </row>
     <row r="23" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="77" t="s">
@@ -7411,7 +7413,7 @@
       <c r="F23" s="181" t="s">
         <v>574</v>
       </c>
-      <c r="G23" s="609"/>
+      <c r="G23" s="608"/>
       <c r="H23" s="212" t="s">
         <v>350</v>
       </c>
@@ -7434,7 +7436,7 @@
       </c>
       <c r="E24" s="171"/>
       <c r="F24" s="304"/>
-      <c r="G24" s="610"/>
+      <c r="G24" s="609"/>
       <c r="H24" s="216" t="s">
         <v>310</v>
       </c>
@@ -7443,29 +7445,29 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="575" t="s">
+      <c r="A25" s="574" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="578"/>
-      <c r="C25" s="578"/>
-      <c r="D25" s="578"/>
-      <c r="E25" s="578"/>
-      <c r="F25" s="578"/>
-      <c r="G25" s="578"/>
-      <c r="H25" s="578"/>
-      <c r="I25" s="579"/>
+      <c r="B25" s="577"/>
+      <c r="C25" s="577"/>
+      <c r="D25" s="577"/>
+      <c r="E25" s="577"/>
+      <c r="F25" s="577"/>
+      <c r="G25" s="577"/>
+      <c r="H25" s="577"/>
+      <c r="I25" s="578"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="208" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="555" t="s">
+      <c r="B26" s="554" t="s">
         <v>606</v>
       </c>
-      <c r="C26" s="555"/>
-      <c r="D26" s="555"/>
+      <c r="C26" s="554"/>
+      <c r="D26" s="554"/>
       <c r="E26" s="239"/>
-      <c r="G26" s="611" t="s">
+      <c r="G26" s="610" t="s">
         <v>188</v>
       </c>
       <c r="H26" s="315"/>
@@ -7475,14 +7477,14 @@
       <c r="A27" s="311" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="556" t="s">
+      <c r="B27" s="555" t="s">
         <v>577</v>
       </c>
-      <c r="C27" s="556"/>
-      <c r="D27" s="556"/>
+      <c r="C27" s="555"/>
+      <c r="D27" s="555"/>
       <c r="E27" s="144"/>
       <c r="F27" s="223"/>
-      <c r="G27" s="612"/>
+      <c r="G27" s="611"/>
       <c r="H27" s="247"/>
       <c r="I27" s="243"/>
     </row>
@@ -7492,12 +7494,12 @@
       </c>
       <c r="B28" s="241"/>
       <c r="C28" s="241"/>
-      <c r="D28" s="560" t="s">
+      <c r="D28" s="559" t="s">
         <v>575</v>
       </c>
-      <c r="E28" s="560"/>
-      <c r="F28" s="617"/>
-      <c r="G28" s="612"/>
+      <c r="E28" s="559"/>
+      <c r="F28" s="616"/>
+      <c r="G28" s="611"/>
       <c r="H28" s="260"/>
       <c r="I28" s="301"/>
     </row>
@@ -7505,14 +7507,14 @@
       <c r="A29" s="311" t="s">
         <v>569</v>
       </c>
-      <c r="B29" s="556" t="s">
+      <c r="B29" s="555" t="s">
         <v>576</v>
       </c>
-      <c r="C29" s="556"/>
-      <c r="D29" s="556"/>
+      <c r="C29" s="555"/>
+      <c r="D29" s="555"/>
       <c r="E29" s="241"/>
       <c r="F29" s="257"/>
-      <c r="G29" s="612"/>
+      <c r="G29" s="611"/>
       <c r="H29" s="258"/>
       <c r="I29" s="248"/>
     </row>
@@ -7521,13 +7523,13 @@
         <v>172</v>
       </c>
       <c r="B30" s="241"/>
-      <c r="C30" s="614" t="s">
+      <c r="C30" s="613" t="s">
         <v>647</v>
       </c>
-      <c r="D30" s="615"/>
-      <c r="E30" s="616"/>
+      <c r="D30" s="614"/>
+      <c r="E30" s="615"/>
       <c r="F30" s="261"/>
-      <c r="G30" s="612"/>
+      <c r="G30" s="611"/>
       <c r="H30" s="264"/>
       <c r="I30" s="265"/>
     </row>
@@ -7537,12 +7539,12 @@
       </c>
       <c r="B31" s="250"/>
       <c r="C31" s="250"/>
-      <c r="D31" s="557" t="s">
+      <c r="D31" s="556" t="s">
         <v>578</v>
       </c>
-      <c r="E31" s="557"/>
-      <c r="F31" s="606"/>
-      <c r="G31" s="612"/>
+      <c r="E31" s="556"/>
+      <c r="F31" s="605"/>
+      <c r="G31" s="611"/>
       <c r="H31" s="262"/>
       <c r="I31" s="266"/>
     </row>
@@ -7550,18 +7552,18 @@
       <c r="A32" s="311" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="586" t="s">
+      <c r="B32" s="585" t="s">
         <v>596</v>
       </c>
-      <c r="C32" s="586"/>
+      <c r="C32" s="585"/>
       <c r="D32" s="263"/>
       <c r="E32" s="263"/>
       <c r="F32" s="304"/>
-      <c r="G32" s="613"/>
-      <c r="H32" s="585" t="s">
+      <c r="G32" s="612"/>
+      <c r="H32" s="584" t="s">
         <v>498</v>
       </c>
-      <c r="I32" s="607"/>
+      <c r="I32" s="606"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -7617,57 +7619,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="363" t="s">
+      <c r="B1" s="362" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="364"/>
-      <c r="D1" s="364"/>
-      <c r="E1" s="364"/>
-      <c r="F1" s="364"/>
-      <c r="G1" s="364"/>
-      <c r="H1" s="364"/>
-      <c r="I1" s="365"/>
+      <c r="C1" s="363"/>
+      <c r="D1" s="363"/>
+      <c r="E1" s="363"/>
+      <c r="F1" s="363"/>
+      <c r="G1" s="363"/>
+      <c r="H1" s="363"/>
+      <c r="I1" s="364"/>
     </row>
     <row r="2" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="366"/>
-      <c r="C2" s="367"/>
-      <c r="D2" s="367"/>
-      <c r="E2" s="367"/>
-      <c r="F2" s="367"/>
-      <c r="G2" s="367"/>
-      <c r="H2" s="367"/>
-      <c r="I2" s="368"/>
+      <c r="B2" s="365"/>
+      <c r="C2" s="366"/>
+      <c r="D2" s="366"/>
+      <c r="E2" s="366"/>
+      <c r="F2" s="366"/>
+      <c r="G2" s="366"/>
+      <c r="H2" s="366"/>
+      <c r="I2" s="367"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="361" t="s">
+      <c r="A3" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="369" t="s">
+      <c r="B3" s="368" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="370"/>
-      <c r="D3" s="370"/>
-      <c r="E3" s="370"/>
-      <c r="F3" s="370"/>
-      <c r="G3" s="370"/>
-      <c r="H3" s="370"/>
-      <c r="I3" s="371"/>
+      <c r="C3" s="369"/>
+      <c r="D3" s="369"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="369"/>
+      <c r="G3" s="369"/>
+      <c r="H3" s="369"/>
+      <c r="I3" s="370"/>
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="362"/>
-      <c r="B4" s="372" t="s">
+      <c r="A4" s="361"/>
+      <c r="B4" s="371" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="373"/>
-      <c r="D4" s="373"/>
-      <c r="E4" s="373"/>
-      <c r="F4" s="373"/>
-      <c r="G4" s="373"/>
-      <c r="H4" s="373"/>
-      <c r="I4" s="374"/>
+      <c r="C4" s="372"/>
+      <c r="D4" s="372"/>
+      <c r="E4" s="372"/>
+      <c r="F4" s="372"/>
+      <c r="G4" s="372"/>
+      <c r="H4" s="372"/>
+      <c r="I4" s="373"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="362"/>
+      <c r="A5" s="361"/>
       <c r="B5" s="109" t="s">
         <v>226</v>
       </c>
@@ -7694,20 +7696,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="362"/>
-      <c r="B6" s="375" t="s">
+      <c r="A6" s="361"/>
+      <c r="B6" s="374" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="376"/>
-      <c r="D6" s="376"/>
-      <c r="E6" s="376"/>
-      <c r="F6" s="376"/>
-      <c r="G6" s="376"/>
-      <c r="H6" s="376"/>
-      <c r="I6" s="377"/>
+      <c r="C6" s="375"/>
+      <c r="D6" s="375"/>
+      <c r="E6" s="375"/>
+      <c r="F6" s="375"/>
+      <c r="G6" s="375"/>
+      <c r="H6" s="375"/>
+      <c r="I6" s="376"/>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="362"/>
+      <c r="A7" s="361"/>
       <c r="B7" s="82">
         <v>1</v>
       </c>
@@ -7734,7 +7736,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="362"/>
+      <c r="A8" s="361"/>
       <c r="B8" s="99">
         <v>2</v>
       </c>
@@ -7761,7 +7763,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="362"/>
+      <c r="A9" s="361"/>
       <c r="B9" s="99">
         <v>3</v>
       </c>
@@ -7788,7 +7790,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="362"/>
+      <c r="A10" s="361"/>
       <c r="B10" s="99">
         <v>4</v>
       </c>
@@ -7815,7 +7817,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="362"/>
+      <c r="A11" s="361"/>
       <c r="B11" s="99">
         <v>5</v>
       </c>
@@ -7842,7 +7844,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="362"/>
+      <c r="A12" s="361"/>
       <c r="B12" s="99">
         <v>6</v>
       </c>
@@ -7869,7 +7871,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="362"/>
+      <c r="A13" s="361"/>
       <c r="B13" s="99">
         <v>7</v>
       </c>
@@ -7896,7 +7898,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="108" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="362"/>
+      <c r="A14" s="361"/>
       <c r="B14" s="99">
         <v>8</v>
       </c>
@@ -7923,7 +7925,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="362"/>
+      <c r="A15" s="361"/>
       <c r="B15" s="99">
         <v>9</v>
       </c>
@@ -7950,66 +7952,66 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="362"/>
-      <c r="B16" s="378" t="s">
+      <c r="A16" s="361"/>
+      <c r="B16" s="377" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="379"/>
-      <c r="D16" s="379"/>
-      <c r="E16" s="379"/>
+      <c r="C16" s="378"/>
+      <c r="D16" s="378"/>
+      <c r="E16" s="378"/>
       <c r="F16" s="112">
         <f>SUM(F7:F15)</f>
         <v>100</v>
       </c>
-      <c r="G16" s="379"/>
-      <c r="H16" s="379"/>
-      <c r="I16" s="380"/>
+      <c r="G16" s="378"/>
+      <c r="H16" s="378"/>
+      <c r="I16" s="379"/>
     </row>
     <row r="17" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="362"/>
-      <c r="B17" s="352" t="s">
+      <c r="A17" s="361"/>
+      <c r="B17" s="351" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="353"/>
-      <c r="D17" s="353"/>
-      <c r="E17" s="353"/>
-      <c r="F17" s="353"/>
-      <c r="G17" s="353"/>
-      <c r="H17" s="353"/>
-      <c r="I17" s="354"/>
+      <c r="C17" s="352"/>
+      <c r="D17" s="352"/>
+      <c r="E17" s="352"/>
+      <c r="F17" s="352"/>
+      <c r="G17" s="352"/>
+      <c r="H17" s="352"/>
+      <c r="I17" s="353"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="362"/>
-      <c r="B18" s="355"/>
-      <c r="C18" s="356"/>
-      <c r="D18" s="356"/>
-      <c r="E18" s="356"/>
-      <c r="F18" s="356"/>
-      <c r="G18" s="356"/>
-      <c r="H18" s="356"/>
-      <c r="I18" s="357"/>
+      <c r="A18" s="361"/>
+      <c r="B18" s="354"/>
+      <c r="C18" s="355"/>
+      <c r="D18" s="355"/>
+      <c r="E18" s="355"/>
+      <c r="F18" s="355"/>
+      <c r="G18" s="355"/>
+      <c r="H18" s="355"/>
+      <c r="I18" s="356"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="362"/>
-      <c r="B19" s="355"/>
-      <c r="C19" s="356"/>
-      <c r="D19" s="356"/>
-      <c r="E19" s="356"/>
-      <c r="F19" s="356"/>
-      <c r="G19" s="356"/>
-      <c r="H19" s="356"/>
-      <c r="I19" s="357"/>
+      <c r="A19" s="361"/>
+      <c r="B19" s="354"/>
+      <c r="C19" s="355"/>
+      <c r="D19" s="355"/>
+      <c r="E19" s="355"/>
+      <c r="F19" s="355"/>
+      <c r="G19" s="355"/>
+      <c r="H19" s="355"/>
+      <c r="I19" s="356"/>
     </row>
     <row r="20" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="362"/>
-      <c r="B20" s="358"/>
-      <c r="C20" s="359"/>
-      <c r="D20" s="359"/>
-      <c r="E20" s="359"/>
-      <c r="F20" s="359"/>
-      <c r="G20" s="359"/>
-      <c r="H20" s="359"/>
-      <c r="I20" s="360"/>
+      <c r="A20" s="361"/>
+      <c r="B20" s="357"/>
+      <c r="C20" s="358"/>
+      <c r="D20" s="358"/>
+      <c r="E20" s="358"/>
+      <c r="F20" s="358"/>
+      <c r="G20" s="358"/>
+      <c r="H20" s="358"/>
+      <c r="I20" s="359"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8038,7 +8040,7 @@
       <pane xSplit="9" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8056,59 +8058,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="381"/>
-      <c r="B1" s="383" t="s">
+      <c r="A1" s="380"/>
+      <c r="B1" s="382" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="385"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
+      <c r="H1" s="383"/>
+      <c r="I1" s="384"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="382"/>
-      <c r="B2" s="386"/>
-      <c r="C2" s="387"/>
-      <c r="D2" s="387"/>
-      <c r="E2" s="387"/>
-      <c r="F2" s="387"/>
-      <c r="G2" s="387"/>
-      <c r="H2" s="387"/>
-      <c r="I2" s="388"/>
+      <c r="A2" s="381"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="386"/>
+      <c r="D2" s="386"/>
+      <c r="E2" s="386"/>
+      <c r="F2" s="386"/>
+      <c r="G2" s="386"/>
+      <c r="H2" s="386"/>
+      <c r="I2" s="387"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="388" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="392" t="s">
+      <c r="B3" s="391" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="393"/>
-      <c r="D3" s="393"/>
-      <c r="E3" s="393"/>
-      <c r="F3" s="393"/>
-      <c r="G3" s="393"/>
-      <c r="H3" s="393"/>
-      <c r="I3" s="394"/>
+      <c r="C3" s="392"/>
+      <c r="D3" s="392"/>
+      <c r="E3" s="392"/>
+      <c r="F3" s="392"/>
+      <c r="G3" s="392"/>
+      <c r="H3" s="392"/>
+      <c r="I3" s="393"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="390"/>
-      <c r="B4" s="395" t="s">
+      <c r="A4" s="389"/>
+      <c r="B4" s="394" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="396"/>
-      <c r="D4" s="396"/>
-      <c r="E4" s="396"/>
-      <c r="F4" s="396"/>
-      <c r="G4" s="396"/>
-      <c r="H4" s="396"/>
-      <c r="I4" s="397"/>
+      <c r="C4" s="395"/>
+      <c r="D4" s="395"/>
+      <c r="E4" s="395"/>
+      <c r="F4" s="395"/>
+      <c r="G4" s="395"/>
+      <c r="H4" s="395"/>
+      <c r="I4" s="396"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="13" t="s">
         <v>226</v>
       </c>
@@ -8135,20 +8137,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="390"/>
-      <c r="B6" s="398" t="s">
+      <c r="A6" s="389"/>
+      <c r="B6" s="397" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="399"/>
-      <c r="D6" s="399"/>
-      <c r="E6" s="399"/>
-      <c r="F6" s="399"/>
-      <c r="G6" s="399"/>
-      <c r="H6" s="399"/>
-      <c r="I6" s="400"/>
+      <c r="C6" s="398"/>
+      <c r="D6" s="398"/>
+      <c r="E6" s="398"/>
+      <c r="F6" s="398"/>
+      <c r="G6" s="398"/>
+      <c r="H6" s="398"/>
+      <c r="I6" s="399"/>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="390"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="50">
         <v>1</v>
       </c>
@@ -8175,7 +8177,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="390"/>
+      <c r="A8" s="389"/>
       <c r="B8" s="50">
         <v>2</v>
       </c>
@@ -8202,7 +8204,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="390"/>
+      <c r="A9" s="389"/>
       <c r="B9" s="50">
         <v>3</v>
       </c>
@@ -8229,7 +8231,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="390"/>
+      <c r="A10" s="389"/>
       <c r="B10" s="50">
         <v>4</v>
       </c>
@@ -8256,7 +8258,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="390"/>
+      <c r="A11" s="389"/>
       <c r="B11" s="50">
         <v>5</v>
       </c>
@@ -8283,7 +8285,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="390"/>
+      <c r="A12" s="389"/>
       <c r="B12" s="50">
         <v>6</v>
       </c>
@@ -8310,20 +8312,20 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="390"/>
-      <c r="B13" s="401" t="s">
+      <c r="A13" s="389"/>
+      <c r="B13" s="400" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="402"/>
-      <c r="D13" s="402"/>
-      <c r="E13" s="402"/>
-      <c r="F13" s="402"/>
-      <c r="G13" s="402"/>
-      <c r="H13" s="402"/>
-      <c r="I13" s="403"/>
+      <c r="C13" s="401"/>
+      <c r="D13" s="401"/>
+      <c r="E13" s="401"/>
+      <c r="F13" s="401"/>
+      <c r="G13" s="401"/>
+      <c r="H13" s="401"/>
+      <c r="I13" s="402"/>
     </row>
     <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="390"/>
+      <c r="A14" s="389"/>
       <c r="B14" s="91">
         <v>7</v>
       </c>
@@ -8350,7 +8352,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="390"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="91">
         <v>8</v>
       </c>
@@ -8377,7 +8379,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="390"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="91">
         <v>9</v>
       </c>
@@ -8404,17 +8406,17 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="390"/>
-      <c r="B17" s="404" t="s">
+      <c r="A17" s="389"/>
+      <c r="B17" s="403" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="405"/>
-      <c r="D17" s="405"/>
-      <c r="E17" s="405"/>
-      <c r="F17" s="405"/>
-      <c r="G17" s="405"/>
-      <c r="H17" s="405"/>
-      <c r="I17" s="406"/>
+      <c r="C17" s="404"/>
+      <c r="D17" s="404"/>
+      <c r="E17" s="404"/>
+      <c r="F17" s="404"/>
+      <c r="G17" s="404"/>
+      <c r="H17" s="404"/>
+      <c r="I17" s="405"/>
       <c r="P17" s="108"/>
       <c r="Q17" s="108"/>
       <c r="R17" s="108"/>
@@ -8422,7 +8424,7 @@
       <c r="T17" s="108"/>
     </row>
     <row r="18" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="390"/>
+      <c r="A18" s="389"/>
       <c r="B18" s="91">
         <v>10</v>
       </c>
@@ -8449,7 +8451,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="390"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="91">
         <v>11</v>
       </c>
@@ -8476,7 +8478,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="390"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="91">
         <v>12</v>
       </c>
@@ -8503,7 +8505,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="390"/>
+      <c r="A21" s="389"/>
       <c r="B21" s="91">
         <v>13</v>
       </c>
@@ -8530,7 +8532,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="390"/>
+      <c r="A22" s="389"/>
       <c r="B22" s="91">
         <v>14</v>
       </c>
@@ -8557,7 +8559,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="390"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="91">
         <v>15</v>
       </c>
@@ -8584,20 +8586,20 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="391"/>
-      <c r="B24" s="407" t="s">
+      <c r="A24" s="390"/>
+      <c r="B24" s="406" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="408"/>
-      <c r="D24" s="408"/>
-      <c r="E24" s="408"/>
+      <c r="C24" s="407"/>
+      <c r="D24" s="407"/>
+      <c r="E24" s="407"/>
       <c r="F24" s="36">
         <f>SUM(F7:F23)</f>
         <v>59</v>
       </c>
       <c r="G24" s="37"/>
-      <c r="H24" s="409"/>
-      <c r="I24" s="410"/>
+      <c r="H24" s="408"/>
+      <c r="I24" s="409"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8651,59 +8653,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="413"/>
-      <c r="B1" s="414" t="s">
+      <c r="A1" s="412"/>
+      <c r="B1" s="413" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="415"/>
-      <c r="D1" s="415"/>
-      <c r="E1" s="415"/>
-      <c r="F1" s="415"/>
-      <c r="G1" s="415"/>
-      <c r="H1" s="415"/>
-      <c r="I1" s="415"/>
+      <c r="C1" s="414"/>
+      <c r="D1" s="414"/>
+      <c r="E1" s="414"/>
+      <c r="F1" s="414"/>
+      <c r="G1" s="414"/>
+      <c r="H1" s="414"/>
+      <c r="I1" s="414"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="413"/>
-      <c r="B2" s="416"/>
-      <c r="C2" s="417"/>
-      <c r="D2" s="417"/>
-      <c r="E2" s="417"/>
-      <c r="F2" s="417"/>
-      <c r="G2" s="417"/>
-      <c r="H2" s="417"/>
-      <c r="I2" s="417"/>
+      <c r="A2" s="412"/>
+      <c r="B2" s="415"/>
+      <c r="C2" s="416"/>
+      <c r="D2" s="416"/>
+      <c r="E2" s="416"/>
+      <c r="F2" s="416"/>
+      <c r="G2" s="416"/>
+      <c r="H2" s="416"/>
+      <c r="I2" s="416"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="418" t="s">
+      <c r="A3" s="417" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="421" t="s">
+      <c r="B3" s="420" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="422"/>
-      <c r="D3" s="422"/>
-      <c r="E3" s="422"/>
-      <c r="F3" s="422"/>
-      <c r="G3" s="422"/>
-      <c r="H3" s="422"/>
-      <c r="I3" s="423"/>
+      <c r="C3" s="421"/>
+      <c r="D3" s="421"/>
+      <c r="E3" s="421"/>
+      <c r="F3" s="421"/>
+      <c r="G3" s="421"/>
+      <c r="H3" s="421"/>
+      <c r="I3" s="422"/>
     </row>
     <row r="4" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="419"/>
-      <c r="B4" s="424" t="s">
+      <c r="A4" s="418"/>
+      <c r="B4" s="423" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="425"/>
-      <c r="D4" s="425"/>
-      <c r="E4" s="425"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="425"/>
-      <c r="H4" s="425"/>
-      <c r="I4" s="426"/>
+      <c r="C4" s="424"/>
+      <c r="D4" s="424"/>
+      <c r="E4" s="424"/>
+      <c r="F4" s="424"/>
+      <c r="G4" s="424"/>
+      <c r="H4" s="424"/>
+      <c r="I4" s="425"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="419"/>
+      <c r="A5" s="418"/>
       <c r="B5" s="39" t="s">
         <v>226</v>
       </c>
@@ -8730,20 +8732,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="419"/>
-      <c r="B6" s="427" t="s">
+      <c r="A6" s="418"/>
+      <c r="B6" s="426" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="428"/>
-      <c r="D6" s="428"/>
-      <c r="E6" s="428"/>
-      <c r="F6" s="428"/>
-      <c r="G6" s="428"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="429"/>
+      <c r="C6" s="427"/>
+      <c r="D6" s="427"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="427"/>
+      <c r="I6" s="428"/>
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="419"/>
+      <c r="A7" s="418"/>
       <c r="B7" s="48">
         <v>1</v>
       </c>
@@ -8776,7 +8778,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="419"/>
+      <c r="A8" s="418"/>
       <c r="B8" s="48">
         <v>2</v>
       </c>
@@ -8809,7 +8811,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="419"/>
+      <c r="A9" s="418"/>
       <c r="B9" s="48">
         <v>3</v>
       </c>
@@ -8836,7 +8838,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="419"/>
+      <c r="A10" s="418"/>
       <c r="B10" s="48">
         <v>4</v>
       </c>
@@ -8863,7 +8865,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="419"/>
+      <c r="A11" s="418"/>
       <c r="B11" s="49">
         <v>5</v>
       </c>
@@ -8890,7 +8892,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="419"/>
+      <c r="A12" s="418"/>
       <c r="B12" s="151">
         <v>6</v>
       </c>
@@ -8917,20 +8919,20 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="419"/>
-      <c r="B13" s="430" t="s">
+      <c r="A13" s="418"/>
+      <c r="B13" s="429" t="s">
         <v>653</v>
       </c>
-      <c r="C13" s="431"/>
-      <c r="D13" s="431"/>
-      <c r="E13" s="431"/>
-      <c r="F13" s="431"/>
-      <c r="G13" s="431"/>
-      <c r="H13" s="431"/>
-      <c r="I13" s="432"/>
+      <c r="C13" s="430"/>
+      <c r="D13" s="430"/>
+      <c r="E13" s="430"/>
+      <c r="F13" s="430"/>
+      <c r="G13" s="430"/>
+      <c r="H13" s="430"/>
+      <c r="I13" s="431"/>
     </row>
     <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="419"/>
+      <c r="A14" s="418"/>
       <c r="B14" s="152">
         <v>7</v>
       </c>
@@ -8957,7 +8959,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="419"/>
+      <c r="A15" s="418"/>
       <c r="B15" s="152">
         <v>8</v>
       </c>
@@ -8984,7 +8986,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="419"/>
+      <c r="A16" s="418"/>
       <c r="B16" s="152">
         <v>9</v>
       </c>
@@ -9011,7 +9013,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="419"/>
+      <c r="A17" s="418"/>
       <c r="B17" s="152">
         <v>10</v>
       </c>
@@ -9038,7 +9040,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" s="419"/>
+      <c r="A18" s="418"/>
       <c r="B18" s="152">
         <v>11</v>
       </c>
@@ -9065,20 +9067,20 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="419"/>
-      <c r="B19" s="433" t="s">
+      <c r="A19" s="418"/>
+      <c r="B19" s="432" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="434"/>
-      <c r="D19" s="434"/>
-      <c r="E19" s="434"/>
-      <c r="F19" s="434"/>
-      <c r="G19" s="434"/>
-      <c r="H19" s="434"/>
-      <c r="I19" s="435"/>
+      <c r="C19" s="433"/>
+      <c r="D19" s="433"/>
+      <c r="E19" s="433"/>
+      <c r="F19" s="433"/>
+      <c r="G19" s="433"/>
+      <c r="H19" s="433"/>
+      <c r="I19" s="434"/>
     </row>
     <row r="20" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="419"/>
+      <c r="A20" s="418"/>
       <c r="B20" s="49">
         <v>12</v>
       </c>
@@ -9105,7 +9107,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="419"/>
+      <c r="A21" s="418"/>
       <c r="B21" s="49">
         <v>13</v>
       </c>
@@ -9132,7 +9134,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="419"/>
+      <c r="A22" s="418"/>
       <c r="B22" s="49">
         <v>14</v>
       </c>
@@ -9159,7 +9161,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="419"/>
+      <c r="A23" s="418"/>
       <c r="B23" s="49">
         <v>15</v>
       </c>
@@ -9186,27 +9188,27 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="420"/>
-      <c r="B24" s="436" t="s">
+      <c r="A24" s="419"/>
+      <c r="B24" s="435" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="437"/>
-      <c r="D24" s="437"/>
-      <c r="E24" s="437"/>
+      <c r="C24" s="436"/>
+      <c r="D24" s="436"/>
+      <c r="E24" s="436"/>
       <c r="F24" s="55">
         <f>SUM(F7:F23)</f>
         <v>59</v>
       </c>
-      <c r="G24" s="438"/>
-      <c r="H24" s="438"/>
-      <c r="I24" s="439"/>
+      <c r="G24" s="437"/>
+      <c r="H24" s="437"/>
+      <c r="I24" s="438"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="411" t="s">
+      <c r="D26" s="410" t="s">
         <v>321</v>
       </c>
-      <c r="E26" s="412"/>
+      <c r="E26" s="411"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9266,59 +9268,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="443"/>
-      <c r="B1" s="444" t="s">
+      <c r="A1" s="442"/>
+      <c r="B1" s="443" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="445"/>
-      <c r="D1" s="445"/>
-      <c r="E1" s="445"/>
-      <c r="F1" s="445"/>
-      <c r="G1" s="445"/>
-      <c r="H1" s="445"/>
-      <c r="I1" s="446"/>
+      <c r="C1" s="444"/>
+      <c r="D1" s="444"/>
+      <c r="E1" s="444"/>
+      <c r="F1" s="444"/>
+      <c r="G1" s="444"/>
+      <c r="H1" s="444"/>
+      <c r="I1" s="445"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="443"/>
-      <c r="B2" s="447"/>
-      <c r="C2" s="448"/>
-      <c r="D2" s="448"/>
-      <c r="E2" s="448"/>
-      <c r="F2" s="448"/>
-      <c r="G2" s="448"/>
-      <c r="H2" s="448"/>
-      <c r="I2" s="449"/>
+      <c r="A2" s="442"/>
+      <c r="B2" s="446"/>
+      <c r="C2" s="447"/>
+      <c r="D2" s="447"/>
+      <c r="E2" s="447"/>
+      <c r="F2" s="447"/>
+      <c r="G2" s="447"/>
+      <c r="H2" s="447"/>
+      <c r="I2" s="448"/>
     </row>
     <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="450" t="s">
+      <c r="A3" s="449" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="453" t="s">
+      <c r="B3" s="452" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="454"/>
-      <c r="D3" s="454"/>
-      <c r="E3" s="454"/>
-      <c r="F3" s="454"/>
-      <c r="G3" s="454"/>
-      <c r="H3" s="454"/>
-      <c r="I3" s="455"/>
+      <c r="C3" s="453"/>
+      <c r="D3" s="453"/>
+      <c r="E3" s="453"/>
+      <c r="F3" s="453"/>
+      <c r="G3" s="453"/>
+      <c r="H3" s="453"/>
+      <c r="I3" s="454"/>
     </row>
     <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="451"/>
-      <c r="B4" s="456" t="s">
+      <c r="A4" s="450"/>
+      <c r="B4" s="455" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="457"/>
-      <c r="D4" s="457"/>
-      <c r="E4" s="457"/>
-      <c r="F4" s="457"/>
-      <c r="G4" s="457"/>
-      <c r="H4" s="457"/>
-      <c r="I4" s="458"/>
+      <c r="C4" s="456"/>
+      <c r="D4" s="456"/>
+      <c r="E4" s="456"/>
+      <c r="F4" s="456"/>
+      <c r="G4" s="456"/>
+      <c r="H4" s="456"/>
+      <c r="I4" s="457"/>
     </row>
     <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="451"/>
+      <c r="A5" s="450"/>
       <c r="B5" s="87" t="s">
         <v>226</v>
       </c>
@@ -9345,21 +9347,21 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="451"/>
-      <c r="B6" s="459" t="s">
+      <c r="A6" s="450"/>
+      <c r="B6" s="458" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="460"/>
-      <c r="D6" s="460"/>
-      <c r="E6" s="460"/>
-      <c r="F6" s="460"/>
-      <c r="G6" s="460"/>
-      <c r="H6" s="460"/>
-      <c r="I6" s="461"/>
+      <c r="C6" s="459"/>
+      <c r="D6" s="459"/>
+      <c r="E6" s="459"/>
+      <c r="F6" s="459"/>
+      <c r="G6" s="459"/>
+      <c r="H6" s="459"/>
+      <c r="I6" s="460"/>
       <c r="M6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="451"/>
+      <c r="A7" s="450"/>
       <c r="B7" s="62">
         <v>1</v>
       </c>
@@ -9388,7 +9390,7 @@
       <c r="N7" s="142"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="451"/>
+      <c r="A8" s="450"/>
       <c r="B8" s="62">
         <v>2</v>
       </c>
@@ -9416,7 +9418,7 @@
       <c r="M8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="451"/>
+      <c r="A9" s="450"/>
       <c r="B9" s="62">
         <v>3</v>
       </c>
@@ -9444,7 +9446,7 @@
       <c r="M9" s="142"/>
     </row>
     <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="451"/>
+      <c r="A10" s="450"/>
       <c r="B10" s="62">
         <v>4</v>
       </c>
@@ -9475,24 +9477,24 @@
       <c r="N10" s="142"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="451"/>
-      <c r="B11" s="462" t="s">
+      <c r="A11" s="450"/>
+      <c r="B11" s="461" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="463"/>
-      <c r="D11" s="463"/>
-      <c r="E11" s="463"/>
-      <c r="F11" s="463"/>
-      <c r="G11" s="463"/>
-      <c r="H11" s="463"/>
-      <c r="I11" s="464"/>
+      <c r="C11" s="462"/>
+      <c r="D11" s="462"/>
+      <c r="E11" s="462"/>
+      <c r="F11" s="462"/>
+      <c r="G11" s="462"/>
+      <c r="H11" s="462"/>
+      <c r="I11" s="463"/>
       <c r="K11" s="142"/>
       <c r="L11" s="142"/>
       <c r="M11" s="142"/>
       <c r="N11" s="142"/>
     </row>
     <row r="12" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="451"/>
+      <c r="A12" s="450"/>
       <c r="B12" s="67">
         <v>5</v>
       </c>
@@ -9523,20 +9525,20 @@
       <c r="N12" s="142"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="451"/>
-      <c r="B13" s="462" t="s">
+      <c r="A13" s="450"/>
+      <c r="B13" s="461" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="463"/>
-      <c r="D13" s="463"/>
-      <c r="E13" s="463"/>
-      <c r="F13" s="463"/>
-      <c r="G13" s="463"/>
-      <c r="H13" s="463"/>
-      <c r="I13" s="464"/>
+      <c r="C13" s="462"/>
+      <c r="D13" s="462"/>
+      <c r="E13" s="462"/>
+      <c r="F13" s="462"/>
+      <c r="G13" s="462"/>
+      <c r="H13" s="462"/>
+      <c r="I13" s="463"/>
     </row>
     <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="451"/>
+      <c r="A14" s="450"/>
       <c r="B14" s="62">
         <v>7</v>
       </c>
@@ -9563,7 +9565,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="451"/>
+      <c r="A15" s="450"/>
       <c r="B15" s="62">
         <v>8</v>
       </c>
@@ -9590,7 +9592,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="451"/>
+      <c r="A16" s="450"/>
       <c r="B16" s="62">
         <v>9</v>
       </c>
@@ -9617,7 +9619,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="451"/>
+      <c r="A17" s="450"/>
       <c r="B17" s="62">
         <v>10</v>
       </c>
@@ -9644,20 +9646,20 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="451"/>
-      <c r="B18" s="459" t="s">
+      <c r="A18" s="450"/>
+      <c r="B18" s="458" t="s">
         <v>628</v>
       </c>
-      <c r="C18" s="460"/>
-      <c r="D18" s="460"/>
-      <c r="E18" s="460"/>
-      <c r="F18" s="460"/>
-      <c r="G18" s="460"/>
-      <c r="H18" s="460"/>
-      <c r="I18" s="461"/>
+      <c r="C18" s="459"/>
+      <c r="D18" s="459"/>
+      <c r="E18" s="459"/>
+      <c r="F18" s="459"/>
+      <c r="G18" s="459"/>
+      <c r="H18" s="459"/>
+      <c r="I18" s="460"/>
     </row>
     <row r="19" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="451"/>
+      <c r="A19" s="450"/>
       <c r="B19" s="62">
         <v>11</v>
       </c>
@@ -9684,7 +9686,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="451"/>
+      <c r="A20" s="450"/>
       <c r="B20" s="62">
         <v>12</v>
       </c>
@@ -9711,20 +9713,20 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="451"/>
-      <c r="B21" s="459" t="s">
+      <c r="A21" s="450"/>
+      <c r="B21" s="458" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="460"/>
-      <c r="D21" s="460"/>
-      <c r="E21" s="460"/>
-      <c r="F21" s="460"/>
-      <c r="G21" s="460"/>
-      <c r="H21" s="460"/>
-      <c r="I21" s="461"/>
+      <c r="C21" s="459"/>
+      <c r="D21" s="459"/>
+      <c r="E21" s="459"/>
+      <c r="F21" s="459"/>
+      <c r="G21" s="459"/>
+      <c r="H21" s="459"/>
+      <c r="I21" s="460"/>
     </row>
     <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="451"/>
+      <c r="A22" s="450"/>
       <c r="B22" s="153">
         <v>13</v>
       </c>
@@ -9751,7 +9753,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="451"/>
+      <c r="A23" s="450"/>
       <c r="B23" s="153">
         <v>14</v>
       </c>
@@ -9778,7 +9780,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="451"/>
+      <c r="A24" s="450"/>
       <c r="B24" s="153">
         <v>15</v>
       </c>
@@ -9805,20 +9807,20 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="452"/>
-      <c r="B25" s="440" t="s">
+      <c r="A25" s="451"/>
+      <c r="B25" s="439" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="441"/>
-      <c r="D25" s="441"/>
-      <c r="E25" s="441"/>
+      <c r="C25" s="440"/>
+      <c r="D25" s="440"/>
+      <c r="E25" s="440"/>
       <c r="F25" s="178">
         <f>SUM(F7:F24)</f>
         <v>35</v>
       </c>
-      <c r="G25" s="441"/>
-      <c r="H25" s="441"/>
-      <c r="I25" s="442"/>
+      <c r="G25" s="440"/>
+      <c r="H25" s="440"/>
+      <c r="I25" s="441"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -9876,30 +9878,30 @@
     </row>
     <row r="2" spans="2:12" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="132"/>
-      <c r="C2" s="499" t="s">
+      <c r="C2" s="498" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="500"/>
-      <c r="E2" s="500"/>
-      <c r="F2" s="500"/>
-      <c r="G2" s="500"/>
-      <c r="H2" s="500"/>
-      <c r="I2" s="500"/>
-      <c r="J2" s="501"/>
+      <c r="D2" s="499"/>
+      <c r="E2" s="499"/>
+      <c r="F2" s="499"/>
+      <c r="G2" s="499"/>
+      <c r="H2" s="499"/>
+      <c r="I2" s="499"/>
+      <c r="J2" s="500"/>
       <c r="K2" s="133"/>
     </row>
     <row r="3" spans="2:12" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="132"/>
-      <c r="C3" s="502" t="s">
+      <c r="C3" s="501" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="503"/>
-      <c r="E3" s="503"/>
-      <c r="F3" s="503"/>
-      <c r="G3" s="503"/>
-      <c r="H3" s="503"/>
-      <c r="I3" s="503"/>
-      <c r="J3" s="504"/>
+      <c r="D3" s="502"/>
+      <c r="E3" s="502"/>
+      <c r="F3" s="502"/>
+      <c r="G3" s="502"/>
+      <c r="H3" s="502"/>
+      <c r="I3" s="502"/>
+      <c r="J3" s="503"/>
       <c r="K3" s="133"/>
     </row>
     <row r="4" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9916,42 +9918,42 @@
     </row>
     <row r="5" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="132"/>
-      <c r="C5" s="505" t="s">
+      <c r="C5" s="504" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="506"/>
-      <c r="E5" s="506"/>
-      <c r="F5" s="506"/>
-      <c r="G5" s="506"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="506"/>
-      <c r="J5" s="507"/>
+      <c r="D5" s="505"/>
+      <c r="E5" s="505"/>
+      <c r="F5" s="505"/>
+      <c r="G5" s="505"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="505"/>
+      <c r="J5" s="506"/>
       <c r="K5" s="133"/>
     </row>
     <row r="6" spans="2:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="132"/>
-      <c r="C6" s="508"/>
-      <c r="D6" s="509"/>
-      <c r="E6" s="509"/>
-      <c r="F6" s="509"/>
-      <c r="G6" s="509"/>
-      <c r="H6" s="509"/>
-      <c r="I6" s="509"/>
-      <c r="J6" s="510"/>
+      <c r="C6" s="507"/>
+      <c r="D6" s="508"/>
+      <c r="E6" s="508"/>
+      <c r="F6" s="508"/>
+      <c r="G6" s="508"/>
+      <c r="H6" s="508"/>
+      <c r="I6" s="508"/>
+      <c r="J6" s="509"/>
       <c r="K6" s="133"/>
     </row>
     <row r="7" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="132"/>
-      <c r="C7" s="521" t="s">
+      <c r="C7" s="520" t="s">
         <v>270</v>
       </c>
-      <c r="D7" s="522"/>
-      <c r="E7" s="522"/>
-      <c r="F7" s="522"/>
-      <c r="G7" s="522"/>
-      <c r="H7" s="522"/>
-      <c r="I7" s="522"/>
-      <c r="J7" s="523"/>
+      <c r="D7" s="521"/>
+      <c r="E7" s="521"/>
+      <c r="F7" s="521"/>
+      <c r="G7" s="521"/>
+      <c r="H7" s="521"/>
+      <c r="I7" s="521"/>
+      <c r="J7" s="522"/>
       <c r="K7" s="133"/>
       <c r="L7" s="135"/>
     </row>
@@ -9969,98 +9971,98 @@
     </row>
     <row r="9" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="132"/>
-      <c r="C9" s="511" t="s">
+      <c r="C9" s="510" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="512"/>
-      <c r="E9" s="512"/>
-      <c r="F9" s="512"/>
-      <c r="G9" s="512"/>
-      <c r="H9" s="512"/>
-      <c r="I9" s="512"/>
-      <c r="J9" s="513"/>
+      <c r="D9" s="511"/>
+      <c r="E9" s="511"/>
+      <c r="F9" s="511"/>
+      <c r="G9" s="511"/>
+      <c r="H9" s="511"/>
+      <c r="I9" s="511"/>
+      <c r="J9" s="512"/>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="132"/>
-      <c r="C10" s="514"/>
-      <c r="D10" s="515"/>
-      <c r="E10" s="515"/>
-      <c r="F10" s="515"/>
-      <c r="G10" s="515"/>
-      <c r="H10" s="516"/>
-      <c r="I10" s="516"/>
-      <c r="J10" s="517"/>
+      <c r="C10" s="513"/>
+      <c r="D10" s="514"/>
+      <c r="E10" s="514"/>
+      <c r="F10" s="514"/>
+      <c r="G10" s="514"/>
+      <c r="H10" s="515"/>
+      <c r="I10" s="515"/>
+      <c r="J10" s="516"/>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="132"/>
-      <c r="C11" s="518" t="s">
+      <c r="C11" s="517" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="519"/>
-      <c r="E11" s="519"/>
-      <c r="F11" s="519"/>
-      <c r="G11" s="520"/>
-      <c r="H11" s="524" t="s">
+      <c r="D11" s="518"/>
+      <c r="E11" s="518"/>
+      <c r="F11" s="518"/>
+      <c r="G11" s="519"/>
+      <c r="H11" s="523" t="s">
         <v>115</v>
       </c>
-      <c r="I11" s="525"/>
-      <c r="J11" s="526"/>
+      <c r="I11" s="524"/>
+      <c r="J11" s="525"/>
       <c r="K11" s="133"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="132"/>
-      <c r="C12" s="465" t="s">
+      <c r="C12" s="464" t="s">
         <v>271</v>
       </c>
-      <c r="D12" s="466"/>
-      <c r="E12" s="466"/>
-      <c r="F12" s="466"/>
-      <c r="G12" s="466"/>
-      <c r="H12" s="466"/>
-      <c r="I12" s="466"/>
-      <c r="J12" s="467"/>
+      <c r="D12" s="465"/>
+      <c r="E12" s="465"/>
+      <c r="F12" s="465"/>
+      <c r="G12" s="465"/>
+      <c r="H12" s="465"/>
+      <c r="I12" s="465"/>
+      <c r="J12" s="466"/>
       <c r="K12" s="133"/>
     </row>
     <row r="13" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="132"/>
-      <c r="C13" s="468"/>
-      <c r="D13" s="469"/>
-      <c r="E13" s="469"/>
-      <c r="F13" s="469"/>
-      <c r="G13" s="469"/>
-      <c r="H13" s="469"/>
-      <c r="I13" s="469"/>
-      <c r="J13" s="470"/>
+      <c r="C13" s="467"/>
+      <c r="D13" s="468"/>
+      <c r="E13" s="468"/>
+      <c r="F13" s="468"/>
+      <c r="G13" s="468"/>
+      <c r="H13" s="468"/>
+      <c r="I13" s="468"/>
+      <c r="J13" s="469"/>
       <c r="K13" s="133"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="132"/>
-      <c r="C14" s="493" t="s">
+      <c r="C14" s="492" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="494"/>
-      <c r="E14" s="494"/>
-      <c r="F14" s="494"/>
-      <c r="G14" s="494"/>
-      <c r="H14" s="494"/>
-      <c r="I14" s="494"/>
-      <c r="J14" s="495"/>
+      <c r="D14" s="493"/>
+      <c r="E14" s="493"/>
+      <c r="F14" s="493"/>
+      <c r="G14" s="493"/>
+      <c r="H14" s="493"/>
+      <c r="I14" s="493"/>
+      <c r="J14" s="494"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="132"/>
-      <c r="C15" s="496" t="s">
+      <c r="C15" s="495" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="497"/>
-      <c r="E15" s="497"/>
-      <c r="F15" s="497"/>
-      <c r="G15" s="497"/>
-      <c r="H15" s="497"/>
-      <c r="I15" s="497"/>
-      <c r="J15" s="498"/>
+      <c r="D15" s="496"/>
+      <c r="E15" s="496"/>
+      <c r="F15" s="496"/>
+      <c r="G15" s="496"/>
+      <c r="H15" s="496"/>
+      <c r="I15" s="496"/>
+      <c r="J15" s="497"/>
       <c r="K15" s="133"/>
     </row>
     <row r="16" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10077,84 +10079,84 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="132"/>
-      <c r="C17" s="483" t="s">
+      <c r="C17" s="482" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="484"/>
-      <c r="E17" s="484"/>
-      <c r="F17" s="484"/>
-      <c r="G17" s="484"/>
-      <c r="H17" s="484"/>
-      <c r="I17" s="484"/>
-      <c r="J17" s="485"/>
+      <c r="D17" s="483"/>
+      <c r="E17" s="483"/>
+      <c r="F17" s="483"/>
+      <c r="G17" s="483"/>
+      <c r="H17" s="483"/>
+      <c r="I17" s="483"/>
+      <c r="J17" s="484"/>
       <c r="K17" s="133"/>
     </row>
     <row r="18" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="132"/>
-      <c r="C18" s="486"/>
-      <c r="D18" s="487"/>
-      <c r="E18" s="487"/>
-      <c r="F18" s="488"/>
-      <c r="G18" s="488"/>
-      <c r="H18" s="488"/>
-      <c r="I18" s="488"/>
-      <c r="J18" s="489"/>
+      <c r="C18" s="485"/>
+      <c r="D18" s="486"/>
+      <c r="E18" s="486"/>
+      <c r="F18" s="487"/>
+      <c r="G18" s="487"/>
+      <c r="H18" s="487"/>
+      <c r="I18" s="487"/>
+      <c r="J18" s="488"/>
       <c r="K18" s="133"/>
     </row>
     <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="132"/>
-      <c r="C19" s="490" t="s">
+      <c r="C19" s="489" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="491"/>
-      <c r="E19" s="492"/>
-      <c r="F19" s="477" t="s">
+      <c r="D19" s="490"/>
+      <c r="E19" s="491"/>
+      <c r="F19" s="476" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="478"/>
-      <c r="H19" s="478"/>
-      <c r="I19" s="478"/>
-      <c r="J19" s="479"/>
+      <c r="G19" s="477"/>
+      <c r="H19" s="477"/>
+      <c r="I19" s="477"/>
+      <c r="J19" s="478"/>
       <c r="K19" s="133"/>
     </row>
     <row r="20" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="132"/>
-      <c r="C20" s="471" t="s">
+      <c r="C20" s="470" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="472"/>
-      <c r="E20" s="472"/>
-      <c r="F20" s="472"/>
-      <c r="G20" s="472"/>
-      <c r="H20" s="472"/>
-      <c r="I20" s="472"/>
-      <c r="J20" s="473"/>
+      <c r="D20" s="471"/>
+      <c r="E20" s="471"/>
+      <c r="F20" s="471"/>
+      <c r="G20" s="471"/>
+      <c r="H20" s="471"/>
+      <c r="I20" s="471"/>
+      <c r="J20" s="472"/>
       <c r="K20" s="133"/>
     </row>
     <row r="21" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="132"/>
-      <c r="C21" s="474"/>
-      <c r="D21" s="475"/>
-      <c r="E21" s="475"/>
-      <c r="F21" s="475"/>
-      <c r="G21" s="475"/>
-      <c r="H21" s="475"/>
-      <c r="I21" s="475"/>
-      <c r="J21" s="476"/>
+      <c r="C21" s="473"/>
+      <c r="D21" s="474"/>
+      <c r="E21" s="474"/>
+      <c r="F21" s="474"/>
+      <c r="G21" s="474"/>
+      <c r="H21" s="474"/>
+      <c r="I21" s="474"/>
+      <c r="J21" s="475"/>
       <c r="K21" s="133"/>
     </row>
     <row r="22" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="132"/>
-      <c r="C22" s="480" t="s">
+      <c r="C22" s="479" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="481"/>
-      <c r="E22" s="481"/>
-      <c r="F22" s="481"/>
-      <c r="G22" s="481"/>
-      <c r="H22" s="481"/>
-      <c r="I22" s="481"/>
-      <c r="J22" s="482"/>
+      <c r="D22" s="480"/>
+      <c r="E22" s="480"/>
+      <c r="F22" s="480"/>
+      <c r="G22" s="480"/>
+      <c r="H22" s="480"/>
+      <c r="I22" s="480"/>
+      <c r="J22" s="481"/>
       <c r="K22" s="133"/>
     </row>
     <row r="23" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10171,148 +10173,148 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="132"/>
-      <c r="C24" s="527" t="s">
+      <c r="C24" s="526" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="528"/>
-      <c r="E24" s="528"/>
-      <c r="F24" s="528"/>
-      <c r="G24" s="528"/>
-      <c r="H24" s="528"/>
-      <c r="I24" s="528"/>
-      <c r="J24" s="529"/>
+      <c r="D24" s="527"/>
+      <c r="E24" s="527"/>
+      <c r="F24" s="527"/>
+      <c r="G24" s="527"/>
+      <c r="H24" s="527"/>
+      <c r="I24" s="527"/>
+      <c r="J24" s="528"/>
       <c r="K24" s="133"/>
     </row>
     <row r="25" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="132"/>
-      <c r="C25" s="530"/>
-      <c r="D25" s="531"/>
-      <c r="E25" s="531"/>
-      <c r="F25" s="531"/>
-      <c r="G25" s="531"/>
-      <c r="H25" s="531"/>
-      <c r="I25" s="531"/>
-      <c r="J25" s="532"/>
+      <c r="C25" s="529"/>
+      <c r="D25" s="530"/>
+      <c r="E25" s="530"/>
+      <c r="F25" s="530"/>
+      <c r="G25" s="530"/>
+      <c r="H25" s="530"/>
+      <c r="I25" s="530"/>
+      <c r="J25" s="531"/>
       <c r="K25" s="133"/>
     </row>
     <row r="26" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="132"/>
-      <c r="C26" s="533" t="s">
+      <c r="C26" s="532" t="s">
         <v>277</v>
       </c>
-      <c r="D26" s="534"/>
-      <c r="E26" s="535"/>
-      <c r="F26" s="533" t="s">
+      <c r="D26" s="533"/>
+      <c r="E26" s="534"/>
+      <c r="F26" s="532" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="534"/>
-      <c r="H26" s="534"/>
-      <c r="I26" s="534"/>
-      <c r="J26" s="535"/>
+      <c r="G26" s="533"/>
+      <c r="H26" s="533"/>
+      <c r="I26" s="533"/>
+      <c r="J26" s="534"/>
       <c r="K26" s="133"/>
     </row>
     <row r="27" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="132"/>
-      <c r="C27" s="533" t="s">
+      <c r="C27" s="532" t="s">
         <v>580</v>
       </c>
-      <c r="D27" s="534"/>
-      <c r="E27" s="535"/>
-      <c r="F27" s="542" t="s">
+      <c r="D27" s="533"/>
+      <c r="E27" s="534"/>
+      <c r="F27" s="541" t="s">
         <v>581</v>
       </c>
-      <c r="G27" s="543"/>
-      <c r="H27" s="543"/>
-      <c r="I27" s="543"/>
-      <c r="J27" s="544"/>
+      <c r="G27" s="542"/>
+      <c r="H27" s="542"/>
+      <c r="I27" s="542"/>
+      <c r="J27" s="543"/>
       <c r="K27" s="133"/>
     </row>
     <row r="28" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="132"/>
-      <c r="C28" s="533" t="s">
+      <c r="C28" s="532" t="s">
         <v>582</v>
       </c>
-      <c r="D28" s="534"/>
-      <c r="E28" s="535"/>
-      <c r="F28" s="542" t="s">
+      <c r="D28" s="533"/>
+      <c r="E28" s="534"/>
+      <c r="F28" s="541" t="s">
         <v>583</v>
       </c>
-      <c r="G28" s="543"/>
-      <c r="H28" s="543"/>
-      <c r="I28" s="543"/>
-      <c r="J28" s="544"/>
+      <c r="G28" s="542"/>
+      <c r="H28" s="542"/>
+      <c r="I28" s="542"/>
+      <c r="J28" s="543"/>
       <c r="K28" s="133"/>
     </row>
     <row r="29" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="132"/>
-      <c r="C29" s="533" t="s">
+      <c r="C29" s="532" t="s">
         <v>584</v>
       </c>
-      <c r="D29" s="534"/>
-      <c r="E29" s="535"/>
-      <c r="F29" s="542" t="s">
+      <c r="D29" s="533"/>
+      <c r="E29" s="534"/>
+      <c r="F29" s="541" t="s">
         <v>634</v>
       </c>
-      <c r="G29" s="543"/>
-      <c r="H29" s="543"/>
-      <c r="I29" s="543"/>
-      <c r="J29" s="544"/>
+      <c r="G29" s="542"/>
+      <c r="H29" s="542"/>
+      <c r="I29" s="542"/>
+      <c r="J29" s="543"/>
       <c r="K29" s="133"/>
     </row>
     <row r="30" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="132"/>
-      <c r="C30" s="533" t="s">
+      <c r="C30" s="532" t="s">
         <v>633</v>
       </c>
-      <c r="D30" s="534"/>
-      <c r="E30" s="535"/>
-      <c r="F30" s="542" t="s">
+      <c r="D30" s="533"/>
+      <c r="E30" s="534"/>
+      <c r="F30" s="541" t="s">
         <v>635</v>
       </c>
-      <c r="G30" s="543"/>
-      <c r="H30" s="543"/>
-      <c r="I30" s="543"/>
-      <c r="J30" s="544"/>
+      <c r="G30" s="542"/>
+      <c r="H30" s="542"/>
+      <c r="I30" s="542"/>
+      <c r="J30" s="543"/>
       <c r="K30" s="133"/>
     </row>
     <row r="31" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="132"/>
-      <c r="C31" s="539"/>
-      <c r="D31" s="540"/>
-      <c r="E31" s="540"/>
-      <c r="F31" s="540"/>
-      <c r="G31" s="540"/>
-      <c r="H31" s="540"/>
-      <c r="I31" s="540"/>
-      <c r="J31" s="541"/>
+      <c r="C31" s="538"/>
+      <c r="D31" s="539"/>
+      <c r="E31" s="539"/>
+      <c r="F31" s="539"/>
+      <c r="G31" s="539"/>
+      <c r="H31" s="539"/>
+      <c r="I31" s="539"/>
+      <c r="J31" s="540"/>
       <c r="K31" s="133"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="132"/>
-      <c r="C32" s="536" t="s">
+      <c r="C32" s="535" t="s">
         <v>276</v>
       </c>
-      <c r="D32" s="537"/>
-      <c r="E32" s="537"/>
-      <c r="F32" s="537"/>
-      <c r="G32" s="537"/>
-      <c r="H32" s="537"/>
-      <c r="I32" s="537"/>
-      <c r="J32" s="538"/>
+      <c r="D32" s="536"/>
+      <c r="E32" s="536"/>
+      <c r="F32" s="536"/>
+      <c r="G32" s="536"/>
+      <c r="H32" s="536"/>
+      <c r="I32" s="536"/>
+      <c r="J32" s="537"/>
       <c r="K32" s="133"/>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="132"/>
-      <c r="C33" s="536" t="s">
+      <c r="C33" s="535" t="s">
         <v>275</v>
       </c>
-      <c r="D33" s="537"/>
-      <c r="E33" s="537"/>
-      <c r="F33" s="537"/>
-      <c r="G33" s="537"/>
-      <c r="H33" s="537"/>
-      <c r="I33" s="537"/>
-      <c r="J33" s="538"/>
+      <c r="D33" s="536"/>
+      <c r="E33" s="536"/>
+      <c r="F33" s="536"/>
+      <c r="G33" s="536"/>
+      <c r="H33" s="536"/>
+      <c r="I33" s="536"/>
+      <c r="J33" s="537"/>
       <c r="K33" s="133"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10408,17 +10410,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="545" t="s">
+      <c r="A1" s="544" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="546"/>
-      <c r="C1" s="546"/>
-      <c r="D1" s="546"/>
-      <c r="E1" s="546"/>
-      <c r="F1" s="546"/>
-      <c r="G1" s="546"/>
-      <c r="H1" s="546"/>
-      <c r="I1" s="547"/>
+      <c r="B1" s="545"/>
+      <c r="C1" s="545"/>
+      <c r="D1" s="545"/>
+      <c r="E1" s="545"/>
+      <c r="F1" s="545"/>
+      <c r="G1" s="545"/>
+      <c r="H1" s="545"/>
+      <c r="I1" s="546"/>
     </row>
     <row r="2" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="148" t="s">
@@ -10479,17 +10481,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="548" t="s">
+      <c r="A4" s="547" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="549"/>
-      <c r="C4" s="549"/>
-      <c r="D4" s="549"/>
-      <c r="E4" s="549"/>
-      <c r="F4" s="549"/>
-      <c r="G4" s="549"/>
-      <c r="H4" s="549"/>
-      <c r="I4" s="550"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="548"/>
+      <c r="D4" s="548"/>
+      <c r="E4" s="548"/>
+      <c r="F4" s="548"/>
+      <c r="G4" s="548"/>
+      <c r="H4" s="548"/>
+      <c r="I4" s="549"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="271" t="s">
@@ -10526,7 +10528,7 @@
       <c r="C6" s="147" t="s">
         <v>521</v>
       </c>
-      <c r="D6" s="324" t="s">
+      <c r="D6" s="327" t="s">
         <v>416</v>
       </c>
       <c r="E6" s="197" t="s">
@@ -10535,10 +10537,10 @@
       <c r="F6" s="197" t="s">
         <v>327</v>
       </c>
-      <c r="G6" s="324" t="s">
+      <c r="G6" s="327" t="s">
         <v>418</v>
       </c>
-      <c r="H6" s="324" t="s">
+      <c r="H6" s="327" t="s">
         <v>417</v>
       </c>
       <c r="I6" s="7"/>
@@ -10547,7 +10549,7 @@
       <c r="A7" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="328" t="s">
+      <c r="B7" s="331" t="s">
         <v>536</v>
       </c>
       <c r="C7" s="145" t="s">
@@ -10563,10 +10565,10 @@
       <c r="G7" s="145" t="s">
         <v>556</v>
       </c>
-      <c r="H7" s="324" t="s">
+      <c r="H7" s="327" t="s">
         <v>413</v>
       </c>
-      <c r="I7" s="325" t="s">
+      <c r="I7" s="328" t="s">
         <v>414</v>
       </c>
     </row>
@@ -10577,10 +10579,10 @@
       <c r="B8" s="212" t="s">
         <v>329</v>
       </c>
-      <c r="C8" s="324" t="s">
+      <c r="C8" s="327" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="324" t="s">
+      <c r="D8" s="327" t="s">
         <v>419</v>
       </c>
       <c r="E8" s="197" t="s">
@@ -10601,10 +10603,10 @@
       <c r="A9" s="162" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="326" t="s">
+      <c r="B9" s="329" t="s">
         <v>400</v>
       </c>
-      <c r="C9" s="324" t="s">
+      <c r="C9" s="327" t="s">
         <v>401</v>
       </c>
       <c r="D9" s="277" t="s">
@@ -10630,7 +10632,7 @@
       <c r="A10" s="162" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="326" t="s">
+      <c r="B10" s="329" t="s">
         <v>415</v>
       </c>
       <c r="C10" s="277" t="s">
@@ -10655,7 +10657,7 @@
       <c r="A11" s="162" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="328" t="s">
+      <c r="B11" s="331" t="s">
         <v>620</v>
       </c>
       <c r="C11" s="160"/>
@@ -10680,26 +10682,26 @@
       <c r="A12" s="162" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="326" t="s">
+      <c r="B12" s="329" t="s">
         <v>402</v>
       </c>
       <c r="C12" s="159" t="s">
         <v>187</v>
       </c>
       <c r="D12" s="150"/>
-      <c r="E12" s="324" t="s">
+      <c r="E12" s="327" t="s">
         <v>385</v>
       </c>
-      <c r="F12" s="324" t="s">
+      <c r="F12" s="327" t="s">
         <v>390</v>
       </c>
-      <c r="G12" s="324" t="s">
+      <c r="G12" s="327" t="s">
         <v>391</v>
       </c>
       <c r="H12" s="277" t="s">
         <v>442</v>
       </c>
-      <c r="I12" s="332"/>
+      <c r="I12" s="326"/>
     </row>
     <row r="13" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="162" t="s">
@@ -10728,7 +10730,7 @@
       <c r="A14" s="162" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="328" t="s">
+      <c r="B14" s="331" t="s">
         <v>564</v>
       </c>
       <c r="C14" s="277" t="s">
@@ -10749,15 +10751,15 @@
       <c r="A15" s="162" t="s">
         <v>594</v>
       </c>
-      <c r="B15" s="561" t="s">
+      <c r="B15" s="560" t="s">
         <v>618</v>
       </c>
-      <c r="C15" s="554"/>
+      <c r="C15" s="553"/>
       <c r="D15" s="150"/>
-      <c r="E15" s="554" t="s">
+      <c r="E15" s="553" t="s">
         <v>619</v>
       </c>
-      <c r="F15" s="554"/>
+      <c r="F15" s="553"/>
       <c r="G15" s="150"/>
       <c r="H15" s="150"/>
       <c r="I15" s="189"/>
@@ -10789,26 +10791,26 @@
       <c r="A17" s="162" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="326" t="s">
+      <c r="B17" s="329" t="s">
         <v>422</v>
       </c>
       <c r="C17" s="145" t="s">
         <v>303</v>
       </c>
-      <c r="D17" s="324" t="s">
+      <c r="D17" s="327" t="s">
         <v>424</v>
       </c>
       <c r="E17" s="145" t="s">
         <v>304</v>
       </c>
-      <c r="F17" s="324" t="s">
+      <c r="F17" s="327" t="s">
         <v>386</v>
       </c>
       <c r="G17" s="160"/>
       <c r="H17" s="145" t="s">
         <v>305</v>
       </c>
-      <c r="I17" s="325" t="s">
+      <c r="I17" s="328" t="s">
         <v>423</v>
       </c>
     </row>
@@ -10821,10 +10823,10 @@
       </c>
       <c r="C18" s="160"/>
       <c r="D18" s="150"/>
-      <c r="E18" s="324" t="s">
+      <c r="E18" s="327" t="s">
         <v>382</v>
       </c>
-      <c r="F18" s="324" t="s">
+      <c r="F18" s="327" t="s">
         <v>384</v>
       </c>
       <c r="G18" s="145" t="s">
@@ -10840,7 +10842,9 @@
       <c r="B19" s="203" t="s">
         <v>309</v>
       </c>
-      <c r="C19" s="160"/>
+      <c r="C19" s="145" t="s">
+        <v>543</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="197" t="s">
         <v>332</v>
@@ -10848,7 +10852,9 @@
       <c r="F19" s="197" t="s">
         <v>331</v>
       </c>
-      <c r="G19" s="276"/>
+      <c r="G19" s="145" t="s">
+        <v>543</v>
+      </c>
       <c r="H19" s="145" t="s">
         <v>308</v>
       </c>
@@ -10867,7 +10873,7 @@
         <v>544</v>
       </c>
       <c r="D20" s="160"/>
-      <c r="E20" s="324" t="s">
+      <c r="E20" s="327" t="s">
         <v>642</v>
       </c>
       <c r="F20" s="145" t="s">
@@ -10917,19 +10923,17 @@
       <c r="D22" s="145" t="s">
         <v>285</v>
       </c>
-      <c r="E22" s="324" t="s">
+      <c r="E22" s="327" t="s">
         <v>387</v>
       </c>
-      <c r="F22" s="324" t="s">
+      <c r="F22" s="327" t="s">
         <v>388</v>
       </c>
       <c r="G22" s="145" t="s">
         <v>568</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="165" t="s">
-        <v>287</v>
-      </c>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" s="94" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="162" t="s">
@@ -10938,9 +10942,7 @@
       <c r="B23" s="203" t="s">
         <v>293</v>
       </c>
-      <c r="C23" s="145" t="s">
-        <v>543</v>
-      </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="145" t="s">
         <v>294</v>
       </c>
@@ -10986,63 +10988,63 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="94" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="548" t="s">
+      <c r="A25" s="547" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="551"/>
-      <c r="C25" s="551"/>
-      <c r="D25" s="551"/>
-      <c r="E25" s="551"/>
-      <c r="F25" s="551"/>
-      <c r="G25" s="551"/>
-      <c r="H25" s="551"/>
-      <c r="I25" s="552"/>
+      <c r="B25" s="550"/>
+      <c r="C25" s="550"/>
+      <c r="D25" s="550"/>
+      <c r="E25" s="550"/>
+      <c r="F25" s="550"/>
+      <c r="G25" s="550"/>
+      <c r="H25" s="550"/>
+      <c r="I25" s="551"/>
     </row>
     <row r="26" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="566" t="s">
+      <c r="B26" s="565" t="s">
         <v>518</v>
       </c>
-      <c r="C26" s="567"/>
-      <c r="D26" s="567"/>
+      <c r="C26" s="566"/>
+      <c r="D26" s="566"/>
       <c r="E26" s="269"/>
-      <c r="F26" s="555" t="s">
+      <c r="F26" s="554" t="s">
         <v>484</v>
       </c>
-      <c r="G26" s="555"/>
-      <c r="H26" s="555"/>
+      <c r="G26" s="554"/>
+      <c r="H26" s="554"/>
       <c r="I26" s="270"/>
     </row>
     <row r="27" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="162" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="565" t="s">
+      <c r="B27" s="564" t="s">
         <v>493</v>
       </c>
-      <c r="C27" s="557"/>
-      <c r="D27" s="557"/>
-      <c r="E27" s="556" t="s">
+      <c r="C27" s="556"/>
+      <c r="D27" s="556"/>
+      <c r="E27" s="555" t="s">
         <v>485</v>
       </c>
-      <c r="F27" s="556"/>
-      <c r="G27" s="557" t="s">
+      <c r="F27" s="555"/>
+      <c r="G27" s="556" t="s">
         <v>489</v>
       </c>
-      <c r="H27" s="557"/>
-      <c r="I27" s="558"/>
+      <c r="H27" s="556"/>
+      <c r="I27" s="557"/>
     </row>
     <row r="28" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="562" t="s">
+      <c r="B28" s="561" t="s">
         <v>496</v>
       </c>
-      <c r="C28" s="563"/>
-      <c r="D28" s="563"/>
+      <c r="C28" s="562"/>
+      <c r="D28" s="562"/>
       <c r="E28" s="161"/>
       <c r="F28" s="146"/>
       <c r="G28" s="209"/>
@@ -11056,49 +11058,49 @@
       <c r="B29" s="218"/>
       <c r="C29" s="160"/>
       <c r="D29" s="160"/>
-      <c r="E29" s="556" t="s">
+      <c r="E29" s="555" t="s">
         <v>486</v>
       </c>
-      <c r="F29" s="556"/>
-      <c r="G29" s="556" t="s">
+      <c r="F29" s="555"/>
+      <c r="G29" s="555" t="s">
         <v>557</v>
       </c>
-      <c r="H29" s="556"/>
-      <c r="I29" s="564"/>
+      <c r="H29" s="555"/>
+      <c r="I29" s="563"/>
     </row>
     <row r="30" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="162" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="562" t="s">
+      <c r="B30" s="561" t="s">
         <v>519</v>
       </c>
-      <c r="C30" s="563"/>
-      <c r="D30" s="563"/>
+      <c r="C30" s="562"/>
+      <c r="D30" s="562"/>
       <c r="E30" s="161"/>
-      <c r="F30" s="553" t="s">
+      <c r="F30" s="552" t="s">
         <v>622</v>
       </c>
-      <c r="G30" s="553"/>
-      <c r="H30" s="553"/>
+      <c r="G30" s="552"/>
+      <c r="H30" s="552"/>
       <c r="I30" s="164"/>
     </row>
     <row r="31" spans="1:9" s="94" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="162" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="559" t="s">
+      <c r="B31" s="558" t="s">
         <v>488</v>
       </c>
-      <c r="C31" s="560"/>
-      <c r="D31" s="560"/>
+      <c r="C31" s="559"/>
+      <c r="D31" s="559"/>
       <c r="E31" s="209"/>
       <c r="F31" s="209"/>
-      <c r="G31" s="557" t="s">
+      <c r="G31" s="556" t="s">
         <v>487</v>
       </c>
-      <c r="H31" s="557"/>
-      <c r="I31" s="558"/>
+      <c r="H31" s="556"/>
+      <c r="I31" s="557"/>
     </row>
     <row r="32" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="162" t="s">
@@ -11213,17 +11215,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="572" t="s">
+      <c r="A1" s="571" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="573"/>
-      <c r="C1" s="573"/>
-      <c r="D1" s="573"/>
-      <c r="E1" s="573"/>
-      <c r="F1" s="573"/>
-      <c r="G1" s="573"/>
-      <c r="H1" s="573"/>
-      <c r="I1" s="574"/>
+      <c r="B1" s="572"/>
+      <c r="C1" s="572"/>
+      <c r="D1" s="572"/>
+      <c r="E1" s="572"/>
+      <c r="F1" s="572"/>
+      <c r="G1" s="572"/>
+      <c r="H1" s="572"/>
+      <c r="I1" s="573"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
@@ -11284,17 +11286,17 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="575" t="s">
+      <c r="A4" s="574" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="576"/>
-      <c r="C4" s="576"/>
-      <c r="D4" s="576"/>
-      <c r="E4" s="576"/>
-      <c r="F4" s="576"/>
-      <c r="G4" s="576"/>
-      <c r="H4" s="576"/>
-      <c r="I4" s="577"/>
+      <c r="B4" s="575"/>
+      <c r="C4" s="575"/>
+      <c r="D4" s="575"/>
+      <c r="E4" s="575"/>
+      <c r="F4" s="575"/>
+      <c r="G4" s="575"/>
+      <c r="H4" s="575"/>
+      <c r="I4" s="576"/>
     </row>
     <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="173" t="s">
@@ -11306,7 +11308,7 @@
       <c r="C5" s="206" t="s">
         <v>550</v>
       </c>
-      <c r="D5" s="327" t="s">
+      <c r="D5" s="321" t="s">
         <v>413</v>
       </c>
       <c r="E5" s="206" t="s">
@@ -11318,7 +11320,7 @@
       <c r="G5" s="298" t="s">
         <v>588</v>
       </c>
-      <c r="H5" s="327" t="s">
+      <c r="H5" s="321" t="s">
         <v>415</v>
       </c>
       <c r="I5" s="280" t="s">
@@ -11329,7 +11331,7 @@
       <c r="A6" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="326" t="s">
+      <c r="B6" s="320" t="s">
         <v>421</v>
       </c>
       <c r="C6" s="145" t="s">
@@ -11344,10 +11346,10 @@
       <c r="F6" s="197" t="s">
         <v>328</v>
       </c>
-      <c r="G6" s="324" t="s">
+      <c r="G6" s="319" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="324" t="s">
+      <c r="H6" s="319" t="s">
         <v>420</v>
       </c>
       <c r="I6" s="166"/>
@@ -11356,10 +11358,7 @@
       <c r="A7" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="326" t="s">
-        <v>419</v>
-      </c>
-      <c r="C7" s="324" t="s">
+      <c r="C7" s="319" t="s">
         <v>185</v>
       </c>
       <c r="D7" s="145" t="s">
@@ -11399,7 +11398,9 @@
       <c r="G8" s="277" t="s">
         <v>447</v>
       </c>
-      <c r="H8" s="157"/>
+      <c r="H8" s="320" t="s">
+        <v>419</v>
+      </c>
       <c r="I8" s="190"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11416,10 +11417,10 @@
       <c r="E9" s="277" t="s">
         <v>451</v>
       </c>
-      <c r="F9" s="324" t="s">
+      <c r="F9" s="319" t="s">
         <v>412</v>
       </c>
-      <c r="G9" s="324" t="s">
+      <c r="G9" s="319" t="s">
         <v>411</v>
       </c>
       <c r="H9" s="150"/>
@@ -11429,7 +11430,7 @@
       <c r="A10" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="328" t="s">
+      <c r="B10" s="322" t="s">
         <v>593</v>
       </c>
       <c r="C10" s="277" t="s">
@@ -11476,7 +11477,7 @@
       <c r="A12" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="328" t="s">
+      <c r="B12" s="322" t="s">
         <v>434</v>
       </c>
       <c r="C12" s="159" t="s">
@@ -11544,10 +11545,10 @@
       <c r="A15" s="77" t="s">
         <v>594</v>
       </c>
-      <c r="B15" s="561" t="s">
+      <c r="B15" s="560" t="s">
         <v>621</v>
       </c>
-      <c r="C15" s="554"/>
+      <c r="C15" s="553"/>
       <c r="D15" s="212" t="s">
         <v>332</v>
       </c>
@@ -11560,10 +11561,10 @@
       <c r="G15" s="277" t="s">
         <v>463</v>
       </c>
-      <c r="H15" s="554" t="s">
+      <c r="H15" s="553" t="s">
         <v>636</v>
       </c>
-      <c r="I15" s="580"/>
+      <c r="I15" s="579"/>
     </row>
     <row r="16" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
@@ -11582,9 +11583,6 @@
       <c r="F16" s="197" t="s">
         <v>334</v>
       </c>
-      <c r="G16" s="145" t="s">
-        <v>543</v>
-      </c>
       <c r="H16" s="145" t="s">
         <v>540</v>
       </c>
@@ -11606,10 +11604,10 @@
       <c r="E17" s="147" t="s">
         <v>367</v>
       </c>
-      <c r="F17" s="324" t="s">
+      <c r="F17" s="319" t="s">
         <v>400</v>
       </c>
-      <c r="G17" s="324" t="s">
+      <c r="G17" s="319" t="s">
         <v>401</v>
       </c>
       <c r="H17" s="197" t="s">
@@ -11670,7 +11668,7 @@
         <v>363</v>
       </c>
       <c r="D20" s="144"/>
-      <c r="E20" s="324" t="s">
+      <c r="E20" s="319" t="s">
         <v>533</v>
       </c>
       <c r="F20" s="147" t="s">
@@ -11723,7 +11721,7 @@
       <c r="E22" s="145" t="s">
         <v>483</v>
       </c>
-      <c r="F22" s="324" t="s">
+      <c r="F22" s="319" t="s">
         <v>389</v>
       </c>
       <c r="G22" s="157"/>
@@ -11761,8 +11759,8 @@
       <c r="A24" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="329"/>
-      <c r="C24" s="330" t="s">
+      <c r="B24" s="323"/>
+      <c r="C24" s="324" t="s">
         <v>297</v>
       </c>
       <c r="D24" s="179" t="s">
@@ -11775,105 +11773,105 @@
       <c r="G24" s="179" t="s">
         <v>296</v>
       </c>
-      <c r="H24" s="330" t="s">
+      <c r="H24" s="324" t="s">
         <v>295</v>
       </c>
-      <c r="I24" s="331"/>
+      <c r="I24" s="325"/>
     </row>
     <row r="25" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="575" t="s">
+      <c r="A25" s="574" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="578"/>
-      <c r="C25" s="578"/>
-      <c r="D25" s="578"/>
-      <c r="E25" s="578"/>
-      <c r="F25" s="578"/>
-      <c r="G25" s="578"/>
-      <c r="H25" s="578"/>
-      <c r="I25" s="579"/>
+      <c r="B25" s="577"/>
+      <c r="C25" s="577"/>
+      <c r="D25" s="577"/>
+      <c r="E25" s="577"/>
+      <c r="F25" s="577"/>
+      <c r="G25" s="577"/>
+      <c r="H25" s="577"/>
+      <c r="I25" s="578"/>
     </row>
     <row r="26" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="321" t="s">
+      <c r="A26" s="317" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="581" t="s">
+      <c r="B26" s="580" t="s">
         <v>508</v>
       </c>
-      <c r="C26" s="582"/>
-      <c r="D26" s="582"/>
-      <c r="E26" s="583" t="s">
+      <c r="C26" s="581"/>
+      <c r="D26" s="581"/>
+      <c r="E26" s="582" t="s">
         <v>500</v>
       </c>
-      <c r="F26" s="583"/>
-      <c r="G26" s="583" t="s">
+      <c r="F26" s="582"/>
+      <c r="G26" s="582" t="s">
         <v>559</v>
       </c>
-      <c r="H26" s="583"/>
-      <c r="I26" s="584"/>
+      <c r="H26" s="582"/>
+      <c r="I26" s="583"/>
     </row>
     <row r="27" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="321" t="s">
+      <c r="A27" s="317" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="571" t="s">
+      <c r="B27" s="570" t="s">
         <v>503</v>
       </c>
-      <c r="C27" s="560"/>
-      <c r="D27" s="560"/>
-      <c r="E27" s="556" t="s">
+      <c r="C27" s="559"/>
+      <c r="D27" s="559"/>
+      <c r="E27" s="555" t="s">
         <v>501</v>
       </c>
-      <c r="F27" s="556"/>
-      <c r="G27" s="557" t="s">
+      <c r="F27" s="555"/>
+      <c r="G27" s="556" t="s">
         <v>507</v>
       </c>
-      <c r="H27" s="557"/>
-      <c r="I27" s="558"/>
+      <c r="H27" s="556"/>
+      <c r="I27" s="557"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="321" t="s">
+      <c r="A28" s="317" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="568" t="s">
+      <c r="B28" s="567" t="s">
         <v>490</v>
       </c>
-      <c r="C28" s="563"/>
-      <c r="D28" s="563"/>
+      <c r="C28" s="562"/>
+      <c r="D28" s="562"/>
       <c r="E28" s="157"/>
       <c r="F28" s="157"/>
-      <c r="G28" s="557" t="s">
+      <c r="G28" s="556" t="s">
         <v>505</v>
       </c>
-      <c r="H28" s="557"/>
-      <c r="I28" s="558"/>
+      <c r="H28" s="556"/>
+      <c r="I28" s="557"/>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="321" t="s">
+      <c r="A29" s="317" t="s">
         <v>569</v>
       </c>
-      <c r="B29" s="570" t="s">
+      <c r="B29" s="569" t="s">
         <v>558</v>
       </c>
-      <c r="C29" s="556"/>
-      <c r="D29" s="556"/>
+      <c r="C29" s="555"/>
+      <c r="D29" s="555"/>
       <c r="E29" s="144"/>
       <c r="F29" s="144"/>
-      <c r="G29" s="556" t="s">
+      <c r="G29" s="555" t="s">
         <v>563</v>
       </c>
-      <c r="H29" s="556"/>
-      <c r="I29" s="564"/>
+      <c r="H29" s="555"/>
+      <c r="I29" s="563"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="321" t="s">
+      <c r="A30" s="317" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="568" t="s">
+      <c r="B30" s="567" t="s">
         <v>502</v>
       </c>
-      <c r="C30" s="563"/>
-      <c r="D30" s="563"/>
+      <c r="C30" s="562"/>
+      <c r="D30" s="562"/>
       <c r="E30" s="236"/>
       <c r="F30" s="236"/>
       <c r="G30" s="144"/>
@@ -11881,24 +11879,24 @@
       <c r="I30" s="168"/>
     </row>
     <row r="31" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="321" t="s">
+      <c r="A31" s="317" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="569" t="s">
+      <c r="B31" s="568" t="s">
         <v>504</v>
       </c>
-      <c r="C31" s="557"/>
-      <c r="D31" s="557"/>
+      <c r="C31" s="556"/>
+      <c r="D31" s="556"/>
       <c r="E31" s="209"/>
       <c r="F31" s="209"/>
-      <c r="G31" s="557" t="s">
+      <c r="G31" s="556" t="s">
         <v>506</v>
       </c>
-      <c r="H31" s="557"/>
-      <c r="I31" s="558"/>
+      <c r="H31" s="556"/>
+      <c r="I31" s="557"/>
     </row>
     <row r="32" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="321" t="s">
+      <c r="A32" s="317" t="s">
         <v>149</v>
       </c>
       <c r="B32" s="295"/>
@@ -11966,17 +11964,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="572" t="s">
+      <c r="A1" s="571" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="573"/>
-      <c r="C1" s="573"/>
-      <c r="D1" s="573"/>
-      <c r="E1" s="573"/>
-      <c r="F1" s="573"/>
-      <c r="G1" s="573"/>
-      <c r="H1" s="573"/>
-      <c r="I1" s="574"/>
+      <c r="B1" s="572"/>
+      <c r="C1" s="572"/>
+      <c r="D1" s="572"/>
+      <c r="E1" s="572"/>
+      <c r="F1" s="572"/>
+      <c r="G1" s="572"/>
+      <c r="H1" s="572"/>
+      <c r="I1" s="573"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
@@ -12037,17 +12035,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="575" t="s">
+      <c r="A4" s="574" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="576"/>
-      <c r="C4" s="576"/>
-      <c r="D4" s="576"/>
-      <c r="E4" s="576"/>
-      <c r="F4" s="576"/>
-      <c r="G4" s="576"/>
-      <c r="H4" s="576"/>
-      <c r="I4" s="577"/>
+      <c r="B4" s="575"/>
+      <c r="C4" s="575"/>
+      <c r="D4" s="575"/>
+      <c r="E4" s="575"/>
+      <c r="F4" s="575"/>
+      <c r="G4" s="575"/>
+      <c r="H4" s="575"/>
+      <c r="I4" s="576"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
@@ -12290,10 +12288,10 @@
         <v>374</v>
       </c>
       <c r="G15" s="144"/>
-      <c r="H15" s="554" t="s">
+      <c r="H15" s="553" t="s">
         <v>641</v>
       </c>
-      <c r="I15" s="580"/>
+      <c r="I15" s="579"/>
     </row>
     <row r="16" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
@@ -12409,8 +12407,8 @@
       </c>
       <c r="B21" s="224"/>
       <c r="C21" s="144"/>
-      <c r="D21" s="145" t="s">
-        <v>285</v>
+      <c r="D21" s="217" t="s">
+        <v>287</v>
       </c>
       <c r="E21" s="145" t="s">
         <v>289</v>
@@ -12418,7 +12416,9 @@
       <c r="F21" s="272" t="s">
         <v>389</v>
       </c>
-      <c r="G21" s="144"/>
+      <c r="G21" s="145" t="s">
+        <v>285</v>
+      </c>
       <c r="H21" s="144"/>
       <c r="I21" s="175"/>
     </row>
@@ -12426,10 +12426,10 @@
       <c r="A22" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="561" t="s">
+      <c r="B22" s="560" t="s">
         <v>494</v>
       </c>
-      <c r="C22" s="554"/>
+      <c r="C22" s="553"/>
       <c r="D22" s="145" t="s">
         <v>293</v>
       </c>
@@ -12485,116 +12485,116 @@
       <c r="I24" s="297"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="595" t="s">
+      <c r="A25" s="594" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="596"/>
-      <c r="C25" s="596"/>
-      <c r="D25" s="596"/>
-      <c r="E25" s="596"/>
-      <c r="F25" s="596"/>
-      <c r="G25" s="596"/>
-      <c r="H25" s="596"/>
-      <c r="I25" s="597"/>
+      <c r="B25" s="595"/>
+      <c r="C25" s="595"/>
+      <c r="D25" s="595"/>
+      <c r="E25" s="595"/>
+      <c r="F25" s="595"/>
+      <c r="G25" s="595"/>
+      <c r="H25" s="595"/>
+      <c r="I25" s="596"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="589" t="s">
+      <c r="B26" s="588" t="s">
         <v>514</v>
       </c>
-      <c r="C26" s="590"/>
-      <c r="D26" s="590"/>
-      <c r="E26" s="591" t="s">
+      <c r="C26" s="589"/>
+      <c r="D26" s="589"/>
+      <c r="E26" s="590" t="s">
         <v>511</v>
       </c>
-      <c r="F26" s="591"/>
-      <c r="G26" s="567" t="s">
+      <c r="F26" s="590"/>
+      <c r="G26" s="566" t="s">
         <v>509</v>
       </c>
-      <c r="H26" s="567"/>
-      <c r="I26" s="588"/>
+      <c r="H26" s="566"/>
+      <c r="I26" s="587"/>
       <c r="J26" s="86"/>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="565" t="s">
+      <c r="B27" s="564" t="s">
         <v>515</v>
       </c>
-      <c r="C27" s="557"/>
-      <c r="D27" s="557"/>
-      <c r="E27" s="556" t="s">
+      <c r="C27" s="556"/>
+      <c r="D27" s="556"/>
+      <c r="E27" s="555" t="s">
         <v>512</v>
       </c>
-      <c r="F27" s="556"/>
-      <c r="G27" s="556" t="s">
+      <c r="F27" s="555"/>
+      <c r="G27" s="555" t="s">
         <v>561</v>
       </c>
-      <c r="H27" s="556"/>
-      <c r="I27" s="564"/>
+      <c r="H27" s="555"/>
+      <c r="I27" s="563"/>
       <c r="J27" s="86"/>
     </row>
     <row r="28" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="593" t="s">
+      <c r="B28" s="592" t="s">
         <v>528</v>
       </c>
-      <c r="C28" s="553"/>
-      <c r="D28" s="553"/>
+      <c r="C28" s="552"/>
+      <c r="D28" s="552"/>
       <c r="E28" s="277" t="s">
         <v>434</v>
       </c>
       <c r="F28" s="157"/>
-      <c r="G28" s="560" t="s">
+      <c r="G28" s="559" t="s">
         <v>510</v>
       </c>
-      <c r="H28" s="560"/>
-      <c r="I28" s="592"/>
+      <c r="H28" s="559"/>
+      <c r="I28" s="591"/>
       <c r="J28" s="86"/>
     </row>
     <row r="29" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="77" t="s">
         <v>569</v>
       </c>
-      <c r="B29" s="587" t="s">
+      <c r="B29" s="586" t="s">
         <v>560</v>
       </c>
-      <c r="C29" s="556"/>
-      <c r="D29" s="556"/>
+      <c r="C29" s="555"/>
+      <c r="D29" s="555"/>
       <c r="E29" s="150"/>
       <c r="F29" s="157"/>
-      <c r="G29" s="556" t="s">
+      <c r="G29" s="555" t="s">
         <v>562</v>
       </c>
-      <c r="H29" s="556"/>
-      <c r="I29" s="564"/>
+      <c r="H29" s="555"/>
+      <c r="I29" s="563"/>
       <c r="J29" s="86"/>
     </row>
     <row r="30" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="565" t="s">
+      <c r="B30" s="564" t="s">
         <v>570</v>
       </c>
-      <c r="C30" s="557"/>
-      <c r="D30" s="557"/>
+      <c r="C30" s="556"/>
+      <c r="D30" s="556"/>
       <c r="E30" s="277" t="s">
         <v>593</v>
       </c>
       <c r="F30" s="277" t="s">
         <v>592</v>
       </c>
-      <c r="G30" s="563" t="s">
+      <c r="G30" s="562" t="s">
         <v>492</v>
       </c>
-      <c r="H30" s="563"/>
-      <c r="I30" s="594"/>
+      <c r="H30" s="562"/>
+      <c r="I30" s="593"/>
       <c r="J30" s="86"/>
     </row>
     <row r="31" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12602,26 +12602,26 @@
         <v>173</v>
       </c>
       <c r="B31" s="172"/>
-      <c r="C31" s="553" t="s">
+      <c r="C31" s="552" t="s">
         <v>513</v>
       </c>
-      <c r="D31" s="553"/>
-      <c r="E31" s="553"/>
+      <c r="D31" s="552"/>
+      <c r="E31" s="552"/>
       <c r="F31" s="157"/>
-      <c r="G31" s="563" t="s">
+      <c r="G31" s="562" t="s">
         <v>491</v>
       </c>
-      <c r="H31" s="563"/>
-      <c r="I31" s="594"/>
+      <c r="H31" s="562"/>
+      <c r="I31" s="593"/>
     </row>
     <row r="32" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="585" t="s">
+      <c r="B32" s="584" t="s">
         <v>495</v>
       </c>
-      <c r="C32" s="586"/>
+      <c r="C32" s="585"/>
       <c r="D32" s="235"/>
       <c r="E32" s="235"/>
       <c r="F32" s="228"/>

--- a/include/BSCS.xlsx
+++ b/include/BSCS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10710" windowHeight="6825" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Fall-2018" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="666">
   <si>
     <t>National University</t>
   </si>
@@ -783,9 +783,6 @@
   </si>
   <si>
     <t>Mr. Abdul Aziz (B1,G1,I1), Ms. Farah Sadia(D1,F1,H1), Ms. Rahemeen (A1,C1,E1), Ms. Mubashara Fayaz (B2,G2,I2), Mr. Irfan Ayub (D2,F2,H2), Mr. Faheem(A2,C2,E2)</t>
-  </si>
-  <si>
-    <t>Dr. M. Rafi (B,D) , Mr. Teerath Das (C,F) , Ms. Nida Pervaiz ( A,E,G)</t>
   </si>
   <si>
     <t>Mr. Faizan Yousuf(A,E,G), Ms. Safia(C,D,F), Ms. Maham Mobin(B)</t>
@@ -1022,15 +1019,6 @@
     <t xml:space="preserve">DS-B                                    M.Rafi                                                </t>
   </si>
   <si>
-    <t xml:space="preserve">DS-D                                    M.Rafi                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS-C                                    teerath                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS-F                                    teerath                                              </t>
-  </si>
-  <si>
     <t xml:space="preserve">DS-A                                    Nida                                              </t>
   </si>
   <si>
@@ -1625,8 +1613,413 @@
     <t>COAL Lab-E                                                                                                                               Zain</t>
   </si>
   <si>
+    <t>DB-Lab F                                                                                                                                        Basit ali</t>
+  </si>
+  <si>
+    <t>Prob-Gr2 (D,E,F,G)                          Dr. Sadaqat</t>
+  </si>
+  <si>
+    <t>Dr. Sadaqat Hussain(A,C,G), Ms. Fareeha Sultan(B,D,F), Ms. Javeria Iftikhar(E)</t>
+  </si>
+  <si>
+    <t>Course Planning:Gr1(A,B,C), Gr2(D,E,F,G)                                                Mr. M. Amjad (Gr1), Dr. Sadaqat Hussain (Gr2)</t>
+  </si>
+  <si>
+    <t>IS-A                                                     Dr. Sufian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-A                                  Adeel                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-B                                  Javaid Qureshi                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-C                                 Rabia                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-D                                  Adeel                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-E                                 Rabia                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-E                               Rabia                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-F                                  Sonia                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-G                                 Rabia                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-H                                  Javaid Qureshi                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-I                                 Rabia                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-I                                Rabia                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-A                                  M. Shahzad                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-B                                  Dr. Farooque                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-C                                  M. Shahzad                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-D                                  Tania                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-E                                  M. Shahzad                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-F                                  Tania                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-G                                  Dr. Farooque                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-H                                  Tania                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-I                                  Shaoib Rauf                                             </t>
+  </si>
+  <si>
+    <t>PF-Lab B(B1+B2)                                                                                                                 Abdul Aziz &amp; Mubashara</t>
+  </si>
+  <si>
+    <t>PF-Lab A(A1+A2)                                                                                            Rahemeen &amp; Faheem</t>
+  </si>
+  <si>
+    <t>PF-Lab H(H1+H2)                                                                                                                     Farah &amp; Irfan</t>
+  </si>
+  <si>
+    <t>PF-Lab C(C1+C2)                                                                                                                       Rahemeen &amp; Faheem</t>
+  </si>
+  <si>
+    <t>PF-Lab G(G1+G2)                                                                                                                    Abdul Aziz &amp; Mubashara</t>
+  </si>
+  <si>
+    <t>PF-Lab F(F1+F2)                                                                                                     Farah &amp; Irfan</t>
+  </si>
+  <si>
+    <t>PF-Lab I(I1+I2)                                                                                                                      Abdul Aziz &amp; Mubashara</t>
+  </si>
+  <si>
+    <t>IS-D                                               Dr. Fahad</t>
+  </si>
+  <si>
+    <t>MM Gr2(D,E,F,G)                                         Asiya</t>
+  </si>
+  <si>
+    <t>DB-Lab E                                                                                                                              Ammara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRS-I                                 Dr. Shahzad                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRS-D                                              Dr. Shahzad                                          </t>
+  </si>
+  <si>
+    <t>Lab-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOAD-Lab A                                                                                                            Tooba         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOAD-Lab G                                                                                                                              Awais      </t>
+  </si>
+  <si>
+    <t>Algo-F                                                                               Zeeshan</t>
+  </si>
+  <si>
+    <t>OOAD-G                                                               Rubab</t>
+  </si>
+  <si>
+    <t>Psych-Gr3(E,F,G)                                Sumaira</t>
+  </si>
+  <si>
+    <t>OS Lab- Gr4(G)                                                                                                                                                                                         Summiyah</t>
+  </si>
+  <si>
+    <t>PF-Lab D(D1+D2)                                                                                                                                           Farah &amp; Irfan</t>
+  </si>
+  <si>
+    <t>PF-Lab E(E1+E2)                                                                                                                                   Rahemeen &amp; Faheem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOAD-Lab D                                                                                                                                                           Nadeem            </t>
+  </si>
+  <si>
+    <t>Course Planning:Gr1(A,B,C), Gr2(D,E,F,G)                                              Mr. Ubaid Aftab Chawla(Gr1,Gr2)</t>
+  </si>
+  <si>
+    <t>CS Elective Track-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to project Management                          OR                              Information Processing Techniques</t>
+  </si>
+  <si>
+    <t>CS Elective Track-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Science                                                               OR                              Introdution to Cloud Computing</t>
+  </si>
+  <si>
+    <t>CS Elective Track-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIT-F                                           Ali Naqvi </t>
+  </si>
+  <si>
+    <t>ISPM-Gr2                                  Ubaid</t>
+  </si>
+  <si>
+    <t>HCI-E                                  Behraj</t>
+  </si>
+  <si>
+    <t>HCI-A                                   Behraj</t>
+  </si>
+  <si>
+    <t>IS-F                                          Dr. Fahad</t>
+  </si>
+  <si>
+    <t>HCI-F                                                  Dr. Rauf</t>
+  </si>
+  <si>
+    <t>Course Planning: Gr1(A,B,C,D,E,F,G,H,I)                                                                                         Mr. Amanullah (Gr1)</t>
+  </si>
+  <si>
+    <t>DSci-Gr1                                   Dr. Zeeshan</t>
+  </si>
+  <si>
+    <t>DSci-Gr2                                  Dr. Zeeshan</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>CR-11</t>
+  </si>
+  <si>
+    <t>Eng-Lab I2                                                                                            Kishwar</t>
+  </si>
+  <si>
+    <t>Discrete-A                            Shoaib Raza</t>
+  </si>
+  <si>
+    <t>FA-Gr2(D,E,F,G)                                         Ahsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Nouman Durani (A,C), Mr. Nadeem Kafi (E,G) , Mr. M. Danish Khan (B,D,F) , </t>
+  </si>
+  <si>
+    <t>COAL-A                                  Dr. Nouman</t>
+  </si>
+  <si>
+    <t>COAL-G                               Nadeem kafi</t>
+  </si>
+  <si>
+    <t>COAL-C                                    Dr. Nouman</t>
+  </si>
+  <si>
+    <t>COAL-C                                                          Dr. Nouman</t>
+  </si>
+  <si>
+    <t>Psych-Gr3(E,F,G)                               Sumaira</t>
+  </si>
+  <si>
+    <t>Psych-Gr2(C,D)                         Sumaira</t>
+  </si>
+  <si>
+    <t>COAL Lab-C                                                                                                                                     Zain</t>
+  </si>
+  <si>
+    <t>LA-B                                                          Fareeha</t>
+  </si>
+  <si>
+    <t>Discrete-G                                             Dr. Nouman</t>
+  </si>
+  <si>
+    <t>COAL-F                                                                   Danish</t>
+  </si>
+  <si>
+    <t>Discrete-D                                               Dr. Nouman</t>
+  </si>
+  <si>
+    <t>COAL-A                                                                   Dr. Nouman</t>
+  </si>
+  <si>
+    <t>COAL-C                                                                      Dr. Nouman</t>
+  </si>
+  <si>
+    <t>COAL-B                                                         Danish</t>
+  </si>
+  <si>
+    <t>LA-E                                                                              Javeria</t>
+  </si>
+  <si>
+    <t>LA-E                                                                Javeria</t>
+  </si>
+  <si>
+    <t>LA-G                                                        Dr. Sadaqat</t>
+  </si>
+  <si>
+    <t>Discrete-F                                         Dr. Jalaluddin</t>
+  </si>
+  <si>
+    <t>Eng-Lab A1  &amp;  A2                                           Hubrah</t>
+  </si>
+  <si>
+    <t>Eng-Lab C1   &amp;   C2                                                  Kishwar</t>
+  </si>
+  <si>
+    <t>CN-Gr1                                   Shahbaz</t>
+  </si>
+  <si>
+    <t>Eng-Lab B1  &amp;  B2                                                Hubrah</t>
+  </si>
+  <si>
+    <t>COAL Lab-F                                                                                                                                     Abdul khaliq</t>
+  </si>
+  <si>
+    <t>Course Planning:Gr1(A,B,C,D,E,F,G)                                             Mr. Shahbaz Siddiqui (Gr1)</t>
+  </si>
+  <si>
+    <t>Course Planning:Gr1(A,B,C,D,E,F,G)                                                        Dr. Tahir Qasim Syed</t>
+  </si>
+  <si>
+    <t>CS452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Learning for perception                                                                           Day: Friday                                                                   Timings:                                                      Section-Gr1       5:00pm - 8:00pm                                                                          </t>
+  </si>
+  <si>
+    <t>DLP</t>
+  </si>
+  <si>
+    <t>CITY CAMPUS ELECTIVE COURSES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course Planning:Gr1(A,B,C), Gr2(D,E,F,G)                                 Mr. Syed Yousuf(Gr1,Gr2) </t>
+  </si>
+  <si>
+    <t>SS127</t>
+  </si>
+  <si>
+    <t>Scio</t>
+  </si>
+  <si>
+    <t>Course Planning:Gr1(A,B,C,D,E,F,G)                                   Dr. Usman (Gr1)</t>
+  </si>
+  <si>
+    <t>CS Elective Track-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Design Defects and Restructuring                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Learning for perception         </t>
+  </si>
+  <si>
+    <t>Eng-Lab E1 &amp; E2                                                                      Hubrah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eng-I2                                                JavedIqbal                               </t>
+  </si>
+  <si>
+    <t>Eng-Lab F1 &amp; F2                                                                          Kishwar</t>
+  </si>
+  <si>
+    <t>ICT-Lab E                                                                                      Abdul Aziz</t>
+  </si>
+  <si>
+    <t>New Building Auditorium</t>
+  </si>
+  <si>
+    <t>Eng-Lab H1  &amp;  H2                                                                              Kishwar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR-Gr1                             Asma    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR-Gr1                                  Asma    </t>
+  </si>
+  <si>
+    <t>CN-Gr1                               Shahbaz</t>
+  </si>
+  <si>
+    <t>ICT-Lab(All Sections)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethics-Gr1                                  Amanullah                                        </t>
+  </si>
+  <si>
+    <t>CN-Gr1  Lab                                                                                                                                        Faizan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eng-I2                                                Javed  Iqbal                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-I                                                Rabia                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-E                                Rabia                                         </t>
+  </si>
+  <si>
+    <t>Mr. M. Shahzad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sociology(Offered in BBA Dept.)                              Day &amp; Timings:                                                            Monday  (12:00-12:55/CR9)                                    Tuesday  (9:00-10:55/CR9)              </t>
+  </si>
+  <si>
+    <t>SS/MG/MT ELECTIVES (OPT any ONE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eng-I2                                                Javed Iqbal                                 </t>
+  </si>
+  <si>
+    <t>PIT-G                                     Khalid</t>
+  </si>
+  <si>
+    <t>Mr. Shoaib Raza(Gr1),Mr. Abdul Rehman(Gr2)</t>
+  </si>
+  <si>
+    <t>Ms. Hubrah Razi(A1,A2,B1,B2,D2,E1,E2,G2,I1),                           Ms. Kishwar Nazli(C1,C2,D1,F1,F2,G1,H1,H2,I2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eng-G2                                                Afsheen                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eng-G2                                                Afsheen                            </t>
+  </si>
+  <si>
+    <t>Ms. Nazia Imam (B1,D1,F1), Ms. Faiza Mumtaz (A1,C1,E1), Mr. Javed Iqbal (A2,C2,E2,I2), Mr. Ahmed Bux (B2,D2,H1), Ms. Hafsa Yusra (F2,I1), Ms. Sabeen Amjad (H2,G1),Ms. Afsheen Zehra(G2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-C                                    Nida                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-C                                    Nida                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-C                                    Nida                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-D  &amp; DS- F                                  M.Rafi                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-D &amp; DS-F                                   M.Rafi                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-D  &amp; DS-F                                 M.Rafi                                                </t>
+  </si>
+  <si>
     <r>
-      <t>Mr. Zain ul Hasasan(</t>
+      <t>Mr. Zain ul Hasasan(B</t>
     </r>
     <r>
       <rPr>
@@ -1636,7 +2029,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>B,</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -1651,404 +2044,20 @@
     </r>
   </si>
   <si>
-    <t>DB-Lab F                                                                                                                                        Basit ali</t>
-  </si>
-  <si>
-    <t>Prob-Gr2 (D,E,F,G)                          Dr. Sadaqat</t>
-  </si>
-  <si>
-    <t>Dr. Sadaqat Hussain(A,C,G), Ms. Fareeha Sultan(B,D,F), Ms. Javeria Iftikhar(E)</t>
-  </si>
-  <si>
-    <t>Course Planning:Gr1(A,B,C), Gr2(D,E,F,G)                                                Mr. M. Amjad (Gr1), Dr. Sadaqat Hussain (Gr2)</t>
-  </si>
-  <si>
-    <t>IS-A                                                     Dr. Sufian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP-A                                  Adeel                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP-B                                  Javaid Qureshi                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP-C                                 Rabia                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP-D                                  Adeel                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP-E                                 Rabia                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP-E                               Rabia                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP-F                                  Sonia                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP-G                                 Rabia                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP-H                                  Javaid Qureshi                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP-I                                 Rabia                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP-I                                Rabia                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF-A                                  M. Shahzad                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF-B                                  Dr. Farooque                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF-C                                  M. Shahzad                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF-D                                  Tania                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF-E                                  M. Shahzad                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF-F                                  Tania                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF-G                                  Dr. Farooque                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF-H                                  Tania                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF-I                                  Shaoib Rauf                                             </t>
-  </si>
-  <si>
-    <t>PF-Lab B(B1+B2)                                                                                                                 Abdul Aziz &amp; Mubashara</t>
-  </si>
-  <si>
-    <t>PF-Lab A(A1+A2)                                                                                            Rahemeen &amp; Faheem</t>
-  </si>
-  <si>
-    <t>PF-Lab H(H1+H2)                                                                                                                     Farah &amp; Irfan</t>
-  </si>
-  <si>
-    <t>PF-Lab C(C1+C2)                                                                                                                       Rahemeen &amp; Faheem</t>
-  </si>
-  <si>
-    <t>PF-Lab G(G1+G2)                                                                                                                    Abdul Aziz &amp; Mubashara</t>
-  </si>
-  <si>
-    <t>PF-Lab F(F1+F2)                                                                                                     Farah &amp; Irfan</t>
-  </si>
-  <si>
-    <t>PF-Lab I(I1+I2)                                                                                                                      Abdul Aziz &amp; Mubashara</t>
-  </si>
-  <si>
-    <t>IS-D                                               Dr. Fahad</t>
-  </si>
-  <si>
-    <t>MM Gr2(D,E,F,G)                                         Asiya</t>
-  </si>
-  <si>
-    <t>DB-Lab E                                                                                                                              Ammara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRS-I                                 Dr. Shahzad                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRS-D                                              Dr. Shahzad                                          </t>
-  </si>
-  <si>
-    <t>Lab-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOAD-Lab A                                                                                                            Tooba         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOAD-Lab G                                                                                                                              Awais      </t>
-  </si>
-  <si>
-    <t>Algo-F                                                                               Zeeshan</t>
-  </si>
-  <si>
-    <t>OOAD-G                                                               Rubab</t>
-  </si>
-  <si>
-    <t>Psych-Gr3(E,F,G)                                Sumaira</t>
-  </si>
-  <si>
-    <t>OS Lab- Gr4(G)                                                                                                                                                                                         Summiyah</t>
-  </si>
-  <si>
-    <t>PF-Lab D(D1+D2)                                                                                                                                           Farah &amp; Irfan</t>
-  </si>
-  <si>
-    <t>PF-Lab E(E1+E2)                                                                                                                                   Rahemeen &amp; Faheem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOAD-Lab D                                                                                                                                                           Nadeem            </t>
-  </si>
-  <si>
-    <t>Course Planning:Gr1(A,B,C), Gr2(D,E,F,G)                                              Mr. Ubaid Aftab Chawla(Gr1,Gr2)</t>
-  </si>
-  <si>
-    <t>CS Elective Track-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Introduction to project Management                          OR                              Information Processing Techniques</t>
-  </si>
-  <si>
-    <t>CS Elective Track-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Data Science                                                               OR                              Introdution to Cloud Computing</t>
-  </si>
-  <si>
-    <t>CS Elective Track-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIT-F                                           Ali Naqvi </t>
-  </si>
-  <si>
-    <t>ISPM-Gr2                                  Ubaid</t>
-  </si>
-  <si>
-    <t>HCI-E                                  Behraj</t>
-  </si>
-  <si>
-    <t>HCI-A                                   Behraj</t>
-  </si>
-  <si>
-    <t>IS-F                                          Dr. Fahad</t>
-  </si>
-  <si>
-    <t>HCI-F                                                  Dr. Rauf</t>
-  </si>
-  <si>
-    <t>Course Planning: Gr1(A,B,C,D,E,F,G,H,I)                                                                                         Mr. Amanullah (Gr1)</t>
-  </si>
-  <si>
-    <t>DSci-Gr1                                   Dr. Zeeshan</t>
-  </si>
-  <si>
-    <t>DSci-Gr2                                  Dr. Zeeshan</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>CR-11</t>
-  </si>
-  <si>
-    <t>Eng-Lab I2                                                                                            Kishwar</t>
-  </si>
-  <si>
-    <t>Discrete-A                            Shoaib Raza</t>
-  </si>
-  <si>
-    <t>FA-Gr2(D,E,F,G)                                         Ahsan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Nouman Durani (A,C), Mr. Nadeem Kafi (E,G) , Mr. M. Danish Khan (B,D,F) , </t>
-  </si>
-  <si>
-    <t>COAL-A                                  Dr. Nouman</t>
-  </si>
-  <si>
-    <t>COAL-G                               Nadeem kafi</t>
-  </si>
-  <si>
-    <t>COAL-C                                    Dr. Nouman</t>
-  </si>
-  <si>
-    <t>COAL-C                                                          Dr. Nouman</t>
-  </si>
-  <si>
-    <t>Psych-Gr3(E,F,G)                               Sumaira</t>
-  </si>
-  <si>
-    <t>Psych-Gr2(C,D)                         Sumaira</t>
-  </si>
-  <si>
-    <t>COAL Lab-C                                                                                                                                     Zain</t>
-  </si>
-  <si>
-    <t>LA-B                                                          Fareeha</t>
-  </si>
-  <si>
-    <t>Discrete-G                                             Dr. Nouman</t>
-  </si>
-  <si>
-    <t>COAL-F                                                                   Danish</t>
-  </si>
-  <si>
-    <t>Discrete-D                                               Dr. Nouman</t>
-  </si>
-  <si>
-    <t>COAL-A                                                                   Dr. Nouman</t>
-  </si>
-  <si>
-    <t>COAL-C                                                                      Dr. Nouman</t>
-  </si>
-  <si>
-    <t>COAL-B                                                         Danish</t>
-  </si>
-  <si>
-    <t>LA-E                                                                              Javeria</t>
-  </si>
-  <si>
-    <t>LA-E                                                                Javeria</t>
-  </si>
-  <si>
-    <t>LA-G                                                        Dr. Sadaqat</t>
-  </si>
-  <si>
-    <t>Discrete-F                                         Dr. Jalaluddin</t>
-  </si>
-  <si>
-    <t>Eng-Lab A1  &amp;  A2                                           Hubrah</t>
-  </si>
-  <si>
-    <t>Eng-Lab C1   &amp;   C2                                                  Kishwar</t>
-  </si>
-  <si>
-    <t>CN-Gr1                                   Shahbaz</t>
-  </si>
-  <si>
-    <t>Eng-Lab B1  &amp;  B2                                                Hubrah</t>
-  </si>
-  <si>
-    <t>COAL Lab-F                                                                                                                                     Abdul khaliq</t>
-  </si>
-  <si>
-    <t>Course Planning:Gr1(A,B,C,D,E,F,G)                                             Mr. Shahbaz Siddiqui (Gr1)</t>
-  </si>
-  <si>
-    <t>Course Planning:Gr1(A,B,C,D,E,F,G)                                                        Dr. Tahir Qasim Syed</t>
-  </si>
-  <si>
-    <t>CS452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep Learning for perception                                                                           Day: Friday                                                                   Timings:                                                      Section-Gr1       5:00pm - 8:00pm                                                                          </t>
-  </si>
-  <si>
-    <t>DLP</t>
-  </si>
-  <si>
-    <t>CITY CAMPUS ELECTIVE COURSES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course Planning:Gr1(A,B,C), Gr2(D,E,F,G)                                 Mr. Syed Yousuf(Gr1,Gr2) </t>
-  </si>
-  <si>
-    <t>SS127</t>
-  </si>
-  <si>
-    <t>Scio</t>
-  </si>
-  <si>
-    <t>Course Planning:Gr1(A,B,C,D,E,F,G)                                   Dr. Usman (Gr1)</t>
-  </si>
-  <si>
-    <t>CS Elective Track-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Design Defects and Restructuring                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep Learning for perception         </t>
-  </si>
-  <si>
-    <t>Eng-Lab E1 &amp; E2                                                                      Hubrah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eng-I2                                                JavedIqbal                               </t>
-  </si>
-  <si>
-    <t>Eng-Lab F1 &amp; F2                                                                          Kishwar</t>
-  </si>
-  <si>
-    <t>ICT-Lab E                                                                                      Abdul Aziz</t>
-  </si>
-  <si>
-    <t>New Building Auditorium</t>
-  </si>
-  <si>
-    <t>Eng-Lab H1  &amp;  H2                                                                              Kishwar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR-Gr1                             Asma    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR-Gr1                                  Asma    </t>
-  </si>
-  <si>
-    <t>CN-Gr1                               Shahbaz</t>
-  </si>
-  <si>
-    <t>ICT-Lab(All Sections)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethics-Gr1                                  Amanullah                                        </t>
-  </si>
-  <si>
-    <t>CN-Gr1  Lab                                                                                                                                        Faizan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eng-I2                                                Javed  Iqbal                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP-I                                                Rabia                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP-E                                Rabia                                         </t>
-  </si>
-  <si>
-    <t>Mr. M. Shahzad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sociology(Offered in BBA Dept.)                              Day &amp; Timings:                                                            Monday  (12:00-12:55/CR9)                                    Tuesday  (9:00-10:55/CR9)              </t>
-  </si>
-  <si>
-    <t>SS/MG/MT ELECTIVES (OPT any ONE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eng-I2                                                Javed Iqbal                                 </t>
-  </si>
-  <si>
-    <t>PIT-G                                     Khalid</t>
-  </si>
-  <si>
-    <t>Mr. Shoaib Raza(Gr1),Mr. Abdul Rehman(Gr2)</t>
-  </si>
-  <si>
-    <t>Ms. Hubrah Razi(A1,A2,B1,B2,D2,E1,E2,G2,I1),                           Ms. Kishwar Nazli(C1,C2,D1,F1,F2,G1,H1,H2,I2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eng-G2                                                Afsheen                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eng-G2                                                Afsheen                            </t>
-  </si>
-  <si>
-    <t>Ms. Nazia Imam (B1,D1,F1), Ms. Faiza Mumtaz (A1,C1,E1), Mr. Javed Iqbal (A2,C2,E2,I2), Mr. Ahmed Bux (B2,D2,H1), Ms. Hafsa Yusra (F2,I1), Ms. Sabeen Amjad (H2,G1),Ms. Afsheen Zehra(G2)</t>
-  </si>
-  <si>
-    <t>08th October 2018</t>
-  </si>
-  <si>
-    <t>05th October 2018</t>
+    <t>Dr. M. Rafi (B,D,F) , Ms. Nida Pervaiz ( A,C,E,G)</t>
+  </si>
+  <si>
+    <t>15th October 2018</t>
+  </si>
+  <si>
+    <t>12th October 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2468,6 +2477,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="29">
     <fill>
@@ -3831,9 +3846,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4206,22 +4218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4247,19 +4244,22 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4304,6 +4304,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4643,6 +4658,144 @@
     <xf numFmtId="0" fontId="25" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4745,142 +4898,43 @@
     <xf numFmtId="0" fontId="20" fillId="18" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4906,58 +4960,7 @@
     <xf numFmtId="0" fontId="53" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4980,6 +4983,9 @@
     <xf numFmtId="0" fontId="26" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4995,34 +5001,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5034,10 +5019,34 @@
     <xf numFmtId="0" fontId="26" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5056,6 +5065,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder=